--- a/uno/uno_record.xlsx
+++ b/uno/uno_record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ren\Desktop\色々\Data\Discord\HONDA Bot\uno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA63F49D-E09E-4F56-8103-A044269609A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B6290C5-29FB-4667-AB53-69D682D172E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Records" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>Player ID</t>
   </si>
@@ -50,7 +50,13 @@
     <t>Last 5</t>
   </si>
   <si>
+    <t>Point History</t>
+  </si>
+  <si>
     <t>193407417256640512</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>573870933236776960</t>
@@ -80,19 +86,25 @@
     <t>657835936071286784</t>
   </si>
   <si>
-    <t>Point History</t>
+    <t>-100</t>
   </si>
   <si>
-    <t>0</t>
-    <phoneticPr fontId="2"/>
+    <t>559289569825259521</t>
   </si>
   <si>
-    <t>Penalty</t>
-    <phoneticPr fontId="2"/>
+    <t>734340367838740561</t>
   </si>
   <si>
-    <t>-100</t>
-    <phoneticPr fontId="2"/>
+    <t>699612508763193425</t>
+  </si>
+  <si>
+    <t>703831366332317756</t>
+  </si>
+  <si>
+    <t>726345969204985869</t>
+  </si>
+  <si>
+    <t>582616639820922939</t>
   </si>
 </sst>
 </file>
@@ -159,7 +171,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -170,25 +182,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -520,33 +526,33 @@
     <col min="10" max="10" width="9.375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -554,25 +560,25 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="str">
+      <c r="B2" s="6" t="str">
         <f>IF(History!A2&lt;&gt;"",History!A2,"")</f>
         <v>193407417256640512</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="4">
         <f>IF(History!A2&lt;&gt;"",SUM(History!2:2),"")</f>
-        <v>-1</v>
-      </c>
-      <c r="D2" s="6">
-        <f>IFERROR(E2/(E2+F2),"")</f>
+        <v>-96</v>
+      </c>
+      <c r="D2" s="7">
+        <f t="shared" ref="D2:D33" si="0">IFERROR(E2/(E2+F2),"")</f>
         <v>0</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="4">
         <f>IF(History!A2&lt;&gt;0,COUNTIF(History!2:2,"&gt;0"),"")</f>
         <v>0</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <f>IF(History!A2&lt;&gt;0,COUNTIF(History!2:2,"&lt;=0"),"")</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G2" s="5" t="str">
         <f>IFERROR(LARGE(History!2:2,COUNTIF(History!2:2,"&gt;0")),"")</f>
@@ -582,79 +588,79 @@
         <f>IF(History!A2&lt;&gt;0,SMALL(History!2:2,COUNTIF(History!2:2,"&lt;=0")),"")</f>
         <v>-1</v>
       </c>
-      <c r="I2" s="8" t="str">
+      <c r="I2" s="5" t="str">
         <f>IF(History!A2&lt;&gt;"",History!B2,"")</f>
         <v>0</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="4">
         <f ca="1">SUM(OFFSET(History!C2,0,COUNT(History!2:2)-IF(COUNT(History!2:2)&lt;=5,COUNT(History!2:2),5)):OFFSET(History!C2,0,COUNT(History!2:2)-1))</f>
-        <v>-1</v>
+        <v>-96</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="str">
+      <c r="B3" s="6" t="str">
         <f>IF(History!A3&lt;&gt;"",History!A3,"")</f>
         <v>573870933236776960</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="4">
         <f>IF(History!A3&lt;&gt;"",SUM(History!3:3),"")</f>
-        <v>-40</v>
-      </c>
-      <c r="D3" s="6">
-        <f t="shared" ref="D3:D66" si="0">IFERROR(E3/(E3+F3),"")</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
+        <v>204</v>
+      </c>
+      <c r="D3" s="7">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E3" s="4">
         <f>IF(History!A3&lt;&gt;0,COUNTIF(History!3:3,"&gt;0"),"")</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
         <f>IF(History!A3&lt;&gt;0,COUNTIF(History!3:3,"&lt;=0"),"")</f>
-        <v>1</v>
-      </c>
-      <c r="G3" s="5" t="str">
+        <v>2</v>
+      </c>
+      <c r="G3" s="5">
         <f>IFERROR(LARGE(History!3:3,COUNTIF(History!3:3,"&gt;0")),"")</f>
-        <v/>
+        <v>269</v>
       </c>
       <c r="H3" s="5">
         <f>IF(History!A3&lt;&gt;0,SMALL(History!3:3,COUNTIF(History!3:3,"&lt;=0")),"")</f>
-        <v>-40</v>
-      </c>
-      <c r="I3" s="8" t="str">
+        <v>-25</v>
+      </c>
+      <c r="I3" s="5" t="str">
         <f>IF(History!A3&lt;&gt;"",History!B3,"")</f>
         <v>0</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="4">
         <f ca="1">SUM(OFFSET(History!C3,0,COUNT(History!3:3)-IF(COUNT(History!3:3)&lt;=5,COUNT(History!3:3),5)):OFFSET(History!C3,0,COUNT(History!3:3)-1))</f>
-        <v>-40</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="str">
+      <c r="B4" s="6" t="str">
         <f>IF(History!A4&lt;&gt;"",History!A4,"")</f>
         <v>700027069278716074</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="4">
         <f>IF(History!A4&lt;&gt;"",SUM(History!4:4),"")</f>
-        <v>-2</v>
-      </c>
-      <c r="D4" s="6">
+        <v>-110</v>
+      </c>
+      <c r="D4" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <f>IF(History!A4&lt;&gt;0,COUNTIF(History!4:4,"&gt;0"),"")</f>
         <v>0</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <f>IF(History!A4&lt;&gt;0,COUNTIF(History!4:4,"&lt;=0"),"")</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G4" s="5" t="str">
         <f>IFERROR(LARGE(History!4:4,COUNTIF(History!4:4,"&gt;0")),"")</f>
@@ -664,79 +670,79 @@
         <f>IF(History!A4&lt;&gt;0,SMALL(History!4:4,COUNTIF(History!4:4,"&lt;=0")),"")</f>
         <v>-2</v>
       </c>
-      <c r="I4" s="8" t="str">
+      <c r="I4" s="5" t="str">
         <f>IF(History!A4&lt;&gt;"",History!B4,"")</f>
         <v>0</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="4">
         <f ca="1">SUM(OFFSET(History!C4,0,COUNT(History!4:4)-IF(COUNT(History!4:4)&lt;=5,COUNT(History!4:4),5)):OFFSET(History!C4,0,COUNT(History!4:4)-1))</f>
-        <v>-2</v>
+        <v>-110</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="str">
+      <c r="B5" s="6" t="str">
         <f>IF(History!A5&lt;&gt;"",History!A5,"")</f>
         <v>746782075012644874</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="4">
         <f>IF(History!A5&lt;&gt;"",SUM(History!5:5),"")</f>
-        <v>293</v>
-      </c>
-      <c r="D5" s="6">
+        <v>152</v>
+      </c>
+      <c r="D5" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E5" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E5" s="4">
         <f>IF(History!A5&lt;&gt;0,COUNTIF(History!5:5,"&gt;0"),"")</f>
         <v>1</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <f>IF(History!A5&lt;&gt;0,COUNTIF(History!5:5,"&lt;=0"),"")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5" s="5">
         <f>IFERROR(LARGE(History!5:5,COUNTIF(History!5:5,"&gt;0")),"")</f>
         <v>293</v>
       </c>
-      <c r="H5" s="5" t="str">
+      <c r="H5" s="5">
         <f>IFERROR(SMALL(History!5:5,COUNTIF(History!5:5,"&lt;=0")),"")</f>
-        <v/>
-      </c>
-      <c r="I5" s="8" t="str">
+        <v>-12</v>
+      </c>
+      <c r="I5" s="5" t="str">
         <f>IF(History!A5&lt;&gt;"",History!B5,"")</f>
         <v>0</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="4">
         <f ca="1">SUM(OFFSET(History!C5,0,COUNT(History!5:5)-IF(COUNT(History!5:5)&lt;=5,COUNT(History!5:5),5)):OFFSET(History!C5,0,COUNT(History!5:5)-1))</f>
-        <v>293</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="str">
+      <c r="B6" s="6" t="str">
         <f>IF(History!A6&lt;&gt;"",History!A6,"")</f>
         <v>587660412212740106</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="4">
         <f>IF(History!A6&lt;&gt;"",SUM(History!6:6),"")</f>
-        <v>-44</v>
-      </c>
-      <c r="D6" s="6">
+        <v>-120</v>
+      </c>
+      <c r="D6" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <f>IF(History!A6&lt;&gt;0,COUNTIF(History!6:6,"&gt;0"),"")</f>
         <v>0</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <f>IF(History!A6&lt;&gt;0,COUNTIF(History!6:6,"&lt;=0"),"")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="5" t="str">
         <f>IFERROR(LARGE(History!6:6,COUNTIF(History!6:6,"&gt;0")),"")</f>
@@ -746,38 +752,38 @@
         <f>IFERROR(SMALL(History!6:6,COUNTIF(History!6:6,"&lt;=0")),"")</f>
         <v>-44</v>
       </c>
-      <c r="I6" s="8" t="str">
+      <c r="I6" s="5" t="str">
         <f>IF(History!A6&lt;&gt;"",History!B6,"")</f>
         <v>0</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="4">
         <f ca="1">SUM(OFFSET(History!C6,0,COUNT(History!6:6)-IF(COUNT(History!6:6)&lt;=5,COUNT(History!6:6),5)):OFFSET(History!C6,0,COUNT(History!6:6)-1))</f>
-        <v>-44</v>
+        <v>-120</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="str">
+      <c r="B7" s="6" t="str">
         <f>IF(History!A7&lt;&gt;"",History!A7,"")</f>
         <v>598600835664183297</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="4">
         <f>IF(History!A7&lt;&gt;"",SUM(History!7:7),"")</f>
-        <v>-71</v>
-      </c>
-      <c r="D7" s="6">
+        <v>-156</v>
+      </c>
+      <c r="D7" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <f>IF(History!A7&lt;&gt;0,COUNTIF(History!7:7,"&gt;0"),"")</f>
         <v>0</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <f>IF(History!A7&lt;&gt;0,COUNTIF(History!7:7,"&lt;=0"),"")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7" s="5" t="str">
         <f>IFERROR(LARGE(History!7:7,COUNTIF(History!7:7,"&gt;0")),"")</f>
@@ -785,40 +791,40 @@
       </c>
       <c r="H7" s="5">
         <f>IFERROR(SMALL(History!7:7,COUNTIF(History!7:7,"&lt;=0")),"")</f>
-        <v>-71</v>
-      </c>
-      <c r="I7" s="8" t="str">
+        <v>-14</v>
+      </c>
+      <c r="I7" s="5" t="str">
         <f>IF(History!A7&lt;&gt;"",History!B7,"")</f>
         <v>0</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="4">
         <f ca="1">SUM(OFFSET(History!C7,0,COUNT(History!7:7)-IF(COUNT(History!7:7)&lt;=5,COUNT(History!7:7),5)):OFFSET(History!C7,0,COUNT(History!7:7)-1))</f>
-        <v>-71</v>
+        <v>-156</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="str">
+      <c r="B8" s="6" t="str">
         <f>IF(History!A8&lt;&gt;"",History!A8,"")</f>
         <v>758948042946248755</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="4">
         <f>IF(History!A8&lt;&gt;"",SUM(History!8:8),"")</f>
-        <v>-102</v>
-      </c>
-      <c r="D8" s="6">
+        <v>-108</v>
+      </c>
+      <c r="D8" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="4">
         <f>IF(History!A8&lt;&gt;0,COUNTIF(History!8:8,"&gt;0"),"")</f>
         <v>0</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <f>IF(History!A8&lt;&gt;0,COUNTIF(History!8:8,"&lt;=0"),"")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" s="5" t="str">
         <f>IFERROR(LARGE(History!8:8,COUNTIF(History!8:8,"&gt;0")),"")</f>
@@ -826,40 +832,40 @@
       </c>
       <c r="H8" s="5">
         <f>IFERROR(SMALL(History!8:8,COUNTIF(History!8:8,"&lt;=0")),"")</f>
-        <v>-102</v>
-      </c>
-      <c r="I8" s="8" t="str">
+        <v>-6</v>
+      </c>
+      <c r="I8" s="5" t="str">
         <f>IF(History!A8&lt;&gt;"",History!B8,"")</f>
         <v>0</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="4">
         <f ca="1">SUM(OFFSET(History!C8,0,COUNT(History!8:8)-IF(COUNT(History!8:8)&lt;=5,COUNT(History!8:8),5)):OFFSET(History!C8,0,COUNT(History!8:8)-1))</f>
-        <v>-102</v>
+        <v>-108</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="str">
+      <c r="B9" s="6" t="str">
         <f>IF(History!A9&lt;&gt;"",History!A9,"")</f>
         <v>700031411049988197</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="4">
         <f>IF(History!A9&lt;&gt;"",SUM(History!9:9),"")</f>
-        <v>-8</v>
-      </c>
-      <c r="D9" s="6">
+        <v>-82</v>
+      </c>
+      <c r="D9" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <f>IF(History!A9&lt;&gt;0,COUNTIF(History!9:9,"&gt;0"),"")</f>
         <v>0</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <f>IF(History!A9&lt;&gt;0,COUNTIF(History!9:9,"&lt;=0"),"")</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G9" s="5" t="str">
         <f>IFERROR(LARGE(History!9:9,COUNTIF(History!9:9,"&gt;0")),"")</f>
@@ -869,36 +875,36 @@
         <f>IFERROR(SMALL(History!9:9,COUNTIF(History!9:9,"&lt;=0")),"")</f>
         <v>-8</v>
       </c>
-      <c r="I9" s="8" t="str">
+      <c r="I9" s="5" t="str">
         <f>IF(History!A9&lt;&gt;"",History!B9,"")</f>
         <v>0</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="4">
         <f ca="1">SUM(OFFSET(History!C9,0,COUNT(History!9:9)-IF(COUNT(History!9:9)&lt;=5,COUNT(History!9:9),5)):OFFSET(History!C9,0,COUNT(History!9:9)-1))</f>
-        <v>-8</v>
+        <v>-82</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="str">
+      <c r="B10" s="6" t="str">
         <f>IF(History!A10&lt;&gt;"",History!A10,"")</f>
         <v>612167459201351686</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="4">
         <f>IF(History!A10&lt;&gt;"",SUM(History!10:10),"")</f>
         <v>-25</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="4">
         <f>IF(History!A10&lt;&gt;0,COUNTIF(History!10:10,"&gt;0"),"")</f>
         <v>0</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="4">
         <f>IF(History!A10&lt;&gt;0,COUNTIF(History!10:10,"&lt;=0"),"")</f>
         <v>1</v>
       </c>
@@ -910,11 +916,11 @@
         <f>IFERROR(SMALL(History!10:10,COUNTIF(History!10:10,"&lt;=0")),"")</f>
         <v>-25</v>
       </c>
-      <c r="I10" s="8" t="str">
+      <c r="I10" s="5" t="str">
         <f>IF(History!A10&lt;&gt;"",History!B10,"")</f>
         <v>0</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="4">
         <f ca="1">SUM(OFFSET(History!C10,0,COUNT(History!10:10)-IF(COUNT(History!10:10)&lt;=5,COUNT(History!10:10),5)):OFFSET(History!C10,0,COUNT(History!10:10)-1))</f>
         <v>-25</v>
       </c>
@@ -923,23 +929,23 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="str">
+      <c r="B11" s="6" t="str">
         <f>IF(History!A11&lt;&gt;"",History!A11,"")</f>
         <v>657835936071286784</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="4">
         <f>IF(History!A11&lt;&gt;"",SUM(History!11:11),"")</f>
         <v>-140</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="4">
         <f>IF(History!A11&lt;&gt;0,COUNTIF(History!11:11,"&gt;0"),"")</f>
         <v>0</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="4">
         <f>IF(History!A11&lt;&gt;0,COUNTIF(History!11:11,"&lt;=0"),"")</f>
         <v>1</v>
       </c>
@@ -951,11 +957,11 @@
         <f>IFERROR(SMALL(History!11:11,COUNTIF(History!11:11,"&lt;=0")),"")</f>
         <v>-140</v>
       </c>
-      <c r="I11" s="8" t="str">
+      <c r="I11" s="5" t="str">
         <f>IF(History!A11&lt;&gt;"",History!B11,"")</f>
         <v>-100</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="4">
         <f ca="1">IF(History!A11&lt;&gt;"",SUM(OFFSET(History!C11,0,COUNT(History!11:11)-IF(COUNT(History!11:11)&lt;=5,COUNT(History!11:11),5)):OFFSET(History!C11,0,COUNT(History!11:11)-1)),"")</f>
         <v>-140</v>
       </c>
@@ -964,269 +970,269 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="str">
+      <c r="B12" s="6" t="str">
         <f>IF(History!A12&lt;&gt;"",History!A12,"")</f>
-        <v/>
-      </c>
-      <c r="C12" s="7" t="str">
+        <v>559289569825259521</v>
+      </c>
+      <c r="C12" s="4">
         <f>IF(History!A12&lt;&gt;"",SUM(History!12:12),"")</f>
-        <v/>
-      </c>
-      <c r="D12" s="6" t="str">
+        <v>143</v>
+      </c>
+      <c r="D12" s="7">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E12" s="3" t="str">
+        <v>0.25</v>
+      </c>
+      <c r="E12" s="4">
         <f>IF(History!A12&lt;&gt;0,COUNTIF(History!12:12,"&gt;0"),"")</f>
-        <v/>
-      </c>
-      <c r="F12" s="3" t="str">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
         <f>IF(History!A12&lt;&gt;0,COUNTIF(History!12:12,"&lt;=0"),"")</f>
-        <v/>
-      </c>
-      <c r="G12" s="5" t="str">
+        <v>3</v>
+      </c>
+      <c r="G12" s="5">
         <f>IFERROR(LARGE(History!12:12,COUNTIF(History!12:12,"&gt;0")),"")</f>
-        <v/>
-      </c>
-      <c r="H12" s="5" t="str">
+        <v>255</v>
+      </c>
+      <c r="H12" s="5">
         <f>IFERROR(SMALL(History!12:12,COUNTIF(History!12:12,"&lt;=0")),"")</f>
-        <v/>
-      </c>
-      <c r="I12" s="8" t="str">
+        <v>-11</v>
+      </c>
+      <c r="I12" s="5" t="str">
         <f>IF(History!A12&lt;&gt;"",History!B12,"")</f>
-        <v/>
-      </c>
-      <c r="J12" s="7" t="str">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
         <f ca="1">IF(History!A12&lt;&gt;"",SUM(OFFSET(History!C12,0,COUNT(History!12:12)-IF(COUNT(History!12:12)&lt;=5,COUNT(History!12:12),5)):OFFSET(History!C12,0,COUNT(History!12:12)-1)),"")</f>
-        <v/>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="str">
+      <c r="B13" s="6" t="str">
         <f>IF(History!A13&lt;&gt;"",History!A13,"")</f>
-        <v/>
-      </c>
-      <c r="C13" s="7" t="str">
+        <v>734340367838740561</v>
+      </c>
+      <c r="C13" s="4">
         <f>IF(History!A13&lt;&gt;"",SUM(History!13:13),"")</f>
-        <v/>
-      </c>
-      <c r="D13" s="6" t="str">
+        <v>-1430</v>
+      </c>
+      <c r="D13" s="7">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E13" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
         <f>IF(History!A13&lt;&gt;0,COUNTIF(History!13:13,"&gt;0"),"")</f>
-        <v/>
-      </c>
-      <c r="F13" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
         <f>IF(History!A13&lt;&gt;0,COUNTIF(History!13:13,"&lt;=0"),"")</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="G13" s="5" t="str">
         <f>IFERROR(LARGE(History!13:13,COUNTIF(History!13:13,"&gt;0")),"")</f>
         <v/>
       </c>
-      <c r="H13" s="5" t="str">
+      <c r="H13" s="5">
         <f>IFERROR(SMALL(History!13:13,COUNTIF(History!13:13,"&lt;=0")),"")</f>
-        <v/>
-      </c>
-      <c r="I13" s="8" t="str">
+        <v>-4</v>
+      </c>
+      <c r="I13" s="5">
         <f>IF(History!A13&lt;&gt;"",History!B13,"")</f>
-        <v/>
-      </c>
-      <c r="J13" s="7" t="str">
+        <v>-100</v>
+      </c>
+      <c r="J13" s="4">
         <f ca="1">IF(History!A13&lt;&gt;"",SUM(OFFSET(History!C13,0,COUNT(History!13:13)-IF(COUNT(History!13:13)&lt;=5,COUNT(History!13:13),5)):OFFSET(History!C13,0,COUNT(History!13:13)-1)),"")</f>
-        <v/>
+        <v>-1330</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="9" t="str">
+      <c r="B14" s="6" t="str">
         <f>IF(History!A14&lt;&gt;"",History!A14,"")</f>
-        <v/>
-      </c>
-      <c r="C14" s="7" t="str">
+        <v>699612508763193425</v>
+      </c>
+      <c r="C14" s="4">
         <f>IF(History!A14&lt;&gt;"",SUM(History!14:14),"")</f>
-        <v/>
-      </c>
-      <c r="D14" s="6" t="str">
+        <v>-81</v>
+      </c>
+      <c r="D14" s="7">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E14" s="3" t="str">
+        <v>0.2</v>
+      </c>
+      <c r="E14" s="4">
         <f>IF(History!A14&lt;&gt;0,COUNTIF(History!14:14,"&gt;0"),"")</f>
-        <v/>
-      </c>
-      <c r="F14" s="3" t="str">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4">
         <f>IF(History!A14&lt;&gt;0,COUNTIF(History!14:14,"&lt;=0"),"")</f>
-        <v/>
-      </c>
-      <c r="G14" s="5" t="str">
+        <v>4</v>
+      </c>
+      <c r="G14" s="5">
         <f>IFERROR(LARGE(History!14:14,COUNTIF(History!14:14,"&gt;0")),"")</f>
-        <v/>
-      </c>
-      <c r="H14" s="5" t="str">
+        <v>286</v>
+      </c>
+      <c r="H14" s="5">
         <f>IFERROR(SMALL(History!14:14,COUNTIF(History!14:14,"&lt;=0")),"")</f>
-        <v/>
-      </c>
-      <c r="I14" s="8" t="str">
+        <v>-27</v>
+      </c>
+      <c r="I14" s="5">
         <f>IF(History!A14&lt;&gt;"",History!B14,"")</f>
-        <v/>
-      </c>
-      <c r="J14" s="7" t="str">
+        <v>-100</v>
+      </c>
+      <c r="J14" s="4">
         <f ca="1">IF(History!A14&lt;&gt;"",SUM(OFFSET(History!C14,0,COUNT(History!14:14)-IF(COUNT(History!14:14)&lt;=5,COUNT(History!14:14),5)):OFFSET(History!C14,0,COUNT(History!14:14)-1)),"")</f>
-        <v/>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="9" t="str">
+      <c r="B15" s="6" t="str">
         <f>IF(History!A15&lt;&gt;"",History!A15,"")</f>
-        <v/>
-      </c>
-      <c r="C15" s="7" t="str">
+        <v>703831366332317756</v>
+      </c>
+      <c r="C15" s="4">
         <f>IF(History!A15&lt;&gt;"",SUM(History!15:15),"")</f>
-        <v/>
-      </c>
-      <c r="D15" s="6" t="str">
+        <v>110</v>
+      </c>
+      <c r="D15" s="7">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E15" s="3" t="str">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E15" s="4">
         <f>IF(History!A15&lt;&gt;0,COUNTIF(History!15:15,"&gt;0"),"")</f>
-        <v/>
-      </c>
-      <c r="F15" s="3" t="str">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4">
         <f>IF(History!A15&lt;&gt;0,COUNTIF(History!15:15,"&lt;=0"),"")</f>
-        <v/>
-      </c>
-      <c r="G15" s="5" t="str">
+        <v>2</v>
+      </c>
+      <c r="G15" s="5">
         <f>IFERROR(LARGE(History!15:15,COUNTIF(History!15:15,"&gt;0")),"")</f>
-        <v/>
-      </c>
-      <c r="H15" s="5" t="str">
+        <v>158</v>
+      </c>
+      <c r="H15" s="5">
         <f>IFERROR(SMALL(History!15:15,COUNTIF(History!15:15,"&lt;=0")),"")</f>
-        <v/>
-      </c>
-      <c r="I15" s="8" t="str">
+        <v>-16</v>
+      </c>
+      <c r="I15" s="5" t="str">
         <f>IF(History!A15&lt;&gt;"",History!B15,"")</f>
-        <v/>
-      </c>
-      <c r="J15" s="7" t="str">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
         <f ca="1">IF(History!A15&lt;&gt;"",SUM(OFFSET(History!C15,0,COUNT(History!15:15)-IF(COUNT(History!15:15)&lt;=5,COUNT(History!15:15),5)):OFFSET(History!C15,0,COUNT(History!15:15)-1)),"")</f>
-        <v/>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="str">
+      <c r="B16" s="6" t="str">
         <f>IF(History!A16&lt;&gt;"",History!A16,"")</f>
-        <v/>
-      </c>
-      <c r="C16" s="7" t="str">
+        <v>726345969204985869</v>
+      </c>
+      <c r="C16" s="4">
         <f>IF(History!A16&lt;&gt;"",SUM(History!16:16),"")</f>
-        <v/>
-      </c>
-      <c r="D16" s="6" t="str">
+        <v>-53</v>
+      </c>
+      <c r="D16" s="7">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E16" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
         <f>IF(History!A16&lt;&gt;0,COUNTIF(History!16:16,"&gt;0"),"")</f>
-        <v/>
-      </c>
-      <c r="F16" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
         <f>IF(History!A16&lt;&gt;0,COUNTIF(History!16:16,"&lt;=0"),"")</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="G16" s="5" t="str">
         <f>IFERROR(LARGE(History!16:16,COUNTIF(History!16:16,"&gt;0")),"")</f>
         <v/>
       </c>
-      <c r="H16" s="5" t="str">
+      <c r="H16" s="5">
         <f>IFERROR(SMALL(History!16:16,COUNTIF(History!16:16,"&lt;=0")),"")</f>
-        <v/>
-      </c>
-      <c r="I16" s="8" t="str">
+        <v>-21</v>
+      </c>
+      <c r="I16" s="5" t="str">
         <f>IF(History!A16&lt;&gt;"",History!B16,"")</f>
-        <v/>
-      </c>
-      <c r="J16" s="7" t="str">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
         <f ca="1">IF(History!A16&lt;&gt;"",SUM(OFFSET(History!C16,0,COUNT(History!16:16)-IF(COUNT(History!16:16)&lt;=5,COUNT(History!16:16),5)):OFFSET(History!C16,0,COUNT(History!16:16)-1)),"")</f>
-        <v/>
+        <v>-53</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="9" t="str">
+      <c r="B17" s="6" t="str">
         <f>IF(History!A17&lt;&gt;"",History!A17,"")</f>
-        <v/>
-      </c>
-      <c r="C17" s="7" t="str">
+        <v>582616639820922939</v>
+      </c>
+      <c r="C17" s="4">
         <f>IF(History!A17&lt;&gt;"",SUM(History!17:17),"")</f>
-        <v/>
-      </c>
-      <c r="D17" s="6" t="str">
+        <v>-29</v>
+      </c>
+      <c r="D17" s="7">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E17" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
         <f>IF(History!A17&lt;&gt;0,COUNTIF(History!17:17,"&gt;0"),"")</f>
-        <v/>
-      </c>
-      <c r="F17" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
         <f>IF(History!A17&lt;&gt;0,COUNTIF(History!17:17,"&lt;=0"),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G17" s="5" t="str">
         <f>IFERROR(LARGE(History!17:17,COUNTIF(History!17:17,"&gt;0")),"")</f>
         <v/>
       </c>
-      <c r="H17" s="5" t="str">
+      <c r="H17" s="5">
         <f>IFERROR(SMALL(History!17:17,COUNTIF(History!17:17,"&lt;=0")),"")</f>
-        <v/>
-      </c>
-      <c r="I17" s="8" t="str">
+        <v>-29</v>
+      </c>
+      <c r="I17" s="5" t="str">
         <f>IF(History!A17&lt;&gt;"",History!B17,"")</f>
-        <v/>
-      </c>
-      <c r="J17" s="7" t="str">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
         <f ca="1">IF(History!A17&lt;&gt;"",SUM(OFFSET(History!C17,0,COUNT(History!17:17)-IF(COUNT(History!17:17)&lt;=5,COUNT(History!17:17),5)):OFFSET(History!C17,0,COUNT(History!17:17)-1)),"")</f>
-        <v/>
+        <v>-29</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="9" t="str">
+      <c r="B18" s="6" t="str">
         <f>IF(History!A18&lt;&gt;"",History!A18,"")</f>
         <v/>
       </c>
-      <c r="C18" s="7" t="str">
+      <c r="C18" s="4" t="str">
         <f>IF(History!A18&lt;&gt;"",SUM(History!18:18),"")</f>
         <v/>
       </c>
-      <c r="D18" s="6" t="str">
+      <c r="D18" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E18" s="3" t="str">
+      <c r="E18" s="4" t="str">
         <f>IF(History!A18&lt;&gt;0,COUNTIF(History!18:18,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F18" s="3" t="str">
+      <c r="F18" s="4" t="str">
         <f>IF(History!A18&lt;&gt;0,COUNTIF(History!18:18,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -1238,11 +1244,11 @@
         <f>IFERROR(SMALL(History!18:18,COUNTIF(History!18:18,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I18" s="8" t="str">
+      <c r="I18" s="5" t="str">
         <f>IF(History!A18&lt;&gt;"",History!B18,"")</f>
         <v/>
       </c>
-      <c r="J18" s="7" t="str">
+      <c r="J18" s="4" t="str">
         <f ca="1">IF(History!A18&lt;&gt;"",SUM(OFFSET(History!C18,0,COUNT(History!18:18)-IF(COUNT(History!18:18)&lt;=5,COUNT(History!18:18),5)):OFFSET(History!C18,0,COUNT(History!18:18)-1)),"")</f>
         <v/>
       </c>
@@ -1251,23 +1257,23 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="9" t="str">
+      <c r="B19" s="6" t="str">
         <f>IF(History!A19&lt;&gt;"",History!A19,"")</f>
         <v/>
       </c>
-      <c r="C19" s="7" t="str">
+      <c r="C19" s="4" t="str">
         <f>IF(History!A19&lt;&gt;"",SUM(History!19:19),"")</f>
         <v/>
       </c>
-      <c r="D19" s="6" t="str">
+      <c r="D19" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E19" s="3" t="str">
+      <c r="E19" s="4" t="str">
         <f>IF(History!A19&lt;&gt;0,COUNTIF(History!19:19,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F19" s="3" t="str">
+      <c r="F19" s="4" t="str">
         <f>IF(History!A19&lt;&gt;0,COUNTIF(History!19:19,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -1279,11 +1285,11 @@
         <f>IFERROR(SMALL(History!19:19,COUNTIF(History!19:19,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I19" s="8" t="str">
+      <c r="I19" s="5" t="str">
         <f>IF(History!A19&lt;&gt;"",History!B19,"")</f>
         <v/>
       </c>
-      <c r="J19" s="7" t="str">
+      <c r="J19" s="4" t="str">
         <f ca="1">IF(History!A19&lt;&gt;"",SUM(OFFSET(History!C19,0,COUNT(History!19:19)-IF(COUNT(History!19:19)&lt;=5,COUNT(History!19:19),5)):OFFSET(History!C19,0,COUNT(History!19:19)-1)),"")</f>
         <v/>
       </c>
@@ -1292,23 +1298,23 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="9" t="str">
+      <c r="B20" s="6" t="str">
         <f>IF(History!A20&lt;&gt;"",History!A20,"")</f>
         <v/>
       </c>
-      <c r="C20" s="7" t="str">
+      <c r="C20" s="4" t="str">
         <f>IF(History!A20&lt;&gt;"",SUM(History!20:20),"")</f>
         <v/>
       </c>
-      <c r="D20" s="6" t="str">
+      <c r="D20" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E20" s="3" t="str">
+      <c r="E20" s="4" t="str">
         <f>IF(History!A20&lt;&gt;0,COUNTIF(History!20:20,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F20" s="3" t="str">
+      <c r="F20" s="4" t="str">
         <f>IF(History!A20&lt;&gt;0,COUNTIF(History!20:20,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -1320,11 +1326,11 @@
         <f>IFERROR(SMALL(History!20:20,COUNTIF(History!20:20,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I20" s="8" t="str">
+      <c r="I20" s="5" t="str">
         <f>IF(History!A20&lt;&gt;"",History!B20,"")</f>
         <v/>
       </c>
-      <c r="J20" s="7" t="str">
+      <c r="J20" s="4" t="str">
         <f ca="1">IF(History!A20&lt;&gt;"",SUM(OFFSET(History!C20,0,COUNT(History!20:20)-IF(COUNT(History!20:20)&lt;=5,COUNT(History!20:20),5)):OFFSET(History!C20,0,COUNT(History!20:20)-1)),"")</f>
         <v/>
       </c>
@@ -1333,23 +1339,23 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="9" t="str">
+      <c r="B21" s="6" t="str">
         <f>IF(History!A21&lt;&gt;"",History!A21,"")</f>
         <v/>
       </c>
-      <c r="C21" s="7" t="str">
+      <c r="C21" s="4" t="str">
         <f>IF(History!A21&lt;&gt;"",SUM(History!21:21),"")</f>
         <v/>
       </c>
-      <c r="D21" s="6" t="str">
+      <c r="D21" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E21" s="3" t="str">
+      <c r="E21" s="4" t="str">
         <f>IF(History!A21&lt;&gt;0,COUNTIF(History!21:21,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F21" s="3" t="str">
+      <c r="F21" s="4" t="str">
         <f>IF(History!A21&lt;&gt;0,COUNTIF(History!21:21,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -1361,11 +1367,11 @@
         <f>IFERROR(SMALL(History!21:21,COUNTIF(History!21:21,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I21" s="8" t="str">
+      <c r="I21" s="5" t="str">
         <f>IF(History!A21&lt;&gt;"",History!B21,"")</f>
         <v/>
       </c>
-      <c r="J21" s="7" t="str">
+      <c r="J21" s="4" t="str">
         <f ca="1">IF(History!A21&lt;&gt;"",SUM(OFFSET(History!C21,0,COUNT(History!21:21)-IF(COUNT(History!21:21)&lt;=5,COUNT(History!21:21),5)):OFFSET(History!C21,0,COUNT(History!21:21)-1)),"")</f>
         <v/>
       </c>
@@ -1374,23 +1380,23 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="9" t="str">
+      <c r="B22" s="6" t="str">
         <f>IF(History!A22&lt;&gt;"",History!A22,"")</f>
         <v/>
       </c>
-      <c r="C22" s="7" t="str">
+      <c r="C22" s="4" t="str">
         <f>IF(History!A22&lt;&gt;"",SUM(History!22:22),"")</f>
         <v/>
       </c>
-      <c r="D22" s="6" t="str">
+      <c r="D22" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E22" s="3" t="str">
+      <c r="E22" s="4" t="str">
         <f>IF(History!A22&lt;&gt;0,COUNTIF(History!22:22,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F22" s="3" t="str">
+      <c r="F22" s="4" t="str">
         <f>IF(History!A22&lt;&gt;0,COUNTIF(History!22:22,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -1402,11 +1408,11 @@
         <f>IFERROR(SMALL(History!22:22,COUNTIF(History!22:22,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I22" s="8" t="str">
+      <c r="I22" s="5" t="str">
         <f>IF(History!A22&lt;&gt;"",History!B22,"")</f>
         <v/>
       </c>
-      <c r="J22" s="7" t="str">
+      <c r="J22" s="4" t="str">
         <f ca="1">IF(History!A22&lt;&gt;"",SUM(OFFSET(History!C22,0,COUNT(History!22:22)-IF(COUNT(History!22:22)&lt;=5,COUNT(History!22:22),5)):OFFSET(History!C22,0,COUNT(History!22:22)-1)),"")</f>
         <v/>
       </c>
@@ -1415,23 +1421,23 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="9" t="str">
+      <c r="B23" s="6" t="str">
         <f>IF(History!A23&lt;&gt;"",History!A23,"")</f>
         <v/>
       </c>
-      <c r="C23" s="7" t="str">
+      <c r="C23" s="4" t="str">
         <f>IF(History!A23&lt;&gt;"",SUM(History!23:23),"")</f>
         <v/>
       </c>
-      <c r="D23" s="6" t="str">
+      <c r="D23" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E23" s="3" t="str">
+      <c r="E23" s="4" t="str">
         <f>IF(History!A23&lt;&gt;0,COUNTIF(History!23:23,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F23" s="3" t="str">
+      <c r="F23" s="4" t="str">
         <f>IF(History!A23&lt;&gt;0,COUNTIF(History!23:23,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -1443,11 +1449,11 @@
         <f>IFERROR(SMALL(History!23:23,COUNTIF(History!23:23,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I23" s="8" t="str">
+      <c r="I23" s="5" t="str">
         <f>IF(History!A23&lt;&gt;"",History!B23,"")</f>
         <v/>
       </c>
-      <c r="J23" s="7" t="str">
+      <c r="J23" s="4" t="str">
         <f ca="1">IF(History!A23&lt;&gt;"",SUM(OFFSET(History!C23,0,COUNT(History!23:23)-IF(COUNT(History!23:23)&lt;=5,COUNT(History!23:23),5)):OFFSET(History!C23,0,COUNT(History!23:23)-1)),"")</f>
         <v/>
       </c>
@@ -1456,23 +1462,23 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="9" t="str">
+      <c r="B24" s="6" t="str">
         <f>IF(History!A24&lt;&gt;"",History!A24,"")</f>
         <v/>
       </c>
-      <c r="C24" s="7" t="str">
+      <c r="C24" s="4" t="str">
         <f>IF(History!A24&lt;&gt;"",SUM(History!24:24),"")</f>
         <v/>
       </c>
-      <c r="D24" s="6" t="str">
+      <c r="D24" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E24" s="3" t="str">
+      <c r="E24" s="4" t="str">
         <f>IF(History!A24&lt;&gt;0,COUNTIF(History!24:24,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F24" s="3" t="str">
+      <c r="F24" s="4" t="str">
         <f>IF(History!A24&lt;&gt;0,COUNTIF(History!24:24,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -1484,11 +1490,11 @@
         <f>IFERROR(SMALL(History!24:24,COUNTIF(History!24:24,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I24" s="8" t="str">
+      <c r="I24" s="5" t="str">
         <f>IF(History!A24&lt;&gt;"",History!B24,"")</f>
         <v/>
       </c>
-      <c r="J24" s="7" t="str">
+      <c r="J24" s="4" t="str">
         <f ca="1">IF(History!A24&lt;&gt;"",SUM(OFFSET(History!C24,0,COUNT(History!24:24)-IF(COUNT(History!24:24)&lt;=5,COUNT(History!24:24),5)):OFFSET(History!C24,0,COUNT(History!24:24)-1)),"")</f>
         <v/>
       </c>
@@ -1497,23 +1503,23 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="9" t="str">
+      <c r="B25" s="6" t="str">
         <f>IF(History!A25&lt;&gt;"",History!A25,"")</f>
         <v/>
       </c>
-      <c r="C25" s="7" t="str">
+      <c r="C25" s="4" t="str">
         <f>IF(History!A25&lt;&gt;"",SUM(History!25:25),"")</f>
         <v/>
       </c>
-      <c r="D25" s="6" t="str">
+      <c r="D25" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E25" s="3" t="str">
+      <c r="E25" s="4" t="str">
         <f>IF(History!A25&lt;&gt;0,COUNTIF(History!25:25,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F25" s="3" t="str">
+      <c r="F25" s="4" t="str">
         <f>IF(History!A25&lt;&gt;0,COUNTIF(History!25:25,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -1525,11 +1531,11 @@
         <f>IFERROR(SMALL(History!25:25,COUNTIF(History!25:25,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I25" s="8" t="str">
+      <c r="I25" s="5" t="str">
         <f>IF(History!A25&lt;&gt;"",History!B25,"")</f>
         <v/>
       </c>
-      <c r="J25" s="7" t="str">
+      <c r="J25" s="4" t="str">
         <f ca="1">IF(History!A25&lt;&gt;"",SUM(OFFSET(History!C25,0,COUNT(History!25:25)-IF(COUNT(History!25:25)&lt;=5,COUNT(History!25:25),5)):OFFSET(History!C25,0,COUNT(History!25:25)-1)),"")</f>
         <v/>
       </c>
@@ -1538,23 +1544,23 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="9" t="str">
+      <c r="B26" s="6" t="str">
         <f>IF(History!A26&lt;&gt;"",History!A26,"")</f>
         <v/>
       </c>
-      <c r="C26" s="7" t="str">
+      <c r="C26" s="4" t="str">
         <f>IF(History!A26&lt;&gt;"",SUM(History!26:26),"")</f>
         <v/>
       </c>
-      <c r="D26" s="6" t="str">
+      <c r="D26" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E26" s="3" t="str">
+      <c r="E26" s="4" t="str">
         <f>IF(History!A26&lt;&gt;0,COUNTIF(History!26:26,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F26" s="3" t="str">
+      <c r="F26" s="4" t="str">
         <f>IF(History!A26&lt;&gt;0,COUNTIF(History!26:26,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -1566,11 +1572,11 @@
         <f>IFERROR(SMALL(History!26:26,COUNTIF(History!26:26,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I26" s="8" t="str">
+      <c r="I26" s="5" t="str">
         <f>IF(History!A26&lt;&gt;"",History!B26,"")</f>
         <v/>
       </c>
-      <c r="J26" s="7" t="str">
+      <c r="J26" s="4" t="str">
         <f ca="1">IF(History!A26&lt;&gt;"",SUM(OFFSET(History!C26,0,COUNT(History!26:26)-IF(COUNT(History!26:26)&lt;=5,COUNT(History!26:26),5)):OFFSET(History!C26,0,COUNT(History!26:26)-1)),"")</f>
         <v/>
       </c>
@@ -1579,23 +1585,23 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="9" t="str">
+      <c r="B27" s="6" t="str">
         <f>IF(History!A27&lt;&gt;"",History!A27,"")</f>
         <v/>
       </c>
-      <c r="C27" s="7" t="str">
+      <c r="C27" s="4" t="str">
         <f>IF(History!A27&lt;&gt;"",SUM(History!27:27),"")</f>
         <v/>
       </c>
-      <c r="D27" s="6" t="str">
+      <c r="D27" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E27" s="3" t="str">
+      <c r="E27" s="4" t="str">
         <f>IF(History!A27&lt;&gt;0,COUNTIF(History!27:27,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F27" s="3" t="str">
+      <c r="F27" s="4" t="str">
         <f>IF(History!A27&lt;&gt;0,COUNTIF(History!27:27,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -1607,11 +1613,11 @@
         <f>IFERROR(SMALL(History!27:27,COUNTIF(History!27:27,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I27" s="8" t="str">
+      <c r="I27" s="5" t="str">
         <f>IF(History!A27&lt;&gt;"",History!B27,"")</f>
         <v/>
       </c>
-      <c r="J27" s="7" t="str">
+      <c r="J27" s="4" t="str">
         <f ca="1">IF(History!A27&lt;&gt;"",SUM(OFFSET(History!C27,0,COUNT(History!27:27)-IF(COUNT(History!27:27)&lt;=5,COUNT(History!27:27),5)):OFFSET(History!C27,0,COUNT(History!27:27)-1)),"")</f>
         <v/>
       </c>
@@ -1620,23 +1626,23 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="9" t="str">
+      <c r="B28" s="6" t="str">
         <f>IF(History!A28&lt;&gt;"",History!A28,"")</f>
         <v/>
       </c>
-      <c r="C28" s="7" t="str">
+      <c r="C28" s="4" t="str">
         <f>IF(History!A28&lt;&gt;"",SUM(History!28:28),"")</f>
         <v/>
       </c>
-      <c r="D28" s="6" t="str">
+      <c r="D28" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E28" s="3" t="str">
+      <c r="E28" s="4" t="str">
         <f>IF(History!A28&lt;&gt;0,COUNTIF(History!28:28,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F28" s="3" t="str">
+      <c r="F28" s="4" t="str">
         <f>IF(History!A28&lt;&gt;0,COUNTIF(History!28:28,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -1648,11 +1654,11 @@
         <f>IFERROR(SMALL(History!28:28,COUNTIF(History!28:28,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I28" s="8" t="str">
+      <c r="I28" s="5" t="str">
         <f>IF(History!A28&lt;&gt;"",History!B28,"")</f>
         <v/>
       </c>
-      <c r="J28" s="7" t="str">
+      <c r="J28" s="4" t="str">
         <f ca="1">IF(History!A28&lt;&gt;"",SUM(OFFSET(History!C28,0,COUNT(History!28:28)-IF(COUNT(History!28:28)&lt;=5,COUNT(History!28:28),5)):OFFSET(History!C28,0,COUNT(History!28:28)-1)),"")</f>
         <v/>
       </c>
@@ -1661,23 +1667,23 @@
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="9" t="str">
+      <c r="B29" s="6" t="str">
         <f>IF(History!A29&lt;&gt;"",History!A29,"")</f>
         <v/>
       </c>
-      <c r="C29" s="7" t="str">
+      <c r="C29" s="4" t="str">
         <f>IF(History!A29&lt;&gt;"",SUM(History!29:29),"")</f>
         <v/>
       </c>
-      <c r="D29" s="6" t="str">
+      <c r="D29" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E29" s="3" t="str">
+      <c r="E29" s="4" t="str">
         <f>IF(History!A29&lt;&gt;0,COUNTIF(History!29:29,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F29" s="3" t="str">
+      <c r="F29" s="4" t="str">
         <f>IF(History!A29&lt;&gt;0,COUNTIF(History!29:29,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -1689,11 +1695,11 @@
         <f>IFERROR(SMALL(History!29:29,COUNTIF(History!29:29,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I29" s="8" t="str">
+      <c r="I29" s="5" t="str">
         <f>IF(History!A29&lt;&gt;"",History!B29,"")</f>
         <v/>
       </c>
-      <c r="J29" s="7" t="str">
+      <c r="J29" s="4" t="str">
         <f ca="1">IF(History!A29&lt;&gt;"",SUM(OFFSET(History!C29,0,COUNT(History!29:29)-IF(COUNT(History!29:29)&lt;=5,COUNT(History!29:29),5)):OFFSET(History!C29,0,COUNT(History!29:29)-1)),"")</f>
         <v/>
       </c>
@@ -1702,23 +1708,23 @@
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="9" t="str">
+      <c r="B30" s="6" t="str">
         <f>IF(History!A30&lt;&gt;"",History!A30,"")</f>
         <v/>
       </c>
-      <c r="C30" s="7" t="str">
+      <c r="C30" s="4" t="str">
         <f>IF(History!A30&lt;&gt;"",SUM(History!30:30),"")</f>
         <v/>
       </c>
-      <c r="D30" s="6" t="str">
+      <c r="D30" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E30" s="3" t="str">
+      <c r="E30" s="4" t="str">
         <f>IF(History!A30&lt;&gt;0,COUNTIF(History!30:30,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F30" s="3" t="str">
+      <c r="F30" s="4" t="str">
         <f>IF(History!A30&lt;&gt;0,COUNTIF(History!30:30,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -1730,11 +1736,11 @@
         <f>IFERROR(SMALL(History!30:30,COUNTIF(History!30:30,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I30" s="8" t="str">
+      <c r="I30" s="5" t="str">
         <f>IF(History!A30&lt;&gt;"",History!B30,"")</f>
         <v/>
       </c>
-      <c r="J30" s="7" t="str">
+      <c r="J30" s="4" t="str">
         <f ca="1">IF(History!A30&lt;&gt;"",SUM(OFFSET(History!C30,0,COUNT(History!30:30)-IF(COUNT(History!30:30)&lt;=5,COUNT(History!30:30),5)):OFFSET(History!C30,0,COUNT(History!30:30)-1)),"")</f>
         <v/>
       </c>
@@ -1743,23 +1749,23 @@
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="9" t="str">
+      <c r="B31" s="6" t="str">
         <f>IF(History!A31&lt;&gt;"",History!A31,"")</f>
         <v/>
       </c>
-      <c r="C31" s="7" t="str">
+      <c r="C31" s="4" t="str">
         <f>IF(History!A31&lt;&gt;"",SUM(History!31:31),"")</f>
         <v/>
       </c>
-      <c r="D31" s="6" t="str">
+      <c r="D31" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E31" s="3" t="str">
+      <c r="E31" s="4" t="str">
         <f>IF(History!A31&lt;&gt;0,COUNTIF(History!31:31,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F31" s="3" t="str">
+      <c r="F31" s="4" t="str">
         <f>IF(History!A31&lt;&gt;0,COUNTIF(History!31:31,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -1771,11 +1777,11 @@
         <f>IFERROR(SMALL(History!31:31,COUNTIF(History!31:31,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I31" s="8" t="str">
+      <c r="I31" s="5" t="str">
         <f>IF(History!A31&lt;&gt;"",History!B31,"")</f>
         <v/>
       </c>
-      <c r="J31" s="7" t="str">
+      <c r="J31" s="4" t="str">
         <f ca="1">IF(History!A31&lt;&gt;"",SUM(OFFSET(History!C31,0,COUNT(History!31:31)-IF(COUNT(History!31:31)&lt;=5,COUNT(History!31:31),5)):OFFSET(History!C31,0,COUNT(History!31:31)-1)),"")</f>
         <v/>
       </c>
@@ -1784,23 +1790,23 @@
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="9" t="str">
+      <c r="B32" s="6" t="str">
         <f>IF(History!A32&lt;&gt;"",History!A32,"")</f>
         <v/>
       </c>
-      <c r="C32" s="7" t="str">
+      <c r="C32" s="4" t="str">
         <f>IF(History!A32&lt;&gt;"",SUM(History!32:32),"")</f>
         <v/>
       </c>
-      <c r="D32" s="6" t="str">
+      <c r="D32" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E32" s="3" t="str">
+      <c r="E32" s="4" t="str">
         <f>IF(History!A32&lt;&gt;0,COUNTIF(History!32:32,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F32" s="3" t="str">
+      <c r="F32" s="4" t="str">
         <f>IF(History!A32&lt;&gt;0,COUNTIF(History!32:32,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -1812,11 +1818,11 @@
         <f>IFERROR(SMALL(History!32:32,COUNTIF(History!32:32,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I32" s="8" t="str">
+      <c r="I32" s="5" t="str">
         <f>IF(History!A32&lt;&gt;"",History!B32,"")</f>
         <v/>
       </c>
-      <c r="J32" s="7" t="str">
+      <c r="J32" s="4" t="str">
         <f ca="1">IF(History!A32&lt;&gt;"",SUM(OFFSET(History!C32,0,COUNT(History!32:32)-IF(COUNT(History!32:32)&lt;=5,COUNT(History!32:32),5)):OFFSET(History!C32,0,COUNT(History!32:32)-1)),"")</f>
         <v/>
       </c>
@@ -1825,23 +1831,23 @@
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="9" t="str">
+      <c r="B33" s="6" t="str">
         <f>IF(History!A33&lt;&gt;"",History!A33,"")</f>
         <v/>
       </c>
-      <c r="C33" s="7" t="str">
+      <c r="C33" s="4" t="str">
         <f>IF(History!A33&lt;&gt;"",SUM(History!33:33),"")</f>
         <v/>
       </c>
-      <c r="D33" s="6" t="str">
+      <c r="D33" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E33" s="3" t="str">
+      <c r="E33" s="4" t="str">
         <f>IF(History!A33&lt;&gt;0,COUNTIF(History!33:33,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F33" s="3" t="str">
+      <c r="F33" s="4" t="str">
         <f>IF(History!A33&lt;&gt;0,COUNTIF(History!33:33,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -1853,11 +1859,11 @@
         <f>IFERROR(SMALL(History!33:33,COUNTIF(History!33:33,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I33" s="8" t="str">
+      <c r="I33" s="5" t="str">
         <f>IF(History!A33&lt;&gt;"",History!B33,"")</f>
         <v/>
       </c>
-      <c r="J33" s="7" t="str">
+      <c r="J33" s="4" t="str">
         <f ca="1">IF(History!A33&lt;&gt;"",SUM(OFFSET(History!C33,0,COUNT(History!33:33)-IF(COUNT(History!33:33)&lt;=5,COUNT(History!33:33),5)):OFFSET(History!C33,0,COUNT(History!33:33)-1)),"")</f>
         <v/>
       </c>
@@ -1866,23 +1872,23 @@
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="9" t="str">
+      <c r="B34" s="6" t="str">
         <f>IF(History!A34&lt;&gt;"",History!A34,"")</f>
         <v/>
       </c>
-      <c r="C34" s="7" t="str">
+      <c r="C34" s="4" t="str">
         <f>IF(History!A34&lt;&gt;"",SUM(History!34:34),"")</f>
         <v/>
       </c>
-      <c r="D34" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E34" s="3" t="str">
+      <c r="D34" s="7" t="str">
+        <f t="shared" ref="D34:D65" si="1">IFERROR(E34/(E34+F34),"")</f>
+        <v/>
+      </c>
+      <c r="E34" s="4" t="str">
         <f>IF(History!A34&lt;&gt;0,COUNTIF(History!34:34,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F34" s="3" t="str">
+      <c r="F34" s="4" t="str">
         <f>IF(History!A34&lt;&gt;0,COUNTIF(History!34:34,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -1894,11 +1900,11 @@
         <f>IFERROR(SMALL(History!34:34,COUNTIF(History!34:34,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I34" s="8" t="str">
+      <c r="I34" s="5" t="str">
         <f>IF(History!A34&lt;&gt;"",History!B34,"")</f>
         <v/>
       </c>
-      <c r="J34" s="7" t="str">
+      <c r="J34" s="4" t="str">
         <f ca="1">IF(History!A34&lt;&gt;"",SUM(OFFSET(History!C34,0,COUNT(History!34:34)-IF(COUNT(History!34:34)&lt;=5,COUNT(History!34:34),5)):OFFSET(History!C34,0,COUNT(History!34:34)-1)),"")</f>
         <v/>
       </c>
@@ -1907,23 +1913,23 @@
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="9" t="str">
+      <c r="B35" s="6" t="str">
         <f>IF(History!A35&lt;&gt;"",History!A35,"")</f>
         <v/>
       </c>
-      <c r="C35" s="7" t="str">
+      <c r="C35" s="4" t="str">
         <f>IF(History!A35&lt;&gt;"",SUM(History!35:35),"")</f>
         <v/>
       </c>
-      <c r="D35" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E35" s="3" t="str">
+      <c r="D35" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E35" s="4" t="str">
         <f>IF(History!A35&lt;&gt;0,COUNTIF(History!35:35,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F35" s="3" t="str">
+      <c r="F35" s="4" t="str">
         <f>IF(History!A35&lt;&gt;0,COUNTIF(History!35:35,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -1935,11 +1941,11 @@
         <f>IFERROR(SMALL(History!35:35,COUNTIF(History!35:35,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I35" s="8" t="str">
+      <c r="I35" s="5" t="str">
         <f>IF(History!A35&lt;&gt;"",History!B35,"")</f>
         <v/>
       </c>
-      <c r="J35" s="7" t="str">
+      <c r="J35" s="4" t="str">
         <f ca="1">IF(History!A35&lt;&gt;"",SUM(OFFSET(History!C35,0,COUNT(History!35:35)-IF(COUNT(History!35:35)&lt;=5,COUNT(History!35:35),5)):OFFSET(History!C35,0,COUNT(History!35:35)-1)),"")</f>
         <v/>
       </c>
@@ -1948,23 +1954,23 @@
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="9" t="str">
+      <c r="B36" s="6" t="str">
         <f>IF(History!A36&lt;&gt;"",History!A36,"")</f>
         <v/>
       </c>
-      <c r="C36" s="7" t="str">
+      <c r="C36" s="4" t="str">
         <f>IF(History!A36&lt;&gt;"",SUM(History!36:36),"")</f>
         <v/>
       </c>
-      <c r="D36" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E36" s="3" t="str">
+      <c r="D36" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E36" s="4" t="str">
         <f>IF(History!A36&lt;&gt;0,COUNTIF(History!36:36,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F36" s="3" t="str">
+      <c r="F36" s="4" t="str">
         <f>IF(History!A36&lt;&gt;0,COUNTIF(History!36:36,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -1976,11 +1982,11 @@
         <f>IFERROR(SMALL(History!36:36,COUNTIF(History!36:36,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I36" s="8" t="str">
+      <c r="I36" s="5" t="str">
         <f>IF(History!A36&lt;&gt;"",History!B36,"")</f>
         <v/>
       </c>
-      <c r="J36" s="7" t="str">
+      <c r="J36" s="4" t="str">
         <f ca="1">IF(History!A36&lt;&gt;"",SUM(OFFSET(History!C36,0,COUNT(History!36:36)-IF(COUNT(History!36:36)&lt;=5,COUNT(History!36:36),5)):OFFSET(History!C36,0,COUNT(History!36:36)-1)),"")</f>
         <v/>
       </c>
@@ -1989,23 +1995,23 @@
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="9" t="str">
+      <c r="B37" s="6" t="str">
         <f>IF(History!A37&lt;&gt;"",History!A37,"")</f>
         <v/>
       </c>
-      <c r="C37" s="7" t="str">
+      <c r="C37" s="4" t="str">
         <f>IF(History!A37&lt;&gt;"",SUM(History!37:37),"")</f>
         <v/>
       </c>
-      <c r="D37" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E37" s="3" t="str">
+      <c r="D37" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E37" s="4" t="str">
         <f>IF(History!A37&lt;&gt;0,COUNTIF(History!37:37,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F37" s="3" t="str">
+      <c r="F37" s="4" t="str">
         <f>IF(History!A37&lt;&gt;0,COUNTIF(History!37:37,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -2017,11 +2023,11 @@
         <f>IFERROR(SMALL(History!37:37,COUNTIF(History!37:37,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I37" s="8" t="str">
+      <c r="I37" s="5" t="str">
         <f>IF(History!A37&lt;&gt;"",History!B37,"")</f>
         <v/>
       </c>
-      <c r="J37" s="7" t="str">
+      <c r="J37" s="4" t="str">
         <f ca="1">IF(History!A37&lt;&gt;"",SUM(OFFSET(History!C37,0,COUNT(History!37:37)-IF(COUNT(History!37:37)&lt;=5,COUNT(History!37:37),5)):OFFSET(History!C37,0,COUNT(History!37:37)-1)),"")</f>
         <v/>
       </c>
@@ -2030,23 +2036,23 @@
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="9" t="str">
+      <c r="B38" s="6" t="str">
         <f>IF(History!A38&lt;&gt;"",History!A38,"")</f>
         <v/>
       </c>
-      <c r="C38" s="7" t="str">
+      <c r="C38" s="4" t="str">
         <f>IF(History!A38&lt;&gt;"",SUM(History!38:38),"")</f>
         <v/>
       </c>
-      <c r="D38" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E38" s="3" t="str">
+      <c r="D38" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E38" s="4" t="str">
         <f>IF(History!A38&lt;&gt;0,COUNTIF(History!38:38,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F38" s="3" t="str">
+      <c r="F38" s="4" t="str">
         <f>IF(History!A38&lt;&gt;0,COUNTIF(History!38:38,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -2058,11 +2064,11 @@
         <f>IFERROR(SMALL(History!38:38,COUNTIF(History!38:38,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I38" s="8" t="str">
+      <c r="I38" s="5" t="str">
         <f>IF(History!A38&lt;&gt;"",History!B38,"")</f>
         <v/>
       </c>
-      <c r="J38" s="7" t="str">
+      <c r="J38" s="4" t="str">
         <f ca="1">IF(History!A38&lt;&gt;"",SUM(OFFSET(History!C38,0,COUNT(History!38:38)-IF(COUNT(History!38:38)&lt;=5,COUNT(History!38:38),5)):OFFSET(History!C38,0,COUNT(History!38:38)-1)),"")</f>
         <v/>
       </c>
@@ -2071,23 +2077,23 @@
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="9" t="str">
+      <c r="B39" s="6" t="str">
         <f>IF(History!A39&lt;&gt;"",History!A39,"")</f>
         <v/>
       </c>
-      <c r="C39" s="7" t="str">
+      <c r="C39" s="4" t="str">
         <f>IF(History!A39&lt;&gt;"",SUM(History!39:39),"")</f>
         <v/>
       </c>
-      <c r="D39" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E39" s="3" t="str">
+      <c r="D39" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E39" s="4" t="str">
         <f>IF(History!A39&lt;&gt;0,COUNTIF(History!39:39,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F39" s="3" t="str">
+      <c r="F39" s="4" t="str">
         <f>IF(History!A39&lt;&gt;0,COUNTIF(History!39:39,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -2099,11 +2105,11 @@
         <f>IFERROR(SMALL(History!39:39,COUNTIF(History!39:39,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I39" s="8" t="str">
+      <c r="I39" s="5" t="str">
         <f>IF(History!A39&lt;&gt;"",History!B39,"")</f>
         <v/>
       </c>
-      <c r="J39" s="7" t="str">
+      <c r="J39" s="4" t="str">
         <f ca="1">IF(History!A39&lt;&gt;"",SUM(OFFSET(History!C39,0,COUNT(History!39:39)-IF(COUNT(History!39:39)&lt;=5,COUNT(History!39:39),5)):OFFSET(History!C39,0,COUNT(History!39:39)-1)),"")</f>
         <v/>
       </c>
@@ -2112,23 +2118,23 @@
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="9" t="str">
+      <c r="B40" s="6" t="str">
         <f>IF(History!A40&lt;&gt;"",History!A40,"")</f>
         <v/>
       </c>
-      <c r="C40" s="7" t="str">
+      <c r="C40" s="4" t="str">
         <f>IF(History!A40&lt;&gt;"",SUM(History!40:40),"")</f>
         <v/>
       </c>
-      <c r="D40" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E40" s="3" t="str">
+      <c r="D40" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E40" s="4" t="str">
         <f>IF(History!A40&lt;&gt;0,COUNTIF(History!40:40,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F40" s="3" t="str">
+      <c r="F40" s="4" t="str">
         <f>IF(History!A40&lt;&gt;0,COUNTIF(History!40:40,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -2140,11 +2146,11 @@
         <f>IFERROR(SMALL(History!40:40,COUNTIF(History!40:40,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I40" s="8" t="str">
+      <c r="I40" s="5" t="str">
         <f>IF(History!A40&lt;&gt;"",History!B40,"")</f>
         <v/>
       </c>
-      <c r="J40" s="7" t="str">
+      <c r="J40" s="4" t="str">
         <f ca="1">IF(History!A40&lt;&gt;"",SUM(OFFSET(History!C40,0,COUNT(History!40:40)-IF(COUNT(History!40:40)&lt;=5,COUNT(History!40:40),5)):OFFSET(History!C40,0,COUNT(History!40:40)-1)),"")</f>
         <v/>
       </c>
@@ -2153,23 +2159,23 @@
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="9" t="str">
+      <c r="B41" s="6" t="str">
         <f>IF(History!A41&lt;&gt;"",History!A41,"")</f>
         <v/>
       </c>
-      <c r="C41" s="7" t="str">
+      <c r="C41" s="4" t="str">
         <f>IF(History!A41&lt;&gt;"",SUM(History!41:41),"")</f>
         <v/>
       </c>
-      <c r="D41" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E41" s="3" t="str">
+      <c r="D41" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E41" s="4" t="str">
         <f>IF(History!A41&lt;&gt;0,COUNTIF(History!41:41,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F41" s="3" t="str">
+      <c r="F41" s="4" t="str">
         <f>IF(History!A41&lt;&gt;0,COUNTIF(History!41:41,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -2181,11 +2187,11 @@
         <f>IFERROR(SMALL(History!41:41,COUNTIF(History!41:41,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I41" s="8" t="str">
+      <c r="I41" s="5" t="str">
         <f>IF(History!A41&lt;&gt;"",History!B41,"")</f>
         <v/>
       </c>
-      <c r="J41" s="7" t="str">
+      <c r="J41" s="4" t="str">
         <f ca="1">IF(History!A41&lt;&gt;"",SUM(OFFSET(History!C41,0,COUNT(History!41:41)-IF(COUNT(History!41:41)&lt;=5,COUNT(History!41:41),5)):OFFSET(History!C41,0,COUNT(History!41:41)-1)),"")</f>
         <v/>
       </c>
@@ -2194,23 +2200,23 @@
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="9" t="str">
+      <c r="B42" s="6" t="str">
         <f>IF(History!A42&lt;&gt;"",History!A42,"")</f>
         <v/>
       </c>
-      <c r="C42" s="7" t="str">
+      <c r="C42" s="4" t="str">
         <f>IF(History!A42&lt;&gt;"",SUM(History!42:42),"")</f>
         <v/>
       </c>
-      <c r="D42" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E42" s="3" t="str">
+      <c r="D42" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E42" s="4" t="str">
         <f>IF(History!A42&lt;&gt;0,COUNTIF(History!42:42,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F42" s="3" t="str">
+      <c r="F42" s="4" t="str">
         <f>IF(History!A42&lt;&gt;0,COUNTIF(History!42:42,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -2222,11 +2228,11 @@
         <f>IFERROR(SMALL(History!42:42,COUNTIF(History!42:42,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I42" s="8" t="str">
+      <c r="I42" s="5" t="str">
         <f>IF(History!A42&lt;&gt;"",History!B42,"")</f>
         <v/>
       </c>
-      <c r="J42" s="7" t="str">
+      <c r="J42" s="4" t="str">
         <f ca="1">IF(History!A42&lt;&gt;"",SUM(OFFSET(History!C42,0,COUNT(History!42:42)-IF(COUNT(History!42:42)&lt;=5,COUNT(History!42:42),5)):OFFSET(History!C42,0,COUNT(History!42:42)-1)),"")</f>
         <v/>
       </c>
@@ -2235,23 +2241,23 @@
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="9" t="str">
+      <c r="B43" s="6" t="str">
         <f>IF(History!A43&lt;&gt;"",History!A43,"")</f>
         <v/>
       </c>
-      <c r="C43" s="7" t="str">
+      <c r="C43" s="4" t="str">
         <f>IF(History!A43&lt;&gt;"",SUM(History!43:43),"")</f>
         <v/>
       </c>
-      <c r="D43" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E43" s="3" t="str">
+      <c r="D43" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E43" s="4" t="str">
         <f>IF(History!A43&lt;&gt;0,COUNTIF(History!43:43,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F43" s="3" t="str">
+      <c r="F43" s="4" t="str">
         <f>IF(History!A43&lt;&gt;0,COUNTIF(History!43:43,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -2263,11 +2269,11 @@
         <f>IFERROR(SMALL(History!43:43,COUNTIF(History!43:43,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I43" s="8" t="str">
+      <c r="I43" s="5" t="str">
         <f>IF(History!A43&lt;&gt;"",History!B43,"")</f>
         <v/>
       </c>
-      <c r="J43" s="7" t="str">
+      <c r="J43" s="4" t="str">
         <f ca="1">IF(History!A43&lt;&gt;"",SUM(OFFSET(History!C43,0,COUNT(History!43:43)-IF(COUNT(History!43:43)&lt;=5,COUNT(History!43:43),5)):OFFSET(History!C43,0,COUNT(History!43:43)-1)),"")</f>
         <v/>
       </c>
@@ -2276,23 +2282,23 @@
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="9" t="str">
+      <c r="B44" s="6" t="str">
         <f>IF(History!A44&lt;&gt;"",History!A44,"")</f>
         <v/>
       </c>
-      <c r="C44" s="7" t="str">
+      <c r="C44" s="4" t="str">
         <f>IF(History!A44&lt;&gt;"",SUM(History!44:44),"")</f>
         <v/>
       </c>
-      <c r="D44" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E44" s="3" t="str">
+      <c r="D44" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E44" s="4" t="str">
         <f>IF(History!A44&lt;&gt;0,COUNTIF(History!44:44,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F44" s="3" t="str">
+      <c r="F44" s="4" t="str">
         <f>IF(History!A44&lt;&gt;0,COUNTIF(History!44:44,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -2304,11 +2310,11 @@
         <f>IFERROR(SMALL(History!44:44,COUNTIF(History!44:44,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I44" s="8" t="str">
+      <c r="I44" s="5" t="str">
         <f>IF(History!A44&lt;&gt;"",History!B44,"")</f>
         <v/>
       </c>
-      <c r="J44" s="7" t="str">
+      <c r="J44" s="4" t="str">
         <f ca="1">IF(History!A44&lt;&gt;"",SUM(OFFSET(History!C44,0,COUNT(History!44:44)-IF(COUNT(History!44:44)&lt;=5,COUNT(History!44:44),5)):OFFSET(History!C44,0,COUNT(History!44:44)-1)),"")</f>
         <v/>
       </c>
@@ -2317,23 +2323,23 @@
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="9" t="str">
+      <c r="B45" s="6" t="str">
         <f>IF(History!A45&lt;&gt;"",History!A45,"")</f>
         <v/>
       </c>
-      <c r="C45" s="7" t="str">
+      <c r="C45" s="4" t="str">
         <f>IF(History!A45&lt;&gt;"",SUM(History!45:45),"")</f>
         <v/>
       </c>
-      <c r="D45" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E45" s="3" t="str">
+      <c r="D45" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E45" s="4" t="str">
         <f>IF(History!A45&lt;&gt;0,COUNTIF(History!45:45,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F45" s="3" t="str">
+      <c r="F45" s="4" t="str">
         <f>IF(History!A45&lt;&gt;0,COUNTIF(History!45:45,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -2345,11 +2351,11 @@
         <f>IFERROR(SMALL(History!45:45,COUNTIF(History!45:45,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I45" s="8" t="str">
+      <c r="I45" s="5" t="str">
         <f>IF(History!A45&lt;&gt;"",History!B45,"")</f>
         <v/>
       </c>
-      <c r="J45" s="7" t="str">
+      <c r="J45" s="4" t="str">
         <f ca="1">IF(History!A45&lt;&gt;"",SUM(OFFSET(History!C45,0,COUNT(History!45:45)-IF(COUNT(History!45:45)&lt;=5,COUNT(History!45:45),5)):OFFSET(History!C45,0,COUNT(History!45:45)-1)),"")</f>
         <v/>
       </c>
@@ -2358,23 +2364,23 @@
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="9" t="str">
+      <c r="B46" s="6" t="str">
         <f>IF(History!A46&lt;&gt;"",History!A46,"")</f>
         <v/>
       </c>
-      <c r="C46" s="7" t="str">
+      <c r="C46" s="4" t="str">
         <f>IF(History!A46&lt;&gt;"",SUM(History!46:46),"")</f>
         <v/>
       </c>
-      <c r="D46" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E46" s="3" t="str">
+      <c r="D46" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E46" s="4" t="str">
         <f>IF(History!A46&lt;&gt;0,COUNTIF(History!46:46,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F46" s="3" t="str">
+      <c r="F46" s="4" t="str">
         <f>IF(History!A46&lt;&gt;0,COUNTIF(History!46:46,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -2386,11 +2392,11 @@
         <f>IFERROR(SMALL(History!46:46,COUNTIF(History!46:46,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I46" s="8" t="str">
+      <c r="I46" s="5" t="str">
         <f>IF(History!A46&lt;&gt;"",History!B46,"")</f>
         <v/>
       </c>
-      <c r="J46" s="7" t="str">
+      <c r="J46" s="4" t="str">
         <f ca="1">IF(History!A46&lt;&gt;"",SUM(OFFSET(History!C46,0,COUNT(History!46:46)-IF(COUNT(History!46:46)&lt;=5,COUNT(History!46:46),5)):OFFSET(History!C46,0,COUNT(History!46:46)-1)),"")</f>
         <v/>
       </c>
@@ -2399,23 +2405,23 @@
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="9" t="str">
+      <c r="B47" s="6" t="str">
         <f>IF(History!A47&lt;&gt;"",History!A47,"")</f>
         <v/>
       </c>
-      <c r="C47" s="7" t="str">
+      <c r="C47" s="4" t="str">
         <f>IF(History!A47&lt;&gt;"",SUM(History!47:47),"")</f>
         <v/>
       </c>
-      <c r="D47" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E47" s="3" t="str">
+      <c r="D47" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E47" s="4" t="str">
         <f>IF(History!A47&lt;&gt;0,COUNTIF(History!47:47,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F47" s="3" t="str">
+      <c r="F47" s="4" t="str">
         <f>IF(History!A47&lt;&gt;0,COUNTIF(History!47:47,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -2427,11 +2433,11 @@
         <f>IFERROR(SMALL(History!47:47,COUNTIF(History!47:47,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I47" s="8" t="str">
+      <c r="I47" s="5" t="str">
         <f>IF(History!A47&lt;&gt;"",History!B47,"")</f>
         <v/>
       </c>
-      <c r="J47" s="7" t="str">
+      <c r="J47" s="4" t="str">
         <f ca="1">IF(History!A47&lt;&gt;"",SUM(OFFSET(History!C47,0,COUNT(History!47:47)-IF(COUNT(History!47:47)&lt;=5,COUNT(History!47:47),5)):OFFSET(History!C47,0,COUNT(History!47:47)-1)),"")</f>
         <v/>
       </c>
@@ -2440,23 +2446,23 @@
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="9" t="str">
+      <c r="B48" s="6" t="str">
         <f>IF(History!A48&lt;&gt;"",History!A48,"")</f>
         <v/>
       </c>
-      <c r="C48" s="7" t="str">
+      <c r="C48" s="4" t="str">
         <f>IF(History!A48&lt;&gt;"",SUM(History!48:48),"")</f>
         <v/>
       </c>
-      <c r="D48" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E48" s="3" t="str">
+      <c r="D48" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E48" s="4" t="str">
         <f>IF(History!A48&lt;&gt;0,COUNTIF(History!48:48,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F48" s="3" t="str">
+      <c r="F48" s="4" t="str">
         <f>IF(History!A48&lt;&gt;0,COUNTIF(History!48:48,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -2468,11 +2474,11 @@
         <f>IFERROR(SMALL(History!48:48,COUNTIF(History!48:48,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I48" s="8" t="str">
+      <c r="I48" s="5" t="str">
         <f>IF(History!A48&lt;&gt;"",History!B48,"")</f>
         <v/>
       </c>
-      <c r="J48" s="7" t="str">
+      <c r="J48" s="4" t="str">
         <f ca="1">IF(History!A48&lt;&gt;"",SUM(OFFSET(History!C48,0,COUNT(History!48:48)-IF(COUNT(History!48:48)&lt;=5,COUNT(History!48:48),5)):OFFSET(History!C48,0,COUNT(History!48:48)-1)),"")</f>
         <v/>
       </c>
@@ -2481,23 +2487,23 @@
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="9" t="str">
+      <c r="B49" s="6" t="str">
         <f>IF(History!A49&lt;&gt;"",History!A49,"")</f>
         <v/>
       </c>
-      <c r="C49" s="7" t="str">
+      <c r="C49" s="4" t="str">
         <f>IF(History!A49&lt;&gt;"",SUM(History!49:49),"")</f>
         <v/>
       </c>
-      <c r="D49" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E49" s="3" t="str">
+      <c r="D49" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E49" s="4" t="str">
         <f>IF(History!A49&lt;&gt;0,COUNTIF(History!49:49,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F49" s="3" t="str">
+      <c r="F49" s="4" t="str">
         <f>IF(History!A49&lt;&gt;0,COUNTIF(History!49:49,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -2509,11 +2515,11 @@
         <f>IFERROR(SMALL(History!49:49,COUNTIF(History!49:49,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I49" s="8" t="str">
+      <c r="I49" s="5" t="str">
         <f>IF(History!A49&lt;&gt;"",History!B49,"")</f>
         <v/>
       </c>
-      <c r="J49" s="7" t="str">
+      <c r="J49" s="4" t="str">
         <f ca="1">IF(History!A49&lt;&gt;"",SUM(OFFSET(History!C49,0,COUNT(History!49:49)-IF(COUNT(History!49:49)&lt;=5,COUNT(History!49:49),5)):OFFSET(History!C49,0,COUNT(History!49:49)-1)),"")</f>
         <v/>
       </c>
@@ -2522,23 +2528,23 @@
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="9" t="str">
+      <c r="B50" s="6" t="str">
         <f>IF(History!A50&lt;&gt;"",History!A50,"")</f>
         <v/>
       </c>
-      <c r="C50" s="7" t="str">
+      <c r="C50" s="4" t="str">
         <f>IF(History!A50&lt;&gt;"",SUM(History!50:50),"")</f>
         <v/>
       </c>
-      <c r="D50" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E50" s="3" t="str">
+      <c r="D50" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E50" s="4" t="str">
         <f>IF(History!A50&lt;&gt;0,COUNTIF(History!50:50,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F50" s="3" t="str">
+      <c r="F50" s="4" t="str">
         <f>IF(History!A50&lt;&gt;0,COUNTIF(History!50:50,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -2550,11 +2556,11 @@
         <f>IFERROR(SMALL(History!50:50,COUNTIF(History!50:50,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I50" s="8" t="str">
+      <c r="I50" s="5" t="str">
         <f>IF(History!A50&lt;&gt;"",History!B50,"")</f>
         <v/>
       </c>
-      <c r="J50" s="7" t="str">
+      <c r="J50" s="4" t="str">
         <f ca="1">IF(History!A50&lt;&gt;"",SUM(OFFSET(History!C50,0,COUNT(History!50:50)-IF(COUNT(History!50:50)&lt;=5,COUNT(History!50:50),5)):OFFSET(History!C50,0,COUNT(History!50:50)-1)),"")</f>
         <v/>
       </c>
@@ -2563,23 +2569,23 @@
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="9" t="str">
+      <c r="B51" s="6" t="str">
         <f>IF(History!A51&lt;&gt;"",History!A51,"")</f>
         <v/>
       </c>
-      <c r="C51" s="7" t="str">
+      <c r="C51" s="4" t="str">
         <f>IF(History!A51&lt;&gt;"",SUM(History!51:51),"")</f>
         <v/>
       </c>
-      <c r="D51" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E51" s="3" t="str">
+      <c r="D51" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E51" s="4" t="str">
         <f>IF(History!A51&lt;&gt;0,COUNTIF(History!51:51,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F51" s="3" t="str">
+      <c r="F51" s="4" t="str">
         <f>IF(History!A51&lt;&gt;0,COUNTIF(History!51:51,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -2591,11 +2597,11 @@
         <f>IFERROR(SMALL(History!51:51,COUNTIF(History!51:51,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I51" s="8" t="str">
+      <c r="I51" s="5" t="str">
         <f>IF(History!A51&lt;&gt;"",History!B51,"")</f>
         <v/>
       </c>
-      <c r="J51" s="7" t="str">
+      <c r="J51" s="4" t="str">
         <f ca="1">IF(History!A51&lt;&gt;"",SUM(OFFSET(History!C51,0,COUNT(History!51:51)-IF(COUNT(History!51:51)&lt;=5,COUNT(History!51:51),5)):OFFSET(History!C51,0,COUNT(History!51:51)-1)),"")</f>
         <v/>
       </c>
@@ -2604,23 +2610,23 @@
       <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="9" t="str">
+      <c r="B52" s="6" t="str">
         <f>IF(History!A52&lt;&gt;"",History!A52,"")</f>
         <v/>
       </c>
-      <c r="C52" s="7" t="str">
+      <c r="C52" s="4" t="str">
         <f>IF(History!A52&lt;&gt;"",SUM(History!52:52),"")</f>
         <v/>
       </c>
-      <c r="D52" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E52" s="3" t="str">
+      <c r="D52" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E52" s="4" t="str">
         <f>IF(History!A52&lt;&gt;0,COUNTIF(History!52:52,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F52" s="3" t="str">
+      <c r="F52" s="4" t="str">
         <f>IF(History!A52&lt;&gt;0,COUNTIF(History!52:52,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -2632,11 +2638,11 @@
         <f>IFERROR(SMALL(History!52:52,COUNTIF(History!52:52,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I52" s="8" t="str">
+      <c r="I52" s="5" t="str">
         <f>IF(History!A52&lt;&gt;"",History!B52,"")</f>
         <v/>
       </c>
-      <c r="J52" s="7" t="str">
+      <c r="J52" s="4" t="str">
         <f ca="1">IF(History!A52&lt;&gt;"",SUM(OFFSET(History!C52,0,COUNT(History!52:52)-IF(COUNT(History!52:52)&lt;=5,COUNT(History!52:52),5)):OFFSET(History!C52,0,COUNT(History!52:52)-1)),"")</f>
         <v/>
       </c>
@@ -2645,23 +2651,23 @@
       <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="9" t="str">
+      <c r="B53" s="6" t="str">
         <f>IF(History!A53&lt;&gt;"",History!A53,"")</f>
         <v/>
       </c>
-      <c r="C53" s="7" t="str">
+      <c r="C53" s="4" t="str">
         <f>IF(History!A53&lt;&gt;"",SUM(History!53:53),"")</f>
         <v/>
       </c>
-      <c r="D53" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E53" s="3" t="str">
+      <c r="D53" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E53" s="4" t="str">
         <f>IF(History!A53&lt;&gt;0,COUNTIF(History!53:53,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F53" s="3" t="str">
+      <c r="F53" s="4" t="str">
         <f>IF(History!A53&lt;&gt;0,COUNTIF(History!53:53,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -2673,11 +2679,11 @@
         <f>IFERROR(SMALL(History!53:53,COUNTIF(History!53:53,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I53" s="8" t="str">
+      <c r="I53" s="5" t="str">
         <f>IF(History!A53&lt;&gt;"",History!B53,"")</f>
         <v/>
       </c>
-      <c r="J53" s="7" t="str">
+      <c r="J53" s="4" t="str">
         <f ca="1">IF(History!A53&lt;&gt;"",SUM(OFFSET(History!C53,0,COUNT(History!53:53)-IF(COUNT(History!53:53)&lt;=5,COUNT(History!53:53),5)):OFFSET(History!C53,0,COUNT(History!53:53)-1)),"")</f>
         <v/>
       </c>
@@ -2686,23 +2692,23 @@
       <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="9" t="str">
+      <c r="B54" s="6" t="str">
         <f>IF(History!A54&lt;&gt;"",History!A54,"")</f>
         <v/>
       </c>
-      <c r="C54" s="7" t="str">
+      <c r="C54" s="4" t="str">
         <f>IF(History!A54&lt;&gt;"",SUM(History!54:54),"")</f>
         <v/>
       </c>
-      <c r="D54" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E54" s="3" t="str">
+      <c r="D54" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E54" s="4" t="str">
         <f>IF(History!A54&lt;&gt;0,COUNTIF(History!54:54,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F54" s="3" t="str">
+      <c r="F54" s="4" t="str">
         <f>IF(History!A54&lt;&gt;0,COUNTIF(History!54:54,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -2714,11 +2720,11 @@
         <f>IFERROR(SMALL(History!54:54,COUNTIF(History!54:54,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I54" s="8" t="str">
+      <c r="I54" s="5" t="str">
         <f>IF(History!A54&lt;&gt;"",History!B54,"")</f>
         <v/>
       </c>
-      <c r="J54" s="7" t="str">
+      <c r="J54" s="4" t="str">
         <f ca="1">IF(History!A54&lt;&gt;"",SUM(OFFSET(History!C54,0,COUNT(History!54:54)-IF(COUNT(History!54:54)&lt;=5,COUNT(History!54:54),5)):OFFSET(History!C54,0,COUNT(History!54:54)-1)),"")</f>
         <v/>
       </c>
@@ -2727,23 +2733,23 @@
       <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="9" t="str">
+      <c r="B55" s="6" t="str">
         <f>IF(History!A55&lt;&gt;"",History!A55,"")</f>
         <v/>
       </c>
-      <c r="C55" s="7" t="str">
+      <c r="C55" s="4" t="str">
         <f>IF(History!A55&lt;&gt;"",SUM(History!55:55),"")</f>
         <v/>
       </c>
-      <c r="D55" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E55" s="3" t="str">
+      <c r="D55" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E55" s="4" t="str">
         <f>IF(History!A55&lt;&gt;0,COUNTIF(History!55:55,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F55" s="3" t="str">
+      <c r="F55" s="4" t="str">
         <f>IF(History!A55&lt;&gt;0,COUNTIF(History!55:55,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -2755,11 +2761,11 @@
         <f>IFERROR(SMALL(History!55:55,COUNTIF(History!55:55,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I55" s="8" t="str">
+      <c r="I55" s="5" t="str">
         <f>IF(History!A55&lt;&gt;"",History!B55,"")</f>
         <v/>
       </c>
-      <c r="J55" s="7" t="str">
+      <c r="J55" s="4" t="str">
         <f ca="1">IF(History!A55&lt;&gt;"",SUM(OFFSET(History!C55,0,COUNT(History!55:55)-IF(COUNT(History!55:55)&lt;=5,COUNT(History!55:55),5)):OFFSET(History!C55,0,COUNT(History!55:55)-1)),"")</f>
         <v/>
       </c>
@@ -2768,23 +2774,23 @@
       <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="9" t="str">
+      <c r="B56" s="6" t="str">
         <f>IF(History!A56&lt;&gt;"",History!A56,"")</f>
         <v/>
       </c>
-      <c r="C56" s="7" t="str">
+      <c r="C56" s="4" t="str">
         <f>IF(History!A56&lt;&gt;"",SUM(History!56:56),"")</f>
         <v/>
       </c>
-      <c r="D56" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E56" s="3" t="str">
+      <c r="D56" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E56" s="4" t="str">
         <f>IF(History!A56&lt;&gt;0,COUNTIF(History!56:56,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F56" s="3" t="str">
+      <c r="F56" s="4" t="str">
         <f>IF(History!A56&lt;&gt;0,COUNTIF(History!56:56,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -2796,11 +2802,11 @@
         <f>IFERROR(SMALL(History!56:56,COUNTIF(History!56:56,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I56" s="8" t="str">
+      <c r="I56" s="5" t="str">
         <f>IF(History!A56&lt;&gt;"",History!B56,"")</f>
         <v/>
       </c>
-      <c r="J56" s="7" t="str">
+      <c r="J56" s="4" t="str">
         <f ca="1">IF(History!A56&lt;&gt;"",SUM(OFFSET(History!C56,0,COUNT(History!56:56)-IF(COUNT(History!56:56)&lt;=5,COUNT(History!56:56),5)):OFFSET(History!C56,0,COUNT(History!56:56)-1)),"")</f>
         <v/>
       </c>
@@ -2809,23 +2815,23 @@
       <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" s="9" t="str">
+      <c r="B57" s="6" t="str">
         <f>IF(History!A57&lt;&gt;"",History!A57,"")</f>
         <v/>
       </c>
-      <c r="C57" s="7" t="str">
+      <c r="C57" s="4" t="str">
         <f>IF(History!A57&lt;&gt;"",SUM(History!57:57),"")</f>
         <v/>
       </c>
-      <c r="D57" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E57" s="3" t="str">
+      <c r="D57" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E57" s="4" t="str">
         <f>IF(History!A57&lt;&gt;0,COUNTIF(History!57:57,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F57" s="3" t="str">
+      <c r="F57" s="4" t="str">
         <f>IF(History!A57&lt;&gt;0,COUNTIF(History!57:57,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -2837,11 +2843,11 @@
         <f>IFERROR(SMALL(History!57:57,COUNTIF(History!57:57,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I57" s="8" t="str">
+      <c r="I57" s="5" t="str">
         <f>IF(History!A57&lt;&gt;"",History!B57,"")</f>
         <v/>
       </c>
-      <c r="J57" s="7" t="str">
+      <c r="J57" s="4" t="str">
         <f ca="1">IF(History!A57&lt;&gt;"",SUM(OFFSET(History!C57,0,COUNT(History!57:57)-IF(COUNT(History!57:57)&lt;=5,COUNT(History!57:57),5)):OFFSET(History!C57,0,COUNT(History!57:57)-1)),"")</f>
         <v/>
       </c>
@@ -2850,23 +2856,23 @@
       <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" s="9" t="str">
+      <c r="B58" s="6" t="str">
         <f>IF(History!A58&lt;&gt;"",History!A58,"")</f>
         <v/>
       </c>
-      <c r="C58" s="7" t="str">
+      <c r="C58" s="4" t="str">
         <f>IF(History!A58&lt;&gt;"",SUM(History!58:58),"")</f>
         <v/>
       </c>
-      <c r="D58" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E58" s="3" t="str">
+      <c r="D58" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E58" s="4" t="str">
         <f>IF(History!A58&lt;&gt;0,COUNTIF(History!58:58,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F58" s="3" t="str">
+      <c r="F58" s="4" t="str">
         <f>IF(History!A58&lt;&gt;0,COUNTIF(History!58:58,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -2878,11 +2884,11 @@
         <f>IFERROR(SMALL(History!58:58,COUNTIF(History!58:58,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I58" s="8" t="str">
+      <c r="I58" s="5" t="str">
         <f>IF(History!A58&lt;&gt;"",History!B58,"")</f>
         <v/>
       </c>
-      <c r="J58" s="7" t="str">
+      <c r="J58" s="4" t="str">
         <f ca="1">IF(History!A58&lt;&gt;"",SUM(OFFSET(History!C58,0,COUNT(History!58:58)-IF(COUNT(History!58:58)&lt;=5,COUNT(History!58:58),5)):OFFSET(History!C58,0,COUNT(History!58:58)-1)),"")</f>
         <v/>
       </c>
@@ -2891,23 +2897,23 @@
       <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" s="9" t="str">
+      <c r="B59" s="6" t="str">
         <f>IF(History!A59&lt;&gt;"",History!A59,"")</f>
         <v/>
       </c>
-      <c r="C59" s="7" t="str">
+      <c r="C59" s="4" t="str">
         <f>IF(History!A59&lt;&gt;"",SUM(History!59:59),"")</f>
         <v/>
       </c>
-      <c r="D59" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E59" s="3" t="str">
+      <c r="D59" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E59" s="4" t="str">
         <f>IF(History!A59&lt;&gt;0,COUNTIF(History!59:59,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F59" s="3" t="str">
+      <c r="F59" s="4" t="str">
         <f>IF(History!A59&lt;&gt;0,COUNTIF(History!59:59,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -2919,11 +2925,11 @@
         <f>IFERROR(SMALL(History!59:59,COUNTIF(History!59:59,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I59" s="8" t="str">
+      <c r="I59" s="5" t="str">
         <f>IF(History!A59&lt;&gt;"",History!B59,"")</f>
         <v/>
       </c>
-      <c r="J59" s="7" t="str">
+      <c r="J59" s="4" t="str">
         <f ca="1">IF(History!A59&lt;&gt;"",SUM(OFFSET(History!C59,0,COUNT(History!59:59)-IF(COUNT(History!59:59)&lt;=5,COUNT(History!59:59),5)):OFFSET(History!C59,0,COUNT(History!59:59)-1)),"")</f>
         <v/>
       </c>
@@ -2932,23 +2938,23 @@
       <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" s="9" t="str">
+      <c r="B60" s="6" t="str">
         <f>IF(History!A60&lt;&gt;"",History!A60,"")</f>
         <v/>
       </c>
-      <c r="C60" s="7" t="str">
+      <c r="C60" s="4" t="str">
         <f>IF(History!A60&lt;&gt;"",SUM(History!60:60),"")</f>
         <v/>
       </c>
-      <c r="D60" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E60" s="3" t="str">
+      <c r="D60" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E60" s="4" t="str">
         <f>IF(History!A60&lt;&gt;0,COUNTIF(History!60:60,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F60" s="3" t="str">
+      <c r="F60" s="4" t="str">
         <f>IF(History!A60&lt;&gt;0,COUNTIF(History!60:60,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -2960,11 +2966,11 @@
         <f>IFERROR(SMALL(History!60:60,COUNTIF(History!60:60,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I60" s="8" t="str">
+      <c r="I60" s="5" t="str">
         <f>IF(History!A60&lt;&gt;"",History!B60,"")</f>
         <v/>
       </c>
-      <c r="J60" s="7" t="str">
+      <c r="J60" s="4" t="str">
         <f ca="1">IF(History!A60&lt;&gt;"",SUM(OFFSET(History!C60,0,COUNT(History!60:60)-IF(COUNT(History!60:60)&lt;=5,COUNT(History!60:60),5)):OFFSET(History!C60,0,COUNT(History!60:60)-1)),"")</f>
         <v/>
       </c>
@@ -2973,23 +2979,23 @@
       <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="9" t="str">
+      <c r="B61" s="6" t="str">
         <f>IF(History!A61&lt;&gt;"",History!A61,"")</f>
         <v/>
       </c>
-      <c r="C61" s="7" t="str">
+      <c r="C61" s="4" t="str">
         <f>IF(History!A61&lt;&gt;"",SUM(History!61:61),"")</f>
         <v/>
       </c>
-      <c r="D61" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E61" s="3" t="str">
+      <c r="D61" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E61" s="4" t="str">
         <f>IF(History!A61&lt;&gt;0,COUNTIF(History!61:61,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F61" s="3" t="str">
+      <c r="F61" s="4" t="str">
         <f>IF(History!A61&lt;&gt;0,COUNTIF(History!61:61,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -3001,11 +3007,11 @@
         <f>IFERROR(SMALL(History!61:61,COUNTIF(History!61:61,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I61" s="8" t="str">
+      <c r="I61" s="5" t="str">
         <f>IF(History!A61&lt;&gt;"",History!B61,"")</f>
         <v/>
       </c>
-      <c r="J61" s="7" t="str">
+      <c r="J61" s="4" t="str">
         <f ca="1">IF(History!A61&lt;&gt;"",SUM(OFFSET(History!C61,0,COUNT(History!61:61)-IF(COUNT(History!61:61)&lt;=5,COUNT(History!61:61),5)):OFFSET(History!C61,0,COUNT(History!61:61)-1)),"")</f>
         <v/>
       </c>
@@ -3014,23 +3020,23 @@
       <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62" s="9" t="str">
+      <c r="B62" s="6" t="str">
         <f>IF(History!A62&lt;&gt;"",History!A62,"")</f>
         <v/>
       </c>
-      <c r="C62" s="7" t="str">
+      <c r="C62" s="4" t="str">
         <f>IF(History!A62&lt;&gt;"",SUM(History!62:62),"")</f>
         <v/>
       </c>
-      <c r="D62" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E62" s="3" t="str">
+      <c r="D62" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E62" s="4" t="str">
         <f>IF(History!A62&lt;&gt;0,COUNTIF(History!62:62,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F62" s="3" t="str">
+      <c r="F62" s="4" t="str">
         <f>IF(History!A62&lt;&gt;0,COUNTIF(History!62:62,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -3042,11 +3048,11 @@
         <f>IFERROR(SMALL(History!62:62,COUNTIF(History!62:62,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I62" s="8" t="str">
+      <c r="I62" s="5" t="str">
         <f>IF(History!A62&lt;&gt;"",History!B62,"")</f>
         <v/>
       </c>
-      <c r="J62" s="7" t="str">
+      <c r="J62" s="4" t="str">
         <f ca="1">IF(History!A62&lt;&gt;"",SUM(OFFSET(History!C62,0,COUNT(History!62:62)-IF(COUNT(History!62:62)&lt;=5,COUNT(History!62:62),5)):OFFSET(History!C62,0,COUNT(History!62:62)-1)),"")</f>
         <v/>
       </c>
@@ -3055,23 +3061,23 @@
       <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="B63" s="9" t="str">
+      <c r="B63" s="6" t="str">
         <f>IF(History!A63&lt;&gt;"",History!A63,"")</f>
         <v/>
       </c>
-      <c r="C63" s="7" t="str">
+      <c r="C63" s="4" t="str">
         <f>IF(History!A63&lt;&gt;"",SUM(History!63:63),"")</f>
         <v/>
       </c>
-      <c r="D63" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E63" s="3" t="str">
+      <c r="D63" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E63" s="4" t="str">
         <f>IF(History!A63&lt;&gt;0,COUNTIF(History!63:63,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F63" s="3" t="str">
+      <c r="F63" s="4" t="str">
         <f>IF(History!A63&lt;&gt;0,COUNTIF(History!63:63,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -3083,11 +3089,11 @@
         <f>IFERROR(SMALL(History!63:63,COUNTIF(History!63:63,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I63" s="8" t="str">
+      <c r="I63" s="5" t="str">
         <f>IF(History!A63&lt;&gt;"",History!B63,"")</f>
         <v/>
       </c>
-      <c r="J63" s="7" t="str">
+      <c r="J63" s="4" t="str">
         <f ca="1">IF(History!A63&lt;&gt;"",SUM(OFFSET(History!C63,0,COUNT(History!63:63)-IF(COUNT(History!63:63)&lt;=5,COUNT(History!63:63),5)):OFFSET(History!C63,0,COUNT(History!63:63)-1)),"")</f>
         <v/>
       </c>
@@ -3096,23 +3102,23 @@
       <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="B64" s="9" t="str">
+      <c r="B64" s="6" t="str">
         <f>IF(History!A64&lt;&gt;"",History!A64,"")</f>
         <v/>
       </c>
-      <c r="C64" s="7" t="str">
+      <c r="C64" s="4" t="str">
         <f>IF(History!A64&lt;&gt;"",SUM(History!64:64),"")</f>
         <v/>
       </c>
-      <c r="D64" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E64" s="3" t="str">
+      <c r="D64" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E64" s="4" t="str">
         <f>IF(History!A64&lt;&gt;0,COUNTIF(History!64:64,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F64" s="3" t="str">
+      <c r="F64" s="4" t="str">
         <f>IF(History!A64&lt;&gt;0,COUNTIF(History!64:64,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -3124,11 +3130,11 @@
         <f>IFERROR(SMALL(History!64:64,COUNTIF(History!64:64,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I64" s="8" t="str">
+      <c r="I64" s="5" t="str">
         <f>IF(History!A64&lt;&gt;"",History!B64,"")</f>
         <v/>
       </c>
-      <c r="J64" s="7" t="str">
+      <c r="J64" s="4" t="str">
         <f ca="1">IF(History!A64&lt;&gt;"",SUM(OFFSET(History!C64,0,COUNT(History!64:64)-IF(COUNT(History!64:64)&lt;=5,COUNT(History!64:64),5)):OFFSET(History!C64,0,COUNT(History!64:64)-1)),"")</f>
         <v/>
       </c>
@@ -3137,23 +3143,23 @@
       <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="B65" s="9" t="str">
+      <c r="B65" s="6" t="str">
         <f>IF(History!A65&lt;&gt;"",History!A65,"")</f>
         <v/>
       </c>
-      <c r="C65" s="7" t="str">
+      <c r="C65" s="4" t="str">
         <f>IF(History!A65&lt;&gt;"",SUM(History!65:65),"")</f>
         <v/>
       </c>
-      <c r="D65" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E65" s="3" t="str">
+      <c r="D65" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E65" s="4" t="str">
         <f>IF(History!A65&lt;&gt;0,COUNTIF(History!65:65,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F65" s="3" t="str">
+      <c r="F65" s="4" t="str">
         <f>IF(History!A65&lt;&gt;0,COUNTIF(History!65:65,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -3165,11 +3171,11 @@
         <f>IFERROR(SMALL(History!65:65,COUNTIF(History!65:65,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I65" s="8" t="str">
+      <c r="I65" s="5" t="str">
         <f>IF(History!A65&lt;&gt;"",History!B65,"")</f>
         <v/>
       </c>
-      <c r="J65" s="7" t="str">
+      <c r="J65" s="4" t="str">
         <f ca="1">IF(History!A65&lt;&gt;"",SUM(OFFSET(History!C65,0,COUNT(History!65:65)-IF(COUNT(History!65:65)&lt;=5,COUNT(History!65:65),5)):OFFSET(History!C65,0,COUNT(History!65:65)-1)),"")</f>
         <v/>
       </c>
@@ -3178,23 +3184,23 @@
       <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="B66" s="9" t="str">
+      <c r="B66" s="6" t="str">
         <f>IF(History!A66&lt;&gt;"",History!A66,"")</f>
         <v/>
       </c>
-      <c r="C66" s="7" t="str">
+      <c r="C66" s="4" t="str">
         <f>IF(History!A66&lt;&gt;"",SUM(History!66:66),"")</f>
         <v/>
       </c>
-      <c r="D66" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E66" s="3" t="str">
+      <c r="D66" s="7" t="str">
+        <f t="shared" ref="D66:D97" si="2">IFERROR(E66/(E66+F66),"")</f>
+        <v/>
+      </c>
+      <c r="E66" s="4" t="str">
         <f>IF(History!A66&lt;&gt;0,COUNTIF(History!66:66,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F66" s="3" t="str">
+      <c r="F66" s="4" t="str">
         <f>IF(History!A66&lt;&gt;0,COUNTIF(History!66:66,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -3206,11 +3212,11 @@
         <f>IFERROR(SMALL(History!66:66,COUNTIF(History!66:66,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I66" s="8" t="str">
+      <c r="I66" s="5" t="str">
         <f>IF(History!A66&lt;&gt;"",History!B66,"")</f>
         <v/>
       </c>
-      <c r="J66" s="7" t="str">
+      <c r="J66" s="4" t="str">
         <f ca="1">IF(History!A66&lt;&gt;"",SUM(OFFSET(History!C66,0,COUNT(History!66:66)-IF(COUNT(History!66:66)&lt;=5,COUNT(History!66:66),5)):OFFSET(History!C66,0,COUNT(History!66:66)-1)),"")</f>
         <v/>
       </c>
@@ -3219,23 +3225,23 @@
       <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="B67" s="9" t="str">
+      <c r="B67" s="6" t="str">
         <f>IF(History!A67&lt;&gt;"",History!A67,"")</f>
         <v/>
       </c>
-      <c r="C67" s="7" t="str">
+      <c r="C67" s="4" t="str">
         <f>IF(History!A67&lt;&gt;"",SUM(History!67:67),"")</f>
         <v/>
       </c>
-      <c r="D67" s="6" t="str">
-        <f t="shared" ref="D67:D130" si="1">IFERROR(E67/(E67+F67),"")</f>
-        <v/>
-      </c>
-      <c r="E67" s="3" t="str">
+      <c r="D67" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E67" s="4" t="str">
         <f>IF(History!A67&lt;&gt;0,COUNTIF(History!67:67,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F67" s="3" t="str">
+      <c r="F67" s="4" t="str">
         <f>IF(History!A67&lt;&gt;0,COUNTIF(History!67:67,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -3247,11 +3253,11 @@
         <f>IFERROR(SMALL(History!67:67,COUNTIF(History!67:67,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I67" s="8" t="str">
+      <c r="I67" s="5" t="str">
         <f>IF(History!A67&lt;&gt;"",History!B67,"")</f>
         <v/>
       </c>
-      <c r="J67" s="7" t="str">
+      <c r="J67" s="4" t="str">
         <f ca="1">IF(History!A67&lt;&gt;"",SUM(OFFSET(History!C67,0,COUNT(History!67:67)-IF(COUNT(History!67:67)&lt;=5,COUNT(History!67:67),5)):OFFSET(History!C67,0,COUNT(History!67:67)-1)),"")</f>
         <v/>
       </c>
@@ -3260,23 +3266,23 @@
       <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="B68" s="9" t="str">
+      <c r="B68" s="6" t="str">
         <f>IF(History!A68&lt;&gt;"",History!A68,"")</f>
         <v/>
       </c>
-      <c r="C68" s="7" t="str">
+      <c r="C68" s="4" t="str">
         <f>IF(History!A68&lt;&gt;"",SUM(History!68:68),"")</f>
         <v/>
       </c>
-      <c r="D68" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E68" s="3" t="str">
+      <c r="D68" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E68" s="4" t="str">
         <f>IF(History!A68&lt;&gt;0,COUNTIF(History!68:68,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F68" s="3" t="str">
+      <c r="F68" s="4" t="str">
         <f>IF(History!A68&lt;&gt;0,COUNTIF(History!68:68,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -3288,11 +3294,11 @@
         <f>IFERROR(SMALL(History!68:68,COUNTIF(History!68:68,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I68" s="8" t="str">
+      <c r="I68" s="5" t="str">
         <f>IF(History!A68&lt;&gt;"",History!B68,"")</f>
         <v/>
       </c>
-      <c r="J68" s="7" t="str">
+      <c r="J68" s="4" t="str">
         <f ca="1">IF(History!A68&lt;&gt;"",SUM(OFFSET(History!C68,0,COUNT(History!68:68)-IF(COUNT(History!68:68)&lt;=5,COUNT(History!68:68),5)):OFFSET(History!C68,0,COUNT(History!68:68)-1)),"")</f>
         <v/>
       </c>
@@ -3301,23 +3307,23 @@
       <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="B69" s="9" t="str">
+      <c r="B69" s="6" t="str">
         <f>IF(History!A69&lt;&gt;"",History!A69,"")</f>
         <v/>
       </c>
-      <c r="C69" s="7" t="str">
+      <c r="C69" s="4" t="str">
         <f>IF(History!A69&lt;&gt;"",SUM(History!69:69),"")</f>
         <v/>
       </c>
-      <c r="D69" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E69" s="3" t="str">
+      <c r="D69" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E69" s="4" t="str">
         <f>IF(History!A69&lt;&gt;0,COUNTIF(History!69:69,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F69" s="3" t="str">
+      <c r="F69" s="4" t="str">
         <f>IF(History!A69&lt;&gt;0,COUNTIF(History!69:69,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -3329,11 +3335,11 @@
         <f>IFERROR(SMALL(History!69:69,COUNTIF(History!69:69,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I69" s="8" t="str">
+      <c r="I69" s="5" t="str">
         <f>IF(History!A69&lt;&gt;"",History!B69,"")</f>
         <v/>
       </c>
-      <c r="J69" s="7" t="str">
+      <c r="J69" s="4" t="str">
         <f ca="1">IF(History!A69&lt;&gt;"",SUM(OFFSET(History!C69,0,COUNT(History!69:69)-IF(COUNT(History!69:69)&lt;=5,COUNT(History!69:69),5)):OFFSET(History!C69,0,COUNT(History!69:69)-1)),"")</f>
         <v/>
       </c>
@@ -3342,23 +3348,23 @@
       <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="B70" s="9" t="str">
+      <c r="B70" s="6" t="str">
         <f>IF(History!A70&lt;&gt;"",History!A70,"")</f>
         <v/>
       </c>
-      <c r="C70" s="7" t="str">
+      <c r="C70" s="4" t="str">
         <f>IF(History!A70&lt;&gt;"",SUM(History!70:70),"")</f>
         <v/>
       </c>
-      <c r="D70" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E70" s="3" t="str">
+      <c r="D70" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E70" s="4" t="str">
         <f>IF(History!A70&lt;&gt;0,COUNTIF(History!70:70,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F70" s="3" t="str">
+      <c r="F70" s="4" t="str">
         <f>IF(History!A70&lt;&gt;0,COUNTIF(History!70:70,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -3370,11 +3376,11 @@
         <f>IFERROR(SMALL(History!70:70,COUNTIF(History!70:70,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I70" s="8" t="str">
+      <c r="I70" s="5" t="str">
         <f>IF(History!A70&lt;&gt;"",History!B70,"")</f>
         <v/>
       </c>
-      <c r="J70" s="7" t="str">
+      <c r="J70" s="4" t="str">
         <f ca="1">IF(History!A70&lt;&gt;"",SUM(OFFSET(History!C70,0,COUNT(History!70:70)-IF(COUNT(History!70:70)&lt;=5,COUNT(History!70:70),5)):OFFSET(History!C70,0,COUNT(History!70:70)-1)),"")</f>
         <v/>
       </c>
@@ -3383,23 +3389,23 @@
       <c r="A71" s="1">
         <v>70</v>
       </c>
-      <c r="B71" s="9" t="str">
+      <c r="B71" s="6" t="str">
         <f>IF(History!A71&lt;&gt;"",History!A71,"")</f>
         <v/>
       </c>
-      <c r="C71" s="7" t="str">
+      <c r="C71" s="4" t="str">
         <f>IF(History!A71&lt;&gt;"",SUM(History!71:71),"")</f>
         <v/>
       </c>
-      <c r="D71" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E71" s="3" t="str">
+      <c r="D71" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E71" s="4" t="str">
         <f>IF(History!A71&lt;&gt;0,COUNTIF(History!71:71,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F71" s="3" t="str">
+      <c r="F71" s="4" t="str">
         <f>IF(History!A71&lt;&gt;0,COUNTIF(History!71:71,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -3411,11 +3417,11 @@
         <f>IFERROR(SMALL(History!71:71,COUNTIF(History!71:71,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I71" s="8" t="str">
+      <c r="I71" s="5" t="str">
         <f>IF(History!A71&lt;&gt;"",History!B71,"")</f>
         <v/>
       </c>
-      <c r="J71" s="7" t="str">
+      <c r="J71" s="4" t="str">
         <f ca="1">IF(History!A71&lt;&gt;"",SUM(OFFSET(History!C71,0,COUNT(History!71:71)-IF(COUNT(History!71:71)&lt;=5,COUNT(History!71:71),5)):OFFSET(History!C71,0,COUNT(History!71:71)-1)),"")</f>
         <v/>
       </c>
@@ -3424,23 +3430,23 @@
       <c r="A72" s="1">
         <v>71</v>
       </c>
-      <c r="B72" s="9" t="str">
+      <c r="B72" s="6" t="str">
         <f>IF(History!A72&lt;&gt;"",History!A72,"")</f>
         <v/>
       </c>
-      <c r="C72" s="7" t="str">
+      <c r="C72" s="4" t="str">
         <f>IF(History!A72&lt;&gt;"",SUM(History!72:72),"")</f>
         <v/>
       </c>
-      <c r="D72" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E72" s="3" t="str">
+      <c r="D72" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E72" s="4" t="str">
         <f>IF(History!A72&lt;&gt;0,COUNTIF(History!72:72,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F72" s="3" t="str">
+      <c r="F72" s="4" t="str">
         <f>IF(History!A72&lt;&gt;0,COUNTIF(History!72:72,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -3452,11 +3458,11 @@
         <f>IFERROR(SMALL(History!72:72,COUNTIF(History!72:72,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I72" s="8" t="str">
+      <c r="I72" s="5" t="str">
         <f>IF(History!A72&lt;&gt;"",History!B72,"")</f>
         <v/>
       </c>
-      <c r="J72" s="7" t="str">
+      <c r="J72" s="4" t="str">
         <f ca="1">IF(History!A72&lt;&gt;"",SUM(OFFSET(History!C72,0,COUNT(History!72:72)-IF(COUNT(History!72:72)&lt;=5,COUNT(History!72:72),5)):OFFSET(History!C72,0,COUNT(History!72:72)-1)),"")</f>
         <v/>
       </c>
@@ -3465,23 +3471,23 @@
       <c r="A73" s="1">
         <v>72</v>
       </c>
-      <c r="B73" s="9" t="str">
+      <c r="B73" s="6" t="str">
         <f>IF(History!A73&lt;&gt;"",History!A73,"")</f>
         <v/>
       </c>
-      <c r="C73" s="7" t="str">
+      <c r="C73" s="4" t="str">
         <f>IF(History!A73&lt;&gt;"",SUM(History!73:73),"")</f>
         <v/>
       </c>
-      <c r="D73" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E73" s="3" t="str">
+      <c r="D73" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E73" s="4" t="str">
         <f>IF(History!A73&lt;&gt;0,COUNTIF(History!73:73,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F73" s="3" t="str">
+      <c r="F73" s="4" t="str">
         <f>IF(History!A73&lt;&gt;0,COUNTIF(History!73:73,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -3493,11 +3499,11 @@
         <f>IFERROR(SMALL(History!73:73,COUNTIF(History!73:73,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I73" s="8" t="str">
+      <c r="I73" s="5" t="str">
         <f>IF(History!A73&lt;&gt;"",History!B73,"")</f>
         <v/>
       </c>
-      <c r="J73" s="7" t="str">
+      <c r="J73" s="4" t="str">
         <f ca="1">IF(History!A73&lt;&gt;"",SUM(OFFSET(History!C73,0,COUNT(History!73:73)-IF(COUNT(History!73:73)&lt;=5,COUNT(History!73:73),5)):OFFSET(History!C73,0,COUNT(History!73:73)-1)),"")</f>
         <v/>
       </c>
@@ -3506,23 +3512,23 @@
       <c r="A74" s="1">
         <v>73</v>
       </c>
-      <c r="B74" s="9" t="str">
+      <c r="B74" s="6" t="str">
         <f>IF(History!A74&lt;&gt;"",History!A74,"")</f>
         <v/>
       </c>
-      <c r="C74" s="7" t="str">
+      <c r="C74" s="4" t="str">
         <f>IF(History!A74&lt;&gt;"",SUM(History!74:74),"")</f>
         <v/>
       </c>
-      <c r="D74" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E74" s="3" t="str">
+      <c r="D74" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E74" s="4" t="str">
         <f>IF(History!A74&lt;&gt;0,COUNTIF(History!74:74,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F74" s="3" t="str">
+      <c r="F74" s="4" t="str">
         <f>IF(History!A74&lt;&gt;0,COUNTIF(History!74:74,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -3534,11 +3540,11 @@
         <f>IFERROR(SMALL(History!74:74,COUNTIF(History!74:74,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I74" s="8" t="str">
+      <c r="I74" s="5" t="str">
         <f>IF(History!A74&lt;&gt;"",History!B74,"")</f>
         <v/>
       </c>
-      <c r="J74" s="7" t="str">
+      <c r="J74" s="4" t="str">
         <f ca="1">IF(History!A74&lt;&gt;"",SUM(OFFSET(History!C74,0,COUNT(History!74:74)-IF(COUNT(History!74:74)&lt;=5,COUNT(History!74:74),5)):OFFSET(History!C74,0,COUNT(History!74:74)-1)),"")</f>
         <v/>
       </c>
@@ -3547,23 +3553,23 @@
       <c r="A75" s="1">
         <v>74</v>
       </c>
-      <c r="B75" s="9" t="str">
+      <c r="B75" s="6" t="str">
         <f>IF(History!A75&lt;&gt;"",History!A75,"")</f>
         <v/>
       </c>
-      <c r="C75" s="7" t="str">
+      <c r="C75" s="4" t="str">
         <f>IF(History!A75&lt;&gt;"",SUM(History!75:75),"")</f>
         <v/>
       </c>
-      <c r="D75" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E75" s="3" t="str">
+      <c r="D75" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E75" s="4" t="str">
         <f>IF(History!A75&lt;&gt;0,COUNTIF(History!75:75,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F75" s="3" t="str">
+      <c r="F75" s="4" t="str">
         <f>IF(History!A75&lt;&gt;0,COUNTIF(History!75:75,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -3575,11 +3581,11 @@
         <f>IFERROR(SMALL(History!75:75,COUNTIF(History!75:75,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I75" s="8" t="str">
+      <c r="I75" s="5" t="str">
         <f>IF(History!A75&lt;&gt;"",History!B75,"")</f>
         <v/>
       </c>
-      <c r="J75" s="7" t="str">
+      <c r="J75" s="4" t="str">
         <f ca="1">IF(History!A75&lt;&gt;"",SUM(OFFSET(History!C75,0,COUNT(History!75:75)-IF(COUNT(History!75:75)&lt;=5,COUNT(History!75:75),5)):OFFSET(History!C75,0,COUNT(History!75:75)-1)),"")</f>
         <v/>
       </c>
@@ -3588,23 +3594,23 @@
       <c r="A76" s="1">
         <v>75</v>
       </c>
-      <c r="B76" s="9" t="str">
+      <c r="B76" s="6" t="str">
         <f>IF(History!A76&lt;&gt;"",History!A76,"")</f>
         <v/>
       </c>
-      <c r="C76" s="7" t="str">
+      <c r="C76" s="4" t="str">
         <f>IF(History!A76&lt;&gt;"",SUM(History!76:76),"")</f>
         <v/>
       </c>
-      <c r="D76" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E76" s="3" t="str">
+      <c r="D76" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E76" s="4" t="str">
         <f>IF(History!A76&lt;&gt;0,COUNTIF(History!76:76,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F76" s="3" t="str">
+      <c r="F76" s="4" t="str">
         <f>IF(History!A76&lt;&gt;0,COUNTIF(History!76:76,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -3616,11 +3622,11 @@
         <f>IFERROR(SMALL(History!76:76,COUNTIF(History!76:76,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I76" s="8" t="str">
+      <c r="I76" s="5" t="str">
         <f>IF(History!A76&lt;&gt;"",History!B76,"")</f>
         <v/>
       </c>
-      <c r="J76" s="7" t="str">
+      <c r="J76" s="4" t="str">
         <f ca="1">IF(History!A76&lt;&gt;"",SUM(OFFSET(History!C76,0,COUNT(History!76:76)-IF(COUNT(History!76:76)&lt;=5,COUNT(History!76:76),5)):OFFSET(History!C76,0,COUNT(History!76:76)-1)),"")</f>
         <v/>
       </c>
@@ -3629,23 +3635,23 @@
       <c r="A77" s="1">
         <v>76</v>
       </c>
-      <c r="B77" s="9" t="str">
+      <c r="B77" s="6" t="str">
         <f>IF(History!A77&lt;&gt;"",History!A77,"")</f>
         <v/>
       </c>
-      <c r="C77" s="7" t="str">
+      <c r="C77" s="4" t="str">
         <f>IF(History!A77&lt;&gt;"",SUM(History!77:77),"")</f>
         <v/>
       </c>
-      <c r="D77" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E77" s="3" t="str">
+      <c r="D77" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E77" s="4" t="str">
         <f>IF(History!A77&lt;&gt;0,COUNTIF(History!77:77,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F77" s="3" t="str">
+      <c r="F77" s="4" t="str">
         <f>IF(History!A77&lt;&gt;0,COUNTIF(History!77:77,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -3657,11 +3663,11 @@
         <f>IFERROR(SMALL(History!77:77,COUNTIF(History!77:77,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I77" s="8" t="str">
+      <c r="I77" s="5" t="str">
         <f>IF(History!A77&lt;&gt;"",History!B77,"")</f>
         <v/>
       </c>
-      <c r="J77" s="7" t="str">
+      <c r="J77" s="4" t="str">
         <f ca="1">IF(History!A77&lt;&gt;"",SUM(OFFSET(History!C77,0,COUNT(History!77:77)-IF(COUNT(History!77:77)&lt;=5,COUNT(History!77:77),5)):OFFSET(History!C77,0,COUNT(History!77:77)-1)),"")</f>
         <v/>
       </c>
@@ -3670,23 +3676,23 @@
       <c r="A78" s="1">
         <v>77</v>
       </c>
-      <c r="B78" s="9" t="str">
+      <c r="B78" s="6" t="str">
         <f>IF(History!A78&lt;&gt;"",History!A78,"")</f>
         <v/>
       </c>
-      <c r="C78" s="7" t="str">
+      <c r="C78" s="4" t="str">
         <f>IF(History!A78&lt;&gt;"",SUM(History!78:78),"")</f>
         <v/>
       </c>
-      <c r="D78" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E78" s="3" t="str">
+      <c r="D78" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E78" s="4" t="str">
         <f>IF(History!A78&lt;&gt;0,COUNTIF(History!78:78,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F78" s="3" t="str">
+      <c r="F78" s="4" t="str">
         <f>IF(History!A78&lt;&gt;0,COUNTIF(History!78:78,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -3698,11 +3704,11 @@
         <f>IFERROR(SMALL(History!78:78,COUNTIF(History!78:78,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I78" s="8" t="str">
+      <c r="I78" s="5" t="str">
         <f>IF(History!A78&lt;&gt;"",History!B78,"")</f>
         <v/>
       </c>
-      <c r="J78" s="7" t="str">
+      <c r="J78" s="4" t="str">
         <f ca="1">IF(History!A78&lt;&gt;"",SUM(OFFSET(History!C78,0,COUNT(History!78:78)-IF(COUNT(History!78:78)&lt;=5,COUNT(History!78:78),5)):OFFSET(History!C78,0,COUNT(History!78:78)-1)),"")</f>
         <v/>
       </c>
@@ -3711,23 +3717,23 @@
       <c r="A79" s="1">
         <v>78</v>
       </c>
-      <c r="B79" s="9" t="str">
+      <c r="B79" s="6" t="str">
         <f>IF(History!A79&lt;&gt;"",History!A79,"")</f>
         <v/>
       </c>
-      <c r="C79" s="7" t="str">
+      <c r="C79" s="4" t="str">
         <f>IF(History!A79&lt;&gt;"",SUM(History!79:79),"")</f>
         <v/>
       </c>
-      <c r="D79" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E79" s="3" t="str">
+      <c r="D79" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E79" s="4" t="str">
         <f>IF(History!A79&lt;&gt;0,COUNTIF(History!79:79,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F79" s="3" t="str">
+      <c r="F79" s="4" t="str">
         <f>IF(History!A79&lt;&gt;0,COUNTIF(History!79:79,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -3739,11 +3745,11 @@
         <f>IFERROR(SMALL(History!79:79,COUNTIF(History!79:79,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I79" s="8" t="str">
+      <c r="I79" s="5" t="str">
         <f>IF(History!A79&lt;&gt;"",History!B79,"")</f>
         <v/>
       </c>
-      <c r="J79" s="7" t="str">
+      <c r="J79" s="4" t="str">
         <f ca="1">IF(History!A79&lt;&gt;"",SUM(OFFSET(History!C79,0,COUNT(History!79:79)-IF(COUNT(History!79:79)&lt;=5,COUNT(History!79:79),5)):OFFSET(History!C79,0,COUNT(History!79:79)-1)),"")</f>
         <v/>
       </c>
@@ -3752,23 +3758,23 @@
       <c r="A80" s="1">
         <v>79</v>
       </c>
-      <c r="B80" s="9" t="str">
+      <c r="B80" s="6" t="str">
         <f>IF(History!A80&lt;&gt;"",History!A80,"")</f>
         <v/>
       </c>
-      <c r="C80" s="7" t="str">
+      <c r="C80" s="4" t="str">
         <f>IF(History!A80&lt;&gt;"",SUM(History!80:80),"")</f>
         <v/>
       </c>
-      <c r="D80" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E80" s="3" t="str">
+      <c r="D80" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E80" s="4" t="str">
         <f>IF(History!A80&lt;&gt;0,COUNTIF(History!80:80,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F80" s="3" t="str">
+      <c r="F80" s="4" t="str">
         <f>IF(History!A80&lt;&gt;0,COUNTIF(History!80:80,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -3780,11 +3786,11 @@
         <f>IFERROR(SMALL(History!80:80,COUNTIF(History!80:80,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I80" s="8" t="str">
+      <c r="I80" s="5" t="str">
         <f>IF(History!A80&lt;&gt;"",History!B80,"")</f>
         <v/>
       </c>
-      <c r="J80" s="7" t="str">
+      <c r="J80" s="4" t="str">
         <f ca="1">IF(History!A80&lt;&gt;"",SUM(OFFSET(History!C80,0,COUNT(History!80:80)-IF(COUNT(History!80:80)&lt;=5,COUNT(History!80:80),5)):OFFSET(History!C80,0,COUNT(History!80:80)-1)),"")</f>
         <v/>
       </c>
@@ -3793,23 +3799,23 @@
       <c r="A81" s="1">
         <v>80</v>
       </c>
-      <c r="B81" s="9" t="str">
+      <c r="B81" s="6" t="str">
         <f>IF(History!A81&lt;&gt;"",History!A81,"")</f>
         <v/>
       </c>
-      <c r="C81" s="7" t="str">
+      <c r="C81" s="4" t="str">
         <f>IF(History!A81&lt;&gt;"",SUM(History!81:81),"")</f>
         <v/>
       </c>
-      <c r="D81" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E81" s="3" t="str">
+      <c r="D81" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E81" s="4" t="str">
         <f>IF(History!A81&lt;&gt;0,COUNTIF(History!81:81,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F81" s="3" t="str">
+      <c r="F81" s="4" t="str">
         <f>IF(History!A81&lt;&gt;0,COUNTIF(History!81:81,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -3821,11 +3827,11 @@
         <f>IFERROR(SMALL(History!81:81,COUNTIF(History!81:81,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I81" s="8" t="str">
+      <c r="I81" s="5" t="str">
         <f>IF(History!A81&lt;&gt;"",History!B81,"")</f>
         <v/>
       </c>
-      <c r="J81" s="7" t="str">
+      <c r="J81" s="4" t="str">
         <f ca="1">IF(History!A81&lt;&gt;"",SUM(OFFSET(History!C81,0,COUNT(History!81:81)-IF(COUNT(History!81:81)&lt;=5,COUNT(History!81:81),5)):OFFSET(History!C81,0,COUNT(History!81:81)-1)),"")</f>
         <v/>
       </c>
@@ -3834,23 +3840,23 @@
       <c r="A82" s="1">
         <v>81</v>
       </c>
-      <c r="B82" s="9" t="str">
+      <c r="B82" s="6" t="str">
         <f>IF(History!A82&lt;&gt;"",History!A82,"")</f>
         <v/>
       </c>
-      <c r="C82" s="7" t="str">
+      <c r="C82" s="4" t="str">
         <f>IF(History!A82&lt;&gt;"",SUM(History!82:82),"")</f>
         <v/>
       </c>
-      <c r="D82" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E82" s="3" t="str">
+      <c r="D82" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E82" s="4" t="str">
         <f>IF(History!A82&lt;&gt;0,COUNTIF(History!82:82,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F82" s="3" t="str">
+      <c r="F82" s="4" t="str">
         <f>IF(History!A82&lt;&gt;0,COUNTIF(History!82:82,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -3862,11 +3868,11 @@
         <f>IFERROR(SMALL(History!82:82,COUNTIF(History!82:82,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I82" s="8" t="str">
+      <c r="I82" s="5" t="str">
         <f>IF(History!A82&lt;&gt;"",History!B82,"")</f>
         <v/>
       </c>
-      <c r="J82" s="7" t="str">
+      <c r="J82" s="4" t="str">
         <f ca="1">IF(History!A82&lt;&gt;"",SUM(OFFSET(History!C82,0,COUNT(History!82:82)-IF(COUNT(History!82:82)&lt;=5,COUNT(History!82:82),5)):OFFSET(History!C82,0,COUNT(History!82:82)-1)),"")</f>
         <v/>
       </c>
@@ -3875,23 +3881,23 @@
       <c r="A83" s="1">
         <v>82</v>
       </c>
-      <c r="B83" s="9" t="str">
+      <c r="B83" s="6" t="str">
         <f>IF(History!A83&lt;&gt;"",History!A83,"")</f>
         <v/>
       </c>
-      <c r="C83" s="7" t="str">
+      <c r="C83" s="4" t="str">
         <f>IF(History!A83&lt;&gt;"",SUM(History!83:83),"")</f>
         <v/>
       </c>
-      <c r="D83" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E83" s="3" t="str">
+      <c r="D83" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E83" s="4" t="str">
         <f>IF(History!A83&lt;&gt;0,COUNTIF(History!83:83,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F83" s="3" t="str">
+      <c r="F83" s="4" t="str">
         <f>IF(History!A83&lt;&gt;0,COUNTIF(History!83:83,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -3903,11 +3909,11 @@
         <f>IFERROR(SMALL(History!83:83,COUNTIF(History!83:83,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I83" s="8" t="str">
+      <c r="I83" s="5" t="str">
         <f>IF(History!A83&lt;&gt;"",History!B83,"")</f>
         <v/>
       </c>
-      <c r="J83" s="7" t="str">
+      <c r="J83" s="4" t="str">
         <f ca="1">IF(History!A83&lt;&gt;"",SUM(OFFSET(History!C83,0,COUNT(History!83:83)-IF(COUNT(History!83:83)&lt;=5,COUNT(History!83:83),5)):OFFSET(History!C83,0,COUNT(History!83:83)-1)),"")</f>
         <v/>
       </c>
@@ -3916,23 +3922,23 @@
       <c r="A84" s="1">
         <v>83</v>
       </c>
-      <c r="B84" s="9" t="str">
+      <c r="B84" s="6" t="str">
         <f>IF(History!A84&lt;&gt;"",History!A84,"")</f>
         <v/>
       </c>
-      <c r="C84" s="7" t="str">
+      <c r="C84" s="4" t="str">
         <f>IF(History!A84&lt;&gt;"",SUM(History!84:84),"")</f>
         <v/>
       </c>
-      <c r="D84" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E84" s="3" t="str">
+      <c r="D84" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E84" s="4" t="str">
         <f>IF(History!A84&lt;&gt;0,COUNTIF(History!84:84,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F84" s="3" t="str">
+      <c r="F84" s="4" t="str">
         <f>IF(History!A84&lt;&gt;0,COUNTIF(History!84:84,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -3944,11 +3950,11 @@
         <f>IFERROR(SMALL(History!84:84,COUNTIF(History!84:84,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I84" s="8" t="str">
+      <c r="I84" s="5" t="str">
         <f>IF(History!A84&lt;&gt;"",History!B84,"")</f>
         <v/>
       </c>
-      <c r="J84" s="7" t="str">
+      <c r="J84" s="4" t="str">
         <f ca="1">IF(History!A84&lt;&gt;"",SUM(OFFSET(History!C84,0,COUNT(History!84:84)-IF(COUNT(History!84:84)&lt;=5,COUNT(History!84:84),5)):OFFSET(History!C84,0,COUNT(History!84:84)-1)),"")</f>
         <v/>
       </c>
@@ -3957,23 +3963,23 @@
       <c r="A85" s="1">
         <v>84</v>
       </c>
-      <c r="B85" s="9" t="str">
+      <c r="B85" s="6" t="str">
         <f>IF(History!A85&lt;&gt;"",History!A85,"")</f>
         <v/>
       </c>
-      <c r="C85" s="7" t="str">
+      <c r="C85" s="4" t="str">
         <f>IF(History!A85&lt;&gt;"",SUM(History!85:85),"")</f>
         <v/>
       </c>
-      <c r="D85" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E85" s="3" t="str">
+      <c r="D85" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E85" s="4" t="str">
         <f>IF(History!A85&lt;&gt;0,COUNTIF(History!85:85,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F85" s="3" t="str">
+      <c r="F85" s="4" t="str">
         <f>IF(History!A85&lt;&gt;0,COUNTIF(History!85:85,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -3985,11 +3991,11 @@
         <f>IFERROR(SMALL(History!85:85,COUNTIF(History!85:85,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I85" s="8" t="str">
+      <c r="I85" s="5" t="str">
         <f>IF(History!A85&lt;&gt;"",History!B85,"")</f>
         <v/>
       </c>
-      <c r="J85" s="7" t="str">
+      <c r="J85" s="4" t="str">
         <f ca="1">IF(History!A85&lt;&gt;"",SUM(OFFSET(History!C85,0,COUNT(History!85:85)-IF(COUNT(History!85:85)&lt;=5,COUNT(History!85:85),5)):OFFSET(History!C85,0,COUNT(History!85:85)-1)),"")</f>
         <v/>
       </c>
@@ -3998,23 +4004,23 @@
       <c r="A86" s="1">
         <v>85</v>
       </c>
-      <c r="B86" s="9" t="str">
+      <c r="B86" s="6" t="str">
         <f>IF(History!A86&lt;&gt;"",History!A86,"")</f>
         <v/>
       </c>
-      <c r="C86" s="7" t="str">
+      <c r="C86" s="4" t="str">
         <f>IF(History!A86&lt;&gt;"",SUM(History!86:86),"")</f>
         <v/>
       </c>
-      <c r="D86" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E86" s="3" t="str">
+      <c r="D86" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E86" s="4" t="str">
         <f>IF(History!A86&lt;&gt;0,COUNTIF(History!86:86,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F86" s="3" t="str">
+      <c r="F86" s="4" t="str">
         <f>IF(History!A86&lt;&gt;0,COUNTIF(History!86:86,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -4026,11 +4032,11 @@
         <f>IFERROR(SMALL(History!86:86,COUNTIF(History!86:86,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I86" s="8" t="str">
+      <c r="I86" s="5" t="str">
         <f>IF(History!A86&lt;&gt;"",History!B86,"")</f>
         <v/>
       </c>
-      <c r="J86" s="7" t="str">
+      <c r="J86" s="4" t="str">
         <f ca="1">IF(History!A86&lt;&gt;"",SUM(OFFSET(History!C86,0,COUNT(History!86:86)-IF(COUNT(History!86:86)&lt;=5,COUNT(History!86:86),5)):OFFSET(History!C86,0,COUNT(History!86:86)-1)),"")</f>
         <v/>
       </c>
@@ -4039,23 +4045,23 @@
       <c r="A87" s="1">
         <v>86</v>
       </c>
-      <c r="B87" s="9" t="str">
+      <c r="B87" s="6" t="str">
         <f>IF(History!A87&lt;&gt;"",History!A87,"")</f>
         <v/>
       </c>
-      <c r="C87" s="7" t="str">
+      <c r="C87" s="4" t="str">
         <f>IF(History!A87&lt;&gt;"",SUM(History!87:87),"")</f>
         <v/>
       </c>
-      <c r="D87" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E87" s="3" t="str">
+      <c r="D87" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E87" s="4" t="str">
         <f>IF(History!A87&lt;&gt;0,COUNTIF(History!87:87,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F87" s="3" t="str">
+      <c r="F87" s="4" t="str">
         <f>IF(History!A87&lt;&gt;0,COUNTIF(History!87:87,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -4067,11 +4073,11 @@
         <f>IFERROR(SMALL(History!87:87,COUNTIF(History!87:87,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I87" s="8" t="str">
+      <c r="I87" s="5" t="str">
         <f>IF(History!A87&lt;&gt;"",History!B87,"")</f>
         <v/>
       </c>
-      <c r="J87" s="7" t="str">
+      <c r="J87" s="4" t="str">
         <f ca="1">IF(History!A87&lt;&gt;"",SUM(OFFSET(History!C87,0,COUNT(History!87:87)-IF(COUNT(History!87:87)&lt;=5,COUNT(History!87:87),5)):OFFSET(History!C87,0,COUNT(History!87:87)-1)),"")</f>
         <v/>
       </c>
@@ -4080,23 +4086,23 @@
       <c r="A88" s="1">
         <v>87</v>
       </c>
-      <c r="B88" s="9" t="str">
+      <c r="B88" s="6" t="str">
         <f>IF(History!A88&lt;&gt;"",History!A88,"")</f>
         <v/>
       </c>
-      <c r="C88" s="7" t="str">
+      <c r="C88" s="4" t="str">
         <f>IF(History!A88&lt;&gt;"",SUM(History!88:88),"")</f>
         <v/>
       </c>
-      <c r="D88" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E88" s="3" t="str">
+      <c r="D88" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E88" s="4" t="str">
         <f>IF(History!A88&lt;&gt;0,COUNTIF(History!88:88,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F88" s="3" t="str">
+      <c r="F88" s="4" t="str">
         <f>IF(History!A88&lt;&gt;0,COUNTIF(History!88:88,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -4108,11 +4114,11 @@
         <f>IFERROR(SMALL(History!88:88,COUNTIF(History!88:88,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I88" s="8" t="str">
+      <c r="I88" s="5" t="str">
         <f>IF(History!A88&lt;&gt;"",History!B88,"")</f>
         <v/>
       </c>
-      <c r="J88" s="7" t="str">
+      <c r="J88" s="4" t="str">
         <f ca="1">IF(History!A88&lt;&gt;"",SUM(OFFSET(History!C88,0,COUNT(History!88:88)-IF(COUNT(History!88:88)&lt;=5,COUNT(History!88:88),5)):OFFSET(History!C88,0,COUNT(History!88:88)-1)),"")</f>
         <v/>
       </c>
@@ -4121,23 +4127,23 @@
       <c r="A89" s="1">
         <v>88</v>
       </c>
-      <c r="B89" s="9" t="str">
+      <c r="B89" s="6" t="str">
         <f>IF(History!A89&lt;&gt;"",History!A89,"")</f>
         <v/>
       </c>
-      <c r="C89" s="7" t="str">
+      <c r="C89" s="4" t="str">
         <f>IF(History!A89&lt;&gt;"",SUM(History!89:89),"")</f>
         <v/>
       </c>
-      <c r="D89" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E89" s="3" t="str">
+      <c r="D89" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E89" s="4" t="str">
         <f>IF(History!A89&lt;&gt;0,COUNTIF(History!89:89,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F89" s="3" t="str">
+      <c r="F89" s="4" t="str">
         <f>IF(History!A89&lt;&gt;0,COUNTIF(History!89:89,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -4149,11 +4155,11 @@
         <f>IFERROR(SMALL(History!89:89,COUNTIF(History!89:89,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I89" s="8" t="str">
+      <c r="I89" s="5" t="str">
         <f>IF(History!A89&lt;&gt;"",History!B89,"")</f>
         <v/>
       </c>
-      <c r="J89" s="7" t="str">
+      <c r="J89" s="4" t="str">
         <f ca="1">IF(History!A89&lt;&gt;"",SUM(OFFSET(History!C89,0,COUNT(History!89:89)-IF(COUNT(History!89:89)&lt;=5,COUNT(History!89:89),5)):OFFSET(History!C89,0,COUNT(History!89:89)-1)),"")</f>
         <v/>
       </c>
@@ -4162,23 +4168,23 @@
       <c r="A90" s="1">
         <v>89</v>
       </c>
-      <c r="B90" s="9" t="str">
+      <c r="B90" s="6" t="str">
         <f>IF(History!A90&lt;&gt;"",History!A90,"")</f>
         <v/>
       </c>
-      <c r="C90" s="7" t="str">
+      <c r="C90" s="4" t="str">
         <f>IF(History!A90&lt;&gt;"",SUM(History!90:90),"")</f>
         <v/>
       </c>
-      <c r="D90" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E90" s="3" t="str">
+      <c r="D90" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E90" s="4" t="str">
         <f>IF(History!A90&lt;&gt;0,COUNTIF(History!90:90,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F90" s="3" t="str">
+      <c r="F90" s="4" t="str">
         <f>IF(History!A90&lt;&gt;0,COUNTIF(History!90:90,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -4190,11 +4196,11 @@
         <f>IFERROR(SMALL(History!90:90,COUNTIF(History!90:90,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I90" s="8" t="str">
+      <c r="I90" s="5" t="str">
         <f>IF(History!A90&lt;&gt;"",History!B90,"")</f>
         <v/>
       </c>
-      <c r="J90" s="7" t="str">
+      <c r="J90" s="4" t="str">
         <f ca="1">IF(History!A90&lt;&gt;"",SUM(OFFSET(History!C90,0,COUNT(History!90:90)-IF(COUNT(History!90:90)&lt;=5,COUNT(History!90:90),5)):OFFSET(History!C90,0,COUNT(History!90:90)-1)),"")</f>
         <v/>
       </c>
@@ -4203,23 +4209,23 @@
       <c r="A91" s="1">
         <v>90</v>
       </c>
-      <c r="B91" s="9" t="str">
+      <c r="B91" s="6" t="str">
         <f>IF(History!A91&lt;&gt;"",History!A91,"")</f>
         <v/>
       </c>
-      <c r="C91" s="7" t="str">
+      <c r="C91" s="4" t="str">
         <f>IF(History!A91&lt;&gt;"",SUM(History!91:91),"")</f>
         <v/>
       </c>
-      <c r="D91" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E91" s="3" t="str">
+      <c r="D91" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E91" s="4" t="str">
         <f>IF(History!A91&lt;&gt;0,COUNTIF(History!91:91,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F91" s="3" t="str">
+      <c r="F91" s="4" t="str">
         <f>IF(History!A91&lt;&gt;0,COUNTIF(History!91:91,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -4231,11 +4237,11 @@
         <f>IFERROR(SMALL(History!91:91,COUNTIF(History!91:91,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I91" s="8" t="str">
+      <c r="I91" s="5" t="str">
         <f>IF(History!A91&lt;&gt;"",History!B91,"")</f>
         <v/>
       </c>
-      <c r="J91" s="7" t="str">
+      <c r="J91" s="4" t="str">
         <f ca="1">IF(History!A91&lt;&gt;"",SUM(OFFSET(History!C91,0,COUNT(History!91:91)-IF(COUNT(History!91:91)&lt;=5,COUNT(History!91:91),5)):OFFSET(History!C91,0,COUNT(History!91:91)-1)),"")</f>
         <v/>
       </c>
@@ -4244,23 +4250,23 @@
       <c r="A92" s="1">
         <v>91</v>
       </c>
-      <c r="B92" s="9" t="str">
+      <c r="B92" s="6" t="str">
         <f>IF(History!A92&lt;&gt;"",History!A92,"")</f>
         <v/>
       </c>
-      <c r="C92" s="7" t="str">
+      <c r="C92" s="4" t="str">
         <f>IF(History!A92&lt;&gt;"",SUM(History!92:92),"")</f>
         <v/>
       </c>
-      <c r="D92" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E92" s="3" t="str">
+      <c r="D92" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E92" s="4" t="str">
         <f>IF(History!A92&lt;&gt;0,COUNTIF(History!92:92,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F92" s="3" t="str">
+      <c r="F92" s="4" t="str">
         <f>IF(History!A92&lt;&gt;0,COUNTIF(History!92:92,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -4272,11 +4278,11 @@
         <f>IFERROR(SMALL(History!92:92,COUNTIF(History!92:92,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I92" s="8" t="str">
+      <c r="I92" s="5" t="str">
         <f>IF(History!A92&lt;&gt;"",History!B92,"")</f>
         <v/>
       </c>
-      <c r="J92" s="7" t="str">
+      <c r="J92" s="4" t="str">
         <f ca="1">IF(History!A92&lt;&gt;"",SUM(OFFSET(History!C92,0,COUNT(History!92:92)-IF(COUNT(History!92:92)&lt;=5,COUNT(History!92:92),5)):OFFSET(History!C92,0,COUNT(History!92:92)-1)),"")</f>
         <v/>
       </c>
@@ -4285,23 +4291,23 @@
       <c r="A93" s="1">
         <v>92</v>
       </c>
-      <c r="B93" s="9" t="str">
+      <c r="B93" s="6" t="str">
         <f>IF(History!A93&lt;&gt;"",History!A93,"")</f>
         <v/>
       </c>
-      <c r="C93" s="7" t="str">
+      <c r="C93" s="4" t="str">
         <f>IF(History!A93&lt;&gt;"",SUM(History!93:93),"")</f>
         <v/>
       </c>
-      <c r="D93" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E93" s="3" t="str">
+      <c r="D93" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E93" s="4" t="str">
         <f>IF(History!A93&lt;&gt;0,COUNTIF(History!93:93,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F93" s="3" t="str">
+      <c r="F93" s="4" t="str">
         <f>IF(History!A93&lt;&gt;0,COUNTIF(History!93:93,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -4313,11 +4319,11 @@
         <f>IFERROR(SMALL(History!93:93,COUNTIF(History!93:93,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I93" s="8" t="str">
+      <c r="I93" s="5" t="str">
         <f>IF(History!A93&lt;&gt;"",History!B93,"")</f>
         <v/>
       </c>
-      <c r="J93" s="7" t="str">
+      <c r="J93" s="4" t="str">
         <f ca="1">IF(History!A93&lt;&gt;"",SUM(OFFSET(History!C93,0,COUNT(History!93:93)-IF(COUNT(History!93:93)&lt;=5,COUNT(History!93:93),5)):OFFSET(History!C93,0,COUNT(History!93:93)-1)),"")</f>
         <v/>
       </c>
@@ -4326,23 +4332,23 @@
       <c r="A94" s="1">
         <v>93</v>
       </c>
-      <c r="B94" s="9" t="str">
+      <c r="B94" s="6" t="str">
         <f>IF(History!A94&lt;&gt;"",History!A94,"")</f>
         <v/>
       </c>
-      <c r="C94" s="7" t="str">
+      <c r="C94" s="4" t="str">
         <f>IF(History!A94&lt;&gt;"",SUM(History!94:94),"")</f>
         <v/>
       </c>
-      <c r="D94" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E94" s="3" t="str">
+      <c r="D94" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E94" s="4" t="str">
         <f>IF(History!A94&lt;&gt;0,COUNTIF(History!94:94,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F94" s="3" t="str">
+      <c r="F94" s="4" t="str">
         <f>IF(History!A94&lt;&gt;0,COUNTIF(History!94:94,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -4354,11 +4360,11 @@
         <f>IFERROR(SMALL(History!94:94,COUNTIF(History!94:94,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I94" s="8" t="str">
+      <c r="I94" s="5" t="str">
         <f>IF(History!A94&lt;&gt;"",History!B94,"")</f>
         <v/>
       </c>
-      <c r="J94" s="7" t="str">
+      <c r="J94" s="4" t="str">
         <f ca="1">IF(History!A94&lt;&gt;"",SUM(OFFSET(History!C94,0,COUNT(History!94:94)-IF(COUNT(History!94:94)&lt;=5,COUNT(History!94:94),5)):OFFSET(History!C94,0,COUNT(History!94:94)-1)),"")</f>
         <v/>
       </c>
@@ -4367,23 +4373,23 @@
       <c r="A95" s="1">
         <v>94</v>
       </c>
-      <c r="B95" s="9" t="str">
+      <c r="B95" s="6" t="str">
         <f>IF(History!A95&lt;&gt;"",History!A95,"")</f>
         <v/>
       </c>
-      <c r="C95" s="7" t="str">
+      <c r="C95" s="4" t="str">
         <f>IF(History!A95&lt;&gt;"",SUM(History!95:95),"")</f>
         <v/>
       </c>
-      <c r="D95" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E95" s="3" t="str">
+      <c r="D95" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E95" s="4" t="str">
         <f>IF(History!A95&lt;&gt;0,COUNTIF(History!95:95,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F95" s="3" t="str">
+      <c r="F95" s="4" t="str">
         <f>IF(History!A95&lt;&gt;0,COUNTIF(History!95:95,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -4395,11 +4401,11 @@
         <f>IFERROR(SMALL(History!95:95,COUNTIF(History!95:95,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I95" s="8" t="str">
+      <c r="I95" s="5" t="str">
         <f>IF(History!A95&lt;&gt;"",History!B95,"")</f>
         <v/>
       </c>
-      <c r="J95" s="7" t="str">
+      <c r="J95" s="4" t="str">
         <f ca="1">IF(History!A95&lt;&gt;"",SUM(OFFSET(History!C95,0,COUNT(History!95:95)-IF(COUNT(History!95:95)&lt;=5,COUNT(History!95:95),5)):OFFSET(History!C95,0,COUNT(History!95:95)-1)),"")</f>
         <v/>
       </c>
@@ -4408,23 +4414,23 @@
       <c r="A96" s="1">
         <v>95</v>
       </c>
-      <c r="B96" s="9" t="str">
+      <c r="B96" s="6" t="str">
         <f>IF(History!A96&lt;&gt;"",History!A96,"")</f>
         <v/>
       </c>
-      <c r="C96" s="7" t="str">
+      <c r="C96" s="4" t="str">
         <f>IF(History!A96&lt;&gt;"",SUM(History!96:96),"")</f>
         <v/>
       </c>
-      <c r="D96" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E96" s="3" t="str">
+      <c r="D96" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E96" s="4" t="str">
         <f>IF(History!A96&lt;&gt;0,COUNTIF(History!96:96,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F96" s="3" t="str">
+      <c r="F96" s="4" t="str">
         <f>IF(History!A96&lt;&gt;0,COUNTIF(History!96:96,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -4436,11 +4442,11 @@
         <f>IFERROR(SMALL(History!96:96,COUNTIF(History!96:96,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I96" s="8" t="str">
+      <c r="I96" s="5" t="str">
         <f>IF(History!A96&lt;&gt;"",History!B96,"")</f>
         <v/>
       </c>
-      <c r="J96" s="7" t="str">
+      <c r="J96" s="4" t="str">
         <f ca="1">IF(History!A96&lt;&gt;"",SUM(OFFSET(History!C96,0,COUNT(History!96:96)-IF(COUNT(History!96:96)&lt;=5,COUNT(History!96:96),5)):OFFSET(History!C96,0,COUNT(History!96:96)-1)),"")</f>
         <v/>
       </c>
@@ -4449,23 +4455,23 @@
       <c r="A97" s="1">
         <v>96</v>
       </c>
-      <c r="B97" s="9" t="str">
+      <c r="B97" s="6" t="str">
         <f>IF(History!A97&lt;&gt;"",History!A97,"")</f>
         <v/>
       </c>
-      <c r="C97" s="7" t="str">
+      <c r="C97" s="4" t="str">
         <f>IF(History!A97&lt;&gt;"",SUM(History!97:97),"")</f>
         <v/>
       </c>
-      <c r="D97" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E97" s="3" t="str">
+      <c r="D97" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E97" s="4" t="str">
         <f>IF(History!A97&lt;&gt;0,COUNTIF(History!97:97,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F97" s="3" t="str">
+      <c r="F97" s="4" t="str">
         <f>IF(History!A97&lt;&gt;0,COUNTIF(History!97:97,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -4477,11 +4483,11 @@
         <f>IFERROR(SMALL(History!97:97,COUNTIF(History!97:97,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I97" s="8" t="str">
+      <c r="I97" s="5" t="str">
         <f>IF(History!A97&lt;&gt;"",History!B97,"")</f>
         <v/>
       </c>
-      <c r="J97" s="7" t="str">
+      <c r="J97" s="4" t="str">
         <f ca="1">IF(History!A97&lt;&gt;"",SUM(OFFSET(History!C97,0,COUNT(History!97:97)-IF(COUNT(History!97:97)&lt;=5,COUNT(History!97:97),5)):OFFSET(History!C97,0,COUNT(History!97:97)-1)),"")</f>
         <v/>
       </c>
@@ -4490,23 +4496,23 @@
       <c r="A98" s="1">
         <v>97</v>
       </c>
-      <c r="B98" s="9" t="str">
+      <c r="B98" s="6" t="str">
         <f>IF(History!A98&lt;&gt;"",History!A98,"")</f>
         <v/>
       </c>
-      <c r="C98" s="7" t="str">
+      <c r="C98" s="4" t="str">
         <f>IF(History!A98&lt;&gt;"",SUM(History!98:98),"")</f>
         <v/>
       </c>
-      <c r="D98" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E98" s="3" t="str">
+      <c r="D98" s="7" t="str">
+        <f t="shared" ref="D98:D129" si="3">IFERROR(E98/(E98+F98),"")</f>
+        <v/>
+      </c>
+      <c r="E98" s="4" t="str">
         <f>IF(History!A98&lt;&gt;0,COUNTIF(History!98:98,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F98" s="3" t="str">
+      <c r="F98" s="4" t="str">
         <f>IF(History!A98&lt;&gt;0,COUNTIF(History!98:98,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -4518,11 +4524,11 @@
         <f>IFERROR(SMALL(History!98:98,COUNTIF(History!98:98,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I98" s="8" t="str">
+      <c r="I98" s="5" t="str">
         <f>IF(History!A98&lt;&gt;"",History!B98,"")</f>
         <v/>
       </c>
-      <c r="J98" s="7" t="str">
+      <c r="J98" s="4" t="str">
         <f ca="1">IF(History!A98&lt;&gt;"",SUM(OFFSET(History!C98,0,COUNT(History!98:98)-IF(COUNT(History!98:98)&lt;=5,COUNT(History!98:98),5)):OFFSET(History!C98,0,COUNT(History!98:98)-1)),"")</f>
         <v/>
       </c>
@@ -4531,23 +4537,23 @@
       <c r="A99" s="1">
         <v>98</v>
       </c>
-      <c r="B99" s="9" t="str">
+      <c r="B99" s="6" t="str">
         <f>IF(History!A99&lt;&gt;"",History!A99,"")</f>
         <v/>
       </c>
-      <c r="C99" s="7" t="str">
+      <c r="C99" s="4" t="str">
         <f>IF(History!A99&lt;&gt;"",SUM(History!99:99),"")</f>
         <v/>
       </c>
-      <c r="D99" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E99" s="3" t="str">
+      <c r="D99" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E99" s="4" t="str">
         <f>IF(History!A99&lt;&gt;0,COUNTIF(History!99:99,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F99" s="3" t="str">
+      <c r="F99" s="4" t="str">
         <f>IF(History!A99&lt;&gt;0,COUNTIF(History!99:99,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -4559,11 +4565,11 @@
         <f>IFERROR(SMALL(History!99:99,COUNTIF(History!99:99,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I99" s="8" t="str">
+      <c r="I99" s="5" t="str">
         <f>IF(History!A99&lt;&gt;"",History!B99,"")</f>
         <v/>
       </c>
-      <c r="J99" s="7" t="str">
+      <c r="J99" s="4" t="str">
         <f ca="1">IF(History!A99&lt;&gt;"",SUM(OFFSET(History!C99,0,COUNT(History!99:99)-IF(COUNT(History!99:99)&lt;=5,COUNT(History!99:99),5)):OFFSET(History!C99,0,COUNT(History!99:99)-1)),"")</f>
         <v/>
       </c>
@@ -4572,23 +4578,23 @@
       <c r="A100" s="1">
         <v>99</v>
       </c>
-      <c r="B100" s="9" t="str">
+      <c r="B100" s="6" t="str">
         <f>IF(History!A100&lt;&gt;"",History!A100,"")</f>
         <v/>
       </c>
-      <c r="C100" s="7" t="str">
+      <c r="C100" s="4" t="str">
         <f>IF(History!A100&lt;&gt;"",SUM(History!100:100),"")</f>
         <v/>
       </c>
-      <c r="D100" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E100" s="3" t="str">
+      <c r="D100" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E100" s="4" t="str">
         <f>IF(History!A100&lt;&gt;0,COUNTIF(History!100:100,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F100" s="3" t="str">
+      <c r="F100" s="4" t="str">
         <f>IF(History!A100&lt;&gt;0,COUNTIF(History!100:100,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -4600,11 +4606,11 @@
         <f>IFERROR(SMALL(History!100:100,COUNTIF(History!100:100,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I100" s="8" t="str">
+      <c r="I100" s="5" t="str">
         <f>IF(History!A100&lt;&gt;"",History!B100,"")</f>
         <v/>
       </c>
-      <c r="J100" s="7" t="str">
+      <c r="J100" s="4" t="str">
         <f ca="1">IF(History!A100&lt;&gt;"",SUM(OFFSET(History!C100,0,COUNT(History!100:100)-IF(COUNT(History!100:100)&lt;=5,COUNT(History!100:100),5)):OFFSET(History!C100,0,COUNT(History!100:100)-1)),"")</f>
         <v/>
       </c>
@@ -4613,23 +4619,23 @@
       <c r="A101" s="1">
         <v>100</v>
       </c>
-      <c r="B101" s="9" t="str">
+      <c r="B101" s="6" t="str">
         <f>IF(History!A101&lt;&gt;"",History!A101,"")</f>
         <v/>
       </c>
-      <c r="C101" s="7" t="str">
+      <c r="C101" s="4" t="str">
         <f>IF(History!A101&lt;&gt;"",SUM(History!101:101),"")</f>
         <v/>
       </c>
-      <c r="D101" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E101" s="3" t="str">
+      <c r="D101" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E101" s="4" t="str">
         <f>IF(History!A101&lt;&gt;0,COUNTIF(History!101:101,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F101" s="3" t="str">
+      <c r="F101" s="4" t="str">
         <f>IF(History!A101&lt;&gt;0,COUNTIF(History!101:101,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -4641,11 +4647,11 @@
         <f>IFERROR(SMALL(History!101:101,COUNTIF(History!101:101,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I101" s="8" t="str">
+      <c r="I101" s="5" t="str">
         <f>IF(History!A101&lt;&gt;"",History!B101,"")</f>
         <v/>
       </c>
-      <c r="J101" s="7" t="str">
+      <c r="J101" s="4" t="str">
         <f ca="1">IF(History!A101&lt;&gt;"",SUM(OFFSET(History!C101,0,COUNT(History!101:101)-IF(COUNT(History!101:101)&lt;=5,COUNT(History!101:101),5)):OFFSET(History!C101,0,COUNT(History!101:101)-1)),"")</f>
         <v/>
       </c>
@@ -4654,23 +4660,23 @@
       <c r="A102" s="1">
         <v>101</v>
       </c>
-      <c r="B102" s="9" t="str">
+      <c r="B102" s="6" t="str">
         <f>IF(History!A102&lt;&gt;"",History!A102,"")</f>
         <v/>
       </c>
-      <c r="C102" s="7" t="str">
+      <c r="C102" s="4" t="str">
         <f>IF(History!A102&lt;&gt;"",SUM(History!102:102),"")</f>
         <v/>
       </c>
-      <c r="D102" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E102" s="3" t="str">
+      <c r="D102" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E102" s="4" t="str">
         <f>IF(History!A102&lt;&gt;0,COUNTIF(History!102:102,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F102" s="3" t="str">
+      <c r="F102" s="4" t="str">
         <f>IF(History!A102&lt;&gt;0,COUNTIF(History!102:102,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -4682,11 +4688,11 @@
         <f>IFERROR(SMALL(History!102:102,COUNTIF(History!102:102,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I102" s="8" t="str">
+      <c r="I102" s="5" t="str">
         <f>IF(History!A102&lt;&gt;"",History!B102,"")</f>
         <v/>
       </c>
-      <c r="J102" s="7" t="str">
+      <c r="J102" s="4" t="str">
         <f ca="1">IF(History!A102&lt;&gt;"",SUM(OFFSET(History!C102,0,COUNT(History!102:102)-IF(COUNT(History!102:102)&lt;=5,COUNT(History!102:102),5)):OFFSET(History!C102,0,COUNT(History!102:102)-1)),"")</f>
         <v/>
       </c>
@@ -4695,23 +4701,23 @@
       <c r="A103" s="1">
         <v>102</v>
       </c>
-      <c r="B103" s="9" t="str">
+      <c r="B103" s="6" t="str">
         <f>IF(History!A103&lt;&gt;"",History!A103,"")</f>
         <v/>
       </c>
-      <c r="C103" s="7" t="str">
+      <c r="C103" s="4" t="str">
         <f>IF(History!A103&lt;&gt;"",SUM(History!103:103),"")</f>
         <v/>
       </c>
-      <c r="D103" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E103" s="3" t="str">
+      <c r="D103" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E103" s="4" t="str">
         <f>IF(History!A103&lt;&gt;0,COUNTIF(History!103:103,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F103" s="3" t="str">
+      <c r="F103" s="4" t="str">
         <f>IF(History!A103&lt;&gt;0,COUNTIF(History!103:103,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -4723,11 +4729,11 @@
         <f>IFERROR(SMALL(History!103:103,COUNTIF(History!103:103,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I103" s="8" t="str">
+      <c r="I103" s="5" t="str">
         <f>IF(History!A103&lt;&gt;"",History!B103,"")</f>
         <v/>
       </c>
-      <c r="J103" s="7" t="str">
+      <c r="J103" s="4" t="str">
         <f ca="1">IF(History!A103&lt;&gt;"",SUM(OFFSET(History!C103,0,COUNT(History!103:103)-IF(COUNT(History!103:103)&lt;=5,COUNT(History!103:103),5)):OFFSET(History!C103,0,COUNT(History!103:103)-1)),"")</f>
         <v/>
       </c>
@@ -4736,23 +4742,23 @@
       <c r="A104" s="1">
         <v>103</v>
       </c>
-      <c r="B104" s="9" t="str">
+      <c r="B104" s="6" t="str">
         <f>IF(History!A104&lt;&gt;"",History!A104,"")</f>
         <v/>
       </c>
-      <c r="C104" s="7" t="str">
+      <c r="C104" s="4" t="str">
         <f>IF(History!A104&lt;&gt;"",SUM(History!104:104),"")</f>
         <v/>
       </c>
-      <c r="D104" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E104" s="3" t="str">
+      <c r="D104" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E104" s="4" t="str">
         <f>IF(History!A104&lt;&gt;0,COUNTIF(History!104:104,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F104" s="3" t="str">
+      <c r="F104" s="4" t="str">
         <f>IF(History!A104&lt;&gt;0,COUNTIF(History!104:104,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -4764,11 +4770,11 @@
         <f>IFERROR(SMALL(History!104:104,COUNTIF(History!104:104,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I104" s="8" t="str">
+      <c r="I104" s="5" t="str">
         <f>IF(History!A104&lt;&gt;"",History!B104,"")</f>
         <v/>
       </c>
-      <c r="J104" s="7" t="str">
+      <c r="J104" s="4" t="str">
         <f ca="1">IF(History!A104&lt;&gt;"",SUM(OFFSET(History!C104,0,COUNT(History!104:104)-IF(COUNT(History!104:104)&lt;=5,COUNT(History!104:104),5)):OFFSET(History!C104,0,COUNT(History!104:104)-1)),"")</f>
         <v/>
       </c>
@@ -4777,23 +4783,23 @@
       <c r="A105" s="1">
         <v>104</v>
       </c>
-      <c r="B105" s="9" t="str">
+      <c r="B105" s="6" t="str">
         <f>IF(History!A105&lt;&gt;"",History!A105,"")</f>
         <v/>
       </c>
-      <c r="C105" s="7" t="str">
+      <c r="C105" s="4" t="str">
         <f>IF(History!A105&lt;&gt;"",SUM(History!105:105),"")</f>
         <v/>
       </c>
-      <c r="D105" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E105" s="3" t="str">
+      <c r="D105" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E105" s="4" t="str">
         <f>IF(History!A105&lt;&gt;0,COUNTIF(History!105:105,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F105" s="3" t="str">
+      <c r="F105" s="4" t="str">
         <f>IF(History!A105&lt;&gt;0,COUNTIF(History!105:105,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -4805,11 +4811,11 @@
         <f>IFERROR(SMALL(History!105:105,COUNTIF(History!105:105,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I105" s="8" t="str">
+      <c r="I105" s="5" t="str">
         <f>IF(History!A105&lt;&gt;"",History!B105,"")</f>
         <v/>
       </c>
-      <c r="J105" s="7" t="str">
+      <c r="J105" s="4" t="str">
         <f ca="1">IF(History!A105&lt;&gt;"",SUM(OFFSET(History!C105,0,COUNT(History!105:105)-IF(COUNT(History!105:105)&lt;=5,COUNT(History!105:105),5)):OFFSET(History!C105,0,COUNT(History!105:105)-1)),"")</f>
         <v/>
       </c>
@@ -4818,23 +4824,23 @@
       <c r="A106" s="1">
         <v>105</v>
       </c>
-      <c r="B106" s="9" t="str">
+      <c r="B106" s="6" t="str">
         <f>IF(History!A106&lt;&gt;"",History!A106,"")</f>
         <v/>
       </c>
-      <c r="C106" s="7" t="str">
+      <c r="C106" s="4" t="str">
         <f>IF(History!A106&lt;&gt;"",SUM(History!106:106),"")</f>
         <v/>
       </c>
-      <c r="D106" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E106" s="3" t="str">
+      <c r="D106" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E106" s="4" t="str">
         <f>IF(History!A106&lt;&gt;0,COUNTIF(History!106:106,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F106" s="3" t="str">
+      <c r="F106" s="4" t="str">
         <f>IF(History!A106&lt;&gt;0,COUNTIF(History!106:106,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -4846,11 +4852,11 @@
         <f>IFERROR(SMALL(History!106:106,COUNTIF(History!106:106,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I106" s="8" t="str">
+      <c r="I106" s="5" t="str">
         <f>IF(History!A106&lt;&gt;"",History!B106,"")</f>
         <v/>
       </c>
-      <c r="J106" s="7" t="str">
+      <c r="J106" s="4" t="str">
         <f ca="1">IF(History!A106&lt;&gt;"",SUM(OFFSET(History!C106,0,COUNT(History!106:106)-IF(COUNT(History!106:106)&lt;=5,COUNT(History!106:106),5)):OFFSET(History!C106,0,COUNT(History!106:106)-1)),"")</f>
         <v/>
       </c>
@@ -4859,23 +4865,23 @@
       <c r="A107" s="1">
         <v>106</v>
       </c>
-      <c r="B107" s="9" t="str">
+      <c r="B107" s="6" t="str">
         <f>IF(History!A107&lt;&gt;"",History!A107,"")</f>
         <v/>
       </c>
-      <c r="C107" s="7" t="str">
+      <c r="C107" s="4" t="str">
         <f>IF(History!A107&lt;&gt;"",SUM(History!107:107),"")</f>
         <v/>
       </c>
-      <c r="D107" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E107" s="3" t="str">
+      <c r="D107" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E107" s="4" t="str">
         <f>IF(History!A107&lt;&gt;0,COUNTIF(History!107:107,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F107" s="3" t="str">
+      <c r="F107" s="4" t="str">
         <f>IF(History!A107&lt;&gt;0,COUNTIF(History!107:107,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -4887,11 +4893,11 @@
         <f>IFERROR(SMALL(History!107:107,COUNTIF(History!107:107,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I107" s="8" t="str">
+      <c r="I107" s="5" t="str">
         <f>IF(History!A107&lt;&gt;"",History!B107,"")</f>
         <v/>
       </c>
-      <c r="J107" s="7" t="str">
+      <c r="J107" s="4" t="str">
         <f ca="1">IF(History!A107&lt;&gt;"",SUM(OFFSET(History!C107,0,COUNT(History!107:107)-IF(COUNT(History!107:107)&lt;=5,COUNT(History!107:107),5)):OFFSET(History!C107,0,COUNT(History!107:107)-1)),"")</f>
         <v/>
       </c>
@@ -4900,23 +4906,23 @@
       <c r="A108" s="1">
         <v>107</v>
       </c>
-      <c r="B108" s="9" t="str">
+      <c r="B108" s="6" t="str">
         <f>IF(History!A108&lt;&gt;"",History!A108,"")</f>
         <v/>
       </c>
-      <c r="C108" s="7" t="str">
+      <c r="C108" s="4" t="str">
         <f>IF(History!A108&lt;&gt;"",SUM(History!108:108),"")</f>
         <v/>
       </c>
-      <c r="D108" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E108" s="3" t="str">
+      <c r="D108" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E108" s="4" t="str">
         <f>IF(History!A108&lt;&gt;0,COUNTIF(History!108:108,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F108" s="3" t="str">
+      <c r="F108" s="4" t="str">
         <f>IF(History!A108&lt;&gt;0,COUNTIF(History!108:108,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -4928,11 +4934,11 @@
         <f>IFERROR(SMALL(History!108:108,COUNTIF(History!108:108,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I108" s="8" t="str">
+      <c r="I108" s="5" t="str">
         <f>IF(History!A108&lt;&gt;"",History!B108,"")</f>
         <v/>
       </c>
-      <c r="J108" s="7" t="str">
+      <c r="J108" s="4" t="str">
         <f ca="1">IF(History!A108&lt;&gt;"",SUM(OFFSET(History!C108,0,COUNT(History!108:108)-IF(COUNT(History!108:108)&lt;=5,COUNT(History!108:108),5)):OFFSET(History!C108,0,COUNT(History!108:108)-1)),"")</f>
         <v/>
       </c>
@@ -4941,23 +4947,23 @@
       <c r="A109" s="1">
         <v>108</v>
       </c>
-      <c r="B109" s="9" t="str">
+      <c r="B109" s="6" t="str">
         <f>IF(History!A109&lt;&gt;"",History!A109,"")</f>
         <v/>
       </c>
-      <c r="C109" s="7" t="str">
+      <c r="C109" s="4" t="str">
         <f>IF(History!A109&lt;&gt;"",SUM(History!109:109),"")</f>
         <v/>
       </c>
-      <c r="D109" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E109" s="3" t="str">
+      <c r="D109" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E109" s="4" t="str">
         <f>IF(History!A109&lt;&gt;0,COUNTIF(History!109:109,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F109" s="3" t="str">
+      <c r="F109" s="4" t="str">
         <f>IF(History!A109&lt;&gt;0,COUNTIF(History!109:109,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -4969,11 +4975,11 @@
         <f>IFERROR(SMALL(History!109:109,COUNTIF(History!109:109,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I109" s="8" t="str">
+      <c r="I109" s="5" t="str">
         <f>IF(History!A109&lt;&gt;"",History!B109,"")</f>
         <v/>
       </c>
-      <c r="J109" s="7" t="str">
+      <c r="J109" s="4" t="str">
         <f ca="1">IF(History!A109&lt;&gt;"",SUM(OFFSET(History!C109,0,COUNT(History!109:109)-IF(COUNT(History!109:109)&lt;=5,COUNT(History!109:109),5)):OFFSET(History!C109,0,COUNT(History!109:109)-1)),"")</f>
         <v/>
       </c>
@@ -4982,23 +4988,23 @@
       <c r="A110" s="1">
         <v>109</v>
       </c>
-      <c r="B110" s="9" t="str">
+      <c r="B110" s="6" t="str">
         <f>IF(History!A110&lt;&gt;"",History!A110,"")</f>
         <v/>
       </c>
-      <c r="C110" s="7" t="str">
+      <c r="C110" s="4" t="str">
         <f>IF(History!A110&lt;&gt;"",SUM(History!110:110),"")</f>
         <v/>
       </c>
-      <c r="D110" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E110" s="3" t="str">
+      <c r="D110" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E110" s="4" t="str">
         <f>IF(History!A110&lt;&gt;0,COUNTIF(History!110:110,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F110" s="3" t="str">
+      <c r="F110" s="4" t="str">
         <f>IF(History!A110&lt;&gt;0,COUNTIF(History!110:110,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -5010,11 +5016,11 @@
         <f>IFERROR(SMALL(History!110:110,COUNTIF(History!110:110,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I110" s="8" t="str">
+      <c r="I110" s="5" t="str">
         <f>IF(History!A110&lt;&gt;"",History!B110,"")</f>
         <v/>
       </c>
-      <c r="J110" s="7" t="str">
+      <c r="J110" s="4" t="str">
         <f ca="1">IF(History!A110&lt;&gt;"",SUM(OFFSET(History!C110,0,COUNT(History!110:110)-IF(COUNT(History!110:110)&lt;=5,COUNT(History!110:110),5)):OFFSET(History!C110,0,COUNT(History!110:110)-1)),"")</f>
         <v/>
       </c>
@@ -5023,23 +5029,23 @@
       <c r="A111" s="1">
         <v>110</v>
       </c>
-      <c r="B111" s="9" t="str">
+      <c r="B111" s="6" t="str">
         <f>IF(History!A111&lt;&gt;"",History!A111,"")</f>
         <v/>
       </c>
-      <c r="C111" s="7" t="str">
+      <c r="C111" s="4" t="str">
         <f>IF(History!A111&lt;&gt;"",SUM(History!111:111),"")</f>
         <v/>
       </c>
-      <c r="D111" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E111" s="3" t="str">
+      <c r="D111" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E111" s="4" t="str">
         <f>IF(History!A111&lt;&gt;0,COUNTIF(History!111:111,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F111" s="3" t="str">
+      <c r="F111" s="4" t="str">
         <f>IF(History!A111&lt;&gt;0,COUNTIF(History!111:111,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -5051,11 +5057,11 @@
         <f>IFERROR(SMALL(History!111:111,COUNTIF(History!111:111,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I111" s="8" t="str">
+      <c r="I111" s="5" t="str">
         <f>IF(History!A111&lt;&gt;"",History!B111,"")</f>
         <v/>
       </c>
-      <c r="J111" s="7" t="str">
+      <c r="J111" s="4" t="str">
         <f ca="1">IF(History!A111&lt;&gt;"",SUM(OFFSET(History!C111,0,COUNT(History!111:111)-IF(COUNT(History!111:111)&lt;=5,COUNT(History!111:111),5)):OFFSET(History!C111,0,COUNT(History!111:111)-1)),"")</f>
         <v/>
       </c>
@@ -5064,23 +5070,23 @@
       <c r="A112" s="1">
         <v>111</v>
       </c>
-      <c r="B112" s="9" t="str">
+      <c r="B112" s="6" t="str">
         <f>IF(History!A112&lt;&gt;"",History!A112,"")</f>
         <v/>
       </c>
-      <c r="C112" s="7" t="str">
+      <c r="C112" s="4" t="str">
         <f>IF(History!A112&lt;&gt;"",SUM(History!112:112),"")</f>
         <v/>
       </c>
-      <c r="D112" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E112" s="3" t="str">
+      <c r="D112" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E112" s="4" t="str">
         <f>IF(History!A112&lt;&gt;0,COUNTIF(History!112:112,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F112" s="3" t="str">
+      <c r="F112" s="4" t="str">
         <f>IF(History!A112&lt;&gt;0,COUNTIF(History!112:112,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -5092,11 +5098,11 @@
         <f>IFERROR(SMALL(History!112:112,COUNTIF(History!112:112,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I112" s="8" t="str">
+      <c r="I112" s="5" t="str">
         <f>IF(History!A112&lt;&gt;"",History!B112,"")</f>
         <v/>
       </c>
-      <c r="J112" s="7" t="str">
+      <c r="J112" s="4" t="str">
         <f ca="1">IF(History!A112&lt;&gt;"",SUM(OFFSET(History!C112,0,COUNT(History!112:112)-IF(COUNT(History!112:112)&lt;=5,COUNT(History!112:112),5)):OFFSET(History!C112,0,COUNT(History!112:112)-1)),"")</f>
         <v/>
       </c>
@@ -5105,23 +5111,23 @@
       <c r="A113" s="1">
         <v>112</v>
       </c>
-      <c r="B113" s="9" t="str">
+      <c r="B113" s="6" t="str">
         <f>IF(History!A113&lt;&gt;"",History!A113,"")</f>
         <v/>
       </c>
-      <c r="C113" s="7" t="str">
+      <c r="C113" s="4" t="str">
         <f>IF(History!A113&lt;&gt;"",SUM(History!113:113),"")</f>
         <v/>
       </c>
-      <c r="D113" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E113" s="3" t="str">
+      <c r="D113" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E113" s="4" t="str">
         <f>IF(History!A113&lt;&gt;0,COUNTIF(History!113:113,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F113" s="3" t="str">
+      <c r="F113" s="4" t="str">
         <f>IF(History!A113&lt;&gt;0,COUNTIF(History!113:113,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -5133,11 +5139,11 @@
         <f>IFERROR(SMALL(History!113:113,COUNTIF(History!113:113,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I113" s="8" t="str">
+      <c r="I113" s="5" t="str">
         <f>IF(History!A113&lt;&gt;"",History!B113,"")</f>
         <v/>
       </c>
-      <c r="J113" s="7" t="str">
+      <c r="J113" s="4" t="str">
         <f ca="1">IF(History!A113&lt;&gt;"",SUM(OFFSET(History!C113,0,COUNT(History!113:113)-IF(COUNT(History!113:113)&lt;=5,COUNT(History!113:113),5)):OFFSET(History!C113,0,COUNT(History!113:113)-1)),"")</f>
         <v/>
       </c>
@@ -5146,23 +5152,23 @@
       <c r="A114" s="1">
         <v>113</v>
       </c>
-      <c r="B114" s="9" t="str">
+      <c r="B114" s="6" t="str">
         <f>IF(History!A114&lt;&gt;"",History!A114,"")</f>
         <v/>
       </c>
-      <c r="C114" s="7" t="str">
+      <c r="C114" s="4" t="str">
         <f>IF(History!A114&lt;&gt;"",SUM(History!114:114),"")</f>
         <v/>
       </c>
-      <c r="D114" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E114" s="3" t="str">
+      <c r="D114" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E114" s="4" t="str">
         <f>IF(History!A114&lt;&gt;0,COUNTIF(History!114:114,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F114" s="3" t="str">
+      <c r="F114" s="4" t="str">
         <f>IF(History!A114&lt;&gt;0,COUNTIF(History!114:114,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -5174,11 +5180,11 @@
         <f>IFERROR(SMALL(History!114:114,COUNTIF(History!114:114,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I114" s="8" t="str">
+      <c r="I114" s="5" t="str">
         <f>IF(History!A114&lt;&gt;"",History!B114,"")</f>
         <v/>
       </c>
-      <c r="J114" s="7" t="str">
+      <c r="J114" s="4" t="str">
         <f ca="1">IF(History!A114&lt;&gt;"",SUM(OFFSET(History!C114,0,COUNT(History!114:114)-IF(COUNT(History!114:114)&lt;=5,COUNT(History!114:114),5)):OFFSET(History!C114,0,COUNT(History!114:114)-1)),"")</f>
         <v/>
       </c>
@@ -5187,23 +5193,23 @@
       <c r="A115" s="1">
         <v>114</v>
       </c>
-      <c r="B115" s="9" t="str">
+      <c r="B115" s="6" t="str">
         <f>IF(History!A115&lt;&gt;"",History!A115,"")</f>
         <v/>
       </c>
-      <c r="C115" s="7" t="str">
+      <c r="C115" s="4" t="str">
         <f>IF(History!A115&lt;&gt;"",SUM(History!115:115),"")</f>
         <v/>
       </c>
-      <c r="D115" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E115" s="3" t="str">
+      <c r="D115" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E115" s="4" t="str">
         <f>IF(History!A115&lt;&gt;0,COUNTIF(History!115:115,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F115" s="3" t="str">
+      <c r="F115" s="4" t="str">
         <f>IF(History!A115&lt;&gt;0,COUNTIF(History!115:115,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -5215,11 +5221,11 @@
         <f>IFERROR(SMALL(History!115:115,COUNTIF(History!115:115,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I115" s="8" t="str">
+      <c r="I115" s="5" t="str">
         <f>IF(History!A115&lt;&gt;"",History!B115,"")</f>
         <v/>
       </c>
-      <c r="J115" s="7" t="str">
+      <c r="J115" s="4" t="str">
         <f ca="1">IF(History!A115&lt;&gt;"",SUM(OFFSET(History!C115,0,COUNT(History!115:115)-IF(COUNT(History!115:115)&lt;=5,COUNT(History!115:115),5)):OFFSET(History!C115,0,COUNT(History!115:115)-1)),"")</f>
         <v/>
       </c>
@@ -5228,23 +5234,23 @@
       <c r="A116" s="1">
         <v>115</v>
       </c>
-      <c r="B116" s="9" t="str">
+      <c r="B116" s="6" t="str">
         <f>IF(History!A116&lt;&gt;"",History!A116,"")</f>
         <v/>
       </c>
-      <c r="C116" s="7" t="str">
+      <c r="C116" s="4" t="str">
         <f>IF(History!A116&lt;&gt;"",SUM(History!116:116),"")</f>
         <v/>
       </c>
-      <c r="D116" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E116" s="3" t="str">
+      <c r="D116" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E116" s="4" t="str">
         <f>IF(History!A116&lt;&gt;0,COUNTIF(History!116:116,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F116" s="3" t="str">
+      <c r="F116" s="4" t="str">
         <f>IF(History!A116&lt;&gt;0,COUNTIF(History!116:116,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -5256,11 +5262,11 @@
         <f>IFERROR(SMALL(History!116:116,COUNTIF(History!116:116,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I116" s="8" t="str">
+      <c r="I116" s="5" t="str">
         <f>IF(History!A116&lt;&gt;"",History!B116,"")</f>
         <v/>
       </c>
-      <c r="J116" s="7" t="str">
+      <c r="J116" s="4" t="str">
         <f ca="1">IF(History!A116&lt;&gt;"",SUM(OFFSET(History!C116,0,COUNT(History!116:116)-IF(COUNT(History!116:116)&lt;=5,COUNT(History!116:116),5)):OFFSET(History!C116,0,COUNT(History!116:116)-1)),"")</f>
         <v/>
       </c>
@@ -5269,23 +5275,23 @@
       <c r="A117" s="1">
         <v>116</v>
       </c>
-      <c r="B117" s="9" t="str">
+      <c r="B117" s="6" t="str">
         <f>IF(History!A117&lt;&gt;"",History!A117,"")</f>
         <v/>
       </c>
-      <c r="C117" s="7" t="str">
+      <c r="C117" s="4" t="str">
         <f>IF(History!A117&lt;&gt;"",SUM(History!117:117),"")</f>
         <v/>
       </c>
-      <c r="D117" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E117" s="3" t="str">
+      <c r="D117" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E117" s="4" t="str">
         <f>IF(History!A117&lt;&gt;0,COUNTIF(History!117:117,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F117" s="3" t="str">
+      <c r="F117" s="4" t="str">
         <f>IF(History!A117&lt;&gt;0,COUNTIF(History!117:117,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -5297,11 +5303,11 @@
         <f>IFERROR(SMALL(History!117:117,COUNTIF(History!117:117,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I117" s="8" t="str">
+      <c r="I117" s="5" t="str">
         <f>IF(History!A117&lt;&gt;"",History!B117,"")</f>
         <v/>
       </c>
-      <c r="J117" s="7" t="str">
+      <c r="J117" s="4" t="str">
         <f ca="1">IF(History!A117&lt;&gt;"",SUM(OFFSET(History!C117,0,COUNT(History!117:117)-IF(COUNT(History!117:117)&lt;=5,COUNT(History!117:117),5)):OFFSET(History!C117,0,COUNT(History!117:117)-1)),"")</f>
         <v/>
       </c>
@@ -5310,23 +5316,23 @@
       <c r="A118" s="1">
         <v>117</v>
       </c>
-      <c r="B118" s="9" t="str">
+      <c r="B118" s="6" t="str">
         <f>IF(History!A118&lt;&gt;"",History!A118,"")</f>
         <v/>
       </c>
-      <c r="C118" s="7" t="str">
+      <c r="C118" s="4" t="str">
         <f>IF(History!A118&lt;&gt;"",SUM(History!118:118),"")</f>
         <v/>
       </c>
-      <c r="D118" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E118" s="3" t="str">
+      <c r="D118" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E118" s="4" t="str">
         <f>IF(History!A118&lt;&gt;0,COUNTIF(History!118:118,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F118" s="3" t="str">
+      <c r="F118" s="4" t="str">
         <f>IF(History!A118&lt;&gt;0,COUNTIF(History!118:118,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -5338,11 +5344,11 @@
         <f>IFERROR(SMALL(History!118:118,COUNTIF(History!118:118,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I118" s="8" t="str">
+      <c r="I118" s="5" t="str">
         <f>IF(History!A118&lt;&gt;"",History!B118,"")</f>
         <v/>
       </c>
-      <c r="J118" s="7" t="str">
+      <c r="J118" s="4" t="str">
         <f ca="1">IF(History!A118&lt;&gt;"",SUM(OFFSET(History!C118,0,COUNT(History!118:118)-IF(COUNT(History!118:118)&lt;=5,COUNT(History!118:118),5)):OFFSET(History!C118,0,COUNT(History!118:118)-1)),"")</f>
         <v/>
       </c>
@@ -5351,23 +5357,23 @@
       <c r="A119" s="1">
         <v>118</v>
       </c>
-      <c r="B119" s="9" t="str">
+      <c r="B119" s="6" t="str">
         <f>IF(History!A119&lt;&gt;"",History!A119,"")</f>
         <v/>
       </c>
-      <c r="C119" s="7" t="str">
+      <c r="C119" s="4" t="str">
         <f>IF(History!A119&lt;&gt;"",SUM(History!119:119),"")</f>
         <v/>
       </c>
-      <c r="D119" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E119" s="3" t="str">
+      <c r="D119" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E119" s="4" t="str">
         <f>IF(History!A119&lt;&gt;0,COUNTIF(History!119:119,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F119" s="3" t="str">
+      <c r="F119" s="4" t="str">
         <f>IF(History!A119&lt;&gt;0,COUNTIF(History!119:119,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -5379,11 +5385,11 @@
         <f>IFERROR(SMALL(History!119:119,COUNTIF(History!119:119,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I119" s="8" t="str">
+      <c r="I119" s="5" t="str">
         <f>IF(History!A119&lt;&gt;"",History!B119,"")</f>
         <v/>
       </c>
-      <c r="J119" s="7" t="str">
+      <c r="J119" s="4" t="str">
         <f ca="1">IF(History!A119&lt;&gt;"",SUM(OFFSET(History!C119,0,COUNT(History!119:119)-IF(COUNT(History!119:119)&lt;=5,COUNT(History!119:119),5)):OFFSET(History!C119,0,COUNT(History!119:119)-1)),"")</f>
         <v/>
       </c>
@@ -5392,23 +5398,23 @@
       <c r="A120" s="1">
         <v>119</v>
       </c>
-      <c r="B120" s="9" t="str">
+      <c r="B120" s="6" t="str">
         <f>IF(History!A120&lt;&gt;"",History!A120,"")</f>
         <v/>
       </c>
-      <c r="C120" s="7" t="str">
+      <c r="C120" s="4" t="str">
         <f>IF(History!A120&lt;&gt;"",SUM(History!120:120),"")</f>
         <v/>
       </c>
-      <c r="D120" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E120" s="3" t="str">
+      <c r="D120" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E120" s="4" t="str">
         <f>IF(History!A120&lt;&gt;0,COUNTIF(History!120:120,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F120" s="3" t="str">
+      <c r="F120" s="4" t="str">
         <f>IF(History!A120&lt;&gt;0,COUNTIF(History!120:120,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -5420,11 +5426,11 @@
         <f>IFERROR(SMALL(History!120:120,COUNTIF(History!120:120,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I120" s="8" t="str">
+      <c r="I120" s="5" t="str">
         <f>IF(History!A120&lt;&gt;"",History!B120,"")</f>
         <v/>
       </c>
-      <c r="J120" s="7" t="str">
+      <c r="J120" s="4" t="str">
         <f ca="1">IF(History!A120&lt;&gt;"",SUM(OFFSET(History!C120,0,COUNT(History!120:120)-IF(COUNT(History!120:120)&lt;=5,COUNT(History!120:120),5)):OFFSET(History!C120,0,COUNT(History!120:120)-1)),"")</f>
         <v/>
       </c>
@@ -5433,23 +5439,23 @@
       <c r="A121" s="1">
         <v>120</v>
       </c>
-      <c r="B121" s="9" t="str">
+      <c r="B121" s="6" t="str">
         <f>IF(History!A121&lt;&gt;"",History!A121,"")</f>
         <v/>
       </c>
-      <c r="C121" s="7" t="str">
+      <c r="C121" s="4" t="str">
         <f>IF(History!A121&lt;&gt;"",SUM(History!121:121),"")</f>
         <v/>
       </c>
-      <c r="D121" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E121" s="3" t="str">
+      <c r="D121" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E121" s="4" t="str">
         <f>IF(History!A121&lt;&gt;0,COUNTIF(History!121:121,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F121" s="3" t="str">
+      <c r="F121" s="4" t="str">
         <f>IF(History!A121&lt;&gt;0,COUNTIF(History!121:121,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -5461,11 +5467,11 @@
         <f>IFERROR(SMALL(History!121:121,COUNTIF(History!121:121,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I121" s="8" t="str">
+      <c r="I121" s="5" t="str">
         <f>IF(History!A121&lt;&gt;"",History!B121,"")</f>
         <v/>
       </c>
-      <c r="J121" s="7" t="str">
+      <c r="J121" s="4" t="str">
         <f ca="1">IF(History!A121&lt;&gt;"",SUM(OFFSET(History!C121,0,COUNT(History!121:121)-IF(COUNT(History!121:121)&lt;=5,COUNT(History!121:121),5)):OFFSET(History!C121,0,COUNT(History!121:121)-1)),"")</f>
         <v/>
       </c>
@@ -5474,23 +5480,23 @@
       <c r="A122" s="1">
         <v>121</v>
       </c>
-      <c r="B122" s="9" t="str">
+      <c r="B122" s="6" t="str">
         <f>IF(History!A122&lt;&gt;"",History!A122,"")</f>
         <v/>
       </c>
-      <c r="C122" s="7" t="str">
+      <c r="C122" s="4" t="str">
         <f>IF(History!A122&lt;&gt;"",SUM(History!122:122),"")</f>
         <v/>
       </c>
-      <c r="D122" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E122" s="3" t="str">
+      <c r="D122" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E122" s="4" t="str">
         <f>IF(History!A122&lt;&gt;0,COUNTIF(History!122:122,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F122" s="3" t="str">
+      <c r="F122" s="4" t="str">
         <f>IF(History!A122&lt;&gt;0,COUNTIF(History!122:122,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -5502,11 +5508,11 @@
         <f>IFERROR(SMALL(History!122:122,COUNTIF(History!122:122,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I122" s="8" t="str">
+      <c r="I122" s="5" t="str">
         <f>IF(History!A122&lt;&gt;"",History!B122,"")</f>
         <v/>
       </c>
-      <c r="J122" s="7" t="str">
+      <c r="J122" s="4" t="str">
         <f ca="1">IF(History!A122&lt;&gt;"",SUM(OFFSET(History!C122,0,COUNT(History!122:122)-IF(COUNT(History!122:122)&lt;=5,COUNT(History!122:122),5)):OFFSET(History!C122,0,COUNT(History!122:122)-1)),"")</f>
         <v/>
       </c>
@@ -5515,23 +5521,23 @@
       <c r="A123" s="1">
         <v>122</v>
       </c>
-      <c r="B123" s="9" t="str">
+      <c r="B123" s="6" t="str">
         <f>IF(History!A123&lt;&gt;"",History!A123,"")</f>
         <v/>
       </c>
-      <c r="C123" s="7" t="str">
+      <c r="C123" s="4" t="str">
         <f>IF(History!A123&lt;&gt;"",SUM(History!123:123),"")</f>
         <v/>
       </c>
-      <c r="D123" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E123" s="3" t="str">
+      <c r="D123" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E123" s="4" t="str">
         <f>IF(History!A123&lt;&gt;0,COUNTIF(History!123:123,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F123" s="3" t="str">
+      <c r="F123" s="4" t="str">
         <f>IF(History!A123&lt;&gt;0,COUNTIF(History!123:123,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -5543,11 +5549,11 @@
         <f>IFERROR(SMALL(History!123:123,COUNTIF(History!123:123,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I123" s="8" t="str">
+      <c r="I123" s="5" t="str">
         <f>IF(History!A123&lt;&gt;"",History!B123,"")</f>
         <v/>
       </c>
-      <c r="J123" s="7" t="str">
+      <c r="J123" s="4" t="str">
         <f ca="1">IF(History!A123&lt;&gt;"",SUM(OFFSET(History!C123,0,COUNT(History!123:123)-IF(COUNT(History!123:123)&lt;=5,COUNT(History!123:123),5)):OFFSET(History!C123,0,COUNT(History!123:123)-1)),"")</f>
         <v/>
       </c>
@@ -5556,23 +5562,23 @@
       <c r="A124" s="1">
         <v>123</v>
       </c>
-      <c r="B124" s="9" t="str">
+      <c r="B124" s="6" t="str">
         <f>IF(History!A124&lt;&gt;"",History!A124,"")</f>
         <v/>
       </c>
-      <c r="C124" s="7" t="str">
+      <c r="C124" s="4" t="str">
         <f>IF(History!A124&lt;&gt;"",SUM(History!124:124),"")</f>
         <v/>
       </c>
-      <c r="D124" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E124" s="3" t="str">
+      <c r="D124" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E124" s="4" t="str">
         <f>IF(History!A124&lt;&gt;0,COUNTIF(History!124:124,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F124" s="3" t="str">
+      <c r="F124" s="4" t="str">
         <f>IF(History!A124&lt;&gt;0,COUNTIF(History!124:124,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -5584,11 +5590,11 @@
         <f>IFERROR(SMALL(History!124:124,COUNTIF(History!124:124,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I124" s="8" t="str">
+      <c r="I124" s="5" t="str">
         <f>IF(History!A124&lt;&gt;"",History!B124,"")</f>
         <v/>
       </c>
-      <c r="J124" s="7" t="str">
+      <c r="J124" s="4" t="str">
         <f ca="1">IF(History!A124&lt;&gt;"",SUM(OFFSET(History!C124,0,COUNT(History!124:124)-IF(COUNT(History!124:124)&lt;=5,COUNT(History!124:124),5)):OFFSET(History!C124,0,COUNT(History!124:124)-1)),"")</f>
         <v/>
       </c>
@@ -5597,23 +5603,23 @@
       <c r="A125" s="1">
         <v>124</v>
       </c>
-      <c r="B125" s="9" t="str">
+      <c r="B125" s="6" t="str">
         <f>IF(History!A125&lt;&gt;"",History!A125,"")</f>
         <v/>
       </c>
-      <c r="C125" s="7" t="str">
+      <c r="C125" s="4" t="str">
         <f>IF(History!A125&lt;&gt;"",SUM(History!125:125),"")</f>
         <v/>
       </c>
-      <c r="D125" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E125" s="3" t="str">
+      <c r="D125" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E125" s="4" t="str">
         <f>IF(History!A125&lt;&gt;0,COUNTIF(History!125:125,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F125" s="3" t="str">
+      <c r="F125" s="4" t="str">
         <f>IF(History!A125&lt;&gt;0,COUNTIF(History!125:125,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -5625,11 +5631,11 @@
         <f>IFERROR(SMALL(History!125:125,COUNTIF(History!125:125,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I125" s="8" t="str">
+      <c r="I125" s="5" t="str">
         <f>IF(History!A125&lt;&gt;"",History!B125,"")</f>
         <v/>
       </c>
-      <c r="J125" s="7" t="str">
+      <c r="J125" s="4" t="str">
         <f ca="1">IF(History!A125&lt;&gt;"",SUM(OFFSET(History!C125,0,COUNT(History!125:125)-IF(COUNT(History!125:125)&lt;=5,COUNT(History!125:125),5)):OFFSET(History!C125,0,COUNT(History!125:125)-1)),"")</f>
         <v/>
       </c>
@@ -5638,23 +5644,23 @@
       <c r="A126" s="1">
         <v>125</v>
       </c>
-      <c r="B126" s="9" t="str">
+      <c r="B126" s="6" t="str">
         <f>IF(History!A126&lt;&gt;"",History!A126,"")</f>
         <v/>
       </c>
-      <c r="C126" s="7" t="str">
+      <c r="C126" s="4" t="str">
         <f>IF(History!A126&lt;&gt;"",SUM(History!126:126),"")</f>
         <v/>
       </c>
-      <c r="D126" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E126" s="3" t="str">
+      <c r="D126" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E126" s="4" t="str">
         <f>IF(History!A126&lt;&gt;0,COUNTIF(History!126:126,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F126" s="3" t="str">
+      <c r="F126" s="4" t="str">
         <f>IF(History!A126&lt;&gt;0,COUNTIF(History!126:126,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -5666,11 +5672,11 @@
         <f>IFERROR(SMALL(History!126:126,COUNTIF(History!126:126,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I126" s="8" t="str">
+      <c r="I126" s="5" t="str">
         <f>IF(History!A126&lt;&gt;"",History!B126,"")</f>
         <v/>
       </c>
-      <c r="J126" s="7" t="str">
+      <c r="J126" s="4" t="str">
         <f ca="1">IF(History!A126&lt;&gt;"",SUM(OFFSET(History!C126,0,COUNT(History!126:126)-IF(COUNT(History!126:126)&lt;=5,COUNT(History!126:126),5)):OFFSET(History!C126,0,COUNT(History!126:126)-1)),"")</f>
         <v/>
       </c>
@@ -5679,23 +5685,23 @@
       <c r="A127" s="1">
         <v>126</v>
       </c>
-      <c r="B127" s="9" t="str">
+      <c r="B127" s="6" t="str">
         <f>IF(History!A127&lt;&gt;"",History!A127,"")</f>
         <v/>
       </c>
-      <c r="C127" s="7" t="str">
+      <c r="C127" s="4" t="str">
         <f>IF(History!A127&lt;&gt;"",SUM(History!127:127),"")</f>
         <v/>
       </c>
-      <c r="D127" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E127" s="3" t="str">
+      <c r="D127" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E127" s="4" t="str">
         <f>IF(History!A127&lt;&gt;0,COUNTIF(History!127:127,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F127" s="3" t="str">
+      <c r="F127" s="4" t="str">
         <f>IF(History!A127&lt;&gt;0,COUNTIF(History!127:127,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -5707,11 +5713,11 @@
         <f>IFERROR(SMALL(History!127:127,COUNTIF(History!127:127,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I127" s="8" t="str">
+      <c r="I127" s="5" t="str">
         <f>IF(History!A127&lt;&gt;"",History!B127,"")</f>
         <v/>
       </c>
-      <c r="J127" s="7" t="str">
+      <c r="J127" s="4" t="str">
         <f ca="1">IF(History!A127&lt;&gt;"",SUM(OFFSET(History!C127,0,COUNT(History!127:127)-IF(COUNT(History!127:127)&lt;=5,COUNT(History!127:127),5)):OFFSET(History!C127,0,COUNT(History!127:127)-1)),"")</f>
         <v/>
       </c>
@@ -5720,23 +5726,23 @@
       <c r="A128" s="1">
         <v>127</v>
       </c>
-      <c r="B128" s="9" t="str">
+      <c r="B128" s="6" t="str">
         <f>IF(History!A128&lt;&gt;"",History!A128,"")</f>
         <v/>
       </c>
-      <c r="C128" s="7" t="str">
+      <c r="C128" s="4" t="str">
         <f>IF(History!A128&lt;&gt;"",SUM(History!128:128),"")</f>
         <v/>
       </c>
-      <c r="D128" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E128" s="3" t="str">
+      <c r="D128" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E128" s="4" t="str">
         <f>IF(History!A128&lt;&gt;0,COUNTIF(History!128:128,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F128" s="3" t="str">
+      <c r="F128" s="4" t="str">
         <f>IF(History!A128&lt;&gt;0,COUNTIF(History!128:128,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -5748,11 +5754,11 @@
         <f>IFERROR(SMALL(History!128:128,COUNTIF(History!128:128,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I128" s="8" t="str">
+      <c r="I128" s="5" t="str">
         <f>IF(History!A128&lt;&gt;"",History!B128,"")</f>
         <v/>
       </c>
-      <c r="J128" s="7" t="str">
+      <c r="J128" s="4" t="str">
         <f ca="1">IF(History!A128&lt;&gt;"",SUM(OFFSET(History!C128,0,COUNT(History!128:128)-IF(COUNT(History!128:128)&lt;=5,COUNT(History!128:128),5)):OFFSET(History!C128,0,COUNT(History!128:128)-1)),"")</f>
         <v/>
       </c>
@@ -5761,23 +5767,23 @@
       <c r="A129" s="1">
         <v>128</v>
       </c>
-      <c r="B129" s="9" t="str">
+      <c r="B129" s="6" t="str">
         <f>IF(History!A129&lt;&gt;"",History!A129,"")</f>
         <v/>
       </c>
-      <c r="C129" s="7" t="str">
+      <c r="C129" s="4" t="str">
         <f>IF(History!A129&lt;&gt;"",SUM(History!129:129),"")</f>
         <v/>
       </c>
-      <c r="D129" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E129" s="3" t="str">
+      <c r="D129" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E129" s="4" t="str">
         <f>IF(History!A129&lt;&gt;0,COUNTIF(History!129:129,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F129" s="3" t="str">
+      <c r="F129" s="4" t="str">
         <f>IF(History!A129&lt;&gt;0,COUNTIF(History!129:129,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -5789,11 +5795,11 @@
         <f>IFERROR(SMALL(History!129:129,COUNTIF(History!129:129,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I129" s="8" t="str">
+      <c r="I129" s="5" t="str">
         <f>IF(History!A129&lt;&gt;"",History!B129,"")</f>
         <v/>
       </c>
-      <c r="J129" s="7" t="str">
+      <c r="J129" s="4" t="str">
         <f ca="1">IF(History!A129&lt;&gt;"",SUM(OFFSET(History!C129,0,COUNT(History!129:129)-IF(COUNT(History!129:129)&lt;=5,COUNT(History!129:129),5)):OFFSET(History!C129,0,COUNT(History!129:129)-1)),"")</f>
         <v/>
       </c>
@@ -5802,23 +5808,23 @@
       <c r="A130" s="1">
         <v>129</v>
       </c>
-      <c r="B130" s="9" t="str">
+      <c r="B130" s="6" t="str">
         <f>IF(History!A130&lt;&gt;"",History!A130,"")</f>
         <v/>
       </c>
-      <c r="C130" s="7" t="str">
+      <c r="C130" s="4" t="str">
         <f>IF(History!A130&lt;&gt;"",SUM(History!130:130),"")</f>
         <v/>
       </c>
-      <c r="D130" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E130" s="3" t="str">
+      <c r="D130" s="7" t="str">
+        <f t="shared" ref="D130:D161" si="4">IFERROR(E130/(E130+F130),"")</f>
+        <v/>
+      </c>
+      <c r="E130" s="4" t="str">
         <f>IF(History!A130&lt;&gt;0,COUNTIF(History!130:130,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F130" s="3" t="str">
+      <c r="F130" s="4" t="str">
         <f>IF(History!A130&lt;&gt;0,COUNTIF(History!130:130,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -5830,11 +5836,11 @@
         <f>IFERROR(SMALL(History!130:130,COUNTIF(History!130:130,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I130" s="8" t="str">
+      <c r="I130" s="5" t="str">
         <f>IF(History!A130&lt;&gt;"",History!B130,"")</f>
         <v/>
       </c>
-      <c r="J130" s="7" t="str">
+      <c r="J130" s="4" t="str">
         <f ca="1">IF(History!A130&lt;&gt;"",SUM(OFFSET(History!C130,0,COUNT(History!130:130)-IF(COUNT(History!130:130)&lt;=5,COUNT(History!130:130),5)):OFFSET(History!C130,0,COUNT(History!130:130)-1)),"")</f>
         <v/>
       </c>
@@ -5843,23 +5849,23 @@
       <c r="A131" s="1">
         <v>130</v>
       </c>
-      <c r="B131" s="9" t="str">
+      <c r="B131" s="6" t="str">
         <f>IF(History!A131&lt;&gt;"",History!A131,"")</f>
         <v/>
       </c>
-      <c r="C131" s="7" t="str">
+      <c r="C131" s="4" t="str">
         <f>IF(History!A131&lt;&gt;"",SUM(History!131:131),"")</f>
         <v/>
       </c>
-      <c r="D131" s="6" t="str">
-        <f t="shared" ref="D131:D151" si="2">IFERROR(E131/(E131+F131),"")</f>
-        <v/>
-      </c>
-      <c r="E131" s="3" t="str">
+      <c r="D131" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E131" s="4" t="str">
         <f>IF(History!A131&lt;&gt;0,COUNTIF(History!131:131,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F131" s="3" t="str">
+      <c r="F131" s="4" t="str">
         <f>IF(History!A131&lt;&gt;0,COUNTIF(History!131:131,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -5871,11 +5877,11 @@
         <f>IFERROR(SMALL(History!131:131,COUNTIF(History!131:131,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I131" s="8" t="str">
+      <c r="I131" s="5" t="str">
         <f>IF(History!A131&lt;&gt;"",History!B131,"")</f>
         <v/>
       </c>
-      <c r="J131" s="7" t="str">
+      <c r="J131" s="4" t="str">
         <f ca="1">IF(History!A131&lt;&gt;"",SUM(OFFSET(History!C131,0,COUNT(History!131:131)-IF(COUNT(History!131:131)&lt;=5,COUNT(History!131:131),5)):OFFSET(History!C131,0,COUNT(History!131:131)-1)),"")</f>
         <v/>
       </c>
@@ -5884,23 +5890,23 @@
       <c r="A132" s="1">
         <v>131</v>
       </c>
-      <c r="B132" s="9" t="str">
+      <c r="B132" s="6" t="str">
         <f>IF(History!A132&lt;&gt;"",History!A132,"")</f>
         <v/>
       </c>
-      <c r="C132" s="7" t="str">
+      <c r="C132" s="4" t="str">
         <f>IF(History!A132&lt;&gt;"",SUM(History!132:132),"")</f>
         <v/>
       </c>
-      <c r="D132" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E132" s="3" t="str">
+      <c r="D132" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E132" s="4" t="str">
         <f>IF(History!A132&lt;&gt;0,COUNTIF(History!132:132,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F132" s="3" t="str">
+      <c r="F132" s="4" t="str">
         <f>IF(History!A132&lt;&gt;0,COUNTIF(History!132:132,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -5912,11 +5918,11 @@
         <f>IFERROR(SMALL(History!132:132,COUNTIF(History!132:132,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I132" s="8" t="str">
+      <c r="I132" s="5" t="str">
         <f>IF(History!A132&lt;&gt;"",History!B132,"")</f>
         <v/>
       </c>
-      <c r="J132" s="7" t="str">
+      <c r="J132" s="4" t="str">
         <f ca="1">IF(History!A132&lt;&gt;"",SUM(OFFSET(History!C132,0,COUNT(History!132:132)-IF(COUNT(History!132:132)&lt;=5,COUNT(History!132:132),5)):OFFSET(History!C132,0,COUNT(History!132:132)-1)),"")</f>
         <v/>
       </c>
@@ -5925,23 +5931,23 @@
       <c r="A133" s="1">
         <v>132</v>
       </c>
-      <c r="B133" s="9" t="str">
+      <c r="B133" s="6" t="str">
         <f>IF(History!A133&lt;&gt;"",History!A133,"")</f>
         <v/>
       </c>
-      <c r="C133" s="7" t="str">
+      <c r="C133" s="4" t="str">
         <f>IF(History!A133&lt;&gt;"",SUM(History!133:133),"")</f>
         <v/>
       </c>
-      <c r="D133" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E133" s="3" t="str">
+      <c r="D133" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E133" s="4" t="str">
         <f>IF(History!A133&lt;&gt;0,COUNTIF(History!133:133,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F133" s="3" t="str">
+      <c r="F133" s="4" t="str">
         <f>IF(History!A133&lt;&gt;0,COUNTIF(History!133:133,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -5953,11 +5959,11 @@
         <f>IFERROR(SMALL(History!133:133,COUNTIF(History!133:133,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I133" s="8" t="str">
+      <c r="I133" s="5" t="str">
         <f>IF(History!A133&lt;&gt;"",History!B133,"")</f>
         <v/>
       </c>
-      <c r="J133" s="7" t="str">
+      <c r="J133" s="4" t="str">
         <f ca="1">IF(History!A133&lt;&gt;"",SUM(OFFSET(History!C133,0,COUNT(History!133:133)-IF(COUNT(History!133:133)&lt;=5,COUNT(History!133:133),5)):OFFSET(History!C133,0,COUNT(History!133:133)-1)),"")</f>
         <v/>
       </c>
@@ -5966,23 +5972,23 @@
       <c r="A134" s="1">
         <v>133</v>
       </c>
-      <c r="B134" s="9" t="str">
+      <c r="B134" s="6" t="str">
         <f>IF(History!A134&lt;&gt;"",History!A134,"")</f>
         <v/>
       </c>
-      <c r="C134" s="7" t="str">
+      <c r="C134" s="4" t="str">
         <f>IF(History!A134&lt;&gt;"",SUM(History!134:134),"")</f>
         <v/>
       </c>
-      <c r="D134" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E134" s="3" t="str">
+      <c r="D134" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E134" s="4" t="str">
         <f>IF(History!A134&lt;&gt;0,COUNTIF(History!134:134,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F134" s="3" t="str">
+      <c r="F134" s="4" t="str">
         <f>IF(History!A134&lt;&gt;0,COUNTIF(History!134:134,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -5994,11 +6000,11 @@
         <f>IFERROR(SMALL(History!134:134,COUNTIF(History!134:134,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I134" s="8" t="str">
+      <c r="I134" s="5" t="str">
         <f>IF(History!A134&lt;&gt;"",History!B134,"")</f>
         <v/>
       </c>
-      <c r="J134" s="7" t="str">
+      <c r="J134" s="4" t="str">
         <f ca="1">IF(History!A134&lt;&gt;"",SUM(OFFSET(History!C134,0,COUNT(History!134:134)-IF(COUNT(History!134:134)&lt;=5,COUNT(History!134:134),5)):OFFSET(History!C134,0,COUNT(History!134:134)-1)),"")</f>
         <v/>
       </c>
@@ -6007,23 +6013,23 @@
       <c r="A135" s="1">
         <v>134</v>
       </c>
-      <c r="B135" s="9" t="str">
+      <c r="B135" s="6" t="str">
         <f>IF(History!A135&lt;&gt;"",History!A135,"")</f>
         <v/>
       </c>
-      <c r="C135" s="7" t="str">
+      <c r="C135" s="4" t="str">
         <f>IF(History!A135&lt;&gt;"",SUM(History!135:135),"")</f>
         <v/>
       </c>
-      <c r="D135" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E135" s="3" t="str">
+      <c r="D135" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E135" s="4" t="str">
         <f>IF(History!A135&lt;&gt;0,COUNTIF(History!135:135,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F135" s="3" t="str">
+      <c r="F135" s="4" t="str">
         <f>IF(History!A135&lt;&gt;0,COUNTIF(History!135:135,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -6035,11 +6041,11 @@
         <f>IFERROR(SMALL(History!135:135,COUNTIF(History!135:135,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I135" s="8" t="str">
+      <c r="I135" s="5" t="str">
         <f>IF(History!A135&lt;&gt;"",History!B135,"")</f>
         <v/>
       </c>
-      <c r="J135" s="7" t="str">
+      <c r="J135" s="4" t="str">
         <f ca="1">IF(History!A135&lt;&gt;"",SUM(OFFSET(History!C135,0,COUNT(History!135:135)-IF(COUNT(History!135:135)&lt;=5,COUNT(History!135:135),5)):OFFSET(History!C135,0,COUNT(History!135:135)-1)),"")</f>
         <v/>
       </c>
@@ -6048,23 +6054,23 @@
       <c r="A136" s="1">
         <v>135</v>
       </c>
-      <c r="B136" s="9" t="str">
+      <c r="B136" s="6" t="str">
         <f>IF(History!A136&lt;&gt;"",History!A136,"")</f>
         <v/>
       </c>
-      <c r="C136" s="7" t="str">
+      <c r="C136" s="4" t="str">
         <f>IF(History!A136&lt;&gt;"",SUM(History!136:136),"")</f>
         <v/>
       </c>
-      <c r="D136" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E136" s="3" t="str">
+      <c r="D136" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E136" s="4" t="str">
         <f>IF(History!A136&lt;&gt;0,COUNTIF(History!136:136,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F136" s="3" t="str">
+      <c r="F136" s="4" t="str">
         <f>IF(History!A136&lt;&gt;0,COUNTIF(History!136:136,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -6076,11 +6082,11 @@
         <f>IFERROR(SMALL(History!136:136,COUNTIF(History!136:136,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I136" s="8" t="str">
+      <c r="I136" s="5" t="str">
         <f>IF(History!A136&lt;&gt;"",History!B136,"")</f>
         <v/>
       </c>
-      <c r="J136" s="7" t="str">
+      <c r="J136" s="4" t="str">
         <f ca="1">IF(History!A136&lt;&gt;"",SUM(OFFSET(History!C136,0,COUNT(History!136:136)-IF(COUNT(History!136:136)&lt;=5,COUNT(History!136:136),5)):OFFSET(History!C136,0,COUNT(History!136:136)-1)),"")</f>
         <v/>
       </c>
@@ -6089,23 +6095,23 @@
       <c r="A137" s="1">
         <v>136</v>
       </c>
-      <c r="B137" s="9" t="str">
+      <c r="B137" s="6" t="str">
         <f>IF(History!A137&lt;&gt;"",History!A137,"")</f>
         <v/>
       </c>
-      <c r="C137" s="7" t="str">
+      <c r="C137" s="4" t="str">
         <f>IF(History!A137&lt;&gt;"",SUM(History!137:137),"")</f>
         <v/>
       </c>
-      <c r="D137" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E137" s="3" t="str">
+      <c r="D137" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E137" s="4" t="str">
         <f>IF(History!A137&lt;&gt;0,COUNTIF(History!137:137,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F137" s="3" t="str">
+      <c r="F137" s="4" t="str">
         <f>IF(History!A137&lt;&gt;0,COUNTIF(History!137:137,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -6117,11 +6123,11 @@
         <f>IFERROR(SMALL(History!137:137,COUNTIF(History!137:137,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I137" s="8" t="str">
+      <c r="I137" s="5" t="str">
         <f>IF(History!A137&lt;&gt;"",History!B137,"")</f>
         <v/>
       </c>
-      <c r="J137" s="7" t="str">
+      <c r="J137" s="4" t="str">
         <f ca="1">IF(History!A137&lt;&gt;"",SUM(OFFSET(History!C137,0,COUNT(History!137:137)-IF(COUNT(History!137:137)&lt;=5,COUNT(History!137:137),5)):OFFSET(History!C137,0,COUNT(History!137:137)-1)),"")</f>
         <v/>
       </c>
@@ -6130,23 +6136,23 @@
       <c r="A138" s="1">
         <v>137</v>
       </c>
-      <c r="B138" s="9" t="str">
+      <c r="B138" s="6" t="str">
         <f>IF(History!A138&lt;&gt;"",History!A138,"")</f>
         <v/>
       </c>
-      <c r="C138" s="7" t="str">
+      <c r="C138" s="4" t="str">
         <f>IF(History!A138&lt;&gt;"",SUM(History!138:138),"")</f>
         <v/>
       </c>
-      <c r="D138" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E138" s="3" t="str">
+      <c r="D138" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E138" s="4" t="str">
         <f>IF(History!A138&lt;&gt;0,COUNTIF(History!138:138,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F138" s="3" t="str">
+      <c r="F138" s="4" t="str">
         <f>IF(History!A138&lt;&gt;0,COUNTIF(History!138:138,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -6158,11 +6164,11 @@
         <f>IFERROR(SMALL(History!138:138,COUNTIF(History!138:138,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I138" s="8" t="str">
+      <c r="I138" s="5" t="str">
         <f>IF(History!A138&lt;&gt;"",History!B138,"")</f>
         <v/>
       </c>
-      <c r="J138" s="7" t="str">
+      <c r="J138" s="4" t="str">
         <f ca="1">IF(History!A138&lt;&gt;"",SUM(OFFSET(History!C138,0,COUNT(History!138:138)-IF(COUNT(History!138:138)&lt;=5,COUNT(History!138:138),5)):OFFSET(History!C138,0,COUNT(History!138:138)-1)),"")</f>
         <v/>
       </c>
@@ -6171,23 +6177,23 @@
       <c r="A139" s="1">
         <v>138</v>
       </c>
-      <c r="B139" s="9" t="str">
+      <c r="B139" s="6" t="str">
         <f>IF(History!A139&lt;&gt;"",History!A139,"")</f>
         <v/>
       </c>
-      <c r="C139" s="7" t="str">
+      <c r="C139" s="4" t="str">
         <f>IF(History!A139&lt;&gt;"",SUM(History!139:139),"")</f>
         <v/>
       </c>
-      <c r="D139" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E139" s="3" t="str">
+      <c r="D139" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E139" s="4" t="str">
         <f>IF(History!A139&lt;&gt;0,COUNTIF(History!139:139,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F139" s="3" t="str">
+      <c r="F139" s="4" t="str">
         <f>IF(History!A139&lt;&gt;0,COUNTIF(History!139:139,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -6199,11 +6205,11 @@
         <f>IFERROR(SMALL(History!139:139,COUNTIF(History!139:139,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I139" s="8" t="str">
+      <c r="I139" s="5" t="str">
         <f>IF(History!A139&lt;&gt;"",History!B139,"")</f>
         <v/>
       </c>
-      <c r="J139" s="7" t="str">
+      <c r="J139" s="4" t="str">
         <f ca="1">IF(History!A139&lt;&gt;"",SUM(OFFSET(History!C139,0,COUNT(History!139:139)-IF(COUNT(History!139:139)&lt;=5,COUNT(History!139:139),5)):OFFSET(History!C139,0,COUNT(History!139:139)-1)),"")</f>
         <v/>
       </c>
@@ -6212,23 +6218,23 @@
       <c r="A140" s="1">
         <v>139</v>
       </c>
-      <c r="B140" s="9" t="str">
+      <c r="B140" s="6" t="str">
         <f>IF(History!A140&lt;&gt;"",History!A140,"")</f>
         <v/>
       </c>
-      <c r="C140" s="7" t="str">
+      <c r="C140" s="4" t="str">
         <f>IF(History!A140&lt;&gt;"",SUM(History!140:140),"")</f>
         <v/>
       </c>
-      <c r="D140" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E140" s="3" t="str">
+      <c r="D140" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E140" s="4" t="str">
         <f>IF(History!A140&lt;&gt;0,COUNTIF(History!140:140,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F140" s="3" t="str">
+      <c r="F140" s="4" t="str">
         <f>IF(History!A140&lt;&gt;0,COUNTIF(History!140:140,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -6240,11 +6246,11 @@
         <f>IFERROR(SMALL(History!140:140,COUNTIF(History!140:140,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I140" s="8" t="str">
+      <c r="I140" s="5" t="str">
         <f>IF(History!A140&lt;&gt;"",History!B140,"")</f>
         <v/>
       </c>
-      <c r="J140" s="7" t="str">
+      <c r="J140" s="4" t="str">
         <f ca="1">IF(History!A140&lt;&gt;"",SUM(OFFSET(History!C140,0,COUNT(History!140:140)-IF(COUNT(History!140:140)&lt;=5,COUNT(History!140:140),5)):OFFSET(History!C140,0,COUNT(History!140:140)-1)),"")</f>
         <v/>
       </c>
@@ -6253,23 +6259,23 @@
       <c r="A141" s="1">
         <v>140</v>
       </c>
-      <c r="B141" s="9" t="str">
+      <c r="B141" s="6" t="str">
         <f>IF(History!A141&lt;&gt;"",History!A141,"")</f>
         <v/>
       </c>
-      <c r="C141" s="7" t="str">
+      <c r="C141" s="4" t="str">
         <f>IF(History!A141&lt;&gt;"",SUM(History!141:141),"")</f>
         <v/>
       </c>
-      <c r="D141" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E141" s="3" t="str">
+      <c r="D141" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E141" s="4" t="str">
         <f>IF(History!A141&lt;&gt;0,COUNTIF(History!141:141,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F141" s="3" t="str">
+      <c r="F141" s="4" t="str">
         <f>IF(History!A141&lt;&gt;0,COUNTIF(History!141:141,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -6281,11 +6287,11 @@
         <f>IFERROR(SMALL(History!141:141,COUNTIF(History!141:141,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I141" s="8" t="str">
+      <c r="I141" s="5" t="str">
         <f>IF(History!A141&lt;&gt;"",History!B141,"")</f>
         <v/>
       </c>
-      <c r="J141" s="7" t="str">
+      <c r="J141" s="4" t="str">
         <f ca="1">IF(History!A141&lt;&gt;"",SUM(OFFSET(History!C141,0,COUNT(History!141:141)-IF(COUNT(History!141:141)&lt;=5,COUNT(History!141:141),5)):OFFSET(History!C141,0,COUNT(History!141:141)-1)),"")</f>
         <v/>
       </c>
@@ -6294,23 +6300,23 @@
       <c r="A142" s="1">
         <v>141</v>
       </c>
-      <c r="B142" s="9" t="str">
+      <c r="B142" s="6" t="str">
         <f>IF(History!A142&lt;&gt;"",History!A142,"")</f>
         <v/>
       </c>
-      <c r="C142" s="7" t="str">
+      <c r="C142" s="4" t="str">
         <f>IF(History!A142&lt;&gt;"",SUM(History!142:142),"")</f>
         <v/>
       </c>
-      <c r="D142" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E142" s="3" t="str">
+      <c r="D142" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E142" s="4" t="str">
         <f>IF(History!A142&lt;&gt;0,COUNTIF(History!142:142,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F142" s="3" t="str">
+      <c r="F142" s="4" t="str">
         <f>IF(History!A142&lt;&gt;0,COUNTIF(History!142:142,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -6322,11 +6328,11 @@
         <f>IFERROR(SMALL(History!142:142,COUNTIF(History!142:142,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I142" s="8" t="str">
+      <c r="I142" s="5" t="str">
         <f>IF(History!A142&lt;&gt;"",History!B142,"")</f>
         <v/>
       </c>
-      <c r="J142" s="7" t="str">
+      <c r="J142" s="4" t="str">
         <f ca="1">IF(History!A142&lt;&gt;"",SUM(OFFSET(History!C142,0,COUNT(History!142:142)-IF(COUNT(History!142:142)&lt;=5,COUNT(History!142:142),5)):OFFSET(History!C142,0,COUNT(History!142:142)-1)),"")</f>
         <v/>
       </c>
@@ -6335,23 +6341,23 @@
       <c r="A143" s="1">
         <v>142</v>
       </c>
-      <c r="B143" s="9" t="str">
+      <c r="B143" s="6" t="str">
         <f>IF(History!A143&lt;&gt;"",History!A143,"")</f>
         <v/>
       </c>
-      <c r="C143" s="7" t="str">
+      <c r="C143" s="4" t="str">
         <f>IF(History!A143&lt;&gt;"",SUM(History!143:143),"")</f>
         <v/>
       </c>
-      <c r="D143" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E143" s="3" t="str">
+      <c r="D143" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E143" s="4" t="str">
         <f>IF(History!A143&lt;&gt;0,COUNTIF(History!143:143,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F143" s="3" t="str">
+      <c r="F143" s="4" t="str">
         <f>IF(History!A143&lt;&gt;0,COUNTIF(History!143:143,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -6363,11 +6369,11 @@
         <f>IFERROR(SMALL(History!143:143,COUNTIF(History!143:143,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I143" s="8" t="str">
+      <c r="I143" s="5" t="str">
         <f>IF(History!A143&lt;&gt;"",History!B143,"")</f>
         <v/>
       </c>
-      <c r="J143" s="7" t="str">
+      <c r="J143" s="4" t="str">
         <f ca="1">IF(History!A143&lt;&gt;"",SUM(OFFSET(History!C143,0,COUNT(History!143:143)-IF(COUNT(History!143:143)&lt;=5,COUNT(History!143:143),5)):OFFSET(History!C143,0,COUNT(History!143:143)-1)),"")</f>
         <v/>
       </c>
@@ -6376,23 +6382,23 @@
       <c r="A144" s="1">
         <v>143</v>
       </c>
-      <c r="B144" s="9" t="str">
+      <c r="B144" s="6" t="str">
         <f>IF(History!A144&lt;&gt;"",History!A144,"")</f>
         <v/>
       </c>
-      <c r="C144" s="7" t="str">
+      <c r="C144" s="4" t="str">
         <f>IF(History!A144&lt;&gt;"",SUM(History!144:144),"")</f>
         <v/>
       </c>
-      <c r="D144" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E144" s="3" t="str">
+      <c r="D144" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E144" s="4" t="str">
         <f>IF(History!A144&lt;&gt;0,COUNTIF(History!144:144,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F144" s="3" t="str">
+      <c r="F144" s="4" t="str">
         <f>IF(History!A144&lt;&gt;0,COUNTIF(History!144:144,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -6404,11 +6410,11 @@
         <f>IFERROR(SMALL(History!144:144,COUNTIF(History!144:144,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I144" s="8" t="str">
+      <c r="I144" s="5" t="str">
         <f>IF(History!A144&lt;&gt;"",History!B144,"")</f>
         <v/>
       </c>
-      <c r="J144" s="7" t="str">
+      <c r="J144" s="4" t="str">
         <f ca="1">IF(History!A144&lt;&gt;"",SUM(OFFSET(History!C144,0,COUNT(History!144:144)-IF(COUNT(History!144:144)&lt;=5,COUNT(History!144:144),5)):OFFSET(History!C144,0,COUNT(History!144:144)-1)),"")</f>
         <v/>
       </c>
@@ -6417,23 +6423,23 @@
       <c r="A145" s="1">
         <v>144</v>
       </c>
-      <c r="B145" s="9" t="str">
+      <c r="B145" s="6" t="str">
         <f>IF(History!A145&lt;&gt;"",History!A145,"")</f>
         <v/>
       </c>
-      <c r="C145" s="7" t="str">
+      <c r="C145" s="4" t="str">
         <f>IF(History!A145&lt;&gt;"",SUM(History!145:145),"")</f>
         <v/>
       </c>
-      <c r="D145" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E145" s="3" t="str">
+      <c r="D145" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E145" s="4" t="str">
         <f>IF(History!A145&lt;&gt;0,COUNTIF(History!145:145,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F145" s="3" t="str">
+      <c r="F145" s="4" t="str">
         <f>IF(History!A145&lt;&gt;0,COUNTIF(History!145:145,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -6445,11 +6451,11 @@
         <f>IFERROR(SMALL(History!145:145,COUNTIF(History!145:145,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I145" s="8" t="str">
+      <c r="I145" s="5" t="str">
         <f>IF(History!A145&lt;&gt;"",History!B145,"")</f>
         <v/>
       </c>
-      <c r="J145" s="7" t="str">
+      <c r="J145" s="4" t="str">
         <f ca="1">IF(History!A145&lt;&gt;"",SUM(OFFSET(History!C145,0,COUNT(History!145:145)-IF(COUNT(History!145:145)&lt;=5,COUNT(History!145:145),5)):OFFSET(History!C145,0,COUNT(History!145:145)-1)),"")</f>
         <v/>
       </c>
@@ -6458,23 +6464,23 @@
       <c r="A146" s="1">
         <v>145</v>
       </c>
-      <c r="B146" s="9" t="str">
+      <c r="B146" s="6" t="str">
         <f>IF(History!A146&lt;&gt;"",History!A146,"")</f>
         <v/>
       </c>
-      <c r="C146" s="7" t="str">
+      <c r="C146" s="4" t="str">
         <f>IF(History!A146&lt;&gt;"",SUM(History!146:146),"")</f>
         <v/>
       </c>
-      <c r="D146" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E146" s="3" t="str">
+      <c r="D146" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E146" s="4" t="str">
         <f>IF(History!A146&lt;&gt;0,COUNTIF(History!146:146,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F146" s="3" t="str">
+      <c r="F146" s="4" t="str">
         <f>IF(History!A146&lt;&gt;0,COUNTIF(History!146:146,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -6486,11 +6492,11 @@
         <f>IFERROR(SMALL(History!146:146,COUNTIF(History!146:146,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I146" s="8" t="str">
+      <c r="I146" s="5" t="str">
         <f>IF(History!A146&lt;&gt;"",History!B146,"")</f>
         <v/>
       </c>
-      <c r="J146" s="7" t="str">
+      <c r="J146" s="4" t="str">
         <f ca="1">IF(History!A146&lt;&gt;"",SUM(OFFSET(History!C146,0,COUNT(History!146:146)-IF(COUNT(History!146:146)&lt;=5,COUNT(History!146:146),5)):OFFSET(History!C146,0,COUNT(History!146:146)-1)),"")</f>
         <v/>
       </c>
@@ -6499,23 +6505,23 @@
       <c r="A147" s="1">
         <v>146</v>
       </c>
-      <c r="B147" s="9" t="str">
+      <c r="B147" s="6" t="str">
         <f>IF(History!A147&lt;&gt;"",History!A147,"")</f>
         <v/>
       </c>
-      <c r="C147" s="7" t="str">
+      <c r="C147" s="4" t="str">
         <f>IF(History!A147&lt;&gt;"",SUM(History!147:147),"")</f>
         <v/>
       </c>
-      <c r="D147" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E147" s="3" t="str">
+      <c r="D147" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E147" s="4" t="str">
         <f>IF(History!A147&lt;&gt;0,COUNTIF(History!147:147,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F147" s="3" t="str">
+      <c r="F147" s="4" t="str">
         <f>IF(History!A147&lt;&gt;0,COUNTIF(History!147:147,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -6527,11 +6533,11 @@
         <f>IFERROR(SMALL(History!147:147,COUNTIF(History!147:147,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I147" s="8" t="str">
+      <c r="I147" s="5" t="str">
         <f>IF(History!A147&lt;&gt;"",History!B147,"")</f>
         <v/>
       </c>
-      <c r="J147" s="7" t="str">
+      <c r="J147" s="4" t="str">
         <f ca="1">IF(History!A147&lt;&gt;"",SUM(OFFSET(History!C147,0,COUNT(History!147:147)-IF(COUNT(History!147:147)&lt;=5,COUNT(History!147:147),5)):OFFSET(History!C147,0,COUNT(History!147:147)-1)),"")</f>
         <v/>
       </c>
@@ -6540,23 +6546,23 @@
       <c r="A148" s="1">
         <v>147</v>
       </c>
-      <c r="B148" s="9" t="str">
+      <c r="B148" s="6" t="str">
         <f>IF(History!A148&lt;&gt;"",History!A148,"")</f>
         <v/>
       </c>
-      <c r="C148" s="7" t="str">
+      <c r="C148" s="4" t="str">
         <f>IF(History!A148&lt;&gt;"",SUM(History!148:148),"")</f>
         <v/>
       </c>
-      <c r="D148" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E148" s="3" t="str">
+      <c r="D148" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E148" s="4" t="str">
         <f>IF(History!A148&lt;&gt;0,COUNTIF(History!148:148,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F148" s="3" t="str">
+      <c r="F148" s="4" t="str">
         <f>IF(History!A148&lt;&gt;0,COUNTIF(History!148:148,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -6568,11 +6574,11 @@
         <f>IFERROR(SMALL(History!148:148,COUNTIF(History!148:148,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I148" s="8" t="str">
+      <c r="I148" s="5" t="str">
         <f>IF(History!A148&lt;&gt;"",History!B148,"")</f>
         <v/>
       </c>
-      <c r="J148" s="7" t="str">
+      <c r="J148" s="4" t="str">
         <f ca="1">IF(History!A148&lt;&gt;"",SUM(OFFSET(History!C148,0,COUNT(History!148:148)-IF(COUNT(History!148:148)&lt;=5,COUNT(History!148:148),5)):OFFSET(History!C148,0,COUNT(History!148:148)-1)),"")</f>
         <v/>
       </c>
@@ -6581,23 +6587,23 @@
       <c r="A149" s="1">
         <v>148</v>
       </c>
-      <c r="B149" s="9" t="str">
+      <c r="B149" s="6" t="str">
         <f>IF(History!A149&lt;&gt;"",History!A149,"")</f>
         <v/>
       </c>
-      <c r="C149" s="7" t="str">
+      <c r="C149" s="4" t="str">
         <f>IF(History!A149&lt;&gt;"",SUM(History!149:149),"")</f>
         <v/>
       </c>
-      <c r="D149" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E149" s="3" t="str">
+      <c r="D149" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E149" s="4" t="str">
         <f>IF(History!A149&lt;&gt;0,COUNTIF(History!149:149,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F149" s="3" t="str">
+      <c r="F149" s="4" t="str">
         <f>IF(History!A149&lt;&gt;0,COUNTIF(History!149:149,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -6609,11 +6615,11 @@
         <f>IFERROR(SMALL(History!149:149,COUNTIF(History!149:149,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I149" s="8" t="str">
+      <c r="I149" s="5" t="str">
         <f>IF(History!A149&lt;&gt;"",History!B149,"")</f>
         <v/>
       </c>
-      <c r="J149" s="7" t="str">
+      <c r="J149" s="4" t="str">
         <f ca="1">IF(History!A149&lt;&gt;"",SUM(OFFSET(History!C149,0,COUNT(History!149:149)-IF(COUNT(History!149:149)&lt;=5,COUNT(History!149:149),5)):OFFSET(History!C149,0,COUNT(History!149:149)-1)),"")</f>
         <v/>
       </c>
@@ -6622,23 +6628,23 @@
       <c r="A150" s="1">
         <v>149</v>
       </c>
-      <c r="B150" s="9" t="str">
+      <c r="B150" s="6" t="str">
         <f>IF(History!A150&lt;&gt;"",History!A150,"")</f>
         <v/>
       </c>
-      <c r="C150" s="7" t="str">
+      <c r="C150" s="4" t="str">
         <f>IF(History!A150&lt;&gt;"",SUM(History!150:150),"")</f>
         <v/>
       </c>
-      <c r="D150" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E150" s="3" t="str">
+      <c r="D150" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E150" s="4" t="str">
         <f>IF(History!A150&lt;&gt;0,COUNTIF(History!150:150,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F150" s="3" t="str">
+      <c r="F150" s="4" t="str">
         <f>IF(History!A150&lt;&gt;0,COUNTIF(History!150:150,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -6650,11 +6656,11 @@
         <f>IFERROR(SMALL(History!150:150,COUNTIF(History!150:150,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I150" s="8" t="str">
+      <c r="I150" s="5" t="str">
         <f>IF(History!A150&lt;&gt;"",History!B150,"")</f>
         <v/>
       </c>
-      <c r="J150" s="7" t="str">
+      <c r="J150" s="4" t="str">
         <f ca="1">IF(History!A150&lt;&gt;"",SUM(OFFSET(History!C150,0,COUNT(History!150:150)-IF(COUNT(History!150:150)&lt;=5,COUNT(History!150:150),5)):OFFSET(History!C150,0,COUNT(History!150:150)-1)),"")</f>
         <v/>
       </c>
@@ -6663,23 +6669,23 @@
       <c r="A151" s="1">
         <v>150</v>
       </c>
-      <c r="B151" s="9" t="str">
+      <c r="B151" s="6" t="str">
         <f>IF(History!A151&lt;&gt;"",History!A151,"")</f>
         <v/>
       </c>
-      <c r="C151" s="7" t="str">
+      <c r="C151" s="4" t="str">
         <f>IF(History!A151&lt;&gt;"",SUM(History!151:151),"")</f>
         <v/>
       </c>
-      <c r="D151" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E151" s="3" t="str">
+      <c r="D151" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E151" s="4" t="str">
         <f>IF(History!A151&lt;&gt;0,COUNTIF(History!151:151,"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F151" s="3" t="str">
+      <c r="F151" s="4" t="str">
         <f>IF(History!A151&lt;&gt;0,COUNTIF(History!151:151,"&lt;=0"),"")</f>
         <v/>
       </c>
@@ -6691,11 +6697,11 @@
         <f>IFERROR(SMALL(History!151:151,COUNTIF(History!151:151,"&lt;=0")),"")</f>
         <v/>
       </c>
-      <c r="I151" s="8" t="str">
+      <c r="I151" s="5" t="str">
         <f>IF(History!A151&lt;&gt;"",History!B151,"")</f>
         <v/>
       </c>
-      <c r="J151" s="7" t="str">
+      <c r="J151" s="4" t="str">
         <f ca="1">IF(History!A151&lt;&gt;"",SUM(OFFSET(History!C151,0,COUNT(History!151:151)-IF(COUNT(History!151:151)&lt;=5,COUNT(History!151:151),5)):OFFSET(History!C151,0,COUNT(History!151:151)-1)),"")</f>
         <v/>
       </c>
@@ -6709,7 +6715,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
@@ -6721,125 +6727,287 @@
     <col min="2" max="2" width="9.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>-24</v>
+      </c>
+      <c r="E2" s="4">
+        <v>-3</v>
+      </c>
+      <c r="F2" s="4">
+        <v>-46</v>
+      </c>
+      <c r="G2">
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4">
+        <v>-40</v>
+      </c>
+      <c r="D3" s="4">
+        <v>269</v>
+      </c>
+      <c r="E3">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4">
+        <v>-2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>-7</v>
+      </c>
+      <c r="E4" s="4">
+        <v>-22</v>
+      </c>
+      <c r="F4" s="4">
+        <v>-52</v>
+      </c>
+      <c r="G4">
+        <v>-27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4">
+        <v>293</v>
+      </c>
+      <c r="D5" s="4">
+        <v>-129</v>
+      </c>
+      <c r="E5" s="4">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4">
+        <v>-44</v>
+      </c>
+      <c r="D6">
+        <v>-76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4">
+        <v>-71</v>
+      </c>
+      <c r="D7" s="4">
+        <v>-71</v>
+      </c>
+      <c r="E7" s="4">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4">
+        <v>-102</v>
+      </c>
+      <c r="D8">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4">
+        <v>-8</v>
+      </c>
+      <c r="D9" s="4">
+        <v>-38</v>
+      </c>
+      <c r="E9" s="4">
+        <v>-9</v>
+      </c>
+      <c r="F9" s="4">
+        <v>-10</v>
+      </c>
+      <c r="G9">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="4">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="3">
-        <v>-40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
+      <c r="C11" s="4">
+        <v>-140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="3">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="3">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="3">
-        <v>-44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="3">
-        <v>-71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="3">
-        <v>-102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="3">
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="3">
-        <v>-25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="3">
-        <v>-140</v>
+      <c r="C12" s="4">
+        <v>-11</v>
+      </c>
+      <c r="D12" s="4">
+        <v>-45</v>
+      </c>
+      <c r="E12" s="4">
+        <v>-56</v>
+      </c>
+      <c r="F12">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="4">
+        <v>-100</v>
+      </c>
+      <c r="C13" s="4">
+        <v>-6</v>
+      </c>
+      <c r="D13" s="4">
+        <v>-26</v>
+      </c>
+      <c r="E13" s="4">
+        <v>-4</v>
+      </c>
+      <c r="F13" s="4">
+        <v>-1294</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="4">
+        <v>-100</v>
+      </c>
+      <c r="C14" s="4">
+        <v>286</v>
+      </c>
+      <c r="D14" s="4">
+        <v>-27</v>
+      </c>
+      <c r="E14" s="4">
+        <v>-53</v>
+      </c>
+      <c r="F14" s="4">
+        <v>-187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="4">
+        <v>158</v>
+      </c>
+      <c r="D15" s="4">
+        <v>-16</v>
+      </c>
+      <c r="E15">
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="4">
+        <v>-32</v>
+      </c>
+      <c r="D16">
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>-29</v>
       </c>
     </row>
   </sheetData>

--- a/uno/uno_record.xlsx
+++ b/uno/uno_record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ren\Desktop\色々\Data\Discord\HONDA Bot\uno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B6290C5-29FB-4667-AB53-69D682D172E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFA397A-76F1-46CC-B38D-CC9C7B1C5E13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1260" windowWidth="17130" windowHeight="14070" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Records" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>Player ID</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>Loses</t>
-  </si>
-  <si>
-    <t>Max</t>
   </si>
   <si>
     <t>Min</t>
@@ -56,10 +53,10 @@
     <t>193407417256640512</t>
   </si>
   <si>
-    <t>0</t>
+    <t>573870933236776960</t>
   </si>
   <si>
-    <t>573870933236776960</t>
+    <t>0</t>
   </si>
   <si>
     <t>700027069278716074</t>
@@ -105,6 +102,24 @@
   </si>
   <si>
     <t>582616639820922939</t>
+  </si>
+  <si>
+    <t>713420616254095460</t>
+  </si>
+  <si>
+    <t>607980121902546945</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Max</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -171,7 +186,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -195,6 +210,9 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -513,9 +531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -544,16 +560,16 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
@@ -566,27 +582,27 @@
       </c>
       <c r="C2" s="4">
         <f>IF(History!A2&lt;&gt;"",SUM(History!2:2),"")</f>
-        <v>-96</v>
+        <v>67</v>
       </c>
       <c r="D2" s="7">
         <f t="shared" ref="D2:D33" si="0">IFERROR(E2/(E2+F2),"")</f>
-        <v>0</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="E2" s="4">
         <f>IF(History!A2&lt;&gt;0,COUNTIF(History!2:2,"&gt;0"),"")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2" s="4">
         <f>IF(History!A2&lt;&gt;0,COUNTIF(History!2:2,"&lt;=0"),"")</f>
-        <v>5</v>
-      </c>
-      <c r="G2" s="5" t="str">
-        <f>IFERROR(LARGE(History!2:2,COUNTIF(History!2:2,"&gt;0")),"")</f>
-        <v/>
+        <v>7</v>
+      </c>
+      <c r="G2" s="8">
+        <f>IF(MAX(History!2:2)&gt;0,MAX(History!2:2),"")</f>
+        <v>164</v>
       </c>
       <c r="H2" s="5">
-        <f>IF(History!A2&lt;&gt;0,SMALL(History!2:2,COUNTIF(History!2:2,"&lt;=0")),"")</f>
-        <v>-1</v>
+        <f>IF(History!A2&lt;&gt;0,MIN(History!2:2),"")</f>
+        <v>-77</v>
       </c>
       <c r="I2" s="5" t="str">
         <f>IF(History!A2&lt;&gt;"",History!B2,"")</f>
@@ -594,7 +610,7 @@
       </c>
       <c r="J2" s="4">
         <f ca="1">SUM(OFFSET(History!C2,0,COUNT(History!2:2)-IF(COUNT(History!2:2)&lt;=5,COUNT(History!2:2),5)):OFFSET(History!C2,0,COUNT(History!2:2)-1))</f>
-        <v>-96</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
@@ -607,11 +623,11 @@
       </c>
       <c r="C3" s="4">
         <f>IF(History!A3&lt;&gt;"",SUM(History!3:3),"")</f>
-        <v>204</v>
+        <v>84</v>
       </c>
       <c r="D3" s="7">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="E3" s="4">
         <f>IF(History!A3&lt;&gt;0,COUNTIF(History!3:3,"&gt;0"),"")</f>
@@ -619,15 +635,15 @@
       </c>
       <c r="F3" s="4">
         <f>IF(History!A3&lt;&gt;0,COUNTIF(History!3:3,"&lt;=0"),"")</f>
-        <v>2</v>
-      </c>
-      <c r="G3" s="5">
-        <f>IFERROR(LARGE(History!3:3,COUNTIF(History!3:3,"&gt;0")),"")</f>
+        <v>6</v>
+      </c>
+      <c r="G3" s="8">
+        <f>IF(MAX(History!3:3)&gt;0,MAX(History!3:3),"")</f>
         <v>269</v>
       </c>
       <c r="H3" s="5">
-        <f>IF(History!A3&lt;&gt;0,SMALL(History!3:3,COUNTIF(History!3:3,"&lt;=0")),"")</f>
-        <v>-25</v>
+        <f>IF(History!A3&lt;&gt;0,MIN(History!3:3),"")</f>
+        <v>-48</v>
       </c>
       <c r="I3" s="5" t="str">
         <f>IF(History!A3&lt;&gt;"",History!B3,"")</f>
@@ -635,7 +651,7 @@
       </c>
       <c r="J3" s="4">
         <f ca="1">SUM(OFFSET(History!C3,0,COUNT(History!3:3)-IF(COUNT(History!3:3)&lt;=5,COUNT(History!3:3),5)):OFFSET(History!C3,0,COUNT(History!3:3)-1))</f>
-        <v>204</v>
+        <v>-145</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
@@ -662,13 +678,13 @@
         <f>IF(History!A4&lt;&gt;0,COUNTIF(History!4:4,"&lt;=0"),"")</f>
         <v>5</v>
       </c>
-      <c r="G4" s="5" t="str">
-        <f>IFERROR(LARGE(History!4:4,COUNTIF(History!4:4,"&gt;0")),"")</f>
+      <c r="G4" s="8" t="str">
+        <f>IF(MAX(History!4:4)&gt;0,MAX(History!4:4),"")</f>
         <v/>
       </c>
       <c r="H4" s="5">
-        <f>IF(History!A4&lt;&gt;0,SMALL(History!4:4,COUNTIF(History!4:4,"&lt;=0")),"")</f>
-        <v>-2</v>
+        <f>IF(History!A4&lt;&gt;0,MIN(History!4:4),"")</f>
+        <v>-52</v>
       </c>
       <c r="I4" s="5" t="str">
         <f>IF(History!A4&lt;&gt;"",History!B4,"")</f>
@@ -689,27 +705,27 @@
       </c>
       <c r="C5" s="4">
         <f>IF(History!A5&lt;&gt;"",SUM(History!5:5),"")</f>
-        <v>152</v>
+        <v>288</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.4</v>
       </c>
       <c r="E5" s="4">
         <f>IF(History!A5&lt;&gt;0,COUNTIF(History!5:5,"&gt;0"),"")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="4">
         <f>IF(History!A5&lt;&gt;0,COUNTIF(History!5:5,"&lt;=0"),"")</f>
-        <v>2</v>
-      </c>
-      <c r="G5" s="5">
-        <f>IFERROR(LARGE(History!5:5,COUNTIF(History!5:5,"&gt;0")),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G5" s="8">
+        <f>IF(MAX(History!5:5)&gt;0,MAX(History!5:5),"")</f>
         <v>293</v>
       </c>
       <c r="H5" s="5">
-        <f>IFERROR(SMALL(History!5:5,COUNTIF(History!5:5,"&lt;=0")),"")</f>
-        <v>-12</v>
+        <f>IF(History!A5&lt;&gt;0,MIN(History!5:5),"")</f>
+        <v>-129</v>
       </c>
       <c r="I5" s="5" t="str">
         <f>IF(History!A5&lt;&gt;"",History!B5,"")</f>
@@ -717,7 +733,7 @@
       </c>
       <c r="J5" s="4">
         <f ca="1">SUM(OFFSET(History!C5,0,COUNT(History!5:5)-IF(COUNT(History!5:5)&lt;=5,COUNT(History!5:5),5)):OFFSET(History!C5,0,COUNT(History!5:5)-1))</f>
-        <v>152</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
@@ -730,27 +746,27 @@
       </c>
       <c r="C6" s="4">
         <f>IF(History!A6&lt;&gt;"",SUM(History!6:6),"")</f>
-        <v>-120</v>
+        <v>-37</v>
       </c>
       <c r="D6" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E6" s="4">
         <f>IF(History!A6&lt;&gt;0,COUNTIF(History!6:6,"&gt;0"),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="4">
         <f>IF(History!A6&lt;&gt;0,COUNTIF(History!6:6,"&lt;=0"),"")</f>
-        <v>2</v>
-      </c>
-      <c r="G6" s="5" t="str">
-        <f>IFERROR(LARGE(History!6:6,COUNTIF(History!6:6,"&gt;0")),"")</f>
-        <v/>
+        <v>4</v>
+      </c>
+      <c r="G6" s="8">
+        <f>IF(MAX(History!6:6)&gt;0,MAX(History!6:6),"")</f>
+        <v>130</v>
       </c>
       <c r="H6" s="5">
-        <f>IFERROR(SMALL(History!6:6,COUNTIF(History!6:6,"&lt;=0")),"")</f>
-        <v>-44</v>
+        <f>IF(History!A6&lt;&gt;0,MIN(History!6:6),"")</f>
+        <v>-76</v>
       </c>
       <c r="I6" s="5" t="str">
         <f>IF(History!A6&lt;&gt;"",History!B6,"")</f>
@@ -758,7 +774,7 @@
       </c>
       <c r="J6" s="4">
         <f ca="1">SUM(OFFSET(History!C6,0,COUNT(History!6:6)-IF(COUNT(History!6:6)&lt;=5,COUNT(History!6:6),5)):OFFSET(History!C6,0,COUNT(History!6:6)-1))</f>
-        <v>-120</v>
+        <v>-37</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
@@ -785,13 +801,13 @@
         <f>IF(History!A7&lt;&gt;0,COUNTIF(History!7:7,"&lt;=0"),"")</f>
         <v>3</v>
       </c>
-      <c r="G7" s="5" t="str">
-        <f>IFERROR(LARGE(History!7:7,COUNTIF(History!7:7,"&gt;0")),"")</f>
+      <c r="G7" s="8" t="str">
+        <f>IF(MAX(History!7:7)&gt;0,MAX(History!7:7),"")</f>
         <v/>
       </c>
       <c r="H7" s="5">
-        <f>IFERROR(SMALL(History!7:7,COUNTIF(History!7:7,"&lt;=0")),"")</f>
-        <v>-14</v>
+        <f>IF(History!A7&lt;&gt;0,MIN(History!7:7),"")</f>
+        <v>-71</v>
       </c>
       <c r="I7" s="5" t="str">
         <f>IF(History!A7&lt;&gt;"",History!B7,"")</f>
@@ -826,13 +842,13 @@
         <f>IF(History!A8&lt;&gt;0,COUNTIF(History!8:8,"&lt;=0"),"")</f>
         <v>2</v>
       </c>
-      <c r="G8" s="5" t="str">
-        <f>IFERROR(LARGE(History!8:8,COUNTIF(History!8:8,"&gt;0")),"")</f>
+      <c r="G8" s="8" t="str">
+        <f>IF(MAX(History!8:8)&gt;0,MAX(History!8:8),"")</f>
         <v/>
       </c>
       <c r="H8" s="5">
-        <f>IFERROR(SMALL(History!8:8,COUNTIF(History!8:8,"&lt;=0")),"")</f>
-        <v>-6</v>
+        <f>IF(History!A8&lt;&gt;0,MIN(History!8:8),"")</f>
+        <v>-102</v>
       </c>
       <c r="I8" s="5" t="str">
         <f>IF(History!A8&lt;&gt;"",History!B8,"")</f>
@@ -853,7 +869,7 @@
       </c>
       <c r="C9" s="4">
         <f>IF(History!A9&lt;&gt;"",SUM(History!9:9),"")</f>
-        <v>-82</v>
+        <v>-210</v>
       </c>
       <c r="D9" s="7">
         <f t="shared" si="0"/>
@@ -865,15 +881,15 @@
       </c>
       <c r="F9" s="4">
         <f>IF(History!A9&lt;&gt;0,COUNTIF(History!9:9,"&lt;=0"),"")</f>
-        <v>5</v>
-      </c>
-      <c r="G9" s="5" t="str">
-        <f>IFERROR(LARGE(History!9:9,COUNTIF(History!9:9,"&gt;0")),"")</f>
+        <v>9</v>
+      </c>
+      <c r="G9" s="8" t="str">
+        <f>IF(MAX(History!9:9)&gt;0,MAX(History!9:9),"")</f>
         <v/>
       </c>
       <c r="H9" s="5">
-        <f>IFERROR(SMALL(History!9:9,COUNTIF(History!9:9,"&lt;=0")),"")</f>
-        <v>-8</v>
+        <f>IF(History!A9&lt;&gt;0,MIN(History!9:9),"")</f>
+        <v>-73</v>
       </c>
       <c r="I9" s="5" t="str">
         <f>IF(History!A9&lt;&gt;"",History!B9,"")</f>
@@ -881,7 +897,7 @@
       </c>
       <c r="J9" s="4">
         <f ca="1">SUM(OFFSET(History!C9,0,COUNT(History!9:9)-IF(COUNT(History!9:9)&lt;=5,COUNT(History!9:9),5)):OFFSET(History!C9,0,COUNT(History!9:9)-1))</f>
-        <v>-82</v>
+        <v>-145</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
@@ -908,12 +924,12 @@
         <f>IF(History!A10&lt;&gt;0,COUNTIF(History!10:10,"&lt;=0"),"")</f>
         <v>1</v>
       </c>
-      <c r="G10" s="5" t="str">
-        <f>IFERROR(LARGE(History!10:10,COUNTIF(History!10:10,"&gt;0")),"")</f>
+      <c r="G10" s="8" t="str">
+        <f>IF(MAX(History!10:10)&gt;0,MAX(History!10:10),"")</f>
         <v/>
       </c>
       <c r="H10" s="5">
-        <f>IFERROR(SMALL(History!10:10,COUNTIF(History!10:10,"&lt;=0")),"")</f>
+        <f>IF(History!A10&lt;&gt;0,MIN(History!10:10),"")</f>
         <v>-25</v>
       </c>
       <c r="I10" s="5" t="str">
@@ -949,12 +965,12 @@
         <f>IF(History!A11&lt;&gt;0,COUNTIF(History!11:11,"&lt;=0"),"")</f>
         <v>1</v>
       </c>
-      <c r="G11" s="5" t="str">
-        <f>IFERROR(LARGE(History!11:11,COUNTIF(History!11:11,"&gt;0")),"")</f>
+      <c r="G11" s="8" t="str">
+        <f>IF(MAX(History!11:11)&gt;0,MAX(History!11:11),"")</f>
         <v/>
       </c>
       <c r="H11" s="5">
-        <f>IFERROR(SMALL(History!11:11,COUNTIF(History!11:11,"&lt;=0")),"")</f>
+        <f>IF(History!A11&lt;&gt;0,MIN(History!11:11),"")</f>
         <v>-140</v>
       </c>
       <c r="I11" s="5" t="str">
@@ -976,11 +992,11 @@
       </c>
       <c r="C12" s="4">
         <f>IF(History!A12&lt;&gt;"",SUM(History!12:12),"")</f>
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="D12" s="7">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E12" s="4">
         <f>IF(History!A12&lt;&gt;0,COUNTIF(History!12:12,"&gt;0"),"")</f>
@@ -988,23 +1004,23 @@
       </c>
       <c r="F12" s="4">
         <f>IF(History!A12&lt;&gt;0,COUNTIF(History!12:12,"&lt;=0"),"")</f>
-        <v>3</v>
-      </c>
-      <c r="G12" s="5">
-        <f>IFERROR(LARGE(History!12:12,COUNTIF(History!12:12,"&gt;0")),"")</f>
+        <v>8</v>
+      </c>
+      <c r="G12" s="8">
+        <f>IF(MAX(History!12:12)&gt;0,MAX(History!12:12),"")</f>
         <v>255</v>
       </c>
       <c r="H12" s="5">
-        <f>IFERROR(SMALL(History!12:12,COUNTIF(History!12:12,"&lt;=0")),"")</f>
-        <v>-11</v>
-      </c>
-      <c r="I12" s="5" t="str">
+        <f>IF(History!A12&lt;&gt;0,MIN(History!12:12),"")</f>
+        <v>-56</v>
+      </c>
+      <c r="I12" s="5">
         <f>IF(History!A12&lt;&gt;"",History!B12,"")</f>
         <v>0</v>
       </c>
       <c r="J12" s="4">
         <f ca="1">IF(History!A12&lt;&gt;"",SUM(OFFSET(History!C12,0,COUNT(History!12:12)-IF(COUNT(History!12:12)&lt;=5,COUNT(History!12:12),5)):OFFSET(History!C12,0,COUNT(History!12:12)-1)),"")</f>
-        <v>143</v>
+        <v>-17</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
@@ -1017,7 +1033,7 @@
       </c>
       <c r="C13" s="4">
         <f>IF(History!A13&lt;&gt;"",SUM(History!13:13),"")</f>
-        <v>-1430</v>
+        <v>-36</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" si="0"/>
@@ -1029,23 +1045,23 @@
       </c>
       <c r="F13" s="4">
         <f>IF(History!A13&lt;&gt;0,COUNTIF(History!13:13,"&lt;=0"),"")</f>
-        <v>5</v>
-      </c>
-      <c r="G13" s="5" t="str">
-        <f>IFERROR(LARGE(History!13:13,COUNTIF(History!13:13,"&gt;0")),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G13" s="8" t="str">
+        <f>IF(MAX(History!13:13)&gt;0,MAX(History!13:13),"")</f>
         <v/>
       </c>
       <c r="H13" s="5">
-        <f>IFERROR(SMALL(History!13:13,COUNTIF(History!13:13,"&lt;=0")),"")</f>
-        <v>-4</v>
-      </c>
-      <c r="I13" s="5">
+        <f>IF(History!A13&lt;&gt;0,MIN(History!13:13),"")</f>
+        <v>-26</v>
+      </c>
+      <c r="I13" s="5" t="str">
         <f>IF(History!A13&lt;&gt;"",History!B13,"")</f>
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J13" s="4">
         <f ca="1">IF(History!A13&lt;&gt;"",SUM(OFFSET(History!C13,0,COUNT(History!13:13)-IF(COUNT(History!13:13)&lt;=5,COUNT(History!13:13),5)):OFFSET(History!C13,0,COUNT(History!13:13)-1)),"")</f>
-        <v>-1330</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
@@ -1072,13 +1088,13 @@
         <f>IF(History!A14&lt;&gt;0,COUNTIF(History!14:14,"&lt;=0"),"")</f>
         <v>4</v>
       </c>
-      <c r="G14" s="5">
-        <f>IFERROR(LARGE(History!14:14,COUNTIF(History!14:14,"&gt;0")),"")</f>
+      <c r="G14" s="8">
+        <f>IF(MAX(History!14:14)&gt;0,MAX(History!14:14),"")</f>
         <v>286</v>
       </c>
       <c r="H14" s="5">
-        <f>IFERROR(SMALL(History!14:14,COUNTIF(History!14:14,"&lt;=0")),"")</f>
-        <v>-27</v>
+        <f>IF(History!A14&lt;&gt;0,MIN(History!14:14),"")</f>
+        <v>-187</v>
       </c>
       <c r="I14" s="5">
         <f>IF(History!A14&lt;&gt;"",History!B14,"")</f>
@@ -1113,13 +1129,13 @@
         <f>IF(History!A15&lt;&gt;0,COUNTIF(History!15:15,"&lt;=0"),"")</f>
         <v>2</v>
       </c>
-      <c r="G15" s="5">
-        <f>IFERROR(LARGE(History!15:15,COUNTIF(History!15:15,"&gt;0")),"")</f>
+      <c r="G15" s="8">
+        <f>IF(MAX(History!15:15)&gt;0,MAX(History!15:15),"")</f>
         <v>158</v>
       </c>
       <c r="H15" s="5">
-        <f>IFERROR(SMALL(History!15:15,COUNTIF(History!15:15,"&lt;=0")),"")</f>
-        <v>-16</v>
+        <f>IF(History!A15&lt;&gt;0,MIN(History!15:15),"")</f>
+        <v>-32</v>
       </c>
       <c r="I15" s="5" t="str">
         <f>IF(History!A15&lt;&gt;"",History!B15,"")</f>
@@ -1154,13 +1170,13 @@
         <f>IF(History!A16&lt;&gt;0,COUNTIF(History!16:16,"&lt;=0"),"")</f>
         <v>2</v>
       </c>
-      <c r="G16" s="5" t="str">
-        <f>IFERROR(LARGE(History!16:16,COUNTIF(History!16:16,"&gt;0")),"")</f>
+      <c r="G16" s="8" t="str">
+        <f>IF(MAX(History!16:16)&gt;0,MAX(History!16:16),"")</f>
         <v/>
       </c>
       <c r="H16" s="5">
-        <f>IFERROR(SMALL(History!16:16,COUNTIF(History!16:16,"&lt;=0")),"")</f>
-        <v>-21</v>
+        <f>IF(History!A16&lt;&gt;0,MIN(History!16:16),"")</f>
+        <v>-32</v>
       </c>
       <c r="I16" s="5" t="str">
         <f>IF(History!A16&lt;&gt;"",History!B16,"")</f>
@@ -1181,7 +1197,7 @@
       </c>
       <c r="C17" s="4">
         <f>IF(History!A17&lt;&gt;"",SUM(History!17:17),"")</f>
-        <v>-29</v>
+        <v>-32</v>
       </c>
       <c r="D17" s="7">
         <f t="shared" si="0"/>
@@ -1193,14 +1209,14 @@
       </c>
       <c r="F17" s="4">
         <f>IF(History!A17&lt;&gt;0,COUNTIF(History!17:17,"&lt;=0"),"")</f>
-        <v>1</v>
-      </c>
-      <c r="G17" s="5" t="str">
-        <f>IFERROR(LARGE(History!17:17,COUNTIF(History!17:17,"&gt;0")),"")</f>
+        <v>2</v>
+      </c>
+      <c r="G17" s="8" t="str">
+        <f>IF(MAX(History!17:17)&gt;0,MAX(History!17:17),"")</f>
         <v/>
       </c>
       <c r="H17" s="5">
-        <f>IFERROR(SMALL(History!17:17,COUNTIF(History!17:17,"&lt;=0")),"")</f>
+        <f>IF(History!A17&lt;&gt;0,MIN(History!17:17),"")</f>
         <v>-29</v>
       </c>
       <c r="I17" s="5" t="str">
@@ -1209,7 +1225,7 @@
       </c>
       <c r="J17" s="4">
         <f ca="1">IF(History!A17&lt;&gt;"",SUM(OFFSET(History!C17,0,COUNT(History!17:17)-IF(COUNT(History!17:17)&lt;=5,COUNT(History!17:17),5)):OFFSET(History!C17,0,COUNT(History!17:17)-1)),"")</f>
-        <v>-29</v>
+        <v>-32</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
@@ -1218,39 +1234,39 @@
       </c>
       <c r="B18" s="6" t="str">
         <f>IF(History!A18&lt;&gt;"",History!A18,"")</f>
-        <v/>
-      </c>
-      <c r="C18" s="4" t="str">
+        <v>713420616254095460</v>
+      </c>
+      <c r="C18" s="4">
         <f>IF(History!A18&lt;&gt;"",SUM(History!18:18),"")</f>
-        <v/>
-      </c>
-      <c r="D18" s="7" t="str">
+        <v>-37</v>
+      </c>
+      <c r="D18" s="7">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E18" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
         <f>IF(History!A18&lt;&gt;0,COUNTIF(History!18:18,"&gt;0"),"")</f>
-        <v/>
-      </c>
-      <c r="F18" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
         <f>IF(History!A18&lt;&gt;0,COUNTIF(History!18:18,"&lt;=0"),"")</f>
-        <v/>
-      </c>
-      <c r="G18" s="5" t="str">
-        <f>IFERROR(LARGE(History!18:18,COUNTIF(History!18:18,"&gt;0")),"")</f>
-        <v/>
-      </c>
-      <c r="H18" s="5" t="str">
-        <f>IFERROR(SMALL(History!18:18,COUNTIF(History!18:18,"&lt;=0")),"")</f>
-        <v/>
+        <v>2</v>
+      </c>
+      <c r="G18" s="8" t="str">
+        <f>IF(MAX(History!18:18)&gt;0,MAX(History!18:18),"")</f>
+        <v/>
+      </c>
+      <c r="H18" s="5">
+        <f>IF(History!A18&lt;&gt;0,MIN(History!18:18),"")</f>
+        <v>-29</v>
       </c>
       <c r="I18" s="5" t="str">
         <f>IF(History!A18&lt;&gt;"",History!B18,"")</f>
-        <v/>
-      </c>
-      <c r="J18" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
         <f ca="1">IF(History!A18&lt;&gt;"",SUM(OFFSET(History!C18,0,COUNT(History!18:18)-IF(COUNT(History!18:18)&lt;=5,COUNT(History!18:18),5)):OFFSET(History!C18,0,COUNT(History!18:18)-1)),"")</f>
-        <v/>
+        <v>-37</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
@@ -1259,39 +1275,39 @@
       </c>
       <c r="B19" s="6" t="str">
         <f>IF(History!A19&lt;&gt;"",History!A19,"")</f>
-        <v/>
-      </c>
-      <c r="C19" s="4" t="str">
+        <v>607980121902546945</v>
+      </c>
+      <c r="C19" s="4">
         <f>IF(History!A19&lt;&gt;"",SUM(History!19:19),"")</f>
-        <v/>
-      </c>
-      <c r="D19" s="7" t="str">
+        <v>-77</v>
+      </c>
+      <c r="D19" s="7">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E19" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
         <f>IF(History!A19&lt;&gt;0,COUNTIF(History!19:19,"&gt;0"),"")</f>
-        <v/>
-      </c>
-      <c r="F19" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
         <f>IF(History!A19&lt;&gt;0,COUNTIF(History!19:19,"&lt;=0"),"")</f>
-        <v/>
-      </c>
-      <c r="G19" s="5" t="str">
-        <f>IFERROR(LARGE(History!19:19,COUNTIF(History!19:19,"&gt;0")),"")</f>
-        <v/>
-      </c>
-      <c r="H19" s="5" t="str">
-        <f>IFERROR(SMALL(History!19:19,COUNTIF(History!19:19,"&lt;=0")),"")</f>
-        <v/>
-      </c>
-      <c r="I19" s="5" t="str">
+        <v>2</v>
+      </c>
+      <c r="G19" s="8" t="str">
+        <f>IF(MAX(History!19:19)&gt;0,MAX(History!19:19),"")</f>
+        <v/>
+      </c>
+      <c r="H19" s="5">
+        <f>IF(History!A19&lt;&gt;0,MIN(History!19:19),"")</f>
+        <v>-77</v>
+      </c>
+      <c r="I19" s="5">
         <f>IF(History!A19&lt;&gt;"",History!B19,"")</f>
-        <v/>
-      </c>
-      <c r="J19" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
         <f ca="1">IF(History!A19&lt;&gt;"",SUM(OFFSET(History!C19,0,COUNT(History!19:19)-IF(COUNT(History!19:19)&lt;=5,COUNT(History!19:19),5)):OFFSET(History!C19,0,COUNT(History!19:19)-1)),"")</f>
-        <v/>
+        <v>-77</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
@@ -1318,12 +1334,12 @@
         <f>IF(History!A20&lt;&gt;0,COUNTIF(History!20:20,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G20" s="5" t="str">
-        <f>IFERROR(LARGE(History!20:20,COUNTIF(History!20:20,"&gt;0")),"")</f>
+      <c r="G20" s="8" t="str">
+        <f>IF(MAX(History!20:20)&gt;0,MAX(History!20:20),"")</f>
         <v/>
       </c>
       <c r="H20" s="5" t="str">
-        <f>IFERROR(SMALL(History!20:20,COUNTIF(History!20:20,"&lt;=0")),"")</f>
+        <f>IF(History!A20&lt;&gt;0,MIN(History!20:20),"")</f>
         <v/>
       </c>
       <c r="I20" s="5" t="str">
@@ -1359,12 +1375,12 @@
         <f>IF(History!A21&lt;&gt;0,COUNTIF(History!21:21,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G21" s="5" t="str">
-        <f>IFERROR(LARGE(History!21:21,COUNTIF(History!21:21,"&gt;0")),"")</f>
+      <c r="G21" s="8" t="str">
+        <f>IF(MAX(History!21:21)&gt;0,MAX(History!21:21),"")</f>
         <v/>
       </c>
       <c r="H21" s="5" t="str">
-        <f>IFERROR(SMALL(History!21:21,COUNTIF(History!21:21,"&lt;=0")),"")</f>
+        <f>IF(History!A21&lt;&gt;0,MIN(History!21:21),"")</f>
         <v/>
       </c>
       <c r="I21" s="5" t="str">
@@ -1400,12 +1416,12 @@
         <f>IF(History!A22&lt;&gt;0,COUNTIF(History!22:22,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G22" s="5" t="str">
-        <f>IFERROR(LARGE(History!22:22,COUNTIF(History!22:22,"&gt;0")),"")</f>
+      <c r="G22" s="8" t="str">
+        <f>IF(MAX(History!22:22)&gt;0,MAX(History!22:22),"")</f>
         <v/>
       </c>
       <c r="H22" s="5" t="str">
-        <f>IFERROR(SMALL(History!22:22,COUNTIF(History!22:22,"&lt;=0")),"")</f>
+        <f>IF(History!A22&lt;&gt;0,MIN(History!22:22),"")</f>
         <v/>
       </c>
       <c r="I22" s="5" t="str">
@@ -1441,12 +1457,12 @@
         <f>IF(History!A23&lt;&gt;0,COUNTIF(History!23:23,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G23" s="5" t="str">
-        <f>IFERROR(LARGE(History!23:23,COUNTIF(History!23:23,"&gt;0")),"")</f>
+      <c r="G23" s="8" t="str">
+        <f>IF(MAX(History!23:23)&gt;0,MAX(History!23:23),"")</f>
         <v/>
       </c>
       <c r="H23" s="5" t="str">
-        <f>IFERROR(SMALL(History!23:23,COUNTIF(History!23:23,"&lt;=0")),"")</f>
+        <f>IF(History!A23&lt;&gt;0,MIN(History!23:23),"")</f>
         <v/>
       </c>
       <c r="I23" s="5" t="str">
@@ -1482,12 +1498,12 @@
         <f>IF(History!A24&lt;&gt;0,COUNTIF(History!24:24,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G24" s="5" t="str">
-        <f>IFERROR(LARGE(History!24:24,COUNTIF(History!24:24,"&gt;0")),"")</f>
+      <c r="G24" s="8" t="str">
+        <f>IF(MAX(History!24:24)&gt;0,MAX(History!24:24),"")</f>
         <v/>
       </c>
       <c r="H24" s="5" t="str">
-        <f>IFERROR(SMALL(History!24:24,COUNTIF(History!24:24,"&lt;=0")),"")</f>
+        <f>IF(History!A24&lt;&gt;0,MIN(History!24:24),"")</f>
         <v/>
       </c>
       <c r="I24" s="5" t="str">
@@ -1523,12 +1539,12 @@
         <f>IF(History!A25&lt;&gt;0,COUNTIF(History!25:25,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G25" s="5" t="str">
-        <f>IFERROR(LARGE(History!25:25,COUNTIF(History!25:25,"&gt;0")),"")</f>
+      <c r="G25" s="8" t="str">
+        <f>IF(MAX(History!25:25)&gt;0,MAX(History!25:25),"")</f>
         <v/>
       </c>
       <c r="H25" s="5" t="str">
-        <f>IFERROR(SMALL(History!25:25,COUNTIF(History!25:25,"&lt;=0")),"")</f>
+        <f>IF(History!A25&lt;&gt;0,MIN(History!25:25),"")</f>
         <v/>
       </c>
       <c r="I25" s="5" t="str">
@@ -1564,12 +1580,12 @@
         <f>IF(History!A26&lt;&gt;0,COUNTIF(History!26:26,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G26" s="5" t="str">
-        <f>IFERROR(LARGE(History!26:26,COUNTIF(History!26:26,"&gt;0")),"")</f>
+      <c r="G26" s="8" t="str">
+        <f>IF(MAX(History!26:26)&gt;0,MAX(History!26:26),"")</f>
         <v/>
       </c>
       <c r="H26" s="5" t="str">
-        <f>IFERROR(SMALL(History!26:26,COUNTIF(History!26:26,"&lt;=0")),"")</f>
+        <f>IF(History!A26&lt;&gt;0,MIN(History!26:26),"")</f>
         <v/>
       </c>
       <c r="I26" s="5" t="str">
@@ -1605,12 +1621,12 @@
         <f>IF(History!A27&lt;&gt;0,COUNTIF(History!27:27,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G27" s="5" t="str">
-        <f>IFERROR(LARGE(History!27:27,COUNTIF(History!27:27,"&gt;0")),"")</f>
+      <c r="G27" s="8" t="str">
+        <f>IF(MAX(History!27:27)&gt;0,MAX(History!27:27),"")</f>
         <v/>
       </c>
       <c r="H27" s="5" t="str">
-        <f>IFERROR(SMALL(History!27:27,COUNTIF(History!27:27,"&lt;=0")),"")</f>
+        <f>IF(History!A27&lt;&gt;0,MIN(History!27:27),"")</f>
         <v/>
       </c>
       <c r="I27" s="5" t="str">
@@ -1646,12 +1662,12 @@
         <f>IF(History!A28&lt;&gt;0,COUNTIF(History!28:28,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G28" s="5" t="str">
-        <f>IFERROR(LARGE(History!28:28,COUNTIF(History!28:28,"&gt;0")),"")</f>
+      <c r="G28" s="8" t="str">
+        <f>IF(MAX(History!28:28)&gt;0,MAX(History!28:28),"")</f>
         <v/>
       </c>
       <c r="H28" s="5" t="str">
-        <f>IFERROR(SMALL(History!28:28,COUNTIF(History!28:28,"&lt;=0")),"")</f>
+        <f>IF(History!A28&lt;&gt;0,MIN(History!28:28),"")</f>
         <v/>
       </c>
       <c r="I28" s="5" t="str">
@@ -1687,12 +1703,12 @@
         <f>IF(History!A29&lt;&gt;0,COUNTIF(History!29:29,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G29" s="5" t="str">
-        <f>IFERROR(LARGE(History!29:29,COUNTIF(History!29:29,"&gt;0")),"")</f>
+      <c r="G29" s="8" t="str">
+        <f>IF(MAX(History!29:29)&gt;0,MAX(History!29:29),"")</f>
         <v/>
       </c>
       <c r="H29" s="5" t="str">
-        <f>IFERROR(SMALL(History!29:29,COUNTIF(History!29:29,"&lt;=0")),"")</f>
+        <f>IF(History!A29&lt;&gt;0,MIN(History!29:29),"")</f>
         <v/>
       </c>
       <c r="I29" s="5" t="str">
@@ -1728,12 +1744,12 @@
         <f>IF(History!A30&lt;&gt;0,COUNTIF(History!30:30,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G30" s="5" t="str">
-        <f>IFERROR(LARGE(History!30:30,COUNTIF(History!30:30,"&gt;0")),"")</f>
+      <c r="G30" s="8" t="str">
+        <f>IF(MAX(History!30:30)&gt;0,MAX(History!30:30),"")</f>
         <v/>
       </c>
       <c r="H30" s="5" t="str">
-        <f>IFERROR(SMALL(History!30:30,COUNTIF(History!30:30,"&lt;=0")),"")</f>
+        <f>IF(History!A30&lt;&gt;0,MIN(History!30:30),"")</f>
         <v/>
       </c>
       <c r="I30" s="5" t="str">
@@ -1769,12 +1785,12 @@
         <f>IF(History!A31&lt;&gt;0,COUNTIF(History!31:31,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G31" s="5" t="str">
-        <f>IFERROR(LARGE(History!31:31,COUNTIF(History!31:31,"&gt;0")),"")</f>
+      <c r="G31" s="8" t="str">
+        <f>IF(MAX(History!31:31)&gt;0,MAX(History!31:31),"")</f>
         <v/>
       </c>
       <c r="H31" s="5" t="str">
-        <f>IFERROR(SMALL(History!31:31,COUNTIF(History!31:31,"&lt;=0")),"")</f>
+        <f>IF(History!A31&lt;&gt;0,MIN(History!31:31),"")</f>
         <v/>
       </c>
       <c r="I31" s="5" t="str">
@@ -1810,12 +1826,12 @@
         <f>IF(History!A32&lt;&gt;0,COUNTIF(History!32:32,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G32" s="5" t="str">
-        <f>IFERROR(LARGE(History!32:32,COUNTIF(History!32:32,"&gt;0")),"")</f>
+      <c r="G32" s="8" t="str">
+        <f>IF(MAX(History!32:32)&gt;0,MAX(History!32:32),"")</f>
         <v/>
       </c>
       <c r="H32" s="5" t="str">
-        <f>IFERROR(SMALL(History!32:32,COUNTIF(History!32:32,"&lt;=0")),"")</f>
+        <f>IF(History!A32&lt;&gt;0,MIN(History!32:32),"")</f>
         <v/>
       </c>
       <c r="I32" s="5" t="str">
@@ -1851,12 +1867,12 @@
         <f>IF(History!A33&lt;&gt;0,COUNTIF(History!33:33,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G33" s="5" t="str">
-        <f>IFERROR(LARGE(History!33:33,COUNTIF(History!33:33,"&gt;0")),"")</f>
+      <c r="G33" s="8" t="str">
+        <f>IF(MAX(History!33:33)&gt;0,MAX(History!33:33),"")</f>
         <v/>
       </c>
       <c r="H33" s="5" t="str">
-        <f>IFERROR(SMALL(History!33:33,COUNTIF(History!33:33,"&lt;=0")),"")</f>
+        <f>IF(History!A33&lt;&gt;0,MIN(History!33:33),"")</f>
         <v/>
       </c>
       <c r="I33" s="5" t="str">
@@ -1892,12 +1908,12 @@
         <f>IF(History!A34&lt;&gt;0,COUNTIF(History!34:34,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G34" s="5" t="str">
-        <f>IFERROR(LARGE(History!34:34,COUNTIF(History!34:34,"&gt;0")),"")</f>
+      <c r="G34" s="8" t="str">
+        <f>IF(MAX(History!34:34)&gt;0,MAX(History!34:34),"")</f>
         <v/>
       </c>
       <c r="H34" s="5" t="str">
-        <f>IFERROR(SMALL(History!34:34,COUNTIF(History!34:34,"&lt;=0")),"")</f>
+        <f>IF(History!A34&lt;&gt;0,MIN(History!34:34),"")</f>
         <v/>
       </c>
       <c r="I34" s="5" t="str">
@@ -1933,12 +1949,12 @@
         <f>IF(History!A35&lt;&gt;0,COUNTIF(History!35:35,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G35" s="5" t="str">
-        <f>IFERROR(LARGE(History!35:35,COUNTIF(History!35:35,"&gt;0")),"")</f>
+      <c r="G35" s="8" t="str">
+        <f>IF(MAX(History!35:35)&gt;0,MAX(History!35:35),"")</f>
         <v/>
       </c>
       <c r="H35" s="5" t="str">
-        <f>IFERROR(SMALL(History!35:35,COUNTIF(History!35:35,"&lt;=0")),"")</f>
+        <f>IF(History!A35&lt;&gt;0,MIN(History!35:35),"")</f>
         <v/>
       </c>
       <c r="I35" s="5" t="str">
@@ -1974,12 +1990,12 @@
         <f>IF(History!A36&lt;&gt;0,COUNTIF(History!36:36,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G36" s="5" t="str">
-        <f>IFERROR(LARGE(History!36:36,COUNTIF(History!36:36,"&gt;0")),"")</f>
+      <c r="G36" s="8" t="str">
+        <f>IF(MAX(History!36:36)&gt;0,MAX(History!36:36),"")</f>
         <v/>
       </c>
       <c r="H36" s="5" t="str">
-        <f>IFERROR(SMALL(History!36:36,COUNTIF(History!36:36,"&lt;=0")),"")</f>
+        <f>IF(History!A36&lt;&gt;0,MIN(History!36:36),"")</f>
         <v/>
       </c>
       <c r="I36" s="5" t="str">
@@ -2015,12 +2031,12 @@
         <f>IF(History!A37&lt;&gt;0,COUNTIF(History!37:37,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G37" s="5" t="str">
-        <f>IFERROR(LARGE(History!37:37,COUNTIF(History!37:37,"&gt;0")),"")</f>
+      <c r="G37" s="8" t="str">
+        <f>IF(MAX(History!37:37)&gt;0,MAX(History!37:37),"")</f>
         <v/>
       </c>
       <c r="H37" s="5" t="str">
-        <f>IFERROR(SMALL(History!37:37,COUNTIF(History!37:37,"&lt;=0")),"")</f>
+        <f>IF(History!A37&lt;&gt;0,MIN(History!37:37),"")</f>
         <v/>
       </c>
       <c r="I37" s="5" t="str">
@@ -2056,12 +2072,12 @@
         <f>IF(History!A38&lt;&gt;0,COUNTIF(History!38:38,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G38" s="5" t="str">
-        <f>IFERROR(LARGE(History!38:38,COUNTIF(History!38:38,"&gt;0")),"")</f>
+      <c r="G38" s="8" t="str">
+        <f>IF(MAX(History!38:38)&gt;0,MAX(History!38:38),"")</f>
         <v/>
       </c>
       <c r="H38" s="5" t="str">
-        <f>IFERROR(SMALL(History!38:38,COUNTIF(History!38:38,"&lt;=0")),"")</f>
+        <f>IF(History!A38&lt;&gt;0,MIN(History!38:38),"")</f>
         <v/>
       </c>
       <c r="I38" s="5" t="str">
@@ -2097,12 +2113,12 @@
         <f>IF(History!A39&lt;&gt;0,COUNTIF(History!39:39,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G39" s="5" t="str">
-        <f>IFERROR(LARGE(History!39:39,COUNTIF(History!39:39,"&gt;0")),"")</f>
+      <c r="G39" s="8" t="str">
+        <f>IF(MAX(History!39:39)&gt;0,MAX(History!39:39),"")</f>
         <v/>
       </c>
       <c r="H39" s="5" t="str">
-        <f>IFERROR(SMALL(History!39:39,COUNTIF(History!39:39,"&lt;=0")),"")</f>
+        <f>IF(History!A39&lt;&gt;0,MIN(History!39:39),"")</f>
         <v/>
       </c>
       <c r="I39" s="5" t="str">
@@ -2138,12 +2154,12 @@
         <f>IF(History!A40&lt;&gt;0,COUNTIF(History!40:40,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G40" s="5" t="str">
-        <f>IFERROR(LARGE(History!40:40,COUNTIF(History!40:40,"&gt;0")),"")</f>
+      <c r="G40" s="8" t="str">
+        <f>IF(MAX(History!40:40)&gt;0,MAX(History!40:40),"")</f>
         <v/>
       </c>
       <c r="H40" s="5" t="str">
-        <f>IFERROR(SMALL(History!40:40,COUNTIF(History!40:40,"&lt;=0")),"")</f>
+        <f>IF(History!A40&lt;&gt;0,MIN(History!40:40),"")</f>
         <v/>
       </c>
       <c r="I40" s="5" t="str">
@@ -2179,12 +2195,12 @@
         <f>IF(History!A41&lt;&gt;0,COUNTIF(History!41:41,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G41" s="5" t="str">
-        <f>IFERROR(LARGE(History!41:41,COUNTIF(History!41:41,"&gt;0")),"")</f>
+      <c r="G41" s="8" t="str">
+        <f>IF(MAX(History!41:41)&gt;0,MAX(History!41:41),"")</f>
         <v/>
       </c>
       <c r="H41" s="5" t="str">
-        <f>IFERROR(SMALL(History!41:41,COUNTIF(History!41:41,"&lt;=0")),"")</f>
+        <f>IF(History!A41&lt;&gt;0,MIN(History!41:41),"")</f>
         <v/>
       </c>
       <c r="I41" s="5" t="str">
@@ -2220,12 +2236,12 @@
         <f>IF(History!A42&lt;&gt;0,COUNTIF(History!42:42,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G42" s="5" t="str">
-        <f>IFERROR(LARGE(History!42:42,COUNTIF(History!42:42,"&gt;0")),"")</f>
+      <c r="G42" s="8" t="str">
+        <f>IF(MAX(History!42:42)&gt;0,MAX(History!42:42),"")</f>
         <v/>
       </c>
       <c r="H42" s="5" t="str">
-        <f>IFERROR(SMALL(History!42:42,COUNTIF(History!42:42,"&lt;=0")),"")</f>
+        <f>IF(History!A42&lt;&gt;0,MIN(History!42:42),"")</f>
         <v/>
       </c>
       <c r="I42" s="5" t="str">
@@ -2261,12 +2277,12 @@
         <f>IF(History!A43&lt;&gt;0,COUNTIF(History!43:43,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G43" s="5" t="str">
-        <f>IFERROR(LARGE(History!43:43,COUNTIF(History!43:43,"&gt;0")),"")</f>
+      <c r="G43" s="8" t="str">
+        <f>IF(MAX(History!43:43)&gt;0,MAX(History!43:43),"")</f>
         <v/>
       </c>
       <c r="H43" s="5" t="str">
-        <f>IFERROR(SMALL(History!43:43,COUNTIF(History!43:43,"&lt;=0")),"")</f>
+        <f>IF(History!A43&lt;&gt;0,MIN(History!43:43),"")</f>
         <v/>
       </c>
       <c r="I43" s="5" t="str">
@@ -2302,12 +2318,12 @@
         <f>IF(History!A44&lt;&gt;0,COUNTIF(History!44:44,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G44" s="5" t="str">
-        <f>IFERROR(LARGE(History!44:44,COUNTIF(History!44:44,"&gt;0")),"")</f>
+      <c r="G44" s="8" t="str">
+        <f>IF(MAX(History!44:44)&gt;0,MAX(History!44:44),"")</f>
         <v/>
       </c>
       <c r="H44" s="5" t="str">
-        <f>IFERROR(SMALL(History!44:44,COUNTIF(History!44:44,"&lt;=0")),"")</f>
+        <f>IF(History!A44&lt;&gt;0,MIN(History!44:44),"")</f>
         <v/>
       </c>
       <c r="I44" s="5" t="str">
@@ -2343,12 +2359,12 @@
         <f>IF(History!A45&lt;&gt;0,COUNTIF(History!45:45,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G45" s="5" t="str">
-        <f>IFERROR(LARGE(History!45:45,COUNTIF(History!45:45,"&gt;0")),"")</f>
+      <c r="G45" s="8" t="str">
+        <f>IF(MAX(History!45:45)&gt;0,MAX(History!45:45),"")</f>
         <v/>
       </c>
       <c r="H45" s="5" t="str">
-        <f>IFERROR(SMALL(History!45:45,COUNTIF(History!45:45,"&lt;=0")),"")</f>
+        <f>IF(History!A45&lt;&gt;0,MIN(History!45:45),"")</f>
         <v/>
       </c>
       <c r="I45" s="5" t="str">
@@ -2384,12 +2400,12 @@
         <f>IF(History!A46&lt;&gt;0,COUNTIF(History!46:46,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G46" s="5" t="str">
-        <f>IFERROR(LARGE(History!46:46,COUNTIF(History!46:46,"&gt;0")),"")</f>
+      <c r="G46" s="8" t="str">
+        <f>IF(MAX(History!46:46)&gt;0,MAX(History!46:46),"")</f>
         <v/>
       </c>
       <c r="H46" s="5" t="str">
-        <f>IFERROR(SMALL(History!46:46,COUNTIF(History!46:46,"&lt;=0")),"")</f>
+        <f>IF(History!A46&lt;&gt;0,MIN(History!46:46),"")</f>
         <v/>
       </c>
       <c r="I46" s="5" t="str">
@@ -2425,12 +2441,12 @@
         <f>IF(History!A47&lt;&gt;0,COUNTIF(History!47:47,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G47" s="5" t="str">
-        <f>IFERROR(LARGE(History!47:47,COUNTIF(History!47:47,"&gt;0")),"")</f>
+      <c r="G47" s="8" t="str">
+        <f>IF(MAX(History!47:47)&gt;0,MAX(History!47:47),"")</f>
         <v/>
       </c>
       <c r="H47" s="5" t="str">
-        <f>IFERROR(SMALL(History!47:47,COUNTIF(History!47:47,"&lt;=0")),"")</f>
+        <f>IF(History!A47&lt;&gt;0,MIN(History!47:47),"")</f>
         <v/>
       </c>
       <c r="I47" s="5" t="str">
@@ -2466,12 +2482,12 @@
         <f>IF(History!A48&lt;&gt;0,COUNTIF(History!48:48,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G48" s="5" t="str">
-        <f>IFERROR(LARGE(History!48:48,COUNTIF(History!48:48,"&gt;0")),"")</f>
+      <c r="G48" s="8" t="str">
+        <f>IF(MAX(History!48:48)&gt;0,MAX(History!48:48),"")</f>
         <v/>
       </c>
       <c r="H48" s="5" t="str">
-        <f>IFERROR(SMALL(History!48:48,COUNTIF(History!48:48,"&lt;=0")),"")</f>
+        <f>IF(History!A48&lt;&gt;0,MIN(History!48:48),"")</f>
         <v/>
       </c>
       <c r="I48" s="5" t="str">
@@ -2507,12 +2523,12 @@
         <f>IF(History!A49&lt;&gt;0,COUNTIF(History!49:49,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G49" s="5" t="str">
-        <f>IFERROR(LARGE(History!49:49,COUNTIF(History!49:49,"&gt;0")),"")</f>
+      <c r="G49" s="8" t="str">
+        <f>IF(MAX(History!49:49)&gt;0,MAX(History!49:49),"")</f>
         <v/>
       </c>
       <c r="H49" s="5" t="str">
-        <f>IFERROR(SMALL(History!49:49,COUNTIF(History!49:49,"&lt;=0")),"")</f>
+        <f>IF(History!A49&lt;&gt;0,MIN(History!49:49),"")</f>
         <v/>
       </c>
       <c r="I49" s="5" t="str">
@@ -2548,12 +2564,12 @@
         <f>IF(History!A50&lt;&gt;0,COUNTIF(History!50:50,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G50" s="5" t="str">
-        <f>IFERROR(LARGE(History!50:50,COUNTIF(History!50:50,"&gt;0")),"")</f>
+      <c r="G50" s="8" t="str">
+        <f>IF(MAX(History!50:50)&gt;0,MAX(History!50:50),"")</f>
         <v/>
       </c>
       <c r="H50" s="5" t="str">
-        <f>IFERROR(SMALL(History!50:50,COUNTIF(History!50:50,"&lt;=0")),"")</f>
+        <f>IF(History!A50&lt;&gt;0,MIN(History!50:50),"")</f>
         <v/>
       </c>
       <c r="I50" s="5" t="str">
@@ -2589,12 +2605,12 @@
         <f>IF(History!A51&lt;&gt;0,COUNTIF(History!51:51,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G51" s="5" t="str">
-        <f>IFERROR(LARGE(History!51:51,COUNTIF(History!51:51,"&gt;0")),"")</f>
+      <c r="G51" s="8" t="str">
+        <f>IF(MAX(History!51:51)&gt;0,MAX(History!51:51),"")</f>
         <v/>
       </c>
       <c r="H51" s="5" t="str">
-        <f>IFERROR(SMALL(History!51:51,COUNTIF(History!51:51,"&lt;=0")),"")</f>
+        <f>IF(History!A51&lt;&gt;0,MIN(History!51:51),"")</f>
         <v/>
       </c>
       <c r="I51" s="5" t="str">
@@ -2630,12 +2646,12 @@
         <f>IF(History!A52&lt;&gt;0,COUNTIF(History!52:52,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G52" s="5" t="str">
-        <f>IFERROR(LARGE(History!52:52,COUNTIF(History!52:52,"&gt;0")),"")</f>
+      <c r="G52" s="8" t="str">
+        <f>IF(MAX(History!52:52)&gt;0,MAX(History!52:52),"")</f>
         <v/>
       </c>
       <c r="H52" s="5" t="str">
-        <f>IFERROR(SMALL(History!52:52,COUNTIF(History!52:52,"&lt;=0")),"")</f>
+        <f>IF(History!A52&lt;&gt;0,MIN(History!52:52),"")</f>
         <v/>
       </c>
       <c r="I52" s="5" t="str">
@@ -2671,12 +2687,12 @@
         <f>IF(History!A53&lt;&gt;0,COUNTIF(History!53:53,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G53" s="5" t="str">
-        <f>IFERROR(LARGE(History!53:53,COUNTIF(History!53:53,"&gt;0")),"")</f>
+      <c r="G53" s="8" t="str">
+        <f>IF(MAX(History!53:53)&gt;0,MAX(History!53:53),"")</f>
         <v/>
       </c>
       <c r="H53" s="5" t="str">
-        <f>IFERROR(SMALL(History!53:53,COUNTIF(History!53:53,"&lt;=0")),"")</f>
+        <f>IF(History!A53&lt;&gt;0,MIN(History!53:53),"")</f>
         <v/>
       </c>
       <c r="I53" s="5" t="str">
@@ -2712,12 +2728,12 @@
         <f>IF(History!A54&lt;&gt;0,COUNTIF(History!54:54,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G54" s="5" t="str">
-        <f>IFERROR(LARGE(History!54:54,COUNTIF(History!54:54,"&gt;0")),"")</f>
+      <c r="G54" s="8" t="str">
+        <f>IF(MAX(History!54:54)&gt;0,MAX(History!54:54),"")</f>
         <v/>
       </c>
       <c r="H54" s="5" t="str">
-        <f>IFERROR(SMALL(History!54:54,COUNTIF(History!54:54,"&lt;=0")),"")</f>
+        <f>IF(History!A54&lt;&gt;0,MIN(History!54:54),"")</f>
         <v/>
       </c>
       <c r="I54" s="5" t="str">
@@ -2753,12 +2769,12 @@
         <f>IF(History!A55&lt;&gt;0,COUNTIF(History!55:55,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G55" s="5" t="str">
-        <f>IFERROR(LARGE(History!55:55,COUNTIF(History!55:55,"&gt;0")),"")</f>
+      <c r="G55" s="8" t="str">
+        <f>IF(MAX(History!55:55)&gt;0,MAX(History!55:55),"")</f>
         <v/>
       </c>
       <c r="H55" s="5" t="str">
-        <f>IFERROR(SMALL(History!55:55,COUNTIF(History!55:55,"&lt;=0")),"")</f>
+        <f>IF(History!A55&lt;&gt;0,MIN(History!55:55),"")</f>
         <v/>
       </c>
       <c r="I55" s="5" t="str">
@@ -2794,12 +2810,12 @@
         <f>IF(History!A56&lt;&gt;0,COUNTIF(History!56:56,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G56" s="5" t="str">
-        <f>IFERROR(LARGE(History!56:56,COUNTIF(History!56:56,"&gt;0")),"")</f>
+      <c r="G56" s="8" t="str">
+        <f>IF(MAX(History!56:56)&gt;0,MAX(History!56:56),"")</f>
         <v/>
       </c>
       <c r="H56" s="5" t="str">
-        <f>IFERROR(SMALL(History!56:56,COUNTIF(History!56:56,"&lt;=0")),"")</f>
+        <f>IF(History!A56&lt;&gt;0,MIN(History!56:56),"")</f>
         <v/>
       </c>
       <c r="I56" s="5" t="str">
@@ -2835,12 +2851,12 @@
         <f>IF(History!A57&lt;&gt;0,COUNTIF(History!57:57,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G57" s="5" t="str">
-        <f>IFERROR(LARGE(History!57:57,COUNTIF(History!57:57,"&gt;0")),"")</f>
+      <c r="G57" s="8" t="str">
+        <f>IF(MAX(History!57:57)&gt;0,MAX(History!57:57),"")</f>
         <v/>
       </c>
       <c r="H57" s="5" t="str">
-        <f>IFERROR(SMALL(History!57:57,COUNTIF(History!57:57,"&lt;=0")),"")</f>
+        <f>IF(History!A57&lt;&gt;0,MIN(History!57:57),"")</f>
         <v/>
       </c>
       <c r="I57" s="5" t="str">
@@ -2876,12 +2892,12 @@
         <f>IF(History!A58&lt;&gt;0,COUNTIF(History!58:58,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G58" s="5" t="str">
-        <f>IFERROR(LARGE(History!58:58,COUNTIF(History!58:58,"&gt;0")),"")</f>
+      <c r="G58" s="8" t="str">
+        <f>IF(MAX(History!58:58)&gt;0,MAX(History!58:58),"")</f>
         <v/>
       </c>
       <c r="H58" s="5" t="str">
-        <f>IFERROR(SMALL(History!58:58,COUNTIF(History!58:58,"&lt;=0")),"")</f>
+        <f>IF(History!A58&lt;&gt;0,MIN(History!58:58),"")</f>
         <v/>
       </c>
       <c r="I58" s="5" t="str">
@@ -2917,12 +2933,12 @@
         <f>IF(History!A59&lt;&gt;0,COUNTIF(History!59:59,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G59" s="5" t="str">
-        <f>IFERROR(LARGE(History!59:59,COUNTIF(History!59:59,"&gt;0")),"")</f>
+      <c r="G59" s="8" t="str">
+        <f>IF(MAX(History!59:59)&gt;0,MAX(History!59:59),"")</f>
         <v/>
       </c>
       <c r="H59" s="5" t="str">
-        <f>IFERROR(SMALL(History!59:59,COUNTIF(History!59:59,"&lt;=0")),"")</f>
+        <f>IF(History!A59&lt;&gt;0,MIN(History!59:59),"")</f>
         <v/>
       </c>
       <c r="I59" s="5" t="str">
@@ -2958,12 +2974,12 @@
         <f>IF(History!A60&lt;&gt;0,COUNTIF(History!60:60,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G60" s="5" t="str">
-        <f>IFERROR(LARGE(History!60:60,COUNTIF(History!60:60,"&gt;0")),"")</f>
+      <c r="G60" s="8" t="str">
+        <f>IF(MAX(History!60:60)&gt;0,MAX(History!60:60),"")</f>
         <v/>
       </c>
       <c r="H60" s="5" t="str">
-        <f>IFERROR(SMALL(History!60:60,COUNTIF(History!60:60,"&lt;=0")),"")</f>
+        <f>IF(History!A60&lt;&gt;0,MIN(History!60:60),"")</f>
         <v/>
       </c>
       <c r="I60" s="5" t="str">
@@ -2999,12 +3015,12 @@
         <f>IF(History!A61&lt;&gt;0,COUNTIF(History!61:61,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G61" s="5" t="str">
-        <f>IFERROR(LARGE(History!61:61,COUNTIF(History!61:61,"&gt;0")),"")</f>
+      <c r="G61" s="8" t="str">
+        <f>IF(MAX(History!61:61)&gt;0,MAX(History!61:61),"")</f>
         <v/>
       </c>
       <c r="H61" s="5" t="str">
-        <f>IFERROR(SMALL(History!61:61,COUNTIF(History!61:61,"&lt;=0")),"")</f>
+        <f>IF(History!A61&lt;&gt;0,MIN(History!61:61),"")</f>
         <v/>
       </c>
       <c r="I61" s="5" t="str">
@@ -3040,12 +3056,12 @@
         <f>IF(History!A62&lt;&gt;0,COUNTIF(History!62:62,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G62" s="5" t="str">
-        <f>IFERROR(LARGE(History!62:62,COUNTIF(History!62:62,"&gt;0")),"")</f>
+      <c r="G62" s="8" t="str">
+        <f>IF(MAX(History!62:62)&gt;0,MAX(History!62:62),"")</f>
         <v/>
       </c>
       <c r="H62" s="5" t="str">
-        <f>IFERROR(SMALL(History!62:62,COUNTIF(History!62:62,"&lt;=0")),"")</f>
+        <f>IF(History!A62&lt;&gt;0,MIN(History!62:62),"")</f>
         <v/>
       </c>
       <c r="I62" s="5" t="str">
@@ -3081,12 +3097,12 @@
         <f>IF(History!A63&lt;&gt;0,COUNTIF(History!63:63,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G63" s="5" t="str">
-        <f>IFERROR(LARGE(History!63:63,COUNTIF(History!63:63,"&gt;0")),"")</f>
+      <c r="G63" s="8" t="str">
+        <f>IF(MAX(History!63:63)&gt;0,MAX(History!63:63),"")</f>
         <v/>
       </c>
       <c r="H63" s="5" t="str">
-        <f>IFERROR(SMALL(History!63:63,COUNTIF(History!63:63,"&lt;=0")),"")</f>
+        <f>IF(History!A63&lt;&gt;0,MIN(History!63:63),"")</f>
         <v/>
       </c>
       <c r="I63" s="5" t="str">
@@ -3122,12 +3138,12 @@
         <f>IF(History!A64&lt;&gt;0,COUNTIF(History!64:64,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G64" s="5" t="str">
-        <f>IFERROR(LARGE(History!64:64,COUNTIF(History!64:64,"&gt;0")),"")</f>
+      <c r="G64" s="8" t="str">
+        <f>IF(MAX(History!64:64)&gt;0,MAX(History!64:64),"")</f>
         <v/>
       </c>
       <c r="H64" s="5" t="str">
-        <f>IFERROR(SMALL(History!64:64,COUNTIF(History!64:64,"&lt;=0")),"")</f>
+        <f>IF(History!A64&lt;&gt;0,MIN(History!64:64),"")</f>
         <v/>
       </c>
       <c r="I64" s="5" t="str">
@@ -3163,12 +3179,12 @@
         <f>IF(History!A65&lt;&gt;0,COUNTIF(History!65:65,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G65" s="5" t="str">
-        <f>IFERROR(LARGE(History!65:65,COUNTIF(History!65:65,"&gt;0")),"")</f>
+      <c r="G65" s="8" t="str">
+        <f>IF(MAX(History!65:65)&gt;0,MAX(History!65:65),"")</f>
         <v/>
       </c>
       <c r="H65" s="5" t="str">
-        <f>IFERROR(SMALL(History!65:65,COUNTIF(History!65:65,"&lt;=0")),"")</f>
+        <f>IF(History!A65&lt;&gt;0,MIN(History!65:65),"")</f>
         <v/>
       </c>
       <c r="I65" s="5" t="str">
@@ -3204,12 +3220,12 @@
         <f>IF(History!A66&lt;&gt;0,COUNTIF(History!66:66,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G66" s="5" t="str">
-        <f>IFERROR(LARGE(History!66:66,COUNTIF(History!66:66,"&gt;0")),"")</f>
+      <c r="G66" s="8" t="str">
+        <f>IF(MAX(History!66:66)&gt;0,MAX(History!66:66),"")</f>
         <v/>
       </c>
       <c r="H66" s="5" t="str">
-        <f>IFERROR(SMALL(History!66:66,COUNTIF(History!66:66,"&lt;=0")),"")</f>
+        <f>IF(History!A66&lt;&gt;0,MIN(History!66:66),"")</f>
         <v/>
       </c>
       <c r="I66" s="5" t="str">
@@ -3245,12 +3261,12 @@
         <f>IF(History!A67&lt;&gt;0,COUNTIF(History!67:67,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G67" s="5" t="str">
-        <f>IFERROR(LARGE(History!67:67,COUNTIF(History!67:67,"&gt;0")),"")</f>
+      <c r="G67" s="8" t="str">
+        <f>IF(MAX(History!67:67)&gt;0,MAX(History!67:67),"")</f>
         <v/>
       </c>
       <c r="H67" s="5" t="str">
-        <f>IFERROR(SMALL(History!67:67,COUNTIF(History!67:67,"&lt;=0")),"")</f>
+        <f>IF(History!A67&lt;&gt;0,MIN(History!67:67),"")</f>
         <v/>
       </c>
       <c r="I67" s="5" t="str">
@@ -3286,12 +3302,12 @@
         <f>IF(History!A68&lt;&gt;0,COUNTIF(History!68:68,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G68" s="5" t="str">
-        <f>IFERROR(LARGE(History!68:68,COUNTIF(History!68:68,"&gt;0")),"")</f>
+      <c r="G68" s="8" t="str">
+        <f>IF(MAX(History!68:68)&gt;0,MAX(History!68:68),"")</f>
         <v/>
       </c>
       <c r="H68" s="5" t="str">
-        <f>IFERROR(SMALL(History!68:68,COUNTIF(History!68:68,"&lt;=0")),"")</f>
+        <f>IF(History!A68&lt;&gt;0,MIN(History!68:68),"")</f>
         <v/>
       </c>
       <c r="I68" s="5" t="str">
@@ -3327,12 +3343,12 @@
         <f>IF(History!A69&lt;&gt;0,COUNTIF(History!69:69,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G69" s="5" t="str">
-        <f>IFERROR(LARGE(History!69:69,COUNTIF(History!69:69,"&gt;0")),"")</f>
+      <c r="G69" s="8" t="str">
+        <f>IF(MAX(History!69:69)&gt;0,MAX(History!69:69),"")</f>
         <v/>
       </c>
       <c r="H69" s="5" t="str">
-        <f>IFERROR(SMALL(History!69:69,COUNTIF(History!69:69,"&lt;=0")),"")</f>
+        <f>IF(History!A69&lt;&gt;0,MIN(History!69:69),"")</f>
         <v/>
       </c>
       <c r="I69" s="5" t="str">
@@ -3368,12 +3384,12 @@
         <f>IF(History!A70&lt;&gt;0,COUNTIF(History!70:70,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G70" s="5" t="str">
-        <f>IFERROR(LARGE(History!70:70,COUNTIF(History!70:70,"&gt;0")),"")</f>
+      <c r="G70" s="8" t="str">
+        <f>IF(MAX(History!70:70)&gt;0,MAX(History!70:70),"")</f>
         <v/>
       </c>
       <c r="H70" s="5" t="str">
-        <f>IFERROR(SMALL(History!70:70,COUNTIF(History!70:70,"&lt;=0")),"")</f>
+        <f>IF(History!A70&lt;&gt;0,MIN(History!70:70),"")</f>
         <v/>
       </c>
       <c r="I70" s="5" t="str">
@@ -3409,12 +3425,12 @@
         <f>IF(History!A71&lt;&gt;0,COUNTIF(History!71:71,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G71" s="5" t="str">
-        <f>IFERROR(LARGE(History!71:71,COUNTIF(History!71:71,"&gt;0")),"")</f>
+      <c r="G71" s="8" t="str">
+        <f>IF(MAX(History!71:71)&gt;0,MAX(History!71:71),"")</f>
         <v/>
       </c>
       <c r="H71" s="5" t="str">
-        <f>IFERROR(SMALL(History!71:71,COUNTIF(History!71:71,"&lt;=0")),"")</f>
+        <f>IF(History!A71&lt;&gt;0,MIN(History!71:71),"")</f>
         <v/>
       </c>
       <c r="I71" s="5" t="str">
@@ -3450,12 +3466,12 @@
         <f>IF(History!A72&lt;&gt;0,COUNTIF(History!72:72,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G72" s="5" t="str">
-        <f>IFERROR(LARGE(History!72:72,COUNTIF(History!72:72,"&gt;0")),"")</f>
+      <c r="G72" s="8" t="str">
+        <f>IF(MAX(History!72:72)&gt;0,MAX(History!72:72),"")</f>
         <v/>
       </c>
       <c r="H72" s="5" t="str">
-        <f>IFERROR(SMALL(History!72:72,COUNTIF(History!72:72,"&lt;=0")),"")</f>
+        <f>IF(History!A72&lt;&gt;0,MIN(History!72:72),"")</f>
         <v/>
       </c>
       <c r="I72" s="5" t="str">
@@ -3491,12 +3507,12 @@
         <f>IF(History!A73&lt;&gt;0,COUNTIF(History!73:73,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G73" s="5" t="str">
-        <f>IFERROR(LARGE(History!73:73,COUNTIF(History!73:73,"&gt;0")),"")</f>
+      <c r="G73" s="8" t="str">
+        <f>IF(MAX(History!73:73)&gt;0,MAX(History!73:73),"")</f>
         <v/>
       </c>
       <c r="H73" s="5" t="str">
-        <f>IFERROR(SMALL(History!73:73,COUNTIF(History!73:73,"&lt;=0")),"")</f>
+        <f>IF(History!A73&lt;&gt;0,MIN(History!73:73),"")</f>
         <v/>
       </c>
       <c r="I73" s="5" t="str">
@@ -3532,12 +3548,12 @@
         <f>IF(History!A74&lt;&gt;0,COUNTIF(History!74:74,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G74" s="5" t="str">
-        <f>IFERROR(LARGE(History!74:74,COUNTIF(History!74:74,"&gt;0")),"")</f>
+      <c r="G74" s="8" t="str">
+        <f>IF(MAX(History!74:74)&gt;0,MAX(History!74:74),"")</f>
         <v/>
       </c>
       <c r="H74" s="5" t="str">
-        <f>IFERROR(SMALL(History!74:74,COUNTIF(History!74:74,"&lt;=0")),"")</f>
+        <f>IF(History!A74&lt;&gt;0,MIN(History!74:74),"")</f>
         <v/>
       </c>
       <c r="I74" s="5" t="str">
@@ -3573,12 +3589,12 @@
         <f>IF(History!A75&lt;&gt;0,COUNTIF(History!75:75,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G75" s="5" t="str">
-        <f>IFERROR(LARGE(History!75:75,COUNTIF(History!75:75,"&gt;0")),"")</f>
+      <c r="G75" s="8" t="str">
+        <f>IF(MAX(History!75:75)&gt;0,MAX(History!75:75),"")</f>
         <v/>
       </c>
       <c r="H75" s="5" t="str">
-        <f>IFERROR(SMALL(History!75:75,COUNTIF(History!75:75,"&lt;=0")),"")</f>
+        <f>IF(History!A75&lt;&gt;0,MIN(History!75:75),"")</f>
         <v/>
       </c>
       <c r="I75" s="5" t="str">
@@ -3614,12 +3630,12 @@
         <f>IF(History!A76&lt;&gt;0,COUNTIF(History!76:76,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G76" s="5" t="str">
-        <f>IFERROR(LARGE(History!76:76,COUNTIF(History!76:76,"&gt;0")),"")</f>
+      <c r="G76" s="8" t="str">
+        <f>IF(MAX(History!76:76)&gt;0,MAX(History!76:76),"")</f>
         <v/>
       </c>
       <c r="H76" s="5" t="str">
-        <f>IFERROR(SMALL(History!76:76,COUNTIF(History!76:76,"&lt;=0")),"")</f>
+        <f>IF(History!A76&lt;&gt;0,MIN(History!76:76),"")</f>
         <v/>
       </c>
       <c r="I76" s="5" t="str">
@@ -3655,12 +3671,12 @@
         <f>IF(History!A77&lt;&gt;0,COUNTIF(History!77:77,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G77" s="5" t="str">
-        <f>IFERROR(LARGE(History!77:77,COUNTIF(History!77:77,"&gt;0")),"")</f>
+      <c r="G77" s="8" t="str">
+        <f>IF(MAX(History!77:77)&gt;0,MAX(History!77:77),"")</f>
         <v/>
       </c>
       <c r="H77" s="5" t="str">
-        <f>IFERROR(SMALL(History!77:77,COUNTIF(History!77:77,"&lt;=0")),"")</f>
+        <f>IF(History!A77&lt;&gt;0,MIN(History!77:77),"")</f>
         <v/>
       </c>
       <c r="I77" s="5" t="str">
@@ -3696,12 +3712,12 @@
         <f>IF(History!A78&lt;&gt;0,COUNTIF(History!78:78,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G78" s="5" t="str">
-        <f>IFERROR(LARGE(History!78:78,COUNTIF(History!78:78,"&gt;0")),"")</f>
+      <c r="G78" s="8" t="str">
+        <f>IF(MAX(History!78:78)&gt;0,MAX(History!78:78),"")</f>
         <v/>
       </c>
       <c r="H78" s="5" t="str">
-        <f>IFERROR(SMALL(History!78:78,COUNTIF(History!78:78,"&lt;=0")),"")</f>
+        <f>IF(History!A78&lt;&gt;0,MIN(History!78:78),"")</f>
         <v/>
       </c>
       <c r="I78" s="5" t="str">
@@ -3737,12 +3753,12 @@
         <f>IF(History!A79&lt;&gt;0,COUNTIF(History!79:79,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G79" s="5" t="str">
-        <f>IFERROR(LARGE(History!79:79,COUNTIF(History!79:79,"&gt;0")),"")</f>
+      <c r="G79" s="8" t="str">
+        <f>IF(MAX(History!79:79)&gt;0,MAX(History!79:79),"")</f>
         <v/>
       </c>
       <c r="H79" s="5" t="str">
-        <f>IFERROR(SMALL(History!79:79,COUNTIF(History!79:79,"&lt;=0")),"")</f>
+        <f>IF(History!A79&lt;&gt;0,MIN(History!79:79),"")</f>
         <v/>
       </c>
       <c r="I79" s="5" t="str">
@@ -3778,12 +3794,12 @@
         <f>IF(History!A80&lt;&gt;0,COUNTIF(History!80:80,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G80" s="5" t="str">
-        <f>IFERROR(LARGE(History!80:80,COUNTIF(History!80:80,"&gt;0")),"")</f>
+      <c r="G80" s="8" t="str">
+        <f>IF(MAX(History!80:80)&gt;0,MAX(History!80:80),"")</f>
         <v/>
       </c>
       <c r="H80" s="5" t="str">
-        <f>IFERROR(SMALL(History!80:80,COUNTIF(History!80:80,"&lt;=0")),"")</f>
+        <f>IF(History!A80&lt;&gt;0,MIN(History!80:80),"")</f>
         <v/>
       </c>
       <c r="I80" s="5" t="str">
@@ -3819,12 +3835,12 @@
         <f>IF(History!A81&lt;&gt;0,COUNTIF(History!81:81,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G81" s="5" t="str">
-        <f>IFERROR(LARGE(History!81:81,COUNTIF(History!81:81,"&gt;0")),"")</f>
+      <c r="G81" s="8" t="str">
+        <f>IF(MAX(History!81:81)&gt;0,MAX(History!81:81),"")</f>
         <v/>
       </c>
       <c r="H81" s="5" t="str">
-        <f>IFERROR(SMALL(History!81:81,COUNTIF(History!81:81,"&lt;=0")),"")</f>
+        <f>IF(History!A81&lt;&gt;0,MIN(History!81:81),"")</f>
         <v/>
       </c>
       <c r="I81" s="5" t="str">
@@ -3860,12 +3876,12 @@
         <f>IF(History!A82&lt;&gt;0,COUNTIF(History!82:82,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G82" s="5" t="str">
-        <f>IFERROR(LARGE(History!82:82,COUNTIF(History!82:82,"&gt;0")),"")</f>
+      <c r="G82" s="8" t="str">
+        <f>IF(MAX(History!82:82)&gt;0,MAX(History!82:82),"")</f>
         <v/>
       </c>
       <c r="H82" s="5" t="str">
-        <f>IFERROR(SMALL(History!82:82,COUNTIF(History!82:82,"&lt;=0")),"")</f>
+        <f>IF(History!A82&lt;&gt;0,MIN(History!82:82),"")</f>
         <v/>
       </c>
       <c r="I82" s="5" t="str">
@@ -3901,12 +3917,12 @@
         <f>IF(History!A83&lt;&gt;0,COUNTIF(History!83:83,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G83" s="5" t="str">
-        <f>IFERROR(LARGE(History!83:83,COUNTIF(History!83:83,"&gt;0")),"")</f>
+      <c r="G83" s="8" t="str">
+        <f>IF(MAX(History!83:83)&gt;0,MAX(History!83:83),"")</f>
         <v/>
       </c>
       <c r="H83" s="5" t="str">
-        <f>IFERROR(SMALL(History!83:83,COUNTIF(History!83:83,"&lt;=0")),"")</f>
+        <f>IF(History!A83&lt;&gt;0,MIN(History!83:83),"")</f>
         <v/>
       </c>
       <c r="I83" s="5" t="str">
@@ -3942,12 +3958,12 @@
         <f>IF(History!A84&lt;&gt;0,COUNTIF(History!84:84,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G84" s="5" t="str">
-        <f>IFERROR(LARGE(History!84:84,COUNTIF(History!84:84,"&gt;0")),"")</f>
+      <c r="G84" s="8" t="str">
+        <f>IF(MAX(History!84:84)&gt;0,MAX(History!84:84),"")</f>
         <v/>
       </c>
       <c r="H84" s="5" t="str">
-        <f>IFERROR(SMALL(History!84:84,COUNTIF(History!84:84,"&lt;=0")),"")</f>
+        <f>IF(History!A84&lt;&gt;0,MIN(History!84:84),"")</f>
         <v/>
       </c>
       <c r="I84" s="5" t="str">
@@ -3983,12 +3999,12 @@
         <f>IF(History!A85&lt;&gt;0,COUNTIF(History!85:85,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G85" s="5" t="str">
-        <f>IFERROR(LARGE(History!85:85,COUNTIF(History!85:85,"&gt;0")),"")</f>
+      <c r="G85" s="8" t="str">
+        <f>IF(MAX(History!85:85)&gt;0,MAX(History!85:85),"")</f>
         <v/>
       </c>
       <c r="H85" s="5" t="str">
-        <f>IFERROR(SMALL(History!85:85,COUNTIF(History!85:85,"&lt;=0")),"")</f>
+        <f>IF(History!A85&lt;&gt;0,MIN(History!85:85),"")</f>
         <v/>
       </c>
       <c r="I85" s="5" t="str">
@@ -4024,12 +4040,12 @@
         <f>IF(History!A86&lt;&gt;0,COUNTIF(History!86:86,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G86" s="5" t="str">
-        <f>IFERROR(LARGE(History!86:86,COUNTIF(History!86:86,"&gt;0")),"")</f>
+      <c r="G86" s="8" t="str">
+        <f>IF(MAX(History!86:86)&gt;0,MAX(History!86:86),"")</f>
         <v/>
       </c>
       <c r="H86" s="5" t="str">
-        <f>IFERROR(SMALL(History!86:86,COUNTIF(History!86:86,"&lt;=0")),"")</f>
+        <f>IF(History!A86&lt;&gt;0,MIN(History!86:86),"")</f>
         <v/>
       </c>
       <c r="I86" s="5" t="str">
@@ -4065,12 +4081,12 @@
         <f>IF(History!A87&lt;&gt;0,COUNTIF(History!87:87,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G87" s="5" t="str">
-        <f>IFERROR(LARGE(History!87:87,COUNTIF(History!87:87,"&gt;0")),"")</f>
+      <c r="G87" s="8" t="str">
+        <f>IF(MAX(History!87:87)&gt;0,MAX(History!87:87),"")</f>
         <v/>
       </c>
       <c r="H87" s="5" t="str">
-        <f>IFERROR(SMALL(History!87:87,COUNTIF(History!87:87,"&lt;=0")),"")</f>
+        <f>IF(History!A87&lt;&gt;0,MIN(History!87:87),"")</f>
         <v/>
       </c>
       <c r="I87" s="5" t="str">
@@ -4106,12 +4122,12 @@
         <f>IF(History!A88&lt;&gt;0,COUNTIF(History!88:88,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G88" s="5" t="str">
-        <f>IFERROR(LARGE(History!88:88,COUNTIF(History!88:88,"&gt;0")),"")</f>
+      <c r="G88" s="8" t="str">
+        <f>IF(MAX(History!88:88)&gt;0,MAX(History!88:88),"")</f>
         <v/>
       </c>
       <c r="H88" s="5" t="str">
-        <f>IFERROR(SMALL(History!88:88,COUNTIF(History!88:88,"&lt;=0")),"")</f>
+        <f>IF(History!A88&lt;&gt;0,MIN(History!88:88),"")</f>
         <v/>
       </c>
       <c r="I88" s="5" t="str">
@@ -4147,12 +4163,12 @@
         <f>IF(History!A89&lt;&gt;0,COUNTIF(History!89:89,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G89" s="5" t="str">
-        <f>IFERROR(LARGE(History!89:89,COUNTIF(History!89:89,"&gt;0")),"")</f>
+      <c r="G89" s="8" t="str">
+        <f>IF(MAX(History!89:89)&gt;0,MAX(History!89:89),"")</f>
         <v/>
       </c>
       <c r="H89" s="5" t="str">
-        <f>IFERROR(SMALL(History!89:89,COUNTIF(History!89:89,"&lt;=0")),"")</f>
+        <f>IF(History!A89&lt;&gt;0,MIN(History!89:89),"")</f>
         <v/>
       </c>
       <c r="I89" s="5" t="str">
@@ -4188,12 +4204,12 @@
         <f>IF(History!A90&lt;&gt;0,COUNTIF(History!90:90,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G90" s="5" t="str">
-        <f>IFERROR(LARGE(History!90:90,COUNTIF(History!90:90,"&gt;0")),"")</f>
+      <c r="G90" s="8" t="str">
+        <f>IF(MAX(History!90:90)&gt;0,MAX(History!90:90),"")</f>
         <v/>
       </c>
       <c r="H90" s="5" t="str">
-        <f>IFERROR(SMALL(History!90:90,COUNTIF(History!90:90,"&lt;=0")),"")</f>
+        <f>IF(History!A90&lt;&gt;0,MIN(History!90:90),"")</f>
         <v/>
       </c>
       <c r="I90" s="5" t="str">
@@ -4229,12 +4245,12 @@
         <f>IF(History!A91&lt;&gt;0,COUNTIF(History!91:91,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G91" s="5" t="str">
-        <f>IFERROR(LARGE(History!91:91,COUNTIF(History!91:91,"&gt;0")),"")</f>
+      <c r="G91" s="8" t="str">
+        <f>IF(MAX(History!91:91)&gt;0,MAX(History!91:91),"")</f>
         <v/>
       </c>
       <c r="H91" s="5" t="str">
-        <f>IFERROR(SMALL(History!91:91,COUNTIF(History!91:91,"&lt;=0")),"")</f>
+        <f>IF(History!A91&lt;&gt;0,MIN(History!91:91),"")</f>
         <v/>
       </c>
       <c r="I91" s="5" t="str">
@@ -4270,12 +4286,12 @@
         <f>IF(History!A92&lt;&gt;0,COUNTIF(History!92:92,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G92" s="5" t="str">
-        <f>IFERROR(LARGE(History!92:92,COUNTIF(History!92:92,"&gt;0")),"")</f>
+      <c r="G92" s="8" t="str">
+        <f>IF(MAX(History!92:92)&gt;0,MAX(History!92:92),"")</f>
         <v/>
       </c>
       <c r="H92" s="5" t="str">
-        <f>IFERROR(SMALL(History!92:92,COUNTIF(History!92:92,"&lt;=0")),"")</f>
+        <f>IF(History!A92&lt;&gt;0,MIN(History!92:92),"")</f>
         <v/>
       </c>
       <c r="I92" s="5" t="str">
@@ -4311,12 +4327,12 @@
         <f>IF(History!A93&lt;&gt;0,COUNTIF(History!93:93,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G93" s="5" t="str">
-        <f>IFERROR(LARGE(History!93:93,COUNTIF(History!93:93,"&gt;0")),"")</f>
+      <c r="G93" s="8" t="str">
+        <f>IF(MAX(History!93:93)&gt;0,MAX(History!93:93),"")</f>
         <v/>
       </c>
       <c r="H93" s="5" t="str">
-        <f>IFERROR(SMALL(History!93:93,COUNTIF(History!93:93,"&lt;=0")),"")</f>
+        <f>IF(History!A93&lt;&gt;0,MIN(History!93:93),"")</f>
         <v/>
       </c>
       <c r="I93" s="5" t="str">
@@ -4352,12 +4368,12 @@
         <f>IF(History!A94&lt;&gt;0,COUNTIF(History!94:94,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G94" s="5" t="str">
-        <f>IFERROR(LARGE(History!94:94,COUNTIF(History!94:94,"&gt;0")),"")</f>
+      <c r="G94" s="8" t="str">
+        <f>IF(MAX(History!94:94)&gt;0,MAX(History!94:94),"")</f>
         <v/>
       </c>
       <c r="H94" s="5" t="str">
-        <f>IFERROR(SMALL(History!94:94,COUNTIF(History!94:94,"&lt;=0")),"")</f>
+        <f>IF(History!A94&lt;&gt;0,MIN(History!94:94),"")</f>
         <v/>
       </c>
       <c r="I94" s="5" t="str">
@@ -4393,12 +4409,12 @@
         <f>IF(History!A95&lt;&gt;0,COUNTIF(History!95:95,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G95" s="5" t="str">
-        <f>IFERROR(LARGE(History!95:95,COUNTIF(History!95:95,"&gt;0")),"")</f>
+      <c r="G95" s="8" t="str">
+        <f>IF(MAX(History!95:95)&gt;0,MAX(History!95:95),"")</f>
         <v/>
       </c>
       <c r="H95" s="5" t="str">
-        <f>IFERROR(SMALL(History!95:95,COUNTIF(History!95:95,"&lt;=0")),"")</f>
+        <f>IF(History!A95&lt;&gt;0,MIN(History!95:95),"")</f>
         <v/>
       </c>
       <c r="I95" s="5" t="str">
@@ -4434,12 +4450,12 @@
         <f>IF(History!A96&lt;&gt;0,COUNTIF(History!96:96,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G96" s="5" t="str">
-        <f>IFERROR(LARGE(History!96:96,COUNTIF(History!96:96,"&gt;0")),"")</f>
+      <c r="G96" s="8" t="str">
+        <f>IF(MAX(History!96:96)&gt;0,MAX(History!96:96),"")</f>
         <v/>
       </c>
       <c r="H96" s="5" t="str">
-        <f>IFERROR(SMALL(History!96:96,COUNTIF(History!96:96,"&lt;=0")),"")</f>
+        <f>IF(History!A96&lt;&gt;0,MIN(History!96:96),"")</f>
         <v/>
       </c>
       <c r="I96" s="5" t="str">
@@ -4475,12 +4491,12 @@
         <f>IF(History!A97&lt;&gt;0,COUNTIF(History!97:97,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G97" s="5" t="str">
-        <f>IFERROR(LARGE(History!97:97,COUNTIF(History!97:97,"&gt;0")),"")</f>
+      <c r="G97" s="8" t="str">
+        <f>IF(MAX(History!97:97)&gt;0,MAX(History!97:97),"")</f>
         <v/>
       </c>
       <c r="H97" s="5" t="str">
-        <f>IFERROR(SMALL(History!97:97,COUNTIF(History!97:97,"&lt;=0")),"")</f>
+        <f>IF(History!A97&lt;&gt;0,MIN(History!97:97),"")</f>
         <v/>
       </c>
       <c r="I97" s="5" t="str">
@@ -4516,12 +4532,12 @@
         <f>IF(History!A98&lt;&gt;0,COUNTIF(History!98:98,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G98" s="5" t="str">
-        <f>IFERROR(LARGE(History!98:98,COUNTIF(History!98:98,"&gt;0")),"")</f>
+      <c r="G98" s="8" t="str">
+        <f>IF(MAX(History!98:98)&gt;0,MAX(History!98:98),"")</f>
         <v/>
       </c>
       <c r="H98" s="5" t="str">
-        <f>IFERROR(SMALL(History!98:98,COUNTIF(History!98:98,"&lt;=0")),"")</f>
+        <f>IF(History!A98&lt;&gt;0,MIN(History!98:98),"")</f>
         <v/>
       </c>
       <c r="I98" s="5" t="str">
@@ -4557,12 +4573,12 @@
         <f>IF(History!A99&lt;&gt;0,COUNTIF(History!99:99,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G99" s="5" t="str">
-        <f>IFERROR(LARGE(History!99:99,COUNTIF(History!99:99,"&gt;0")),"")</f>
+      <c r="G99" s="8" t="str">
+        <f>IF(MAX(History!99:99)&gt;0,MAX(History!99:99),"")</f>
         <v/>
       </c>
       <c r="H99" s="5" t="str">
-        <f>IFERROR(SMALL(History!99:99,COUNTIF(History!99:99,"&lt;=0")),"")</f>
+        <f>IF(History!A99&lt;&gt;0,MIN(History!99:99),"")</f>
         <v/>
       </c>
       <c r="I99" s="5" t="str">
@@ -4598,12 +4614,12 @@
         <f>IF(History!A100&lt;&gt;0,COUNTIF(History!100:100,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G100" s="5" t="str">
-        <f>IFERROR(LARGE(History!100:100,COUNTIF(History!100:100,"&gt;0")),"")</f>
+      <c r="G100" s="8" t="str">
+        <f>IF(MAX(History!100:100)&gt;0,MAX(History!100:100),"")</f>
         <v/>
       </c>
       <c r="H100" s="5" t="str">
-        <f>IFERROR(SMALL(History!100:100,COUNTIF(History!100:100,"&lt;=0")),"")</f>
+        <f>IF(History!A100&lt;&gt;0,MIN(History!100:100),"")</f>
         <v/>
       </c>
       <c r="I100" s="5" t="str">
@@ -4639,12 +4655,12 @@
         <f>IF(History!A101&lt;&gt;0,COUNTIF(History!101:101,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G101" s="5" t="str">
-        <f>IFERROR(LARGE(History!101:101,COUNTIF(History!101:101,"&gt;0")),"")</f>
+      <c r="G101" s="8" t="str">
+        <f>IF(MAX(History!101:101)&gt;0,MAX(History!101:101),"")</f>
         <v/>
       </c>
       <c r="H101" s="5" t="str">
-        <f>IFERROR(SMALL(History!101:101,COUNTIF(History!101:101,"&lt;=0")),"")</f>
+        <f>IF(History!A101&lt;&gt;0,MIN(History!101:101),"")</f>
         <v/>
       </c>
       <c r="I101" s="5" t="str">
@@ -4680,12 +4696,12 @@
         <f>IF(History!A102&lt;&gt;0,COUNTIF(History!102:102,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G102" s="5" t="str">
-        <f>IFERROR(LARGE(History!102:102,COUNTIF(History!102:102,"&gt;0")),"")</f>
+      <c r="G102" s="8" t="str">
+        <f>IF(MAX(History!102:102)&gt;0,MAX(History!102:102),"")</f>
         <v/>
       </c>
       <c r="H102" s="5" t="str">
-        <f>IFERROR(SMALL(History!102:102,COUNTIF(History!102:102,"&lt;=0")),"")</f>
+        <f>IF(History!A102&lt;&gt;0,MIN(History!102:102),"")</f>
         <v/>
       </c>
       <c r="I102" s="5" t="str">
@@ -4721,12 +4737,12 @@
         <f>IF(History!A103&lt;&gt;0,COUNTIF(History!103:103,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G103" s="5" t="str">
-        <f>IFERROR(LARGE(History!103:103,COUNTIF(History!103:103,"&gt;0")),"")</f>
+      <c r="G103" s="8" t="str">
+        <f>IF(MAX(History!103:103)&gt;0,MAX(History!103:103),"")</f>
         <v/>
       </c>
       <c r="H103" s="5" t="str">
-        <f>IFERROR(SMALL(History!103:103,COUNTIF(History!103:103,"&lt;=0")),"")</f>
+        <f>IF(History!A103&lt;&gt;0,MIN(History!103:103),"")</f>
         <v/>
       </c>
       <c r="I103" s="5" t="str">
@@ -4762,12 +4778,12 @@
         <f>IF(History!A104&lt;&gt;0,COUNTIF(History!104:104,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G104" s="5" t="str">
-        <f>IFERROR(LARGE(History!104:104,COUNTIF(History!104:104,"&gt;0")),"")</f>
+      <c r="G104" s="8" t="str">
+        <f>IF(MAX(History!104:104)&gt;0,MAX(History!104:104),"")</f>
         <v/>
       </c>
       <c r="H104" s="5" t="str">
-        <f>IFERROR(SMALL(History!104:104,COUNTIF(History!104:104,"&lt;=0")),"")</f>
+        <f>IF(History!A104&lt;&gt;0,MIN(History!104:104),"")</f>
         <v/>
       </c>
       <c r="I104" s="5" t="str">
@@ -4803,12 +4819,12 @@
         <f>IF(History!A105&lt;&gt;0,COUNTIF(History!105:105,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G105" s="5" t="str">
-        <f>IFERROR(LARGE(History!105:105,COUNTIF(History!105:105,"&gt;0")),"")</f>
+      <c r="G105" s="8" t="str">
+        <f>IF(MAX(History!105:105)&gt;0,MAX(History!105:105),"")</f>
         <v/>
       </c>
       <c r="H105" s="5" t="str">
-        <f>IFERROR(SMALL(History!105:105,COUNTIF(History!105:105,"&lt;=0")),"")</f>
+        <f>IF(History!A105&lt;&gt;0,MIN(History!105:105),"")</f>
         <v/>
       </c>
       <c r="I105" s="5" t="str">
@@ -4844,12 +4860,12 @@
         <f>IF(History!A106&lt;&gt;0,COUNTIF(History!106:106,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G106" s="5" t="str">
-        <f>IFERROR(LARGE(History!106:106,COUNTIF(History!106:106,"&gt;0")),"")</f>
+      <c r="G106" s="8" t="str">
+        <f>IF(MAX(History!106:106)&gt;0,MAX(History!106:106),"")</f>
         <v/>
       </c>
       <c r="H106" s="5" t="str">
-        <f>IFERROR(SMALL(History!106:106,COUNTIF(History!106:106,"&lt;=0")),"")</f>
+        <f>IF(History!A106&lt;&gt;0,MIN(History!106:106),"")</f>
         <v/>
       </c>
       <c r="I106" s="5" t="str">
@@ -4885,12 +4901,12 @@
         <f>IF(History!A107&lt;&gt;0,COUNTIF(History!107:107,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G107" s="5" t="str">
-        <f>IFERROR(LARGE(History!107:107,COUNTIF(History!107:107,"&gt;0")),"")</f>
+      <c r="G107" s="8" t="str">
+        <f>IF(MAX(History!107:107)&gt;0,MAX(History!107:107),"")</f>
         <v/>
       </c>
       <c r="H107" s="5" t="str">
-        <f>IFERROR(SMALL(History!107:107,COUNTIF(History!107:107,"&lt;=0")),"")</f>
+        <f>IF(History!A107&lt;&gt;0,MIN(History!107:107),"")</f>
         <v/>
       </c>
       <c r="I107" s="5" t="str">
@@ -4926,12 +4942,12 @@
         <f>IF(History!A108&lt;&gt;0,COUNTIF(History!108:108,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G108" s="5" t="str">
-        <f>IFERROR(LARGE(History!108:108,COUNTIF(History!108:108,"&gt;0")),"")</f>
+      <c r="G108" s="8" t="str">
+        <f>IF(MAX(History!108:108)&gt;0,MAX(History!108:108),"")</f>
         <v/>
       </c>
       <c r="H108" s="5" t="str">
-        <f>IFERROR(SMALL(History!108:108,COUNTIF(History!108:108,"&lt;=0")),"")</f>
+        <f>IF(History!A108&lt;&gt;0,MIN(History!108:108),"")</f>
         <v/>
       </c>
       <c r="I108" s="5" t="str">
@@ -4967,12 +4983,12 @@
         <f>IF(History!A109&lt;&gt;0,COUNTIF(History!109:109,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G109" s="5" t="str">
-        <f>IFERROR(LARGE(History!109:109,COUNTIF(History!109:109,"&gt;0")),"")</f>
+      <c r="G109" s="8" t="str">
+        <f>IF(MAX(History!109:109)&gt;0,MAX(History!109:109),"")</f>
         <v/>
       </c>
       <c r="H109" s="5" t="str">
-        <f>IFERROR(SMALL(History!109:109,COUNTIF(History!109:109,"&lt;=0")),"")</f>
+        <f>IF(History!A109&lt;&gt;0,MIN(History!109:109),"")</f>
         <v/>
       </c>
       <c r="I109" s="5" t="str">
@@ -5008,12 +5024,12 @@
         <f>IF(History!A110&lt;&gt;0,COUNTIF(History!110:110,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G110" s="5" t="str">
-        <f>IFERROR(LARGE(History!110:110,COUNTIF(History!110:110,"&gt;0")),"")</f>
+      <c r="G110" s="8" t="str">
+        <f>IF(MAX(History!110:110)&gt;0,MAX(History!110:110),"")</f>
         <v/>
       </c>
       <c r="H110" s="5" t="str">
-        <f>IFERROR(SMALL(History!110:110,COUNTIF(History!110:110,"&lt;=0")),"")</f>
+        <f>IF(History!A110&lt;&gt;0,MIN(History!110:110),"")</f>
         <v/>
       </c>
       <c r="I110" s="5" t="str">
@@ -5049,12 +5065,12 @@
         <f>IF(History!A111&lt;&gt;0,COUNTIF(History!111:111,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G111" s="5" t="str">
-        <f>IFERROR(LARGE(History!111:111,COUNTIF(History!111:111,"&gt;0")),"")</f>
+      <c r="G111" s="8" t="str">
+        <f>IF(MAX(History!111:111)&gt;0,MAX(History!111:111),"")</f>
         <v/>
       </c>
       <c r="H111" s="5" t="str">
-        <f>IFERROR(SMALL(History!111:111,COUNTIF(History!111:111,"&lt;=0")),"")</f>
+        <f>IF(History!A111&lt;&gt;0,MIN(History!111:111),"")</f>
         <v/>
       </c>
       <c r="I111" s="5" t="str">
@@ -5090,12 +5106,12 @@
         <f>IF(History!A112&lt;&gt;0,COUNTIF(History!112:112,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G112" s="5" t="str">
-        <f>IFERROR(LARGE(History!112:112,COUNTIF(History!112:112,"&gt;0")),"")</f>
+      <c r="G112" s="8" t="str">
+        <f>IF(MAX(History!112:112)&gt;0,MAX(History!112:112),"")</f>
         <v/>
       </c>
       <c r="H112" s="5" t="str">
-        <f>IFERROR(SMALL(History!112:112,COUNTIF(History!112:112,"&lt;=0")),"")</f>
+        <f>IF(History!A112&lt;&gt;0,MIN(History!112:112),"")</f>
         <v/>
       </c>
       <c r="I112" s="5" t="str">
@@ -5131,12 +5147,12 @@
         <f>IF(History!A113&lt;&gt;0,COUNTIF(History!113:113,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G113" s="5" t="str">
-        <f>IFERROR(LARGE(History!113:113,COUNTIF(History!113:113,"&gt;0")),"")</f>
+      <c r="G113" s="8" t="str">
+        <f>IF(MAX(History!113:113)&gt;0,MAX(History!113:113),"")</f>
         <v/>
       </c>
       <c r="H113" s="5" t="str">
-        <f>IFERROR(SMALL(History!113:113,COUNTIF(History!113:113,"&lt;=0")),"")</f>
+        <f>IF(History!A113&lt;&gt;0,MIN(History!113:113),"")</f>
         <v/>
       </c>
       <c r="I113" s="5" t="str">
@@ -5172,12 +5188,12 @@
         <f>IF(History!A114&lt;&gt;0,COUNTIF(History!114:114,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G114" s="5" t="str">
-        <f>IFERROR(LARGE(History!114:114,COUNTIF(History!114:114,"&gt;0")),"")</f>
+      <c r="G114" s="8" t="str">
+        <f>IF(MAX(History!114:114)&gt;0,MAX(History!114:114),"")</f>
         <v/>
       </c>
       <c r="H114" s="5" t="str">
-        <f>IFERROR(SMALL(History!114:114,COUNTIF(History!114:114,"&lt;=0")),"")</f>
+        <f>IF(History!A114&lt;&gt;0,MIN(History!114:114),"")</f>
         <v/>
       </c>
       <c r="I114" s="5" t="str">
@@ -5213,12 +5229,12 @@
         <f>IF(History!A115&lt;&gt;0,COUNTIF(History!115:115,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G115" s="5" t="str">
-        <f>IFERROR(LARGE(History!115:115,COUNTIF(History!115:115,"&gt;0")),"")</f>
+      <c r="G115" s="8" t="str">
+        <f>IF(MAX(History!115:115)&gt;0,MAX(History!115:115),"")</f>
         <v/>
       </c>
       <c r="H115" s="5" t="str">
-        <f>IFERROR(SMALL(History!115:115,COUNTIF(History!115:115,"&lt;=0")),"")</f>
+        <f>IF(History!A115&lt;&gt;0,MIN(History!115:115),"")</f>
         <v/>
       </c>
       <c r="I115" s="5" t="str">
@@ -5254,12 +5270,12 @@
         <f>IF(History!A116&lt;&gt;0,COUNTIF(History!116:116,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G116" s="5" t="str">
-        <f>IFERROR(LARGE(History!116:116,COUNTIF(History!116:116,"&gt;0")),"")</f>
+      <c r="G116" s="8" t="str">
+        <f>IF(MAX(History!116:116)&gt;0,MAX(History!116:116),"")</f>
         <v/>
       </c>
       <c r="H116" s="5" t="str">
-        <f>IFERROR(SMALL(History!116:116,COUNTIF(History!116:116,"&lt;=0")),"")</f>
+        <f>IF(History!A116&lt;&gt;0,MIN(History!116:116),"")</f>
         <v/>
       </c>
       <c r="I116" s="5" t="str">
@@ -5295,12 +5311,12 @@
         <f>IF(History!A117&lt;&gt;0,COUNTIF(History!117:117,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G117" s="5" t="str">
-        <f>IFERROR(LARGE(History!117:117,COUNTIF(History!117:117,"&gt;0")),"")</f>
+      <c r="G117" s="8" t="str">
+        <f>IF(MAX(History!117:117)&gt;0,MAX(History!117:117),"")</f>
         <v/>
       </c>
       <c r="H117" s="5" t="str">
-        <f>IFERROR(SMALL(History!117:117,COUNTIF(History!117:117,"&lt;=0")),"")</f>
+        <f>IF(History!A117&lt;&gt;0,MIN(History!117:117),"")</f>
         <v/>
       </c>
       <c r="I117" s="5" t="str">
@@ -5336,12 +5352,12 @@
         <f>IF(History!A118&lt;&gt;0,COUNTIF(History!118:118,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G118" s="5" t="str">
-        <f>IFERROR(LARGE(History!118:118,COUNTIF(History!118:118,"&gt;0")),"")</f>
+      <c r="G118" s="8" t="str">
+        <f>IF(MAX(History!118:118)&gt;0,MAX(History!118:118),"")</f>
         <v/>
       </c>
       <c r="H118" s="5" t="str">
-        <f>IFERROR(SMALL(History!118:118,COUNTIF(History!118:118,"&lt;=0")),"")</f>
+        <f>IF(History!A118&lt;&gt;0,MIN(History!118:118),"")</f>
         <v/>
       </c>
       <c r="I118" s="5" t="str">
@@ -5377,12 +5393,12 @@
         <f>IF(History!A119&lt;&gt;0,COUNTIF(History!119:119,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G119" s="5" t="str">
-        <f>IFERROR(LARGE(History!119:119,COUNTIF(History!119:119,"&gt;0")),"")</f>
+      <c r="G119" s="8" t="str">
+        <f>IF(MAX(History!119:119)&gt;0,MAX(History!119:119),"")</f>
         <v/>
       </c>
       <c r="H119" s="5" t="str">
-        <f>IFERROR(SMALL(History!119:119,COUNTIF(History!119:119,"&lt;=0")),"")</f>
+        <f>IF(History!A119&lt;&gt;0,MIN(History!119:119),"")</f>
         <v/>
       </c>
       <c r="I119" s="5" t="str">
@@ -5418,12 +5434,12 @@
         <f>IF(History!A120&lt;&gt;0,COUNTIF(History!120:120,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G120" s="5" t="str">
-        <f>IFERROR(LARGE(History!120:120,COUNTIF(History!120:120,"&gt;0")),"")</f>
+      <c r="G120" s="8" t="str">
+        <f>IF(MAX(History!120:120)&gt;0,MAX(History!120:120),"")</f>
         <v/>
       </c>
       <c r="H120" s="5" t="str">
-        <f>IFERROR(SMALL(History!120:120,COUNTIF(History!120:120,"&lt;=0")),"")</f>
+        <f>IF(History!A120&lt;&gt;0,MIN(History!120:120),"")</f>
         <v/>
       </c>
       <c r="I120" s="5" t="str">
@@ -5459,12 +5475,12 @@
         <f>IF(History!A121&lt;&gt;0,COUNTIF(History!121:121,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G121" s="5" t="str">
-        <f>IFERROR(LARGE(History!121:121,COUNTIF(History!121:121,"&gt;0")),"")</f>
+      <c r="G121" s="8" t="str">
+        <f>IF(MAX(History!121:121)&gt;0,MAX(History!121:121),"")</f>
         <v/>
       </c>
       <c r="H121" s="5" t="str">
-        <f>IFERROR(SMALL(History!121:121,COUNTIF(History!121:121,"&lt;=0")),"")</f>
+        <f>IF(History!A121&lt;&gt;0,MIN(History!121:121),"")</f>
         <v/>
       </c>
       <c r="I121" s="5" t="str">
@@ -5500,12 +5516,12 @@
         <f>IF(History!A122&lt;&gt;0,COUNTIF(History!122:122,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G122" s="5" t="str">
-        <f>IFERROR(LARGE(History!122:122,COUNTIF(History!122:122,"&gt;0")),"")</f>
+      <c r="G122" s="8" t="str">
+        <f>IF(MAX(History!122:122)&gt;0,MAX(History!122:122),"")</f>
         <v/>
       </c>
       <c r="H122" s="5" t="str">
-        <f>IFERROR(SMALL(History!122:122,COUNTIF(History!122:122,"&lt;=0")),"")</f>
+        <f>IF(History!A122&lt;&gt;0,MIN(History!122:122),"")</f>
         <v/>
       </c>
       <c r="I122" s="5" t="str">
@@ -5541,12 +5557,12 @@
         <f>IF(History!A123&lt;&gt;0,COUNTIF(History!123:123,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G123" s="5" t="str">
-        <f>IFERROR(LARGE(History!123:123,COUNTIF(History!123:123,"&gt;0")),"")</f>
+      <c r="G123" s="8" t="str">
+        <f>IF(MAX(History!123:123)&gt;0,MAX(History!123:123),"")</f>
         <v/>
       </c>
       <c r="H123" s="5" t="str">
-        <f>IFERROR(SMALL(History!123:123,COUNTIF(History!123:123,"&lt;=0")),"")</f>
+        <f>IF(History!A123&lt;&gt;0,MIN(History!123:123),"")</f>
         <v/>
       </c>
       <c r="I123" s="5" t="str">
@@ -5582,12 +5598,12 @@
         <f>IF(History!A124&lt;&gt;0,COUNTIF(History!124:124,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G124" s="5" t="str">
-        <f>IFERROR(LARGE(History!124:124,COUNTIF(History!124:124,"&gt;0")),"")</f>
+      <c r="G124" s="8" t="str">
+        <f>IF(MAX(History!124:124)&gt;0,MAX(History!124:124),"")</f>
         <v/>
       </c>
       <c r="H124" s="5" t="str">
-        <f>IFERROR(SMALL(History!124:124,COUNTIF(History!124:124,"&lt;=0")),"")</f>
+        <f>IF(History!A124&lt;&gt;0,MIN(History!124:124),"")</f>
         <v/>
       </c>
       <c r="I124" s="5" t="str">
@@ -5623,12 +5639,12 @@
         <f>IF(History!A125&lt;&gt;0,COUNTIF(History!125:125,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G125" s="5" t="str">
-        <f>IFERROR(LARGE(History!125:125,COUNTIF(History!125:125,"&gt;0")),"")</f>
+      <c r="G125" s="8" t="str">
+        <f>IF(MAX(History!125:125)&gt;0,MAX(History!125:125),"")</f>
         <v/>
       </c>
       <c r="H125" s="5" t="str">
-        <f>IFERROR(SMALL(History!125:125,COUNTIF(History!125:125,"&lt;=0")),"")</f>
+        <f>IF(History!A125&lt;&gt;0,MIN(History!125:125),"")</f>
         <v/>
       </c>
       <c r="I125" s="5" t="str">
@@ -5664,12 +5680,12 @@
         <f>IF(History!A126&lt;&gt;0,COUNTIF(History!126:126,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G126" s="5" t="str">
-        <f>IFERROR(LARGE(History!126:126,COUNTIF(History!126:126,"&gt;0")),"")</f>
+      <c r="G126" s="8" t="str">
+        <f>IF(MAX(History!126:126)&gt;0,MAX(History!126:126),"")</f>
         <v/>
       </c>
       <c r="H126" s="5" t="str">
-        <f>IFERROR(SMALL(History!126:126,COUNTIF(History!126:126,"&lt;=0")),"")</f>
+        <f>IF(History!A126&lt;&gt;0,MIN(History!126:126),"")</f>
         <v/>
       </c>
       <c r="I126" s="5" t="str">
@@ -5705,12 +5721,12 @@
         <f>IF(History!A127&lt;&gt;0,COUNTIF(History!127:127,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G127" s="5" t="str">
-        <f>IFERROR(LARGE(History!127:127,COUNTIF(History!127:127,"&gt;0")),"")</f>
+      <c r="G127" s="8" t="str">
+        <f>IF(MAX(History!127:127)&gt;0,MAX(History!127:127),"")</f>
         <v/>
       </c>
       <c r="H127" s="5" t="str">
-        <f>IFERROR(SMALL(History!127:127,COUNTIF(History!127:127,"&lt;=0")),"")</f>
+        <f>IF(History!A127&lt;&gt;0,MIN(History!127:127),"")</f>
         <v/>
       </c>
       <c r="I127" s="5" t="str">
@@ -5746,12 +5762,12 @@
         <f>IF(History!A128&lt;&gt;0,COUNTIF(History!128:128,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G128" s="5" t="str">
-        <f>IFERROR(LARGE(History!128:128,COUNTIF(History!128:128,"&gt;0")),"")</f>
+      <c r="G128" s="8" t="str">
+        <f>IF(MAX(History!128:128)&gt;0,MAX(History!128:128),"")</f>
         <v/>
       </c>
       <c r="H128" s="5" t="str">
-        <f>IFERROR(SMALL(History!128:128,COUNTIF(History!128:128,"&lt;=0")),"")</f>
+        <f>IF(History!A128&lt;&gt;0,MIN(History!128:128),"")</f>
         <v/>
       </c>
       <c r="I128" s="5" t="str">
@@ -5787,12 +5803,12 @@
         <f>IF(History!A129&lt;&gt;0,COUNTIF(History!129:129,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G129" s="5" t="str">
-        <f>IFERROR(LARGE(History!129:129,COUNTIF(History!129:129,"&gt;0")),"")</f>
+      <c r="G129" s="8" t="str">
+        <f>IF(MAX(History!129:129)&gt;0,MAX(History!129:129),"")</f>
         <v/>
       </c>
       <c r="H129" s="5" t="str">
-        <f>IFERROR(SMALL(History!129:129,COUNTIF(History!129:129,"&lt;=0")),"")</f>
+        <f>IF(History!A129&lt;&gt;0,MIN(History!129:129),"")</f>
         <v/>
       </c>
       <c r="I129" s="5" t="str">
@@ -5817,7 +5833,7 @@
         <v/>
       </c>
       <c r="D130" s="7" t="str">
-        <f t="shared" ref="D130:D161" si="4">IFERROR(E130/(E130+F130),"")</f>
+        <f t="shared" ref="D130:D151" si="4">IFERROR(E130/(E130+F130),"")</f>
         <v/>
       </c>
       <c r="E130" s="4" t="str">
@@ -5828,12 +5844,12 @@
         <f>IF(History!A130&lt;&gt;0,COUNTIF(History!130:130,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G130" s="5" t="str">
-        <f>IFERROR(LARGE(History!130:130,COUNTIF(History!130:130,"&gt;0")),"")</f>
+      <c r="G130" s="8" t="str">
+        <f>IF(MAX(History!130:130)&gt;0,MAX(History!130:130),"")</f>
         <v/>
       </c>
       <c r="H130" s="5" t="str">
-        <f>IFERROR(SMALL(History!130:130,COUNTIF(History!130:130,"&lt;=0")),"")</f>
+        <f>IF(History!A130&lt;&gt;0,MIN(History!130:130),"")</f>
         <v/>
       </c>
       <c r="I130" s="5" t="str">
@@ -5869,12 +5885,12 @@
         <f>IF(History!A131&lt;&gt;0,COUNTIF(History!131:131,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G131" s="5" t="str">
-        <f>IFERROR(LARGE(History!131:131,COUNTIF(History!131:131,"&gt;0")),"")</f>
+      <c r="G131" s="8" t="str">
+        <f>IF(MAX(History!131:131)&gt;0,MAX(History!131:131),"")</f>
         <v/>
       </c>
       <c r="H131" s="5" t="str">
-        <f>IFERROR(SMALL(History!131:131,COUNTIF(History!131:131,"&lt;=0")),"")</f>
+        <f>IF(History!A131&lt;&gt;0,MIN(History!131:131),"")</f>
         <v/>
       </c>
       <c r="I131" s="5" t="str">
@@ -5910,12 +5926,12 @@
         <f>IF(History!A132&lt;&gt;0,COUNTIF(History!132:132,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G132" s="5" t="str">
-        <f>IFERROR(LARGE(History!132:132,COUNTIF(History!132:132,"&gt;0")),"")</f>
+      <c r="G132" s="8" t="str">
+        <f>IF(MAX(History!132:132)&gt;0,MAX(History!132:132),"")</f>
         <v/>
       </c>
       <c r="H132" s="5" t="str">
-        <f>IFERROR(SMALL(History!132:132,COUNTIF(History!132:132,"&lt;=0")),"")</f>
+        <f>IF(History!A132&lt;&gt;0,MIN(History!132:132),"")</f>
         <v/>
       </c>
       <c r="I132" s="5" t="str">
@@ -5951,12 +5967,12 @@
         <f>IF(History!A133&lt;&gt;0,COUNTIF(History!133:133,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G133" s="5" t="str">
-        <f>IFERROR(LARGE(History!133:133,COUNTIF(History!133:133,"&gt;0")),"")</f>
+      <c r="G133" s="8" t="str">
+        <f>IF(MAX(History!133:133)&gt;0,MAX(History!133:133),"")</f>
         <v/>
       </c>
       <c r="H133" s="5" t="str">
-        <f>IFERROR(SMALL(History!133:133,COUNTIF(History!133:133,"&lt;=0")),"")</f>
+        <f>IF(History!A133&lt;&gt;0,MIN(History!133:133),"")</f>
         <v/>
       </c>
       <c r="I133" s="5" t="str">
@@ -5992,12 +6008,12 @@
         <f>IF(History!A134&lt;&gt;0,COUNTIF(History!134:134,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G134" s="5" t="str">
-        <f>IFERROR(LARGE(History!134:134,COUNTIF(History!134:134,"&gt;0")),"")</f>
+      <c r="G134" s="8" t="str">
+        <f>IF(MAX(History!134:134)&gt;0,MAX(History!134:134),"")</f>
         <v/>
       </c>
       <c r="H134" s="5" t="str">
-        <f>IFERROR(SMALL(History!134:134,COUNTIF(History!134:134,"&lt;=0")),"")</f>
+        <f>IF(History!A134&lt;&gt;0,MIN(History!134:134),"")</f>
         <v/>
       </c>
       <c r="I134" s="5" t="str">
@@ -6033,12 +6049,12 @@
         <f>IF(History!A135&lt;&gt;0,COUNTIF(History!135:135,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G135" s="5" t="str">
-        <f>IFERROR(LARGE(History!135:135,COUNTIF(History!135:135,"&gt;0")),"")</f>
+      <c r="G135" s="8" t="str">
+        <f>IF(MAX(History!135:135)&gt;0,MAX(History!135:135),"")</f>
         <v/>
       </c>
       <c r="H135" s="5" t="str">
-        <f>IFERROR(SMALL(History!135:135,COUNTIF(History!135:135,"&lt;=0")),"")</f>
+        <f>IF(History!A135&lt;&gt;0,MIN(History!135:135),"")</f>
         <v/>
       </c>
       <c r="I135" s="5" t="str">
@@ -6074,12 +6090,12 @@
         <f>IF(History!A136&lt;&gt;0,COUNTIF(History!136:136,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G136" s="5" t="str">
-        <f>IFERROR(LARGE(History!136:136,COUNTIF(History!136:136,"&gt;0")),"")</f>
+      <c r="G136" s="8" t="str">
+        <f>IF(MAX(History!136:136)&gt;0,MAX(History!136:136),"")</f>
         <v/>
       </c>
       <c r="H136" s="5" t="str">
-        <f>IFERROR(SMALL(History!136:136,COUNTIF(History!136:136,"&lt;=0")),"")</f>
+        <f>IF(History!A136&lt;&gt;0,MIN(History!136:136),"")</f>
         <v/>
       </c>
       <c r="I136" s="5" t="str">
@@ -6115,12 +6131,12 @@
         <f>IF(History!A137&lt;&gt;0,COUNTIF(History!137:137,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G137" s="5" t="str">
-        <f>IFERROR(LARGE(History!137:137,COUNTIF(History!137:137,"&gt;0")),"")</f>
+      <c r="G137" s="8" t="str">
+        <f>IF(MAX(History!137:137)&gt;0,MAX(History!137:137),"")</f>
         <v/>
       </c>
       <c r="H137" s="5" t="str">
-        <f>IFERROR(SMALL(History!137:137,COUNTIF(History!137:137,"&lt;=0")),"")</f>
+        <f>IF(History!A137&lt;&gt;0,MIN(History!137:137),"")</f>
         <v/>
       </c>
       <c r="I137" s="5" t="str">
@@ -6156,12 +6172,12 @@
         <f>IF(History!A138&lt;&gt;0,COUNTIF(History!138:138,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G138" s="5" t="str">
-        <f>IFERROR(LARGE(History!138:138,COUNTIF(History!138:138,"&gt;0")),"")</f>
+      <c r="G138" s="8" t="str">
+        <f>IF(MAX(History!138:138)&gt;0,MAX(History!138:138),"")</f>
         <v/>
       </c>
       <c r="H138" s="5" t="str">
-        <f>IFERROR(SMALL(History!138:138,COUNTIF(History!138:138,"&lt;=0")),"")</f>
+        <f>IF(History!A138&lt;&gt;0,MIN(History!138:138),"")</f>
         <v/>
       </c>
       <c r="I138" s="5" t="str">
@@ -6197,12 +6213,12 @@
         <f>IF(History!A139&lt;&gt;0,COUNTIF(History!139:139,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G139" s="5" t="str">
-        <f>IFERROR(LARGE(History!139:139,COUNTIF(History!139:139,"&gt;0")),"")</f>
+      <c r="G139" s="8" t="str">
+        <f>IF(MAX(History!139:139)&gt;0,MAX(History!139:139),"")</f>
         <v/>
       </c>
       <c r="H139" s="5" t="str">
-        <f>IFERROR(SMALL(History!139:139,COUNTIF(History!139:139,"&lt;=0")),"")</f>
+        <f>IF(History!A139&lt;&gt;0,MIN(History!139:139),"")</f>
         <v/>
       </c>
       <c r="I139" s="5" t="str">
@@ -6238,12 +6254,12 @@
         <f>IF(History!A140&lt;&gt;0,COUNTIF(History!140:140,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G140" s="5" t="str">
-        <f>IFERROR(LARGE(History!140:140,COUNTIF(History!140:140,"&gt;0")),"")</f>
+      <c r="G140" s="8" t="str">
+        <f>IF(MAX(History!140:140)&gt;0,MAX(History!140:140),"")</f>
         <v/>
       </c>
       <c r="H140" s="5" t="str">
-        <f>IFERROR(SMALL(History!140:140,COUNTIF(History!140:140,"&lt;=0")),"")</f>
+        <f>IF(History!A140&lt;&gt;0,MIN(History!140:140),"")</f>
         <v/>
       </c>
       <c r="I140" s="5" t="str">
@@ -6279,12 +6295,12 @@
         <f>IF(History!A141&lt;&gt;0,COUNTIF(History!141:141,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G141" s="5" t="str">
-        <f>IFERROR(LARGE(History!141:141,COUNTIF(History!141:141,"&gt;0")),"")</f>
+      <c r="G141" s="8" t="str">
+        <f>IF(MAX(History!141:141)&gt;0,MAX(History!141:141),"")</f>
         <v/>
       </c>
       <c r="H141" s="5" t="str">
-        <f>IFERROR(SMALL(History!141:141,COUNTIF(History!141:141,"&lt;=0")),"")</f>
+        <f>IF(History!A141&lt;&gt;0,MIN(History!141:141),"")</f>
         <v/>
       </c>
       <c r="I141" s="5" t="str">
@@ -6320,12 +6336,12 @@
         <f>IF(History!A142&lt;&gt;0,COUNTIF(History!142:142,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G142" s="5" t="str">
-        <f>IFERROR(LARGE(History!142:142,COUNTIF(History!142:142,"&gt;0")),"")</f>
+      <c r="G142" s="8" t="str">
+        <f>IF(MAX(History!142:142)&gt;0,MAX(History!142:142),"")</f>
         <v/>
       </c>
       <c r="H142" s="5" t="str">
-        <f>IFERROR(SMALL(History!142:142,COUNTIF(History!142:142,"&lt;=0")),"")</f>
+        <f>IF(History!A142&lt;&gt;0,MIN(History!142:142),"")</f>
         <v/>
       </c>
       <c r="I142" s="5" t="str">
@@ -6361,12 +6377,12 @@
         <f>IF(History!A143&lt;&gt;0,COUNTIF(History!143:143,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G143" s="5" t="str">
-        <f>IFERROR(LARGE(History!143:143,COUNTIF(History!143:143,"&gt;0")),"")</f>
+      <c r="G143" s="8" t="str">
+        <f>IF(MAX(History!143:143)&gt;0,MAX(History!143:143),"")</f>
         <v/>
       </c>
       <c r="H143" s="5" t="str">
-        <f>IFERROR(SMALL(History!143:143,COUNTIF(History!143:143,"&lt;=0")),"")</f>
+        <f>IF(History!A143&lt;&gt;0,MIN(History!143:143),"")</f>
         <v/>
       </c>
       <c r="I143" s="5" t="str">
@@ -6402,12 +6418,12 @@
         <f>IF(History!A144&lt;&gt;0,COUNTIF(History!144:144,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G144" s="5" t="str">
-        <f>IFERROR(LARGE(History!144:144,COUNTIF(History!144:144,"&gt;0")),"")</f>
+      <c r="G144" s="8" t="str">
+        <f>IF(MAX(History!144:144)&gt;0,MAX(History!144:144),"")</f>
         <v/>
       </c>
       <c r="H144" s="5" t="str">
-        <f>IFERROR(SMALL(History!144:144,COUNTIF(History!144:144,"&lt;=0")),"")</f>
+        <f>IF(History!A144&lt;&gt;0,MIN(History!144:144),"")</f>
         <v/>
       </c>
       <c r="I144" s="5" t="str">
@@ -6443,12 +6459,12 @@
         <f>IF(History!A145&lt;&gt;0,COUNTIF(History!145:145,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G145" s="5" t="str">
-        <f>IFERROR(LARGE(History!145:145,COUNTIF(History!145:145,"&gt;0")),"")</f>
+      <c r="G145" s="8" t="str">
+        <f>IF(MAX(History!145:145)&gt;0,MAX(History!145:145),"")</f>
         <v/>
       </c>
       <c r="H145" s="5" t="str">
-        <f>IFERROR(SMALL(History!145:145,COUNTIF(History!145:145,"&lt;=0")),"")</f>
+        <f>IF(History!A145&lt;&gt;0,MIN(History!145:145),"")</f>
         <v/>
       </c>
       <c r="I145" s="5" t="str">
@@ -6484,12 +6500,12 @@
         <f>IF(History!A146&lt;&gt;0,COUNTIF(History!146:146,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G146" s="5" t="str">
-        <f>IFERROR(LARGE(History!146:146,COUNTIF(History!146:146,"&gt;0")),"")</f>
+      <c r="G146" s="8" t="str">
+        <f>IF(MAX(History!146:146)&gt;0,MAX(History!146:146),"")</f>
         <v/>
       </c>
       <c r="H146" s="5" t="str">
-        <f>IFERROR(SMALL(History!146:146,COUNTIF(History!146:146,"&lt;=0")),"")</f>
+        <f>IF(History!A146&lt;&gt;0,MIN(History!146:146),"")</f>
         <v/>
       </c>
       <c r="I146" s="5" t="str">
@@ -6525,12 +6541,12 @@
         <f>IF(History!A147&lt;&gt;0,COUNTIF(History!147:147,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G147" s="5" t="str">
-        <f>IFERROR(LARGE(History!147:147,COUNTIF(History!147:147,"&gt;0")),"")</f>
+      <c r="G147" s="8" t="str">
+        <f>IF(MAX(History!147:147)&gt;0,MAX(History!147:147),"")</f>
         <v/>
       </c>
       <c r="H147" s="5" t="str">
-        <f>IFERROR(SMALL(History!147:147,COUNTIF(History!147:147,"&lt;=0")),"")</f>
+        <f>IF(History!A147&lt;&gt;0,MIN(History!147:147),"")</f>
         <v/>
       </c>
       <c r="I147" s="5" t="str">
@@ -6566,12 +6582,12 @@
         <f>IF(History!A148&lt;&gt;0,COUNTIF(History!148:148,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G148" s="5" t="str">
-        <f>IFERROR(LARGE(History!148:148,COUNTIF(History!148:148,"&gt;0")),"")</f>
+      <c r="G148" s="8" t="str">
+        <f>IF(MAX(History!148:148)&gt;0,MAX(History!148:148),"")</f>
         <v/>
       </c>
       <c r="H148" s="5" t="str">
-        <f>IFERROR(SMALL(History!148:148,COUNTIF(History!148:148,"&lt;=0")),"")</f>
+        <f>IF(History!A148&lt;&gt;0,MIN(History!148:148),"")</f>
         <v/>
       </c>
       <c r="I148" s="5" t="str">
@@ -6607,12 +6623,12 @@
         <f>IF(History!A149&lt;&gt;0,COUNTIF(History!149:149,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G149" s="5" t="str">
-        <f>IFERROR(LARGE(History!149:149,COUNTIF(History!149:149,"&gt;0")),"")</f>
+      <c r="G149" s="8" t="str">
+        <f>IF(MAX(History!149:149)&gt;0,MAX(History!149:149),"")</f>
         <v/>
       </c>
       <c r="H149" s="5" t="str">
-        <f>IFERROR(SMALL(History!149:149,COUNTIF(History!149:149,"&lt;=0")),"")</f>
+        <f>IF(History!A149&lt;&gt;0,MIN(History!149:149),"")</f>
         <v/>
       </c>
       <c r="I149" s="5" t="str">
@@ -6648,12 +6664,12 @@
         <f>IF(History!A150&lt;&gt;0,COUNTIF(History!150:150,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G150" s="5" t="str">
-        <f>IFERROR(LARGE(History!150:150,COUNTIF(History!150:150,"&gt;0")),"")</f>
+      <c r="G150" s="8" t="str">
+        <f>IF(MAX(History!150:150)&gt;0,MAX(History!150:150),"")</f>
         <v/>
       </c>
       <c r="H150" s="5" t="str">
-        <f>IFERROR(SMALL(History!150:150,COUNTIF(History!150:150,"&lt;=0")),"")</f>
+        <f>IF(History!A150&lt;&gt;0,MIN(History!150:150),"")</f>
         <v/>
       </c>
       <c r="I150" s="5" t="str">
@@ -6689,12 +6705,12 @@
         <f>IF(History!A151&lt;&gt;0,COUNTIF(History!151:151,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G151" s="5" t="str">
-        <f>IFERROR(LARGE(History!151:151,COUNTIF(History!151:151,"&gt;0")),"")</f>
+      <c r="G151" s="8" t="str">
+        <f>IF(MAX(History!151:151)&gt;0,MAX(History!151:151),"")</f>
         <v/>
       </c>
       <c r="H151" s="5" t="str">
-        <f>IFERROR(SMALL(History!151:151,COUNTIF(History!151:151,"&lt;=0")),"")</f>
+        <f>IF(History!A151&lt;&gt;0,MIN(History!151:151),"")</f>
         <v/>
       </c>
       <c r="I151" s="5" t="str">
@@ -6715,10 +6731,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6727,23 +6743,23 @@
     <col min="2" max="2" width="9.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C2" s="4">
         <v>-1</v>
@@ -6757,13 +6773,27 @@
       <c r="F2" s="4">
         <v>-46</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="4">
         <v>-22</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H2" s="4">
+        <v>89</v>
+      </c>
+      <c r="I2" s="4">
+        <v>-77</v>
+      </c>
+      <c r="J2" s="4">
+        <v>-13</v>
+      </c>
+      <c r="K2" s="4">
+        <v>164</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
@@ -6774,13 +6804,25 @@
       <c r="D3" s="4">
         <v>269</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <v>-25</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F3" s="4">
+        <v>-48</v>
+      </c>
+      <c r="G3" s="4">
+        <v>-22</v>
+      </c>
+      <c r="H3" s="4">
+        <v>-43</v>
+      </c>
+      <c r="I3" s="4">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -6797,16 +6839,16 @@
       <c r="F4" s="4">
         <v>-52</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="4">
         <v>-27</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C5" s="4">
         <v>293</v>
@@ -6817,24 +6859,45 @@
       <c r="E5" s="4">
         <v>-12</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F5" s="4">
+        <v>152</v>
+      </c>
+      <c r="G5" s="4">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C6" s="4">
         <v>-44</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>-76</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E6" s="4">
+        <v>130</v>
+      </c>
+      <c r="F6" s="4">
+        <v>-13</v>
+      </c>
+      <c r="G6" s="4">
+        <v>-34</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
@@ -6849,9 +6912,9 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
@@ -6859,16 +6922,16 @@
       <c r="C8" s="4">
         <v>-102</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <v>-6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C9" s="4">
         <v>-8</v>
@@ -6882,13 +6945,28 @@
       <c r="F9" s="4">
         <v>-10</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="4">
         <v>-17</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H9" s="4">
+        <v>-38</v>
+      </c>
+      <c r="I9" s="4">
+        <v>-2</v>
+      </c>
+      <c r="J9" s="4">
+        <v>-73</v>
+      </c>
+      <c r="K9" s="4">
+        <v>-15</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
@@ -6897,23 +6975,23 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C11" s="4">
         <v>-140</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>11</v>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
       </c>
       <c r="C12" s="4">
         <v>-11</v>
@@ -6924,16 +7002,32 @@
       <c r="E12" s="4">
         <v>-56</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="4">
         <v>255</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="4">
-        <v>-100</v>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>-2</v>
+      </c>
+      <c r="J12" s="4">
+        <v>-15</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C13" s="4">
         <v>-6</v>
@@ -6944,15 +7038,13 @@
       <c r="E13" s="4">
         <v>-4</v>
       </c>
-      <c r="F13" s="4">
-        <v>-1294</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="4">
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1">
         <v>-100</v>
       </c>
       <c r="C14" s="4">
@@ -6968,11 +7060,11 @@
         <v>-187</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="4" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="4">
@@ -6981,34 +7073,63 @@
       <c r="D15" s="4">
         <v>-16</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="4">
         <v>-32</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="4" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="4">
         <v>-32</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="4">
         <v>-21</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="4">
+        <v>-29</v>
+      </c>
+      <c r="D17" s="4">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17">
+      <c r="C18" s="4">
         <v>-29</v>
       </c>
+      <c r="D18" s="4">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4">
+        <v>-77</v>
+      </c>
+      <c r="D19" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/uno/uno_record.xlsx
+++ b/uno/uno_record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ren\Desktop\色々\Data\Discord\HONDA Bot\uno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFA397A-76F1-46CC-B38D-CC9C7B1C5E13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A0BABBF-B4B8-4DCA-AB96-48ACAC0D1D87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1260" windowWidth="17130" windowHeight="14070" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Records" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>Player ID</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>Loses</t>
+  </si>
+  <si>
+    <t>Max</t>
   </si>
   <si>
     <t>Min</t>
@@ -53,10 +56,10 @@
     <t>193407417256640512</t>
   </si>
   <si>
-    <t>573870933236776960</t>
+    <t>0</t>
   </si>
   <si>
-    <t>0</t>
+    <t>573870933236776960</t>
   </si>
   <si>
     <t>700027069278716074</t>
@@ -108,18 +111,6 @@
   </si>
   <si>
     <t>607980121902546945</t>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Max</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -202,17 +193,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -531,15 +522,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J151"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="6" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -560,23 +553,23 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="str">
+      <c r="B2" s="5" t="str">
         <f>IF(History!A2&lt;&gt;"",History!A2,"")</f>
         <v>193407417256640512</v>
       </c>
@@ -584,7 +577,7 @@
         <f>IF(History!A2&lt;&gt;"",SUM(History!2:2),"")</f>
         <v>67</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="8">
         <f t="shared" ref="D2:D33" si="0">IFERROR(E2/(E2+F2),"")</f>
         <v>0.22222222222222221</v>
       </c>
@@ -596,15 +589,15 @@
         <f>IF(History!A2&lt;&gt;0,COUNTIF(History!2:2,"&lt;=0"),"")</f>
         <v>7</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="6">
         <f>IF(MAX(History!2:2)&gt;0,MAX(History!2:2),"")</f>
         <v>164</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="6">
         <f>IF(History!A2&lt;&gt;0,MIN(History!2:2),"")</f>
         <v>-77</v>
       </c>
-      <c r="I2" s="5" t="str">
+      <c r="I2" s="6" t="str">
         <f>IF(History!A2&lt;&gt;"",History!B2,"")</f>
         <v>0</v>
       </c>
@@ -617,7 +610,7 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="str">
+      <c r="B3" s="5" t="str">
         <f>IF(History!A3&lt;&gt;"",History!A3,"")</f>
         <v>573870933236776960</v>
       </c>
@@ -625,7 +618,7 @@
         <f>IF(History!A3&lt;&gt;"",SUM(History!3:3),"")</f>
         <v>84</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="8">
         <f t="shared" si="0"/>
         <v>0.14285714285714285</v>
       </c>
@@ -637,15 +630,15 @@
         <f>IF(History!A3&lt;&gt;0,COUNTIF(History!3:3,"&lt;=0"),"")</f>
         <v>6</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="6">
         <f>IF(MAX(History!3:3)&gt;0,MAX(History!3:3),"")</f>
         <v>269</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="6">
         <f>IF(History!A3&lt;&gt;0,MIN(History!3:3),"")</f>
         <v>-48</v>
       </c>
-      <c r="I3" s="5" t="str">
+      <c r="I3" s="6" t="str">
         <f>IF(History!A3&lt;&gt;"",History!B3,"")</f>
         <v>0</v>
       </c>
@@ -658,7 +651,7 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="str">
+      <c r="B4" s="5" t="str">
         <f>IF(History!A4&lt;&gt;"",History!A4,"")</f>
         <v>700027069278716074</v>
       </c>
@@ -666,7 +659,7 @@
         <f>IF(History!A4&lt;&gt;"",SUM(History!4:4),"")</f>
         <v>-110</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -678,15 +671,15 @@
         <f>IF(History!A4&lt;&gt;0,COUNTIF(History!4:4,"&lt;=0"),"")</f>
         <v>5</v>
       </c>
-      <c r="G4" s="8" t="str">
+      <c r="G4" s="6" t="str">
         <f>IF(MAX(History!4:4)&gt;0,MAX(History!4:4),"")</f>
         <v/>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="6">
         <f>IF(History!A4&lt;&gt;0,MIN(History!4:4),"")</f>
         <v>-52</v>
       </c>
-      <c r="I4" s="5" t="str">
+      <c r="I4" s="6" t="str">
         <f>IF(History!A4&lt;&gt;"",History!B4,"")</f>
         <v>0</v>
       </c>
@@ -699,7 +692,7 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="str">
+      <c r="B5" s="5" t="str">
         <f>IF(History!A5&lt;&gt;"",History!A5,"")</f>
         <v>746782075012644874</v>
       </c>
@@ -707,7 +700,7 @@
         <f>IF(History!A5&lt;&gt;"",SUM(History!5:5),"")</f>
         <v>288</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="8">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
@@ -719,15 +712,15 @@
         <f>IF(History!A5&lt;&gt;0,COUNTIF(History!5:5,"&lt;=0"),"")</f>
         <v>3</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="6">
         <f>IF(MAX(History!5:5)&gt;0,MAX(History!5:5),"")</f>
         <v>293</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="6">
         <f>IF(History!A5&lt;&gt;0,MIN(History!5:5),"")</f>
         <v>-129</v>
       </c>
-      <c r="I5" s="5" t="str">
+      <c r="I5" s="6" t="str">
         <f>IF(History!A5&lt;&gt;"",History!B5,"")</f>
         <v>0</v>
       </c>
@@ -740,7 +733,7 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="str">
+      <c r="B6" s="5" t="str">
         <f>IF(History!A6&lt;&gt;"",History!A6,"")</f>
         <v>587660412212740106</v>
       </c>
@@ -748,7 +741,7 @@
         <f>IF(History!A6&lt;&gt;"",SUM(History!6:6),"")</f>
         <v>-37</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="8">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
@@ -760,15 +753,15 @@
         <f>IF(History!A6&lt;&gt;0,COUNTIF(History!6:6,"&lt;=0"),"")</f>
         <v>4</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="6">
         <f>IF(MAX(History!6:6)&gt;0,MAX(History!6:6),"")</f>
         <v>130</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="6">
         <f>IF(History!A6&lt;&gt;0,MIN(History!6:6),"")</f>
         <v>-76</v>
       </c>
-      <c r="I6" s="5" t="str">
+      <c r="I6" s="6" t="str">
         <f>IF(History!A6&lt;&gt;"",History!B6,"")</f>
         <v>0</v>
       </c>
@@ -781,7 +774,7 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="str">
+      <c r="B7" s="5" t="str">
         <f>IF(History!A7&lt;&gt;"",History!A7,"")</f>
         <v>598600835664183297</v>
       </c>
@@ -789,7 +782,7 @@
         <f>IF(History!A7&lt;&gt;"",SUM(History!7:7),"")</f>
         <v>-156</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -801,15 +794,15 @@
         <f>IF(History!A7&lt;&gt;0,COUNTIF(History!7:7,"&lt;=0"),"")</f>
         <v>3</v>
       </c>
-      <c r="G7" s="8" t="str">
+      <c r="G7" s="6" t="str">
         <f>IF(MAX(History!7:7)&gt;0,MAX(History!7:7),"")</f>
         <v/>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="6">
         <f>IF(History!A7&lt;&gt;0,MIN(History!7:7),"")</f>
         <v>-71</v>
       </c>
-      <c r="I7" s="5" t="str">
+      <c r="I7" s="6" t="str">
         <f>IF(History!A7&lt;&gt;"",History!B7,"")</f>
         <v>0</v>
       </c>
@@ -822,7 +815,7 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="str">
+      <c r="B8" s="5" t="str">
         <f>IF(History!A8&lt;&gt;"",History!A8,"")</f>
         <v>758948042946248755</v>
       </c>
@@ -830,7 +823,7 @@
         <f>IF(History!A8&lt;&gt;"",SUM(History!8:8),"")</f>
         <v>-108</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -842,15 +835,15 @@
         <f>IF(History!A8&lt;&gt;0,COUNTIF(History!8:8,"&lt;=0"),"")</f>
         <v>2</v>
       </c>
-      <c r="G8" s="8" t="str">
+      <c r="G8" s="6" t="str">
         <f>IF(MAX(History!8:8)&gt;0,MAX(History!8:8),"")</f>
         <v/>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="6">
         <f>IF(History!A8&lt;&gt;0,MIN(History!8:8),"")</f>
         <v>-102</v>
       </c>
-      <c r="I8" s="5" t="str">
+      <c r="I8" s="6" t="str">
         <f>IF(History!A8&lt;&gt;"",History!B8,"")</f>
         <v>0</v>
       </c>
@@ -863,7 +856,7 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="str">
+      <c r="B9" s="5" t="str">
         <f>IF(History!A9&lt;&gt;"",History!A9,"")</f>
         <v>700031411049988197</v>
       </c>
@@ -871,7 +864,7 @@
         <f>IF(History!A9&lt;&gt;"",SUM(History!9:9),"")</f>
         <v>-210</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -883,15 +876,15 @@
         <f>IF(History!A9&lt;&gt;0,COUNTIF(History!9:9,"&lt;=0"),"")</f>
         <v>9</v>
       </c>
-      <c r="G9" s="8" t="str">
+      <c r="G9" s="6" t="str">
         <f>IF(MAX(History!9:9)&gt;0,MAX(History!9:9),"")</f>
         <v/>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="6">
         <f>IF(History!A9&lt;&gt;0,MIN(History!9:9),"")</f>
         <v>-73</v>
       </c>
-      <c r="I9" s="5" t="str">
+      <c r="I9" s="6" t="str">
         <f>IF(History!A9&lt;&gt;"",History!B9,"")</f>
         <v>0</v>
       </c>
@@ -904,7 +897,7 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="str">
+      <c r="B10" s="5" t="str">
         <f>IF(History!A10&lt;&gt;"",History!A10,"")</f>
         <v>612167459201351686</v>
       </c>
@@ -912,7 +905,7 @@
         <f>IF(History!A10&lt;&gt;"",SUM(History!10:10),"")</f>
         <v>-25</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -924,15 +917,15 @@
         <f>IF(History!A10&lt;&gt;0,COUNTIF(History!10:10,"&lt;=0"),"")</f>
         <v>1</v>
       </c>
-      <c r="G10" s="8" t="str">
+      <c r="G10" s="6" t="str">
         <f>IF(MAX(History!10:10)&gt;0,MAX(History!10:10),"")</f>
         <v/>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="6">
         <f>IF(History!A10&lt;&gt;0,MIN(History!10:10),"")</f>
         <v>-25</v>
       </c>
-      <c r="I10" s="5" t="str">
+      <c r="I10" s="6" t="str">
         <f>IF(History!A10&lt;&gt;"",History!B10,"")</f>
         <v>0</v>
       </c>
@@ -945,7 +938,7 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="str">
+      <c r="B11" s="5" t="str">
         <f>IF(History!A11&lt;&gt;"",History!A11,"")</f>
         <v>657835936071286784</v>
       </c>
@@ -953,7 +946,7 @@
         <f>IF(History!A11&lt;&gt;"",SUM(History!11:11),"")</f>
         <v>-140</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -965,15 +958,15 @@
         <f>IF(History!A11&lt;&gt;0,COUNTIF(History!11:11,"&lt;=0"),"")</f>
         <v>1</v>
       </c>
-      <c r="G11" s="8" t="str">
+      <c r="G11" s="6" t="str">
         <f>IF(MAX(History!11:11)&gt;0,MAX(History!11:11),"")</f>
         <v/>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="6">
         <f>IF(History!A11&lt;&gt;0,MIN(History!11:11),"")</f>
         <v>-140</v>
       </c>
-      <c r="I11" s="5" t="str">
+      <c r="I11" s="6" t="str">
         <f>IF(History!A11&lt;&gt;"",History!B11,"")</f>
         <v>-100</v>
       </c>
@@ -986,7 +979,7 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="str">
+      <c r="B12" s="5" t="str">
         <f>IF(History!A12&lt;&gt;"",History!A12,"")</f>
         <v>559289569825259521</v>
       </c>
@@ -994,9 +987,9 @@
         <f>IF(History!A12&lt;&gt;"",SUM(History!12:12),"")</f>
         <v>126</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="8">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0.125</v>
       </c>
       <c r="E12" s="4">
         <f>IF(History!A12&lt;&gt;0,COUNTIF(History!12:12,"&gt;0"),"")</f>
@@ -1004,30 +997,30 @@
       </c>
       <c r="F12" s="4">
         <f>IF(History!A12&lt;&gt;0,COUNTIF(History!12:12,"&lt;=0"),"")</f>
-        <v>8</v>
-      </c>
-      <c r="G12" s="8">
+        <v>7</v>
+      </c>
+      <c r="G12" s="6">
         <f>IF(MAX(History!12:12)&gt;0,MAX(History!12:12),"")</f>
         <v>255</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="6">
         <f>IF(History!A12&lt;&gt;0,MIN(History!12:12),"")</f>
         <v>-56</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="6" t="str">
         <f>IF(History!A12&lt;&gt;"",History!B12,"")</f>
         <v>0</v>
       </c>
       <c r="J12" s="4">
         <f ca="1">IF(History!A12&lt;&gt;"",SUM(OFFSET(History!C12,0,COUNT(History!12:12)-IF(COUNT(History!12:12)&lt;=5,COUNT(History!12:12),5)):OFFSET(History!C12,0,COUNT(History!12:12)-1)),"")</f>
-        <v>-17</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="str">
+      <c r="B13" s="5" t="str">
         <f>IF(History!A13&lt;&gt;"",History!A13,"")</f>
         <v>734340367838740561</v>
       </c>
@@ -1035,7 +1028,7 @@
         <f>IF(History!A13&lt;&gt;"",SUM(History!13:13),"")</f>
         <v>-36</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1047,15 +1040,15 @@
         <f>IF(History!A13&lt;&gt;0,COUNTIF(History!13:13,"&lt;=0"),"")</f>
         <v>3</v>
       </c>
-      <c r="G13" s="8" t="str">
+      <c r="G13" s="6" t="str">
         <f>IF(MAX(History!13:13)&gt;0,MAX(History!13:13),"")</f>
         <v/>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="6">
         <f>IF(History!A13&lt;&gt;0,MIN(History!13:13),"")</f>
         <v>-26</v>
       </c>
-      <c r="I13" s="5" t="str">
+      <c r="I13" s="6" t="str">
         <f>IF(History!A13&lt;&gt;"",History!B13,"")</f>
         <v>0</v>
       </c>
@@ -1068,17 +1061,17 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="str">
+      <c r="B14" s="5" t="str">
         <f>IF(History!A14&lt;&gt;"",History!A14,"")</f>
         <v>699612508763193425</v>
       </c>
       <c r="C14" s="4">
         <f>IF(History!A14&lt;&gt;"",SUM(History!14:14),"")</f>
-        <v>-81</v>
-      </c>
-      <c r="D14" s="7">
+        <v>19</v>
+      </c>
+      <c r="D14" s="8">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="E14" s="4">
         <f>IF(History!A14&lt;&gt;0,COUNTIF(History!14:14,"&gt;0"),"")</f>
@@ -1086,17 +1079,17 @@
       </c>
       <c r="F14" s="4">
         <f>IF(History!A14&lt;&gt;0,COUNTIF(History!14:14,"&lt;=0"),"")</f>
-        <v>4</v>
-      </c>
-      <c r="G14" s="8">
+        <v>3</v>
+      </c>
+      <c r="G14" s="6">
         <f>IF(MAX(History!14:14)&gt;0,MAX(History!14:14),"")</f>
         <v>286</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="6">
         <f>IF(History!A14&lt;&gt;0,MIN(History!14:14),"")</f>
         <v>-187</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="6" t="str">
         <f>IF(History!A14&lt;&gt;"",History!B14,"")</f>
         <v>-100</v>
       </c>
@@ -1109,7 +1102,7 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="str">
+      <c r="B15" s="5" t="str">
         <f>IF(History!A15&lt;&gt;"",History!A15,"")</f>
         <v>703831366332317756</v>
       </c>
@@ -1117,7 +1110,7 @@
         <f>IF(History!A15&lt;&gt;"",SUM(History!15:15),"")</f>
         <v>110</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="8">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
@@ -1129,15 +1122,15 @@
         <f>IF(History!A15&lt;&gt;0,COUNTIF(History!15:15,"&lt;=0"),"")</f>
         <v>2</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="6">
         <f>IF(MAX(History!15:15)&gt;0,MAX(History!15:15),"")</f>
         <v>158</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="6">
         <f>IF(History!A15&lt;&gt;0,MIN(History!15:15),"")</f>
         <v>-32</v>
       </c>
-      <c r="I15" s="5" t="str">
+      <c r="I15" s="6" t="str">
         <f>IF(History!A15&lt;&gt;"",History!B15,"")</f>
         <v>0</v>
       </c>
@@ -1150,7 +1143,7 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="str">
+      <c r="B16" s="5" t="str">
         <f>IF(History!A16&lt;&gt;"",History!A16,"")</f>
         <v>726345969204985869</v>
       </c>
@@ -1158,7 +1151,7 @@
         <f>IF(History!A16&lt;&gt;"",SUM(History!16:16),"")</f>
         <v>-53</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1170,15 +1163,15 @@
         <f>IF(History!A16&lt;&gt;0,COUNTIF(History!16:16,"&lt;=0"),"")</f>
         <v>2</v>
       </c>
-      <c r="G16" s="8" t="str">
+      <c r="G16" s="6" t="str">
         <f>IF(MAX(History!16:16)&gt;0,MAX(History!16:16),"")</f>
         <v/>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="6">
         <f>IF(History!A16&lt;&gt;0,MIN(History!16:16),"")</f>
         <v>-32</v>
       </c>
-      <c r="I16" s="5" t="str">
+      <c r="I16" s="6" t="str">
         <f>IF(History!A16&lt;&gt;"",History!B16,"")</f>
         <v>0</v>
       </c>
@@ -1191,7 +1184,7 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="str">
+      <c r="B17" s="5" t="str">
         <f>IF(History!A17&lt;&gt;"",History!A17,"")</f>
         <v>582616639820922939</v>
       </c>
@@ -1199,7 +1192,7 @@
         <f>IF(History!A17&lt;&gt;"",SUM(History!17:17),"")</f>
         <v>-32</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1211,15 +1204,15 @@
         <f>IF(History!A17&lt;&gt;0,COUNTIF(History!17:17,"&lt;=0"),"")</f>
         <v>2</v>
       </c>
-      <c r="G17" s="8" t="str">
+      <c r="G17" s="6" t="str">
         <f>IF(MAX(History!17:17)&gt;0,MAX(History!17:17),"")</f>
         <v/>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="6">
         <f>IF(History!A17&lt;&gt;0,MIN(History!17:17),"")</f>
         <v>-29</v>
       </c>
-      <c r="I17" s="5" t="str">
+      <c r="I17" s="6" t="str">
         <f>IF(History!A17&lt;&gt;"",History!B17,"")</f>
         <v>0</v>
       </c>
@@ -1232,7 +1225,7 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="str">
+      <c r="B18" s="5" t="str">
         <f>IF(History!A18&lt;&gt;"",History!A18,"")</f>
         <v>713420616254095460</v>
       </c>
@@ -1240,7 +1233,7 @@
         <f>IF(History!A18&lt;&gt;"",SUM(History!18:18),"")</f>
         <v>-37</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1252,15 +1245,15 @@
         <f>IF(History!A18&lt;&gt;0,COUNTIF(History!18:18,"&lt;=0"),"")</f>
         <v>2</v>
       </c>
-      <c r="G18" s="8" t="str">
+      <c r="G18" s="6" t="str">
         <f>IF(MAX(History!18:18)&gt;0,MAX(History!18:18),"")</f>
         <v/>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="6">
         <f>IF(History!A18&lt;&gt;0,MIN(History!18:18),"")</f>
         <v>-29</v>
       </c>
-      <c r="I18" s="5" t="str">
+      <c r="I18" s="6" t="str">
         <f>IF(History!A18&lt;&gt;"",History!B18,"")</f>
         <v>0</v>
       </c>
@@ -1273,7 +1266,7 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="str">
+      <c r="B19" s="5" t="str">
         <f>IF(History!A19&lt;&gt;"",History!A19,"")</f>
         <v>607980121902546945</v>
       </c>
@@ -1281,7 +1274,7 @@
         <f>IF(History!A19&lt;&gt;"",SUM(History!19:19),"")</f>
         <v>-77</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1291,17 +1284,17 @@
       </c>
       <c r="F19" s="4">
         <f>IF(History!A19&lt;&gt;0,COUNTIF(History!19:19,"&lt;=0"),"")</f>
-        <v>2</v>
-      </c>
-      <c r="G19" s="8" t="str">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6" t="str">
         <f>IF(MAX(History!19:19)&gt;0,MAX(History!19:19),"")</f>
         <v/>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="6">
         <f>IF(History!A19&lt;&gt;0,MIN(History!19:19),"")</f>
         <v>-77</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="6" t="str">
         <f>IF(History!A19&lt;&gt;"",History!B19,"")</f>
         <v>0</v>
       </c>
@@ -1314,7 +1307,7 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="str">
+      <c r="B20" s="5" t="str">
         <f>IF(History!A20&lt;&gt;"",History!A20,"")</f>
         <v/>
       </c>
@@ -1322,7 +1315,7 @@
         <f>IF(History!A20&lt;&gt;"",SUM(History!20:20),"")</f>
         <v/>
       </c>
-      <c r="D20" s="7" t="str">
+      <c r="D20" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1334,15 +1327,15 @@
         <f>IF(History!A20&lt;&gt;0,COUNTIF(History!20:20,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G20" s="8" t="str">
+      <c r="G20" s="6" t="str">
         <f>IF(MAX(History!20:20)&gt;0,MAX(History!20:20),"")</f>
         <v/>
       </c>
-      <c r="H20" s="5" t="str">
+      <c r="H20" s="6" t="str">
         <f>IF(History!A20&lt;&gt;0,MIN(History!20:20),"")</f>
         <v/>
       </c>
-      <c r="I20" s="5" t="str">
+      <c r="I20" s="6" t="str">
         <f>IF(History!A20&lt;&gt;"",History!B20,"")</f>
         <v/>
       </c>
@@ -1355,7 +1348,7 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="str">
+      <c r="B21" s="5" t="str">
         <f>IF(History!A21&lt;&gt;"",History!A21,"")</f>
         <v/>
       </c>
@@ -1363,7 +1356,7 @@
         <f>IF(History!A21&lt;&gt;"",SUM(History!21:21),"")</f>
         <v/>
       </c>
-      <c r="D21" s="7" t="str">
+      <c r="D21" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1375,15 +1368,15 @@
         <f>IF(History!A21&lt;&gt;0,COUNTIF(History!21:21,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G21" s="8" t="str">
+      <c r="G21" s="6" t="str">
         <f>IF(MAX(History!21:21)&gt;0,MAX(History!21:21),"")</f>
         <v/>
       </c>
-      <c r="H21" s="5" t="str">
+      <c r="H21" s="6" t="str">
         <f>IF(History!A21&lt;&gt;0,MIN(History!21:21),"")</f>
         <v/>
       </c>
-      <c r="I21" s="5" t="str">
+      <c r="I21" s="6" t="str">
         <f>IF(History!A21&lt;&gt;"",History!B21,"")</f>
         <v/>
       </c>
@@ -1396,7 +1389,7 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="str">
+      <c r="B22" s="5" t="str">
         <f>IF(History!A22&lt;&gt;"",History!A22,"")</f>
         <v/>
       </c>
@@ -1404,7 +1397,7 @@
         <f>IF(History!A22&lt;&gt;"",SUM(History!22:22),"")</f>
         <v/>
       </c>
-      <c r="D22" s="7" t="str">
+      <c r="D22" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1416,15 +1409,15 @@
         <f>IF(History!A22&lt;&gt;0,COUNTIF(History!22:22,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G22" s="8" t="str">
+      <c r="G22" s="6" t="str">
         <f>IF(MAX(History!22:22)&gt;0,MAX(History!22:22),"")</f>
         <v/>
       </c>
-      <c r="H22" s="5" t="str">
+      <c r="H22" s="6" t="str">
         <f>IF(History!A22&lt;&gt;0,MIN(History!22:22),"")</f>
         <v/>
       </c>
-      <c r="I22" s="5" t="str">
+      <c r="I22" s="6" t="str">
         <f>IF(History!A22&lt;&gt;"",History!B22,"")</f>
         <v/>
       </c>
@@ -1437,7 +1430,7 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="str">
+      <c r="B23" s="5" t="str">
         <f>IF(History!A23&lt;&gt;"",History!A23,"")</f>
         <v/>
       </c>
@@ -1445,7 +1438,7 @@
         <f>IF(History!A23&lt;&gt;"",SUM(History!23:23),"")</f>
         <v/>
       </c>
-      <c r="D23" s="7" t="str">
+      <c r="D23" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1457,15 +1450,15 @@
         <f>IF(History!A23&lt;&gt;0,COUNTIF(History!23:23,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G23" s="8" t="str">
+      <c r="G23" s="6" t="str">
         <f>IF(MAX(History!23:23)&gt;0,MAX(History!23:23),"")</f>
         <v/>
       </c>
-      <c r="H23" s="5" t="str">
+      <c r="H23" s="6" t="str">
         <f>IF(History!A23&lt;&gt;0,MIN(History!23:23),"")</f>
         <v/>
       </c>
-      <c r="I23" s="5" t="str">
+      <c r="I23" s="6" t="str">
         <f>IF(History!A23&lt;&gt;"",History!B23,"")</f>
         <v/>
       </c>
@@ -1478,7 +1471,7 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="str">
+      <c r="B24" s="5" t="str">
         <f>IF(History!A24&lt;&gt;"",History!A24,"")</f>
         <v/>
       </c>
@@ -1486,7 +1479,7 @@
         <f>IF(History!A24&lt;&gt;"",SUM(History!24:24),"")</f>
         <v/>
       </c>
-      <c r="D24" s="7" t="str">
+      <c r="D24" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1498,15 +1491,15 @@
         <f>IF(History!A24&lt;&gt;0,COUNTIF(History!24:24,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G24" s="8" t="str">
+      <c r="G24" s="6" t="str">
         <f>IF(MAX(History!24:24)&gt;0,MAX(History!24:24),"")</f>
         <v/>
       </c>
-      <c r="H24" s="5" t="str">
+      <c r="H24" s="6" t="str">
         <f>IF(History!A24&lt;&gt;0,MIN(History!24:24),"")</f>
         <v/>
       </c>
-      <c r="I24" s="5" t="str">
+      <c r="I24" s="6" t="str">
         <f>IF(History!A24&lt;&gt;"",History!B24,"")</f>
         <v/>
       </c>
@@ -1519,7 +1512,7 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="str">
+      <c r="B25" s="5" t="str">
         <f>IF(History!A25&lt;&gt;"",History!A25,"")</f>
         <v/>
       </c>
@@ -1527,7 +1520,7 @@
         <f>IF(History!A25&lt;&gt;"",SUM(History!25:25),"")</f>
         <v/>
       </c>
-      <c r="D25" s="7" t="str">
+      <c r="D25" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1539,15 +1532,15 @@
         <f>IF(History!A25&lt;&gt;0,COUNTIF(History!25:25,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G25" s="8" t="str">
+      <c r="G25" s="6" t="str">
         <f>IF(MAX(History!25:25)&gt;0,MAX(History!25:25),"")</f>
         <v/>
       </c>
-      <c r="H25" s="5" t="str">
+      <c r="H25" s="6" t="str">
         <f>IF(History!A25&lt;&gt;0,MIN(History!25:25),"")</f>
         <v/>
       </c>
-      <c r="I25" s="5" t="str">
+      <c r="I25" s="6" t="str">
         <f>IF(History!A25&lt;&gt;"",History!B25,"")</f>
         <v/>
       </c>
@@ -1560,7 +1553,7 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="str">
+      <c r="B26" s="5" t="str">
         <f>IF(History!A26&lt;&gt;"",History!A26,"")</f>
         <v/>
       </c>
@@ -1568,7 +1561,7 @@
         <f>IF(History!A26&lt;&gt;"",SUM(History!26:26),"")</f>
         <v/>
       </c>
-      <c r="D26" s="7" t="str">
+      <c r="D26" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1580,15 +1573,15 @@
         <f>IF(History!A26&lt;&gt;0,COUNTIF(History!26:26,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G26" s="8" t="str">
+      <c r="G26" s="6" t="str">
         <f>IF(MAX(History!26:26)&gt;0,MAX(History!26:26),"")</f>
         <v/>
       </c>
-      <c r="H26" s="5" t="str">
+      <c r="H26" s="6" t="str">
         <f>IF(History!A26&lt;&gt;0,MIN(History!26:26),"")</f>
         <v/>
       </c>
-      <c r="I26" s="5" t="str">
+      <c r="I26" s="6" t="str">
         <f>IF(History!A26&lt;&gt;"",History!B26,"")</f>
         <v/>
       </c>
@@ -1601,7 +1594,7 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="6" t="str">
+      <c r="B27" s="5" t="str">
         <f>IF(History!A27&lt;&gt;"",History!A27,"")</f>
         <v/>
       </c>
@@ -1609,7 +1602,7 @@
         <f>IF(History!A27&lt;&gt;"",SUM(History!27:27),"")</f>
         <v/>
       </c>
-      <c r="D27" s="7" t="str">
+      <c r="D27" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1621,15 +1614,15 @@
         <f>IF(History!A27&lt;&gt;0,COUNTIF(History!27:27,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G27" s="8" t="str">
+      <c r="G27" s="6" t="str">
         <f>IF(MAX(History!27:27)&gt;0,MAX(History!27:27),"")</f>
         <v/>
       </c>
-      <c r="H27" s="5" t="str">
+      <c r="H27" s="6" t="str">
         <f>IF(History!A27&lt;&gt;0,MIN(History!27:27),"")</f>
         <v/>
       </c>
-      <c r="I27" s="5" t="str">
+      <c r="I27" s="6" t="str">
         <f>IF(History!A27&lt;&gt;"",History!B27,"")</f>
         <v/>
       </c>
@@ -1642,7 +1635,7 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="6" t="str">
+      <c r="B28" s="5" t="str">
         <f>IF(History!A28&lt;&gt;"",History!A28,"")</f>
         <v/>
       </c>
@@ -1650,7 +1643,7 @@
         <f>IF(History!A28&lt;&gt;"",SUM(History!28:28),"")</f>
         <v/>
       </c>
-      <c r="D28" s="7" t="str">
+      <c r="D28" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1662,15 +1655,15 @@
         <f>IF(History!A28&lt;&gt;0,COUNTIF(History!28:28,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G28" s="8" t="str">
+      <c r="G28" s="6" t="str">
         <f>IF(MAX(History!28:28)&gt;0,MAX(History!28:28),"")</f>
         <v/>
       </c>
-      <c r="H28" s="5" t="str">
+      <c r="H28" s="6" t="str">
         <f>IF(History!A28&lt;&gt;0,MIN(History!28:28),"")</f>
         <v/>
       </c>
-      <c r="I28" s="5" t="str">
+      <c r="I28" s="6" t="str">
         <f>IF(History!A28&lt;&gt;"",History!B28,"")</f>
         <v/>
       </c>
@@ -1683,7 +1676,7 @@
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="str">
+      <c r="B29" s="5" t="str">
         <f>IF(History!A29&lt;&gt;"",History!A29,"")</f>
         <v/>
       </c>
@@ -1691,7 +1684,7 @@
         <f>IF(History!A29&lt;&gt;"",SUM(History!29:29),"")</f>
         <v/>
       </c>
-      <c r="D29" s="7" t="str">
+      <c r="D29" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1703,15 +1696,15 @@
         <f>IF(History!A29&lt;&gt;0,COUNTIF(History!29:29,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G29" s="8" t="str">
+      <c r="G29" s="6" t="str">
         <f>IF(MAX(History!29:29)&gt;0,MAX(History!29:29),"")</f>
         <v/>
       </c>
-      <c r="H29" s="5" t="str">
+      <c r="H29" s="6" t="str">
         <f>IF(History!A29&lt;&gt;0,MIN(History!29:29),"")</f>
         <v/>
       </c>
-      <c r="I29" s="5" t="str">
+      <c r="I29" s="6" t="str">
         <f>IF(History!A29&lt;&gt;"",History!B29,"")</f>
         <v/>
       </c>
@@ -1724,7 +1717,7 @@
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="6" t="str">
+      <c r="B30" s="5" t="str">
         <f>IF(History!A30&lt;&gt;"",History!A30,"")</f>
         <v/>
       </c>
@@ -1732,7 +1725,7 @@
         <f>IF(History!A30&lt;&gt;"",SUM(History!30:30),"")</f>
         <v/>
       </c>
-      <c r="D30" s="7" t="str">
+      <c r="D30" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1744,15 +1737,15 @@
         <f>IF(History!A30&lt;&gt;0,COUNTIF(History!30:30,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G30" s="8" t="str">
+      <c r="G30" s="6" t="str">
         <f>IF(MAX(History!30:30)&gt;0,MAX(History!30:30),"")</f>
         <v/>
       </c>
-      <c r="H30" s="5" t="str">
+      <c r="H30" s="6" t="str">
         <f>IF(History!A30&lt;&gt;0,MIN(History!30:30),"")</f>
         <v/>
       </c>
-      <c r="I30" s="5" t="str">
+      <c r="I30" s="6" t="str">
         <f>IF(History!A30&lt;&gt;"",History!B30,"")</f>
         <v/>
       </c>
@@ -1765,7 +1758,7 @@
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="6" t="str">
+      <c r="B31" s="5" t="str">
         <f>IF(History!A31&lt;&gt;"",History!A31,"")</f>
         <v/>
       </c>
@@ -1773,7 +1766,7 @@
         <f>IF(History!A31&lt;&gt;"",SUM(History!31:31),"")</f>
         <v/>
       </c>
-      <c r="D31" s="7" t="str">
+      <c r="D31" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1785,15 +1778,15 @@
         <f>IF(History!A31&lt;&gt;0,COUNTIF(History!31:31,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G31" s="8" t="str">
+      <c r="G31" s="6" t="str">
         <f>IF(MAX(History!31:31)&gt;0,MAX(History!31:31),"")</f>
         <v/>
       </c>
-      <c r="H31" s="5" t="str">
+      <c r="H31" s="6" t="str">
         <f>IF(History!A31&lt;&gt;0,MIN(History!31:31),"")</f>
         <v/>
       </c>
-      <c r="I31" s="5" t="str">
+      <c r="I31" s="6" t="str">
         <f>IF(History!A31&lt;&gt;"",History!B31,"")</f>
         <v/>
       </c>
@@ -1806,7 +1799,7 @@
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="6" t="str">
+      <c r="B32" s="5" t="str">
         <f>IF(History!A32&lt;&gt;"",History!A32,"")</f>
         <v/>
       </c>
@@ -1814,7 +1807,7 @@
         <f>IF(History!A32&lt;&gt;"",SUM(History!32:32),"")</f>
         <v/>
       </c>
-      <c r="D32" s="7" t="str">
+      <c r="D32" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1826,15 +1819,15 @@
         <f>IF(History!A32&lt;&gt;0,COUNTIF(History!32:32,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G32" s="8" t="str">
+      <c r="G32" s="6" t="str">
         <f>IF(MAX(History!32:32)&gt;0,MAX(History!32:32),"")</f>
         <v/>
       </c>
-      <c r="H32" s="5" t="str">
+      <c r="H32" s="6" t="str">
         <f>IF(History!A32&lt;&gt;0,MIN(History!32:32),"")</f>
         <v/>
       </c>
-      <c r="I32" s="5" t="str">
+      <c r="I32" s="6" t="str">
         <f>IF(History!A32&lt;&gt;"",History!B32,"")</f>
         <v/>
       </c>
@@ -1847,7 +1840,7 @@
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="6" t="str">
+      <c r="B33" s="5" t="str">
         <f>IF(History!A33&lt;&gt;"",History!A33,"")</f>
         <v/>
       </c>
@@ -1855,7 +1848,7 @@
         <f>IF(History!A33&lt;&gt;"",SUM(History!33:33),"")</f>
         <v/>
       </c>
-      <c r="D33" s="7" t="str">
+      <c r="D33" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1867,15 +1860,15 @@
         <f>IF(History!A33&lt;&gt;0,COUNTIF(History!33:33,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G33" s="8" t="str">
+      <c r="G33" s="6" t="str">
         <f>IF(MAX(History!33:33)&gt;0,MAX(History!33:33),"")</f>
         <v/>
       </c>
-      <c r="H33" s="5" t="str">
+      <c r="H33" s="6" t="str">
         <f>IF(History!A33&lt;&gt;0,MIN(History!33:33),"")</f>
         <v/>
       </c>
-      <c r="I33" s="5" t="str">
+      <c r="I33" s="6" t="str">
         <f>IF(History!A33&lt;&gt;"",History!B33,"")</f>
         <v/>
       </c>
@@ -1888,7 +1881,7 @@
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="6" t="str">
+      <c r="B34" s="5" t="str">
         <f>IF(History!A34&lt;&gt;"",History!A34,"")</f>
         <v/>
       </c>
@@ -1896,7 +1889,7 @@
         <f>IF(History!A34&lt;&gt;"",SUM(History!34:34),"")</f>
         <v/>
       </c>
-      <c r="D34" s="7" t="str">
+      <c r="D34" s="8" t="str">
         <f t="shared" ref="D34:D65" si="1">IFERROR(E34/(E34+F34),"")</f>
         <v/>
       </c>
@@ -1908,15 +1901,15 @@
         <f>IF(History!A34&lt;&gt;0,COUNTIF(History!34:34,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G34" s="8" t="str">
+      <c r="G34" s="6" t="str">
         <f>IF(MAX(History!34:34)&gt;0,MAX(History!34:34),"")</f>
         <v/>
       </c>
-      <c r="H34" s="5" t="str">
+      <c r="H34" s="6" t="str">
         <f>IF(History!A34&lt;&gt;0,MIN(History!34:34),"")</f>
         <v/>
       </c>
-      <c r="I34" s="5" t="str">
+      <c r="I34" s="6" t="str">
         <f>IF(History!A34&lt;&gt;"",History!B34,"")</f>
         <v/>
       </c>
@@ -1929,7 +1922,7 @@
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="6" t="str">
+      <c r="B35" s="5" t="str">
         <f>IF(History!A35&lt;&gt;"",History!A35,"")</f>
         <v/>
       </c>
@@ -1937,7 +1930,7 @@
         <f>IF(History!A35&lt;&gt;"",SUM(History!35:35),"")</f>
         <v/>
       </c>
-      <c r="D35" s="7" t="str">
+      <c r="D35" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1949,15 +1942,15 @@
         <f>IF(History!A35&lt;&gt;0,COUNTIF(History!35:35,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G35" s="8" t="str">
+      <c r="G35" s="6" t="str">
         <f>IF(MAX(History!35:35)&gt;0,MAX(History!35:35),"")</f>
         <v/>
       </c>
-      <c r="H35" s="5" t="str">
+      <c r="H35" s="6" t="str">
         <f>IF(History!A35&lt;&gt;0,MIN(History!35:35),"")</f>
         <v/>
       </c>
-      <c r="I35" s="5" t="str">
+      <c r="I35" s="6" t="str">
         <f>IF(History!A35&lt;&gt;"",History!B35,"")</f>
         <v/>
       </c>
@@ -1970,7 +1963,7 @@
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="6" t="str">
+      <c r="B36" s="5" t="str">
         <f>IF(History!A36&lt;&gt;"",History!A36,"")</f>
         <v/>
       </c>
@@ -1978,7 +1971,7 @@
         <f>IF(History!A36&lt;&gt;"",SUM(History!36:36),"")</f>
         <v/>
       </c>
-      <c r="D36" s="7" t="str">
+      <c r="D36" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1990,15 +1983,15 @@
         <f>IF(History!A36&lt;&gt;0,COUNTIF(History!36:36,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G36" s="8" t="str">
+      <c r="G36" s="6" t="str">
         <f>IF(MAX(History!36:36)&gt;0,MAX(History!36:36),"")</f>
         <v/>
       </c>
-      <c r="H36" s="5" t="str">
+      <c r="H36" s="6" t="str">
         <f>IF(History!A36&lt;&gt;0,MIN(History!36:36),"")</f>
         <v/>
       </c>
-      <c r="I36" s="5" t="str">
+      <c r="I36" s="6" t="str">
         <f>IF(History!A36&lt;&gt;"",History!B36,"")</f>
         <v/>
       </c>
@@ -2011,7 +2004,7 @@
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="6" t="str">
+      <c r="B37" s="5" t="str">
         <f>IF(History!A37&lt;&gt;"",History!A37,"")</f>
         <v/>
       </c>
@@ -2019,7 +2012,7 @@
         <f>IF(History!A37&lt;&gt;"",SUM(History!37:37),"")</f>
         <v/>
       </c>
-      <c r="D37" s="7" t="str">
+      <c r="D37" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2031,15 +2024,15 @@
         <f>IF(History!A37&lt;&gt;0,COUNTIF(History!37:37,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G37" s="8" t="str">
+      <c r="G37" s="6" t="str">
         <f>IF(MAX(History!37:37)&gt;0,MAX(History!37:37),"")</f>
         <v/>
       </c>
-      <c r="H37" s="5" t="str">
+      <c r="H37" s="6" t="str">
         <f>IF(History!A37&lt;&gt;0,MIN(History!37:37),"")</f>
         <v/>
       </c>
-      <c r="I37" s="5" t="str">
+      <c r="I37" s="6" t="str">
         <f>IF(History!A37&lt;&gt;"",History!B37,"")</f>
         <v/>
       </c>
@@ -2052,7 +2045,7 @@
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="6" t="str">
+      <c r="B38" s="5" t="str">
         <f>IF(History!A38&lt;&gt;"",History!A38,"")</f>
         <v/>
       </c>
@@ -2060,7 +2053,7 @@
         <f>IF(History!A38&lt;&gt;"",SUM(History!38:38),"")</f>
         <v/>
       </c>
-      <c r="D38" s="7" t="str">
+      <c r="D38" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2072,15 +2065,15 @@
         <f>IF(History!A38&lt;&gt;0,COUNTIF(History!38:38,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G38" s="8" t="str">
+      <c r="G38" s="6" t="str">
         <f>IF(MAX(History!38:38)&gt;0,MAX(History!38:38),"")</f>
         <v/>
       </c>
-      <c r="H38" s="5" t="str">
+      <c r="H38" s="6" t="str">
         <f>IF(History!A38&lt;&gt;0,MIN(History!38:38),"")</f>
         <v/>
       </c>
-      <c r="I38" s="5" t="str">
+      <c r="I38" s="6" t="str">
         <f>IF(History!A38&lt;&gt;"",History!B38,"")</f>
         <v/>
       </c>
@@ -2093,7 +2086,7 @@
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="6" t="str">
+      <c r="B39" s="5" t="str">
         <f>IF(History!A39&lt;&gt;"",History!A39,"")</f>
         <v/>
       </c>
@@ -2101,7 +2094,7 @@
         <f>IF(History!A39&lt;&gt;"",SUM(History!39:39),"")</f>
         <v/>
       </c>
-      <c r="D39" s="7" t="str">
+      <c r="D39" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2113,15 +2106,15 @@
         <f>IF(History!A39&lt;&gt;0,COUNTIF(History!39:39,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G39" s="8" t="str">
+      <c r="G39" s="6" t="str">
         <f>IF(MAX(History!39:39)&gt;0,MAX(History!39:39),"")</f>
         <v/>
       </c>
-      <c r="H39" s="5" t="str">
+      <c r="H39" s="6" t="str">
         <f>IF(History!A39&lt;&gt;0,MIN(History!39:39),"")</f>
         <v/>
       </c>
-      <c r="I39" s="5" t="str">
+      <c r="I39" s="6" t="str">
         <f>IF(History!A39&lt;&gt;"",History!B39,"")</f>
         <v/>
       </c>
@@ -2134,7 +2127,7 @@
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="6" t="str">
+      <c r="B40" s="5" t="str">
         <f>IF(History!A40&lt;&gt;"",History!A40,"")</f>
         <v/>
       </c>
@@ -2142,7 +2135,7 @@
         <f>IF(History!A40&lt;&gt;"",SUM(History!40:40),"")</f>
         <v/>
       </c>
-      <c r="D40" s="7" t="str">
+      <c r="D40" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2154,15 +2147,15 @@
         <f>IF(History!A40&lt;&gt;0,COUNTIF(History!40:40,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G40" s="8" t="str">
+      <c r="G40" s="6" t="str">
         <f>IF(MAX(History!40:40)&gt;0,MAX(History!40:40),"")</f>
         <v/>
       </c>
-      <c r="H40" s="5" t="str">
+      <c r="H40" s="6" t="str">
         <f>IF(History!A40&lt;&gt;0,MIN(History!40:40),"")</f>
         <v/>
       </c>
-      <c r="I40" s="5" t="str">
+      <c r="I40" s="6" t="str">
         <f>IF(History!A40&lt;&gt;"",History!B40,"")</f>
         <v/>
       </c>
@@ -2175,7 +2168,7 @@
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="6" t="str">
+      <c r="B41" s="5" t="str">
         <f>IF(History!A41&lt;&gt;"",History!A41,"")</f>
         <v/>
       </c>
@@ -2183,7 +2176,7 @@
         <f>IF(History!A41&lt;&gt;"",SUM(History!41:41),"")</f>
         <v/>
       </c>
-      <c r="D41" s="7" t="str">
+      <c r="D41" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2195,15 +2188,15 @@
         <f>IF(History!A41&lt;&gt;0,COUNTIF(History!41:41,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G41" s="8" t="str">
+      <c r="G41" s="6" t="str">
         <f>IF(MAX(History!41:41)&gt;0,MAX(History!41:41),"")</f>
         <v/>
       </c>
-      <c r="H41" s="5" t="str">
+      <c r="H41" s="6" t="str">
         <f>IF(History!A41&lt;&gt;0,MIN(History!41:41),"")</f>
         <v/>
       </c>
-      <c r="I41" s="5" t="str">
+      <c r="I41" s="6" t="str">
         <f>IF(History!A41&lt;&gt;"",History!B41,"")</f>
         <v/>
       </c>
@@ -2216,7 +2209,7 @@
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="6" t="str">
+      <c r="B42" s="5" t="str">
         <f>IF(History!A42&lt;&gt;"",History!A42,"")</f>
         <v/>
       </c>
@@ -2224,7 +2217,7 @@
         <f>IF(History!A42&lt;&gt;"",SUM(History!42:42),"")</f>
         <v/>
       </c>
-      <c r="D42" s="7" t="str">
+      <c r="D42" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2236,15 +2229,15 @@
         <f>IF(History!A42&lt;&gt;0,COUNTIF(History!42:42,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G42" s="8" t="str">
+      <c r="G42" s="6" t="str">
         <f>IF(MAX(History!42:42)&gt;0,MAX(History!42:42),"")</f>
         <v/>
       </c>
-      <c r="H42" s="5" t="str">
+      <c r="H42" s="6" t="str">
         <f>IF(History!A42&lt;&gt;0,MIN(History!42:42),"")</f>
         <v/>
       </c>
-      <c r="I42" s="5" t="str">
+      <c r="I42" s="6" t="str">
         <f>IF(History!A42&lt;&gt;"",History!B42,"")</f>
         <v/>
       </c>
@@ -2257,7 +2250,7 @@
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="6" t="str">
+      <c r="B43" s="5" t="str">
         <f>IF(History!A43&lt;&gt;"",History!A43,"")</f>
         <v/>
       </c>
@@ -2265,7 +2258,7 @@
         <f>IF(History!A43&lt;&gt;"",SUM(History!43:43),"")</f>
         <v/>
       </c>
-      <c r="D43" s="7" t="str">
+      <c r="D43" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2277,15 +2270,15 @@
         <f>IF(History!A43&lt;&gt;0,COUNTIF(History!43:43,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G43" s="8" t="str">
+      <c r="G43" s="6" t="str">
         <f>IF(MAX(History!43:43)&gt;0,MAX(History!43:43),"")</f>
         <v/>
       </c>
-      <c r="H43" s="5" t="str">
+      <c r="H43" s="6" t="str">
         <f>IF(History!A43&lt;&gt;0,MIN(History!43:43),"")</f>
         <v/>
       </c>
-      <c r="I43" s="5" t="str">
+      <c r="I43" s="6" t="str">
         <f>IF(History!A43&lt;&gt;"",History!B43,"")</f>
         <v/>
       </c>
@@ -2298,7 +2291,7 @@
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="6" t="str">
+      <c r="B44" s="5" t="str">
         <f>IF(History!A44&lt;&gt;"",History!A44,"")</f>
         <v/>
       </c>
@@ -2306,7 +2299,7 @@
         <f>IF(History!A44&lt;&gt;"",SUM(History!44:44),"")</f>
         <v/>
       </c>
-      <c r="D44" s="7" t="str">
+      <c r="D44" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2318,15 +2311,15 @@
         <f>IF(History!A44&lt;&gt;0,COUNTIF(History!44:44,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G44" s="8" t="str">
+      <c r="G44" s="6" t="str">
         <f>IF(MAX(History!44:44)&gt;0,MAX(History!44:44),"")</f>
         <v/>
       </c>
-      <c r="H44" s="5" t="str">
+      <c r="H44" s="6" t="str">
         <f>IF(History!A44&lt;&gt;0,MIN(History!44:44),"")</f>
         <v/>
       </c>
-      <c r="I44" s="5" t="str">
+      <c r="I44" s="6" t="str">
         <f>IF(History!A44&lt;&gt;"",History!B44,"")</f>
         <v/>
       </c>
@@ -2339,7 +2332,7 @@
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="6" t="str">
+      <c r="B45" s="5" t="str">
         <f>IF(History!A45&lt;&gt;"",History!A45,"")</f>
         <v/>
       </c>
@@ -2347,7 +2340,7 @@
         <f>IF(History!A45&lt;&gt;"",SUM(History!45:45),"")</f>
         <v/>
       </c>
-      <c r="D45" s="7" t="str">
+      <c r="D45" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2359,15 +2352,15 @@
         <f>IF(History!A45&lt;&gt;0,COUNTIF(History!45:45,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G45" s="8" t="str">
+      <c r="G45" s="6" t="str">
         <f>IF(MAX(History!45:45)&gt;0,MAX(History!45:45),"")</f>
         <v/>
       </c>
-      <c r="H45" s="5" t="str">
+      <c r="H45" s="6" t="str">
         <f>IF(History!A45&lt;&gt;0,MIN(History!45:45),"")</f>
         <v/>
       </c>
-      <c r="I45" s="5" t="str">
+      <c r="I45" s="6" t="str">
         <f>IF(History!A45&lt;&gt;"",History!B45,"")</f>
         <v/>
       </c>
@@ -2380,7 +2373,7 @@
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="6" t="str">
+      <c r="B46" s="5" t="str">
         <f>IF(History!A46&lt;&gt;"",History!A46,"")</f>
         <v/>
       </c>
@@ -2388,7 +2381,7 @@
         <f>IF(History!A46&lt;&gt;"",SUM(History!46:46),"")</f>
         <v/>
       </c>
-      <c r="D46" s="7" t="str">
+      <c r="D46" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2400,15 +2393,15 @@
         <f>IF(History!A46&lt;&gt;0,COUNTIF(History!46:46,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G46" s="8" t="str">
+      <c r="G46" s="6" t="str">
         <f>IF(MAX(History!46:46)&gt;0,MAX(History!46:46),"")</f>
         <v/>
       </c>
-      <c r="H46" s="5" t="str">
+      <c r="H46" s="6" t="str">
         <f>IF(History!A46&lt;&gt;0,MIN(History!46:46),"")</f>
         <v/>
       </c>
-      <c r="I46" s="5" t="str">
+      <c r="I46" s="6" t="str">
         <f>IF(History!A46&lt;&gt;"",History!B46,"")</f>
         <v/>
       </c>
@@ -2421,7 +2414,7 @@
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="6" t="str">
+      <c r="B47" s="5" t="str">
         <f>IF(History!A47&lt;&gt;"",History!A47,"")</f>
         <v/>
       </c>
@@ -2429,7 +2422,7 @@
         <f>IF(History!A47&lt;&gt;"",SUM(History!47:47),"")</f>
         <v/>
       </c>
-      <c r="D47" s="7" t="str">
+      <c r="D47" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2441,15 +2434,15 @@
         <f>IF(History!A47&lt;&gt;0,COUNTIF(History!47:47,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G47" s="8" t="str">
+      <c r="G47" s="6" t="str">
         <f>IF(MAX(History!47:47)&gt;0,MAX(History!47:47),"")</f>
         <v/>
       </c>
-      <c r="H47" s="5" t="str">
+      <c r="H47" s="6" t="str">
         <f>IF(History!A47&lt;&gt;0,MIN(History!47:47),"")</f>
         <v/>
       </c>
-      <c r="I47" s="5" t="str">
+      <c r="I47" s="6" t="str">
         <f>IF(History!A47&lt;&gt;"",History!B47,"")</f>
         <v/>
       </c>
@@ -2462,7 +2455,7 @@
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="6" t="str">
+      <c r="B48" s="5" t="str">
         <f>IF(History!A48&lt;&gt;"",History!A48,"")</f>
         <v/>
       </c>
@@ -2470,7 +2463,7 @@
         <f>IF(History!A48&lt;&gt;"",SUM(History!48:48),"")</f>
         <v/>
       </c>
-      <c r="D48" s="7" t="str">
+      <c r="D48" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2482,15 +2475,15 @@
         <f>IF(History!A48&lt;&gt;0,COUNTIF(History!48:48,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G48" s="8" t="str">
+      <c r="G48" s="6" t="str">
         <f>IF(MAX(History!48:48)&gt;0,MAX(History!48:48),"")</f>
         <v/>
       </c>
-      <c r="H48" s="5" t="str">
+      <c r="H48" s="6" t="str">
         <f>IF(History!A48&lt;&gt;0,MIN(History!48:48),"")</f>
         <v/>
       </c>
-      <c r="I48" s="5" t="str">
+      <c r="I48" s="6" t="str">
         <f>IF(History!A48&lt;&gt;"",History!B48,"")</f>
         <v/>
       </c>
@@ -2503,7 +2496,7 @@
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="6" t="str">
+      <c r="B49" s="5" t="str">
         <f>IF(History!A49&lt;&gt;"",History!A49,"")</f>
         <v/>
       </c>
@@ -2511,7 +2504,7 @@
         <f>IF(History!A49&lt;&gt;"",SUM(History!49:49),"")</f>
         <v/>
       </c>
-      <c r="D49" s="7" t="str">
+      <c r="D49" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2523,15 +2516,15 @@
         <f>IF(History!A49&lt;&gt;0,COUNTIF(History!49:49,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G49" s="8" t="str">
+      <c r="G49" s="6" t="str">
         <f>IF(MAX(History!49:49)&gt;0,MAX(History!49:49),"")</f>
         <v/>
       </c>
-      <c r="H49" s="5" t="str">
+      <c r="H49" s="6" t="str">
         <f>IF(History!A49&lt;&gt;0,MIN(History!49:49),"")</f>
         <v/>
       </c>
-      <c r="I49" s="5" t="str">
+      <c r="I49" s="6" t="str">
         <f>IF(History!A49&lt;&gt;"",History!B49,"")</f>
         <v/>
       </c>
@@ -2544,7 +2537,7 @@
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="6" t="str">
+      <c r="B50" s="5" t="str">
         <f>IF(History!A50&lt;&gt;"",History!A50,"")</f>
         <v/>
       </c>
@@ -2552,7 +2545,7 @@
         <f>IF(History!A50&lt;&gt;"",SUM(History!50:50),"")</f>
         <v/>
       </c>
-      <c r="D50" s="7" t="str">
+      <c r="D50" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2564,15 +2557,15 @@
         <f>IF(History!A50&lt;&gt;0,COUNTIF(History!50:50,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G50" s="8" t="str">
+      <c r="G50" s="6" t="str">
         <f>IF(MAX(History!50:50)&gt;0,MAX(History!50:50),"")</f>
         <v/>
       </c>
-      <c r="H50" s="5" t="str">
+      <c r="H50" s="6" t="str">
         <f>IF(History!A50&lt;&gt;0,MIN(History!50:50),"")</f>
         <v/>
       </c>
-      <c r="I50" s="5" t="str">
+      <c r="I50" s="6" t="str">
         <f>IF(History!A50&lt;&gt;"",History!B50,"")</f>
         <v/>
       </c>
@@ -2585,7 +2578,7 @@
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="6" t="str">
+      <c r="B51" s="5" t="str">
         <f>IF(History!A51&lt;&gt;"",History!A51,"")</f>
         <v/>
       </c>
@@ -2593,7 +2586,7 @@
         <f>IF(History!A51&lt;&gt;"",SUM(History!51:51),"")</f>
         <v/>
       </c>
-      <c r="D51" s="7" t="str">
+      <c r="D51" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2605,15 +2598,15 @@
         <f>IF(History!A51&lt;&gt;0,COUNTIF(History!51:51,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G51" s="8" t="str">
+      <c r="G51" s="6" t="str">
         <f>IF(MAX(History!51:51)&gt;0,MAX(History!51:51),"")</f>
         <v/>
       </c>
-      <c r="H51" s="5" t="str">
+      <c r="H51" s="6" t="str">
         <f>IF(History!A51&lt;&gt;0,MIN(History!51:51),"")</f>
         <v/>
       </c>
-      <c r="I51" s="5" t="str">
+      <c r="I51" s="6" t="str">
         <f>IF(History!A51&lt;&gt;"",History!B51,"")</f>
         <v/>
       </c>
@@ -2626,7 +2619,7 @@
       <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="6" t="str">
+      <c r="B52" s="5" t="str">
         <f>IF(History!A52&lt;&gt;"",History!A52,"")</f>
         <v/>
       </c>
@@ -2634,7 +2627,7 @@
         <f>IF(History!A52&lt;&gt;"",SUM(History!52:52),"")</f>
         <v/>
       </c>
-      <c r="D52" s="7" t="str">
+      <c r="D52" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2646,15 +2639,15 @@
         <f>IF(History!A52&lt;&gt;0,COUNTIF(History!52:52,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G52" s="8" t="str">
+      <c r="G52" s="6" t="str">
         <f>IF(MAX(History!52:52)&gt;0,MAX(History!52:52),"")</f>
         <v/>
       </c>
-      <c r="H52" s="5" t="str">
+      <c r="H52" s="6" t="str">
         <f>IF(History!A52&lt;&gt;0,MIN(History!52:52),"")</f>
         <v/>
       </c>
-      <c r="I52" s="5" t="str">
+      <c r="I52" s="6" t="str">
         <f>IF(History!A52&lt;&gt;"",History!B52,"")</f>
         <v/>
       </c>
@@ -2667,7 +2660,7 @@
       <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="6" t="str">
+      <c r="B53" s="5" t="str">
         <f>IF(History!A53&lt;&gt;"",History!A53,"")</f>
         <v/>
       </c>
@@ -2675,7 +2668,7 @@
         <f>IF(History!A53&lt;&gt;"",SUM(History!53:53),"")</f>
         <v/>
       </c>
-      <c r="D53" s="7" t="str">
+      <c r="D53" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2687,15 +2680,15 @@
         <f>IF(History!A53&lt;&gt;0,COUNTIF(History!53:53,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G53" s="8" t="str">
+      <c r="G53" s="6" t="str">
         <f>IF(MAX(History!53:53)&gt;0,MAX(History!53:53),"")</f>
         <v/>
       </c>
-      <c r="H53" s="5" t="str">
+      <c r="H53" s="6" t="str">
         <f>IF(History!A53&lt;&gt;0,MIN(History!53:53),"")</f>
         <v/>
       </c>
-      <c r="I53" s="5" t="str">
+      <c r="I53" s="6" t="str">
         <f>IF(History!A53&lt;&gt;"",History!B53,"")</f>
         <v/>
       </c>
@@ -2708,7 +2701,7 @@
       <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="6" t="str">
+      <c r="B54" s="5" t="str">
         <f>IF(History!A54&lt;&gt;"",History!A54,"")</f>
         <v/>
       </c>
@@ -2716,7 +2709,7 @@
         <f>IF(History!A54&lt;&gt;"",SUM(History!54:54),"")</f>
         <v/>
       </c>
-      <c r="D54" s="7" t="str">
+      <c r="D54" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2728,15 +2721,15 @@
         <f>IF(History!A54&lt;&gt;0,COUNTIF(History!54:54,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G54" s="8" t="str">
+      <c r="G54" s="6" t="str">
         <f>IF(MAX(History!54:54)&gt;0,MAX(History!54:54),"")</f>
         <v/>
       </c>
-      <c r="H54" s="5" t="str">
+      <c r="H54" s="6" t="str">
         <f>IF(History!A54&lt;&gt;0,MIN(History!54:54),"")</f>
         <v/>
       </c>
-      <c r="I54" s="5" t="str">
+      <c r="I54" s="6" t="str">
         <f>IF(History!A54&lt;&gt;"",History!B54,"")</f>
         <v/>
       </c>
@@ -2749,7 +2742,7 @@
       <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="6" t="str">
+      <c r="B55" s="5" t="str">
         <f>IF(History!A55&lt;&gt;"",History!A55,"")</f>
         <v/>
       </c>
@@ -2757,7 +2750,7 @@
         <f>IF(History!A55&lt;&gt;"",SUM(History!55:55),"")</f>
         <v/>
       </c>
-      <c r="D55" s="7" t="str">
+      <c r="D55" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2769,15 +2762,15 @@
         <f>IF(History!A55&lt;&gt;0,COUNTIF(History!55:55,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G55" s="8" t="str">
+      <c r="G55" s="6" t="str">
         <f>IF(MAX(History!55:55)&gt;0,MAX(History!55:55),"")</f>
         <v/>
       </c>
-      <c r="H55" s="5" t="str">
+      <c r="H55" s="6" t="str">
         <f>IF(History!A55&lt;&gt;0,MIN(History!55:55),"")</f>
         <v/>
       </c>
-      <c r="I55" s="5" t="str">
+      <c r="I55" s="6" t="str">
         <f>IF(History!A55&lt;&gt;"",History!B55,"")</f>
         <v/>
       </c>
@@ -2790,7 +2783,7 @@
       <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="6" t="str">
+      <c r="B56" s="5" t="str">
         <f>IF(History!A56&lt;&gt;"",History!A56,"")</f>
         <v/>
       </c>
@@ -2798,7 +2791,7 @@
         <f>IF(History!A56&lt;&gt;"",SUM(History!56:56),"")</f>
         <v/>
       </c>
-      <c r="D56" s="7" t="str">
+      <c r="D56" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2810,15 +2803,15 @@
         <f>IF(History!A56&lt;&gt;0,COUNTIF(History!56:56,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G56" s="8" t="str">
+      <c r="G56" s="6" t="str">
         <f>IF(MAX(History!56:56)&gt;0,MAX(History!56:56),"")</f>
         <v/>
       </c>
-      <c r="H56" s="5" t="str">
+      <c r="H56" s="6" t="str">
         <f>IF(History!A56&lt;&gt;0,MIN(History!56:56),"")</f>
         <v/>
       </c>
-      <c r="I56" s="5" t="str">
+      <c r="I56" s="6" t="str">
         <f>IF(History!A56&lt;&gt;"",History!B56,"")</f>
         <v/>
       </c>
@@ -2831,7 +2824,7 @@
       <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" s="6" t="str">
+      <c r="B57" s="5" t="str">
         <f>IF(History!A57&lt;&gt;"",History!A57,"")</f>
         <v/>
       </c>
@@ -2839,7 +2832,7 @@
         <f>IF(History!A57&lt;&gt;"",SUM(History!57:57),"")</f>
         <v/>
       </c>
-      <c r="D57" s="7" t="str">
+      <c r="D57" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2851,15 +2844,15 @@
         <f>IF(History!A57&lt;&gt;0,COUNTIF(History!57:57,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G57" s="8" t="str">
+      <c r="G57" s="6" t="str">
         <f>IF(MAX(History!57:57)&gt;0,MAX(History!57:57),"")</f>
         <v/>
       </c>
-      <c r="H57" s="5" t="str">
+      <c r="H57" s="6" t="str">
         <f>IF(History!A57&lt;&gt;0,MIN(History!57:57),"")</f>
         <v/>
       </c>
-      <c r="I57" s="5" t="str">
+      <c r="I57" s="6" t="str">
         <f>IF(History!A57&lt;&gt;"",History!B57,"")</f>
         <v/>
       </c>
@@ -2872,7 +2865,7 @@
       <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" s="6" t="str">
+      <c r="B58" s="5" t="str">
         <f>IF(History!A58&lt;&gt;"",History!A58,"")</f>
         <v/>
       </c>
@@ -2880,7 +2873,7 @@
         <f>IF(History!A58&lt;&gt;"",SUM(History!58:58),"")</f>
         <v/>
       </c>
-      <c r="D58" s="7" t="str">
+      <c r="D58" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2892,15 +2885,15 @@
         <f>IF(History!A58&lt;&gt;0,COUNTIF(History!58:58,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G58" s="8" t="str">
+      <c r="G58" s="6" t="str">
         <f>IF(MAX(History!58:58)&gt;0,MAX(History!58:58),"")</f>
         <v/>
       </c>
-      <c r="H58" s="5" t="str">
+      <c r="H58" s="6" t="str">
         <f>IF(History!A58&lt;&gt;0,MIN(History!58:58),"")</f>
         <v/>
       </c>
-      <c r="I58" s="5" t="str">
+      <c r="I58" s="6" t="str">
         <f>IF(History!A58&lt;&gt;"",History!B58,"")</f>
         <v/>
       </c>
@@ -2913,7 +2906,7 @@
       <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" s="6" t="str">
+      <c r="B59" s="5" t="str">
         <f>IF(History!A59&lt;&gt;"",History!A59,"")</f>
         <v/>
       </c>
@@ -2921,7 +2914,7 @@
         <f>IF(History!A59&lt;&gt;"",SUM(History!59:59),"")</f>
         <v/>
       </c>
-      <c r="D59" s="7" t="str">
+      <c r="D59" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2933,15 +2926,15 @@
         <f>IF(History!A59&lt;&gt;0,COUNTIF(History!59:59,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G59" s="8" t="str">
+      <c r="G59" s="6" t="str">
         <f>IF(MAX(History!59:59)&gt;0,MAX(History!59:59),"")</f>
         <v/>
       </c>
-      <c r="H59" s="5" t="str">
+      <c r="H59" s="6" t="str">
         <f>IF(History!A59&lt;&gt;0,MIN(History!59:59),"")</f>
         <v/>
       </c>
-      <c r="I59" s="5" t="str">
+      <c r="I59" s="6" t="str">
         <f>IF(History!A59&lt;&gt;"",History!B59,"")</f>
         <v/>
       </c>
@@ -2954,7 +2947,7 @@
       <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" s="6" t="str">
+      <c r="B60" s="5" t="str">
         <f>IF(History!A60&lt;&gt;"",History!A60,"")</f>
         <v/>
       </c>
@@ -2962,7 +2955,7 @@
         <f>IF(History!A60&lt;&gt;"",SUM(History!60:60),"")</f>
         <v/>
       </c>
-      <c r="D60" s="7" t="str">
+      <c r="D60" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2974,15 +2967,15 @@
         <f>IF(History!A60&lt;&gt;0,COUNTIF(History!60:60,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G60" s="8" t="str">
+      <c r="G60" s="6" t="str">
         <f>IF(MAX(History!60:60)&gt;0,MAX(History!60:60),"")</f>
         <v/>
       </c>
-      <c r="H60" s="5" t="str">
+      <c r="H60" s="6" t="str">
         <f>IF(History!A60&lt;&gt;0,MIN(History!60:60),"")</f>
         <v/>
       </c>
-      <c r="I60" s="5" t="str">
+      <c r="I60" s="6" t="str">
         <f>IF(History!A60&lt;&gt;"",History!B60,"")</f>
         <v/>
       </c>
@@ -2995,7 +2988,7 @@
       <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="6" t="str">
+      <c r="B61" s="5" t="str">
         <f>IF(History!A61&lt;&gt;"",History!A61,"")</f>
         <v/>
       </c>
@@ -3003,7 +2996,7 @@
         <f>IF(History!A61&lt;&gt;"",SUM(History!61:61),"")</f>
         <v/>
       </c>
-      <c r="D61" s="7" t="str">
+      <c r="D61" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3015,15 +3008,15 @@
         <f>IF(History!A61&lt;&gt;0,COUNTIF(History!61:61,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G61" s="8" t="str">
+      <c r="G61" s="6" t="str">
         <f>IF(MAX(History!61:61)&gt;0,MAX(History!61:61),"")</f>
         <v/>
       </c>
-      <c r="H61" s="5" t="str">
+      <c r="H61" s="6" t="str">
         <f>IF(History!A61&lt;&gt;0,MIN(History!61:61),"")</f>
         <v/>
       </c>
-      <c r="I61" s="5" t="str">
+      <c r="I61" s="6" t="str">
         <f>IF(History!A61&lt;&gt;"",History!B61,"")</f>
         <v/>
       </c>
@@ -3036,7 +3029,7 @@
       <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62" s="6" t="str">
+      <c r="B62" s="5" t="str">
         <f>IF(History!A62&lt;&gt;"",History!A62,"")</f>
         <v/>
       </c>
@@ -3044,7 +3037,7 @@
         <f>IF(History!A62&lt;&gt;"",SUM(History!62:62),"")</f>
         <v/>
       </c>
-      <c r="D62" s="7" t="str">
+      <c r="D62" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3056,15 +3049,15 @@
         <f>IF(History!A62&lt;&gt;0,COUNTIF(History!62:62,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G62" s="8" t="str">
+      <c r="G62" s="6" t="str">
         <f>IF(MAX(History!62:62)&gt;0,MAX(History!62:62),"")</f>
         <v/>
       </c>
-      <c r="H62" s="5" t="str">
+      <c r="H62" s="6" t="str">
         <f>IF(History!A62&lt;&gt;0,MIN(History!62:62),"")</f>
         <v/>
       </c>
-      <c r="I62" s="5" t="str">
+      <c r="I62" s="6" t="str">
         <f>IF(History!A62&lt;&gt;"",History!B62,"")</f>
         <v/>
       </c>
@@ -3077,7 +3070,7 @@
       <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="B63" s="6" t="str">
+      <c r="B63" s="5" t="str">
         <f>IF(History!A63&lt;&gt;"",History!A63,"")</f>
         <v/>
       </c>
@@ -3085,7 +3078,7 @@
         <f>IF(History!A63&lt;&gt;"",SUM(History!63:63),"")</f>
         <v/>
       </c>
-      <c r="D63" s="7" t="str">
+      <c r="D63" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3097,15 +3090,15 @@
         <f>IF(History!A63&lt;&gt;0,COUNTIF(History!63:63,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G63" s="8" t="str">
+      <c r="G63" s="6" t="str">
         <f>IF(MAX(History!63:63)&gt;0,MAX(History!63:63),"")</f>
         <v/>
       </c>
-      <c r="H63" s="5" t="str">
+      <c r="H63" s="6" t="str">
         <f>IF(History!A63&lt;&gt;0,MIN(History!63:63),"")</f>
         <v/>
       </c>
-      <c r="I63" s="5" t="str">
+      <c r="I63" s="6" t="str">
         <f>IF(History!A63&lt;&gt;"",History!B63,"")</f>
         <v/>
       </c>
@@ -3118,7 +3111,7 @@
       <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="B64" s="6" t="str">
+      <c r="B64" s="5" t="str">
         <f>IF(History!A64&lt;&gt;"",History!A64,"")</f>
         <v/>
       </c>
@@ -3126,7 +3119,7 @@
         <f>IF(History!A64&lt;&gt;"",SUM(History!64:64),"")</f>
         <v/>
       </c>
-      <c r="D64" s="7" t="str">
+      <c r="D64" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3138,15 +3131,15 @@
         <f>IF(History!A64&lt;&gt;0,COUNTIF(History!64:64,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G64" s="8" t="str">
+      <c r="G64" s="6" t="str">
         <f>IF(MAX(History!64:64)&gt;0,MAX(History!64:64),"")</f>
         <v/>
       </c>
-      <c r="H64" s="5" t="str">
+      <c r="H64" s="6" t="str">
         <f>IF(History!A64&lt;&gt;0,MIN(History!64:64),"")</f>
         <v/>
       </c>
-      <c r="I64" s="5" t="str">
+      <c r="I64" s="6" t="str">
         <f>IF(History!A64&lt;&gt;"",History!B64,"")</f>
         <v/>
       </c>
@@ -3159,7 +3152,7 @@
       <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="B65" s="6" t="str">
+      <c r="B65" s="5" t="str">
         <f>IF(History!A65&lt;&gt;"",History!A65,"")</f>
         <v/>
       </c>
@@ -3167,7 +3160,7 @@
         <f>IF(History!A65&lt;&gt;"",SUM(History!65:65),"")</f>
         <v/>
       </c>
-      <c r="D65" s="7" t="str">
+      <c r="D65" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3179,15 +3172,15 @@
         <f>IF(History!A65&lt;&gt;0,COUNTIF(History!65:65,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G65" s="8" t="str">
+      <c r="G65" s="6" t="str">
         <f>IF(MAX(History!65:65)&gt;0,MAX(History!65:65),"")</f>
         <v/>
       </c>
-      <c r="H65" s="5" t="str">
+      <c r="H65" s="6" t="str">
         <f>IF(History!A65&lt;&gt;0,MIN(History!65:65),"")</f>
         <v/>
       </c>
-      <c r="I65" s="5" t="str">
+      <c r="I65" s="6" t="str">
         <f>IF(History!A65&lt;&gt;"",History!B65,"")</f>
         <v/>
       </c>
@@ -3200,7 +3193,7 @@
       <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="B66" s="6" t="str">
+      <c r="B66" s="5" t="str">
         <f>IF(History!A66&lt;&gt;"",History!A66,"")</f>
         <v/>
       </c>
@@ -3208,7 +3201,7 @@
         <f>IF(History!A66&lt;&gt;"",SUM(History!66:66),"")</f>
         <v/>
       </c>
-      <c r="D66" s="7" t="str">
+      <c r="D66" s="8" t="str">
         <f t="shared" ref="D66:D97" si="2">IFERROR(E66/(E66+F66),"")</f>
         <v/>
       </c>
@@ -3220,15 +3213,15 @@
         <f>IF(History!A66&lt;&gt;0,COUNTIF(History!66:66,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G66" s="8" t="str">
+      <c r="G66" s="6" t="str">
         <f>IF(MAX(History!66:66)&gt;0,MAX(History!66:66),"")</f>
         <v/>
       </c>
-      <c r="H66" s="5" t="str">
+      <c r="H66" s="6" t="str">
         <f>IF(History!A66&lt;&gt;0,MIN(History!66:66),"")</f>
         <v/>
       </c>
-      <c r="I66" s="5" t="str">
+      <c r="I66" s="6" t="str">
         <f>IF(History!A66&lt;&gt;"",History!B66,"")</f>
         <v/>
       </c>
@@ -3241,7 +3234,7 @@
       <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="B67" s="6" t="str">
+      <c r="B67" s="5" t="str">
         <f>IF(History!A67&lt;&gt;"",History!A67,"")</f>
         <v/>
       </c>
@@ -3249,7 +3242,7 @@
         <f>IF(History!A67&lt;&gt;"",SUM(History!67:67),"")</f>
         <v/>
       </c>
-      <c r="D67" s="7" t="str">
+      <c r="D67" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -3261,15 +3254,15 @@
         <f>IF(History!A67&lt;&gt;0,COUNTIF(History!67:67,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G67" s="8" t="str">
+      <c r="G67" s="6" t="str">
         <f>IF(MAX(History!67:67)&gt;0,MAX(History!67:67),"")</f>
         <v/>
       </c>
-      <c r="H67" s="5" t="str">
+      <c r="H67" s="6" t="str">
         <f>IF(History!A67&lt;&gt;0,MIN(History!67:67),"")</f>
         <v/>
       </c>
-      <c r="I67" s="5" t="str">
+      <c r="I67" s="6" t="str">
         <f>IF(History!A67&lt;&gt;"",History!B67,"")</f>
         <v/>
       </c>
@@ -3282,7 +3275,7 @@
       <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="B68" s="6" t="str">
+      <c r="B68" s="5" t="str">
         <f>IF(History!A68&lt;&gt;"",History!A68,"")</f>
         <v/>
       </c>
@@ -3290,7 +3283,7 @@
         <f>IF(History!A68&lt;&gt;"",SUM(History!68:68),"")</f>
         <v/>
       </c>
-      <c r="D68" s="7" t="str">
+      <c r="D68" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -3302,15 +3295,15 @@
         <f>IF(History!A68&lt;&gt;0,COUNTIF(History!68:68,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G68" s="8" t="str">
+      <c r="G68" s="6" t="str">
         <f>IF(MAX(History!68:68)&gt;0,MAX(History!68:68),"")</f>
         <v/>
       </c>
-      <c r="H68" s="5" t="str">
+      <c r="H68" s="6" t="str">
         <f>IF(History!A68&lt;&gt;0,MIN(History!68:68),"")</f>
         <v/>
       </c>
-      <c r="I68" s="5" t="str">
+      <c r="I68" s="6" t="str">
         <f>IF(History!A68&lt;&gt;"",History!B68,"")</f>
         <v/>
       </c>
@@ -3323,7 +3316,7 @@
       <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="B69" s="6" t="str">
+      <c r="B69" s="5" t="str">
         <f>IF(History!A69&lt;&gt;"",History!A69,"")</f>
         <v/>
       </c>
@@ -3331,7 +3324,7 @@
         <f>IF(History!A69&lt;&gt;"",SUM(History!69:69),"")</f>
         <v/>
       </c>
-      <c r="D69" s="7" t="str">
+      <c r="D69" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -3343,15 +3336,15 @@
         <f>IF(History!A69&lt;&gt;0,COUNTIF(History!69:69,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G69" s="8" t="str">
+      <c r="G69" s="6" t="str">
         <f>IF(MAX(History!69:69)&gt;0,MAX(History!69:69),"")</f>
         <v/>
       </c>
-      <c r="H69" s="5" t="str">
+      <c r="H69" s="6" t="str">
         <f>IF(History!A69&lt;&gt;0,MIN(History!69:69),"")</f>
         <v/>
       </c>
-      <c r="I69" s="5" t="str">
+      <c r="I69" s="6" t="str">
         <f>IF(History!A69&lt;&gt;"",History!B69,"")</f>
         <v/>
       </c>
@@ -3364,7 +3357,7 @@
       <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="B70" s="6" t="str">
+      <c r="B70" s="5" t="str">
         <f>IF(History!A70&lt;&gt;"",History!A70,"")</f>
         <v/>
       </c>
@@ -3372,7 +3365,7 @@
         <f>IF(History!A70&lt;&gt;"",SUM(History!70:70),"")</f>
         <v/>
       </c>
-      <c r="D70" s="7" t="str">
+      <c r="D70" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -3384,15 +3377,15 @@
         <f>IF(History!A70&lt;&gt;0,COUNTIF(History!70:70,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G70" s="8" t="str">
+      <c r="G70" s="6" t="str">
         <f>IF(MAX(History!70:70)&gt;0,MAX(History!70:70),"")</f>
         <v/>
       </c>
-      <c r="H70" s="5" t="str">
+      <c r="H70" s="6" t="str">
         <f>IF(History!A70&lt;&gt;0,MIN(History!70:70),"")</f>
         <v/>
       </c>
-      <c r="I70" s="5" t="str">
+      <c r="I70" s="6" t="str">
         <f>IF(History!A70&lt;&gt;"",History!B70,"")</f>
         <v/>
       </c>
@@ -3405,7 +3398,7 @@
       <c r="A71" s="1">
         <v>70</v>
       </c>
-      <c r="B71" s="6" t="str">
+      <c r="B71" s="5" t="str">
         <f>IF(History!A71&lt;&gt;"",History!A71,"")</f>
         <v/>
       </c>
@@ -3413,7 +3406,7 @@
         <f>IF(History!A71&lt;&gt;"",SUM(History!71:71),"")</f>
         <v/>
       </c>
-      <c r="D71" s="7" t="str">
+      <c r="D71" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -3425,15 +3418,15 @@
         <f>IF(History!A71&lt;&gt;0,COUNTIF(History!71:71,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G71" s="8" t="str">
+      <c r="G71" s="6" t="str">
         <f>IF(MAX(History!71:71)&gt;0,MAX(History!71:71),"")</f>
         <v/>
       </c>
-      <c r="H71" s="5" t="str">
+      <c r="H71" s="6" t="str">
         <f>IF(History!A71&lt;&gt;0,MIN(History!71:71),"")</f>
         <v/>
       </c>
-      <c r="I71" s="5" t="str">
+      <c r="I71" s="6" t="str">
         <f>IF(History!A71&lt;&gt;"",History!B71,"")</f>
         <v/>
       </c>
@@ -3446,7 +3439,7 @@
       <c r="A72" s="1">
         <v>71</v>
       </c>
-      <c r="B72" s="6" t="str">
+      <c r="B72" s="5" t="str">
         <f>IF(History!A72&lt;&gt;"",History!A72,"")</f>
         <v/>
       </c>
@@ -3454,7 +3447,7 @@
         <f>IF(History!A72&lt;&gt;"",SUM(History!72:72),"")</f>
         <v/>
       </c>
-      <c r="D72" s="7" t="str">
+      <c r="D72" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -3466,15 +3459,15 @@
         <f>IF(History!A72&lt;&gt;0,COUNTIF(History!72:72,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G72" s="8" t="str">
+      <c r="G72" s="6" t="str">
         <f>IF(MAX(History!72:72)&gt;0,MAX(History!72:72),"")</f>
         <v/>
       </c>
-      <c r="H72" s="5" t="str">
+      <c r="H72" s="6" t="str">
         <f>IF(History!A72&lt;&gt;0,MIN(History!72:72),"")</f>
         <v/>
       </c>
-      <c r="I72" s="5" t="str">
+      <c r="I72" s="6" t="str">
         <f>IF(History!A72&lt;&gt;"",History!B72,"")</f>
         <v/>
       </c>
@@ -3487,7 +3480,7 @@
       <c r="A73" s="1">
         <v>72</v>
       </c>
-      <c r="B73" s="6" t="str">
+      <c r="B73" s="5" t="str">
         <f>IF(History!A73&lt;&gt;"",History!A73,"")</f>
         <v/>
       </c>
@@ -3495,7 +3488,7 @@
         <f>IF(History!A73&lt;&gt;"",SUM(History!73:73),"")</f>
         <v/>
       </c>
-      <c r="D73" s="7" t="str">
+      <c r="D73" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -3507,15 +3500,15 @@
         <f>IF(History!A73&lt;&gt;0,COUNTIF(History!73:73,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G73" s="8" t="str">
+      <c r="G73" s="6" t="str">
         <f>IF(MAX(History!73:73)&gt;0,MAX(History!73:73),"")</f>
         <v/>
       </c>
-      <c r="H73" s="5" t="str">
+      <c r="H73" s="6" t="str">
         <f>IF(History!A73&lt;&gt;0,MIN(History!73:73),"")</f>
         <v/>
       </c>
-      <c r="I73" s="5" t="str">
+      <c r="I73" s="6" t="str">
         <f>IF(History!A73&lt;&gt;"",History!B73,"")</f>
         <v/>
       </c>
@@ -3528,7 +3521,7 @@
       <c r="A74" s="1">
         <v>73</v>
       </c>
-      <c r="B74" s="6" t="str">
+      <c r="B74" s="5" t="str">
         <f>IF(History!A74&lt;&gt;"",History!A74,"")</f>
         <v/>
       </c>
@@ -3536,7 +3529,7 @@
         <f>IF(History!A74&lt;&gt;"",SUM(History!74:74),"")</f>
         <v/>
       </c>
-      <c r="D74" s="7" t="str">
+      <c r="D74" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -3548,15 +3541,15 @@
         <f>IF(History!A74&lt;&gt;0,COUNTIF(History!74:74,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G74" s="8" t="str">
+      <c r="G74" s="6" t="str">
         <f>IF(MAX(History!74:74)&gt;0,MAX(History!74:74),"")</f>
         <v/>
       </c>
-      <c r="H74" s="5" t="str">
+      <c r="H74" s="6" t="str">
         <f>IF(History!A74&lt;&gt;0,MIN(History!74:74),"")</f>
         <v/>
       </c>
-      <c r="I74" s="5" t="str">
+      <c r="I74" s="6" t="str">
         <f>IF(History!A74&lt;&gt;"",History!B74,"")</f>
         <v/>
       </c>
@@ -3569,7 +3562,7 @@
       <c r="A75" s="1">
         <v>74</v>
       </c>
-      <c r="B75" s="6" t="str">
+      <c r="B75" s="5" t="str">
         <f>IF(History!A75&lt;&gt;"",History!A75,"")</f>
         <v/>
       </c>
@@ -3577,7 +3570,7 @@
         <f>IF(History!A75&lt;&gt;"",SUM(History!75:75),"")</f>
         <v/>
       </c>
-      <c r="D75" s="7" t="str">
+      <c r="D75" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -3589,15 +3582,15 @@
         <f>IF(History!A75&lt;&gt;0,COUNTIF(History!75:75,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G75" s="8" t="str">
+      <c r="G75" s="6" t="str">
         <f>IF(MAX(History!75:75)&gt;0,MAX(History!75:75),"")</f>
         <v/>
       </c>
-      <c r="H75" s="5" t="str">
+      <c r="H75" s="6" t="str">
         <f>IF(History!A75&lt;&gt;0,MIN(History!75:75),"")</f>
         <v/>
       </c>
-      <c r="I75" s="5" t="str">
+      <c r="I75" s="6" t="str">
         <f>IF(History!A75&lt;&gt;"",History!B75,"")</f>
         <v/>
       </c>
@@ -3610,7 +3603,7 @@
       <c r="A76" s="1">
         <v>75</v>
       </c>
-      <c r="B76" s="6" t="str">
+      <c r="B76" s="5" t="str">
         <f>IF(History!A76&lt;&gt;"",History!A76,"")</f>
         <v/>
       </c>
@@ -3618,7 +3611,7 @@
         <f>IF(History!A76&lt;&gt;"",SUM(History!76:76),"")</f>
         <v/>
       </c>
-      <c r="D76" s="7" t="str">
+      <c r="D76" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -3630,15 +3623,15 @@
         <f>IF(History!A76&lt;&gt;0,COUNTIF(History!76:76,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G76" s="8" t="str">
+      <c r="G76" s="6" t="str">
         <f>IF(MAX(History!76:76)&gt;0,MAX(History!76:76),"")</f>
         <v/>
       </c>
-      <c r="H76" s="5" t="str">
+      <c r="H76" s="6" t="str">
         <f>IF(History!A76&lt;&gt;0,MIN(History!76:76),"")</f>
         <v/>
       </c>
-      <c r="I76" s="5" t="str">
+      <c r="I76" s="6" t="str">
         <f>IF(History!A76&lt;&gt;"",History!B76,"")</f>
         <v/>
       </c>
@@ -3651,7 +3644,7 @@
       <c r="A77" s="1">
         <v>76</v>
       </c>
-      <c r="B77" s="6" t="str">
+      <c r="B77" s="5" t="str">
         <f>IF(History!A77&lt;&gt;"",History!A77,"")</f>
         <v/>
       </c>
@@ -3659,7 +3652,7 @@
         <f>IF(History!A77&lt;&gt;"",SUM(History!77:77),"")</f>
         <v/>
       </c>
-      <c r="D77" s="7" t="str">
+      <c r="D77" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -3671,15 +3664,15 @@
         <f>IF(History!A77&lt;&gt;0,COUNTIF(History!77:77,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G77" s="8" t="str">
+      <c r="G77" s="6" t="str">
         <f>IF(MAX(History!77:77)&gt;0,MAX(History!77:77),"")</f>
         <v/>
       </c>
-      <c r="H77" s="5" t="str">
+      <c r="H77" s="6" t="str">
         <f>IF(History!A77&lt;&gt;0,MIN(History!77:77),"")</f>
         <v/>
       </c>
-      <c r="I77" s="5" t="str">
+      <c r="I77" s="6" t="str">
         <f>IF(History!A77&lt;&gt;"",History!B77,"")</f>
         <v/>
       </c>
@@ -3692,7 +3685,7 @@
       <c r="A78" s="1">
         <v>77</v>
       </c>
-      <c r="B78" s="6" t="str">
+      <c r="B78" s="5" t="str">
         <f>IF(History!A78&lt;&gt;"",History!A78,"")</f>
         <v/>
       </c>
@@ -3700,7 +3693,7 @@
         <f>IF(History!A78&lt;&gt;"",SUM(History!78:78),"")</f>
         <v/>
       </c>
-      <c r="D78" s="7" t="str">
+      <c r="D78" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -3712,15 +3705,15 @@
         <f>IF(History!A78&lt;&gt;0,COUNTIF(History!78:78,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G78" s="8" t="str">
+      <c r="G78" s="6" t="str">
         <f>IF(MAX(History!78:78)&gt;0,MAX(History!78:78),"")</f>
         <v/>
       </c>
-      <c r="H78" s="5" t="str">
+      <c r="H78" s="6" t="str">
         <f>IF(History!A78&lt;&gt;0,MIN(History!78:78),"")</f>
         <v/>
       </c>
-      <c r="I78" s="5" t="str">
+      <c r="I78" s="6" t="str">
         <f>IF(History!A78&lt;&gt;"",History!B78,"")</f>
         <v/>
       </c>
@@ -3733,7 +3726,7 @@
       <c r="A79" s="1">
         <v>78</v>
       </c>
-      <c r="B79" s="6" t="str">
+      <c r="B79" s="5" t="str">
         <f>IF(History!A79&lt;&gt;"",History!A79,"")</f>
         <v/>
       </c>
@@ -3741,7 +3734,7 @@
         <f>IF(History!A79&lt;&gt;"",SUM(History!79:79),"")</f>
         <v/>
       </c>
-      <c r="D79" s="7" t="str">
+      <c r="D79" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -3753,15 +3746,15 @@
         <f>IF(History!A79&lt;&gt;0,COUNTIF(History!79:79,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G79" s="8" t="str">
+      <c r="G79" s="6" t="str">
         <f>IF(MAX(History!79:79)&gt;0,MAX(History!79:79),"")</f>
         <v/>
       </c>
-      <c r="H79" s="5" t="str">
+      <c r="H79" s="6" t="str">
         <f>IF(History!A79&lt;&gt;0,MIN(History!79:79),"")</f>
         <v/>
       </c>
-      <c r="I79" s="5" t="str">
+      <c r="I79" s="6" t="str">
         <f>IF(History!A79&lt;&gt;"",History!B79,"")</f>
         <v/>
       </c>
@@ -3774,7 +3767,7 @@
       <c r="A80" s="1">
         <v>79</v>
       </c>
-      <c r="B80" s="6" t="str">
+      <c r="B80" s="5" t="str">
         <f>IF(History!A80&lt;&gt;"",History!A80,"")</f>
         <v/>
       </c>
@@ -3782,7 +3775,7 @@
         <f>IF(History!A80&lt;&gt;"",SUM(History!80:80),"")</f>
         <v/>
       </c>
-      <c r="D80" s="7" t="str">
+      <c r="D80" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -3794,15 +3787,15 @@
         <f>IF(History!A80&lt;&gt;0,COUNTIF(History!80:80,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G80" s="8" t="str">
+      <c r="G80" s="6" t="str">
         <f>IF(MAX(History!80:80)&gt;0,MAX(History!80:80),"")</f>
         <v/>
       </c>
-      <c r="H80" s="5" t="str">
+      <c r="H80" s="6" t="str">
         <f>IF(History!A80&lt;&gt;0,MIN(History!80:80),"")</f>
         <v/>
       </c>
-      <c r="I80" s="5" t="str">
+      <c r="I80" s="6" t="str">
         <f>IF(History!A80&lt;&gt;"",History!B80,"")</f>
         <v/>
       </c>
@@ -3815,7 +3808,7 @@
       <c r="A81" s="1">
         <v>80</v>
       </c>
-      <c r="B81" s="6" t="str">
+      <c r="B81" s="5" t="str">
         <f>IF(History!A81&lt;&gt;"",History!A81,"")</f>
         <v/>
       </c>
@@ -3823,7 +3816,7 @@
         <f>IF(History!A81&lt;&gt;"",SUM(History!81:81),"")</f>
         <v/>
       </c>
-      <c r="D81" s="7" t="str">
+      <c r="D81" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -3835,15 +3828,15 @@
         <f>IF(History!A81&lt;&gt;0,COUNTIF(History!81:81,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G81" s="8" t="str">
+      <c r="G81" s="6" t="str">
         <f>IF(MAX(History!81:81)&gt;0,MAX(History!81:81),"")</f>
         <v/>
       </c>
-      <c r="H81" s="5" t="str">
+      <c r="H81" s="6" t="str">
         <f>IF(History!A81&lt;&gt;0,MIN(History!81:81),"")</f>
         <v/>
       </c>
-      <c r="I81" s="5" t="str">
+      <c r="I81" s="6" t="str">
         <f>IF(History!A81&lt;&gt;"",History!B81,"")</f>
         <v/>
       </c>
@@ -3856,7 +3849,7 @@
       <c r="A82" s="1">
         <v>81</v>
       </c>
-      <c r="B82" s="6" t="str">
+      <c r="B82" s="5" t="str">
         <f>IF(History!A82&lt;&gt;"",History!A82,"")</f>
         <v/>
       </c>
@@ -3864,7 +3857,7 @@
         <f>IF(History!A82&lt;&gt;"",SUM(History!82:82),"")</f>
         <v/>
       </c>
-      <c r="D82" s="7" t="str">
+      <c r="D82" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -3876,15 +3869,15 @@
         <f>IF(History!A82&lt;&gt;0,COUNTIF(History!82:82,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G82" s="8" t="str">
+      <c r="G82" s="6" t="str">
         <f>IF(MAX(History!82:82)&gt;0,MAX(History!82:82),"")</f>
         <v/>
       </c>
-      <c r="H82" s="5" t="str">
+      <c r="H82" s="6" t="str">
         <f>IF(History!A82&lt;&gt;0,MIN(History!82:82),"")</f>
         <v/>
       </c>
-      <c r="I82" s="5" t="str">
+      <c r="I82" s="6" t="str">
         <f>IF(History!A82&lt;&gt;"",History!B82,"")</f>
         <v/>
       </c>
@@ -3897,7 +3890,7 @@
       <c r="A83" s="1">
         <v>82</v>
       </c>
-      <c r="B83" s="6" t="str">
+      <c r="B83" s="5" t="str">
         <f>IF(History!A83&lt;&gt;"",History!A83,"")</f>
         <v/>
       </c>
@@ -3905,7 +3898,7 @@
         <f>IF(History!A83&lt;&gt;"",SUM(History!83:83),"")</f>
         <v/>
       </c>
-      <c r="D83" s="7" t="str">
+      <c r="D83" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -3917,15 +3910,15 @@
         <f>IF(History!A83&lt;&gt;0,COUNTIF(History!83:83,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G83" s="8" t="str">
+      <c r="G83" s="6" t="str">
         <f>IF(MAX(History!83:83)&gt;0,MAX(History!83:83),"")</f>
         <v/>
       </c>
-      <c r="H83" s="5" t="str">
+      <c r="H83" s="6" t="str">
         <f>IF(History!A83&lt;&gt;0,MIN(History!83:83),"")</f>
         <v/>
       </c>
-      <c r="I83" s="5" t="str">
+      <c r="I83" s="6" t="str">
         <f>IF(History!A83&lt;&gt;"",History!B83,"")</f>
         <v/>
       </c>
@@ -3938,7 +3931,7 @@
       <c r="A84" s="1">
         <v>83</v>
       </c>
-      <c r="B84" s="6" t="str">
+      <c r="B84" s="5" t="str">
         <f>IF(History!A84&lt;&gt;"",History!A84,"")</f>
         <v/>
       </c>
@@ -3946,7 +3939,7 @@
         <f>IF(History!A84&lt;&gt;"",SUM(History!84:84),"")</f>
         <v/>
       </c>
-      <c r="D84" s="7" t="str">
+      <c r="D84" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -3958,15 +3951,15 @@
         <f>IF(History!A84&lt;&gt;0,COUNTIF(History!84:84,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G84" s="8" t="str">
+      <c r="G84" s="6" t="str">
         <f>IF(MAX(History!84:84)&gt;0,MAX(History!84:84),"")</f>
         <v/>
       </c>
-      <c r="H84" s="5" t="str">
+      <c r="H84" s="6" t="str">
         <f>IF(History!A84&lt;&gt;0,MIN(History!84:84),"")</f>
         <v/>
       </c>
-      <c r="I84" s="5" t="str">
+      <c r="I84" s="6" t="str">
         <f>IF(History!A84&lt;&gt;"",History!B84,"")</f>
         <v/>
       </c>
@@ -3979,7 +3972,7 @@
       <c r="A85" s="1">
         <v>84</v>
       </c>
-      <c r="B85" s="6" t="str">
+      <c r="B85" s="5" t="str">
         <f>IF(History!A85&lt;&gt;"",History!A85,"")</f>
         <v/>
       </c>
@@ -3987,7 +3980,7 @@
         <f>IF(History!A85&lt;&gt;"",SUM(History!85:85),"")</f>
         <v/>
       </c>
-      <c r="D85" s="7" t="str">
+      <c r="D85" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -3999,15 +3992,15 @@
         <f>IF(History!A85&lt;&gt;0,COUNTIF(History!85:85,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G85" s="8" t="str">
+      <c r="G85" s="6" t="str">
         <f>IF(MAX(History!85:85)&gt;0,MAX(History!85:85),"")</f>
         <v/>
       </c>
-      <c r="H85" s="5" t="str">
+      <c r="H85" s="6" t="str">
         <f>IF(History!A85&lt;&gt;0,MIN(History!85:85),"")</f>
         <v/>
       </c>
-      <c r="I85" s="5" t="str">
+      <c r="I85" s="6" t="str">
         <f>IF(History!A85&lt;&gt;"",History!B85,"")</f>
         <v/>
       </c>
@@ -4020,7 +4013,7 @@
       <c r="A86" s="1">
         <v>85</v>
       </c>
-      <c r="B86" s="6" t="str">
+      <c r="B86" s="5" t="str">
         <f>IF(History!A86&lt;&gt;"",History!A86,"")</f>
         <v/>
       </c>
@@ -4028,7 +4021,7 @@
         <f>IF(History!A86&lt;&gt;"",SUM(History!86:86),"")</f>
         <v/>
       </c>
-      <c r="D86" s="7" t="str">
+      <c r="D86" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4040,15 +4033,15 @@
         <f>IF(History!A86&lt;&gt;0,COUNTIF(History!86:86,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G86" s="8" t="str">
+      <c r="G86" s="6" t="str">
         <f>IF(MAX(History!86:86)&gt;0,MAX(History!86:86),"")</f>
         <v/>
       </c>
-      <c r="H86" s="5" t="str">
+      <c r="H86" s="6" t="str">
         <f>IF(History!A86&lt;&gt;0,MIN(History!86:86),"")</f>
         <v/>
       </c>
-      <c r="I86" s="5" t="str">
+      <c r="I86" s="6" t="str">
         <f>IF(History!A86&lt;&gt;"",History!B86,"")</f>
         <v/>
       </c>
@@ -4061,7 +4054,7 @@
       <c r="A87" s="1">
         <v>86</v>
       </c>
-      <c r="B87" s="6" t="str">
+      <c r="B87" s="5" t="str">
         <f>IF(History!A87&lt;&gt;"",History!A87,"")</f>
         <v/>
       </c>
@@ -4069,7 +4062,7 @@
         <f>IF(History!A87&lt;&gt;"",SUM(History!87:87),"")</f>
         <v/>
       </c>
-      <c r="D87" s="7" t="str">
+      <c r="D87" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4081,15 +4074,15 @@
         <f>IF(History!A87&lt;&gt;0,COUNTIF(History!87:87,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G87" s="8" t="str">
+      <c r="G87" s="6" t="str">
         <f>IF(MAX(History!87:87)&gt;0,MAX(History!87:87),"")</f>
         <v/>
       </c>
-      <c r="H87" s="5" t="str">
+      <c r="H87" s="6" t="str">
         <f>IF(History!A87&lt;&gt;0,MIN(History!87:87),"")</f>
         <v/>
       </c>
-      <c r="I87" s="5" t="str">
+      <c r="I87" s="6" t="str">
         <f>IF(History!A87&lt;&gt;"",History!B87,"")</f>
         <v/>
       </c>
@@ -4102,7 +4095,7 @@
       <c r="A88" s="1">
         <v>87</v>
       </c>
-      <c r="B88" s="6" t="str">
+      <c r="B88" s="5" t="str">
         <f>IF(History!A88&lt;&gt;"",History!A88,"")</f>
         <v/>
       </c>
@@ -4110,7 +4103,7 @@
         <f>IF(History!A88&lt;&gt;"",SUM(History!88:88),"")</f>
         <v/>
       </c>
-      <c r="D88" s="7" t="str">
+      <c r="D88" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4122,15 +4115,15 @@
         <f>IF(History!A88&lt;&gt;0,COUNTIF(History!88:88,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G88" s="8" t="str">
+      <c r="G88" s="6" t="str">
         <f>IF(MAX(History!88:88)&gt;0,MAX(History!88:88),"")</f>
         <v/>
       </c>
-      <c r="H88" s="5" t="str">
+      <c r="H88" s="6" t="str">
         <f>IF(History!A88&lt;&gt;0,MIN(History!88:88),"")</f>
         <v/>
       </c>
-      <c r="I88" s="5" t="str">
+      <c r="I88" s="6" t="str">
         <f>IF(History!A88&lt;&gt;"",History!B88,"")</f>
         <v/>
       </c>
@@ -4143,7 +4136,7 @@
       <c r="A89" s="1">
         <v>88</v>
       </c>
-      <c r="B89" s="6" t="str">
+      <c r="B89" s="5" t="str">
         <f>IF(History!A89&lt;&gt;"",History!A89,"")</f>
         <v/>
       </c>
@@ -4151,7 +4144,7 @@
         <f>IF(History!A89&lt;&gt;"",SUM(History!89:89),"")</f>
         <v/>
       </c>
-      <c r="D89" s="7" t="str">
+      <c r="D89" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4163,15 +4156,15 @@
         <f>IF(History!A89&lt;&gt;0,COUNTIF(History!89:89,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G89" s="8" t="str">
+      <c r="G89" s="6" t="str">
         <f>IF(MAX(History!89:89)&gt;0,MAX(History!89:89),"")</f>
         <v/>
       </c>
-      <c r="H89" s="5" t="str">
+      <c r="H89" s="6" t="str">
         <f>IF(History!A89&lt;&gt;0,MIN(History!89:89),"")</f>
         <v/>
       </c>
-      <c r="I89" s="5" t="str">
+      <c r="I89" s="6" t="str">
         <f>IF(History!A89&lt;&gt;"",History!B89,"")</f>
         <v/>
       </c>
@@ -4184,7 +4177,7 @@
       <c r="A90" s="1">
         <v>89</v>
       </c>
-      <c r="B90" s="6" t="str">
+      <c r="B90" s="5" t="str">
         <f>IF(History!A90&lt;&gt;"",History!A90,"")</f>
         <v/>
       </c>
@@ -4192,7 +4185,7 @@
         <f>IF(History!A90&lt;&gt;"",SUM(History!90:90),"")</f>
         <v/>
       </c>
-      <c r="D90" s="7" t="str">
+      <c r="D90" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4204,15 +4197,15 @@
         <f>IF(History!A90&lt;&gt;0,COUNTIF(History!90:90,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G90" s="8" t="str">
+      <c r="G90" s="6" t="str">
         <f>IF(MAX(History!90:90)&gt;0,MAX(History!90:90),"")</f>
         <v/>
       </c>
-      <c r="H90" s="5" t="str">
+      <c r="H90" s="6" t="str">
         <f>IF(History!A90&lt;&gt;0,MIN(History!90:90),"")</f>
         <v/>
       </c>
-      <c r="I90" s="5" t="str">
+      <c r="I90" s="6" t="str">
         <f>IF(History!A90&lt;&gt;"",History!B90,"")</f>
         <v/>
       </c>
@@ -4225,7 +4218,7 @@
       <c r="A91" s="1">
         <v>90</v>
       </c>
-      <c r="B91" s="6" t="str">
+      <c r="B91" s="5" t="str">
         <f>IF(History!A91&lt;&gt;"",History!A91,"")</f>
         <v/>
       </c>
@@ -4233,7 +4226,7 @@
         <f>IF(History!A91&lt;&gt;"",SUM(History!91:91),"")</f>
         <v/>
       </c>
-      <c r="D91" s="7" t="str">
+      <c r="D91" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4245,15 +4238,15 @@
         <f>IF(History!A91&lt;&gt;0,COUNTIF(History!91:91,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G91" s="8" t="str">
+      <c r="G91" s="6" t="str">
         <f>IF(MAX(History!91:91)&gt;0,MAX(History!91:91),"")</f>
         <v/>
       </c>
-      <c r="H91" s="5" t="str">
+      <c r="H91" s="6" t="str">
         <f>IF(History!A91&lt;&gt;0,MIN(History!91:91),"")</f>
         <v/>
       </c>
-      <c r="I91" s="5" t="str">
+      <c r="I91" s="6" t="str">
         <f>IF(History!A91&lt;&gt;"",History!B91,"")</f>
         <v/>
       </c>
@@ -4266,7 +4259,7 @@
       <c r="A92" s="1">
         <v>91</v>
       </c>
-      <c r="B92" s="6" t="str">
+      <c r="B92" s="5" t="str">
         <f>IF(History!A92&lt;&gt;"",History!A92,"")</f>
         <v/>
       </c>
@@ -4274,7 +4267,7 @@
         <f>IF(History!A92&lt;&gt;"",SUM(History!92:92),"")</f>
         <v/>
       </c>
-      <c r="D92" s="7" t="str">
+      <c r="D92" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4286,15 +4279,15 @@
         <f>IF(History!A92&lt;&gt;0,COUNTIF(History!92:92,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G92" s="8" t="str">
+      <c r="G92" s="6" t="str">
         <f>IF(MAX(History!92:92)&gt;0,MAX(History!92:92),"")</f>
         <v/>
       </c>
-      <c r="H92" s="5" t="str">
+      <c r="H92" s="6" t="str">
         <f>IF(History!A92&lt;&gt;0,MIN(History!92:92),"")</f>
         <v/>
       </c>
-      <c r="I92" s="5" t="str">
+      <c r="I92" s="6" t="str">
         <f>IF(History!A92&lt;&gt;"",History!B92,"")</f>
         <v/>
       </c>
@@ -4307,7 +4300,7 @@
       <c r="A93" s="1">
         <v>92</v>
       </c>
-      <c r="B93" s="6" t="str">
+      <c r="B93" s="5" t="str">
         <f>IF(History!A93&lt;&gt;"",History!A93,"")</f>
         <v/>
       </c>
@@ -4315,7 +4308,7 @@
         <f>IF(History!A93&lt;&gt;"",SUM(History!93:93),"")</f>
         <v/>
       </c>
-      <c r="D93" s="7" t="str">
+      <c r="D93" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4327,15 +4320,15 @@
         <f>IF(History!A93&lt;&gt;0,COUNTIF(History!93:93,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G93" s="8" t="str">
+      <c r="G93" s="6" t="str">
         <f>IF(MAX(History!93:93)&gt;0,MAX(History!93:93),"")</f>
         <v/>
       </c>
-      <c r="H93" s="5" t="str">
+      <c r="H93" s="6" t="str">
         <f>IF(History!A93&lt;&gt;0,MIN(History!93:93),"")</f>
         <v/>
       </c>
-      <c r="I93" s="5" t="str">
+      <c r="I93" s="6" t="str">
         <f>IF(History!A93&lt;&gt;"",History!B93,"")</f>
         <v/>
       </c>
@@ -4348,7 +4341,7 @@
       <c r="A94" s="1">
         <v>93</v>
       </c>
-      <c r="B94" s="6" t="str">
+      <c r="B94" s="5" t="str">
         <f>IF(History!A94&lt;&gt;"",History!A94,"")</f>
         <v/>
       </c>
@@ -4356,7 +4349,7 @@
         <f>IF(History!A94&lt;&gt;"",SUM(History!94:94),"")</f>
         <v/>
       </c>
-      <c r="D94" s="7" t="str">
+      <c r="D94" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4368,15 +4361,15 @@
         <f>IF(History!A94&lt;&gt;0,COUNTIF(History!94:94,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G94" s="8" t="str">
+      <c r="G94" s="6" t="str">
         <f>IF(MAX(History!94:94)&gt;0,MAX(History!94:94),"")</f>
         <v/>
       </c>
-      <c r="H94" s="5" t="str">
+      <c r="H94" s="6" t="str">
         <f>IF(History!A94&lt;&gt;0,MIN(History!94:94),"")</f>
         <v/>
       </c>
-      <c r="I94" s="5" t="str">
+      <c r="I94" s="6" t="str">
         <f>IF(History!A94&lt;&gt;"",History!B94,"")</f>
         <v/>
       </c>
@@ -4389,7 +4382,7 @@
       <c r="A95" s="1">
         <v>94</v>
       </c>
-      <c r="B95" s="6" t="str">
+      <c r="B95" s="5" t="str">
         <f>IF(History!A95&lt;&gt;"",History!A95,"")</f>
         <v/>
       </c>
@@ -4397,7 +4390,7 @@
         <f>IF(History!A95&lt;&gt;"",SUM(History!95:95),"")</f>
         <v/>
       </c>
-      <c r="D95" s="7" t="str">
+      <c r="D95" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4409,15 +4402,15 @@
         <f>IF(History!A95&lt;&gt;0,COUNTIF(History!95:95,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G95" s="8" t="str">
+      <c r="G95" s="6" t="str">
         <f>IF(MAX(History!95:95)&gt;0,MAX(History!95:95),"")</f>
         <v/>
       </c>
-      <c r="H95" s="5" t="str">
+      <c r="H95" s="6" t="str">
         <f>IF(History!A95&lt;&gt;0,MIN(History!95:95),"")</f>
         <v/>
       </c>
-      <c r="I95" s="5" t="str">
+      <c r="I95" s="6" t="str">
         <f>IF(History!A95&lt;&gt;"",History!B95,"")</f>
         <v/>
       </c>
@@ -4430,7 +4423,7 @@
       <c r="A96" s="1">
         <v>95</v>
       </c>
-      <c r="B96" s="6" t="str">
+      <c r="B96" s="5" t="str">
         <f>IF(History!A96&lt;&gt;"",History!A96,"")</f>
         <v/>
       </c>
@@ -4438,7 +4431,7 @@
         <f>IF(History!A96&lt;&gt;"",SUM(History!96:96),"")</f>
         <v/>
       </c>
-      <c r="D96" s="7" t="str">
+      <c r="D96" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4450,15 +4443,15 @@
         <f>IF(History!A96&lt;&gt;0,COUNTIF(History!96:96,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G96" s="8" t="str">
+      <c r="G96" s="6" t="str">
         <f>IF(MAX(History!96:96)&gt;0,MAX(History!96:96),"")</f>
         <v/>
       </c>
-      <c r="H96" s="5" t="str">
+      <c r="H96" s="6" t="str">
         <f>IF(History!A96&lt;&gt;0,MIN(History!96:96),"")</f>
         <v/>
       </c>
-      <c r="I96" s="5" t="str">
+      <c r="I96" s="6" t="str">
         <f>IF(History!A96&lt;&gt;"",History!B96,"")</f>
         <v/>
       </c>
@@ -4471,7 +4464,7 @@
       <c r="A97" s="1">
         <v>96</v>
       </c>
-      <c r="B97" s="6" t="str">
+      <c r="B97" s="5" t="str">
         <f>IF(History!A97&lt;&gt;"",History!A97,"")</f>
         <v/>
       </c>
@@ -4479,7 +4472,7 @@
         <f>IF(History!A97&lt;&gt;"",SUM(History!97:97),"")</f>
         <v/>
       </c>
-      <c r="D97" s="7" t="str">
+      <c r="D97" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4491,15 +4484,15 @@
         <f>IF(History!A97&lt;&gt;0,COUNTIF(History!97:97,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G97" s="8" t="str">
+      <c r="G97" s="6" t="str">
         <f>IF(MAX(History!97:97)&gt;0,MAX(History!97:97),"")</f>
         <v/>
       </c>
-      <c r="H97" s="5" t="str">
+      <c r="H97" s="6" t="str">
         <f>IF(History!A97&lt;&gt;0,MIN(History!97:97),"")</f>
         <v/>
       </c>
-      <c r="I97" s="5" t="str">
+      <c r="I97" s="6" t="str">
         <f>IF(History!A97&lt;&gt;"",History!B97,"")</f>
         <v/>
       </c>
@@ -4512,7 +4505,7 @@
       <c r="A98" s="1">
         <v>97</v>
       </c>
-      <c r="B98" s="6" t="str">
+      <c r="B98" s="5" t="str">
         <f>IF(History!A98&lt;&gt;"",History!A98,"")</f>
         <v/>
       </c>
@@ -4520,7 +4513,7 @@
         <f>IF(History!A98&lt;&gt;"",SUM(History!98:98),"")</f>
         <v/>
       </c>
-      <c r="D98" s="7" t="str">
+      <c r="D98" s="8" t="str">
         <f t="shared" ref="D98:D129" si="3">IFERROR(E98/(E98+F98),"")</f>
         <v/>
       </c>
@@ -4532,15 +4525,15 @@
         <f>IF(History!A98&lt;&gt;0,COUNTIF(History!98:98,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G98" s="8" t="str">
+      <c r="G98" s="6" t="str">
         <f>IF(MAX(History!98:98)&gt;0,MAX(History!98:98),"")</f>
         <v/>
       </c>
-      <c r="H98" s="5" t="str">
+      <c r="H98" s="6" t="str">
         <f>IF(History!A98&lt;&gt;0,MIN(History!98:98),"")</f>
         <v/>
       </c>
-      <c r="I98" s="5" t="str">
+      <c r="I98" s="6" t="str">
         <f>IF(History!A98&lt;&gt;"",History!B98,"")</f>
         <v/>
       </c>
@@ -4553,7 +4546,7 @@
       <c r="A99" s="1">
         <v>98</v>
       </c>
-      <c r="B99" s="6" t="str">
+      <c r="B99" s="5" t="str">
         <f>IF(History!A99&lt;&gt;"",History!A99,"")</f>
         <v/>
       </c>
@@ -4561,7 +4554,7 @@
         <f>IF(History!A99&lt;&gt;"",SUM(History!99:99),"")</f>
         <v/>
       </c>
-      <c r="D99" s="7" t="str">
+      <c r="D99" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -4573,15 +4566,15 @@
         <f>IF(History!A99&lt;&gt;0,COUNTIF(History!99:99,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G99" s="8" t="str">
+      <c r="G99" s="6" t="str">
         <f>IF(MAX(History!99:99)&gt;0,MAX(History!99:99),"")</f>
         <v/>
       </c>
-      <c r="H99" s="5" t="str">
+      <c r="H99" s="6" t="str">
         <f>IF(History!A99&lt;&gt;0,MIN(History!99:99),"")</f>
         <v/>
       </c>
-      <c r="I99" s="5" t="str">
+      <c r="I99" s="6" t="str">
         <f>IF(History!A99&lt;&gt;"",History!B99,"")</f>
         <v/>
       </c>
@@ -4594,7 +4587,7 @@
       <c r="A100" s="1">
         <v>99</v>
       </c>
-      <c r="B100" s="6" t="str">
+      <c r="B100" s="5" t="str">
         <f>IF(History!A100&lt;&gt;"",History!A100,"")</f>
         <v/>
       </c>
@@ -4602,7 +4595,7 @@
         <f>IF(History!A100&lt;&gt;"",SUM(History!100:100),"")</f>
         <v/>
       </c>
-      <c r="D100" s="7" t="str">
+      <c r="D100" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -4614,15 +4607,15 @@
         <f>IF(History!A100&lt;&gt;0,COUNTIF(History!100:100,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G100" s="8" t="str">
+      <c r="G100" s="6" t="str">
         <f>IF(MAX(History!100:100)&gt;0,MAX(History!100:100),"")</f>
         <v/>
       </c>
-      <c r="H100" s="5" t="str">
+      <c r="H100" s="6" t="str">
         <f>IF(History!A100&lt;&gt;0,MIN(History!100:100),"")</f>
         <v/>
       </c>
-      <c r="I100" s="5" t="str">
+      <c r="I100" s="6" t="str">
         <f>IF(History!A100&lt;&gt;"",History!B100,"")</f>
         <v/>
       </c>
@@ -4635,7 +4628,7 @@
       <c r="A101" s="1">
         <v>100</v>
       </c>
-      <c r="B101" s="6" t="str">
+      <c r="B101" s="5" t="str">
         <f>IF(History!A101&lt;&gt;"",History!A101,"")</f>
         <v/>
       </c>
@@ -4643,7 +4636,7 @@
         <f>IF(History!A101&lt;&gt;"",SUM(History!101:101),"")</f>
         <v/>
       </c>
-      <c r="D101" s="7" t="str">
+      <c r="D101" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -4655,15 +4648,15 @@
         <f>IF(History!A101&lt;&gt;0,COUNTIF(History!101:101,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G101" s="8" t="str">
+      <c r="G101" s="6" t="str">
         <f>IF(MAX(History!101:101)&gt;0,MAX(History!101:101),"")</f>
         <v/>
       </c>
-      <c r="H101" s="5" t="str">
+      <c r="H101" s="6" t="str">
         <f>IF(History!A101&lt;&gt;0,MIN(History!101:101),"")</f>
         <v/>
       </c>
-      <c r="I101" s="5" t="str">
+      <c r="I101" s="6" t="str">
         <f>IF(History!A101&lt;&gt;"",History!B101,"")</f>
         <v/>
       </c>
@@ -4676,7 +4669,7 @@
       <c r="A102" s="1">
         <v>101</v>
       </c>
-      <c r="B102" s="6" t="str">
+      <c r="B102" s="5" t="str">
         <f>IF(History!A102&lt;&gt;"",History!A102,"")</f>
         <v/>
       </c>
@@ -4684,7 +4677,7 @@
         <f>IF(History!A102&lt;&gt;"",SUM(History!102:102),"")</f>
         <v/>
       </c>
-      <c r="D102" s="7" t="str">
+      <c r="D102" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -4696,15 +4689,15 @@
         <f>IF(History!A102&lt;&gt;0,COUNTIF(History!102:102,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G102" s="8" t="str">
+      <c r="G102" s="6" t="str">
         <f>IF(MAX(History!102:102)&gt;0,MAX(History!102:102),"")</f>
         <v/>
       </c>
-      <c r="H102" s="5" t="str">
+      <c r="H102" s="6" t="str">
         <f>IF(History!A102&lt;&gt;0,MIN(History!102:102),"")</f>
         <v/>
       </c>
-      <c r="I102" s="5" t="str">
+      <c r="I102" s="6" t="str">
         <f>IF(History!A102&lt;&gt;"",History!B102,"")</f>
         <v/>
       </c>
@@ -4717,7 +4710,7 @@
       <c r="A103" s="1">
         <v>102</v>
       </c>
-      <c r="B103" s="6" t="str">
+      <c r="B103" s="5" t="str">
         <f>IF(History!A103&lt;&gt;"",History!A103,"")</f>
         <v/>
       </c>
@@ -4725,7 +4718,7 @@
         <f>IF(History!A103&lt;&gt;"",SUM(History!103:103),"")</f>
         <v/>
       </c>
-      <c r="D103" s="7" t="str">
+      <c r="D103" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -4737,15 +4730,15 @@
         <f>IF(History!A103&lt;&gt;0,COUNTIF(History!103:103,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G103" s="8" t="str">
+      <c r="G103" s="6" t="str">
         <f>IF(MAX(History!103:103)&gt;0,MAX(History!103:103),"")</f>
         <v/>
       </c>
-      <c r="H103" s="5" t="str">
+      <c r="H103" s="6" t="str">
         <f>IF(History!A103&lt;&gt;0,MIN(History!103:103),"")</f>
         <v/>
       </c>
-      <c r="I103" s="5" t="str">
+      <c r="I103" s="6" t="str">
         <f>IF(History!A103&lt;&gt;"",History!B103,"")</f>
         <v/>
       </c>
@@ -4758,7 +4751,7 @@
       <c r="A104" s="1">
         <v>103</v>
       </c>
-      <c r="B104" s="6" t="str">
+      <c r="B104" s="5" t="str">
         <f>IF(History!A104&lt;&gt;"",History!A104,"")</f>
         <v/>
       </c>
@@ -4766,7 +4759,7 @@
         <f>IF(History!A104&lt;&gt;"",SUM(History!104:104),"")</f>
         <v/>
       </c>
-      <c r="D104" s="7" t="str">
+      <c r="D104" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -4778,15 +4771,15 @@
         <f>IF(History!A104&lt;&gt;0,COUNTIF(History!104:104,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G104" s="8" t="str">
+      <c r="G104" s="6" t="str">
         <f>IF(MAX(History!104:104)&gt;0,MAX(History!104:104),"")</f>
         <v/>
       </c>
-      <c r="H104" s="5" t="str">
+      <c r="H104" s="6" t="str">
         <f>IF(History!A104&lt;&gt;0,MIN(History!104:104),"")</f>
         <v/>
       </c>
-      <c r="I104" s="5" t="str">
+      <c r="I104" s="6" t="str">
         <f>IF(History!A104&lt;&gt;"",History!B104,"")</f>
         <v/>
       </c>
@@ -4799,7 +4792,7 @@
       <c r="A105" s="1">
         <v>104</v>
       </c>
-      <c r="B105" s="6" t="str">
+      <c r="B105" s="5" t="str">
         <f>IF(History!A105&lt;&gt;"",History!A105,"")</f>
         <v/>
       </c>
@@ -4807,7 +4800,7 @@
         <f>IF(History!A105&lt;&gt;"",SUM(History!105:105),"")</f>
         <v/>
       </c>
-      <c r="D105" s="7" t="str">
+      <c r="D105" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -4819,15 +4812,15 @@
         <f>IF(History!A105&lt;&gt;0,COUNTIF(History!105:105,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G105" s="8" t="str">
+      <c r="G105" s="6" t="str">
         <f>IF(MAX(History!105:105)&gt;0,MAX(History!105:105),"")</f>
         <v/>
       </c>
-      <c r="H105" s="5" t="str">
+      <c r="H105" s="6" t="str">
         <f>IF(History!A105&lt;&gt;0,MIN(History!105:105),"")</f>
         <v/>
       </c>
-      <c r="I105" s="5" t="str">
+      <c r="I105" s="6" t="str">
         <f>IF(History!A105&lt;&gt;"",History!B105,"")</f>
         <v/>
       </c>
@@ -4840,7 +4833,7 @@
       <c r="A106" s="1">
         <v>105</v>
       </c>
-      <c r="B106" s="6" t="str">
+      <c r="B106" s="5" t="str">
         <f>IF(History!A106&lt;&gt;"",History!A106,"")</f>
         <v/>
       </c>
@@ -4848,7 +4841,7 @@
         <f>IF(History!A106&lt;&gt;"",SUM(History!106:106),"")</f>
         <v/>
       </c>
-      <c r="D106" s="7" t="str">
+      <c r="D106" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -4860,15 +4853,15 @@
         <f>IF(History!A106&lt;&gt;0,COUNTIF(History!106:106,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G106" s="8" t="str">
+      <c r="G106" s="6" t="str">
         <f>IF(MAX(History!106:106)&gt;0,MAX(History!106:106),"")</f>
         <v/>
       </c>
-      <c r="H106" s="5" t="str">
+      <c r="H106" s="6" t="str">
         <f>IF(History!A106&lt;&gt;0,MIN(History!106:106),"")</f>
         <v/>
       </c>
-      <c r="I106" s="5" t="str">
+      <c r="I106" s="6" t="str">
         <f>IF(History!A106&lt;&gt;"",History!B106,"")</f>
         <v/>
       </c>
@@ -4881,7 +4874,7 @@
       <c r="A107" s="1">
         <v>106</v>
       </c>
-      <c r="B107" s="6" t="str">
+      <c r="B107" s="5" t="str">
         <f>IF(History!A107&lt;&gt;"",History!A107,"")</f>
         <v/>
       </c>
@@ -4889,7 +4882,7 @@
         <f>IF(History!A107&lt;&gt;"",SUM(History!107:107),"")</f>
         <v/>
       </c>
-      <c r="D107" s="7" t="str">
+      <c r="D107" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -4901,15 +4894,15 @@
         <f>IF(History!A107&lt;&gt;0,COUNTIF(History!107:107,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G107" s="8" t="str">
+      <c r="G107" s="6" t="str">
         <f>IF(MAX(History!107:107)&gt;0,MAX(History!107:107),"")</f>
         <v/>
       </c>
-      <c r="H107" s="5" t="str">
+      <c r="H107" s="6" t="str">
         <f>IF(History!A107&lt;&gt;0,MIN(History!107:107),"")</f>
         <v/>
       </c>
-      <c r="I107" s="5" t="str">
+      <c r="I107" s="6" t="str">
         <f>IF(History!A107&lt;&gt;"",History!B107,"")</f>
         <v/>
       </c>
@@ -4922,7 +4915,7 @@
       <c r="A108" s="1">
         <v>107</v>
       </c>
-      <c r="B108" s="6" t="str">
+      <c r="B108" s="5" t="str">
         <f>IF(History!A108&lt;&gt;"",History!A108,"")</f>
         <v/>
       </c>
@@ -4930,7 +4923,7 @@
         <f>IF(History!A108&lt;&gt;"",SUM(History!108:108),"")</f>
         <v/>
       </c>
-      <c r="D108" s="7" t="str">
+      <c r="D108" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -4942,15 +4935,15 @@
         <f>IF(History!A108&lt;&gt;0,COUNTIF(History!108:108,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G108" s="8" t="str">
+      <c r="G108" s="6" t="str">
         <f>IF(MAX(History!108:108)&gt;0,MAX(History!108:108),"")</f>
         <v/>
       </c>
-      <c r="H108" s="5" t="str">
+      <c r="H108" s="6" t="str">
         <f>IF(History!A108&lt;&gt;0,MIN(History!108:108),"")</f>
         <v/>
       </c>
-      <c r="I108" s="5" t="str">
+      <c r="I108" s="6" t="str">
         <f>IF(History!A108&lt;&gt;"",History!B108,"")</f>
         <v/>
       </c>
@@ -4963,7 +4956,7 @@
       <c r="A109" s="1">
         <v>108</v>
       </c>
-      <c r="B109" s="6" t="str">
+      <c r="B109" s="5" t="str">
         <f>IF(History!A109&lt;&gt;"",History!A109,"")</f>
         <v/>
       </c>
@@ -4971,7 +4964,7 @@
         <f>IF(History!A109&lt;&gt;"",SUM(History!109:109),"")</f>
         <v/>
       </c>
-      <c r="D109" s="7" t="str">
+      <c r="D109" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -4983,15 +4976,15 @@
         <f>IF(History!A109&lt;&gt;0,COUNTIF(History!109:109,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G109" s="8" t="str">
+      <c r="G109" s="6" t="str">
         <f>IF(MAX(History!109:109)&gt;0,MAX(History!109:109),"")</f>
         <v/>
       </c>
-      <c r="H109" s="5" t="str">
+      <c r="H109" s="6" t="str">
         <f>IF(History!A109&lt;&gt;0,MIN(History!109:109),"")</f>
         <v/>
       </c>
-      <c r="I109" s="5" t="str">
+      <c r="I109" s="6" t="str">
         <f>IF(History!A109&lt;&gt;"",History!B109,"")</f>
         <v/>
       </c>
@@ -5004,7 +4997,7 @@
       <c r="A110" s="1">
         <v>109</v>
       </c>
-      <c r="B110" s="6" t="str">
+      <c r="B110" s="5" t="str">
         <f>IF(History!A110&lt;&gt;"",History!A110,"")</f>
         <v/>
       </c>
@@ -5012,7 +5005,7 @@
         <f>IF(History!A110&lt;&gt;"",SUM(History!110:110),"")</f>
         <v/>
       </c>
-      <c r="D110" s="7" t="str">
+      <c r="D110" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5024,15 +5017,15 @@
         <f>IF(History!A110&lt;&gt;0,COUNTIF(History!110:110,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G110" s="8" t="str">
+      <c r="G110" s="6" t="str">
         <f>IF(MAX(History!110:110)&gt;0,MAX(History!110:110),"")</f>
         <v/>
       </c>
-      <c r="H110" s="5" t="str">
+      <c r="H110" s="6" t="str">
         <f>IF(History!A110&lt;&gt;0,MIN(History!110:110),"")</f>
         <v/>
       </c>
-      <c r="I110" s="5" t="str">
+      <c r="I110" s="6" t="str">
         <f>IF(History!A110&lt;&gt;"",History!B110,"")</f>
         <v/>
       </c>
@@ -5045,7 +5038,7 @@
       <c r="A111" s="1">
         <v>110</v>
       </c>
-      <c r="B111" s="6" t="str">
+      <c r="B111" s="5" t="str">
         <f>IF(History!A111&lt;&gt;"",History!A111,"")</f>
         <v/>
       </c>
@@ -5053,7 +5046,7 @@
         <f>IF(History!A111&lt;&gt;"",SUM(History!111:111),"")</f>
         <v/>
       </c>
-      <c r="D111" s="7" t="str">
+      <c r="D111" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5065,15 +5058,15 @@
         <f>IF(History!A111&lt;&gt;0,COUNTIF(History!111:111,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G111" s="8" t="str">
+      <c r="G111" s="6" t="str">
         <f>IF(MAX(History!111:111)&gt;0,MAX(History!111:111),"")</f>
         <v/>
       </c>
-      <c r="H111" s="5" t="str">
+      <c r="H111" s="6" t="str">
         <f>IF(History!A111&lt;&gt;0,MIN(History!111:111),"")</f>
         <v/>
       </c>
-      <c r="I111" s="5" t="str">
+      <c r="I111" s="6" t="str">
         <f>IF(History!A111&lt;&gt;"",History!B111,"")</f>
         <v/>
       </c>
@@ -5086,7 +5079,7 @@
       <c r="A112" s="1">
         <v>111</v>
       </c>
-      <c r="B112" s="6" t="str">
+      <c r="B112" s="5" t="str">
         <f>IF(History!A112&lt;&gt;"",History!A112,"")</f>
         <v/>
       </c>
@@ -5094,7 +5087,7 @@
         <f>IF(History!A112&lt;&gt;"",SUM(History!112:112),"")</f>
         <v/>
       </c>
-      <c r="D112" s="7" t="str">
+      <c r="D112" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5106,15 +5099,15 @@
         <f>IF(History!A112&lt;&gt;0,COUNTIF(History!112:112,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G112" s="8" t="str">
+      <c r="G112" s="6" t="str">
         <f>IF(MAX(History!112:112)&gt;0,MAX(History!112:112),"")</f>
         <v/>
       </c>
-      <c r="H112" s="5" t="str">
+      <c r="H112" s="6" t="str">
         <f>IF(History!A112&lt;&gt;0,MIN(History!112:112),"")</f>
         <v/>
       </c>
-      <c r="I112" s="5" t="str">
+      <c r="I112" s="6" t="str">
         <f>IF(History!A112&lt;&gt;"",History!B112,"")</f>
         <v/>
       </c>
@@ -5127,7 +5120,7 @@
       <c r="A113" s="1">
         <v>112</v>
       </c>
-      <c r="B113" s="6" t="str">
+      <c r="B113" s="5" t="str">
         <f>IF(History!A113&lt;&gt;"",History!A113,"")</f>
         <v/>
       </c>
@@ -5135,7 +5128,7 @@
         <f>IF(History!A113&lt;&gt;"",SUM(History!113:113),"")</f>
         <v/>
       </c>
-      <c r="D113" s="7" t="str">
+      <c r="D113" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5147,15 +5140,15 @@
         <f>IF(History!A113&lt;&gt;0,COUNTIF(History!113:113,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G113" s="8" t="str">
+      <c r="G113" s="6" t="str">
         <f>IF(MAX(History!113:113)&gt;0,MAX(History!113:113),"")</f>
         <v/>
       </c>
-      <c r="H113" s="5" t="str">
+      <c r="H113" s="6" t="str">
         <f>IF(History!A113&lt;&gt;0,MIN(History!113:113),"")</f>
         <v/>
       </c>
-      <c r="I113" s="5" t="str">
+      <c r="I113" s="6" t="str">
         <f>IF(History!A113&lt;&gt;"",History!B113,"")</f>
         <v/>
       </c>
@@ -5168,7 +5161,7 @@
       <c r="A114" s="1">
         <v>113</v>
       </c>
-      <c r="B114" s="6" t="str">
+      <c r="B114" s="5" t="str">
         <f>IF(History!A114&lt;&gt;"",History!A114,"")</f>
         <v/>
       </c>
@@ -5176,7 +5169,7 @@
         <f>IF(History!A114&lt;&gt;"",SUM(History!114:114),"")</f>
         <v/>
       </c>
-      <c r="D114" s="7" t="str">
+      <c r="D114" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5188,15 +5181,15 @@
         <f>IF(History!A114&lt;&gt;0,COUNTIF(History!114:114,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G114" s="8" t="str">
+      <c r="G114" s="6" t="str">
         <f>IF(MAX(History!114:114)&gt;0,MAX(History!114:114),"")</f>
         <v/>
       </c>
-      <c r="H114" s="5" t="str">
+      <c r="H114" s="6" t="str">
         <f>IF(History!A114&lt;&gt;0,MIN(History!114:114),"")</f>
         <v/>
       </c>
-      <c r="I114" s="5" t="str">
+      <c r="I114" s="6" t="str">
         <f>IF(History!A114&lt;&gt;"",History!B114,"")</f>
         <v/>
       </c>
@@ -5209,7 +5202,7 @@
       <c r="A115" s="1">
         <v>114</v>
       </c>
-      <c r="B115" s="6" t="str">
+      <c r="B115" s="5" t="str">
         <f>IF(History!A115&lt;&gt;"",History!A115,"")</f>
         <v/>
       </c>
@@ -5217,7 +5210,7 @@
         <f>IF(History!A115&lt;&gt;"",SUM(History!115:115),"")</f>
         <v/>
       </c>
-      <c r="D115" s="7" t="str">
+      <c r="D115" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5229,15 +5222,15 @@
         <f>IF(History!A115&lt;&gt;0,COUNTIF(History!115:115,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G115" s="8" t="str">
+      <c r="G115" s="6" t="str">
         <f>IF(MAX(History!115:115)&gt;0,MAX(History!115:115),"")</f>
         <v/>
       </c>
-      <c r="H115" s="5" t="str">
+      <c r="H115" s="6" t="str">
         <f>IF(History!A115&lt;&gt;0,MIN(History!115:115),"")</f>
         <v/>
       </c>
-      <c r="I115" s="5" t="str">
+      <c r="I115" s="6" t="str">
         <f>IF(History!A115&lt;&gt;"",History!B115,"")</f>
         <v/>
       </c>
@@ -5250,7 +5243,7 @@
       <c r="A116" s="1">
         <v>115</v>
       </c>
-      <c r="B116" s="6" t="str">
+      <c r="B116" s="5" t="str">
         <f>IF(History!A116&lt;&gt;"",History!A116,"")</f>
         <v/>
       </c>
@@ -5258,7 +5251,7 @@
         <f>IF(History!A116&lt;&gt;"",SUM(History!116:116),"")</f>
         <v/>
       </c>
-      <c r="D116" s="7" t="str">
+      <c r="D116" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5270,15 +5263,15 @@
         <f>IF(History!A116&lt;&gt;0,COUNTIF(History!116:116,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G116" s="8" t="str">
+      <c r="G116" s="6" t="str">
         <f>IF(MAX(History!116:116)&gt;0,MAX(History!116:116),"")</f>
         <v/>
       </c>
-      <c r="H116" s="5" t="str">
+      <c r="H116" s="6" t="str">
         <f>IF(History!A116&lt;&gt;0,MIN(History!116:116),"")</f>
         <v/>
       </c>
-      <c r="I116" s="5" t="str">
+      <c r="I116" s="6" t="str">
         <f>IF(History!A116&lt;&gt;"",History!B116,"")</f>
         <v/>
       </c>
@@ -5291,7 +5284,7 @@
       <c r="A117" s="1">
         <v>116</v>
       </c>
-      <c r="B117" s="6" t="str">
+      <c r="B117" s="5" t="str">
         <f>IF(History!A117&lt;&gt;"",History!A117,"")</f>
         <v/>
       </c>
@@ -5299,7 +5292,7 @@
         <f>IF(History!A117&lt;&gt;"",SUM(History!117:117),"")</f>
         <v/>
       </c>
-      <c r="D117" s="7" t="str">
+      <c r="D117" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5311,15 +5304,15 @@
         <f>IF(History!A117&lt;&gt;0,COUNTIF(History!117:117,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G117" s="8" t="str">
+      <c r="G117" s="6" t="str">
         <f>IF(MAX(History!117:117)&gt;0,MAX(History!117:117),"")</f>
         <v/>
       </c>
-      <c r="H117" s="5" t="str">
+      <c r="H117" s="6" t="str">
         <f>IF(History!A117&lt;&gt;0,MIN(History!117:117),"")</f>
         <v/>
       </c>
-      <c r="I117" s="5" t="str">
+      <c r="I117" s="6" t="str">
         <f>IF(History!A117&lt;&gt;"",History!B117,"")</f>
         <v/>
       </c>
@@ -5332,7 +5325,7 @@
       <c r="A118" s="1">
         <v>117</v>
       </c>
-      <c r="B118" s="6" t="str">
+      <c r="B118" s="5" t="str">
         <f>IF(History!A118&lt;&gt;"",History!A118,"")</f>
         <v/>
       </c>
@@ -5340,7 +5333,7 @@
         <f>IF(History!A118&lt;&gt;"",SUM(History!118:118),"")</f>
         <v/>
       </c>
-      <c r="D118" s="7" t="str">
+      <c r="D118" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5352,15 +5345,15 @@
         <f>IF(History!A118&lt;&gt;0,COUNTIF(History!118:118,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G118" s="8" t="str">
+      <c r="G118" s="6" t="str">
         <f>IF(MAX(History!118:118)&gt;0,MAX(History!118:118),"")</f>
         <v/>
       </c>
-      <c r="H118" s="5" t="str">
+      <c r="H118" s="6" t="str">
         <f>IF(History!A118&lt;&gt;0,MIN(History!118:118),"")</f>
         <v/>
       </c>
-      <c r="I118" s="5" t="str">
+      <c r="I118" s="6" t="str">
         <f>IF(History!A118&lt;&gt;"",History!B118,"")</f>
         <v/>
       </c>
@@ -5373,7 +5366,7 @@
       <c r="A119" s="1">
         <v>118</v>
       </c>
-      <c r="B119" s="6" t="str">
+      <c r="B119" s="5" t="str">
         <f>IF(History!A119&lt;&gt;"",History!A119,"")</f>
         <v/>
       </c>
@@ -5381,7 +5374,7 @@
         <f>IF(History!A119&lt;&gt;"",SUM(History!119:119),"")</f>
         <v/>
       </c>
-      <c r="D119" s="7" t="str">
+      <c r="D119" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5393,15 +5386,15 @@
         <f>IF(History!A119&lt;&gt;0,COUNTIF(History!119:119,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G119" s="8" t="str">
+      <c r="G119" s="6" t="str">
         <f>IF(MAX(History!119:119)&gt;0,MAX(History!119:119),"")</f>
         <v/>
       </c>
-      <c r="H119" s="5" t="str">
+      <c r="H119" s="6" t="str">
         <f>IF(History!A119&lt;&gt;0,MIN(History!119:119),"")</f>
         <v/>
       </c>
-      <c r="I119" s="5" t="str">
+      <c r="I119" s="6" t="str">
         <f>IF(History!A119&lt;&gt;"",History!B119,"")</f>
         <v/>
       </c>
@@ -5414,7 +5407,7 @@
       <c r="A120" s="1">
         <v>119</v>
       </c>
-      <c r="B120" s="6" t="str">
+      <c r="B120" s="5" t="str">
         <f>IF(History!A120&lt;&gt;"",History!A120,"")</f>
         <v/>
       </c>
@@ -5422,7 +5415,7 @@
         <f>IF(History!A120&lt;&gt;"",SUM(History!120:120),"")</f>
         <v/>
       </c>
-      <c r="D120" s="7" t="str">
+      <c r="D120" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5434,15 +5427,15 @@
         <f>IF(History!A120&lt;&gt;0,COUNTIF(History!120:120,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G120" s="8" t="str">
+      <c r="G120" s="6" t="str">
         <f>IF(MAX(History!120:120)&gt;0,MAX(History!120:120),"")</f>
         <v/>
       </c>
-      <c r="H120" s="5" t="str">
+      <c r="H120" s="6" t="str">
         <f>IF(History!A120&lt;&gt;0,MIN(History!120:120),"")</f>
         <v/>
       </c>
-      <c r="I120" s="5" t="str">
+      <c r="I120" s="6" t="str">
         <f>IF(History!A120&lt;&gt;"",History!B120,"")</f>
         <v/>
       </c>
@@ -5455,7 +5448,7 @@
       <c r="A121" s="1">
         <v>120</v>
       </c>
-      <c r="B121" s="6" t="str">
+      <c r="B121" s="5" t="str">
         <f>IF(History!A121&lt;&gt;"",History!A121,"")</f>
         <v/>
       </c>
@@ -5463,7 +5456,7 @@
         <f>IF(History!A121&lt;&gt;"",SUM(History!121:121),"")</f>
         <v/>
       </c>
-      <c r="D121" s="7" t="str">
+      <c r="D121" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5475,15 +5468,15 @@
         <f>IF(History!A121&lt;&gt;0,COUNTIF(History!121:121,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G121" s="8" t="str">
+      <c r="G121" s="6" t="str">
         <f>IF(MAX(History!121:121)&gt;0,MAX(History!121:121),"")</f>
         <v/>
       </c>
-      <c r="H121" s="5" t="str">
+      <c r="H121" s="6" t="str">
         <f>IF(History!A121&lt;&gt;0,MIN(History!121:121),"")</f>
         <v/>
       </c>
-      <c r="I121" s="5" t="str">
+      <c r="I121" s="6" t="str">
         <f>IF(History!A121&lt;&gt;"",History!B121,"")</f>
         <v/>
       </c>
@@ -5496,7 +5489,7 @@
       <c r="A122" s="1">
         <v>121</v>
       </c>
-      <c r="B122" s="6" t="str">
+      <c r="B122" s="5" t="str">
         <f>IF(History!A122&lt;&gt;"",History!A122,"")</f>
         <v/>
       </c>
@@ -5504,7 +5497,7 @@
         <f>IF(History!A122&lt;&gt;"",SUM(History!122:122),"")</f>
         <v/>
       </c>
-      <c r="D122" s="7" t="str">
+      <c r="D122" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5516,15 +5509,15 @@
         <f>IF(History!A122&lt;&gt;0,COUNTIF(History!122:122,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G122" s="8" t="str">
+      <c r="G122" s="6" t="str">
         <f>IF(MAX(History!122:122)&gt;0,MAX(History!122:122),"")</f>
         <v/>
       </c>
-      <c r="H122" s="5" t="str">
+      <c r="H122" s="6" t="str">
         <f>IF(History!A122&lt;&gt;0,MIN(History!122:122),"")</f>
         <v/>
       </c>
-      <c r="I122" s="5" t="str">
+      <c r="I122" s="6" t="str">
         <f>IF(History!A122&lt;&gt;"",History!B122,"")</f>
         <v/>
       </c>
@@ -5537,7 +5530,7 @@
       <c r="A123" s="1">
         <v>122</v>
       </c>
-      <c r="B123" s="6" t="str">
+      <c r="B123" s="5" t="str">
         <f>IF(History!A123&lt;&gt;"",History!A123,"")</f>
         <v/>
       </c>
@@ -5545,7 +5538,7 @@
         <f>IF(History!A123&lt;&gt;"",SUM(History!123:123),"")</f>
         <v/>
       </c>
-      <c r="D123" s="7" t="str">
+      <c r="D123" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5557,15 +5550,15 @@
         <f>IF(History!A123&lt;&gt;0,COUNTIF(History!123:123,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G123" s="8" t="str">
+      <c r="G123" s="6" t="str">
         <f>IF(MAX(History!123:123)&gt;0,MAX(History!123:123),"")</f>
         <v/>
       </c>
-      <c r="H123" s="5" t="str">
+      <c r="H123" s="6" t="str">
         <f>IF(History!A123&lt;&gt;0,MIN(History!123:123),"")</f>
         <v/>
       </c>
-      <c r="I123" s="5" t="str">
+      <c r="I123" s="6" t="str">
         <f>IF(History!A123&lt;&gt;"",History!B123,"")</f>
         <v/>
       </c>
@@ -5578,7 +5571,7 @@
       <c r="A124" s="1">
         <v>123</v>
       </c>
-      <c r="B124" s="6" t="str">
+      <c r="B124" s="5" t="str">
         <f>IF(History!A124&lt;&gt;"",History!A124,"")</f>
         <v/>
       </c>
@@ -5586,7 +5579,7 @@
         <f>IF(History!A124&lt;&gt;"",SUM(History!124:124),"")</f>
         <v/>
       </c>
-      <c r="D124" s="7" t="str">
+      <c r="D124" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5598,15 +5591,15 @@
         <f>IF(History!A124&lt;&gt;0,COUNTIF(History!124:124,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G124" s="8" t="str">
+      <c r="G124" s="6" t="str">
         <f>IF(MAX(History!124:124)&gt;0,MAX(History!124:124),"")</f>
         <v/>
       </c>
-      <c r="H124" s="5" t="str">
+      <c r="H124" s="6" t="str">
         <f>IF(History!A124&lt;&gt;0,MIN(History!124:124),"")</f>
         <v/>
       </c>
-      <c r="I124" s="5" t="str">
+      <c r="I124" s="6" t="str">
         <f>IF(History!A124&lt;&gt;"",History!B124,"")</f>
         <v/>
       </c>
@@ -5619,7 +5612,7 @@
       <c r="A125" s="1">
         <v>124</v>
       </c>
-      <c r="B125" s="6" t="str">
+      <c r="B125" s="5" t="str">
         <f>IF(History!A125&lt;&gt;"",History!A125,"")</f>
         <v/>
       </c>
@@ -5627,7 +5620,7 @@
         <f>IF(History!A125&lt;&gt;"",SUM(History!125:125),"")</f>
         <v/>
       </c>
-      <c r="D125" s="7" t="str">
+      <c r="D125" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5639,15 +5632,15 @@
         <f>IF(History!A125&lt;&gt;0,COUNTIF(History!125:125,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G125" s="8" t="str">
+      <c r="G125" s="6" t="str">
         <f>IF(MAX(History!125:125)&gt;0,MAX(History!125:125),"")</f>
         <v/>
       </c>
-      <c r="H125" s="5" t="str">
+      <c r="H125" s="6" t="str">
         <f>IF(History!A125&lt;&gt;0,MIN(History!125:125),"")</f>
         <v/>
       </c>
-      <c r="I125" s="5" t="str">
+      <c r="I125" s="6" t="str">
         <f>IF(History!A125&lt;&gt;"",History!B125,"")</f>
         <v/>
       </c>
@@ -5660,7 +5653,7 @@
       <c r="A126" s="1">
         <v>125</v>
       </c>
-      <c r="B126" s="6" t="str">
+      <c r="B126" s="5" t="str">
         <f>IF(History!A126&lt;&gt;"",History!A126,"")</f>
         <v/>
       </c>
@@ -5668,7 +5661,7 @@
         <f>IF(History!A126&lt;&gt;"",SUM(History!126:126),"")</f>
         <v/>
       </c>
-      <c r="D126" s="7" t="str">
+      <c r="D126" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5680,15 +5673,15 @@
         <f>IF(History!A126&lt;&gt;0,COUNTIF(History!126:126,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G126" s="8" t="str">
+      <c r="G126" s="6" t="str">
         <f>IF(MAX(History!126:126)&gt;0,MAX(History!126:126),"")</f>
         <v/>
       </c>
-      <c r="H126" s="5" t="str">
+      <c r="H126" s="6" t="str">
         <f>IF(History!A126&lt;&gt;0,MIN(History!126:126),"")</f>
         <v/>
       </c>
-      <c r="I126" s="5" t="str">
+      <c r="I126" s="6" t="str">
         <f>IF(History!A126&lt;&gt;"",History!B126,"")</f>
         <v/>
       </c>
@@ -5701,7 +5694,7 @@
       <c r="A127" s="1">
         <v>126</v>
       </c>
-      <c r="B127" s="6" t="str">
+      <c r="B127" s="5" t="str">
         <f>IF(History!A127&lt;&gt;"",History!A127,"")</f>
         <v/>
       </c>
@@ -5709,7 +5702,7 @@
         <f>IF(History!A127&lt;&gt;"",SUM(History!127:127),"")</f>
         <v/>
       </c>
-      <c r="D127" s="7" t="str">
+      <c r="D127" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5721,15 +5714,15 @@
         <f>IF(History!A127&lt;&gt;0,COUNTIF(History!127:127,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G127" s="8" t="str">
+      <c r="G127" s="6" t="str">
         <f>IF(MAX(History!127:127)&gt;0,MAX(History!127:127),"")</f>
         <v/>
       </c>
-      <c r="H127" s="5" t="str">
+      <c r="H127" s="6" t="str">
         <f>IF(History!A127&lt;&gt;0,MIN(History!127:127),"")</f>
         <v/>
       </c>
-      <c r="I127" s="5" t="str">
+      <c r="I127" s="6" t="str">
         <f>IF(History!A127&lt;&gt;"",History!B127,"")</f>
         <v/>
       </c>
@@ -5742,7 +5735,7 @@
       <c r="A128" s="1">
         <v>127</v>
       </c>
-      <c r="B128" s="6" t="str">
+      <c r="B128" s="5" t="str">
         <f>IF(History!A128&lt;&gt;"",History!A128,"")</f>
         <v/>
       </c>
@@ -5750,7 +5743,7 @@
         <f>IF(History!A128&lt;&gt;"",SUM(History!128:128),"")</f>
         <v/>
       </c>
-      <c r="D128" s="7" t="str">
+      <c r="D128" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5762,15 +5755,15 @@
         <f>IF(History!A128&lt;&gt;0,COUNTIF(History!128:128,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G128" s="8" t="str">
+      <c r="G128" s="6" t="str">
         <f>IF(MAX(History!128:128)&gt;0,MAX(History!128:128),"")</f>
         <v/>
       </c>
-      <c r="H128" s="5" t="str">
+      <c r="H128" s="6" t="str">
         <f>IF(History!A128&lt;&gt;0,MIN(History!128:128),"")</f>
         <v/>
       </c>
-      <c r="I128" s="5" t="str">
+      <c r="I128" s="6" t="str">
         <f>IF(History!A128&lt;&gt;"",History!B128,"")</f>
         <v/>
       </c>
@@ -5783,7 +5776,7 @@
       <c r="A129" s="1">
         <v>128</v>
       </c>
-      <c r="B129" s="6" t="str">
+      <c r="B129" s="5" t="str">
         <f>IF(History!A129&lt;&gt;"",History!A129,"")</f>
         <v/>
       </c>
@@ -5791,7 +5784,7 @@
         <f>IF(History!A129&lt;&gt;"",SUM(History!129:129),"")</f>
         <v/>
       </c>
-      <c r="D129" s="7" t="str">
+      <c r="D129" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5803,15 +5796,15 @@
         <f>IF(History!A129&lt;&gt;0,COUNTIF(History!129:129,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G129" s="8" t="str">
+      <c r="G129" s="6" t="str">
         <f>IF(MAX(History!129:129)&gt;0,MAX(History!129:129),"")</f>
         <v/>
       </c>
-      <c r="H129" s="5" t="str">
+      <c r="H129" s="6" t="str">
         <f>IF(History!A129&lt;&gt;0,MIN(History!129:129),"")</f>
         <v/>
       </c>
-      <c r="I129" s="5" t="str">
+      <c r="I129" s="6" t="str">
         <f>IF(History!A129&lt;&gt;"",History!B129,"")</f>
         <v/>
       </c>
@@ -5824,7 +5817,7 @@
       <c r="A130" s="1">
         <v>129</v>
       </c>
-      <c r="B130" s="6" t="str">
+      <c r="B130" s="5" t="str">
         <f>IF(History!A130&lt;&gt;"",History!A130,"")</f>
         <v/>
       </c>
@@ -5832,8 +5825,8 @@
         <f>IF(History!A130&lt;&gt;"",SUM(History!130:130),"")</f>
         <v/>
       </c>
-      <c r="D130" s="7" t="str">
-        <f t="shared" ref="D130:D151" si="4">IFERROR(E130/(E130+F130),"")</f>
+      <c r="D130" s="8" t="str">
+        <f t="shared" ref="D130:D161" si="4">IFERROR(E130/(E130+F130),"")</f>
         <v/>
       </c>
       <c r="E130" s="4" t="str">
@@ -5844,15 +5837,15 @@
         <f>IF(History!A130&lt;&gt;0,COUNTIF(History!130:130,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G130" s="8" t="str">
+      <c r="G130" s="6" t="str">
         <f>IF(MAX(History!130:130)&gt;0,MAX(History!130:130),"")</f>
         <v/>
       </c>
-      <c r="H130" s="5" t="str">
+      <c r="H130" s="6" t="str">
         <f>IF(History!A130&lt;&gt;0,MIN(History!130:130),"")</f>
         <v/>
       </c>
-      <c r="I130" s="5" t="str">
+      <c r="I130" s="6" t="str">
         <f>IF(History!A130&lt;&gt;"",History!B130,"")</f>
         <v/>
       </c>
@@ -5865,7 +5858,7 @@
       <c r="A131" s="1">
         <v>130</v>
       </c>
-      <c r="B131" s="6" t="str">
+      <c r="B131" s="5" t="str">
         <f>IF(History!A131&lt;&gt;"",History!A131,"")</f>
         <v/>
       </c>
@@ -5873,7 +5866,7 @@
         <f>IF(History!A131&lt;&gt;"",SUM(History!131:131),"")</f>
         <v/>
       </c>
-      <c r="D131" s="7" t="str">
+      <c r="D131" s="8" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5885,15 +5878,15 @@
         <f>IF(History!A131&lt;&gt;0,COUNTIF(History!131:131,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G131" s="8" t="str">
+      <c r="G131" s="6" t="str">
         <f>IF(MAX(History!131:131)&gt;0,MAX(History!131:131),"")</f>
         <v/>
       </c>
-      <c r="H131" s="5" t="str">
+      <c r="H131" s="6" t="str">
         <f>IF(History!A131&lt;&gt;0,MIN(History!131:131),"")</f>
         <v/>
       </c>
-      <c r="I131" s="5" t="str">
+      <c r="I131" s="6" t="str">
         <f>IF(History!A131&lt;&gt;"",History!B131,"")</f>
         <v/>
       </c>
@@ -5906,7 +5899,7 @@
       <c r="A132" s="1">
         <v>131</v>
       </c>
-      <c r="B132" s="6" t="str">
+      <c r="B132" s="5" t="str">
         <f>IF(History!A132&lt;&gt;"",History!A132,"")</f>
         <v/>
       </c>
@@ -5914,7 +5907,7 @@
         <f>IF(History!A132&lt;&gt;"",SUM(History!132:132),"")</f>
         <v/>
       </c>
-      <c r="D132" s="7" t="str">
+      <c r="D132" s="8" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5926,15 +5919,15 @@
         <f>IF(History!A132&lt;&gt;0,COUNTIF(History!132:132,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G132" s="8" t="str">
+      <c r="G132" s="6" t="str">
         <f>IF(MAX(History!132:132)&gt;0,MAX(History!132:132),"")</f>
         <v/>
       </c>
-      <c r="H132" s="5" t="str">
+      <c r="H132" s="6" t="str">
         <f>IF(History!A132&lt;&gt;0,MIN(History!132:132),"")</f>
         <v/>
       </c>
-      <c r="I132" s="5" t="str">
+      <c r="I132" s="6" t="str">
         <f>IF(History!A132&lt;&gt;"",History!B132,"")</f>
         <v/>
       </c>
@@ -5947,7 +5940,7 @@
       <c r="A133" s="1">
         <v>132</v>
       </c>
-      <c r="B133" s="6" t="str">
+      <c r="B133" s="5" t="str">
         <f>IF(History!A133&lt;&gt;"",History!A133,"")</f>
         <v/>
       </c>
@@ -5955,7 +5948,7 @@
         <f>IF(History!A133&lt;&gt;"",SUM(History!133:133),"")</f>
         <v/>
       </c>
-      <c r="D133" s="7" t="str">
+      <c r="D133" s="8" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5967,15 +5960,15 @@
         <f>IF(History!A133&lt;&gt;0,COUNTIF(History!133:133,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G133" s="8" t="str">
+      <c r="G133" s="6" t="str">
         <f>IF(MAX(History!133:133)&gt;0,MAX(History!133:133),"")</f>
         <v/>
       </c>
-      <c r="H133" s="5" t="str">
+      <c r="H133" s="6" t="str">
         <f>IF(History!A133&lt;&gt;0,MIN(History!133:133),"")</f>
         <v/>
       </c>
-      <c r="I133" s="5" t="str">
+      <c r="I133" s="6" t="str">
         <f>IF(History!A133&lt;&gt;"",History!B133,"")</f>
         <v/>
       </c>
@@ -5988,7 +5981,7 @@
       <c r="A134" s="1">
         <v>133</v>
       </c>
-      <c r="B134" s="6" t="str">
+      <c r="B134" s="5" t="str">
         <f>IF(History!A134&lt;&gt;"",History!A134,"")</f>
         <v/>
       </c>
@@ -5996,7 +5989,7 @@
         <f>IF(History!A134&lt;&gt;"",SUM(History!134:134),"")</f>
         <v/>
       </c>
-      <c r="D134" s="7" t="str">
+      <c r="D134" s="8" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6008,15 +6001,15 @@
         <f>IF(History!A134&lt;&gt;0,COUNTIF(History!134:134,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G134" s="8" t="str">
+      <c r="G134" s="6" t="str">
         <f>IF(MAX(History!134:134)&gt;0,MAX(History!134:134),"")</f>
         <v/>
       </c>
-      <c r="H134" s="5" t="str">
+      <c r="H134" s="6" t="str">
         <f>IF(History!A134&lt;&gt;0,MIN(History!134:134),"")</f>
         <v/>
       </c>
-      <c r="I134" s="5" t="str">
+      <c r="I134" s="6" t="str">
         <f>IF(History!A134&lt;&gt;"",History!B134,"")</f>
         <v/>
       </c>
@@ -6029,7 +6022,7 @@
       <c r="A135" s="1">
         <v>134</v>
       </c>
-      <c r="B135" s="6" t="str">
+      <c r="B135" s="5" t="str">
         <f>IF(History!A135&lt;&gt;"",History!A135,"")</f>
         <v/>
       </c>
@@ -6037,7 +6030,7 @@
         <f>IF(History!A135&lt;&gt;"",SUM(History!135:135),"")</f>
         <v/>
       </c>
-      <c r="D135" s="7" t="str">
+      <c r="D135" s="8" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6049,15 +6042,15 @@
         <f>IF(History!A135&lt;&gt;0,COUNTIF(History!135:135,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G135" s="8" t="str">
+      <c r="G135" s="6" t="str">
         <f>IF(MAX(History!135:135)&gt;0,MAX(History!135:135),"")</f>
         <v/>
       </c>
-      <c r="H135" s="5" t="str">
+      <c r="H135" s="6" t="str">
         <f>IF(History!A135&lt;&gt;0,MIN(History!135:135),"")</f>
         <v/>
       </c>
-      <c r="I135" s="5" t="str">
+      <c r="I135" s="6" t="str">
         <f>IF(History!A135&lt;&gt;"",History!B135,"")</f>
         <v/>
       </c>
@@ -6070,7 +6063,7 @@
       <c r="A136" s="1">
         <v>135</v>
       </c>
-      <c r="B136" s="6" t="str">
+      <c r="B136" s="5" t="str">
         <f>IF(History!A136&lt;&gt;"",History!A136,"")</f>
         <v/>
       </c>
@@ -6078,7 +6071,7 @@
         <f>IF(History!A136&lt;&gt;"",SUM(History!136:136),"")</f>
         <v/>
       </c>
-      <c r="D136" s="7" t="str">
+      <c r="D136" s="8" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6090,15 +6083,15 @@
         <f>IF(History!A136&lt;&gt;0,COUNTIF(History!136:136,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G136" s="8" t="str">
+      <c r="G136" s="6" t="str">
         <f>IF(MAX(History!136:136)&gt;0,MAX(History!136:136),"")</f>
         <v/>
       </c>
-      <c r="H136" s="5" t="str">
+      <c r="H136" s="6" t="str">
         <f>IF(History!A136&lt;&gt;0,MIN(History!136:136),"")</f>
         <v/>
       </c>
-      <c r="I136" s="5" t="str">
+      <c r="I136" s="6" t="str">
         <f>IF(History!A136&lt;&gt;"",History!B136,"")</f>
         <v/>
       </c>
@@ -6111,7 +6104,7 @@
       <c r="A137" s="1">
         <v>136</v>
       </c>
-      <c r="B137" s="6" t="str">
+      <c r="B137" s="5" t="str">
         <f>IF(History!A137&lt;&gt;"",History!A137,"")</f>
         <v/>
       </c>
@@ -6119,7 +6112,7 @@
         <f>IF(History!A137&lt;&gt;"",SUM(History!137:137),"")</f>
         <v/>
       </c>
-      <c r="D137" s="7" t="str">
+      <c r="D137" s="8" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6131,15 +6124,15 @@
         <f>IF(History!A137&lt;&gt;0,COUNTIF(History!137:137,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G137" s="8" t="str">
+      <c r="G137" s="6" t="str">
         <f>IF(MAX(History!137:137)&gt;0,MAX(History!137:137),"")</f>
         <v/>
       </c>
-      <c r="H137" s="5" t="str">
+      <c r="H137" s="6" t="str">
         <f>IF(History!A137&lt;&gt;0,MIN(History!137:137),"")</f>
         <v/>
       </c>
-      <c r="I137" s="5" t="str">
+      <c r="I137" s="6" t="str">
         <f>IF(History!A137&lt;&gt;"",History!B137,"")</f>
         <v/>
       </c>
@@ -6152,7 +6145,7 @@
       <c r="A138" s="1">
         <v>137</v>
       </c>
-      <c r="B138" s="6" t="str">
+      <c r="B138" s="5" t="str">
         <f>IF(History!A138&lt;&gt;"",History!A138,"")</f>
         <v/>
       </c>
@@ -6160,7 +6153,7 @@
         <f>IF(History!A138&lt;&gt;"",SUM(History!138:138),"")</f>
         <v/>
       </c>
-      <c r="D138" s="7" t="str">
+      <c r="D138" s="8" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6172,15 +6165,15 @@
         <f>IF(History!A138&lt;&gt;0,COUNTIF(History!138:138,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G138" s="8" t="str">
+      <c r="G138" s="6" t="str">
         <f>IF(MAX(History!138:138)&gt;0,MAX(History!138:138),"")</f>
         <v/>
       </c>
-      <c r="H138" s="5" t="str">
+      <c r="H138" s="6" t="str">
         <f>IF(History!A138&lt;&gt;0,MIN(History!138:138),"")</f>
         <v/>
       </c>
-      <c r="I138" s="5" t="str">
+      <c r="I138" s="6" t="str">
         <f>IF(History!A138&lt;&gt;"",History!B138,"")</f>
         <v/>
       </c>
@@ -6193,7 +6186,7 @@
       <c r="A139" s="1">
         <v>138</v>
       </c>
-      <c r="B139" s="6" t="str">
+      <c r="B139" s="5" t="str">
         <f>IF(History!A139&lt;&gt;"",History!A139,"")</f>
         <v/>
       </c>
@@ -6201,7 +6194,7 @@
         <f>IF(History!A139&lt;&gt;"",SUM(History!139:139),"")</f>
         <v/>
       </c>
-      <c r="D139" s="7" t="str">
+      <c r="D139" s="8" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6213,15 +6206,15 @@
         <f>IF(History!A139&lt;&gt;0,COUNTIF(History!139:139,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G139" s="8" t="str">
+      <c r="G139" s="6" t="str">
         <f>IF(MAX(History!139:139)&gt;0,MAX(History!139:139),"")</f>
         <v/>
       </c>
-      <c r="H139" s="5" t="str">
+      <c r="H139" s="6" t="str">
         <f>IF(History!A139&lt;&gt;0,MIN(History!139:139),"")</f>
         <v/>
       </c>
-      <c r="I139" s="5" t="str">
+      <c r="I139" s="6" t="str">
         <f>IF(History!A139&lt;&gt;"",History!B139,"")</f>
         <v/>
       </c>
@@ -6234,7 +6227,7 @@
       <c r="A140" s="1">
         <v>139</v>
       </c>
-      <c r="B140" s="6" t="str">
+      <c r="B140" s="5" t="str">
         <f>IF(History!A140&lt;&gt;"",History!A140,"")</f>
         <v/>
       </c>
@@ -6242,7 +6235,7 @@
         <f>IF(History!A140&lt;&gt;"",SUM(History!140:140),"")</f>
         <v/>
       </c>
-      <c r="D140" s="7" t="str">
+      <c r="D140" s="8" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6254,15 +6247,15 @@
         <f>IF(History!A140&lt;&gt;0,COUNTIF(History!140:140,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G140" s="8" t="str">
+      <c r="G140" s="6" t="str">
         <f>IF(MAX(History!140:140)&gt;0,MAX(History!140:140),"")</f>
         <v/>
       </c>
-      <c r="H140" s="5" t="str">
+      <c r="H140" s="6" t="str">
         <f>IF(History!A140&lt;&gt;0,MIN(History!140:140),"")</f>
         <v/>
       </c>
-      <c r="I140" s="5" t="str">
+      <c r="I140" s="6" t="str">
         <f>IF(History!A140&lt;&gt;"",History!B140,"")</f>
         <v/>
       </c>
@@ -6275,7 +6268,7 @@
       <c r="A141" s="1">
         <v>140</v>
       </c>
-      <c r="B141" s="6" t="str">
+      <c r="B141" s="5" t="str">
         <f>IF(History!A141&lt;&gt;"",History!A141,"")</f>
         <v/>
       </c>
@@ -6283,7 +6276,7 @@
         <f>IF(History!A141&lt;&gt;"",SUM(History!141:141),"")</f>
         <v/>
       </c>
-      <c r="D141" s="7" t="str">
+      <c r="D141" s="8" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6295,15 +6288,15 @@
         <f>IF(History!A141&lt;&gt;0,COUNTIF(History!141:141,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G141" s="8" t="str">
+      <c r="G141" s="6" t="str">
         <f>IF(MAX(History!141:141)&gt;0,MAX(History!141:141),"")</f>
         <v/>
       </c>
-      <c r="H141" s="5" t="str">
+      <c r="H141" s="6" t="str">
         <f>IF(History!A141&lt;&gt;0,MIN(History!141:141),"")</f>
         <v/>
       </c>
-      <c r="I141" s="5" t="str">
+      <c r="I141" s="6" t="str">
         <f>IF(History!A141&lt;&gt;"",History!B141,"")</f>
         <v/>
       </c>
@@ -6316,7 +6309,7 @@
       <c r="A142" s="1">
         <v>141</v>
       </c>
-      <c r="B142" s="6" t="str">
+      <c r="B142" s="5" t="str">
         <f>IF(History!A142&lt;&gt;"",History!A142,"")</f>
         <v/>
       </c>
@@ -6324,7 +6317,7 @@
         <f>IF(History!A142&lt;&gt;"",SUM(History!142:142),"")</f>
         <v/>
       </c>
-      <c r="D142" s="7" t="str">
+      <c r="D142" s="8" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6336,15 +6329,15 @@
         <f>IF(History!A142&lt;&gt;0,COUNTIF(History!142:142,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G142" s="8" t="str">
+      <c r="G142" s="6" t="str">
         <f>IF(MAX(History!142:142)&gt;0,MAX(History!142:142),"")</f>
         <v/>
       </c>
-      <c r="H142" s="5" t="str">
+      <c r="H142" s="6" t="str">
         <f>IF(History!A142&lt;&gt;0,MIN(History!142:142),"")</f>
         <v/>
       </c>
-      <c r="I142" s="5" t="str">
+      <c r="I142" s="6" t="str">
         <f>IF(History!A142&lt;&gt;"",History!B142,"")</f>
         <v/>
       </c>
@@ -6357,7 +6350,7 @@
       <c r="A143" s="1">
         <v>142</v>
       </c>
-      <c r="B143" s="6" t="str">
+      <c r="B143" s="5" t="str">
         <f>IF(History!A143&lt;&gt;"",History!A143,"")</f>
         <v/>
       </c>
@@ -6365,7 +6358,7 @@
         <f>IF(History!A143&lt;&gt;"",SUM(History!143:143),"")</f>
         <v/>
       </c>
-      <c r="D143" s="7" t="str">
+      <c r="D143" s="8" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6377,15 +6370,15 @@
         <f>IF(History!A143&lt;&gt;0,COUNTIF(History!143:143,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G143" s="8" t="str">
+      <c r="G143" s="6" t="str">
         <f>IF(MAX(History!143:143)&gt;0,MAX(History!143:143),"")</f>
         <v/>
       </c>
-      <c r="H143" s="5" t="str">
+      <c r="H143" s="6" t="str">
         <f>IF(History!A143&lt;&gt;0,MIN(History!143:143),"")</f>
         <v/>
       </c>
-      <c r="I143" s="5" t="str">
+      <c r="I143" s="6" t="str">
         <f>IF(History!A143&lt;&gt;"",History!B143,"")</f>
         <v/>
       </c>
@@ -6398,7 +6391,7 @@
       <c r="A144" s="1">
         <v>143</v>
       </c>
-      <c r="B144" s="6" t="str">
+      <c r="B144" s="5" t="str">
         <f>IF(History!A144&lt;&gt;"",History!A144,"")</f>
         <v/>
       </c>
@@ -6406,7 +6399,7 @@
         <f>IF(History!A144&lt;&gt;"",SUM(History!144:144),"")</f>
         <v/>
       </c>
-      <c r="D144" s="7" t="str">
+      <c r="D144" s="8" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6418,15 +6411,15 @@
         <f>IF(History!A144&lt;&gt;0,COUNTIF(History!144:144,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G144" s="8" t="str">
+      <c r="G144" s="6" t="str">
         <f>IF(MAX(History!144:144)&gt;0,MAX(History!144:144),"")</f>
         <v/>
       </c>
-      <c r="H144" s="5" t="str">
+      <c r="H144" s="6" t="str">
         <f>IF(History!A144&lt;&gt;0,MIN(History!144:144),"")</f>
         <v/>
       </c>
-      <c r="I144" s="5" t="str">
+      <c r="I144" s="6" t="str">
         <f>IF(History!A144&lt;&gt;"",History!B144,"")</f>
         <v/>
       </c>
@@ -6439,7 +6432,7 @@
       <c r="A145" s="1">
         <v>144</v>
       </c>
-      <c r="B145" s="6" t="str">
+      <c r="B145" s="5" t="str">
         <f>IF(History!A145&lt;&gt;"",History!A145,"")</f>
         <v/>
       </c>
@@ -6447,7 +6440,7 @@
         <f>IF(History!A145&lt;&gt;"",SUM(History!145:145),"")</f>
         <v/>
       </c>
-      <c r="D145" s="7" t="str">
+      <c r="D145" s="8" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6459,15 +6452,15 @@
         <f>IF(History!A145&lt;&gt;0,COUNTIF(History!145:145,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G145" s="8" t="str">
+      <c r="G145" s="6" t="str">
         <f>IF(MAX(History!145:145)&gt;0,MAX(History!145:145),"")</f>
         <v/>
       </c>
-      <c r="H145" s="5" t="str">
+      <c r="H145" s="6" t="str">
         <f>IF(History!A145&lt;&gt;0,MIN(History!145:145),"")</f>
         <v/>
       </c>
-      <c r="I145" s="5" t="str">
+      <c r="I145" s="6" t="str">
         <f>IF(History!A145&lt;&gt;"",History!B145,"")</f>
         <v/>
       </c>
@@ -6480,7 +6473,7 @@
       <c r="A146" s="1">
         <v>145</v>
       </c>
-      <c r="B146" s="6" t="str">
+      <c r="B146" s="5" t="str">
         <f>IF(History!A146&lt;&gt;"",History!A146,"")</f>
         <v/>
       </c>
@@ -6488,7 +6481,7 @@
         <f>IF(History!A146&lt;&gt;"",SUM(History!146:146),"")</f>
         <v/>
       </c>
-      <c r="D146" s="7" t="str">
+      <c r="D146" s="8" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6500,15 +6493,15 @@
         <f>IF(History!A146&lt;&gt;0,COUNTIF(History!146:146,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G146" s="8" t="str">
+      <c r="G146" s="6" t="str">
         <f>IF(MAX(History!146:146)&gt;0,MAX(History!146:146),"")</f>
         <v/>
       </c>
-      <c r="H146" s="5" t="str">
+      <c r="H146" s="6" t="str">
         <f>IF(History!A146&lt;&gt;0,MIN(History!146:146),"")</f>
         <v/>
       </c>
-      <c r="I146" s="5" t="str">
+      <c r="I146" s="6" t="str">
         <f>IF(History!A146&lt;&gt;"",History!B146,"")</f>
         <v/>
       </c>
@@ -6521,7 +6514,7 @@
       <c r="A147" s="1">
         <v>146</v>
       </c>
-      <c r="B147" s="6" t="str">
+      <c r="B147" s="5" t="str">
         <f>IF(History!A147&lt;&gt;"",History!A147,"")</f>
         <v/>
       </c>
@@ -6529,7 +6522,7 @@
         <f>IF(History!A147&lt;&gt;"",SUM(History!147:147),"")</f>
         <v/>
       </c>
-      <c r="D147" s="7" t="str">
+      <c r="D147" s="8" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6541,15 +6534,15 @@
         <f>IF(History!A147&lt;&gt;0,COUNTIF(History!147:147,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G147" s="8" t="str">
+      <c r="G147" s="6" t="str">
         <f>IF(MAX(History!147:147)&gt;0,MAX(History!147:147),"")</f>
         <v/>
       </c>
-      <c r="H147" s="5" t="str">
+      <c r="H147" s="6" t="str">
         <f>IF(History!A147&lt;&gt;0,MIN(History!147:147),"")</f>
         <v/>
       </c>
-      <c r="I147" s="5" t="str">
+      <c r="I147" s="6" t="str">
         <f>IF(History!A147&lt;&gt;"",History!B147,"")</f>
         <v/>
       </c>
@@ -6562,7 +6555,7 @@
       <c r="A148" s="1">
         <v>147</v>
       </c>
-      <c r="B148" s="6" t="str">
+      <c r="B148" s="5" t="str">
         <f>IF(History!A148&lt;&gt;"",History!A148,"")</f>
         <v/>
       </c>
@@ -6570,7 +6563,7 @@
         <f>IF(History!A148&lt;&gt;"",SUM(History!148:148),"")</f>
         <v/>
       </c>
-      <c r="D148" s="7" t="str">
+      <c r="D148" s="8" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6582,15 +6575,15 @@
         <f>IF(History!A148&lt;&gt;0,COUNTIF(History!148:148,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G148" s="8" t="str">
+      <c r="G148" s="6" t="str">
         <f>IF(MAX(History!148:148)&gt;0,MAX(History!148:148),"")</f>
         <v/>
       </c>
-      <c r="H148" s="5" t="str">
+      <c r="H148" s="6" t="str">
         <f>IF(History!A148&lt;&gt;0,MIN(History!148:148),"")</f>
         <v/>
       </c>
-      <c r="I148" s="5" t="str">
+      <c r="I148" s="6" t="str">
         <f>IF(History!A148&lt;&gt;"",History!B148,"")</f>
         <v/>
       </c>
@@ -6603,7 +6596,7 @@
       <c r="A149" s="1">
         <v>148</v>
       </c>
-      <c r="B149" s="6" t="str">
+      <c r="B149" s="5" t="str">
         <f>IF(History!A149&lt;&gt;"",History!A149,"")</f>
         <v/>
       </c>
@@ -6611,7 +6604,7 @@
         <f>IF(History!A149&lt;&gt;"",SUM(History!149:149),"")</f>
         <v/>
       </c>
-      <c r="D149" s="7" t="str">
+      <c r="D149" s="8" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6623,15 +6616,15 @@
         <f>IF(History!A149&lt;&gt;0,COUNTIF(History!149:149,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G149" s="8" t="str">
+      <c r="G149" s="6" t="str">
         <f>IF(MAX(History!149:149)&gt;0,MAX(History!149:149),"")</f>
         <v/>
       </c>
-      <c r="H149" s="5" t="str">
+      <c r="H149" s="6" t="str">
         <f>IF(History!A149&lt;&gt;0,MIN(History!149:149),"")</f>
         <v/>
       </c>
-      <c r="I149" s="5" t="str">
+      <c r="I149" s="6" t="str">
         <f>IF(History!A149&lt;&gt;"",History!B149,"")</f>
         <v/>
       </c>
@@ -6644,7 +6637,7 @@
       <c r="A150" s="1">
         <v>149</v>
       </c>
-      <c r="B150" s="6" t="str">
+      <c r="B150" s="5" t="str">
         <f>IF(History!A150&lt;&gt;"",History!A150,"")</f>
         <v/>
       </c>
@@ -6652,7 +6645,7 @@
         <f>IF(History!A150&lt;&gt;"",SUM(History!150:150),"")</f>
         <v/>
       </c>
-      <c r="D150" s="7" t="str">
+      <c r="D150" s="8" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6664,15 +6657,15 @@
         <f>IF(History!A150&lt;&gt;0,COUNTIF(History!150:150,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G150" s="8" t="str">
+      <c r="G150" s="6" t="str">
         <f>IF(MAX(History!150:150)&gt;0,MAX(History!150:150),"")</f>
         <v/>
       </c>
-      <c r="H150" s="5" t="str">
+      <c r="H150" s="6" t="str">
         <f>IF(History!A150&lt;&gt;0,MIN(History!150:150),"")</f>
         <v/>
       </c>
-      <c r="I150" s="5" t="str">
+      <c r="I150" s="6" t="str">
         <f>IF(History!A150&lt;&gt;"",History!B150,"")</f>
         <v/>
       </c>
@@ -6685,7 +6678,7 @@
       <c r="A151" s="1">
         <v>150</v>
       </c>
-      <c r="B151" s="6" t="str">
+      <c r="B151" s="5" t="str">
         <f>IF(History!A151&lt;&gt;"",History!A151,"")</f>
         <v/>
       </c>
@@ -6693,7 +6686,7 @@
         <f>IF(History!A151&lt;&gt;"",SUM(History!151:151),"")</f>
         <v/>
       </c>
-      <c r="D151" s="7" t="str">
+      <c r="D151" s="8" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6705,15 +6698,15 @@
         <f>IF(History!A151&lt;&gt;0,COUNTIF(History!151:151,"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G151" s="8" t="str">
+      <c r="G151" s="6" t="str">
         <f>IF(MAX(History!151:151)&gt;0,MAX(History!151:151),"")</f>
         <v/>
       </c>
-      <c r="H151" s="5" t="str">
+      <c r="H151" s="6" t="str">
         <f>IF(History!A151&lt;&gt;0,MIN(History!151:151),"")</f>
         <v/>
       </c>
-      <c r="I151" s="5" t="str">
+      <c r="I151" s="6" t="str">
         <f>IF(History!A151&lt;&gt;"",History!B151,"")</f>
         <v/>
       </c>
@@ -6731,10 +6724,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6748,18 +6741,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C2" s="4">
         <v>-1</v>
@@ -6793,7 +6786,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
@@ -6822,9 +6815,9 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="4">
@@ -6845,10 +6838,10 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C5" s="4">
         <v>293</v>
@@ -6868,10 +6861,10 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C6" s="4">
         <v>-44</v>
@@ -6897,9 +6890,9 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="4">
@@ -6914,9 +6907,9 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="4">
@@ -6928,10 +6921,10 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C9" s="4">
         <v>-8</v>
@@ -6966,9 +6959,9 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="4">
@@ -6977,10 +6970,10 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="4">
         <v>-140</v>
@@ -6988,10 +6981,10 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C12" s="4">
         <v>-11</v>
@@ -7024,10 +7017,10 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C13" s="4">
         <v>-6</v>
@@ -7042,10 +7035,10 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="1">
-        <v>-100</v>
+        <v>24</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C14" s="4">
         <v>286</v>
@@ -7062,7 +7055,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>11</v>
@@ -7079,7 +7072,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>11</v>
@@ -7093,7 +7086,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>11</v>
@@ -7107,7 +7100,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>11</v>
@@ -7121,15 +7114,18 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C19" s="4">
         <v>-77</v>
       </c>
       <c r="D19" s="4"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D22" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/uno/uno_record.xlsx
+++ b/uno/uno_record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ren\Desktop\色々\Data\Discord\HONDA Bot\uno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A0BABBF-B4B8-4DCA-AB96-48ACAC0D1D87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0707FF9-0F9B-477D-8094-1FEFEB1D1461}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5175" yWindow="1260" windowWidth="17130" windowHeight="14070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Records" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>Player ID</t>
   </si>
@@ -111,6 +111,10 @@
   </si>
   <si>
     <t>607980121902546945</t>
+  </si>
+  <si>
+    <t>-100</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -522,9 +526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -574,27 +576,27 @@
         <v>193407417256640512</v>
       </c>
       <c r="C2" s="4">
-        <f>IF(History!A2&lt;&gt;"",SUM(History!2:2),"")</f>
+        <f ca="1">IF(History!A2&lt;&gt;"",SUM(History!C2:OFFSET(History!C2,0,COUNTA(History!2:2)-3)),"")</f>
         <v>67</v>
       </c>
       <c r="D2" s="8">
-        <f t="shared" ref="D2:D33" si="0">IFERROR(E2/(E2+F2),"")</f>
+        <f t="shared" ref="D2:D33" ca="1" si="0">IFERROR(E2/(E2+F2),"")</f>
         <v>0.22222222222222221</v>
       </c>
       <c r="E2" s="4">
-        <f>IF(History!A2&lt;&gt;0,COUNTIF(History!2:2,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A2&lt;&gt;0,COUNTIF(History!C2:OFFSET(History!C2,0,COUNTA(History!2:2)-3),"&gt;0"),"")</f>
         <v>2</v>
       </c>
       <c r="F2" s="4">
-        <f>IF(History!A2&lt;&gt;0,COUNTIF(History!2:2,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A2&lt;&gt;0,COUNTIF(History!C2:OFFSET(History!C2,0,COUNTA(History!2:2)-3),"&lt;=0"),"")</f>
         <v>7</v>
       </c>
       <c r="G2" s="6">
-        <f>IF(MAX(History!2:2)&gt;0,MAX(History!2:2),"")</f>
+        <f ca="1">IF(MAX(History!2:2)&gt;0,MAX(History!C2:OFFSET(History!C2,0,COUNTA(History!2:2)-3)),"")</f>
         <v>164</v>
       </c>
       <c r="H2" s="6">
-        <f>IF(History!A2&lt;&gt;0,MIN(History!2:2),"")</f>
+        <f ca="1">IF(History!A2&lt;&gt;0,MIN(History!C2:OFFSET(History!C2,0,COUNTA(History!2:2)-3)),"")</f>
         <v>-77</v>
       </c>
       <c r="I2" s="6" t="str">
@@ -615,27 +617,27 @@
         <v>573870933236776960</v>
       </c>
       <c r="C3" s="4">
-        <f>IF(History!A3&lt;&gt;"",SUM(History!3:3),"")</f>
+        <f ca="1">IF(History!A3&lt;&gt;"",SUM(History!C3:OFFSET(History!C3,0,COUNTA(History!3:3)-3)),"")</f>
         <v>84</v>
       </c>
       <c r="D3" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="E3" s="4">
-        <f>IF(History!A3&lt;&gt;0,COUNTIF(History!3:3,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A3&lt;&gt;0,COUNTIF(History!C3:OFFSET(History!C3,0,COUNTA(History!3:3)-3),"&gt;0"),"")</f>
         <v>1</v>
       </c>
       <c r="F3" s="4">
-        <f>IF(History!A3&lt;&gt;0,COUNTIF(History!3:3,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A3&lt;&gt;0,COUNTIF(History!C3:OFFSET(History!C3,0,COUNTA(History!3:3)-3),"&lt;=0"),"")</f>
         <v>6</v>
       </c>
       <c r="G3" s="6">
-        <f>IF(MAX(History!3:3)&gt;0,MAX(History!3:3),"")</f>
+        <f ca="1">IF(MAX(History!3:3)&gt;0,MAX(History!C3:OFFSET(History!C3,0,COUNTA(History!3:3)-3)),"")</f>
         <v>269</v>
       </c>
       <c r="H3" s="6">
-        <f>IF(History!A3&lt;&gt;0,MIN(History!3:3),"")</f>
+        <f ca="1">IF(History!A3&lt;&gt;0,MIN(History!C3:OFFSET(History!C3,0,COUNTA(History!3:3)-3)),"")</f>
         <v>-48</v>
       </c>
       <c r="I3" s="6" t="str">
@@ -656,27 +658,27 @@
         <v>700027069278716074</v>
       </c>
       <c r="C4" s="4">
-        <f>IF(History!A4&lt;&gt;"",SUM(History!4:4),"")</f>
+        <f ca="1">IF(History!A4&lt;&gt;"",SUM(History!C4:OFFSET(History!C4,0,COUNTA(History!4:4)-3)),"")</f>
         <v>-110</v>
       </c>
       <c r="D4" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E4" s="4">
-        <f>IF(History!A4&lt;&gt;0,COUNTIF(History!4:4,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A4&lt;&gt;0,COUNTIF(History!C4:OFFSET(History!C4,0,COUNTA(History!4:4)-3),"&gt;0"),"")</f>
         <v>0</v>
       </c>
       <c r="F4" s="4">
-        <f>IF(History!A4&lt;&gt;0,COUNTIF(History!4:4,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A4&lt;&gt;0,COUNTIF(History!C4:OFFSET(History!C4,0,COUNTA(History!4:4)-3),"&lt;=0"),"")</f>
         <v>5</v>
       </c>
       <c r="G4" s="6" t="str">
-        <f>IF(MAX(History!4:4)&gt;0,MAX(History!4:4),"")</f>
+        <f ca="1">IF(MAX(History!4:4)&gt;0,MAX(History!C4:OFFSET(History!C4,0,COUNTA(History!4:4)-3)),"")</f>
         <v/>
       </c>
       <c r="H4" s="6">
-        <f>IF(History!A4&lt;&gt;0,MIN(History!4:4),"")</f>
+        <f ca="1">IF(History!A4&lt;&gt;0,MIN(History!C4:OFFSET(History!C4,0,COUNTA(History!4:4)-3)),"")</f>
         <v>-52</v>
       </c>
       <c r="I4" s="6" t="str">
@@ -697,36 +699,36 @@
         <v>746782075012644874</v>
       </c>
       <c r="C5" s="4">
-        <f>IF(History!A5&lt;&gt;"",SUM(History!5:5),"")</f>
-        <v>288</v>
+        <f ca="1">IF(History!A5&lt;&gt;"",SUM(History!C5:OFFSET(History!C5,0,COUNTA(History!5:5)-3)),"")</f>
+        <v>188</v>
       </c>
       <c r="D5" s="8">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E5" s="4">
-        <f>IF(History!A5&lt;&gt;0,COUNTIF(History!5:5,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A5&lt;&gt;0,COUNTIF(History!C5:OFFSET(History!C5,0,COUNTA(History!5:5)-3),"&gt;0"),"")</f>
         <v>2</v>
       </c>
       <c r="F5" s="4">
-        <f>IF(History!A5&lt;&gt;0,COUNTIF(History!5:5,"&lt;=0"),"")</f>
-        <v>3</v>
+        <f ca="1">IF(History!A5&lt;&gt;0,COUNTIF(History!C5:OFFSET(History!C5,0,COUNTA(History!5:5)-3),"&lt;=0"),"")</f>
+        <v>4</v>
       </c>
       <c r="G5" s="6">
-        <f>IF(MAX(History!5:5)&gt;0,MAX(History!5:5),"")</f>
+        <f ca="1">IF(MAX(History!5:5)&gt;0,MAX(History!C5:OFFSET(History!C5,0,COUNTA(History!5:5)-3)),"")</f>
         <v>293</v>
       </c>
       <c r="H5" s="6">
-        <f>IF(History!A5&lt;&gt;0,MIN(History!5:5),"")</f>
+        <f ca="1">IF(History!A5&lt;&gt;0,MIN(History!C5:OFFSET(History!C5,0,COUNTA(History!5:5)-3)),"")</f>
         <v>-129</v>
       </c>
       <c r="I5" s="6" t="str">
         <f>IF(History!A5&lt;&gt;"",History!B5,"")</f>
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J5" s="4">
         <f ca="1">SUM(OFFSET(History!C5,0,COUNT(History!5:5)-IF(COUNT(History!5:5)&lt;=5,COUNT(History!5:5),5)):OFFSET(History!C5,0,COUNT(History!5:5)-1))</f>
-        <v>288</v>
+        <v>-105</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
@@ -738,27 +740,27 @@
         <v>587660412212740106</v>
       </c>
       <c r="C6" s="4">
-        <f>IF(History!A6&lt;&gt;"",SUM(History!6:6),"")</f>
+        <f ca="1">IF(History!A6&lt;&gt;"",SUM(History!C6:OFFSET(History!C6,0,COUNTA(History!6:6)-3)),"")</f>
         <v>-37</v>
       </c>
       <c r="D6" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.2</v>
       </c>
       <c r="E6" s="4">
-        <f>IF(History!A6&lt;&gt;0,COUNTIF(History!6:6,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A6&lt;&gt;0,COUNTIF(History!C6:OFFSET(History!C6,0,COUNTA(History!6:6)-3),"&gt;0"),"")</f>
         <v>1</v>
       </c>
       <c r="F6" s="4">
-        <f>IF(History!A6&lt;&gt;0,COUNTIF(History!6:6,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A6&lt;&gt;0,COUNTIF(History!C6:OFFSET(History!C6,0,COUNTA(History!6:6)-3),"&lt;=0"),"")</f>
         <v>4</v>
       </c>
       <c r="G6" s="6">
-        <f>IF(MAX(History!6:6)&gt;0,MAX(History!6:6),"")</f>
+        <f ca="1">IF(MAX(History!6:6)&gt;0,MAX(History!C6:OFFSET(History!C6,0,COUNTA(History!6:6)-3)),"")</f>
         <v>130</v>
       </c>
       <c r="H6" s="6">
-        <f>IF(History!A6&lt;&gt;0,MIN(History!6:6),"")</f>
+        <f ca="1">IF(History!A6&lt;&gt;0,MIN(History!C6:OFFSET(History!C6,0,COUNTA(History!6:6)-3)),"")</f>
         <v>-76</v>
       </c>
       <c r="I6" s="6" t="str">
@@ -779,27 +781,27 @@
         <v>598600835664183297</v>
       </c>
       <c r="C7" s="4">
-        <f>IF(History!A7&lt;&gt;"",SUM(History!7:7),"")</f>
+        <f ca="1">IF(History!A7&lt;&gt;"",SUM(History!C7:OFFSET(History!C7,0,COUNTA(History!7:7)-3)),"")</f>
         <v>-156</v>
       </c>
       <c r="D7" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E7" s="4">
-        <f>IF(History!A7&lt;&gt;0,COUNTIF(History!7:7,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A7&lt;&gt;0,COUNTIF(History!C7:OFFSET(History!C7,0,COUNTA(History!7:7)-3),"&gt;0"),"")</f>
         <v>0</v>
       </c>
       <c r="F7" s="4">
-        <f>IF(History!A7&lt;&gt;0,COUNTIF(History!7:7,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A7&lt;&gt;0,COUNTIF(History!C7:OFFSET(History!C7,0,COUNTA(History!7:7)-3),"&lt;=0"),"")</f>
         <v>3</v>
       </c>
       <c r="G7" s="6" t="str">
-        <f>IF(MAX(History!7:7)&gt;0,MAX(History!7:7),"")</f>
+        <f ca="1">IF(MAX(History!7:7)&gt;0,MAX(History!C7:OFFSET(History!C7,0,COUNTA(History!7:7)-3)),"")</f>
         <v/>
       </c>
       <c r="H7" s="6">
-        <f>IF(History!A7&lt;&gt;0,MIN(History!7:7),"")</f>
+        <f ca="1">IF(History!A7&lt;&gt;0,MIN(History!C7:OFFSET(History!C7,0,COUNTA(History!7:7)-3)),"")</f>
         <v>-71</v>
       </c>
       <c r="I7" s="6" t="str">
@@ -820,27 +822,27 @@
         <v>758948042946248755</v>
       </c>
       <c r="C8" s="4">
-        <f>IF(History!A8&lt;&gt;"",SUM(History!8:8),"")</f>
+        <f ca="1">IF(History!A8&lt;&gt;"",SUM(History!C8:OFFSET(History!C8,0,COUNTA(History!8:8)-3)),"")</f>
         <v>-108</v>
       </c>
       <c r="D8" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E8" s="4">
-        <f>IF(History!A8&lt;&gt;0,COUNTIF(History!8:8,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A8&lt;&gt;0,COUNTIF(History!C8:OFFSET(History!C8,0,COUNTA(History!8:8)-3),"&gt;0"),"")</f>
         <v>0</v>
       </c>
       <c r="F8" s="4">
-        <f>IF(History!A8&lt;&gt;0,COUNTIF(History!8:8,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A8&lt;&gt;0,COUNTIF(History!C8:OFFSET(History!C8,0,COUNTA(History!8:8)-3),"&lt;=0"),"")</f>
         <v>2</v>
       </c>
       <c r="G8" s="6" t="str">
-        <f>IF(MAX(History!8:8)&gt;0,MAX(History!8:8),"")</f>
+        <f ca="1">IF(MAX(History!8:8)&gt;0,MAX(History!C8:OFFSET(History!C8,0,COUNTA(History!8:8)-3)),"")</f>
         <v/>
       </c>
       <c r="H8" s="6">
-        <f>IF(History!A8&lt;&gt;0,MIN(History!8:8),"")</f>
+        <f ca="1">IF(History!A8&lt;&gt;0,MIN(History!C8:OFFSET(History!C8,0,COUNTA(History!8:8)-3)),"")</f>
         <v>-102</v>
       </c>
       <c r="I8" s="6" t="str">
@@ -861,27 +863,27 @@
         <v>700031411049988197</v>
       </c>
       <c r="C9" s="4">
-        <f>IF(History!A9&lt;&gt;"",SUM(History!9:9),"")</f>
+        <f ca="1">IF(History!A9&lt;&gt;"",SUM(History!C9:OFFSET(History!C9,0,COUNTA(History!9:9)-3)),"")</f>
         <v>-210</v>
       </c>
       <c r="D9" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E9" s="4">
-        <f>IF(History!A9&lt;&gt;0,COUNTIF(History!9:9,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A9&lt;&gt;0,COUNTIF(History!C9:OFFSET(History!C9,0,COUNTA(History!9:9)-3),"&gt;0"),"")</f>
         <v>0</v>
       </c>
       <c r="F9" s="4">
-        <f>IF(History!A9&lt;&gt;0,COUNTIF(History!9:9,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A9&lt;&gt;0,COUNTIF(History!C9:OFFSET(History!C9,0,COUNTA(History!9:9)-3),"&lt;=0"),"")</f>
         <v>9</v>
       </c>
       <c r="G9" s="6" t="str">
-        <f>IF(MAX(History!9:9)&gt;0,MAX(History!9:9),"")</f>
+        <f ca="1">IF(MAX(History!9:9)&gt;0,MAX(History!C9:OFFSET(History!C9,0,COUNTA(History!9:9)-3)),"")</f>
         <v/>
       </c>
       <c r="H9" s="6">
-        <f>IF(History!A9&lt;&gt;0,MIN(History!9:9),"")</f>
+        <f ca="1">IF(History!A9&lt;&gt;0,MIN(History!C9:OFFSET(History!C9,0,COUNTA(History!9:9)-3)),"")</f>
         <v>-73</v>
       </c>
       <c r="I9" s="6" t="str">
@@ -902,27 +904,27 @@
         <v>612167459201351686</v>
       </c>
       <c r="C10" s="4">
-        <f>IF(History!A10&lt;&gt;"",SUM(History!10:10),"")</f>
+        <f ca="1">IF(History!A10&lt;&gt;"",SUM(History!C10:OFFSET(History!C10,0,COUNTA(History!10:10)-3)),"")</f>
         <v>-25</v>
       </c>
       <c r="D10" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E10" s="4">
-        <f>IF(History!A10&lt;&gt;0,COUNTIF(History!10:10,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A10&lt;&gt;0,COUNTIF(History!C10:OFFSET(History!C10,0,COUNTA(History!10:10)-3),"&gt;0"),"")</f>
         <v>0</v>
       </c>
       <c r="F10" s="4">
-        <f>IF(History!A10&lt;&gt;0,COUNTIF(History!10:10,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A10&lt;&gt;0,COUNTIF(History!C10:OFFSET(History!C10,0,COUNTA(History!10:10)-3),"&lt;=0"),"")</f>
         <v>1</v>
       </c>
       <c r="G10" s="6" t="str">
-        <f>IF(MAX(History!10:10)&gt;0,MAX(History!10:10),"")</f>
+        <f ca="1">IF(MAX(History!10:10)&gt;0,MAX(History!C10:OFFSET(History!C10,0,COUNTA(History!10:10)-3)),"")</f>
         <v/>
       </c>
       <c r="H10" s="6">
-        <f>IF(History!A10&lt;&gt;0,MIN(History!10:10),"")</f>
+        <f ca="1">IF(History!A10&lt;&gt;0,MIN(History!C10:OFFSET(History!C10,0,COUNTA(History!10:10)-3)),"")</f>
         <v>-25</v>
       </c>
       <c r="I10" s="6" t="str">
@@ -943,27 +945,27 @@
         <v>657835936071286784</v>
       </c>
       <c r="C11" s="4">
-        <f>IF(History!A11&lt;&gt;"",SUM(History!11:11),"")</f>
+        <f ca="1">IF(History!A11&lt;&gt;"",SUM(History!C11:OFFSET(History!C11,0,COUNTA(History!11:11)-3)),"")</f>
         <v>-140</v>
       </c>
       <c r="D11" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E11" s="4">
-        <f>IF(History!A11&lt;&gt;0,COUNTIF(History!11:11,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A11&lt;&gt;0,COUNTIF(History!C11:OFFSET(History!C11,0,COUNTA(History!11:11)-3),"&gt;0"),"")</f>
         <v>0</v>
       </c>
       <c r="F11" s="4">
-        <f>IF(History!A11&lt;&gt;0,COUNTIF(History!11:11,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A11&lt;&gt;0,COUNTIF(History!C11:OFFSET(History!C11,0,COUNTA(History!11:11)-3),"&lt;=0"),"")</f>
         <v>1</v>
       </c>
       <c r="G11" s="6" t="str">
-        <f>IF(MAX(History!11:11)&gt;0,MAX(History!11:11),"")</f>
+        <f ca="1">IF(MAX(History!11:11)&gt;0,MAX(History!C11:OFFSET(History!C11,0,COUNTA(History!11:11)-3)),"")</f>
         <v/>
       </c>
       <c r="H11" s="6">
-        <f>IF(History!A11&lt;&gt;0,MIN(History!11:11),"")</f>
+        <f ca="1">IF(History!A11&lt;&gt;0,MIN(History!C11:OFFSET(History!C11,0,COUNTA(History!11:11)-3)),"")</f>
         <v>-140</v>
       </c>
       <c r="I11" s="6" t="str">
@@ -984,27 +986,27 @@
         <v>559289569825259521</v>
       </c>
       <c r="C12" s="4">
-        <f>IF(History!A12&lt;&gt;"",SUM(History!12:12),"")</f>
+        <f ca="1">IF(History!A12&lt;&gt;"",SUM(History!C12:OFFSET(History!C12,0,COUNTA(History!12:12)-3)),"")</f>
         <v>126</v>
       </c>
       <c r="D12" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.125</v>
       </c>
       <c r="E12" s="4">
-        <f>IF(History!A12&lt;&gt;0,COUNTIF(History!12:12,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A12&lt;&gt;0,COUNTIF(History!C12:OFFSET(History!C12,0,COUNTA(History!12:12)-3),"&gt;0"),"")</f>
         <v>1</v>
       </c>
       <c r="F12" s="4">
-        <f>IF(History!A12&lt;&gt;0,COUNTIF(History!12:12,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A12&lt;&gt;0,COUNTIF(History!C12:OFFSET(History!C12,0,COUNTA(History!12:12)-3),"&lt;=0"),"")</f>
         <v>7</v>
       </c>
       <c r="G12" s="6">
-        <f>IF(MAX(History!12:12)&gt;0,MAX(History!12:12),"")</f>
+        <f ca="1">IF(MAX(History!12:12)&gt;0,MAX(History!C12:OFFSET(History!C12,0,COUNTA(History!12:12)-3)),"")</f>
         <v>255</v>
       </c>
       <c r="H12" s="6">
-        <f>IF(History!A12&lt;&gt;0,MIN(History!12:12),"")</f>
+        <f ca="1">IF(History!A12&lt;&gt;0,MIN(History!C12:OFFSET(History!C12,0,COUNTA(History!12:12)-3)),"")</f>
         <v>-56</v>
       </c>
       <c r="I12" s="6" t="str">
@@ -1025,27 +1027,27 @@
         <v>734340367838740561</v>
       </c>
       <c r="C13" s="4">
-        <f>IF(History!A13&lt;&gt;"",SUM(History!13:13),"")</f>
+        <f ca="1">IF(History!A13&lt;&gt;"",SUM(History!C13:OFFSET(History!C13,0,COUNTA(History!13:13)-3)),"")</f>
         <v>-36</v>
       </c>
       <c r="D13" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E13" s="4">
-        <f>IF(History!A13&lt;&gt;0,COUNTIF(History!13:13,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A13&lt;&gt;0,COUNTIF(History!C13:OFFSET(History!C13,0,COUNTA(History!13:13)-3),"&gt;0"),"")</f>
         <v>0</v>
       </c>
       <c r="F13" s="4">
-        <f>IF(History!A13&lt;&gt;0,COUNTIF(History!13:13,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A13&lt;&gt;0,COUNTIF(History!C13:OFFSET(History!C13,0,COUNTA(History!13:13)-3),"&lt;=0"),"")</f>
         <v>3</v>
       </c>
       <c r="G13" s="6" t="str">
-        <f>IF(MAX(History!13:13)&gt;0,MAX(History!13:13),"")</f>
+        <f ca="1">IF(MAX(History!13:13)&gt;0,MAX(History!C13:OFFSET(History!C13,0,COUNTA(History!13:13)-3)),"")</f>
         <v/>
       </c>
       <c r="H13" s="6">
-        <f>IF(History!A13&lt;&gt;0,MIN(History!13:13),"")</f>
+        <f ca="1">IF(History!A13&lt;&gt;0,MIN(History!C13:OFFSET(History!C13,0,COUNTA(History!13:13)-3)),"")</f>
         <v>-26</v>
       </c>
       <c r="I13" s="6" t="str">
@@ -1066,27 +1068,27 @@
         <v>699612508763193425</v>
       </c>
       <c r="C14" s="4">
-        <f>IF(History!A14&lt;&gt;"",SUM(History!14:14),"")</f>
+        <f ca="1">IF(History!A14&lt;&gt;"",SUM(History!C14:OFFSET(History!C14,0,COUNTA(History!14:14)-3)),"")</f>
         <v>19</v>
       </c>
       <c r="D14" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.25</v>
       </c>
       <c r="E14" s="4">
-        <f>IF(History!A14&lt;&gt;0,COUNTIF(History!14:14,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A14&lt;&gt;0,COUNTIF(History!C14:OFFSET(History!C14,0,COUNTA(History!14:14)-3),"&gt;0"),"")</f>
         <v>1</v>
       </c>
       <c r="F14" s="4">
-        <f>IF(History!A14&lt;&gt;0,COUNTIF(History!14:14,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A14&lt;&gt;0,COUNTIF(History!C14:OFFSET(History!C14,0,COUNTA(History!14:14)-3),"&lt;=0"),"")</f>
         <v>3</v>
       </c>
       <c r="G14" s="6">
-        <f>IF(MAX(History!14:14)&gt;0,MAX(History!14:14),"")</f>
+        <f ca="1">IF(MAX(History!14:14)&gt;0,MAX(History!C14:OFFSET(History!C14,0,COUNTA(History!14:14)-3)),"")</f>
         <v>286</v>
       </c>
       <c r="H14" s="6">
-        <f>IF(History!A14&lt;&gt;0,MIN(History!14:14),"")</f>
+        <f ca="1">IF(History!A14&lt;&gt;0,MIN(History!C14:OFFSET(History!C14,0,COUNTA(History!14:14)-3)),"")</f>
         <v>-187</v>
       </c>
       <c r="I14" s="6" t="str">
@@ -1107,27 +1109,27 @@
         <v>703831366332317756</v>
       </c>
       <c r="C15" s="4">
-        <f>IF(History!A15&lt;&gt;"",SUM(History!15:15),"")</f>
+        <f ca="1">IF(History!A15&lt;&gt;"",SUM(History!C15:OFFSET(History!C15,0,COUNTA(History!15:15)-3)),"")</f>
         <v>110</v>
       </c>
       <c r="D15" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="E15" s="4">
-        <f>IF(History!A15&lt;&gt;0,COUNTIF(History!15:15,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A15&lt;&gt;0,COUNTIF(History!C15:OFFSET(History!C15,0,COUNTA(History!15:15)-3),"&gt;0"),"")</f>
         <v>1</v>
       </c>
       <c r="F15" s="4">
-        <f>IF(History!A15&lt;&gt;0,COUNTIF(History!15:15,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A15&lt;&gt;0,COUNTIF(History!C15:OFFSET(History!C15,0,COUNTA(History!15:15)-3),"&lt;=0"),"")</f>
         <v>2</v>
       </c>
       <c r="G15" s="6">
-        <f>IF(MAX(History!15:15)&gt;0,MAX(History!15:15),"")</f>
+        <f ca="1">IF(MAX(History!15:15)&gt;0,MAX(History!C15:OFFSET(History!C15,0,COUNTA(History!15:15)-3)),"")</f>
         <v>158</v>
       </c>
       <c r="H15" s="6">
-        <f>IF(History!A15&lt;&gt;0,MIN(History!15:15),"")</f>
+        <f ca="1">IF(History!A15&lt;&gt;0,MIN(History!C15:OFFSET(History!C15,0,COUNTA(History!15:15)-3)),"")</f>
         <v>-32</v>
       </c>
       <c r="I15" s="6" t="str">
@@ -1148,27 +1150,27 @@
         <v>726345969204985869</v>
       </c>
       <c r="C16" s="4">
-        <f>IF(History!A16&lt;&gt;"",SUM(History!16:16),"")</f>
+        <f ca="1">IF(History!A16&lt;&gt;"",SUM(History!C16:OFFSET(History!C16,0,COUNTA(History!16:16)-3)),"")</f>
         <v>-53</v>
       </c>
       <c r="D16" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E16" s="4">
-        <f>IF(History!A16&lt;&gt;0,COUNTIF(History!16:16,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A16&lt;&gt;0,COUNTIF(History!C16:OFFSET(History!C16,0,COUNTA(History!16:16)-3),"&gt;0"),"")</f>
         <v>0</v>
       </c>
       <c r="F16" s="4">
-        <f>IF(History!A16&lt;&gt;0,COUNTIF(History!16:16,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A16&lt;&gt;0,COUNTIF(History!C16:OFFSET(History!C16,0,COUNTA(History!16:16)-3),"&lt;=0"),"")</f>
         <v>2</v>
       </c>
       <c r="G16" s="6" t="str">
-        <f>IF(MAX(History!16:16)&gt;0,MAX(History!16:16),"")</f>
+        <f ca="1">IF(MAX(History!16:16)&gt;0,MAX(History!C16:OFFSET(History!C16,0,COUNTA(History!16:16)-3)),"")</f>
         <v/>
       </c>
       <c r="H16" s="6">
-        <f>IF(History!A16&lt;&gt;0,MIN(History!16:16),"")</f>
+        <f ca="1">IF(History!A16&lt;&gt;0,MIN(History!C16:OFFSET(History!C16,0,COUNTA(History!16:16)-3)),"")</f>
         <v>-32</v>
       </c>
       <c r="I16" s="6" t="str">
@@ -1189,27 +1191,27 @@
         <v>582616639820922939</v>
       </c>
       <c r="C17" s="4">
-        <f>IF(History!A17&lt;&gt;"",SUM(History!17:17),"")</f>
+        <f ca="1">IF(History!A17&lt;&gt;"",SUM(History!C17:OFFSET(History!C17,0,COUNTA(History!17:17)-3)),"")</f>
         <v>-32</v>
       </c>
       <c r="D17" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E17" s="4">
-        <f>IF(History!A17&lt;&gt;0,COUNTIF(History!17:17,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A17&lt;&gt;0,COUNTIF(History!C17:OFFSET(History!C17,0,COUNTA(History!17:17)-3),"&gt;0"),"")</f>
         <v>0</v>
       </c>
       <c r="F17" s="4">
-        <f>IF(History!A17&lt;&gt;0,COUNTIF(History!17:17,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A17&lt;&gt;0,COUNTIF(History!C17:OFFSET(History!C17,0,COUNTA(History!17:17)-3),"&lt;=0"),"")</f>
         <v>2</v>
       </c>
       <c r="G17" s="6" t="str">
-        <f>IF(MAX(History!17:17)&gt;0,MAX(History!17:17),"")</f>
+        <f ca="1">IF(MAX(History!17:17)&gt;0,MAX(History!C17:OFFSET(History!C17,0,COUNTA(History!17:17)-3)),"")</f>
         <v/>
       </c>
       <c r="H17" s="6">
-        <f>IF(History!A17&lt;&gt;0,MIN(History!17:17),"")</f>
+        <f ca="1">IF(History!A17&lt;&gt;0,MIN(History!C17:OFFSET(History!C17,0,COUNTA(History!17:17)-3)),"")</f>
         <v>-29</v>
       </c>
       <c r="I17" s="6" t="str">
@@ -1230,27 +1232,27 @@
         <v>713420616254095460</v>
       </c>
       <c r="C18" s="4">
-        <f>IF(History!A18&lt;&gt;"",SUM(History!18:18),"")</f>
+        <f ca="1">IF(History!A18&lt;&gt;"",SUM(History!C18:OFFSET(History!C18,0,COUNTA(History!18:18)-3)),"")</f>
         <v>-37</v>
       </c>
       <c r="D18" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E18" s="4">
-        <f>IF(History!A18&lt;&gt;0,COUNTIF(History!18:18,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A18&lt;&gt;0,COUNTIF(History!C18:OFFSET(History!C18,0,COUNTA(History!18:18)-3),"&gt;0"),"")</f>
         <v>0</v>
       </c>
       <c r="F18" s="4">
-        <f>IF(History!A18&lt;&gt;0,COUNTIF(History!18:18,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A18&lt;&gt;0,COUNTIF(History!C18:OFFSET(History!C18,0,COUNTA(History!18:18)-3),"&lt;=0"),"")</f>
         <v>2</v>
       </c>
       <c r="G18" s="6" t="str">
-        <f>IF(MAX(History!18:18)&gt;0,MAX(History!18:18),"")</f>
+        <f ca="1">IF(MAX(History!18:18)&gt;0,MAX(History!C18:OFFSET(History!C18,0,COUNTA(History!18:18)-3)),"")</f>
         <v/>
       </c>
       <c r="H18" s="6">
-        <f>IF(History!A18&lt;&gt;0,MIN(History!18:18),"")</f>
+        <f ca="1">IF(History!A18&lt;&gt;0,MIN(History!C18:OFFSET(History!C18,0,COUNTA(History!18:18)-3)),"")</f>
         <v>-29</v>
       </c>
       <c r="I18" s="6" t="str">
@@ -1271,27 +1273,27 @@
         <v>607980121902546945</v>
       </c>
       <c r="C19" s="4">
-        <f>IF(History!A19&lt;&gt;"",SUM(History!19:19),"")</f>
+        <f ca="1">IF(History!A19&lt;&gt;"",SUM(History!C19:OFFSET(History!C19,0,COUNTA(History!19:19)-3)),"")</f>
         <v>-77</v>
       </c>
       <c r="D19" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E19" s="4">
-        <f>IF(History!A19&lt;&gt;0,COUNTIF(History!19:19,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A19&lt;&gt;0,COUNTIF(History!C19:OFFSET(History!C19,0,COUNTA(History!19:19)-3),"&gt;0"),"")</f>
         <v>0</v>
       </c>
       <c r="F19" s="4">
-        <f>IF(History!A19&lt;&gt;0,COUNTIF(History!19:19,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A19&lt;&gt;0,COUNTIF(History!C19:OFFSET(History!C19,0,COUNTA(History!19:19)-3),"&lt;=0"),"")</f>
         <v>1</v>
       </c>
       <c r="G19" s="6" t="str">
-        <f>IF(MAX(History!19:19)&gt;0,MAX(History!19:19),"")</f>
+        <f ca="1">IF(MAX(History!19:19)&gt;0,MAX(History!C19:OFFSET(History!C19,0,COUNTA(History!19:19)-3)),"")</f>
         <v/>
       </c>
       <c r="H19" s="6">
-        <f>IF(History!A19&lt;&gt;0,MIN(History!19:19),"")</f>
+        <f ca="1">IF(History!A19&lt;&gt;0,MIN(History!C19:OFFSET(History!C19,0,COUNTA(History!19:19)-3)),"")</f>
         <v>-77</v>
       </c>
       <c r="I19" s="6" t="str">
@@ -1312,27 +1314,27 @@
         <v/>
       </c>
       <c r="C20" s="4" t="str">
-        <f>IF(History!A20&lt;&gt;"",SUM(History!20:20),"")</f>
+        <f ca="1">IF(History!A20&lt;&gt;"",SUM(History!C20:OFFSET(History!C20,0,COUNTA(History!20:20)-3)),"")</f>
         <v/>
       </c>
       <c r="D20" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E20" s="4" t="str">
-        <f>IF(History!A20&lt;&gt;0,COUNTIF(History!20:20,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A20&lt;&gt;0,COUNTIF(History!C20:OFFSET(History!C20,0,COUNTA(History!20:20)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F20" s="4" t="str">
-        <f>IF(History!A20&lt;&gt;0,COUNTIF(History!20:20,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A20&lt;&gt;0,COUNTIF(History!C20:OFFSET(History!C20,0,COUNTA(History!20:20)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G20" s="6" t="str">
-        <f>IF(MAX(History!20:20)&gt;0,MAX(History!20:20),"")</f>
+        <f ca="1">IF(MAX(History!20:20)&gt;0,MAX(History!C20:OFFSET(History!C20,0,COUNTA(History!20:20)-3)),"")</f>
         <v/>
       </c>
       <c r="H20" s="6" t="str">
-        <f>IF(History!A20&lt;&gt;0,MIN(History!20:20),"")</f>
+        <f ca="1">IF(History!A20&lt;&gt;0,MIN(History!C20:OFFSET(History!C20,0,COUNTA(History!20:20)-3)),"")</f>
         <v/>
       </c>
       <c r="I20" s="6" t="str">
@@ -1353,27 +1355,27 @@
         <v/>
       </c>
       <c r="C21" s="4" t="str">
-        <f>IF(History!A21&lt;&gt;"",SUM(History!21:21),"")</f>
+        <f ca="1">IF(History!A21&lt;&gt;"",SUM(History!C21:OFFSET(History!C21,0,COUNTA(History!21:21)-3)),"")</f>
         <v/>
       </c>
       <c r="D21" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E21" s="4" t="str">
-        <f>IF(History!A21&lt;&gt;0,COUNTIF(History!21:21,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A21&lt;&gt;0,COUNTIF(History!C21:OFFSET(History!C21,0,COUNTA(History!21:21)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F21" s="4" t="str">
-        <f>IF(History!A21&lt;&gt;0,COUNTIF(History!21:21,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A21&lt;&gt;0,COUNTIF(History!C21:OFFSET(History!C21,0,COUNTA(History!21:21)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G21" s="6" t="str">
-        <f>IF(MAX(History!21:21)&gt;0,MAX(History!21:21),"")</f>
+        <f ca="1">IF(MAX(History!21:21)&gt;0,MAX(History!C21:OFFSET(History!C21,0,COUNTA(History!21:21)-3)),"")</f>
         <v/>
       </c>
       <c r="H21" s="6" t="str">
-        <f>IF(History!A21&lt;&gt;0,MIN(History!21:21),"")</f>
+        <f ca="1">IF(History!A21&lt;&gt;0,MIN(History!C21:OFFSET(History!C21,0,COUNTA(History!21:21)-3)),"")</f>
         <v/>
       </c>
       <c r="I21" s="6" t="str">
@@ -1394,27 +1396,27 @@
         <v/>
       </c>
       <c r="C22" s="4" t="str">
-        <f>IF(History!A22&lt;&gt;"",SUM(History!22:22),"")</f>
+        <f ca="1">IF(History!A22&lt;&gt;"",SUM(History!C22:OFFSET(History!C22,0,COUNTA(History!22:22)-3)),"")</f>
         <v/>
       </c>
       <c r="D22" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E22" s="4" t="str">
-        <f>IF(History!A22&lt;&gt;0,COUNTIF(History!22:22,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A22&lt;&gt;0,COUNTIF(History!C22:OFFSET(History!C22,0,COUNTA(History!22:22)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F22" s="4" t="str">
-        <f>IF(History!A22&lt;&gt;0,COUNTIF(History!22:22,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A22&lt;&gt;0,COUNTIF(History!C22:OFFSET(History!C22,0,COUNTA(History!22:22)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G22" s="6" t="str">
-        <f>IF(MAX(History!22:22)&gt;0,MAX(History!22:22),"")</f>
+        <f ca="1">IF(MAX(History!22:22)&gt;0,MAX(History!C22:OFFSET(History!C22,0,COUNTA(History!22:22)-3)),"")</f>
         <v/>
       </c>
       <c r="H22" s="6" t="str">
-        <f>IF(History!A22&lt;&gt;0,MIN(History!22:22),"")</f>
+        <f ca="1">IF(History!A22&lt;&gt;0,MIN(History!C22:OFFSET(History!C22,0,COUNTA(History!22:22)-3)),"")</f>
         <v/>
       </c>
       <c r="I22" s="6" t="str">
@@ -1435,27 +1437,27 @@
         <v/>
       </c>
       <c r="C23" s="4" t="str">
-        <f>IF(History!A23&lt;&gt;"",SUM(History!23:23),"")</f>
+        <f ca="1">IF(History!A23&lt;&gt;"",SUM(History!C23:OFFSET(History!C23,0,COUNTA(History!23:23)-3)),"")</f>
         <v/>
       </c>
       <c r="D23" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E23" s="4" t="str">
-        <f>IF(History!A23&lt;&gt;0,COUNTIF(History!23:23,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A23&lt;&gt;0,COUNTIF(History!C23:OFFSET(History!C23,0,COUNTA(History!23:23)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F23" s="4" t="str">
-        <f>IF(History!A23&lt;&gt;0,COUNTIF(History!23:23,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A23&lt;&gt;0,COUNTIF(History!C23:OFFSET(History!C23,0,COUNTA(History!23:23)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G23" s="6" t="str">
-        <f>IF(MAX(History!23:23)&gt;0,MAX(History!23:23),"")</f>
+        <f ca="1">IF(MAX(History!23:23)&gt;0,MAX(History!C23:OFFSET(History!C23,0,COUNTA(History!23:23)-3)),"")</f>
         <v/>
       </c>
       <c r="H23" s="6" t="str">
-        <f>IF(History!A23&lt;&gt;0,MIN(History!23:23),"")</f>
+        <f ca="1">IF(History!A23&lt;&gt;0,MIN(History!C23:OFFSET(History!C23,0,COUNTA(History!23:23)-3)),"")</f>
         <v/>
       </c>
       <c r="I23" s="6" t="str">
@@ -1476,27 +1478,27 @@
         <v/>
       </c>
       <c r="C24" s="4" t="str">
-        <f>IF(History!A24&lt;&gt;"",SUM(History!24:24),"")</f>
+        <f ca="1">IF(History!A24&lt;&gt;"",SUM(History!C24:OFFSET(History!C24,0,COUNTA(History!24:24)-3)),"")</f>
         <v/>
       </c>
       <c r="D24" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E24" s="4" t="str">
-        <f>IF(History!A24&lt;&gt;0,COUNTIF(History!24:24,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A24&lt;&gt;0,COUNTIF(History!C24:OFFSET(History!C24,0,COUNTA(History!24:24)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F24" s="4" t="str">
-        <f>IF(History!A24&lt;&gt;0,COUNTIF(History!24:24,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A24&lt;&gt;0,COUNTIF(History!C24:OFFSET(History!C24,0,COUNTA(History!24:24)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G24" s="6" t="str">
-        <f>IF(MAX(History!24:24)&gt;0,MAX(History!24:24),"")</f>
+        <f ca="1">IF(MAX(History!24:24)&gt;0,MAX(History!C24:OFFSET(History!C24,0,COUNTA(History!24:24)-3)),"")</f>
         <v/>
       </c>
       <c r="H24" s="6" t="str">
-        <f>IF(History!A24&lt;&gt;0,MIN(History!24:24),"")</f>
+        <f ca="1">IF(History!A24&lt;&gt;0,MIN(History!C24:OFFSET(History!C24,0,COUNTA(History!24:24)-3)),"")</f>
         <v/>
       </c>
       <c r="I24" s="6" t="str">
@@ -1517,27 +1519,27 @@
         <v/>
       </c>
       <c r="C25" s="4" t="str">
-        <f>IF(History!A25&lt;&gt;"",SUM(History!25:25),"")</f>
+        <f ca="1">IF(History!A25&lt;&gt;"",SUM(History!C25:OFFSET(History!C25,0,COUNTA(History!25:25)-3)),"")</f>
         <v/>
       </c>
       <c r="D25" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E25" s="4" t="str">
-        <f>IF(History!A25&lt;&gt;0,COUNTIF(History!25:25,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A25&lt;&gt;0,COUNTIF(History!C25:OFFSET(History!C25,0,COUNTA(History!25:25)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F25" s="4" t="str">
-        <f>IF(History!A25&lt;&gt;0,COUNTIF(History!25:25,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A25&lt;&gt;0,COUNTIF(History!C25:OFFSET(History!C25,0,COUNTA(History!25:25)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G25" s="6" t="str">
-        <f>IF(MAX(History!25:25)&gt;0,MAX(History!25:25),"")</f>
+        <f ca="1">IF(MAX(History!25:25)&gt;0,MAX(History!C25:OFFSET(History!C25,0,COUNTA(History!25:25)-3)),"")</f>
         <v/>
       </c>
       <c r="H25" s="6" t="str">
-        <f>IF(History!A25&lt;&gt;0,MIN(History!25:25),"")</f>
+        <f ca="1">IF(History!A25&lt;&gt;0,MIN(History!C25:OFFSET(History!C25,0,COUNTA(History!25:25)-3)),"")</f>
         <v/>
       </c>
       <c r="I25" s="6" t="str">
@@ -1558,27 +1560,27 @@
         <v/>
       </c>
       <c r="C26" s="4" t="str">
-        <f>IF(History!A26&lt;&gt;"",SUM(History!26:26),"")</f>
+        <f ca="1">IF(History!A26&lt;&gt;"",SUM(History!C26:OFFSET(History!C26,0,COUNTA(History!26:26)-3)),"")</f>
         <v/>
       </c>
       <c r="D26" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E26" s="4" t="str">
-        <f>IF(History!A26&lt;&gt;0,COUNTIF(History!26:26,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A26&lt;&gt;0,COUNTIF(History!C26:OFFSET(History!C26,0,COUNTA(History!26:26)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F26" s="4" t="str">
-        <f>IF(History!A26&lt;&gt;0,COUNTIF(History!26:26,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A26&lt;&gt;0,COUNTIF(History!C26:OFFSET(History!C26,0,COUNTA(History!26:26)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G26" s="6" t="str">
-        <f>IF(MAX(History!26:26)&gt;0,MAX(History!26:26),"")</f>
+        <f ca="1">IF(MAX(History!26:26)&gt;0,MAX(History!C26:OFFSET(History!C26,0,COUNTA(History!26:26)-3)),"")</f>
         <v/>
       </c>
       <c r="H26" s="6" t="str">
-        <f>IF(History!A26&lt;&gt;0,MIN(History!26:26),"")</f>
+        <f ca="1">IF(History!A26&lt;&gt;0,MIN(History!C26:OFFSET(History!C26,0,COUNTA(History!26:26)-3)),"")</f>
         <v/>
       </c>
       <c r="I26" s="6" t="str">
@@ -1599,27 +1601,27 @@
         <v/>
       </c>
       <c r="C27" s="4" t="str">
-        <f>IF(History!A27&lt;&gt;"",SUM(History!27:27),"")</f>
+        <f ca="1">IF(History!A27&lt;&gt;"",SUM(History!C27:OFFSET(History!C27,0,COUNTA(History!27:27)-3)),"")</f>
         <v/>
       </c>
       <c r="D27" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E27" s="4" t="str">
-        <f>IF(History!A27&lt;&gt;0,COUNTIF(History!27:27,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A27&lt;&gt;0,COUNTIF(History!C27:OFFSET(History!C27,0,COUNTA(History!27:27)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F27" s="4" t="str">
-        <f>IF(History!A27&lt;&gt;0,COUNTIF(History!27:27,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A27&lt;&gt;0,COUNTIF(History!C27:OFFSET(History!C27,0,COUNTA(History!27:27)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G27" s="6" t="str">
-        <f>IF(MAX(History!27:27)&gt;0,MAX(History!27:27),"")</f>
+        <f ca="1">IF(MAX(History!27:27)&gt;0,MAX(History!C27:OFFSET(History!C27,0,COUNTA(History!27:27)-3)),"")</f>
         <v/>
       </c>
       <c r="H27" s="6" t="str">
-        <f>IF(History!A27&lt;&gt;0,MIN(History!27:27),"")</f>
+        <f ca="1">IF(History!A27&lt;&gt;0,MIN(History!C27:OFFSET(History!C27,0,COUNTA(History!27:27)-3)),"")</f>
         <v/>
       </c>
       <c r="I27" s="6" t="str">
@@ -1640,27 +1642,27 @@
         <v/>
       </c>
       <c r="C28" s="4" t="str">
-        <f>IF(History!A28&lt;&gt;"",SUM(History!28:28),"")</f>
+        <f ca="1">IF(History!A28&lt;&gt;"",SUM(History!C28:OFFSET(History!C28,0,COUNTA(History!28:28)-3)),"")</f>
         <v/>
       </c>
       <c r="D28" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E28" s="4" t="str">
-        <f>IF(History!A28&lt;&gt;0,COUNTIF(History!28:28,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A28&lt;&gt;0,COUNTIF(History!C28:OFFSET(History!C28,0,COUNTA(History!28:28)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F28" s="4" t="str">
-        <f>IF(History!A28&lt;&gt;0,COUNTIF(History!28:28,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A28&lt;&gt;0,COUNTIF(History!C28:OFFSET(History!C28,0,COUNTA(History!28:28)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G28" s="6" t="str">
-        <f>IF(MAX(History!28:28)&gt;0,MAX(History!28:28),"")</f>
+        <f ca="1">IF(MAX(History!28:28)&gt;0,MAX(History!C28:OFFSET(History!C28,0,COUNTA(History!28:28)-3)),"")</f>
         <v/>
       </c>
       <c r="H28" s="6" t="str">
-        <f>IF(History!A28&lt;&gt;0,MIN(History!28:28),"")</f>
+        <f ca="1">IF(History!A28&lt;&gt;0,MIN(History!C28:OFFSET(History!C28,0,COUNTA(History!28:28)-3)),"")</f>
         <v/>
       </c>
       <c r="I28" s="6" t="str">
@@ -1681,27 +1683,27 @@
         <v/>
       </c>
       <c r="C29" s="4" t="str">
-        <f>IF(History!A29&lt;&gt;"",SUM(History!29:29),"")</f>
+        <f ca="1">IF(History!A29&lt;&gt;"",SUM(History!C29:OFFSET(History!C29,0,COUNTA(History!29:29)-3)),"")</f>
         <v/>
       </c>
       <c r="D29" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E29" s="4" t="str">
-        <f>IF(History!A29&lt;&gt;0,COUNTIF(History!29:29,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A29&lt;&gt;0,COUNTIF(History!C29:OFFSET(History!C29,0,COUNTA(History!29:29)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F29" s="4" t="str">
-        <f>IF(History!A29&lt;&gt;0,COUNTIF(History!29:29,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A29&lt;&gt;0,COUNTIF(History!C29:OFFSET(History!C29,0,COUNTA(History!29:29)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G29" s="6" t="str">
-        <f>IF(MAX(History!29:29)&gt;0,MAX(History!29:29),"")</f>
+        <f ca="1">IF(MAX(History!29:29)&gt;0,MAX(History!C29:OFFSET(History!C29,0,COUNTA(History!29:29)-3)),"")</f>
         <v/>
       </c>
       <c r="H29" s="6" t="str">
-        <f>IF(History!A29&lt;&gt;0,MIN(History!29:29),"")</f>
+        <f ca="1">IF(History!A29&lt;&gt;0,MIN(History!C29:OFFSET(History!C29,0,COUNTA(History!29:29)-3)),"")</f>
         <v/>
       </c>
       <c r="I29" s="6" t="str">
@@ -1722,27 +1724,27 @@
         <v/>
       </c>
       <c r="C30" s="4" t="str">
-        <f>IF(History!A30&lt;&gt;"",SUM(History!30:30),"")</f>
+        <f ca="1">IF(History!A30&lt;&gt;"",SUM(History!C30:OFFSET(History!C30,0,COUNTA(History!30:30)-3)),"")</f>
         <v/>
       </c>
       <c r="D30" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E30" s="4" t="str">
-        <f>IF(History!A30&lt;&gt;0,COUNTIF(History!30:30,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A30&lt;&gt;0,COUNTIF(History!C30:OFFSET(History!C30,0,COUNTA(History!30:30)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F30" s="4" t="str">
-        <f>IF(History!A30&lt;&gt;0,COUNTIF(History!30:30,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A30&lt;&gt;0,COUNTIF(History!C30:OFFSET(History!C30,0,COUNTA(History!30:30)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G30" s="6" t="str">
-        <f>IF(MAX(History!30:30)&gt;0,MAX(History!30:30),"")</f>
+        <f ca="1">IF(MAX(History!30:30)&gt;0,MAX(History!C30:OFFSET(History!C30,0,COUNTA(History!30:30)-3)),"")</f>
         <v/>
       </c>
       <c r="H30" s="6" t="str">
-        <f>IF(History!A30&lt;&gt;0,MIN(History!30:30),"")</f>
+        <f ca="1">IF(History!A30&lt;&gt;0,MIN(History!C30:OFFSET(History!C30,0,COUNTA(History!30:30)-3)),"")</f>
         <v/>
       </c>
       <c r="I30" s="6" t="str">
@@ -1763,27 +1765,27 @@
         <v/>
       </c>
       <c r="C31" s="4" t="str">
-        <f>IF(History!A31&lt;&gt;"",SUM(History!31:31),"")</f>
+        <f ca="1">IF(History!A31&lt;&gt;"",SUM(History!C31:OFFSET(History!C31,0,COUNTA(History!31:31)-3)),"")</f>
         <v/>
       </c>
       <c r="D31" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E31" s="4" t="str">
-        <f>IF(History!A31&lt;&gt;0,COUNTIF(History!31:31,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A31&lt;&gt;0,COUNTIF(History!C31:OFFSET(History!C31,0,COUNTA(History!31:31)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F31" s="4" t="str">
-        <f>IF(History!A31&lt;&gt;0,COUNTIF(History!31:31,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A31&lt;&gt;0,COUNTIF(History!C31:OFFSET(History!C31,0,COUNTA(History!31:31)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G31" s="6" t="str">
-        <f>IF(MAX(History!31:31)&gt;0,MAX(History!31:31),"")</f>
+        <f ca="1">IF(MAX(History!31:31)&gt;0,MAX(History!C31:OFFSET(History!C31,0,COUNTA(History!31:31)-3)),"")</f>
         <v/>
       </c>
       <c r="H31" s="6" t="str">
-        <f>IF(History!A31&lt;&gt;0,MIN(History!31:31),"")</f>
+        <f ca="1">IF(History!A31&lt;&gt;0,MIN(History!C31:OFFSET(History!C31,0,COUNTA(History!31:31)-3)),"")</f>
         <v/>
       </c>
       <c r="I31" s="6" t="str">
@@ -1804,27 +1806,27 @@
         <v/>
       </c>
       <c r="C32" s="4" t="str">
-        <f>IF(History!A32&lt;&gt;"",SUM(History!32:32),"")</f>
+        <f ca="1">IF(History!A32&lt;&gt;"",SUM(History!C32:OFFSET(History!C32,0,COUNTA(History!32:32)-3)),"")</f>
         <v/>
       </c>
       <c r="D32" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E32" s="4" t="str">
-        <f>IF(History!A32&lt;&gt;0,COUNTIF(History!32:32,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A32&lt;&gt;0,COUNTIF(History!C32:OFFSET(History!C32,0,COUNTA(History!32:32)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F32" s="4" t="str">
-        <f>IF(History!A32&lt;&gt;0,COUNTIF(History!32:32,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A32&lt;&gt;0,COUNTIF(History!C32:OFFSET(History!C32,0,COUNTA(History!32:32)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G32" s="6" t="str">
-        <f>IF(MAX(History!32:32)&gt;0,MAX(History!32:32),"")</f>
+        <f ca="1">IF(MAX(History!32:32)&gt;0,MAX(History!C32:OFFSET(History!C32,0,COUNTA(History!32:32)-3)),"")</f>
         <v/>
       </c>
       <c r="H32" s="6" t="str">
-        <f>IF(History!A32&lt;&gt;0,MIN(History!32:32),"")</f>
+        <f ca="1">IF(History!A32&lt;&gt;0,MIN(History!C32:OFFSET(History!C32,0,COUNTA(History!32:32)-3)),"")</f>
         <v/>
       </c>
       <c r="I32" s="6" t="str">
@@ -1845,27 +1847,27 @@
         <v/>
       </c>
       <c r="C33" s="4" t="str">
-        <f>IF(History!A33&lt;&gt;"",SUM(History!33:33),"")</f>
+        <f ca="1">IF(History!A33&lt;&gt;"",SUM(History!C33:OFFSET(History!C33,0,COUNTA(History!33:33)-3)),"")</f>
         <v/>
       </c>
       <c r="D33" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E33" s="4" t="str">
-        <f>IF(History!A33&lt;&gt;0,COUNTIF(History!33:33,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A33&lt;&gt;0,COUNTIF(History!C33:OFFSET(History!C33,0,COUNTA(History!33:33)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F33" s="4" t="str">
-        <f>IF(History!A33&lt;&gt;0,COUNTIF(History!33:33,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A33&lt;&gt;0,COUNTIF(History!C33:OFFSET(History!C33,0,COUNTA(History!33:33)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G33" s="6" t="str">
-        <f>IF(MAX(History!33:33)&gt;0,MAX(History!33:33),"")</f>
+        <f ca="1">IF(MAX(History!33:33)&gt;0,MAX(History!C33:OFFSET(History!C33,0,COUNTA(History!33:33)-3)),"")</f>
         <v/>
       </c>
       <c r="H33" s="6" t="str">
-        <f>IF(History!A33&lt;&gt;0,MIN(History!33:33),"")</f>
+        <f ca="1">IF(History!A33&lt;&gt;0,MIN(History!C33:OFFSET(History!C33,0,COUNTA(History!33:33)-3)),"")</f>
         <v/>
       </c>
       <c r="I33" s="6" t="str">
@@ -1886,27 +1888,27 @@
         <v/>
       </c>
       <c r="C34" s="4" t="str">
-        <f>IF(History!A34&lt;&gt;"",SUM(History!34:34),"")</f>
+        <f ca="1">IF(History!A34&lt;&gt;"",SUM(History!C34:OFFSET(History!C34,0,COUNTA(History!34:34)-3)),"")</f>
         <v/>
       </c>
       <c r="D34" s="8" t="str">
-        <f t="shared" ref="D34:D65" si="1">IFERROR(E34/(E34+F34),"")</f>
+        <f t="shared" ref="D34:D65" ca="1" si="1">IFERROR(E34/(E34+F34),"")</f>
         <v/>
       </c>
       <c r="E34" s="4" t="str">
-        <f>IF(History!A34&lt;&gt;0,COUNTIF(History!34:34,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A34&lt;&gt;0,COUNTIF(History!C34:OFFSET(History!C34,0,COUNTA(History!34:34)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F34" s="4" t="str">
-        <f>IF(History!A34&lt;&gt;0,COUNTIF(History!34:34,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A34&lt;&gt;0,COUNTIF(History!C34:OFFSET(History!C34,0,COUNTA(History!34:34)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G34" s="6" t="str">
-        <f>IF(MAX(History!34:34)&gt;0,MAX(History!34:34),"")</f>
+        <f ca="1">IF(MAX(History!34:34)&gt;0,MAX(History!C34:OFFSET(History!C34,0,COUNTA(History!34:34)-3)),"")</f>
         <v/>
       </c>
       <c r="H34" s="6" t="str">
-        <f>IF(History!A34&lt;&gt;0,MIN(History!34:34),"")</f>
+        <f ca="1">IF(History!A34&lt;&gt;0,MIN(History!C34:OFFSET(History!C34,0,COUNTA(History!34:34)-3)),"")</f>
         <v/>
       </c>
       <c r="I34" s="6" t="str">
@@ -1927,27 +1929,27 @@
         <v/>
       </c>
       <c r="C35" s="4" t="str">
-        <f>IF(History!A35&lt;&gt;"",SUM(History!35:35),"")</f>
+        <f ca="1">IF(History!A35&lt;&gt;"",SUM(History!C35:OFFSET(History!C35,0,COUNTA(History!35:35)-3)),"")</f>
         <v/>
       </c>
       <c r="D35" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="E35" s="4" t="str">
-        <f>IF(History!A35&lt;&gt;0,COUNTIF(History!35:35,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A35&lt;&gt;0,COUNTIF(History!C35:OFFSET(History!C35,0,COUNTA(History!35:35)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F35" s="4" t="str">
-        <f>IF(History!A35&lt;&gt;0,COUNTIF(History!35:35,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A35&lt;&gt;0,COUNTIF(History!C35:OFFSET(History!C35,0,COUNTA(History!35:35)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G35" s="6" t="str">
-        <f>IF(MAX(History!35:35)&gt;0,MAX(History!35:35),"")</f>
+        <f ca="1">IF(MAX(History!35:35)&gt;0,MAX(History!C35:OFFSET(History!C35,0,COUNTA(History!35:35)-3)),"")</f>
         <v/>
       </c>
       <c r="H35" s="6" t="str">
-        <f>IF(History!A35&lt;&gt;0,MIN(History!35:35),"")</f>
+        <f ca="1">IF(History!A35&lt;&gt;0,MIN(History!C35:OFFSET(History!C35,0,COUNTA(History!35:35)-3)),"")</f>
         <v/>
       </c>
       <c r="I35" s="6" t="str">
@@ -1968,27 +1970,27 @@
         <v/>
       </c>
       <c r="C36" s="4" t="str">
-        <f>IF(History!A36&lt;&gt;"",SUM(History!36:36),"")</f>
+        <f ca="1">IF(History!A36&lt;&gt;"",SUM(History!C36:OFFSET(History!C36,0,COUNTA(History!36:36)-3)),"")</f>
         <v/>
       </c>
       <c r="D36" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="E36" s="4" t="str">
-        <f>IF(History!A36&lt;&gt;0,COUNTIF(History!36:36,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A36&lt;&gt;0,COUNTIF(History!C36:OFFSET(History!C36,0,COUNTA(History!36:36)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F36" s="4" t="str">
-        <f>IF(History!A36&lt;&gt;0,COUNTIF(History!36:36,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A36&lt;&gt;0,COUNTIF(History!C36:OFFSET(History!C36,0,COUNTA(History!36:36)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G36" s="6" t="str">
-        <f>IF(MAX(History!36:36)&gt;0,MAX(History!36:36),"")</f>
+        <f ca="1">IF(MAX(History!36:36)&gt;0,MAX(History!C36:OFFSET(History!C36,0,COUNTA(History!36:36)-3)),"")</f>
         <v/>
       </c>
       <c r="H36" s="6" t="str">
-        <f>IF(History!A36&lt;&gt;0,MIN(History!36:36),"")</f>
+        <f ca="1">IF(History!A36&lt;&gt;0,MIN(History!C36:OFFSET(History!C36,0,COUNTA(History!36:36)-3)),"")</f>
         <v/>
       </c>
       <c r="I36" s="6" t="str">
@@ -2009,27 +2011,27 @@
         <v/>
       </c>
       <c r="C37" s="4" t="str">
-        <f>IF(History!A37&lt;&gt;"",SUM(History!37:37),"")</f>
+        <f ca="1">IF(History!A37&lt;&gt;"",SUM(History!C37:OFFSET(History!C37,0,COUNTA(History!37:37)-3)),"")</f>
         <v/>
       </c>
       <c r="D37" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="E37" s="4" t="str">
-        <f>IF(History!A37&lt;&gt;0,COUNTIF(History!37:37,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A37&lt;&gt;0,COUNTIF(History!C37:OFFSET(History!C37,0,COUNTA(History!37:37)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F37" s="4" t="str">
-        <f>IF(History!A37&lt;&gt;0,COUNTIF(History!37:37,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A37&lt;&gt;0,COUNTIF(History!C37:OFFSET(History!C37,0,COUNTA(History!37:37)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G37" s="6" t="str">
-        <f>IF(MAX(History!37:37)&gt;0,MAX(History!37:37),"")</f>
+        <f ca="1">IF(MAX(History!37:37)&gt;0,MAX(History!C37:OFFSET(History!C37,0,COUNTA(History!37:37)-3)),"")</f>
         <v/>
       </c>
       <c r="H37" s="6" t="str">
-        <f>IF(History!A37&lt;&gt;0,MIN(History!37:37),"")</f>
+        <f ca="1">IF(History!A37&lt;&gt;0,MIN(History!C37:OFFSET(History!C37,0,COUNTA(History!37:37)-3)),"")</f>
         <v/>
       </c>
       <c r="I37" s="6" t="str">
@@ -2050,27 +2052,27 @@
         <v/>
       </c>
       <c r="C38" s="4" t="str">
-        <f>IF(History!A38&lt;&gt;"",SUM(History!38:38),"")</f>
+        <f ca="1">IF(History!A38&lt;&gt;"",SUM(History!C38:OFFSET(History!C38,0,COUNTA(History!38:38)-3)),"")</f>
         <v/>
       </c>
       <c r="D38" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="E38" s="4" t="str">
-        <f>IF(History!A38&lt;&gt;0,COUNTIF(History!38:38,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A38&lt;&gt;0,COUNTIF(History!C38:OFFSET(History!C38,0,COUNTA(History!38:38)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F38" s="4" t="str">
-        <f>IF(History!A38&lt;&gt;0,COUNTIF(History!38:38,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A38&lt;&gt;0,COUNTIF(History!C38:OFFSET(History!C38,0,COUNTA(History!38:38)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G38" s="6" t="str">
-        <f>IF(MAX(History!38:38)&gt;0,MAX(History!38:38),"")</f>
+        <f ca="1">IF(MAX(History!38:38)&gt;0,MAX(History!C38:OFFSET(History!C38,0,COUNTA(History!38:38)-3)),"")</f>
         <v/>
       </c>
       <c r="H38" s="6" t="str">
-        <f>IF(History!A38&lt;&gt;0,MIN(History!38:38),"")</f>
+        <f ca="1">IF(History!A38&lt;&gt;0,MIN(History!C38:OFFSET(History!C38,0,COUNTA(History!38:38)-3)),"")</f>
         <v/>
       </c>
       <c r="I38" s="6" t="str">
@@ -2091,27 +2093,27 @@
         <v/>
       </c>
       <c r="C39" s="4" t="str">
-        <f>IF(History!A39&lt;&gt;"",SUM(History!39:39),"")</f>
+        <f ca="1">IF(History!A39&lt;&gt;"",SUM(History!C39:OFFSET(History!C39,0,COUNTA(History!39:39)-3)),"")</f>
         <v/>
       </c>
       <c r="D39" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="E39" s="4" t="str">
-        <f>IF(History!A39&lt;&gt;0,COUNTIF(History!39:39,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A39&lt;&gt;0,COUNTIF(History!C39:OFFSET(History!C39,0,COUNTA(History!39:39)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F39" s="4" t="str">
-        <f>IF(History!A39&lt;&gt;0,COUNTIF(History!39:39,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A39&lt;&gt;0,COUNTIF(History!C39:OFFSET(History!C39,0,COUNTA(History!39:39)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G39" s="6" t="str">
-        <f>IF(MAX(History!39:39)&gt;0,MAX(History!39:39),"")</f>
+        <f ca="1">IF(MAX(History!39:39)&gt;0,MAX(History!C39:OFFSET(History!C39,0,COUNTA(History!39:39)-3)),"")</f>
         <v/>
       </c>
       <c r="H39" s="6" t="str">
-        <f>IF(History!A39&lt;&gt;0,MIN(History!39:39),"")</f>
+        <f ca="1">IF(History!A39&lt;&gt;0,MIN(History!C39:OFFSET(History!C39,0,COUNTA(History!39:39)-3)),"")</f>
         <v/>
       </c>
       <c r="I39" s="6" t="str">
@@ -2132,27 +2134,27 @@
         <v/>
       </c>
       <c r="C40" s="4" t="str">
-        <f>IF(History!A40&lt;&gt;"",SUM(History!40:40),"")</f>
+        <f ca="1">IF(History!A40&lt;&gt;"",SUM(History!C40:OFFSET(History!C40,0,COUNTA(History!40:40)-3)),"")</f>
         <v/>
       </c>
       <c r="D40" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="E40" s="4" t="str">
-        <f>IF(History!A40&lt;&gt;0,COUNTIF(History!40:40,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A40&lt;&gt;0,COUNTIF(History!C40:OFFSET(History!C40,0,COUNTA(History!40:40)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F40" s="4" t="str">
-        <f>IF(History!A40&lt;&gt;0,COUNTIF(History!40:40,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A40&lt;&gt;0,COUNTIF(History!C40:OFFSET(History!C40,0,COUNTA(History!40:40)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G40" s="6" t="str">
-        <f>IF(MAX(History!40:40)&gt;0,MAX(History!40:40),"")</f>
+        <f ca="1">IF(MAX(History!40:40)&gt;0,MAX(History!C40:OFFSET(History!C40,0,COUNTA(History!40:40)-3)),"")</f>
         <v/>
       </c>
       <c r="H40" s="6" t="str">
-        <f>IF(History!A40&lt;&gt;0,MIN(History!40:40),"")</f>
+        <f ca="1">IF(History!A40&lt;&gt;0,MIN(History!C40:OFFSET(History!C40,0,COUNTA(History!40:40)-3)),"")</f>
         <v/>
       </c>
       <c r="I40" s="6" t="str">
@@ -2173,27 +2175,27 @@
         <v/>
       </c>
       <c r="C41" s="4" t="str">
-        <f>IF(History!A41&lt;&gt;"",SUM(History!41:41),"")</f>
+        <f ca="1">IF(History!A41&lt;&gt;"",SUM(History!C41:OFFSET(History!C41,0,COUNTA(History!41:41)-3)),"")</f>
         <v/>
       </c>
       <c r="D41" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="E41" s="4" t="str">
-        <f>IF(History!A41&lt;&gt;0,COUNTIF(History!41:41,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A41&lt;&gt;0,COUNTIF(History!C41:OFFSET(History!C41,0,COUNTA(History!41:41)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F41" s="4" t="str">
-        <f>IF(History!A41&lt;&gt;0,COUNTIF(History!41:41,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A41&lt;&gt;0,COUNTIF(History!C41:OFFSET(History!C41,0,COUNTA(History!41:41)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G41" s="6" t="str">
-        <f>IF(MAX(History!41:41)&gt;0,MAX(History!41:41),"")</f>
+        <f ca="1">IF(MAX(History!41:41)&gt;0,MAX(History!C41:OFFSET(History!C41,0,COUNTA(History!41:41)-3)),"")</f>
         <v/>
       </c>
       <c r="H41" s="6" t="str">
-        <f>IF(History!A41&lt;&gt;0,MIN(History!41:41),"")</f>
+        <f ca="1">IF(History!A41&lt;&gt;0,MIN(History!C41:OFFSET(History!C41,0,COUNTA(History!41:41)-3)),"")</f>
         <v/>
       </c>
       <c r="I41" s="6" t="str">
@@ -2214,27 +2216,27 @@
         <v/>
       </c>
       <c r="C42" s="4" t="str">
-        <f>IF(History!A42&lt;&gt;"",SUM(History!42:42),"")</f>
+        <f ca="1">IF(History!A42&lt;&gt;"",SUM(History!C42:OFFSET(History!C42,0,COUNTA(History!42:42)-3)),"")</f>
         <v/>
       </c>
       <c r="D42" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="E42" s="4" t="str">
-        <f>IF(History!A42&lt;&gt;0,COUNTIF(History!42:42,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A42&lt;&gt;0,COUNTIF(History!C42:OFFSET(History!C42,0,COUNTA(History!42:42)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F42" s="4" t="str">
-        <f>IF(History!A42&lt;&gt;0,COUNTIF(History!42:42,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A42&lt;&gt;0,COUNTIF(History!C42:OFFSET(History!C42,0,COUNTA(History!42:42)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G42" s="6" t="str">
-        <f>IF(MAX(History!42:42)&gt;0,MAX(History!42:42),"")</f>
+        <f ca="1">IF(MAX(History!42:42)&gt;0,MAX(History!C42:OFFSET(History!C42,0,COUNTA(History!42:42)-3)),"")</f>
         <v/>
       </c>
       <c r="H42" s="6" t="str">
-        <f>IF(History!A42&lt;&gt;0,MIN(History!42:42),"")</f>
+        <f ca="1">IF(History!A42&lt;&gt;0,MIN(History!C42:OFFSET(History!C42,0,COUNTA(History!42:42)-3)),"")</f>
         <v/>
       </c>
       <c r="I42" s="6" t="str">
@@ -2255,27 +2257,27 @@
         <v/>
       </c>
       <c r="C43" s="4" t="str">
-        <f>IF(History!A43&lt;&gt;"",SUM(History!43:43),"")</f>
+        <f ca="1">IF(History!A43&lt;&gt;"",SUM(History!C43:OFFSET(History!C43,0,COUNTA(History!43:43)-3)),"")</f>
         <v/>
       </c>
       <c r="D43" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="E43" s="4" t="str">
-        <f>IF(History!A43&lt;&gt;0,COUNTIF(History!43:43,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A43&lt;&gt;0,COUNTIF(History!C43:OFFSET(History!C43,0,COUNTA(History!43:43)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F43" s="4" t="str">
-        <f>IF(History!A43&lt;&gt;0,COUNTIF(History!43:43,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A43&lt;&gt;0,COUNTIF(History!C43:OFFSET(History!C43,0,COUNTA(History!43:43)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G43" s="6" t="str">
-        <f>IF(MAX(History!43:43)&gt;0,MAX(History!43:43),"")</f>
+        <f ca="1">IF(MAX(History!43:43)&gt;0,MAX(History!C43:OFFSET(History!C43,0,COUNTA(History!43:43)-3)),"")</f>
         <v/>
       </c>
       <c r="H43" s="6" t="str">
-        <f>IF(History!A43&lt;&gt;0,MIN(History!43:43),"")</f>
+        <f ca="1">IF(History!A43&lt;&gt;0,MIN(History!C43:OFFSET(History!C43,0,COUNTA(History!43:43)-3)),"")</f>
         <v/>
       </c>
       <c r="I43" s="6" t="str">
@@ -2296,27 +2298,27 @@
         <v/>
       </c>
       <c r="C44" s="4" t="str">
-        <f>IF(History!A44&lt;&gt;"",SUM(History!44:44),"")</f>
+        <f ca="1">IF(History!A44&lt;&gt;"",SUM(History!C44:OFFSET(History!C44,0,COUNTA(History!44:44)-3)),"")</f>
         <v/>
       </c>
       <c r="D44" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="E44" s="4" t="str">
-        <f>IF(History!A44&lt;&gt;0,COUNTIF(History!44:44,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A44&lt;&gt;0,COUNTIF(History!C44:OFFSET(History!C44,0,COUNTA(History!44:44)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F44" s="4" t="str">
-        <f>IF(History!A44&lt;&gt;0,COUNTIF(History!44:44,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A44&lt;&gt;0,COUNTIF(History!C44:OFFSET(History!C44,0,COUNTA(History!44:44)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G44" s="6" t="str">
-        <f>IF(MAX(History!44:44)&gt;0,MAX(History!44:44),"")</f>
+        <f ca="1">IF(MAX(History!44:44)&gt;0,MAX(History!C44:OFFSET(History!C44,0,COUNTA(History!44:44)-3)),"")</f>
         <v/>
       </c>
       <c r="H44" s="6" t="str">
-        <f>IF(History!A44&lt;&gt;0,MIN(History!44:44),"")</f>
+        <f ca="1">IF(History!A44&lt;&gt;0,MIN(History!C44:OFFSET(History!C44,0,COUNTA(History!44:44)-3)),"")</f>
         <v/>
       </c>
       <c r="I44" s="6" t="str">
@@ -2337,27 +2339,27 @@
         <v/>
       </c>
       <c r="C45" s="4" t="str">
-        <f>IF(History!A45&lt;&gt;"",SUM(History!45:45),"")</f>
+        <f ca="1">IF(History!A45&lt;&gt;"",SUM(History!C45:OFFSET(History!C45,0,COUNTA(History!45:45)-3)),"")</f>
         <v/>
       </c>
       <c r="D45" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="E45" s="4" t="str">
-        <f>IF(History!A45&lt;&gt;0,COUNTIF(History!45:45,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A45&lt;&gt;0,COUNTIF(History!C45:OFFSET(History!C45,0,COUNTA(History!45:45)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F45" s="4" t="str">
-        <f>IF(History!A45&lt;&gt;0,COUNTIF(History!45:45,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A45&lt;&gt;0,COUNTIF(History!C45:OFFSET(History!C45,0,COUNTA(History!45:45)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G45" s="6" t="str">
-        <f>IF(MAX(History!45:45)&gt;0,MAX(History!45:45),"")</f>
+        <f ca="1">IF(MAX(History!45:45)&gt;0,MAX(History!C45:OFFSET(History!C45,0,COUNTA(History!45:45)-3)),"")</f>
         <v/>
       </c>
       <c r="H45" s="6" t="str">
-        <f>IF(History!A45&lt;&gt;0,MIN(History!45:45),"")</f>
+        <f ca="1">IF(History!A45&lt;&gt;0,MIN(History!C45:OFFSET(History!C45,0,COUNTA(History!45:45)-3)),"")</f>
         <v/>
       </c>
       <c r="I45" s="6" t="str">
@@ -2378,27 +2380,27 @@
         <v/>
       </c>
       <c r="C46" s="4" t="str">
-        <f>IF(History!A46&lt;&gt;"",SUM(History!46:46),"")</f>
+        <f ca="1">IF(History!A46&lt;&gt;"",SUM(History!C46:OFFSET(History!C46,0,COUNTA(History!46:46)-3)),"")</f>
         <v/>
       </c>
       <c r="D46" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="E46" s="4" t="str">
-        <f>IF(History!A46&lt;&gt;0,COUNTIF(History!46:46,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A46&lt;&gt;0,COUNTIF(History!C46:OFFSET(History!C46,0,COUNTA(History!46:46)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F46" s="4" t="str">
-        <f>IF(History!A46&lt;&gt;0,COUNTIF(History!46:46,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A46&lt;&gt;0,COUNTIF(History!C46:OFFSET(History!C46,0,COUNTA(History!46:46)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G46" s="6" t="str">
-        <f>IF(MAX(History!46:46)&gt;0,MAX(History!46:46),"")</f>
+        <f ca="1">IF(MAX(History!46:46)&gt;0,MAX(History!C46:OFFSET(History!C46,0,COUNTA(History!46:46)-3)),"")</f>
         <v/>
       </c>
       <c r="H46" s="6" t="str">
-        <f>IF(History!A46&lt;&gt;0,MIN(History!46:46),"")</f>
+        <f ca="1">IF(History!A46&lt;&gt;0,MIN(History!C46:OFFSET(History!C46,0,COUNTA(History!46:46)-3)),"")</f>
         <v/>
       </c>
       <c r="I46" s="6" t="str">
@@ -2419,27 +2421,27 @@
         <v/>
       </c>
       <c r="C47" s="4" t="str">
-        <f>IF(History!A47&lt;&gt;"",SUM(History!47:47),"")</f>
+        <f ca="1">IF(History!A47&lt;&gt;"",SUM(History!C47:OFFSET(History!C47,0,COUNTA(History!47:47)-3)),"")</f>
         <v/>
       </c>
       <c r="D47" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="E47" s="4" t="str">
-        <f>IF(History!A47&lt;&gt;0,COUNTIF(History!47:47,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A47&lt;&gt;0,COUNTIF(History!C47:OFFSET(History!C47,0,COUNTA(History!47:47)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F47" s="4" t="str">
-        <f>IF(History!A47&lt;&gt;0,COUNTIF(History!47:47,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A47&lt;&gt;0,COUNTIF(History!C47:OFFSET(History!C47,0,COUNTA(History!47:47)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G47" s="6" t="str">
-        <f>IF(MAX(History!47:47)&gt;0,MAX(History!47:47),"")</f>
+        <f ca="1">IF(MAX(History!47:47)&gt;0,MAX(History!C47:OFFSET(History!C47,0,COUNTA(History!47:47)-3)),"")</f>
         <v/>
       </c>
       <c r="H47" s="6" t="str">
-        <f>IF(History!A47&lt;&gt;0,MIN(History!47:47),"")</f>
+        <f ca="1">IF(History!A47&lt;&gt;0,MIN(History!C47:OFFSET(History!C47,0,COUNTA(History!47:47)-3)),"")</f>
         <v/>
       </c>
       <c r="I47" s="6" t="str">
@@ -2460,27 +2462,27 @@
         <v/>
       </c>
       <c r="C48" s="4" t="str">
-        <f>IF(History!A48&lt;&gt;"",SUM(History!48:48),"")</f>
+        <f ca="1">IF(History!A48&lt;&gt;"",SUM(History!C48:OFFSET(History!C48,0,COUNTA(History!48:48)-3)),"")</f>
         <v/>
       </c>
       <c r="D48" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="E48" s="4" t="str">
-        <f>IF(History!A48&lt;&gt;0,COUNTIF(History!48:48,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A48&lt;&gt;0,COUNTIF(History!C48:OFFSET(History!C48,0,COUNTA(History!48:48)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F48" s="4" t="str">
-        <f>IF(History!A48&lt;&gt;0,COUNTIF(History!48:48,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A48&lt;&gt;0,COUNTIF(History!C48:OFFSET(History!C48,0,COUNTA(History!48:48)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G48" s="6" t="str">
-        <f>IF(MAX(History!48:48)&gt;0,MAX(History!48:48),"")</f>
+        <f ca="1">IF(MAX(History!48:48)&gt;0,MAX(History!C48:OFFSET(History!C48,0,COUNTA(History!48:48)-3)),"")</f>
         <v/>
       </c>
       <c r="H48" s="6" t="str">
-        <f>IF(History!A48&lt;&gt;0,MIN(History!48:48),"")</f>
+        <f ca="1">IF(History!A48&lt;&gt;0,MIN(History!C48:OFFSET(History!C48,0,COUNTA(History!48:48)-3)),"")</f>
         <v/>
       </c>
       <c r="I48" s="6" t="str">
@@ -2501,27 +2503,27 @@
         <v/>
       </c>
       <c r="C49" s="4" t="str">
-        <f>IF(History!A49&lt;&gt;"",SUM(History!49:49),"")</f>
+        <f ca="1">IF(History!A49&lt;&gt;"",SUM(History!C49:OFFSET(History!C49,0,COUNTA(History!49:49)-3)),"")</f>
         <v/>
       </c>
       <c r="D49" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="E49" s="4" t="str">
-        <f>IF(History!A49&lt;&gt;0,COUNTIF(History!49:49,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A49&lt;&gt;0,COUNTIF(History!C49:OFFSET(History!C49,0,COUNTA(History!49:49)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F49" s="4" t="str">
-        <f>IF(History!A49&lt;&gt;0,COUNTIF(History!49:49,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A49&lt;&gt;0,COUNTIF(History!C49:OFFSET(History!C49,0,COUNTA(History!49:49)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G49" s="6" t="str">
-        <f>IF(MAX(History!49:49)&gt;0,MAX(History!49:49),"")</f>
+        <f ca="1">IF(MAX(History!49:49)&gt;0,MAX(History!C49:OFFSET(History!C49,0,COUNTA(History!49:49)-3)),"")</f>
         <v/>
       </c>
       <c r="H49" s="6" t="str">
-        <f>IF(History!A49&lt;&gt;0,MIN(History!49:49),"")</f>
+        <f ca="1">IF(History!A49&lt;&gt;0,MIN(History!C49:OFFSET(History!C49,0,COUNTA(History!49:49)-3)),"")</f>
         <v/>
       </c>
       <c r="I49" s="6" t="str">
@@ -2542,27 +2544,27 @@
         <v/>
       </c>
       <c r="C50" s="4" t="str">
-        <f>IF(History!A50&lt;&gt;"",SUM(History!50:50),"")</f>
+        <f ca="1">IF(History!A50&lt;&gt;"",SUM(History!C50:OFFSET(History!C50,0,COUNTA(History!50:50)-3)),"")</f>
         <v/>
       </c>
       <c r="D50" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="E50" s="4" t="str">
-        <f>IF(History!A50&lt;&gt;0,COUNTIF(History!50:50,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A50&lt;&gt;0,COUNTIF(History!C50:OFFSET(History!C50,0,COUNTA(History!50:50)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F50" s="4" t="str">
-        <f>IF(History!A50&lt;&gt;0,COUNTIF(History!50:50,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A50&lt;&gt;0,COUNTIF(History!C50:OFFSET(History!C50,0,COUNTA(History!50:50)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G50" s="6" t="str">
-        <f>IF(MAX(History!50:50)&gt;0,MAX(History!50:50),"")</f>
+        <f ca="1">IF(MAX(History!50:50)&gt;0,MAX(History!C50:OFFSET(History!C50,0,COUNTA(History!50:50)-3)),"")</f>
         <v/>
       </c>
       <c r="H50" s="6" t="str">
-        <f>IF(History!A50&lt;&gt;0,MIN(History!50:50),"")</f>
+        <f ca="1">IF(History!A50&lt;&gt;0,MIN(History!C50:OFFSET(History!C50,0,COUNTA(History!50:50)-3)),"")</f>
         <v/>
       </c>
       <c r="I50" s="6" t="str">
@@ -2583,27 +2585,27 @@
         <v/>
       </c>
       <c r="C51" s="4" t="str">
-        <f>IF(History!A51&lt;&gt;"",SUM(History!51:51),"")</f>
+        <f ca="1">IF(History!A51&lt;&gt;"",SUM(History!C51:OFFSET(History!C51,0,COUNTA(History!51:51)-3)),"")</f>
         <v/>
       </c>
       <c r="D51" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="E51" s="4" t="str">
-        <f>IF(History!A51&lt;&gt;0,COUNTIF(History!51:51,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A51&lt;&gt;0,COUNTIF(History!C51:OFFSET(History!C51,0,COUNTA(History!51:51)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F51" s="4" t="str">
-        <f>IF(History!A51&lt;&gt;0,COUNTIF(History!51:51,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A51&lt;&gt;0,COUNTIF(History!C51:OFFSET(History!C51,0,COUNTA(History!51:51)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G51" s="6" t="str">
-        <f>IF(MAX(History!51:51)&gt;0,MAX(History!51:51),"")</f>
+        <f ca="1">IF(MAX(History!51:51)&gt;0,MAX(History!C51:OFFSET(History!C51,0,COUNTA(History!51:51)-3)),"")</f>
         <v/>
       </c>
       <c r="H51" s="6" t="str">
-        <f>IF(History!A51&lt;&gt;0,MIN(History!51:51),"")</f>
+        <f ca="1">IF(History!A51&lt;&gt;0,MIN(History!C51:OFFSET(History!C51,0,COUNTA(History!51:51)-3)),"")</f>
         <v/>
       </c>
       <c r="I51" s="6" t="str">
@@ -2624,27 +2626,27 @@
         <v/>
       </c>
       <c r="C52" s="4" t="str">
-        <f>IF(History!A52&lt;&gt;"",SUM(History!52:52),"")</f>
+        <f ca="1">IF(History!A52&lt;&gt;"",SUM(History!C52:OFFSET(History!C52,0,COUNTA(History!52:52)-3)),"")</f>
         <v/>
       </c>
       <c r="D52" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="E52" s="4" t="str">
-        <f>IF(History!A52&lt;&gt;0,COUNTIF(History!52:52,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A52&lt;&gt;0,COUNTIF(History!C52:OFFSET(History!C52,0,COUNTA(History!52:52)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F52" s="4" t="str">
-        <f>IF(History!A52&lt;&gt;0,COUNTIF(History!52:52,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A52&lt;&gt;0,COUNTIF(History!C52:OFFSET(History!C52,0,COUNTA(History!52:52)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G52" s="6" t="str">
-        <f>IF(MAX(History!52:52)&gt;0,MAX(History!52:52),"")</f>
+        <f ca="1">IF(MAX(History!52:52)&gt;0,MAX(History!C52:OFFSET(History!C52,0,COUNTA(History!52:52)-3)),"")</f>
         <v/>
       </c>
       <c r="H52" s="6" t="str">
-        <f>IF(History!A52&lt;&gt;0,MIN(History!52:52),"")</f>
+        <f ca="1">IF(History!A52&lt;&gt;0,MIN(History!C52:OFFSET(History!C52,0,COUNTA(History!52:52)-3)),"")</f>
         <v/>
       </c>
       <c r="I52" s="6" t="str">
@@ -2665,27 +2667,27 @@
         <v/>
       </c>
       <c r="C53" s="4" t="str">
-        <f>IF(History!A53&lt;&gt;"",SUM(History!53:53),"")</f>
+        <f ca="1">IF(History!A53&lt;&gt;"",SUM(History!C53:OFFSET(History!C53,0,COUNTA(History!53:53)-3)),"")</f>
         <v/>
       </c>
       <c r="D53" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="E53" s="4" t="str">
-        <f>IF(History!A53&lt;&gt;0,COUNTIF(History!53:53,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A53&lt;&gt;0,COUNTIF(History!C53:OFFSET(History!C53,0,COUNTA(History!53:53)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F53" s="4" t="str">
-        <f>IF(History!A53&lt;&gt;0,COUNTIF(History!53:53,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A53&lt;&gt;0,COUNTIF(History!C53:OFFSET(History!C53,0,COUNTA(History!53:53)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G53" s="6" t="str">
-        <f>IF(MAX(History!53:53)&gt;0,MAX(History!53:53),"")</f>
+        <f ca="1">IF(MAX(History!53:53)&gt;0,MAX(History!C53:OFFSET(History!C53,0,COUNTA(History!53:53)-3)),"")</f>
         <v/>
       </c>
       <c r="H53" s="6" t="str">
-        <f>IF(History!A53&lt;&gt;0,MIN(History!53:53),"")</f>
+        <f ca="1">IF(History!A53&lt;&gt;0,MIN(History!C53:OFFSET(History!C53,0,COUNTA(History!53:53)-3)),"")</f>
         <v/>
       </c>
       <c r="I53" s="6" t="str">
@@ -2706,27 +2708,27 @@
         <v/>
       </c>
       <c r="C54" s="4" t="str">
-        <f>IF(History!A54&lt;&gt;"",SUM(History!54:54),"")</f>
+        <f ca="1">IF(History!A54&lt;&gt;"",SUM(History!C54:OFFSET(History!C54,0,COUNTA(History!54:54)-3)),"")</f>
         <v/>
       </c>
       <c r="D54" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="E54" s="4" t="str">
-        <f>IF(History!A54&lt;&gt;0,COUNTIF(History!54:54,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A54&lt;&gt;0,COUNTIF(History!C54:OFFSET(History!C54,0,COUNTA(History!54:54)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F54" s="4" t="str">
-        <f>IF(History!A54&lt;&gt;0,COUNTIF(History!54:54,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A54&lt;&gt;0,COUNTIF(History!C54:OFFSET(History!C54,0,COUNTA(History!54:54)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G54" s="6" t="str">
-        <f>IF(MAX(History!54:54)&gt;0,MAX(History!54:54),"")</f>
+        <f ca="1">IF(MAX(History!54:54)&gt;0,MAX(History!C54:OFFSET(History!C54,0,COUNTA(History!54:54)-3)),"")</f>
         <v/>
       </c>
       <c r="H54" s="6" t="str">
-        <f>IF(History!A54&lt;&gt;0,MIN(History!54:54),"")</f>
+        <f ca="1">IF(History!A54&lt;&gt;0,MIN(History!C54:OFFSET(History!C54,0,COUNTA(History!54:54)-3)),"")</f>
         <v/>
       </c>
       <c r="I54" s="6" t="str">
@@ -2747,27 +2749,27 @@
         <v/>
       </c>
       <c r="C55" s="4" t="str">
-        <f>IF(History!A55&lt;&gt;"",SUM(History!55:55),"")</f>
+        <f ca="1">IF(History!A55&lt;&gt;"",SUM(History!C55:OFFSET(History!C55,0,COUNTA(History!55:55)-3)),"")</f>
         <v/>
       </c>
       <c r="D55" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="E55" s="4" t="str">
-        <f>IF(History!A55&lt;&gt;0,COUNTIF(History!55:55,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A55&lt;&gt;0,COUNTIF(History!C55:OFFSET(History!C55,0,COUNTA(History!55:55)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F55" s="4" t="str">
-        <f>IF(History!A55&lt;&gt;0,COUNTIF(History!55:55,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A55&lt;&gt;0,COUNTIF(History!C55:OFFSET(History!C55,0,COUNTA(History!55:55)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G55" s="6" t="str">
-        <f>IF(MAX(History!55:55)&gt;0,MAX(History!55:55),"")</f>
+        <f ca="1">IF(MAX(History!55:55)&gt;0,MAX(History!C55:OFFSET(History!C55,0,COUNTA(History!55:55)-3)),"")</f>
         <v/>
       </c>
       <c r="H55" s="6" t="str">
-        <f>IF(History!A55&lt;&gt;0,MIN(History!55:55),"")</f>
+        <f ca="1">IF(History!A55&lt;&gt;0,MIN(History!C55:OFFSET(History!C55,0,COUNTA(History!55:55)-3)),"")</f>
         <v/>
       </c>
       <c r="I55" s="6" t="str">
@@ -2788,27 +2790,27 @@
         <v/>
       </c>
       <c r="C56" s="4" t="str">
-        <f>IF(History!A56&lt;&gt;"",SUM(History!56:56),"")</f>
+        <f ca="1">IF(History!A56&lt;&gt;"",SUM(History!C56:OFFSET(History!C56,0,COUNTA(History!56:56)-3)),"")</f>
         <v/>
       </c>
       <c r="D56" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="E56" s="4" t="str">
-        <f>IF(History!A56&lt;&gt;0,COUNTIF(History!56:56,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A56&lt;&gt;0,COUNTIF(History!C56:OFFSET(History!C56,0,COUNTA(History!56:56)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F56" s="4" t="str">
-        <f>IF(History!A56&lt;&gt;0,COUNTIF(History!56:56,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A56&lt;&gt;0,COUNTIF(History!C56:OFFSET(History!C56,0,COUNTA(History!56:56)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G56" s="6" t="str">
-        <f>IF(MAX(History!56:56)&gt;0,MAX(History!56:56),"")</f>
+        <f ca="1">IF(MAX(History!56:56)&gt;0,MAX(History!C56:OFFSET(History!C56,0,COUNTA(History!56:56)-3)),"")</f>
         <v/>
       </c>
       <c r="H56" s="6" t="str">
-        <f>IF(History!A56&lt;&gt;0,MIN(History!56:56),"")</f>
+        <f ca="1">IF(History!A56&lt;&gt;0,MIN(History!C56:OFFSET(History!C56,0,COUNTA(History!56:56)-3)),"")</f>
         <v/>
       </c>
       <c r="I56" s="6" t="str">
@@ -2829,27 +2831,27 @@
         <v/>
       </c>
       <c r="C57" s="4" t="str">
-        <f>IF(History!A57&lt;&gt;"",SUM(History!57:57),"")</f>
+        <f ca="1">IF(History!A57&lt;&gt;"",SUM(History!C57:OFFSET(History!C57,0,COUNTA(History!57:57)-3)),"")</f>
         <v/>
       </c>
       <c r="D57" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="E57" s="4" t="str">
-        <f>IF(History!A57&lt;&gt;0,COUNTIF(History!57:57,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A57&lt;&gt;0,COUNTIF(History!C57:OFFSET(History!C57,0,COUNTA(History!57:57)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F57" s="4" t="str">
-        <f>IF(History!A57&lt;&gt;0,COUNTIF(History!57:57,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A57&lt;&gt;0,COUNTIF(History!C57:OFFSET(History!C57,0,COUNTA(History!57:57)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G57" s="6" t="str">
-        <f>IF(MAX(History!57:57)&gt;0,MAX(History!57:57),"")</f>
+        <f ca="1">IF(MAX(History!57:57)&gt;0,MAX(History!C57:OFFSET(History!C57,0,COUNTA(History!57:57)-3)),"")</f>
         <v/>
       </c>
       <c r="H57" s="6" t="str">
-        <f>IF(History!A57&lt;&gt;0,MIN(History!57:57),"")</f>
+        <f ca="1">IF(History!A57&lt;&gt;0,MIN(History!C57:OFFSET(History!C57,0,COUNTA(History!57:57)-3)),"")</f>
         <v/>
       </c>
       <c r="I57" s="6" t="str">
@@ -2870,27 +2872,27 @@
         <v/>
       </c>
       <c r="C58" s="4" t="str">
-        <f>IF(History!A58&lt;&gt;"",SUM(History!58:58),"")</f>
+        <f ca="1">IF(History!A58&lt;&gt;"",SUM(History!C58:OFFSET(History!C58,0,COUNTA(History!58:58)-3)),"")</f>
         <v/>
       </c>
       <c r="D58" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="E58" s="4" t="str">
-        <f>IF(History!A58&lt;&gt;0,COUNTIF(History!58:58,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A58&lt;&gt;0,COUNTIF(History!C58:OFFSET(History!C58,0,COUNTA(History!58:58)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F58" s="4" t="str">
-        <f>IF(History!A58&lt;&gt;0,COUNTIF(History!58:58,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A58&lt;&gt;0,COUNTIF(History!C58:OFFSET(History!C58,0,COUNTA(History!58:58)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G58" s="6" t="str">
-        <f>IF(MAX(History!58:58)&gt;0,MAX(History!58:58),"")</f>
+        <f ca="1">IF(MAX(History!58:58)&gt;0,MAX(History!C58:OFFSET(History!C58,0,COUNTA(History!58:58)-3)),"")</f>
         <v/>
       </c>
       <c r="H58" s="6" t="str">
-        <f>IF(History!A58&lt;&gt;0,MIN(History!58:58),"")</f>
+        <f ca="1">IF(History!A58&lt;&gt;0,MIN(History!C58:OFFSET(History!C58,0,COUNTA(History!58:58)-3)),"")</f>
         <v/>
       </c>
       <c r="I58" s="6" t="str">
@@ -2911,27 +2913,27 @@
         <v/>
       </c>
       <c r="C59" s="4" t="str">
-        <f>IF(History!A59&lt;&gt;"",SUM(History!59:59),"")</f>
+        <f ca="1">IF(History!A59&lt;&gt;"",SUM(History!C59:OFFSET(History!C59,0,COUNTA(History!59:59)-3)),"")</f>
         <v/>
       </c>
       <c r="D59" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="E59" s="4" t="str">
-        <f>IF(History!A59&lt;&gt;0,COUNTIF(History!59:59,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A59&lt;&gt;0,COUNTIF(History!C59:OFFSET(History!C59,0,COUNTA(History!59:59)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F59" s="4" t="str">
-        <f>IF(History!A59&lt;&gt;0,COUNTIF(History!59:59,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A59&lt;&gt;0,COUNTIF(History!C59:OFFSET(History!C59,0,COUNTA(History!59:59)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G59" s="6" t="str">
-        <f>IF(MAX(History!59:59)&gt;0,MAX(History!59:59),"")</f>
+        <f ca="1">IF(MAX(History!59:59)&gt;0,MAX(History!C59:OFFSET(History!C59,0,COUNTA(History!59:59)-3)),"")</f>
         <v/>
       </c>
       <c r="H59" s="6" t="str">
-        <f>IF(History!A59&lt;&gt;0,MIN(History!59:59),"")</f>
+        <f ca="1">IF(History!A59&lt;&gt;0,MIN(History!C59:OFFSET(History!C59,0,COUNTA(History!59:59)-3)),"")</f>
         <v/>
       </c>
       <c r="I59" s="6" t="str">
@@ -2952,27 +2954,27 @@
         <v/>
       </c>
       <c r="C60" s="4" t="str">
-        <f>IF(History!A60&lt;&gt;"",SUM(History!60:60),"")</f>
+        <f ca="1">IF(History!A60&lt;&gt;"",SUM(History!C60:OFFSET(History!C60,0,COUNTA(History!60:60)-3)),"")</f>
         <v/>
       </c>
       <c r="D60" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="E60" s="4" t="str">
-        <f>IF(History!A60&lt;&gt;0,COUNTIF(History!60:60,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A60&lt;&gt;0,COUNTIF(History!C60:OFFSET(History!C60,0,COUNTA(History!60:60)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F60" s="4" t="str">
-        <f>IF(History!A60&lt;&gt;0,COUNTIF(History!60:60,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A60&lt;&gt;0,COUNTIF(History!C60:OFFSET(History!C60,0,COUNTA(History!60:60)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G60" s="6" t="str">
-        <f>IF(MAX(History!60:60)&gt;0,MAX(History!60:60),"")</f>
+        <f ca="1">IF(MAX(History!60:60)&gt;0,MAX(History!C60:OFFSET(History!C60,0,COUNTA(History!60:60)-3)),"")</f>
         <v/>
       </c>
       <c r="H60" s="6" t="str">
-        <f>IF(History!A60&lt;&gt;0,MIN(History!60:60),"")</f>
+        <f ca="1">IF(History!A60&lt;&gt;0,MIN(History!C60:OFFSET(History!C60,0,COUNTA(History!60:60)-3)),"")</f>
         <v/>
       </c>
       <c r="I60" s="6" t="str">
@@ -2993,27 +2995,27 @@
         <v/>
       </c>
       <c r="C61" s="4" t="str">
-        <f>IF(History!A61&lt;&gt;"",SUM(History!61:61),"")</f>
+        <f ca="1">IF(History!A61&lt;&gt;"",SUM(History!C61:OFFSET(History!C61,0,COUNTA(History!61:61)-3)),"")</f>
         <v/>
       </c>
       <c r="D61" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="E61" s="4" t="str">
-        <f>IF(History!A61&lt;&gt;0,COUNTIF(History!61:61,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A61&lt;&gt;0,COUNTIF(History!C61:OFFSET(History!C61,0,COUNTA(History!61:61)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F61" s="4" t="str">
-        <f>IF(History!A61&lt;&gt;0,COUNTIF(History!61:61,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A61&lt;&gt;0,COUNTIF(History!C61:OFFSET(History!C61,0,COUNTA(History!61:61)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G61" s="6" t="str">
-        <f>IF(MAX(History!61:61)&gt;0,MAX(History!61:61),"")</f>
+        <f ca="1">IF(MAX(History!61:61)&gt;0,MAX(History!C61:OFFSET(History!C61,0,COUNTA(History!61:61)-3)),"")</f>
         <v/>
       </c>
       <c r="H61" s="6" t="str">
-        <f>IF(History!A61&lt;&gt;0,MIN(History!61:61),"")</f>
+        <f ca="1">IF(History!A61&lt;&gt;0,MIN(History!C61:OFFSET(History!C61,0,COUNTA(History!61:61)-3)),"")</f>
         <v/>
       </c>
       <c r="I61" s="6" t="str">
@@ -3034,27 +3036,27 @@
         <v/>
       </c>
       <c r="C62" s="4" t="str">
-        <f>IF(History!A62&lt;&gt;"",SUM(History!62:62),"")</f>
+        <f ca="1">IF(History!A62&lt;&gt;"",SUM(History!C62:OFFSET(History!C62,0,COUNTA(History!62:62)-3)),"")</f>
         <v/>
       </c>
       <c r="D62" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="E62" s="4" t="str">
-        <f>IF(History!A62&lt;&gt;0,COUNTIF(History!62:62,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A62&lt;&gt;0,COUNTIF(History!C62:OFFSET(History!C62,0,COUNTA(History!62:62)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F62" s="4" t="str">
-        <f>IF(History!A62&lt;&gt;0,COUNTIF(History!62:62,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A62&lt;&gt;0,COUNTIF(History!C62:OFFSET(History!C62,0,COUNTA(History!62:62)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G62" s="6" t="str">
-        <f>IF(MAX(History!62:62)&gt;0,MAX(History!62:62),"")</f>
+        <f ca="1">IF(MAX(History!62:62)&gt;0,MAX(History!C62:OFFSET(History!C62,0,COUNTA(History!62:62)-3)),"")</f>
         <v/>
       </c>
       <c r="H62" s="6" t="str">
-        <f>IF(History!A62&lt;&gt;0,MIN(History!62:62),"")</f>
+        <f ca="1">IF(History!A62&lt;&gt;0,MIN(History!C62:OFFSET(History!C62,0,COUNTA(History!62:62)-3)),"")</f>
         <v/>
       </c>
       <c r="I62" s="6" t="str">
@@ -3075,27 +3077,27 @@
         <v/>
       </c>
       <c r="C63" s="4" t="str">
-        <f>IF(History!A63&lt;&gt;"",SUM(History!63:63),"")</f>
+        <f ca="1">IF(History!A63&lt;&gt;"",SUM(History!C63:OFFSET(History!C63,0,COUNTA(History!63:63)-3)),"")</f>
         <v/>
       </c>
       <c r="D63" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="E63" s="4" t="str">
-        <f>IF(History!A63&lt;&gt;0,COUNTIF(History!63:63,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A63&lt;&gt;0,COUNTIF(History!C63:OFFSET(History!C63,0,COUNTA(History!63:63)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F63" s="4" t="str">
-        <f>IF(History!A63&lt;&gt;0,COUNTIF(History!63:63,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A63&lt;&gt;0,COUNTIF(History!C63:OFFSET(History!C63,0,COUNTA(History!63:63)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G63" s="6" t="str">
-        <f>IF(MAX(History!63:63)&gt;0,MAX(History!63:63),"")</f>
+        <f ca="1">IF(MAX(History!63:63)&gt;0,MAX(History!C63:OFFSET(History!C63,0,COUNTA(History!63:63)-3)),"")</f>
         <v/>
       </c>
       <c r="H63" s="6" t="str">
-        <f>IF(History!A63&lt;&gt;0,MIN(History!63:63),"")</f>
+        <f ca="1">IF(History!A63&lt;&gt;0,MIN(History!C63:OFFSET(History!C63,0,COUNTA(History!63:63)-3)),"")</f>
         <v/>
       </c>
       <c r="I63" s="6" t="str">
@@ -3116,27 +3118,27 @@
         <v/>
       </c>
       <c r="C64" s="4" t="str">
-        <f>IF(History!A64&lt;&gt;"",SUM(History!64:64),"")</f>
+        <f ca="1">IF(History!A64&lt;&gt;"",SUM(History!C64:OFFSET(History!C64,0,COUNTA(History!64:64)-3)),"")</f>
         <v/>
       </c>
       <c r="D64" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="E64" s="4" t="str">
-        <f>IF(History!A64&lt;&gt;0,COUNTIF(History!64:64,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A64&lt;&gt;0,COUNTIF(History!C64:OFFSET(History!C64,0,COUNTA(History!64:64)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F64" s="4" t="str">
-        <f>IF(History!A64&lt;&gt;0,COUNTIF(History!64:64,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A64&lt;&gt;0,COUNTIF(History!C64:OFFSET(History!C64,0,COUNTA(History!64:64)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G64" s="6" t="str">
-        <f>IF(MAX(History!64:64)&gt;0,MAX(History!64:64),"")</f>
+        <f ca="1">IF(MAX(History!64:64)&gt;0,MAX(History!C64:OFFSET(History!C64,0,COUNTA(History!64:64)-3)),"")</f>
         <v/>
       </c>
       <c r="H64" s="6" t="str">
-        <f>IF(History!A64&lt;&gt;0,MIN(History!64:64),"")</f>
+        <f ca="1">IF(History!A64&lt;&gt;0,MIN(History!C64:OFFSET(History!C64,0,COUNTA(History!64:64)-3)),"")</f>
         <v/>
       </c>
       <c r="I64" s="6" t="str">
@@ -3157,27 +3159,27 @@
         <v/>
       </c>
       <c r="C65" s="4" t="str">
-        <f>IF(History!A65&lt;&gt;"",SUM(History!65:65),"")</f>
+        <f ca="1">IF(History!A65&lt;&gt;"",SUM(History!C65:OFFSET(History!C65,0,COUNTA(History!65:65)-3)),"")</f>
         <v/>
       </c>
       <c r="D65" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="E65" s="4" t="str">
-        <f>IF(History!A65&lt;&gt;0,COUNTIF(History!65:65,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A65&lt;&gt;0,COUNTIF(History!C65:OFFSET(History!C65,0,COUNTA(History!65:65)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F65" s="4" t="str">
-        <f>IF(History!A65&lt;&gt;0,COUNTIF(History!65:65,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A65&lt;&gt;0,COUNTIF(History!C65:OFFSET(History!C65,0,COUNTA(History!65:65)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G65" s="6" t="str">
-        <f>IF(MAX(History!65:65)&gt;0,MAX(History!65:65),"")</f>
+        <f ca="1">IF(MAX(History!65:65)&gt;0,MAX(History!C65:OFFSET(History!C65,0,COUNTA(History!65:65)-3)),"")</f>
         <v/>
       </c>
       <c r="H65" s="6" t="str">
-        <f>IF(History!A65&lt;&gt;0,MIN(History!65:65),"")</f>
+        <f ca="1">IF(History!A65&lt;&gt;0,MIN(History!C65:OFFSET(History!C65,0,COUNTA(History!65:65)-3)),"")</f>
         <v/>
       </c>
       <c r="I65" s="6" t="str">
@@ -3198,27 +3200,27 @@
         <v/>
       </c>
       <c r="C66" s="4" t="str">
-        <f>IF(History!A66&lt;&gt;"",SUM(History!66:66),"")</f>
+        <f ca="1">IF(History!A66&lt;&gt;"",SUM(History!C66:OFFSET(History!C66,0,COUNTA(History!66:66)-3)),"")</f>
         <v/>
       </c>
       <c r="D66" s="8" t="str">
-        <f t="shared" ref="D66:D97" si="2">IFERROR(E66/(E66+F66),"")</f>
+        <f t="shared" ref="D66:D97" ca="1" si="2">IFERROR(E66/(E66+F66),"")</f>
         <v/>
       </c>
       <c r="E66" s="4" t="str">
-        <f>IF(History!A66&lt;&gt;0,COUNTIF(History!66:66,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A66&lt;&gt;0,COUNTIF(History!C66:OFFSET(History!C66,0,COUNTA(History!66:66)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F66" s="4" t="str">
-        <f>IF(History!A66&lt;&gt;0,COUNTIF(History!66:66,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A66&lt;&gt;0,COUNTIF(History!C66:OFFSET(History!C66,0,COUNTA(History!66:66)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G66" s="6" t="str">
-        <f>IF(MAX(History!66:66)&gt;0,MAX(History!66:66),"")</f>
+        <f ca="1">IF(MAX(History!66:66)&gt;0,MAX(History!C66:OFFSET(History!C66,0,COUNTA(History!66:66)-3)),"")</f>
         <v/>
       </c>
       <c r="H66" s="6" t="str">
-        <f>IF(History!A66&lt;&gt;0,MIN(History!66:66),"")</f>
+        <f ca="1">IF(History!A66&lt;&gt;0,MIN(History!C66:OFFSET(History!C66,0,COUNTA(History!66:66)-3)),"")</f>
         <v/>
       </c>
       <c r="I66" s="6" t="str">
@@ -3239,27 +3241,27 @@
         <v/>
       </c>
       <c r="C67" s="4" t="str">
-        <f>IF(History!A67&lt;&gt;"",SUM(History!67:67),"")</f>
+        <f ca="1">IF(History!A67&lt;&gt;"",SUM(History!C67:OFFSET(History!C67,0,COUNTA(History!67:67)-3)),"")</f>
         <v/>
       </c>
       <c r="D67" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="E67" s="4" t="str">
-        <f>IF(History!A67&lt;&gt;0,COUNTIF(History!67:67,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A67&lt;&gt;0,COUNTIF(History!C67:OFFSET(History!C67,0,COUNTA(History!67:67)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F67" s="4" t="str">
-        <f>IF(History!A67&lt;&gt;0,COUNTIF(History!67:67,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A67&lt;&gt;0,COUNTIF(History!C67:OFFSET(History!C67,0,COUNTA(History!67:67)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G67" s="6" t="str">
-        <f>IF(MAX(History!67:67)&gt;0,MAX(History!67:67),"")</f>
+        <f ca="1">IF(MAX(History!67:67)&gt;0,MAX(History!C67:OFFSET(History!C67,0,COUNTA(History!67:67)-3)),"")</f>
         <v/>
       </c>
       <c r="H67" s="6" t="str">
-        <f>IF(History!A67&lt;&gt;0,MIN(History!67:67),"")</f>
+        <f ca="1">IF(History!A67&lt;&gt;0,MIN(History!C67:OFFSET(History!C67,0,COUNTA(History!67:67)-3)),"")</f>
         <v/>
       </c>
       <c r="I67" s="6" t="str">
@@ -3280,27 +3282,27 @@
         <v/>
       </c>
       <c r="C68" s="4" t="str">
-        <f>IF(History!A68&lt;&gt;"",SUM(History!68:68),"")</f>
+        <f ca="1">IF(History!A68&lt;&gt;"",SUM(History!C68:OFFSET(History!C68,0,COUNTA(History!68:68)-3)),"")</f>
         <v/>
       </c>
       <c r="D68" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="E68" s="4" t="str">
-        <f>IF(History!A68&lt;&gt;0,COUNTIF(History!68:68,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A68&lt;&gt;0,COUNTIF(History!C68:OFFSET(History!C68,0,COUNTA(History!68:68)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F68" s="4" t="str">
-        <f>IF(History!A68&lt;&gt;0,COUNTIF(History!68:68,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A68&lt;&gt;0,COUNTIF(History!C68:OFFSET(History!C68,0,COUNTA(History!68:68)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G68" s="6" t="str">
-        <f>IF(MAX(History!68:68)&gt;0,MAX(History!68:68),"")</f>
+        <f ca="1">IF(MAX(History!68:68)&gt;0,MAX(History!C68:OFFSET(History!C68,0,COUNTA(History!68:68)-3)),"")</f>
         <v/>
       </c>
       <c r="H68" s="6" t="str">
-        <f>IF(History!A68&lt;&gt;0,MIN(History!68:68),"")</f>
+        <f ca="1">IF(History!A68&lt;&gt;0,MIN(History!C68:OFFSET(History!C68,0,COUNTA(History!68:68)-3)),"")</f>
         <v/>
       </c>
       <c r="I68" s="6" t="str">
@@ -3321,27 +3323,27 @@
         <v/>
       </c>
       <c r="C69" s="4" t="str">
-        <f>IF(History!A69&lt;&gt;"",SUM(History!69:69),"")</f>
+        <f ca="1">IF(History!A69&lt;&gt;"",SUM(History!C69:OFFSET(History!C69,0,COUNTA(History!69:69)-3)),"")</f>
         <v/>
       </c>
       <c r="D69" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="E69" s="4" t="str">
-        <f>IF(History!A69&lt;&gt;0,COUNTIF(History!69:69,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A69&lt;&gt;0,COUNTIF(History!C69:OFFSET(History!C69,0,COUNTA(History!69:69)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F69" s="4" t="str">
-        <f>IF(History!A69&lt;&gt;0,COUNTIF(History!69:69,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A69&lt;&gt;0,COUNTIF(History!C69:OFFSET(History!C69,0,COUNTA(History!69:69)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G69" s="6" t="str">
-        <f>IF(MAX(History!69:69)&gt;0,MAX(History!69:69),"")</f>
+        <f ca="1">IF(MAX(History!69:69)&gt;0,MAX(History!C69:OFFSET(History!C69,0,COUNTA(History!69:69)-3)),"")</f>
         <v/>
       </c>
       <c r="H69" s="6" t="str">
-        <f>IF(History!A69&lt;&gt;0,MIN(History!69:69),"")</f>
+        <f ca="1">IF(History!A69&lt;&gt;0,MIN(History!C69:OFFSET(History!C69,0,COUNTA(History!69:69)-3)),"")</f>
         <v/>
       </c>
       <c r="I69" s="6" t="str">
@@ -3362,27 +3364,27 @@
         <v/>
       </c>
       <c r="C70" s="4" t="str">
-        <f>IF(History!A70&lt;&gt;"",SUM(History!70:70),"")</f>
+        <f ca="1">IF(History!A70&lt;&gt;"",SUM(History!C70:OFFSET(History!C70,0,COUNTA(History!70:70)-3)),"")</f>
         <v/>
       </c>
       <c r="D70" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="E70" s="4" t="str">
-        <f>IF(History!A70&lt;&gt;0,COUNTIF(History!70:70,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A70&lt;&gt;0,COUNTIF(History!C70:OFFSET(History!C70,0,COUNTA(History!70:70)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F70" s="4" t="str">
-        <f>IF(History!A70&lt;&gt;0,COUNTIF(History!70:70,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A70&lt;&gt;0,COUNTIF(History!C70:OFFSET(History!C70,0,COUNTA(History!70:70)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G70" s="6" t="str">
-        <f>IF(MAX(History!70:70)&gt;0,MAX(History!70:70),"")</f>
+        <f ca="1">IF(MAX(History!70:70)&gt;0,MAX(History!C70:OFFSET(History!C70,0,COUNTA(History!70:70)-3)),"")</f>
         <v/>
       </c>
       <c r="H70" s="6" t="str">
-        <f>IF(History!A70&lt;&gt;0,MIN(History!70:70),"")</f>
+        <f ca="1">IF(History!A70&lt;&gt;0,MIN(History!C70:OFFSET(History!C70,0,COUNTA(History!70:70)-3)),"")</f>
         <v/>
       </c>
       <c r="I70" s="6" t="str">
@@ -3403,27 +3405,27 @@
         <v/>
       </c>
       <c r="C71" s="4" t="str">
-        <f>IF(History!A71&lt;&gt;"",SUM(History!71:71),"")</f>
+        <f ca="1">IF(History!A71&lt;&gt;"",SUM(History!C71:OFFSET(History!C71,0,COUNTA(History!71:71)-3)),"")</f>
         <v/>
       </c>
       <c r="D71" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="E71" s="4" t="str">
-        <f>IF(History!A71&lt;&gt;0,COUNTIF(History!71:71,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A71&lt;&gt;0,COUNTIF(History!C71:OFFSET(History!C71,0,COUNTA(History!71:71)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F71" s="4" t="str">
-        <f>IF(History!A71&lt;&gt;0,COUNTIF(History!71:71,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A71&lt;&gt;0,COUNTIF(History!C71:OFFSET(History!C71,0,COUNTA(History!71:71)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G71" s="6" t="str">
-        <f>IF(MAX(History!71:71)&gt;0,MAX(History!71:71),"")</f>
+        <f ca="1">IF(MAX(History!71:71)&gt;0,MAX(History!C71:OFFSET(History!C71,0,COUNTA(History!71:71)-3)),"")</f>
         <v/>
       </c>
       <c r="H71" s="6" t="str">
-        <f>IF(History!A71&lt;&gt;0,MIN(History!71:71),"")</f>
+        <f ca="1">IF(History!A71&lt;&gt;0,MIN(History!C71:OFFSET(History!C71,0,COUNTA(History!71:71)-3)),"")</f>
         <v/>
       </c>
       <c r="I71" s="6" t="str">
@@ -3444,27 +3446,27 @@
         <v/>
       </c>
       <c r="C72" s="4" t="str">
-        <f>IF(History!A72&lt;&gt;"",SUM(History!72:72),"")</f>
+        <f ca="1">IF(History!A72&lt;&gt;"",SUM(History!C72:OFFSET(History!C72,0,COUNTA(History!72:72)-3)),"")</f>
         <v/>
       </c>
       <c r="D72" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="E72" s="4" t="str">
-        <f>IF(History!A72&lt;&gt;0,COUNTIF(History!72:72,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A72&lt;&gt;0,COUNTIF(History!C72:OFFSET(History!C72,0,COUNTA(History!72:72)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F72" s="4" t="str">
-        <f>IF(History!A72&lt;&gt;0,COUNTIF(History!72:72,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A72&lt;&gt;0,COUNTIF(History!C72:OFFSET(History!C72,0,COUNTA(History!72:72)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G72" s="6" t="str">
-        <f>IF(MAX(History!72:72)&gt;0,MAX(History!72:72),"")</f>
+        <f ca="1">IF(MAX(History!72:72)&gt;0,MAX(History!C72:OFFSET(History!C72,0,COUNTA(History!72:72)-3)),"")</f>
         <v/>
       </c>
       <c r="H72" s="6" t="str">
-        <f>IF(History!A72&lt;&gt;0,MIN(History!72:72),"")</f>
+        <f ca="1">IF(History!A72&lt;&gt;0,MIN(History!C72:OFFSET(History!C72,0,COUNTA(History!72:72)-3)),"")</f>
         <v/>
       </c>
       <c r="I72" s="6" t="str">
@@ -3485,27 +3487,27 @@
         <v/>
       </c>
       <c r="C73" s="4" t="str">
-        <f>IF(History!A73&lt;&gt;"",SUM(History!73:73),"")</f>
+        <f ca="1">IF(History!A73&lt;&gt;"",SUM(History!C73:OFFSET(History!C73,0,COUNTA(History!73:73)-3)),"")</f>
         <v/>
       </c>
       <c r="D73" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="E73" s="4" t="str">
-        <f>IF(History!A73&lt;&gt;0,COUNTIF(History!73:73,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A73&lt;&gt;0,COUNTIF(History!C73:OFFSET(History!C73,0,COUNTA(History!73:73)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F73" s="4" t="str">
-        <f>IF(History!A73&lt;&gt;0,COUNTIF(History!73:73,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A73&lt;&gt;0,COUNTIF(History!C73:OFFSET(History!C73,0,COUNTA(History!73:73)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G73" s="6" t="str">
-        <f>IF(MAX(History!73:73)&gt;0,MAX(History!73:73),"")</f>
+        <f ca="1">IF(MAX(History!73:73)&gt;0,MAX(History!C73:OFFSET(History!C73,0,COUNTA(History!73:73)-3)),"")</f>
         <v/>
       </c>
       <c r="H73" s="6" t="str">
-        <f>IF(History!A73&lt;&gt;0,MIN(History!73:73),"")</f>
+        <f ca="1">IF(History!A73&lt;&gt;0,MIN(History!C73:OFFSET(History!C73,0,COUNTA(History!73:73)-3)),"")</f>
         <v/>
       </c>
       <c r="I73" s="6" t="str">
@@ -3526,27 +3528,27 @@
         <v/>
       </c>
       <c r="C74" s="4" t="str">
-        <f>IF(History!A74&lt;&gt;"",SUM(History!74:74),"")</f>
+        <f ca="1">IF(History!A74&lt;&gt;"",SUM(History!C74:OFFSET(History!C74,0,COUNTA(History!74:74)-3)),"")</f>
         <v/>
       </c>
       <c r="D74" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="E74" s="4" t="str">
-        <f>IF(History!A74&lt;&gt;0,COUNTIF(History!74:74,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A74&lt;&gt;0,COUNTIF(History!C74:OFFSET(History!C74,0,COUNTA(History!74:74)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F74" s="4" t="str">
-        <f>IF(History!A74&lt;&gt;0,COUNTIF(History!74:74,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A74&lt;&gt;0,COUNTIF(History!C74:OFFSET(History!C74,0,COUNTA(History!74:74)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G74" s="6" t="str">
-        <f>IF(MAX(History!74:74)&gt;0,MAX(History!74:74),"")</f>
+        <f ca="1">IF(MAX(History!74:74)&gt;0,MAX(History!C74:OFFSET(History!C74,0,COUNTA(History!74:74)-3)),"")</f>
         <v/>
       </c>
       <c r="H74" s="6" t="str">
-        <f>IF(History!A74&lt;&gt;0,MIN(History!74:74),"")</f>
+        <f ca="1">IF(History!A74&lt;&gt;0,MIN(History!C74:OFFSET(History!C74,0,COUNTA(History!74:74)-3)),"")</f>
         <v/>
       </c>
       <c r="I74" s="6" t="str">
@@ -3567,27 +3569,27 @@
         <v/>
       </c>
       <c r="C75" s="4" t="str">
-        <f>IF(History!A75&lt;&gt;"",SUM(History!75:75),"")</f>
+        <f ca="1">IF(History!A75&lt;&gt;"",SUM(History!C75:OFFSET(History!C75,0,COUNTA(History!75:75)-3)),"")</f>
         <v/>
       </c>
       <c r="D75" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="E75" s="4" t="str">
-        <f>IF(History!A75&lt;&gt;0,COUNTIF(History!75:75,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A75&lt;&gt;0,COUNTIF(History!C75:OFFSET(History!C75,0,COUNTA(History!75:75)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F75" s="4" t="str">
-        <f>IF(History!A75&lt;&gt;0,COUNTIF(History!75:75,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A75&lt;&gt;0,COUNTIF(History!C75:OFFSET(History!C75,0,COUNTA(History!75:75)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G75" s="6" t="str">
-        <f>IF(MAX(History!75:75)&gt;0,MAX(History!75:75),"")</f>
+        <f ca="1">IF(MAX(History!75:75)&gt;0,MAX(History!C75:OFFSET(History!C75,0,COUNTA(History!75:75)-3)),"")</f>
         <v/>
       </c>
       <c r="H75" s="6" t="str">
-        <f>IF(History!A75&lt;&gt;0,MIN(History!75:75),"")</f>
+        <f ca="1">IF(History!A75&lt;&gt;0,MIN(History!C75:OFFSET(History!C75,0,COUNTA(History!75:75)-3)),"")</f>
         <v/>
       </c>
       <c r="I75" s="6" t="str">
@@ -3608,27 +3610,27 @@
         <v/>
       </c>
       <c r="C76" s="4" t="str">
-        <f>IF(History!A76&lt;&gt;"",SUM(History!76:76),"")</f>
+        <f ca="1">IF(History!A76&lt;&gt;"",SUM(History!C76:OFFSET(History!C76,0,COUNTA(History!76:76)-3)),"")</f>
         <v/>
       </c>
       <c r="D76" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="E76" s="4" t="str">
-        <f>IF(History!A76&lt;&gt;0,COUNTIF(History!76:76,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A76&lt;&gt;0,COUNTIF(History!C76:OFFSET(History!C76,0,COUNTA(History!76:76)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F76" s="4" t="str">
-        <f>IF(History!A76&lt;&gt;0,COUNTIF(History!76:76,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A76&lt;&gt;0,COUNTIF(History!C76:OFFSET(History!C76,0,COUNTA(History!76:76)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G76" s="6" t="str">
-        <f>IF(MAX(History!76:76)&gt;0,MAX(History!76:76),"")</f>
+        <f ca="1">IF(MAX(History!76:76)&gt;0,MAX(History!C76:OFFSET(History!C76,0,COUNTA(History!76:76)-3)),"")</f>
         <v/>
       </c>
       <c r="H76" s="6" t="str">
-        <f>IF(History!A76&lt;&gt;0,MIN(History!76:76),"")</f>
+        <f ca="1">IF(History!A76&lt;&gt;0,MIN(History!C76:OFFSET(History!C76,0,COUNTA(History!76:76)-3)),"")</f>
         <v/>
       </c>
       <c r="I76" s="6" t="str">
@@ -3649,27 +3651,27 @@
         <v/>
       </c>
       <c r="C77" s="4" t="str">
-        <f>IF(History!A77&lt;&gt;"",SUM(History!77:77),"")</f>
+        <f ca="1">IF(History!A77&lt;&gt;"",SUM(History!C77:OFFSET(History!C77,0,COUNTA(History!77:77)-3)),"")</f>
         <v/>
       </c>
       <c r="D77" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="E77" s="4" t="str">
-        <f>IF(History!A77&lt;&gt;0,COUNTIF(History!77:77,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A77&lt;&gt;0,COUNTIF(History!C77:OFFSET(History!C77,0,COUNTA(History!77:77)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F77" s="4" t="str">
-        <f>IF(History!A77&lt;&gt;0,COUNTIF(History!77:77,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A77&lt;&gt;0,COUNTIF(History!C77:OFFSET(History!C77,0,COUNTA(History!77:77)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G77" s="6" t="str">
-        <f>IF(MAX(History!77:77)&gt;0,MAX(History!77:77),"")</f>
+        <f ca="1">IF(MAX(History!77:77)&gt;0,MAX(History!C77:OFFSET(History!C77,0,COUNTA(History!77:77)-3)),"")</f>
         <v/>
       </c>
       <c r="H77" s="6" t="str">
-        <f>IF(History!A77&lt;&gt;0,MIN(History!77:77),"")</f>
+        <f ca="1">IF(History!A77&lt;&gt;0,MIN(History!C77:OFFSET(History!C77,0,COUNTA(History!77:77)-3)),"")</f>
         <v/>
       </c>
       <c r="I77" s="6" t="str">
@@ -3690,27 +3692,27 @@
         <v/>
       </c>
       <c r="C78" s="4" t="str">
-        <f>IF(History!A78&lt;&gt;"",SUM(History!78:78),"")</f>
+        <f ca="1">IF(History!A78&lt;&gt;"",SUM(History!C78:OFFSET(History!C78,0,COUNTA(History!78:78)-3)),"")</f>
         <v/>
       </c>
       <c r="D78" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="E78" s="4" t="str">
-        <f>IF(History!A78&lt;&gt;0,COUNTIF(History!78:78,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A78&lt;&gt;0,COUNTIF(History!C78:OFFSET(History!C78,0,COUNTA(History!78:78)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F78" s="4" t="str">
-        <f>IF(History!A78&lt;&gt;0,COUNTIF(History!78:78,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A78&lt;&gt;0,COUNTIF(History!C78:OFFSET(History!C78,0,COUNTA(History!78:78)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G78" s="6" t="str">
-        <f>IF(MAX(History!78:78)&gt;0,MAX(History!78:78),"")</f>
+        <f ca="1">IF(MAX(History!78:78)&gt;0,MAX(History!C78:OFFSET(History!C78,0,COUNTA(History!78:78)-3)),"")</f>
         <v/>
       </c>
       <c r="H78" s="6" t="str">
-        <f>IF(History!A78&lt;&gt;0,MIN(History!78:78),"")</f>
+        <f ca="1">IF(History!A78&lt;&gt;0,MIN(History!C78:OFFSET(History!C78,0,COUNTA(History!78:78)-3)),"")</f>
         <v/>
       </c>
       <c r="I78" s="6" t="str">
@@ -3731,27 +3733,27 @@
         <v/>
       </c>
       <c r="C79" s="4" t="str">
-        <f>IF(History!A79&lt;&gt;"",SUM(History!79:79),"")</f>
+        <f ca="1">IF(History!A79&lt;&gt;"",SUM(History!C79:OFFSET(History!C79,0,COUNTA(History!79:79)-3)),"")</f>
         <v/>
       </c>
       <c r="D79" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="E79" s="4" t="str">
-        <f>IF(History!A79&lt;&gt;0,COUNTIF(History!79:79,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A79&lt;&gt;0,COUNTIF(History!C79:OFFSET(History!C79,0,COUNTA(History!79:79)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F79" s="4" t="str">
-        <f>IF(History!A79&lt;&gt;0,COUNTIF(History!79:79,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A79&lt;&gt;0,COUNTIF(History!C79:OFFSET(History!C79,0,COUNTA(History!79:79)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G79" s="6" t="str">
-        <f>IF(MAX(History!79:79)&gt;0,MAX(History!79:79),"")</f>
+        <f ca="1">IF(MAX(History!79:79)&gt;0,MAX(History!C79:OFFSET(History!C79,0,COUNTA(History!79:79)-3)),"")</f>
         <v/>
       </c>
       <c r="H79" s="6" t="str">
-        <f>IF(History!A79&lt;&gt;0,MIN(History!79:79),"")</f>
+        <f ca="1">IF(History!A79&lt;&gt;0,MIN(History!C79:OFFSET(History!C79,0,COUNTA(History!79:79)-3)),"")</f>
         <v/>
       </c>
       <c r="I79" s="6" t="str">
@@ -3772,27 +3774,27 @@
         <v/>
       </c>
       <c r="C80" s="4" t="str">
-        <f>IF(History!A80&lt;&gt;"",SUM(History!80:80),"")</f>
+        <f ca="1">IF(History!A80&lt;&gt;"",SUM(History!C80:OFFSET(History!C80,0,COUNTA(History!80:80)-3)),"")</f>
         <v/>
       </c>
       <c r="D80" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="E80" s="4" t="str">
-        <f>IF(History!A80&lt;&gt;0,COUNTIF(History!80:80,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A80&lt;&gt;0,COUNTIF(History!C80:OFFSET(History!C80,0,COUNTA(History!80:80)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F80" s="4" t="str">
-        <f>IF(History!A80&lt;&gt;0,COUNTIF(History!80:80,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A80&lt;&gt;0,COUNTIF(History!C80:OFFSET(History!C80,0,COUNTA(History!80:80)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G80" s="6" t="str">
-        <f>IF(MAX(History!80:80)&gt;0,MAX(History!80:80),"")</f>
+        <f ca="1">IF(MAX(History!80:80)&gt;0,MAX(History!C80:OFFSET(History!C80,0,COUNTA(History!80:80)-3)),"")</f>
         <v/>
       </c>
       <c r="H80" s="6" t="str">
-        <f>IF(History!A80&lt;&gt;0,MIN(History!80:80),"")</f>
+        <f ca="1">IF(History!A80&lt;&gt;0,MIN(History!C80:OFFSET(History!C80,0,COUNTA(History!80:80)-3)),"")</f>
         <v/>
       </c>
       <c r="I80" s="6" t="str">
@@ -3813,27 +3815,27 @@
         <v/>
       </c>
       <c r="C81" s="4" t="str">
-        <f>IF(History!A81&lt;&gt;"",SUM(History!81:81),"")</f>
+        <f ca="1">IF(History!A81&lt;&gt;"",SUM(History!C81:OFFSET(History!C81,0,COUNTA(History!81:81)-3)),"")</f>
         <v/>
       </c>
       <c r="D81" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="E81" s="4" t="str">
-        <f>IF(History!A81&lt;&gt;0,COUNTIF(History!81:81,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A81&lt;&gt;0,COUNTIF(History!C81:OFFSET(History!C81,0,COUNTA(History!81:81)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F81" s="4" t="str">
-        <f>IF(History!A81&lt;&gt;0,COUNTIF(History!81:81,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A81&lt;&gt;0,COUNTIF(History!C81:OFFSET(History!C81,0,COUNTA(History!81:81)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G81" s="6" t="str">
-        <f>IF(MAX(History!81:81)&gt;0,MAX(History!81:81),"")</f>
+        <f ca="1">IF(MAX(History!81:81)&gt;0,MAX(History!C81:OFFSET(History!C81,0,COUNTA(History!81:81)-3)),"")</f>
         <v/>
       </c>
       <c r="H81" s="6" t="str">
-        <f>IF(History!A81&lt;&gt;0,MIN(History!81:81),"")</f>
+        <f ca="1">IF(History!A81&lt;&gt;0,MIN(History!C81:OFFSET(History!C81,0,COUNTA(History!81:81)-3)),"")</f>
         <v/>
       </c>
       <c r="I81" s="6" t="str">
@@ -3854,27 +3856,27 @@
         <v/>
       </c>
       <c r="C82" s="4" t="str">
-        <f>IF(History!A82&lt;&gt;"",SUM(History!82:82),"")</f>
+        <f ca="1">IF(History!A82&lt;&gt;"",SUM(History!C82:OFFSET(History!C82,0,COUNTA(History!82:82)-3)),"")</f>
         <v/>
       </c>
       <c r="D82" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="E82" s="4" t="str">
-        <f>IF(History!A82&lt;&gt;0,COUNTIF(History!82:82,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A82&lt;&gt;0,COUNTIF(History!C82:OFFSET(History!C82,0,COUNTA(History!82:82)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F82" s="4" t="str">
-        <f>IF(History!A82&lt;&gt;0,COUNTIF(History!82:82,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A82&lt;&gt;0,COUNTIF(History!C82:OFFSET(History!C82,0,COUNTA(History!82:82)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G82" s="6" t="str">
-        <f>IF(MAX(History!82:82)&gt;0,MAX(History!82:82),"")</f>
+        <f ca="1">IF(MAX(History!82:82)&gt;0,MAX(History!C82:OFFSET(History!C82,0,COUNTA(History!82:82)-3)),"")</f>
         <v/>
       </c>
       <c r="H82" s="6" t="str">
-        <f>IF(History!A82&lt;&gt;0,MIN(History!82:82),"")</f>
+        <f ca="1">IF(History!A82&lt;&gt;0,MIN(History!C82:OFFSET(History!C82,0,COUNTA(History!82:82)-3)),"")</f>
         <v/>
       </c>
       <c r="I82" s="6" t="str">
@@ -3895,27 +3897,27 @@
         <v/>
       </c>
       <c r="C83" s="4" t="str">
-        <f>IF(History!A83&lt;&gt;"",SUM(History!83:83),"")</f>
+        <f ca="1">IF(History!A83&lt;&gt;"",SUM(History!C83:OFFSET(History!C83,0,COUNTA(History!83:83)-3)),"")</f>
         <v/>
       </c>
       <c r="D83" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="E83" s="4" t="str">
-        <f>IF(History!A83&lt;&gt;0,COUNTIF(History!83:83,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A83&lt;&gt;0,COUNTIF(History!C83:OFFSET(History!C83,0,COUNTA(History!83:83)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F83" s="4" t="str">
-        <f>IF(History!A83&lt;&gt;0,COUNTIF(History!83:83,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A83&lt;&gt;0,COUNTIF(History!C83:OFFSET(History!C83,0,COUNTA(History!83:83)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G83" s="6" t="str">
-        <f>IF(MAX(History!83:83)&gt;0,MAX(History!83:83),"")</f>
+        <f ca="1">IF(MAX(History!83:83)&gt;0,MAX(History!C83:OFFSET(History!C83,0,COUNTA(History!83:83)-3)),"")</f>
         <v/>
       </c>
       <c r="H83" s="6" t="str">
-        <f>IF(History!A83&lt;&gt;0,MIN(History!83:83),"")</f>
+        <f ca="1">IF(History!A83&lt;&gt;0,MIN(History!C83:OFFSET(History!C83,0,COUNTA(History!83:83)-3)),"")</f>
         <v/>
       </c>
       <c r="I83" s="6" t="str">
@@ -3936,27 +3938,27 @@
         <v/>
       </c>
       <c r="C84" s="4" t="str">
-        <f>IF(History!A84&lt;&gt;"",SUM(History!84:84),"")</f>
+        <f ca="1">IF(History!A84&lt;&gt;"",SUM(History!C84:OFFSET(History!C84,0,COUNTA(History!84:84)-3)),"")</f>
         <v/>
       </c>
       <c r="D84" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="E84" s="4" t="str">
-        <f>IF(History!A84&lt;&gt;0,COUNTIF(History!84:84,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A84&lt;&gt;0,COUNTIF(History!C84:OFFSET(History!C84,0,COUNTA(History!84:84)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F84" s="4" t="str">
-        <f>IF(History!A84&lt;&gt;0,COUNTIF(History!84:84,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A84&lt;&gt;0,COUNTIF(History!C84:OFFSET(History!C84,0,COUNTA(History!84:84)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G84" s="6" t="str">
-        <f>IF(MAX(History!84:84)&gt;0,MAX(History!84:84),"")</f>
+        <f ca="1">IF(MAX(History!84:84)&gt;0,MAX(History!C84:OFFSET(History!C84,0,COUNTA(History!84:84)-3)),"")</f>
         <v/>
       </c>
       <c r="H84" s="6" t="str">
-        <f>IF(History!A84&lt;&gt;0,MIN(History!84:84),"")</f>
+        <f ca="1">IF(History!A84&lt;&gt;0,MIN(History!C84:OFFSET(History!C84,0,COUNTA(History!84:84)-3)),"")</f>
         <v/>
       </c>
       <c r="I84" s="6" t="str">
@@ -3977,27 +3979,27 @@
         <v/>
       </c>
       <c r="C85" s="4" t="str">
-        <f>IF(History!A85&lt;&gt;"",SUM(History!85:85),"")</f>
+        <f ca="1">IF(History!A85&lt;&gt;"",SUM(History!C85:OFFSET(History!C85,0,COUNTA(History!85:85)-3)),"")</f>
         <v/>
       </c>
       <c r="D85" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="E85" s="4" t="str">
-        <f>IF(History!A85&lt;&gt;0,COUNTIF(History!85:85,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A85&lt;&gt;0,COUNTIF(History!C85:OFFSET(History!C85,0,COUNTA(History!85:85)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F85" s="4" t="str">
-        <f>IF(History!A85&lt;&gt;0,COUNTIF(History!85:85,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A85&lt;&gt;0,COUNTIF(History!C85:OFFSET(History!C85,0,COUNTA(History!85:85)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G85" s="6" t="str">
-        <f>IF(MAX(History!85:85)&gt;0,MAX(History!85:85),"")</f>
+        <f ca="1">IF(MAX(History!85:85)&gt;0,MAX(History!C85:OFFSET(History!C85,0,COUNTA(History!85:85)-3)),"")</f>
         <v/>
       </c>
       <c r="H85" s="6" t="str">
-        <f>IF(History!A85&lt;&gt;0,MIN(History!85:85),"")</f>
+        <f ca="1">IF(History!A85&lt;&gt;0,MIN(History!C85:OFFSET(History!C85,0,COUNTA(History!85:85)-3)),"")</f>
         <v/>
       </c>
       <c r="I85" s="6" t="str">
@@ -4018,27 +4020,27 @@
         <v/>
       </c>
       <c r="C86" s="4" t="str">
-        <f>IF(History!A86&lt;&gt;"",SUM(History!86:86),"")</f>
+        <f ca="1">IF(History!A86&lt;&gt;"",SUM(History!C86:OFFSET(History!C86,0,COUNTA(History!86:86)-3)),"")</f>
         <v/>
       </c>
       <c r="D86" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="E86" s="4" t="str">
-        <f>IF(History!A86&lt;&gt;0,COUNTIF(History!86:86,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A86&lt;&gt;0,COUNTIF(History!C86:OFFSET(History!C86,0,COUNTA(History!86:86)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F86" s="4" t="str">
-        <f>IF(History!A86&lt;&gt;0,COUNTIF(History!86:86,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A86&lt;&gt;0,COUNTIF(History!C86:OFFSET(History!C86,0,COUNTA(History!86:86)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G86" s="6" t="str">
-        <f>IF(MAX(History!86:86)&gt;0,MAX(History!86:86),"")</f>
+        <f ca="1">IF(MAX(History!86:86)&gt;0,MAX(History!C86:OFFSET(History!C86,0,COUNTA(History!86:86)-3)),"")</f>
         <v/>
       </c>
       <c r="H86" s="6" t="str">
-        <f>IF(History!A86&lt;&gt;0,MIN(History!86:86),"")</f>
+        <f ca="1">IF(History!A86&lt;&gt;0,MIN(History!C86:OFFSET(History!C86,0,COUNTA(History!86:86)-3)),"")</f>
         <v/>
       </c>
       <c r="I86" s="6" t="str">
@@ -4059,27 +4061,27 @@
         <v/>
       </c>
       <c r="C87" s="4" t="str">
-        <f>IF(History!A87&lt;&gt;"",SUM(History!87:87),"")</f>
+        <f ca="1">IF(History!A87&lt;&gt;"",SUM(History!C87:OFFSET(History!C87,0,COUNTA(History!87:87)-3)),"")</f>
         <v/>
       </c>
       <c r="D87" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="E87" s="4" t="str">
-        <f>IF(History!A87&lt;&gt;0,COUNTIF(History!87:87,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A87&lt;&gt;0,COUNTIF(History!C87:OFFSET(History!C87,0,COUNTA(History!87:87)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F87" s="4" t="str">
-        <f>IF(History!A87&lt;&gt;0,COUNTIF(History!87:87,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A87&lt;&gt;0,COUNTIF(History!C87:OFFSET(History!C87,0,COUNTA(History!87:87)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G87" s="6" t="str">
-        <f>IF(MAX(History!87:87)&gt;0,MAX(History!87:87),"")</f>
+        <f ca="1">IF(MAX(History!87:87)&gt;0,MAX(History!C87:OFFSET(History!C87,0,COUNTA(History!87:87)-3)),"")</f>
         <v/>
       </c>
       <c r="H87" s="6" t="str">
-        <f>IF(History!A87&lt;&gt;0,MIN(History!87:87),"")</f>
+        <f ca="1">IF(History!A87&lt;&gt;0,MIN(History!C87:OFFSET(History!C87,0,COUNTA(History!87:87)-3)),"")</f>
         <v/>
       </c>
       <c r="I87" s="6" t="str">
@@ -4100,27 +4102,27 @@
         <v/>
       </c>
       <c r="C88" s="4" t="str">
-        <f>IF(History!A88&lt;&gt;"",SUM(History!88:88),"")</f>
+        <f ca="1">IF(History!A88&lt;&gt;"",SUM(History!C88:OFFSET(History!C88,0,COUNTA(History!88:88)-3)),"")</f>
         <v/>
       </c>
       <c r="D88" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="E88" s="4" t="str">
-        <f>IF(History!A88&lt;&gt;0,COUNTIF(History!88:88,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A88&lt;&gt;0,COUNTIF(History!C88:OFFSET(History!C88,0,COUNTA(History!88:88)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F88" s="4" t="str">
-        <f>IF(History!A88&lt;&gt;0,COUNTIF(History!88:88,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A88&lt;&gt;0,COUNTIF(History!C88:OFFSET(History!C88,0,COUNTA(History!88:88)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G88" s="6" t="str">
-        <f>IF(MAX(History!88:88)&gt;0,MAX(History!88:88),"")</f>
+        <f ca="1">IF(MAX(History!88:88)&gt;0,MAX(History!C88:OFFSET(History!C88,0,COUNTA(History!88:88)-3)),"")</f>
         <v/>
       </c>
       <c r="H88" s="6" t="str">
-        <f>IF(History!A88&lt;&gt;0,MIN(History!88:88),"")</f>
+        <f ca="1">IF(History!A88&lt;&gt;0,MIN(History!C88:OFFSET(History!C88,0,COUNTA(History!88:88)-3)),"")</f>
         <v/>
       </c>
       <c r="I88" s="6" t="str">
@@ -4141,27 +4143,27 @@
         <v/>
       </c>
       <c r="C89" s="4" t="str">
-        <f>IF(History!A89&lt;&gt;"",SUM(History!89:89),"")</f>
+        <f ca="1">IF(History!A89&lt;&gt;"",SUM(History!C89:OFFSET(History!C89,0,COUNTA(History!89:89)-3)),"")</f>
         <v/>
       </c>
       <c r="D89" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="E89" s="4" t="str">
-        <f>IF(History!A89&lt;&gt;0,COUNTIF(History!89:89,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A89&lt;&gt;0,COUNTIF(History!C89:OFFSET(History!C89,0,COUNTA(History!89:89)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F89" s="4" t="str">
-        <f>IF(History!A89&lt;&gt;0,COUNTIF(History!89:89,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A89&lt;&gt;0,COUNTIF(History!C89:OFFSET(History!C89,0,COUNTA(History!89:89)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G89" s="6" t="str">
-        <f>IF(MAX(History!89:89)&gt;0,MAX(History!89:89),"")</f>
+        <f ca="1">IF(MAX(History!89:89)&gt;0,MAX(History!C89:OFFSET(History!C89,0,COUNTA(History!89:89)-3)),"")</f>
         <v/>
       </c>
       <c r="H89" s="6" t="str">
-        <f>IF(History!A89&lt;&gt;0,MIN(History!89:89),"")</f>
+        <f ca="1">IF(History!A89&lt;&gt;0,MIN(History!C89:OFFSET(History!C89,0,COUNTA(History!89:89)-3)),"")</f>
         <v/>
       </c>
       <c r="I89" s="6" t="str">
@@ -4182,27 +4184,27 @@
         <v/>
       </c>
       <c r="C90" s="4" t="str">
-        <f>IF(History!A90&lt;&gt;"",SUM(History!90:90),"")</f>
+        <f ca="1">IF(History!A90&lt;&gt;"",SUM(History!C90:OFFSET(History!C90,0,COUNTA(History!90:90)-3)),"")</f>
         <v/>
       </c>
       <c r="D90" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="E90" s="4" t="str">
-        <f>IF(History!A90&lt;&gt;0,COUNTIF(History!90:90,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A90&lt;&gt;0,COUNTIF(History!C90:OFFSET(History!C90,0,COUNTA(History!90:90)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F90" s="4" t="str">
-        <f>IF(History!A90&lt;&gt;0,COUNTIF(History!90:90,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A90&lt;&gt;0,COUNTIF(History!C90:OFFSET(History!C90,0,COUNTA(History!90:90)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G90" s="6" t="str">
-        <f>IF(MAX(History!90:90)&gt;0,MAX(History!90:90),"")</f>
+        <f ca="1">IF(MAX(History!90:90)&gt;0,MAX(History!C90:OFFSET(History!C90,0,COUNTA(History!90:90)-3)),"")</f>
         <v/>
       </c>
       <c r="H90" s="6" t="str">
-        <f>IF(History!A90&lt;&gt;0,MIN(History!90:90),"")</f>
+        <f ca="1">IF(History!A90&lt;&gt;0,MIN(History!C90:OFFSET(History!C90,0,COUNTA(History!90:90)-3)),"")</f>
         <v/>
       </c>
       <c r="I90" s="6" t="str">
@@ -4223,27 +4225,27 @@
         <v/>
       </c>
       <c r="C91" s="4" t="str">
-        <f>IF(History!A91&lt;&gt;"",SUM(History!91:91),"")</f>
+        <f ca="1">IF(History!A91&lt;&gt;"",SUM(History!C91:OFFSET(History!C91,0,COUNTA(History!91:91)-3)),"")</f>
         <v/>
       </c>
       <c r="D91" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="E91" s="4" t="str">
-        <f>IF(History!A91&lt;&gt;0,COUNTIF(History!91:91,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A91&lt;&gt;0,COUNTIF(History!C91:OFFSET(History!C91,0,COUNTA(History!91:91)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F91" s="4" t="str">
-        <f>IF(History!A91&lt;&gt;0,COUNTIF(History!91:91,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A91&lt;&gt;0,COUNTIF(History!C91:OFFSET(History!C91,0,COUNTA(History!91:91)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G91" s="6" t="str">
-        <f>IF(MAX(History!91:91)&gt;0,MAX(History!91:91),"")</f>
+        <f ca="1">IF(MAX(History!91:91)&gt;0,MAX(History!C91:OFFSET(History!C91,0,COUNTA(History!91:91)-3)),"")</f>
         <v/>
       </c>
       <c r="H91" s="6" t="str">
-        <f>IF(History!A91&lt;&gt;0,MIN(History!91:91),"")</f>
+        <f ca="1">IF(History!A91&lt;&gt;0,MIN(History!C91:OFFSET(History!C91,0,COUNTA(History!91:91)-3)),"")</f>
         <v/>
       </c>
       <c r="I91" s="6" t="str">
@@ -4264,27 +4266,27 @@
         <v/>
       </c>
       <c r="C92" s="4" t="str">
-        <f>IF(History!A92&lt;&gt;"",SUM(History!92:92),"")</f>
+        <f ca="1">IF(History!A92&lt;&gt;"",SUM(History!C92:OFFSET(History!C92,0,COUNTA(History!92:92)-3)),"")</f>
         <v/>
       </c>
       <c r="D92" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="E92" s="4" t="str">
-        <f>IF(History!A92&lt;&gt;0,COUNTIF(History!92:92,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A92&lt;&gt;0,COUNTIF(History!C92:OFFSET(History!C92,0,COUNTA(History!92:92)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F92" s="4" t="str">
-        <f>IF(History!A92&lt;&gt;0,COUNTIF(History!92:92,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A92&lt;&gt;0,COUNTIF(History!C92:OFFSET(History!C92,0,COUNTA(History!92:92)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G92" s="6" t="str">
-        <f>IF(MAX(History!92:92)&gt;0,MAX(History!92:92),"")</f>
+        <f ca="1">IF(MAX(History!92:92)&gt;0,MAX(History!C92:OFFSET(History!C92,0,COUNTA(History!92:92)-3)),"")</f>
         <v/>
       </c>
       <c r="H92" s="6" t="str">
-        <f>IF(History!A92&lt;&gt;0,MIN(History!92:92),"")</f>
+        <f ca="1">IF(History!A92&lt;&gt;0,MIN(History!C92:OFFSET(History!C92,0,COUNTA(History!92:92)-3)),"")</f>
         <v/>
       </c>
       <c r="I92" s="6" t="str">
@@ -4305,27 +4307,27 @@
         <v/>
       </c>
       <c r="C93" s="4" t="str">
-        <f>IF(History!A93&lt;&gt;"",SUM(History!93:93),"")</f>
+        <f ca="1">IF(History!A93&lt;&gt;"",SUM(History!C93:OFFSET(History!C93,0,COUNTA(History!93:93)-3)),"")</f>
         <v/>
       </c>
       <c r="D93" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="E93" s="4" t="str">
-        <f>IF(History!A93&lt;&gt;0,COUNTIF(History!93:93,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A93&lt;&gt;0,COUNTIF(History!C93:OFFSET(History!C93,0,COUNTA(History!93:93)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F93" s="4" t="str">
-        <f>IF(History!A93&lt;&gt;0,COUNTIF(History!93:93,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A93&lt;&gt;0,COUNTIF(History!C93:OFFSET(History!C93,0,COUNTA(History!93:93)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G93" s="6" t="str">
-        <f>IF(MAX(History!93:93)&gt;0,MAX(History!93:93),"")</f>
+        <f ca="1">IF(MAX(History!93:93)&gt;0,MAX(History!C93:OFFSET(History!C93,0,COUNTA(History!93:93)-3)),"")</f>
         <v/>
       </c>
       <c r="H93" s="6" t="str">
-        <f>IF(History!A93&lt;&gt;0,MIN(History!93:93),"")</f>
+        <f ca="1">IF(History!A93&lt;&gt;0,MIN(History!C93:OFFSET(History!C93,0,COUNTA(History!93:93)-3)),"")</f>
         <v/>
       </c>
       <c r="I93" s="6" t="str">
@@ -4346,27 +4348,27 @@
         <v/>
       </c>
       <c r="C94" s="4" t="str">
-        <f>IF(History!A94&lt;&gt;"",SUM(History!94:94),"")</f>
+        <f ca="1">IF(History!A94&lt;&gt;"",SUM(History!C94:OFFSET(History!C94,0,COUNTA(History!94:94)-3)),"")</f>
         <v/>
       </c>
       <c r="D94" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="E94" s="4" t="str">
-        <f>IF(History!A94&lt;&gt;0,COUNTIF(History!94:94,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A94&lt;&gt;0,COUNTIF(History!C94:OFFSET(History!C94,0,COUNTA(History!94:94)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F94" s="4" t="str">
-        <f>IF(History!A94&lt;&gt;0,COUNTIF(History!94:94,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A94&lt;&gt;0,COUNTIF(History!C94:OFFSET(History!C94,0,COUNTA(History!94:94)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G94" s="6" t="str">
-        <f>IF(MAX(History!94:94)&gt;0,MAX(History!94:94),"")</f>
+        <f ca="1">IF(MAX(History!94:94)&gt;0,MAX(History!C94:OFFSET(History!C94,0,COUNTA(History!94:94)-3)),"")</f>
         <v/>
       </c>
       <c r="H94" s="6" t="str">
-        <f>IF(History!A94&lt;&gt;0,MIN(History!94:94),"")</f>
+        <f ca="1">IF(History!A94&lt;&gt;0,MIN(History!C94:OFFSET(History!C94,0,COUNTA(History!94:94)-3)),"")</f>
         <v/>
       </c>
       <c r="I94" s="6" t="str">
@@ -4387,27 +4389,27 @@
         <v/>
       </c>
       <c r="C95" s="4" t="str">
-        <f>IF(History!A95&lt;&gt;"",SUM(History!95:95),"")</f>
+        <f ca="1">IF(History!A95&lt;&gt;"",SUM(History!C95:OFFSET(History!C95,0,COUNTA(History!95:95)-3)),"")</f>
         <v/>
       </c>
       <c r="D95" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="E95" s="4" t="str">
-        <f>IF(History!A95&lt;&gt;0,COUNTIF(History!95:95,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A95&lt;&gt;0,COUNTIF(History!C95:OFFSET(History!C95,0,COUNTA(History!95:95)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F95" s="4" t="str">
-        <f>IF(History!A95&lt;&gt;0,COUNTIF(History!95:95,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A95&lt;&gt;0,COUNTIF(History!C95:OFFSET(History!C95,0,COUNTA(History!95:95)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G95" s="6" t="str">
-        <f>IF(MAX(History!95:95)&gt;0,MAX(History!95:95),"")</f>
+        <f ca="1">IF(MAX(History!95:95)&gt;0,MAX(History!C95:OFFSET(History!C95,0,COUNTA(History!95:95)-3)),"")</f>
         <v/>
       </c>
       <c r="H95" s="6" t="str">
-        <f>IF(History!A95&lt;&gt;0,MIN(History!95:95),"")</f>
+        <f ca="1">IF(History!A95&lt;&gt;0,MIN(History!C95:OFFSET(History!C95,0,COUNTA(History!95:95)-3)),"")</f>
         <v/>
       </c>
       <c r="I95" s="6" t="str">
@@ -4428,27 +4430,27 @@
         <v/>
       </c>
       <c r="C96" s="4" t="str">
-        <f>IF(History!A96&lt;&gt;"",SUM(History!96:96),"")</f>
+        <f ca="1">IF(History!A96&lt;&gt;"",SUM(History!C96:OFFSET(History!C96,0,COUNTA(History!96:96)-3)),"")</f>
         <v/>
       </c>
       <c r="D96" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="E96" s="4" t="str">
-        <f>IF(History!A96&lt;&gt;0,COUNTIF(History!96:96,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A96&lt;&gt;0,COUNTIF(History!C96:OFFSET(History!C96,0,COUNTA(History!96:96)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F96" s="4" t="str">
-        <f>IF(History!A96&lt;&gt;0,COUNTIF(History!96:96,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A96&lt;&gt;0,COUNTIF(History!C96:OFFSET(History!C96,0,COUNTA(History!96:96)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G96" s="6" t="str">
-        <f>IF(MAX(History!96:96)&gt;0,MAX(History!96:96),"")</f>
+        <f ca="1">IF(MAX(History!96:96)&gt;0,MAX(History!C96:OFFSET(History!C96,0,COUNTA(History!96:96)-3)),"")</f>
         <v/>
       </c>
       <c r="H96" s="6" t="str">
-        <f>IF(History!A96&lt;&gt;0,MIN(History!96:96),"")</f>
+        <f ca="1">IF(History!A96&lt;&gt;0,MIN(History!C96:OFFSET(History!C96,0,COUNTA(History!96:96)-3)),"")</f>
         <v/>
       </c>
       <c r="I96" s="6" t="str">
@@ -4469,27 +4471,27 @@
         <v/>
       </c>
       <c r="C97" s="4" t="str">
-        <f>IF(History!A97&lt;&gt;"",SUM(History!97:97),"")</f>
+        <f ca="1">IF(History!A97&lt;&gt;"",SUM(History!C97:OFFSET(History!C97,0,COUNTA(History!97:97)-3)),"")</f>
         <v/>
       </c>
       <c r="D97" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="E97" s="4" t="str">
-        <f>IF(History!A97&lt;&gt;0,COUNTIF(History!97:97,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A97&lt;&gt;0,COUNTIF(History!C97:OFFSET(History!C97,0,COUNTA(History!97:97)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F97" s="4" t="str">
-        <f>IF(History!A97&lt;&gt;0,COUNTIF(History!97:97,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A97&lt;&gt;0,COUNTIF(History!C97:OFFSET(History!C97,0,COUNTA(History!97:97)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G97" s="6" t="str">
-        <f>IF(MAX(History!97:97)&gt;0,MAX(History!97:97),"")</f>
+        <f ca="1">IF(MAX(History!97:97)&gt;0,MAX(History!C97:OFFSET(History!C97,0,COUNTA(History!97:97)-3)),"")</f>
         <v/>
       </c>
       <c r="H97" s="6" t="str">
-        <f>IF(History!A97&lt;&gt;0,MIN(History!97:97),"")</f>
+        <f ca="1">IF(History!A97&lt;&gt;0,MIN(History!C97:OFFSET(History!C97,0,COUNTA(History!97:97)-3)),"")</f>
         <v/>
       </c>
       <c r="I97" s="6" t="str">
@@ -4510,27 +4512,27 @@
         <v/>
       </c>
       <c r="C98" s="4" t="str">
-        <f>IF(History!A98&lt;&gt;"",SUM(History!98:98),"")</f>
+        <f ca="1">IF(History!A98&lt;&gt;"",SUM(History!C98:OFFSET(History!C98,0,COUNTA(History!98:98)-3)),"")</f>
         <v/>
       </c>
       <c r="D98" s="8" t="str">
-        <f t="shared" ref="D98:D129" si="3">IFERROR(E98/(E98+F98),"")</f>
+        <f t="shared" ref="D98:D129" ca="1" si="3">IFERROR(E98/(E98+F98),"")</f>
         <v/>
       </c>
       <c r="E98" s="4" t="str">
-        <f>IF(History!A98&lt;&gt;0,COUNTIF(History!98:98,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A98&lt;&gt;0,COUNTIF(History!C98:OFFSET(History!C98,0,COUNTA(History!98:98)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F98" s="4" t="str">
-        <f>IF(History!A98&lt;&gt;0,COUNTIF(History!98:98,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A98&lt;&gt;0,COUNTIF(History!C98:OFFSET(History!C98,0,COUNTA(History!98:98)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G98" s="6" t="str">
-        <f>IF(MAX(History!98:98)&gt;0,MAX(History!98:98),"")</f>
+        <f ca="1">IF(MAX(History!98:98)&gt;0,MAX(History!C98:OFFSET(History!C98,0,COUNTA(History!98:98)-3)),"")</f>
         <v/>
       </c>
       <c r="H98" s="6" t="str">
-        <f>IF(History!A98&lt;&gt;0,MIN(History!98:98),"")</f>
+        <f ca="1">IF(History!A98&lt;&gt;0,MIN(History!C98:OFFSET(History!C98,0,COUNTA(History!98:98)-3)),"")</f>
         <v/>
       </c>
       <c r="I98" s="6" t="str">
@@ -4551,27 +4553,27 @@
         <v/>
       </c>
       <c r="C99" s="4" t="str">
-        <f>IF(History!A99&lt;&gt;"",SUM(History!99:99),"")</f>
+        <f ca="1">IF(History!A99&lt;&gt;"",SUM(History!C99:OFFSET(History!C99,0,COUNTA(History!99:99)-3)),"")</f>
         <v/>
       </c>
       <c r="D99" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="E99" s="4" t="str">
-        <f>IF(History!A99&lt;&gt;0,COUNTIF(History!99:99,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A99&lt;&gt;0,COUNTIF(History!C99:OFFSET(History!C99,0,COUNTA(History!99:99)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F99" s="4" t="str">
-        <f>IF(History!A99&lt;&gt;0,COUNTIF(History!99:99,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A99&lt;&gt;0,COUNTIF(History!C99:OFFSET(History!C99,0,COUNTA(History!99:99)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G99" s="6" t="str">
-        <f>IF(MAX(History!99:99)&gt;0,MAX(History!99:99),"")</f>
+        <f ca="1">IF(MAX(History!99:99)&gt;0,MAX(History!C99:OFFSET(History!C99,0,COUNTA(History!99:99)-3)),"")</f>
         <v/>
       </c>
       <c r="H99" s="6" t="str">
-        <f>IF(History!A99&lt;&gt;0,MIN(History!99:99),"")</f>
+        <f ca="1">IF(History!A99&lt;&gt;0,MIN(History!C99:OFFSET(History!C99,0,COUNTA(History!99:99)-3)),"")</f>
         <v/>
       </c>
       <c r="I99" s="6" t="str">
@@ -4592,27 +4594,27 @@
         <v/>
       </c>
       <c r="C100" s="4" t="str">
-        <f>IF(History!A100&lt;&gt;"",SUM(History!100:100),"")</f>
+        <f ca="1">IF(History!A100&lt;&gt;"",SUM(History!C100:OFFSET(History!C100,0,COUNTA(History!100:100)-3)),"")</f>
         <v/>
       </c>
       <c r="D100" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="E100" s="4" t="str">
-        <f>IF(History!A100&lt;&gt;0,COUNTIF(History!100:100,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A100&lt;&gt;0,COUNTIF(History!C100:OFFSET(History!C100,0,COUNTA(History!100:100)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F100" s="4" t="str">
-        <f>IF(History!A100&lt;&gt;0,COUNTIF(History!100:100,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A100&lt;&gt;0,COUNTIF(History!C100:OFFSET(History!C100,0,COUNTA(History!100:100)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G100" s="6" t="str">
-        <f>IF(MAX(History!100:100)&gt;0,MAX(History!100:100),"")</f>
+        <f ca="1">IF(MAX(History!100:100)&gt;0,MAX(History!C100:OFFSET(History!C100,0,COUNTA(History!100:100)-3)),"")</f>
         <v/>
       </c>
       <c r="H100" s="6" t="str">
-        <f>IF(History!A100&lt;&gt;0,MIN(History!100:100),"")</f>
+        <f ca="1">IF(History!A100&lt;&gt;0,MIN(History!C100:OFFSET(History!C100,0,COUNTA(History!100:100)-3)),"")</f>
         <v/>
       </c>
       <c r="I100" s="6" t="str">
@@ -4633,27 +4635,27 @@
         <v/>
       </c>
       <c r="C101" s="4" t="str">
-        <f>IF(History!A101&lt;&gt;"",SUM(History!101:101),"")</f>
+        <f ca="1">IF(History!A101&lt;&gt;"",SUM(History!C101:OFFSET(History!C101,0,COUNTA(History!101:101)-3)),"")</f>
         <v/>
       </c>
       <c r="D101" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="E101" s="4" t="str">
-        <f>IF(History!A101&lt;&gt;0,COUNTIF(History!101:101,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A101&lt;&gt;0,COUNTIF(History!C101:OFFSET(History!C101,0,COUNTA(History!101:101)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F101" s="4" t="str">
-        <f>IF(History!A101&lt;&gt;0,COUNTIF(History!101:101,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A101&lt;&gt;0,COUNTIF(History!C101:OFFSET(History!C101,0,COUNTA(History!101:101)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G101" s="6" t="str">
-        <f>IF(MAX(History!101:101)&gt;0,MAX(History!101:101),"")</f>
+        <f ca="1">IF(MAX(History!101:101)&gt;0,MAX(History!C101:OFFSET(History!C101,0,COUNTA(History!101:101)-3)),"")</f>
         <v/>
       </c>
       <c r="H101" s="6" t="str">
-        <f>IF(History!A101&lt;&gt;0,MIN(History!101:101),"")</f>
+        <f ca="1">IF(History!A101&lt;&gt;0,MIN(History!C101:OFFSET(History!C101,0,COUNTA(History!101:101)-3)),"")</f>
         <v/>
       </c>
       <c r="I101" s="6" t="str">
@@ -4674,27 +4676,27 @@
         <v/>
       </c>
       <c r="C102" s="4" t="str">
-        <f>IF(History!A102&lt;&gt;"",SUM(History!102:102),"")</f>
+        <f ca="1">IF(History!A102&lt;&gt;"",SUM(History!C102:OFFSET(History!C102,0,COUNTA(History!102:102)-3)),"")</f>
         <v/>
       </c>
       <c r="D102" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="E102" s="4" t="str">
-        <f>IF(History!A102&lt;&gt;0,COUNTIF(History!102:102,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A102&lt;&gt;0,COUNTIF(History!C102:OFFSET(History!C102,0,COUNTA(History!102:102)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F102" s="4" t="str">
-        <f>IF(History!A102&lt;&gt;0,COUNTIF(History!102:102,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A102&lt;&gt;0,COUNTIF(History!C102:OFFSET(History!C102,0,COUNTA(History!102:102)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G102" s="6" t="str">
-        <f>IF(MAX(History!102:102)&gt;0,MAX(History!102:102),"")</f>
+        <f ca="1">IF(MAX(History!102:102)&gt;0,MAX(History!C102:OFFSET(History!C102,0,COUNTA(History!102:102)-3)),"")</f>
         <v/>
       </c>
       <c r="H102" s="6" t="str">
-        <f>IF(History!A102&lt;&gt;0,MIN(History!102:102),"")</f>
+        <f ca="1">IF(History!A102&lt;&gt;0,MIN(History!C102:OFFSET(History!C102,0,COUNTA(History!102:102)-3)),"")</f>
         <v/>
       </c>
       <c r="I102" s="6" t="str">
@@ -4715,27 +4717,27 @@
         <v/>
       </c>
       <c r="C103" s="4" t="str">
-        <f>IF(History!A103&lt;&gt;"",SUM(History!103:103),"")</f>
+        <f ca="1">IF(History!A103&lt;&gt;"",SUM(History!C103:OFFSET(History!C103,0,COUNTA(History!103:103)-3)),"")</f>
         <v/>
       </c>
       <c r="D103" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="E103" s="4" t="str">
-        <f>IF(History!A103&lt;&gt;0,COUNTIF(History!103:103,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A103&lt;&gt;0,COUNTIF(History!C103:OFFSET(History!C103,0,COUNTA(History!103:103)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F103" s="4" t="str">
-        <f>IF(History!A103&lt;&gt;0,COUNTIF(History!103:103,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A103&lt;&gt;0,COUNTIF(History!C103:OFFSET(History!C103,0,COUNTA(History!103:103)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G103" s="6" t="str">
-        <f>IF(MAX(History!103:103)&gt;0,MAX(History!103:103),"")</f>
+        <f ca="1">IF(MAX(History!103:103)&gt;0,MAX(History!C103:OFFSET(History!C103,0,COUNTA(History!103:103)-3)),"")</f>
         <v/>
       </c>
       <c r="H103" s="6" t="str">
-        <f>IF(History!A103&lt;&gt;0,MIN(History!103:103),"")</f>
+        <f ca="1">IF(History!A103&lt;&gt;0,MIN(History!C103:OFFSET(History!C103,0,COUNTA(History!103:103)-3)),"")</f>
         <v/>
       </c>
       <c r="I103" s="6" t="str">
@@ -4756,27 +4758,27 @@
         <v/>
       </c>
       <c r="C104" s="4" t="str">
-        <f>IF(History!A104&lt;&gt;"",SUM(History!104:104),"")</f>
+        <f ca="1">IF(History!A104&lt;&gt;"",SUM(History!C104:OFFSET(History!C104,0,COUNTA(History!104:104)-3)),"")</f>
         <v/>
       </c>
       <c r="D104" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="E104" s="4" t="str">
-        <f>IF(History!A104&lt;&gt;0,COUNTIF(History!104:104,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A104&lt;&gt;0,COUNTIF(History!C104:OFFSET(History!C104,0,COUNTA(History!104:104)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F104" s="4" t="str">
-        <f>IF(History!A104&lt;&gt;0,COUNTIF(History!104:104,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A104&lt;&gt;0,COUNTIF(History!C104:OFFSET(History!C104,0,COUNTA(History!104:104)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G104" s="6" t="str">
-        <f>IF(MAX(History!104:104)&gt;0,MAX(History!104:104),"")</f>
+        <f ca="1">IF(MAX(History!104:104)&gt;0,MAX(History!C104:OFFSET(History!C104,0,COUNTA(History!104:104)-3)),"")</f>
         <v/>
       </c>
       <c r="H104" s="6" t="str">
-        <f>IF(History!A104&lt;&gt;0,MIN(History!104:104),"")</f>
+        <f ca="1">IF(History!A104&lt;&gt;0,MIN(History!C104:OFFSET(History!C104,0,COUNTA(History!104:104)-3)),"")</f>
         <v/>
       </c>
       <c r="I104" s="6" t="str">
@@ -4797,27 +4799,27 @@
         <v/>
       </c>
       <c r="C105" s="4" t="str">
-        <f>IF(History!A105&lt;&gt;"",SUM(History!105:105),"")</f>
+        <f ca="1">IF(History!A105&lt;&gt;"",SUM(History!C105:OFFSET(History!C105,0,COUNTA(History!105:105)-3)),"")</f>
         <v/>
       </c>
       <c r="D105" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="E105" s="4" t="str">
-        <f>IF(History!A105&lt;&gt;0,COUNTIF(History!105:105,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A105&lt;&gt;0,COUNTIF(History!C105:OFFSET(History!C105,0,COUNTA(History!105:105)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F105" s="4" t="str">
-        <f>IF(History!A105&lt;&gt;0,COUNTIF(History!105:105,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A105&lt;&gt;0,COUNTIF(History!C105:OFFSET(History!C105,0,COUNTA(History!105:105)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G105" s="6" t="str">
-        <f>IF(MAX(History!105:105)&gt;0,MAX(History!105:105),"")</f>
+        <f ca="1">IF(MAX(History!105:105)&gt;0,MAX(History!C105:OFFSET(History!C105,0,COUNTA(History!105:105)-3)),"")</f>
         <v/>
       </c>
       <c r="H105" s="6" t="str">
-        <f>IF(History!A105&lt;&gt;0,MIN(History!105:105),"")</f>
+        <f ca="1">IF(History!A105&lt;&gt;0,MIN(History!C105:OFFSET(History!C105,0,COUNTA(History!105:105)-3)),"")</f>
         <v/>
       </c>
       <c r="I105" s="6" t="str">
@@ -4838,27 +4840,27 @@
         <v/>
       </c>
       <c r="C106" s="4" t="str">
-        <f>IF(History!A106&lt;&gt;"",SUM(History!106:106),"")</f>
+        <f ca="1">IF(History!A106&lt;&gt;"",SUM(History!C106:OFFSET(History!C106,0,COUNTA(History!106:106)-3)),"")</f>
         <v/>
       </c>
       <c r="D106" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="E106" s="4" t="str">
-        <f>IF(History!A106&lt;&gt;0,COUNTIF(History!106:106,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A106&lt;&gt;0,COUNTIF(History!C106:OFFSET(History!C106,0,COUNTA(History!106:106)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F106" s="4" t="str">
-        <f>IF(History!A106&lt;&gt;0,COUNTIF(History!106:106,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A106&lt;&gt;0,COUNTIF(History!C106:OFFSET(History!C106,0,COUNTA(History!106:106)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G106" s="6" t="str">
-        <f>IF(MAX(History!106:106)&gt;0,MAX(History!106:106),"")</f>
+        <f ca="1">IF(MAX(History!106:106)&gt;0,MAX(History!C106:OFFSET(History!C106,0,COUNTA(History!106:106)-3)),"")</f>
         <v/>
       </c>
       <c r="H106" s="6" t="str">
-        <f>IF(History!A106&lt;&gt;0,MIN(History!106:106),"")</f>
+        <f ca="1">IF(History!A106&lt;&gt;0,MIN(History!C106:OFFSET(History!C106,0,COUNTA(History!106:106)-3)),"")</f>
         <v/>
       </c>
       <c r="I106" s="6" t="str">
@@ -4879,27 +4881,27 @@
         <v/>
       </c>
       <c r="C107" s="4" t="str">
-        <f>IF(History!A107&lt;&gt;"",SUM(History!107:107),"")</f>
+        <f ca="1">IF(History!A107&lt;&gt;"",SUM(History!C107:OFFSET(History!C107,0,COUNTA(History!107:107)-3)),"")</f>
         <v/>
       </c>
       <c r="D107" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="E107" s="4" t="str">
-        <f>IF(History!A107&lt;&gt;0,COUNTIF(History!107:107,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A107&lt;&gt;0,COUNTIF(History!C107:OFFSET(History!C107,0,COUNTA(History!107:107)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F107" s="4" t="str">
-        <f>IF(History!A107&lt;&gt;0,COUNTIF(History!107:107,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A107&lt;&gt;0,COUNTIF(History!C107:OFFSET(History!C107,0,COUNTA(History!107:107)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G107" s="6" t="str">
-        <f>IF(MAX(History!107:107)&gt;0,MAX(History!107:107),"")</f>
+        <f ca="1">IF(MAX(History!107:107)&gt;0,MAX(History!C107:OFFSET(History!C107,0,COUNTA(History!107:107)-3)),"")</f>
         <v/>
       </c>
       <c r="H107" s="6" t="str">
-        <f>IF(History!A107&lt;&gt;0,MIN(History!107:107),"")</f>
+        <f ca="1">IF(History!A107&lt;&gt;0,MIN(History!C107:OFFSET(History!C107,0,COUNTA(History!107:107)-3)),"")</f>
         <v/>
       </c>
       <c r="I107" s="6" t="str">
@@ -4920,27 +4922,27 @@
         <v/>
       </c>
       <c r="C108" s="4" t="str">
-        <f>IF(History!A108&lt;&gt;"",SUM(History!108:108),"")</f>
+        <f ca="1">IF(History!A108&lt;&gt;"",SUM(History!C108:OFFSET(History!C108,0,COUNTA(History!108:108)-3)),"")</f>
         <v/>
       </c>
       <c r="D108" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="E108" s="4" t="str">
-        <f>IF(History!A108&lt;&gt;0,COUNTIF(History!108:108,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A108&lt;&gt;0,COUNTIF(History!C108:OFFSET(History!C108,0,COUNTA(History!108:108)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F108" s="4" t="str">
-        <f>IF(History!A108&lt;&gt;0,COUNTIF(History!108:108,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A108&lt;&gt;0,COUNTIF(History!C108:OFFSET(History!C108,0,COUNTA(History!108:108)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G108" s="6" t="str">
-        <f>IF(MAX(History!108:108)&gt;0,MAX(History!108:108),"")</f>
+        <f ca="1">IF(MAX(History!108:108)&gt;0,MAX(History!C108:OFFSET(History!C108,0,COUNTA(History!108:108)-3)),"")</f>
         <v/>
       </c>
       <c r="H108" s="6" t="str">
-        <f>IF(History!A108&lt;&gt;0,MIN(History!108:108),"")</f>
+        <f ca="1">IF(History!A108&lt;&gt;0,MIN(History!C108:OFFSET(History!C108,0,COUNTA(History!108:108)-3)),"")</f>
         <v/>
       </c>
       <c r="I108" s="6" t="str">
@@ -4961,27 +4963,27 @@
         <v/>
       </c>
       <c r="C109" s="4" t="str">
-        <f>IF(History!A109&lt;&gt;"",SUM(History!109:109),"")</f>
+        <f ca="1">IF(History!A109&lt;&gt;"",SUM(History!C109:OFFSET(History!C109,0,COUNTA(History!109:109)-3)),"")</f>
         <v/>
       </c>
       <c r="D109" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="E109" s="4" t="str">
-        <f>IF(History!A109&lt;&gt;0,COUNTIF(History!109:109,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A109&lt;&gt;0,COUNTIF(History!C109:OFFSET(History!C109,0,COUNTA(History!109:109)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F109" s="4" t="str">
-        <f>IF(History!A109&lt;&gt;0,COUNTIF(History!109:109,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A109&lt;&gt;0,COUNTIF(History!C109:OFFSET(History!C109,0,COUNTA(History!109:109)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G109" s="6" t="str">
-        <f>IF(MAX(History!109:109)&gt;0,MAX(History!109:109),"")</f>
+        <f ca="1">IF(MAX(History!109:109)&gt;0,MAX(History!C109:OFFSET(History!C109,0,COUNTA(History!109:109)-3)),"")</f>
         <v/>
       </c>
       <c r="H109" s="6" t="str">
-        <f>IF(History!A109&lt;&gt;0,MIN(History!109:109),"")</f>
+        <f ca="1">IF(History!A109&lt;&gt;0,MIN(History!C109:OFFSET(History!C109,0,COUNTA(History!109:109)-3)),"")</f>
         <v/>
       </c>
       <c r="I109" s="6" t="str">
@@ -5002,27 +5004,27 @@
         <v/>
       </c>
       <c r="C110" s="4" t="str">
-        <f>IF(History!A110&lt;&gt;"",SUM(History!110:110),"")</f>
+        <f ca="1">IF(History!A110&lt;&gt;"",SUM(History!C110:OFFSET(History!C110,0,COUNTA(History!110:110)-3)),"")</f>
         <v/>
       </c>
       <c r="D110" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="E110" s="4" t="str">
-        <f>IF(History!A110&lt;&gt;0,COUNTIF(History!110:110,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A110&lt;&gt;0,COUNTIF(History!C110:OFFSET(History!C110,0,COUNTA(History!110:110)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F110" s="4" t="str">
-        <f>IF(History!A110&lt;&gt;0,COUNTIF(History!110:110,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A110&lt;&gt;0,COUNTIF(History!C110:OFFSET(History!C110,0,COUNTA(History!110:110)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G110" s="6" t="str">
-        <f>IF(MAX(History!110:110)&gt;0,MAX(History!110:110),"")</f>
+        <f ca="1">IF(MAX(History!110:110)&gt;0,MAX(History!C110:OFFSET(History!C110,0,COUNTA(History!110:110)-3)),"")</f>
         <v/>
       </c>
       <c r="H110" s="6" t="str">
-        <f>IF(History!A110&lt;&gt;0,MIN(History!110:110),"")</f>
+        <f ca="1">IF(History!A110&lt;&gt;0,MIN(History!C110:OFFSET(History!C110,0,COUNTA(History!110:110)-3)),"")</f>
         <v/>
       </c>
       <c r="I110" s="6" t="str">
@@ -5043,27 +5045,27 @@
         <v/>
       </c>
       <c r="C111" s="4" t="str">
-        <f>IF(History!A111&lt;&gt;"",SUM(History!111:111),"")</f>
+        <f ca="1">IF(History!A111&lt;&gt;"",SUM(History!C111:OFFSET(History!C111,0,COUNTA(History!111:111)-3)),"")</f>
         <v/>
       </c>
       <c r="D111" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="E111" s="4" t="str">
-        <f>IF(History!A111&lt;&gt;0,COUNTIF(History!111:111,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A111&lt;&gt;0,COUNTIF(History!C111:OFFSET(History!C111,0,COUNTA(History!111:111)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F111" s="4" t="str">
-        <f>IF(History!A111&lt;&gt;0,COUNTIF(History!111:111,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A111&lt;&gt;0,COUNTIF(History!C111:OFFSET(History!C111,0,COUNTA(History!111:111)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G111" s="6" t="str">
-        <f>IF(MAX(History!111:111)&gt;0,MAX(History!111:111),"")</f>
+        <f ca="1">IF(MAX(History!111:111)&gt;0,MAX(History!C111:OFFSET(History!C111,0,COUNTA(History!111:111)-3)),"")</f>
         <v/>
       </c>
       <c r="H111" s="6" t="str">
-        <f>IF(History!A111&lt;&gt;0,MIN(History!111:111),"")</f>
+        <f ca="1">IF(History!A111&lt;&gt;0,MIN(History!C111:OFFSET(History!C111,0,COUNTA(History!111:111)-3)),"")</f>
         <v/>
       </c>
       <c r="I111" s="6" t="str">
@@ -5084,27 +5086,27 @@
         <v/>
       </c>
       <c r="C112" s="4" t="str">
-        <f>IF(History!A112&lt;&gt;"",SUM(History!112:112),"")</f>
+        <f ca="1">IF(History!A112&lt;&gt;"",SUM(History!C112:OFFSET(History!C112,0,COUNTA(History!112:112)-3)),"")</f>
         <v/>
       </c>
       <c r="D112" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="E112" s="4" t="str">
-        <f>IF(History!A112&lt;&gt;0,COUNTIF(History!112:112,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A112&lt;&gt;0,COUNTIF(History!C112:OFFSET(History!C112,0,COUNTA(History!112:112)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F112" s="4" t="str">
-        <f>IF(History!A112&lt;&gt;0,COUNTIF(History!112:112,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A112&lt;&gt;0,COUNTIF(History!C112:OFFSET(History!C112,0,COUNTA(History!112:112)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G112" s="6" t="str">
-        <f>IF(MAX(History!112:112)&gt;0,MAX(History!112:112),"")</f>
+        <f ca="1">IF(MAX(History!112:112)&gt;0,MAX(History!C112:OFFSET(History!C112,0,COUNTA(History!112:112)-3)),"")</f>
         <v/>
       </c>
       <c r="H112" s="6" t="str">
-        <f>IF(History!A112&lt;&gt;0,MIN(History!112:112),"")</f>
+        <f ca="1">IF(History!A112&lt;&gt;0,MIN(History!C112:OFFSET(History!C112,0,COUNTA(History!112:112)-3)),"")</f>
         <v/>
       </c>
       <c r="I112" s="6" t="str">
@@ -5125,27 +5127,27 @@
         <v/>
       </c>
       <c r="C113" s="4" t="str">
-        <f>IF(History!A113&lt;&gt;"",SUM(History!113:113),"")</f>
+        <f ca="1">IF(History!A113&lt;&gt;"",SUM(History!C113:OFFSET(History!C113,0,COUNTA(History!113:113)-3)),"")</f>
         <v/>
       </c>
       <c r="D113" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="E113" s="4" t="str">
-        <f>IF(History!A113&lt;&gt;0,COUNTIF(History!113:113,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A113&lt;&gt;0,COUNTIF(History!C113:OFFSET(History!C113,0,COUNTA(History!113:113)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F113" s="4" t="str">
-        <f>IF(History!A113&lt;&gt;0,COUNTIF(History!113:113,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A113&lt;&gt;0,COUNTIF(History!C113:OFFSET(History!C113,0,COUNTA(History!113:113)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G113" s="6" t="str">
-        <f>IF(MAX(History!113:113)&gt;0,MAX(History!113:113),"")</f>
+        <f ca="1">IF(MAX(History!113:113)&gt;0,MAX(History!C113:OFFSET(History!C113,0,COUNTA(History!113:113)-3)),"")</f>
         <v/>
       </c>
       <c r="H113" s="6" t="str">
-        <f>IF(History!A113&lt;&gt;0,MIN(History!113:113),"")</f>
+        <f ca="1">IF(History!A113&lt;&gt;0,MIN(History!C113:OFFSET(History!C113,0,COUNTA(History!113:113)-3)),"")</f>
         <v/>
       </c>
       <c r="I113" s="6" t="str">
@@ -5166,27 +5168,27 @@
         <v/>
       </c>
       <c r="C114" s="4" t="str">
-        <f>IF(History!A114&lt;&gt;"",SUM(History!114:114),"")</f>
+        <f ca="1">IF(History!A114&lt;&gt;"",SUM(History!C114:OFFSET(History!C114,0,COUNTA(History!114:114)-3)),"")</f>
         <v/>
       </c>
       <c r="D114" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="E114" s="4" t="str">
-        <f>IF(History!A114&lt;&gt;0,COUNTIF(History!114:114,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A114&lt;&gt;0,COUNTIF(History!C114:OFFSET(History!C114,0,COUNTA(History!114:114)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F114" s="4" t="str">
-        <f>IF(History!A114&lt;&gt;0,COUNTIF(History!114:114,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A114&lt;&gt;0,COUNTIF(History!C114:OFFSET(History!C114,0,COUNTA(History!114:114)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G114" s="6" t="str">
-        <f>IF(MAX(History!114:114)&gt;0,MAX(History!114:114),"")</f>
+        <f ca="1">IF(MAX(History!114:114)&gt;0,MAX(History!C114:OFFSET(History!C114,0,COUNTA(History!114:114)-3)),"")</f>
         <v/>
       </c>
       <c r="H114" s="6" t="str">
-        <f>IF(History!A114&lt;&gt;0,MIN(History!114:114),"")</f>
+        <f ca="1">IF(History!A114&lt;&gt;0,MIN(History!C114:OFFSET(History!C114,0,COUNTA(History!114:114)-3)),"")</f>
         <v/>
       </c>
       <c r="I114" s="6" t="str">
@@ -5207,27 +5209,27 @@
         <v/>
       </c>
       <c r="C115" s="4" t="str">
-        <f>IF(History!A115&lt;&gt;"",SUM(History!115:115),"")</f>
+        <f ca="1">IF(History!A115&lt;&gt;"",SUM(History!C115:OFFSET(History!C115,0,COUNTA(History!115:115)-3)),"")</f>
         <v/>
       </c>
       <c r="D115" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="E115" s="4" t="str">
-        <f>IF(History!A115&lt;&gt;0,COUNTIF(History!115:115,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A115&lt;&gt;0,COUNTIF(History!C115:OFFSET(History!C115,0,COUNTA(History!115:115)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F115" s="4" t="str">
-        <f>IF(History!A115&lt;&gt;0,COUNTIF(History!115:115,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A115&lt;&gt;0,COUNTIF(History!C115:OFFSET(History!C115,0,COUNTA(History!115:115)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G115" s="6" t="str">
-        <f>IF(MAX(History!115:115)&gt;0,MAX(History!115:115),"")</f>
+        <f ca="1">IF(MAX(History!115:115)&gt;0,MAX(History!C115:OFFSET(History!C115,0,COUNTA(History!115:115)-3)),"")</f>
         <v/>
       </c>
       <c r="H115" s="6" t="str">
-        <f>IF(History!A115&lt;&gt;0,MIN(History!115:115),"")</f>
+        <f ca="1">IF(History!A115&lt;&gt;0,MIN(History!C115:OFFSET(History!C115,0,COUNTA(History!115:115)-3)),"")</f>
         <v/>
       </c>
       <c r="I115" s="6" t="str">
@@ -5248,27 +5250,27 @@
         <v/>
       </c>
       <c r="C116" s="4" t="str">
-        <f>IF(History!A116&lt;&gt;"",SUM(History!116:116),"")</f>
+        <f ca="1">IF(History!A116&lt;&gt;"",SUM(History!C116:OFFSET(History!C116,0,COUNTA(History!116:116)-3)),"")</f>
         <v/>
       </c>
       <c r="D116" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="E116" s="4" t="str">
-        <f>IF(History!A116&lt;&gt;0,COUNTIF(History!116:116,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A116&lt;&gt;0,COUNTIF(History!C116:OFFSET(History!C116,0,COUNTA(History!116:116)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F116" s="4" t="str">
-        <f>IF(History!A116&lt;&gt;0,COUNTIF(History!116:116,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A116&lt;&gt;0,COUNTIF(History!C116:OFFSET(History!C116,0,COUNTA(History!116:116)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G116" s="6" t="str">
-        <f>IF(MAX(History!116:116)&gt;0,MAX(History!116:116),"")</f>
+        <f ca="1">IF(MAX(History!116:116)&gt;0,MAX(History!C116:OFFSET(History!C116,0,COUNTA(History!116:116)-3)),"")</f>
         <v/>
       </c>
       <c r="H116" s="6" t="str">
-        <f>IF(History!A116&lt;&gt;0,MIN(History!116:116),"")</f>
+        <f ca="1">IF(History!A116&lt;&gt;0,MIN(History!C116:OFFSET(History!C116,0,COUNTA(History!116:116)-3)),"")</f>
         <v/>
       </c>
       <c r="I116" s="6" t="str">
@@ -5289,27 +5291,27 @@
         <v/>
       </c>
       <c r="C117" s="4" t="str">
-        <f>IF(History!A117&lt;&gt;"",SUM(History!117:117),"")</f>
+        <f ca="1">IF(History!A117&lt;&gt;"",SUM(History!C117:OFFSET(History!C117,0,COUNTA(History!117:117)-3)),"")</f>
         <v/>
       </c>
       <c r="D117" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="E117" s="4" t="str">
-        <f>IF(History!A117&lt;&gt;0,COUNTIF(History!117:117,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A117&lt;&gt;0,COUNTIF(History!C117:OFFSET(History!C117,0,COUNTA(History!117:117)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F117" s="4" t="str">
-        <f>IF(History!A117&lt;&gt;0,COUNTIF(History!117:117,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A117&lt;&gt;0,COUNTIF(History!C117:OFFSET(History!C117,0,COUNTA(History!117:117)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G117" s="6" t="str">
-        <f>IF(MAX(History!117:117)&gt;0,MAX(History!117:117),"")</f>
+        <f ca="1">IF(MAX(History!117:117)&gt;0,MAX(History!C117:OFFSET(History!C117,0,COUNTA(History!117:117)-3)),"")</f>
         <v/>
       </c>
       <c r="H117" s="6" t="str">
-        <f>IF(History!A117&lt;&gt;0,MIN(History!117:117),"")</f>
+        <f ca="1">IF(History!A117&lt;&gt;0,MIN(History!C117:OFFSET(History!C117,0,COUNTA(History!117:117)-3)),"")</f>
         <v/>
       </c>
       <c r="I117" s="6" t="str">
@@ -5330,27 +5332,27 @@
         <v/>
       </c>
       <c r="C118" s="4" t="str">
-        <f>IF(History!A118&lt;&gt;"",SUM(History!118:118),"")</f>
+        <f ca="1">IF(History!A118&lt;&gt;"",SUM(History!C118:OFFSET(History!C118,0,COUNTA(History!118:118)-3)),"")</f>
         <v/>
       </c>
       <c r="D118" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="E118" s="4" t="str">
-        <f>IF(History!A118&lt;&gt;0,COUNTIF(History!118:118,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A118&lt;&gt;0,COUNTIF(History!C118:OFFSET(History!C118,0,COUNTA(History!118:118)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F118" s="4" t="str">
-        <f>IF(History!A118&lt;&gt;0,COUNTIF(History!118:118,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A118&lt;&gt;0,COUNTIF(History!C118:OFFSET(History!C118,0,COUNTA(History!118:118)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G118" s="6" t="str">
-        <f>IF(MAX(History!118:118)&gt;0,MAX(History!118:118),"")</f>
+        <f ca="1">IF(MAX(History!118:118)&gt;0,MAX(History!C118:OFFSET(History!C118,0,COUNTA(History!118:118)-3)),"")</f>
         <v/>
       </c>
       <c r="H118" s="6" t="str">
-        <f>IF(History!A118&lt;&gt;0,MIN(History!118:118),"")</f>
+        <f ca="1">IF(History!A118&lt;&gt;0,MIN(History!C118:OFFSET(History!C118,0,COUNTA(History!118:118)-3)),"")</f>
         <v/>
       </c>
       <c r="I118" s="6" t="str">
@@ -5371,27 +5373,27 @@
         <v/>
       </c>
       <c r="C119" s="4" t="str">
-        <f>IF(History!A119&lt;&gt;"",SUM(History!119:119),"")</f>
+        <f ca="1">IF(History!A119&lt;&gt;"",SUM(History!C119:OFFSET(History!C119,0,COUNTA(History!119:119)-3)),"")</f>
         <v/>
       </c>
       <c r="D119" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="E119" s="4" t="str">
-        <f>IF(History!A119&lt;&gt;0,COUNTIF(History!119:119,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A119&lt;&gt;0,COUNTIF(History!C119:OFFSET(History!C119,0,COUNTA(History!119:119)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F119" s="4" t="str">
-        <f>IF(History!A119&lt;&gt;0,COUNTIF(History!119:119,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A119&lt;&gt;0,COUNTIF(History!C119:OFFSET(History!C119,0,COUNTA(History!119:119)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G119" s="6" t="str">
-        <f>IF(MAX(History!119:119)&gt;0,MAX(History!119:119),"")</f>
+        <f ca="1">IF(MAX(History!119:119)&gt;0,MAX(History!C119:OFFSET(History!C119,0,COUNTA(History!119:119)-3)),"")</f>
         <v/>
       </c>
       <c r="H119" s="6" t="str">
-        <f>IF(History!A119&lt;&gt;0,MIN(History!119:119),"")</f>
+        <f ca="1">IF(History!A119&lt;&gt;0,MIN(History!C119:OFFSET(History!C119,0,COUNTA(History!119:119)-3)),"")</f>
         <v/>
       </c>
       <c r="I119" s="6" t="str">
@@ -5412,27 +5414,27 @@
         <v/>
       </c>
       <c r="C120" s="4" t="str">
-        <f>IF(History!A120&lt;&gt;"",SUM(History!120:120),"")</f>
+        <f ca="1">IF(History!A120&lt;&gt;"",SUM(History!C120:OFFSET(History!C120,0,COUNTA(History!120:120)-3)),"")</f>
         <v/>
       </c>
       <c r="D120" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="E120" s="4" t="str">
-        <f>IF(History!A120&lt;&gt;0,COUNTIF(History!120:120,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A120&lt;&gt;0,COUNTIF(History!C120:OFFSET(History!C120,0,COUNTA(History!120:120)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F120" s="4" t="str">
-        <f>IF(History!A120&lt;&gt;0,COUNTIF(History!120:120,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A120&lt;&gt;0,COUNTIF(History!C120:OFFSET(History!C120,0,COUNTA(History!120:120)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G120" s="6" t="str">
-        <f>IF(MAX(History!120:120)&gt;0,MAX(History!120:120),"")</f>
+        <f ca="1">IF(MAX(History!120:120)&gt;0,MAX(History!C120:OFFSET(History!C120,0,COUNTA(History!120:120)-3)),"")</f>
         <v/>
       </c>
       <c r="H120" s="6" t="str">
-        <f>IF(History!A120&lt;&gt;0,MIN(History!120:120),"")</f>
+        <f ca="1">IF(History!A120&lt;&gt;0,MIN(History!C120:OFFSET(History!C120,0,COUNTA(History!120:120)-3)),"")</f>
         <v/>
       </c>
       <c r="I120" s="6" t="str">
@@ -5453,27 +5455,27 @@
         <v/>
       </c>
       <c r="C121" s="4" t="str">
-        <f>IF(History!A121&lt;&gt;"",SUM(History!121:121),"")</f>
+        <f ca="1">IF(History!A121&lt;&gt;"",SUM(History!C121:OFFSET(History!C121,0,COUNTA(History!121:121)-3)),"")</f>
         <v/>
       </c>
       <c r="D121" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="E121" s="4" t="str">
-        <f>IF(History!A121&lt;&gt;0,COUNTIF(History!121:121,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A121&lt;&gt;0,COUNTIF(History!C121:OFFSET(History!C121,0,COUNTA(History!121:121)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F121" s="4" t="str">
-        <f>IF(History!A121&lt;&gt;0,COUNTIF(History!121:121,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A121&lt;&gt;0,COUNTIF(History!C121:OFFSET(History!C121,0,COUNTA(History!121:121)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G121" s="6" t="str">
-        <f>IF(MAX(History!121:121)&gt;0,MAX(History!121:121),"")</f>
+        <f ca="1">IF(MAX(History!121:121)&gt;0,MAX(History!C121:OFFSET(History!C121,0,COUNTA(History!121:121)-3)),"")</f>
         <v/>
       </c>
       <c r="H121" s="6" t="str">
-        <f>IF(History!A121&lt;&gt;0,MIN(History!121:121),"")</f>
+        <f ca="1">IF(History!A121&lt;&gt;0,MIN(History!C121:OFFSET(History!C121,0,COUNTA(History!121:121)-3)),"")</f>
         <v/>
       </c>
       <c r="I121" s="6" t="str">
@@ -5494,27 +5496,27 @@
         <v/>
       </c>
       <c r="C122" s="4" t="str">
-        <f>IF(History!A122&lt;&gt;"",SUM(History!122:122),"")</f>
+        <f ca="1">IF(History!A122&lt;&gt;"",SUM(History!C122:OFFSET(History!C122,0,COUNTA(History!122:122)-3)),"")</f>
         <v/>
       </c>
       <c r="D122" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="E122" s="4" t="str">
-        <f>IF(History!A122&lt;&gt;0,COUNTIF(History!122:122,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A122&lt;&gt;0,COUNTIF(History!C122:OFFSET(History!C122,0,COUNTA(History!122:122)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F122" s="4" t="str">
-        <f>IF(History!A122&lt;&gt;0,COUNTIF(History!122:122,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A122&lt;&gt;0,COUNTIF(History!C122:OFFSET(History!C122,0,COUNTA(History!122:122)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G122" s="6" t="str">
-        <f>IF(MAX(History!122:122)&gt;0,MAX(History!122:122),"")</f>
+        <f ca="1">IF(MAX(History!122:122)&gt;0,MAX(History!C122:OFFSET(History!C122,0,COUNTA(History!122:122)-3)),"")</f>
         <v/>
       </c>
       <c r="H122" s="6" t="str">
-        <f>IF(History!A122&lt;&gt;0,MIN(History!122:122),"")</f>
+        <f ca="1">IF(History!A122&lt;&gt;0,MIN(History!C122:OFFSET(History!C122,0,COUNTA(History!122:122)-3)),"")</f>
         <v/>
       </c>
       <c r="I122" s="6" t="str">
@@ -5535,27 +5537,27 @@
         <v/>
       </c>
       <c r="C123" s="4" t="str">
-        <f>IF(History!A123&lt;&gt;"",SUM(History!123:123),"")</f>
+        <f ca="1">IF(History!A123&lt;&gt;"",SUM(History!C123:OFFSET(History!C123,0,COUNTA(History!123:123)-3)),"")</f>
         <v/>
       </c>
       <c r="D123" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="E123" s="4" t="str">
-        <f>IF(History!A123&lt;&gt;0,COUNTIF(History!123:123,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A123&lt;&gt;0,COUNTIF(History!C123:OFFSET(History!C123,0,COUNTA(History!123:123)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F123" s="4" t="str">
-        <f>IF(History!A123&lt;&gt;0,COUNTIF(History!123:123,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A123&lt;&gt;0,COUNTIF(History!C123:OFFSET(History!C123,0,COUNTA(History!123:123)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G123" s="6" t="str">
-        <f>IF(MAX(History!123:123)&gt;0,MAX(History!123:123),"")</f>
+        <f ca="1">IF(MAX(History!123:123)&gt;0,MAX(History!C123:OFFSET(History!C123,0,COUNTA(History!123:123)-3)),"")</f>
         <v/>
       </c>
       <c r="H123" s="6" t="str">
-        <f>IF(History!A123&lt;&gt;0,MIN(History!123:123),"")</f>
+        <f ca="1">IF(History!A123&lt;&gt;0,MIN(History!C123:OFFSET(History!C123,0,COUNTA(History!123:123)-3)),"")</f>
         <v/>
       </c>
       <c r="I123" s="6" t="str">
@@ -5576,27 +5578,27 @@
         <v/>
       </c>
       <c r="C124" s="4" t="str">
-        <f>IF(History!A124&lt;&gt;"",SUM(History!124:124),"")</f>
+        <f ca="1">IF(History!A124&lt;&gt;"",SUM(History!C124:OFFSET(History!C124,0,COUNTA(History!124:124)-3)),"")</f>
         <v/>
       </c>
       <c r="D124" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="E124" s="4" t="str">
-        <f>IF(History!A124&lt;&gt;0,COUNTIF(History!124:124,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A124&lt;&gt;0,COUNTIF(History!C124:OFFSET(History!C124,0,COUNTA(History!124:124)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F124" s="4" t="str">
-        <f>IF(History!A124&lt;&gt;0,COUNTIF(History!124:124,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A124&lt;&gt;0,COUNTIF(History!C124:OFFSET(History!C124,0,COUNTA(History!124:124)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G124" s="6" t="str">
-        <f>IF(MAX(History!124:124)&gt;0,MAX(History!124:124),"")</f>
+        <f ca="1">IF(MAX(History!124:124)&gt;0,MAX(History!C124:OFFSET(History!C124,0,COUNTA(History!124:124)-3)),"")</f>
         <v/>
       </c>
       <c r="H124" s="6" t="str">
-        <f>IF(History!A124&lt;&gt;0,MIN(History!124:124),"")</f>
+        <f ca="1">IF(History!A124&lt;&gt;0,MIN(History!C124:OFFSET(History!C124,0,COUNTA(History!124:124)-3)),"")</f>
         <v/>
       </c>
       <c r="I124" s="6" t="str">
@@ -5617,27 +5619,27 @@
         <v/>
       </c>
       <c r="C125" s="4" t="str">
-        <f>IF(History!A125&lt;&gt;"",SUM(History!125:125),"")</f>
+        <f ca="1">IF(History!A125&lt;&gt;"",SUM(History!C125:OFFSET(History!C125,0,COUNTA(History!125:125)-3)),"")</f>
         <v/>
       </c>
       <c r="D125" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="E125" s="4" t="str">
-        <f>IF(History!A125&lt;&gt;0,COUNTIF(History!125:125,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A125&lt;&gt;0,COUNTIF(History!C125:OFFSET(History!C125,0,COUNTA(History!125:125)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F125" s="4" t="str">
-        <f>IF(History!A125&lt;&gt;0,COUNTIF(History!125:125,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A125&lt;&gt;0,COUNTIF(History!C125:OFFSET(History!C125,0,COUNTA(History!125:125)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G125" s="6" t="str">
-        <f>IF(MAX(History!125:125)&gt;0,MAX(History!125:125),"")</f>
+        <f ca="1">IF(MAX(History!125:125)&gt;0,MAX(History!C125:OFFSET(History!C125,0,COUNTA(History!125:125)-3)),"")</f>
         <v/>
       </c>
       <c r="H125" s="6" t="str">
-        <f>IF(History!A125&lt;&gt;0,MIN(History!125:125),"")</f>
+        <f ca="1">IF(History!A125&lt;&gt;0,MIN(History!C125:OFFSET(History!C125,0,COUNTA(History!125:125)-3)),"")</f>
         <v/>
       </c>
       <c r="I125" s="6" t="str">
@@ -5658,27 +5660,27 @@
         <v/>
       </c>
       <c r="C126" s="4" t="str">
-        <f>IF(History!A126&lt;&gt;"",SUM(History!126:126),"")</f>
+        <f ca="1">IF(History!A126&lt;&gt;"",SUM(History!C126:OFFSET(History!C126,0,COUNTA(History!126:126)-3)),"")</f>
         <v/>
       </c>
       <c r="D126" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="E126" s="4" t="str">
-        <f>IF(History!A126&lt;&gt;0,COUNTIF(History!126:126,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A126&lt;&gt;0,COUNTIF(History!C126:OFFSET(History!C126,0,COUNTA(History!126:126)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F126" s="4" t="str">
-        <f>IF(History!A126&lt;&gt;0,COUNTIF(History!126:126,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A126&lt;&gt;0,COUNTIF(History!C126:OFFSET(History!C126,0,COUNTA(History!126:126)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G126" s="6" t="str">
-        <f>IF(MAX(History!126:126)&gt;0,MAX(History!126:126),"")</f>
+        <f ca="1">IF(MAX(History!126:126)&gt;0,MAX(History!C126:OFFSET(History!C126,0,COUNTA(History!126:126)-3)),"")</f>
         <v/>
       </c>
       <c r="H126" s="6" t="str">
-        <f>IF(History!A126&lt;&gt;0,MIN(History!126:126),"")</f>
+        <f ca="1">IF(History!A126&lt;&gt;0,MIN(History!C126:OFFSET(History!C126,0,COUNTA(History!126:126)-3)),"")</f>
         <v/>
       </c>
       <c r="I126" s="6" t="str">
@@ -5699,27 +5701,27 @@
         <v/>
       </c>
       <c r="C127" s="4" t="str">
-        <f>IF(History!A127&lt;&gt;"",SUM(History!127:127),"")</f>
+        <f ca="1">IF(History!A127&lt;&gt;"",SUM(History!C127:OFFSET(History!C127,0,COUNTA(History!127:127)-3)),"")</f>
         <v/>
       </c>
       <c r="D127" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="E127" s="4" t="str">
-        <f>IF(History!A127&lt;&gt;0,COUNTIF(History!127:127,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A127&lt;&gt;0,COUNTIF(History!C127:OFFSET(History!C127,0,COUNTA(History!127:127)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F127" s="4" t="str">
-        <f>IF(History!A127&lt;&gt;0,COUNTIF(History!127:127,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A127&lt;&gt;0,COUNTIF(History!C127:OFFSET(History!C127,0,COUNTA(History!127:127)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G127" s="6" t="str">
-        <f>IF(MAX(History!127:127)&gt;0,MAX(History!127:127),"")</f>
+        <f ca="1">IF(MAX(History!127:127)&gt;0,MAX(History!C127:OFFSET(History!C127,0,COUNTA(History!127:127)-3)),"")</f>
         <v/>
       </c>
       <c r="H127" s="6" t="str">
-        <f>IF(History!A127&lt;&gt;0,MIN(History!127:127),"")</f>
+        <f ca="1">IF(History!A127&lt;&gt;0,MIN(History!C127:OFFSET(History!C127,0,COUNTA(History!127:127)-3)),"")</f>
         <v/>
       </c>
       <c r="I127" s="6" t="str">
@@ -5740,27 +5742,27 @@
         <v/>
       </c>
       <c r="C128" s="4" t="str">
-        <f>IF(History!A128&lt;&gt;"",SUM(History!128:128),"")</f>
+        <f ca="1">IF(History!A128&lt;&gt;"",SUM(History!C128:OFFSET(History!C128,0,COUNTA(History!128:128)-3)),"")</f>
         <v/>
       </c>
       <c r="D128" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="E128" s="4" t="str">
-        <f>IF(History!A128&lt;&gt;0,COUNTIF(History!128:128,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A128&lt;&gt;0,COUNTIF(History!C128:OFFSET(History!C128,0,COUNTA(History!128:128)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F128" s="4" t="str">
-        <f>IF(History!A128&lt;&gt;0,COUNTIF(History!128:128,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A128&lt;&gt;0,COUNTIF(History!C128:OFFSET(History!C128,0,COUNTA(History!128:128)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G128" s="6" t="str">
-        <f>IF(MAX(History!128:128)&gt;0,MAX(History!128:128),"")</f>
+        <f ca="1">IF(MAX(History!128:128)&gt;0,MAX(History!C128:OFFSET(History!C128,0,COUNTA(History!128:128)-3)),"")</f>
         <v/>
       </c>
       <c r="H128" s="6" t="str">
-        <f>IF(History!A128&lt;&gt;0,MIN(History!128:128),"")</f>
+        <f ca="1">IF(History!A128&lt;&gt;0,MIN(History!C128:OFFSET(History!C128,0,COUNTA(History!128:128)-3)),"")</f>
         <v/>
       </c>
       <c r="I128" s="6" t="str">
@@ -5781,27 +5783,27 @@
         <v/>
       </c>
       <c r="C129" s="4" t="str">
-        <f>IF(History!A129&lt;&gt;"",SUM(History!129:129),"")</f>
+        <f ca="1">IF(History!A129&lt;&gt;"",SUM(History!C129:OFFSET(History!C129,0,COUNTA(History!129:129)-3)),"")</f>
         <v/>
       </c>
       <c r="D129" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="E129" s="4" t="str">
-        <f>IF(History!A129&lt;&gt;0,COUNTIF(History!129:129,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A129&lt;&gt;0,COUNTIF(History!C129:OFFSET(History!C129,0,COUNTA(History!129:129)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F129" s="4" t="str">
-        <f>IF(History!A129&lt;&gt;0,COUNTIF(History!129:129,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A129&lt;&gt;0,COUNTIF(History!C129:OFFSET(History!C129,0,COUNTA(History!129:129)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G129" s="6" t="str">
-        <f>IF(MAX(History!129:129)&gt;0,MAX(History!129:129),"")</f>
+        <f ca="1">IF(MAX(History!129:129)&gt;0,MAX(History!C129:OFFSET(History!C129,0,COUNTA(History!129:129)-3)),"")</f>
         <v/>
       </c>
       <c r="H129" s="6" t="str">
-        <f>IF(History!A129&lt;&gt;0,MIN(History!129:129),"")</f>
+        <f ca="1">IF(History!A129&lt;&gt;0,MIN(History!C129:OFFSET(History!C129,0,COUNTA(History!129:129)-3)),"")</f>
         <v/>
       </c>
       <c r="I129" s="6" t="str">
@@ -5822,27 +5824,27 @@
         <v/>
       </c>
       <c r="C130" s="4" t="str">
-        <f>IF(History!A130&lt;&gt;"",SUM(History!130:130),"")</f>
+        <f ca="1">IF(History!A130&lt;&gt;"",SUM(History!C130:OFFSET(History!C130,0,COUNTA(History!130:130)-3)),"")</f>
         <v/>
       </c>
       <c r="D130" s="8" t="str">
-        <f t="shared" ref="D130:D161" si="4">IFERROR(E130/(E130+F130),"")</f>
+        <f t="shared" ref="D130:D151" ca="1" si="4">IFERROR(E130/(E130+F130),"")</f>
         <v/>
       </c>
       <c r="E130" s="4" t="str">
-        <f>IF(History!A130&lt;&gt;0,COUNTIF(History!130:130,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A130&lt;&gt;0,COUNTIF(History!C130:OFFSET(History!C130,0,COUNTA(History!130:130)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F130" s="4" t="str">
-        <f>IF(History!A130&lt;&gt;0,COUNTIF(History!130:130,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A130&lt;&gt;0,COUNTIF(History!C130:OFFSET(History!C130,0,COUNTA(History!130:130)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G130" s="6" t="str">
-        <f>IF(MAX(History!130:130)&gt;0,MAX(History!130:130),"")</f>
+        <f ca="1">IF(MAX(History!130:130)&gt;0,MAX(History!C130:OFFSET(History!C130,0,COUNTA(History!130:130)-3)),"")</f>
         <v/>
       </c>
       <c r="H130" s="6" t="str">
-        <f>IF(History!A130&lt;&gt;0,MIN(History!130:130),"")</f>
+        <f ca="1">IF(History!A130&lt;&gt;0,MIN(History!C130:OFFSET(History!C130,0,COUNTA(History!130:130)-3)),"")</f>
         <v/>
       </c>
       <c r="I130" s="6" t="str">
@@ -5863,27 +5865,27 @@
         <v/>
       </c>
       <c r="C131" s="4" t="str">
-        <f>IF(History!A131&lt;&gt;"",SUM(History!131:131),"")</f>
+        <f ca="1">IF(History!A131&lt;&gt;"",SUM(History!C131:OFFSET(History!C131,0,COUNTA(History!131:131)-3)),"")</f>
         <v/>
       </c>
       <c r="D131" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="E131" s="4" t="str">
-        <f>IF(History!A131&lt;&gt;0,COUNTIF(History!131:131,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A131&lt;&gt;0,COUNTIF(History!C131:OFFSET(History!C131,0,COUNTA(History!131:131)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F131" s="4" t="str">
-        <f>IF(History!A131&lt;&gt;0,COUNTIF(History!131:131,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A131&lt;&gt;0,COUNTIF(History!C131:OFFSET(History!C131,0,COUNTA(History!131:131)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G131" s="6" t="str">
-        <f>IF(MAX(History!131:131)&gt;0,MAX(History!131:131),"")</f>
+        <f ca="1">IF(MAX(History!131:131)&gt;0,MAX(History!C131:OFFSET(History!C131,0,COUNTA(History!131:131)-3)),"")</f>
         <v/>
       </c>
       <c r="H131" s="6" t="str">
-        <f>IF(History!A131&lt;&gt;0,MIN(History!131:131),"")</f>
+        <f ca="1">IF(History!A131&lt;&gt;0,MIN(History!C131:OFFSET(History!C131,0,COUNTA(History!131:131)-3)),"")</f>
         <v/>
       </c>
       <c r="I131" s="6" t="str">
@@ -5904,27 +5906,27 @@
         <v/>
       </c>
       <c r="C132" s="4" t="str">
-        <f>IF(History!A132&lt;&gt;"",SUM(History!132:132),"")</f>
+        <f ca="1">IF(History!A132&lt;&gt;"",SUM(History!C132:OFFSET(History!C132,0,COUNTA(History!132:132)-3)),"")</f>
         <v/>
       </c>
       <c r="D132" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="E132" s="4" t="str">
-        <f>IF(History!A132&lt;&gt;0,COUNTIF(History!132:132,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A132&lt;&gt;0,COUNTIF(History!C132:OFFSET(History!C132,0,COUNTA(History!132:132)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F132" s="4" t="str">
-        <f>IF(History!A132&lt;&gt;0,COUNTIF(History!132:132,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A132&lt;&gt;0,COUNTIF(History!C132:OFFSET(History!C132,0,COUNTA(History!132:132)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G132" s="6" t="str">
-        <f>IF(MAX(History!132:132)&gt;0,MAX(History!132:132),"")</f>
+        <f ca="1">IF(MAX(History!132:132)&gt;0,MAX(History!C132:OFFSET(History!C132,0,COUNTA(History!132:132)-3)),"")</f>
         <v/>
       </c>
       <c r="H132" s="6" t="str">
-        <f>IF(History!A132&lt;&gt;0,MIN(History!132:132),"")</f>
+        <f ca="1">IF(History!A132&lt;&gt;0,MIN(History!C132:OFFSET(History!C132,0,COUNTA(History!132:132)-3)),"")</f>
         <v/>
       </c>
       <c r="I132" s="6" t="str">
@@ -5945,27 +5947,27 @@
         <v/>
       </c>
       <c r="C133" s="4" t="str">
-        <f>IF(History!A133&lt;&gt;"",SUM(History!133:133),"")</f>
+        <f ca="1">IF(History!A133&lt;&gt;"",SUM(History!C133:OFFSET(History!C133,0,COUNTA(History!133:133)-3)),"")</f>
         <v/>
       </c>
       <c r="D133" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="E133" s="4" t="str">
-        <f>IF(History!A133&lt;&gt;0,COUNTIF(History!133:133,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A133&lt;&gt;0,COUNTIF(History!C133:OFFSET(History!C133,0,COUNTA(History!133:133)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F133" s="4" t="str">
-        <f>IF(History!A133&lt;&gt;0,COUNTIF(History!133:133,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A133&lt;&gt;0,COUNTIF(History!C133:OFFSET(History!C133,0,COUNTA(History!133:133)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G133" s="6" t="str">
-        <f>IF(MAX(History!133:133)&gt;0,MAX(History!133:133),"")</f>
+        <f ca="1">IF(MAX(History!133:133)&gt;0,MAX(History!C133:OFFSET(History!C133,0,COUNTA(History!133:133)-3)),"")</f>
         <v/>
       </c>
       <c r="H133" s="6" t="str">
-        <f>IF(History!A133&lt;&gt;0,MIN(History!133:133),"")</f>
+        <f ca="1">IF(History!A133&lt;&gt;0,MIN(History!C133:OFFSET(History!C133,0,COUNTA(History!133:133)-3)),"")</f>
         <v/>
       </c>
       <c r="I133" s="6" t="str">
@@ -5986,27 +5988,27 @@
         <v/>
       </c>
       <c r="C134" s="4" t="str">
-        <f>IF(History!A134&lt;&gt;"",SUM(History!134:134),"")</f>
+        <f ca="1">IF(History!A134&lt;&gt;"",SUM(History!C134:OFFSET(History!C134,0,COUNTA(History!134:134)-3)),"")</f>
         <v/>
       </c>
       <c r="D134" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="E134" s="4" t="str">
-        <f>IF(History!A134&lt;&gt;0,COUNTIF(History!134:134,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A134&lt;&gt;0,COUNTIF(History!C134:OFFSET(History!C134,0,COUNTA(History!134:134)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F134" s="4" t="str">
-        <f>IF(History!A134&lt;&gt;0,COUNTIF(History!134:134,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A134&lt;&gt;0,COUNTIF(History!C134:OFFSET(History!C134,0,COUNTA(History!134:134)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G134" s="6" t="str">
-        <f>IF(MAX(History!134:134)&gt;0,MAX(History!134:134),"")</f>
+        <f ca="1">IF(MAX(History!134:134)&gt;0,MAX(History!C134:OFFSET(History!C134,0,COUNTA(History!134:134)-3)),"")</f>
         <v/>
       </c>
       <c r="H134" s="6" t="str">
-        <f>IF(History!A134&lt;&gt;0,MIN(History!134:134),"")</f>
+        <f ca="1">IF(History!A134&lt;&gt;0,MIN(History!C134:OFFSET(History!C134,0,COUNTA(History!134:134)-3)),"")</f>
         <v/>
       </c>
       <c r="I134" s="6" t="str">
@@ -6027,27 +6029,27 @@
         <v/>
       </c>
       <c r="C135" s="4" t="str">
-        <f>IF(History!A135&lt;&gt;"",SUM(History!135:135),"")</f>
+        <f ca="1">IF(History!A135&lt;&gt;"",SUM(History!C135:OFFSET(History!C135,0,COUNTA(History!135:135)-3)),"")</f>
         <v/>
       </c>
       <c r="D135" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="E135" s="4" t="str">
-        <f>IF(History!A135&lt;&gt;0,COUNTIF(History!135:135,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A135&lt;&gt;0,COUNTIF(History!C135:OFFSET(History!C135,0,COUNTA(History!135:135)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F135" s="4" t="str">
-        <f>IF(History!A135&lt;&gt;0,COUNTIF(History!135:135,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A135&lt;&gt;0,COUNTIF(History!C135:OFFSET(History!C135,0,COUNTA(History!135:135)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G135" s="6" t="str">
-        <f>IF(MAX(History!135:135)&gt;0,MAX(History!135:135),"")</f>
+        <f ca="1">IF(MAX(History!135:135)&gt;0,MAX(History!C135:OFFSET(History!C135,0,COUNTA(History!135:135)-3)),"")</f>
         <v/>
       </c>
       <c r="H135" s="6" t="str">
-        <f>IF(History!A135&lt;&gt;0,MIN(History!135:135),"")</f>
+        <f ca="1">IF(History!A135&lt;&gt;0,MIN(History!C135:OFFSET(History!C135,0,COUNTA(History!135:135)-3)),"")</f>
         <v/>
       </c>
       <c r="I135" s="6" t="str">
@@ -6068,27 +6070,27 @@
         <v/>
       </c>
       <c r="C136" s="4" t="str">
-        <f>IF(History!A136&lt;&gt;"",SUM(History!136:136),"")</f>
+        <f ca="1">IF(History!A136&lt;&gt;"",SUM(History!C136:OFFSET(History!C136,0,COUNTA(History!136:136)-3)),"")</f>
         <v/>
       </c>
       <c r="D136" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="E136" s="4" t="str">
-        <f>IF(History!A136&lt;&gt;0,COUNTIF(History!136:136,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A136&lt;&gt;0,COUNTIF(History!C136:OFFSET(History!C136,0,COUNTA(History!136:136)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F136" s="4" t="str">
-        <f>IF(History!A136&lt;&gt;0,COUNTIF(History!136:136,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A136&lt;&gt;0,COUNTIF(History!C136:OFFSET(History!C136,0,COUNTA(History!136:136)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G136" s="6" t="str">
-        <f>IF(MAX(History!136:136)&gt;0,MAX(History!136:136),"")</f>
+        <f ca="1">IF(MAX(History!136:136)&gt;0,MAX(History!C136:OFFSET(History!C136,0,COUNTA(History!136:136)-3)),"")</f>
         <v/>
       </c>
       <c r="H136" s="6" t="str">
-        <f>IF(History!A136&lt;&gt;0,MIN(History!136:136),"")</f>
+        <f ca="1">IF(History!A136&lt;&gt;0,MIN(History!C136:OFFSET(History!C136,0,COUNTA(History!136:136)-3)),"")</f>
         <v/>
       </c>
       <c r="I136" s="6" t="str">
@@ -6109,27 +6111,27 @@
         <v/>
       </c>
       <c r="C137" s="4" t="str">
-        <f>IF(History!A137&lt;&gt;"",SUM(History!137:137),"")</f>
+        <f ca="1">IF(History!A137&lt;&gt;"",SUM(History!C137:OFFSET(History!C137,0,COUNTA(History!137:137)-3)),"")</f>
         <v/>
       </c>
       <c r="D137" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="E137" s="4" t="str">
-        <f>IF(History!A137&lt;&gt;0,COUNTIF(History!137:137,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A137&lt;&gt;0,COUNTIF(History!C137:OFFSET(History!C137,0,COUNTA(History!137:137)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F137" s="4" t="str">
-        <f>IF(History!A137&lt;&gt;0,COUNTIF(History!137:137,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A137&lt;&gt;0,COUNTIF(History!C137:OFFSET(History!C137,0,COUNTA(History!137:137)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G137" s="6" t="str">
-        <f>IF(MAX(History!137:137)&gt;0,MAX(History!137:137),"")</f>
+        <f ca="1">IF(MAX(History!137:137)&gt;0,MAX(History!C137:OFFSET(History!C137,0,COUNTA(History!137:137)-3)),"")</f>
         <v/>
       </c>
       <c r="H137" s="6" t="str">
-        <f>IF(History!A137&lt;&gt;0,MIN(History!137:137),"")</f>
+        <f ca="1">IF(History!A137&lt;&gt;0,MIN(History!C137:OFFSET(History!C137,0,COUNTA(History!137:137)-3)),"")</f>
         <v/>
       </c>
       <c r="I137" s="6" t="str">
@@ -6150,27 +6152,27 @@
         <v/>
       </c>
       <c r="C138" s="4" t="str">
-        <f>IF(History!A138&lt;&gt;"",SUM(History!138:138),"")</f>
+        <f ca="1">IF(History!A138&lt;&gt;"",SUM(History!C138:OFFSET(History!C138,0,COUNTA(History!138:138)-3)),"")</f>
         <v/>
       </c>
       <c r="D138" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="E138" s="4" t="str">
-        <f>IF(History!A138&lt;&gt;0,COUNTIF(History!138:138,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A138&lt;&gt;0,COUNTIF(History!C138:OFFSET(History!C138,0,COUNTA(History!138:138)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F138" s="4" t="str">
-        <f>IF(History!A138&lt;&gt;0,COUNTIF(History!138:138,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A138&lt;&gt;0,COUNTIF(History!C138:OFFSET(History!C138,0,COUNTA(History!138:138)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G138" s="6" t="str">
-        <f>IF(MAX(History!138:138)&gt;0,MAX(History!138:138),"")</f>
+        <f ca="1">IF(MAX(History!138:138)&gt;0,MAX(History!C138:OFFSET(History!C138,0,COUNTA(History!138:138)-3)),"")</f>
         <v/>
       </c>
       <c r="H138" s="6" t="str">
-        <f>IF(History!A138&lt;&gt;0,MIN(History!138:138),"")</f>
+        <f ca="1">IF(History!A138&lt;&gt;0,MIN(History!C138:OFFSET(History!C138,0,COUNTA(History!138:138)-3)),"")</f>
         <v/>
       </c>
       <c r="I138" s="6" t="str">
@@ -6191,27 +6193,27 @@
         <v/>
       </c>
       <c r="C139" s="4" t="str">
-        <f>IF(History!A139&lt;&gt;"",SUM(History!139:139),"")</f>
+        <f ca="1">IF(History!A139&lt;&gt;"",SUM(History!C139:OFFSET(History!C139,0,COUNTA(History!139:139)-3)),"")</f>
         <v/>
       </c>
       <c r="D139" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="E139" s="4" t="str">
-        <f>IF(History!A139&lt;&gt;0,COUNTIF(History!139:139,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A139&lt;&gt;0,COUNTIF(History!C139:OFFSET(History!C139,0,COUNTA(History!139:139)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F139" s="4" t="str">
-        <f>IF(History!A139&lt;&gt;0,COUNTIF(History!139:139,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A139&lt;&gt;0,COUNTIF(History!C139:OFFSET(History!C139,0,COUNTA(History!139:139)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G139" s="6" t="str">
-        <f>IF(MAX(History!139:139)&gt;0,MAX(History!139:139),"")</f>
+        <f ca="1">IF(MAX(History!139:139)&gt;0,MAX(History!C139:OFFSET(History!C139,0,COUNTA(History!139:139)-3)),"")</f>
         <v/>
       </c>
       <c r="H139" s="6" t="str">
-        <f>IF(History!A139&lt;&gt;0,MIN(History!139:139),"")</f>
+        <f ca="1">IF(History!A139&lt;&gt;0,MIN(History!C139:OFFSET(History!C139,0,COUNTA(History!139:139)-3)),"")</f>
         <v/>
       </c>
       <c r="I139" s="6" t="str">
@@ -6232,27 +6234,27 @@
         <v/>
       </c>
       <c r="C140" s="4" t="str">
-        <f>IF(History!A140&lt;&gt;"",SUM(History!140:140),"")</f>
+        <f ca="1">IF(History!A140&lt;&gt;"",SUM(History!C140:OFFSET(History!C140,0,COUNTA(History!140:140)-3)),"")</f>
         <v/>
       </c>
       <c r="D140" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="E140" s="4" t="str">
-        <f>IF(History!A140&lt;&gt;0,COUNTIF(History!140:140,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A140&lt;&gt;0,COUNTIF(History!C140:OFFSET(History!C140,0,COUNTA(History!140:140)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F140" s="4" t="str">
-        <f>IF(History!A140&lt;&gt;0,COUNTIF(History!140:140,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A140&lt;&gt;0,COUNTIF(History!C140:OFFSET(History!C140,0,COUNTA(History!140:140)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G140" s="6" t="str">
-        <f>IF(MAX(History!140:140)&gt;0,MAX(History!140:140),"")</f>
+        <f ca="1">IF(MAX(History!140:140)&gt;0,MAX(History!C140:OFFSET(History!C140,0,COUNTA(History!140:140)-3)),"")</f>
         <v/>
       </c>
       <c r="H140" s="6" t="str">
-        <f>IF(History!A140&lt;&gt;0,MIN(History!140:140),"")</f>
+        <f ca="1">IF(History!A140&lt;&gt;0,MIN(History!C140:OFFSET(History!C140,0,COUNTA(History!140:140)-3)),"")</f>
         <v/>
       </c>
       <c r="I140" s="6" t="str">
@@ -6273,27 +6275,27 @@
         <v/>
       </c>
       <c r="C141" s="4" t="str">
-        <f>IF(History!A141&lt;&gt;"",SUM(History!141:141),"")</f>
+        <f ca="1">IF(History!A141&lt;&gt;"",SUM(History!C141:OFFSET(History!C141,0,COUNTA(History!141:141)-3)),"")</f>
         <v/>
       </c>
       <c r="D141" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="E141" s="4" t="str">
-        <f>IF(History!A141&lt;&gt;0,COUNTIF(History!141:141,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A141&lt;&gt;0,COUNTIF(History!C141:OFFSET(History!C141,0,COUNTA(History!141:141)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F141" s="4" t="str">
-        <f>IF(History!A141&lt;&gt;0,COUNTIF(History!141:141,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A141&lt;&gt;0,COUNTIF(History!C141:OFFSET(History!C141,0,COUNTA(History!141:141)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G141" s="6" t="str">
-        <f>IF(MAX(History!141:141)&gt;0,MAX(History!141:141),"")</f>
+        <f ca="1">IF(MAX(History!141:141)&gt;0,MAX(History!C141:OFFSET(History!C141,0,COUNTA(History!141:141)-3)),"")</f>
         <v/>
       </c>
       <c r="H141" s="6" t="str">
-        <f>IF(History!A141&lt;&gt;0,MIN(History!141:141),"")</f>
+        <f ca="1">IF(History!A141&lt;&gt;0,MIN(History!C141:OFFSET(History!C141,0,COUNTA(History!141:141)-3)),"")</f>
         <v/>
       </c>
       <c r="I141" s="6" t="str">
@@ -6314,27 +6316,27 @@
         <v/>
       </c>
       <c r="C142" s="4" t="str">
-        <f>IF(History!A142&lt;&gt;"",SUM(History!142:142),"")</f>
+        <f ca="1">IF(History!A142&lt;&gt;"",SUM(History!C142:OFFSET(History!C142,0,COUNTA(History!142:142)-3)),"")</f>
         <v/>
       </c>
       <c r="D142" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="E142" s="4" t="str">
-        <f>IF(History!A142&lt;&gt;0,COUNTIF(History!142:142,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A142&lt;&gt;0,COUNTIF(History!C142:OFFSET(History!C142,0,COUNTA(History!142:142)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F142" s="4" t="str">
-        <f>IF(History!A142&lt;&gt;0,COUNTIF(History!142:142,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A142&lt;&gt;0,COUNTIF(History!C142:OFFSET(History!C142,0,COUNTA(History!142:142)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G142" s="6" t="str">
-        <f>IF(MAX(History!142:142)&gt;0,MAX(History!142:142),"")</f>
+        <f ca="1">IF(MAX(History!142:142)&gt;0,MAX(History!C142:OFFSET(History!C142,0,COUNTA(History!142:142)-3)),"")</f>
         <v/>
       </c>
       <c r="H142" s="6" t="str">
-        <f>IF(History!A142&lt;&gt;0,MIN(History!142:142),"")</f>
+        <f ca="1">IF(History!A142&lt;&gt;0,MIN(History!C142:OFFSET(History!C142,0,COUNTA(History!142:142)-3)),"")</f>
         <v/>
       </c>
       <c r="I142" s="6" t="str">
@@ -6355,27 +6357,27 @@
         <v/>
       </c>
       <c r="C143" s="4" t="str">
-        <f>IF(History!A143&lt;&gt;"",SUM(History!143:143),"")</f>
+        <f ca="1">IF(History!A143&lt;&gt;"",SUM(History!C143:OFFSET(History!C143,0,COUNTA(History!143:143)-3)),"")</f>
         <v/>
       </c>
       <c r="D143" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="E143" s="4" t="str">
-        <f>IF(History!A143&lt;&gt;0,COUNTIF(History!143:143,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A143&lt;&gt;0,COUNTIF(History!C143:OFFSET(History!C143,0,COUNTA(History!143:143)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F143" s="4" t="str">
-        <f>IF(History!A143&lt;&gt;0,COUNTIF(History!143:143,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A143&lt;&gt;0,COUNTIF(History!C143:OFFSET(History!C143,0,COUNTA(History!143:143)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G143" s="6" t="str">
-        <f>IF(MAX(History!143:143)&gt;0,MAX(History!143:143),"")</f>
+        <f ca="1">IF(MAX(History!143:143)&gt;0,MAX(History!C143:OFFSET(History!C143,0,COUNTA(History!143:143)-3)),"")</f>
         <v/>
       </c>
       <c r="H143" s="6" t="str">
-        <f>IF(History!A143&lt;&gt;0,MIN(History!143:143),"")</f>
+        <f ca="1">IF(History!A143&lt;&gt;0,MIN(History!C143:OFFSET(History!C143,0,COUNTA(History!143:143)-3)),"")</f>
         <v/>
       </c>
       <c r="I143" s="6" t="str">
@@ -6396,27 +6398,27 @@
         <v/>
       </c>
       <c r="C144" s="4" t="str">
-        <f>IF(History!A144&lt;&gt;"",SUM(History!144:144),"")</f>
+        <f ca="1">IF(History!A144&lt;&gt;"",SUM(History!C144:OFFSET(History!C144,0,COUNTA(History!144:144)-3)),"")</f>
         <v/>
       </c>
       <c r="D144" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="E144" s="4" t="str">
-        <f>IF(History!A144&lt;&gt;0,COUNTIF(History!144:144,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A144&lt;&gt;0,COUNTIF(History!C144:OFFSET(History!C144,0,COUNTA(History!144:144)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F144" s="4" t="str">
-        <f>IF(History!A144&lt;&gt;0,COUNTIF(History!144:144,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A144&lt;&gt;0,COUNTIF(History!C144:OFFSET(History!C144,0,COUNTA(History!144:144)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G144" s="6" t="str">
-        <f>IF(MAX(History!144:144)&gt;0,MAX(History!144:144),"")</f>
+        <f ca="1">IF(MAX(History!144:144)&gt;0,MAX(History!C144:OFFSET(History!C144,0,COUNTA(History!144:144)-3)),"")</f>
         <v/>
       </c>
       <c r="H144" s="6" t="str">
-        <f>IF(History!A144&lt;&gt;0,MIN(History!144:144),"")</f>
+        <f ca="1">IF(History!A144&lt;&gt;0,MIN(History!C144:OFFSET(History!C144,0,COUNTA(History!144:144)-3)),"")</f>
         <v/>
       </c>
       <c r="I144" s="6" t="str">
@@ -6437,27 +6439,27 @@
         <v/>
       </c>
       <c r="C145" s="4" t="str">
-        <f>IF(History!A145&lt;&gt;"",SUM(History!145:145),"")</f>
+        <f ca="1">IF(History!A145&lt;&gt;"",SUM(History!C145:OFFSET(History!C145,0,COUNTA(History!145:145)-3)),"")</f>
         <v/>
       </c>
       <c r="D145" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="E145" s="4" t="str">
-        <f>IF(History!A145&lt;&gt;0,COUNTIF(History!145:145,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A145&lt;&gt;0,COUNTIF(History!C145:OFFSET(History!C145,0,COUNTA(History!145:145)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F145" s="4" t="str">
-        <f>IF(History!A145&lt;&gt;0,COUNTIF(History!145:145,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A145&lt;&gt;0,COUNTIF(History!C145:OFFSET(History!C145,0,COUNTA(History!145:145)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G145" s="6" t="str">
-        <f>IF(MAX(History!145:145)&gt;0,MAX(History!145:145),"")</f>
+        <f ca="1">IF(MAX(History!145:145)&gt;0,MAX(History!C145:OFFSET(History!C145,0,COUNTA(History!145:145)-3)),"")</f>
         <v/>
       </c>
       <c r="H145" s="6" t="str">
-        <f>IF(History!A145&lt;&gt;0,MIN(History!145:145),"")</f>
+        <f ca="1">IF(History!A145&lt;&gt;0,MIN(History!C145:OFFSET(History!C145,0,COUNTA(History!145:145)-3)),"")</f>
         <v/>
       </c>
       <c r="I145" s="6" t="str">
@@ -6478,27 +6480,27 @@
         <v/>
       </c>
       <c r="C146" s="4" t="str">
-        <f>IF(History!A146&lt;&gt;"",SUM(History!146:146),"")</f>
+        <f ca="1">IF(History!A146&lt;&gt;"",SUM(History!C146:OFFSET(History!C146,0,COUNTA(History!146:146)-3)),"")</f>
         <v/>
       </c>
       <c r="D146" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="E146" s="4" t="str">
-        <f>IF(History!A146&lt;&gt;0,COUNTIF(History!146:146,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A146&lt;&gt;0,COUNTIF(History!C146:OFFSET(History!C146,0,COUNTA(History!146:146)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F146" s="4" t="str">
-        <f>IF(History!A146&lt;&gt;0,COUNTIF(History!146:146,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A146&lt;&gt;0,COUNTIF(History!C146:OFFSET(History!C146,0,COUNTA(History!146:146)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G146" s="6" t="str">
-        <f>IF(MAX(History!146:146)&gt;0,MAX(History!146:146),"")</f>
+        <f ca="1">IF(MAX(History!146:146)&gt;0,MAX(History!C146:OFFSET(History!C146,0,COUNTA(History!146:146)-3)),"")</f>
         <v/>
       </c>
       <c r="H146" s="6" t="str">
-        <f>IF(History!A146&lt;&gt;0,MIN(History!146:146),"")</f>
+        <f ca="1">IF(History!A146&lt;&gt;0,MIN(History!C146:OFFSET(History!C146,0,COUNTA(History!146:146)-3)),"")</f>
         <v/>
       </c>
       <c r="I146" s="6" t="str">
@@ -6519,27 +6521,27 @@
         <v/>
       </c>
       <c r="C147" s="4" t="str">
-        <f>IF(History!A147&lt;&gt;"",SUM(History!147:147),"")</f>
+        <f ca="1">IF(History!A147&lt;&gt;"",SUM(History!C147:OFFSET(History!C147,0,COUNTA(History!147:147)-3)),"")</f>
         <v/>
       </c>
       <c r="D147" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="E147" s="4" t="str">
-        <f>IF(History!A147&lt;&gt;0,COUNTIF(History!147:147,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A147&lt;&gt;0,COUNTIF(History!C147:OFFSET(History!C147,0,COUNTA(History!147:147)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F147" s="4" t="str">
-        <f>IF(History!A147&lt;&gt;0,COUNTIF(History!147:147,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A147&lt;&gt;0,COUNTIF(History!C147:OFFSET(History!C147,0,COUNTA(History!147:147)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G147" s="6" t="str">
-        <f>IF(MAX(History!147:147)&gt;0,MAX(History!147:147),"")</f>
+        <f ca="1">IF(MAX(History!147:147)&gt;0,MAX(History!C147:OFFSET(History!C147,0,COUNTA(History!147:147)-3)),"")</f>
         <v/>
       </c>
       <c r="H147" s="6" t="str">
-        <f>IF(History!A147&lt;&gt;0,MIN(History!147:147),"")</f>
+        <f ca="1">IF(History!A147&lt;&gt;0,MIN(History!C147:OFFSET(History!C147,0,COUNTA(History!147:147)-3)),"")</f>
         <v/>
       </c>
       <c r="I147" s="6" t="str">
@@ -6560,27 +6562,27 @@
         <v/>
       </c>
       <c r="C148" s="4" t="str">
-        <f>IF(History!A148&lt;&gt;"",SUM(History!148:148),"")</f>
+        <f ca="1">IF(History!A148&lt;&gt;"",SUM(History!C148:OFFSET(History!C148,0,COUNTA(History!148:148)-3)),"")</f>
         <v/>
       </c>
       <c r="D148" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="E148" s="4" t="str">
-        <f>IF(History!A148&lt;&gt;0,COUNTIF(History!148:148,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A148&lt;&gt;0,COUNTIF(History!C148:OFFSET(History!C148,0,COUNTA(History!148:148)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F148" s="4" t="str">
-        <f>IF(History!A148&lt;&gt;0,COUNTIF(History!148:148,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A148&lt;&gt;0,COUNTIF(History!C148:OFFSET(History!C148,0,COUNTA(History!148:148)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G148" s="6" t="str">
-        <f>IF(MAX(History!148:148)&gt;0,MAX(History!148:148),"")</f>
+        <f ca="1">IF(MAX(History!148:148)&gt;0,MAX(History!C148:OFFSET(History!C148,0,COUNTA(History!148:148)-3)),"")</f>
         <v/>
       </c>
       <c r="H148" s="6" t="str">
-        <f>IF(History!A148&lt;&gt;0,MIN(History!148:148),"")</f>
+        <f ca="1">IF(History!A148&lt;&gt;0,MIN(History!C148:OFFSET(History!C148,0,COUNTA(History!148:148)-3)),"")</f>
         <v/>
       </c>
       <c r="I148" s="6" t="str">
@@ -6601,27 +6603,27 @@
         <v/>
       </c>
       <c r="C149" s="4" t="str">
-        <f>IF(History!A149&lt;&gt;"",SUM(History!149:149),"")</f>
+        <f ca="1">IF(History!A149&lt;&gt;"",SUM(History!C149:OFFSET(History!C149,0,COUNTA(History!149:149)-3)),"")</f>
         <v/>
       </c>
       <c r="D149" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="E149" s="4" t="str">
-        <f>IF(History!A149&lt;&gt;0,COUNTIF(History!149:149,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A149&lt;&gt;0,COUNTIF(History!C149:OFFSET(History!C149,0,COUNTA(History!149:149)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F149" s="4" t="str">
-        <f>IF(History!A149&lt;&gt;0,COUNTIF(History!149:149,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A149&lt;&gt;0,COUNTIF(History!C149:OFFSET(History!C149,0,COUNTA(History!149:149)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G149" s="6" t="str">
-        <f>IF(MAX(History!149:149)&gt;0,MAX(History!149:149),"")</f>
+        <f ca="1">IF(MAX(History!149:149)&gt;0,MAX(History!C149:OFFSET(History!C149,0,COUNTA(History!149:149)-3)),"")</f>
         <v/>
       </c>
       <c r="H149" s="6" t="str">
-        <f>IF(History!A149&lt;&gt;0,MIN(History!149:149),"")</f>
+        <f ca="1">IF(History!A149&lt;&gt;0,MIN(History!C149:OFFSET(History!C149,0,COUNTA(History!149:149)-3)),"")</f>
         <v/>
       </c>
       <c r="I149" s="6" t="str">
@@ -6642,27 +6644,27 @@
         <v/>
       </c>
       <c r="C150" s="4" t="str">
-        <f>IF(History!A150&lt;&gt;"",SUM(History!150:150),"")</f>
+        <f ca="1">IF(History!A150&lt;&gt;"",SUM(History!C150:OFFSET(History!C150,0,COUNTA(History!150:150)-3)),"")</f>
         <v/>
       </c>
       <c r="D150" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="E150" s="4" t="str">
-        <f>IF(History!A150&lt;&gt;0,COUNTIF(History!150:150,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A150&lt;&gt;0,COUNTIF(History!C150:OFFSET(History!C150,0,COUNTA(History!150:150)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F150" s="4" t="str">
-        <f>IF(History!A150&lt;&gt;0,COUNTIF(History!150:150,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A150&lt;&gt;0,COUNTIF(History!C150:OFFSET(History!C150,0,COUNTA(History!150:150)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G150" s="6" t="str">
-        <f>IF(MAX(History!150:150)&gt;0,MAX(History!150:150),"")</f>
+        <f ca="1">IF(MAX(History!150:150)&gt;0,MAX(History!C150:OFFSET(History!C150,0,COUNTA(History!150:150)-3)),"")</f>
         <v/>
       </c>
       <c r="H150" s="6" t="str">
-        <f>IF(History!A150&lt;&gt;0,MIN(History!150:150),"")</f>
+        <f ca="1">IF(History!A150&lt;&gt;0,MIN(History!C150:OFFSET(History!C150,0,COUNTA(History!150:150)-3)),"")</f>
         <v/>
       </c>
       <c r="I150" s="6" t="str">
@@ -6683,27 +6685,27 @@
         <v/>
       </c>
       <c r="C151" s="4" t="str">
-        <f>IF(History!A151&lt;&gt;"",SUM(History!151:151),"")</f>
+        <f ca="1">IF(History!A151&lt;&gt;"",SUM(History!C151:OFFSET(History!C151,0,COUNTA(History!151:151)-3)),"")</f>
         <v/>
       </c>
       <c r="D151" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="E151" s="4" t="str">
-        <f>IF(History!A151&lt;&gt;0,COUNTIF(History!151:151,"&gt;0"),"")</f>
+        <f ca="1">IF(History!A151&lt;&gt;0,COUNTIF(History!C151:OFFSET(History!C151,0,COUNTA(History!151:151)-3),"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="F151" s="4" t="str">
-        <f>IF(History!A151&lt;&gt;0,COUNTIF(History!151:151,"&lt;=0"),"")</f>
+        <f ca="1">IF(History!A151&lt;&gt;0,COUNTIF(History!C151:OFFSET(History!C151,0,COUNTA(History!151:151)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
       <c r="G151" s="6" t="str">
-        <f>IF(MAX(History!151:151)&gt;0,MAX(History!151:151),"")</f>
+        <f ca="1">IF(MAX(History!151:151)&gt;0,MAX(History!C151:OFFSET(History!C151,0,COUNTA(History!151:151)-3)),"")</f>
         <v/>
       </c>
       <c r="H151" s="6" t="str">
-        <f>IF(History!A151&lt;&gt;0,MIN(History!151:151),"")</f>
+        <f ca="1">IF(History!A151&lt;&gt;0,MIN(History!C151:OFFSET(History!C151,0,COUNTA(History!151:151)-3)),"")</f>
         <v/>
       </c>
       <c r="I151" s="6" t="str">
@@ -6727,7 +6729,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6841,7 +6843,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C5" s="4">
         <v>293</v>
@@ -6857,6 +6859,9 @@
       </c>
       <c r="G5" s="4">
         <v>-16</v>
+      </c>
+      <c r="H5">
+        <v>-100</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">

--- a/uno/uno_record.xlsx
+++ b/uno/uno_record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ren\Desktop\色々\Data\Discord\HONDA Bot\uno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0707FF9-0F9B-477D-8094-1FEFEB1D1461}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E96B724-79AF-4D9B-B531-A2244C9A3751}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5175" yWindow="1260" windowWidth="17130" windowHeight="14070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>Player ID</t>
   </si>
@@ -86,9 +86,6 @@
     <t>657835936071286784</t>
   </si>
   <si>
-    <t>-100</t>
-  </si>
-  <si>
     <t>559289569825259521</t>
   </si>
   <si>
@@ -111,10 +108,6 @@
   </si>
   <si>
     <t>607980121902546945</t>
-  </si>
-  <si>
-    <t>-100</t>
-    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -181,7 +174,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -208,6 +201,12 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -576,7 +575,7 @@
         <v>193407417256640512</v>
       </c>
       <c r="C2" s="4">
-        <f ca="1">IF(History!A2&lt;&gt;"",SUM(History!C2:OFFSET(History!C2,0,COUNTA(History!2:2)-3)),"")</f>
+        <f ca="1">IF(History!A2&lt;&gt;"",SUM(History!B2:OFFSET(History!B2,0,COUNTA(History!2:2)-2)),"")</f>
         <v>67</v>
       </c>
       <c r="D2" s="8">
@@ -599,13 +598,13 @@
         <f ca="1">IF(History!A2&lt;&gt;0,MIN(History!C2:OFFSET(History!C2,0,COUNTA(History!2:2)-3)),"")</f>
         <v>-77</v>
       </c>
-      <c r="I2" s="6" t="str">
+      <c r="I2" s="6">
         <f>IF(History!A2&lt;&gt;"",History!B2,"")</f>
         <v>0</v>
       </c>
       <c r="J2" s="4">
         <f ca="1">SUM(OFFSET(History!C2,0,COUNT(History!2:2)-IF(COUNT(History!2:2)&lt;=5,COUNT(History!2:2),5)):OFFSET(History!C2,0,COUNT(History!2:2)-1))</f>
-        <v>141</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
@@ -617,7 +616,7 @@
         <v>573870933236776960</v>
       </c>
       <c r="C3" s="4">
-        <f ca="1">IF(History!A3&lt;&gt;"",SUM(History!C3:OFFSET(History!C3,0,COUNTA(History!3:3)-3)),"")</f>
+        <f ca="1">IF(History!A3&lt;&gt;"",SUM(History!B3:OFFSET(History!B3,0,COUNTA(History!3:3)-2)),"")</f>
         <v>84</v>
       </c>
       <c r="D3" s="8">
@@ -658,7 +657,7 @@
         <v>700027069278716074</v>
       </c>
       <c r="C4" s="4">
-        <f ca="1">IF(History!A4&lt;&gt;"",SUM(History!C4:OFFSET(History!C4,0,COUNTA(History!4:4)-3)),"")</f>
+        <f ca="1">IF(History!A4&lt;&gt;"",SUM(History!B4:OFFSET(History!B4,0,COUNTA(History!4:4)-2)),"")</f>
         <v>-110</v>
       </c>
       <c r="D4" s="8">
@@ -699,7 +698,7 @@
         <v>746782075012644874</v>
       </c>
       <c r="C5" s="4">
-        <f ca="1">IF(History!A5&lt;&gt;"",SUM(History!C5:OFFSET(History!C5,0,COUNTA(History!5:5)-3)),"")</f>
+        <f ca="1">IF(History!A5&lt;&gt;"",SUM(History!B5:OFFSET(History!B5,0,COUNTA(History!5:5)-2)),"")</f>
         <v>188</v>
       </c>
       <c r="D5" s="8">
@@ -722,13 +721,13 @@
         <f ca="1">IF(History!A5&lt;&gt;0,MIN(History!C5:OFFSET(History!C5,0,COUNTA(History!5:5)-3)),"")</f>
         <v>-129</v>
       </c>
-      <c r="I5" s="6" t="str">
+      <c r="I5" s="6">
         <f>IF(History!A5&lt;&gt;"",History!B5,"")</f>
         <v>-100</v>
       </c>
       <c r="J5" s="4">
         <f ca="1">SUM(OFFSET(History!C5,0,COUNT(History!5:5)-IF(COUNT(History!5:5)&lt;=5,COUNT(History!5:5),5)):OFFSET(History!C5,0,COUNT(History!5:5)-1))</f>
-        <v>-105</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
@@ -740,7 +739,7 @@
         <v>587660412212740106</v>
       </c>
       <c r="C6" s="4">
-        <f ca="1">IF(History!A6&lt;&gt;"",SUM(History!C6:OFFSET(History!C6,0,COUNTA(History!6:6)-3)),"")</f>
+        <f ca="1">IF(History!A6&lt;&gt;"",SUM(History!B6:OFFSET(History!B6,0,COUNTA(History!6:6)-2)),"")</f>
         <v>-37</v>
       </c>
       <c r="D6" s="8">
@@ -781,7 +780,7 @@
         <v>598600835664183297</v>
       </c>
       <c r="C7" s="4">
-        <f ca="1">IF(History!A7&lt;&gt;"",SUM(History!C7:OFFSET(History!C7,0,COUNTA(History!7:7)-3)),"")</f>
+        <f ca="1">IF(History!A7&lt;&gt;"",SUM(History!B7:OFFSET(History!B7,0,COUNTA(History!7:7)-2)),"")</f>
         <v>-156</v>
       </c>
       <c r="D7" s="8">
@@ -822,7 +821,7 @@
         <v>758948042946248755</v>
       </c>
       <c r="C8" s="4">
-        <f ca="1">IF(History!A8&lt;&gt;"",SUM(History!C8:OFFSET(History!C8,0,COUNTA(History!8:8)-3)),"")</f>
+        <f ca="1">IF(History!A8&lt;&gt;"",SUM(History!B8:OFFSET(History!B8,0,COUNTA(History!8:8)-2)),"")</f>
         <v>-108</v>
       </c>
       <c r="D8" s="8">
@@ -863,7 +862,7 @@
         <v>700031411049988197</v>
       </c>
       <c r="C9" s="4">
-        <f ca="1">IF(History!A9&lt;&gt;"",SUM(History!C9:OFFSET(History!C9,0,COUNTA(History!9:9)-3)),"")</f>
+        <f ca="1">IF(History!A9&lt;&gt;"",SUM(History!B9:OFFSET(History!B9,0,COUNTA(History!9:9)-2)),"")</f>
         <v>-210</v>
       </c>
       <c r="D9" s="8">
@@ -904,7 +903,7 @@
         <v>612167459201351686</v>
       </c>
       <c r="C10" s="4">
-        <f ca="1">IF(History!A10&lt;&gt;"",SUM(History!C10:OFFSET(History!C10,0,COUNTA(History!10:10)-3)),"")</f>
+        <f ca="1">IF(History!A10&lt;&gt;"",SUM(History!B10:OFFSET(History!B10,0,COUNTA(History!10:10)-2)),"")</f>
         <v>-25</v>
       </c>
       <c r="D10" s="8">
@@ -945,7 +944,7 @@
         <v>657835936071286784</v>
       </c>
       <c r="C11" s="4">
-        <f ca="1">IF(History!A11&lt;&gt;"",SUM(History!C11:OFFSET(History!C11,0,COUNTA(History!11:11)-3)),"")</f>
+        <f ca="1">IF(History!A11&lt;&gt;"",SUM(History!B11:OFFSET(History!B11,0,COUNTA(History!11:11)-2)),"")</f>
         <v>-140</v>
       </c>
       <c r="D11" s="8">
@@ -966,15 +965,15 @@
       </c>
       <c r="H11" s="6">
         <f ca="1">IF(History!A11&lt;&gt;0,MIN(History!C11:OFFSET(History!C11,0,COUNTA(History!11:11)-3)),"")</f>
-        <v>-140</v>
-      </c>
-      <c r="I11" s="6" t="str">
+        <v>-40</v>
+      </c>
+      <c r="I11" s="6">
         <f>IF(History!A11&lt;&gt;"",History!B11,"")</f>
         <v>-100</v>
       </c>
       <c r="J11" s="4">
         <f ca="1">IF(History!A11&lt;&gt;"",SUM(OFFSET(History!C11,0,COUNT(History!11:11)-IF(COUNT(History!11:11)&lt;=5,COUNT(History!11:11),5)):OFFSET(History!C11,0,COUNT(History!11:11)-1)),"")</f>
-        <v>-140</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
@@ -986,7 +985,7 @@
         <v>559289569825259521</v>
       </c>
       <c r="C12" s="4">
-        <f ca="1">IF(History!A12&lt;&gt;"",SUM(History!C12:OFFSET(History!C12,0,COUNTA(History!12:12)-3)),"")</f>
+        <f ca="1">IF(History!A12&lt;&gt;"",SUM(History!B12:OFFSET(History!B12,0,COUNTA(History!12:12)-2)),"")</f>
         <v>126</v>
       </c>
       <c r="D12" s="8">
@@ -1027,7 +1026,7 @@
         <v>734340367838740561</v>
       </c>
       <c r="C13" s="4">
-        <f ca="1">IF(History!A13&lt;&gt;"",SUM(History!C13:OFFSET(History!C13,0,COUNTA(History!13:13)-3)),"")</f>
+        <f ca="1">IF(History!A13&lt;&gt;"",SUM(History!B13:OFFSET(History!B13,0,COUNTA(History!13:13)-2)),"")</f>
         <v>-36</v>
       </c>
       <c r="D13" s="8">
@@ -1068,7 +1067,7 @@
         <v>699612508763193425</v>
       </c>
       <c r="C14" s="4">
-        <f ca="1">IF(History!A14&lt;&gt;"",SUM(History!C14:OFFSET(History!C14,0,COUNTA(History!14:14)-3)),"")</f>
+        <f ca="1">IF(History!A14&lt;&gt;"",SUM(History!B14:OFFSET(History!B14,0,COUNTA(History!14:14)-2)),"")</f>
         <v>19</v>
       </c>
       <c r="D14" s="8">
@@ -1089,15 +1088,15 @@
       </c>
       <c r="H14" s="6">
         <f ca="1">IF(History!A14&lt;&gt;0,MIN(History!C14:OFFSET(History!C14,0,COUNTA(History!14:14)-3)),"")</f>
-        <v>-187</v>
-      </c>
-      <c r="I14" s="6" t="str">
+        <v>-87</v>
+      </c>
+      <c r="I14" s="6">
         <f>IF(History!A14&lt;&gt;"",History!B14,"")</f>
         <v>-100</v>
       </c>
       <c r="J14" s="4">
         <f ca="1">IF(History!A14&lt;&gt;"",SUM(OFFSET(History!C14,0,COUNT(History!14:14)-IF(COUNT(History!14:14)&lt;=5,COUNT(History!14:14),5)):OFFSET(History!C14,0,COUNT(History!14:14)-1)),"")</f>
-        <v>19</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
@@ -1109,7 +1108,7 @@
         <v>703831366332317756</v>
       </c>
       <c r="C15" s="4">
-        <f ca="1">IF(History!A15&lt;&gt;"",SUM(History!C15:OFFSET(History!C15,0,COUNTA(History!15:15)-3)),"")</f>
+        <f ca="1">IF(History!A15&lt;&gt;"",SUM(History!B15:OFFSET(History!B15,0,COUNTA(History!15:15)-2)),"")</f>
         <v>110</v>
       </c>
       <c r="D15" s="8">
@@ -1150,7 +1149,7 @@
         <v>726345969204985869</v>
       </c>
       <c r="C16" s="4">
-        <f ca="1">IF(History!A16&lt;&gt;"",SUM(History!C16:OFFSET(History!C16,0,COUNTA(History!16:16)-3)),"")</f>
+        <f ca="1">IF(History!A16&lt;&gt;"",SUM(History!B16:OFFSET(History!B16,0,COUNTA(History!16:16)-2)),"")</f>
         <v>-53</v>
       </c>
       <c r="D16" s="8">
@@ -1191,7 +1190,7 @@
         <v>582616639820922939</v>
       </c>
       <c r="C17" s="4">
-        <f ca="1">IF(History!A17&lt;&gt;"",SUM(History!C17:OFFSET(History!C17,0,COUNTA(History!17:17)-3)),"")</f>
+        <f ca="1">IF(History!A17&lt;&gt;"",SUM(History!B17:OFFSET(History!B17,0,COUNTA(History!17:17)-2)),"")</f>
         <v>-32</v>
       </c>
       <c r="D17" s="8">
@@ -1232,7 +1231,7 @@
         <v>713420616254095460</v>
       </c>
       <c r="C18" s="4">
-        <f ca="1">IF(History!A18&lt;&gt;"",SUM(History!C18:OFFSET(History!C18,0,COUNTA(History!18:18)-3)),"")</f>
+        <f ca="1">IF(History!A18&lt;&gt;"",SUM(History!B18:OFFSET(History!B18,0,COUNTA(History!18:18)-2)),"")</f>
         <v>-37</v>
       </c>
       <c r="D18" s="8">
@@ -1273,7 +1272,7 @@
         <v>607980121902546945</v>
       </c>
       <c r="C19" s="4">
-        <f ca="1">IF(History!A19&lt;&gt;"",SUM(History!C19:OFFSET(History!C19,0,COUNTA(History!19:19)-3)),"")</f>
+        <f ca="1">IF(History!A19&lt;&gt;"",SUM(History!B19:OFFSET(History!B19,0,COUNTA(History!19:19)-2)),"")</f>
         <v>-77</v>
       </c>
       <c r="D19" s="8">
@@ -1314,7 +1313,7 @@
         <v/>
       </c>
       <c r="C20" s="4" t="str">
-        <f ca="1">IF(History!A20&lt;&gt;"",SUM(History!C20:OFFSET(History!C20,0,COUNTA(History!20:20)-3)),"")</f>
+        <f ca="1">IF(History!A20&lt;&gt;"",SUM(History!B20:OFFSET(History!B20,0,COUNTA(History!20:20)-2)),"")</f>
         <v/>
       </c>
       <c r="D20" s="8" t="str">
@@ -1355,7 +1354,7 @@
         <v/>
       </c>
       <c r="C21" s="4" t="str">
-        <f ca="1">IF(History!A21&lt;&gt;"",SUM(History!C21:OFFSET(History!C21,0,COUNTA(History!21:21)-3)),"")</f>
+        <f ca="1">IF(History!A21&lt;&gt;"",SUM(History!B21:OFFSET(History!B21,0,COUNTA(History!21:21)-2)),"")</f>
         <v/>
       </c>
       <c r="D21" s="8" t="str">
@@ -1396,7 +1395,7 @@
         <v/>
       </c>
       <c r="C22" s="4" t="str">
-        <f ca="1">IF(History!A22&lt;&gt;"",SUM(History!C22:OFFSET(History!C22,0,COUNTA(History!22:22)-3)),"")</f>
+        <f ca="1">IF(History!A22&lt;&gt;"",SUM(History!B22:OFFSET(History!B22,0,COUNTA(History!22:22)-2)),"")</f>
         <v/>
       </c>
       <c r="D22" s="8" t="str">
@@ -1437,7 +1436,7 @@
         <v/>
       </c>
       <c r="C23" s="4" t="str">
-        <f ca="1">IF(History!A23&lt;&gt;"",SUM(History!C23:OFFSET(History!C23,0,COUNTA(History!23:23)-3)),"")</f>
+        <f ca="1">IF(History!A23&lt;&gt;"",SUM(History!B23:OFFSET(History!B23,0,COUNTA(History!23:23)-2)),"")</f>
         <v/>
       </c>
       <c r="D23" s="8" t="str">
@@ -1478,7 +1477,7 @@
         <v/>
       </c>
       <c r="C24" s="4" t="str">
-        <f ca="1">IF(History!A24&lt;&gt;"",SUM(History!C24:OFFSET(History!C24,0,COUNTA(History!24:24)-3)),"")</f>
+        <f ca="1">IF(History!A24&lt;&gt;"",SUM(History!B24:OFFSET(History!B24,0,COUNTA(History!24:24)-2)),"")</f>
         <v/>
       </c>
       <c r="D24" s="8" t="str">
@@ -1519,7 +1518,7 @@
         <v/>
       </c>
       <c r="C25" s="4" t="str">
-        <f ca="1">IF(History!A25&lt;&gt;"",SUM(History!C25:OFFSET(History!C25,0,COUNTA(History!25:25)-3)),"")</f>
+        <f ca="1">IF(History!A25&lt;&gt;"",SUM(History!B25:OFFSET(History!B25,0,COUNTA(History!25:25)-2)),"")</f>
         <v/>
       </c>
       <c r="D25" s="8" t="str">
@@ -1560,7 +1559,7 @@
         <v/>
       </c>
       <c r="C26" s="4" t="str">
-        <f ca="1">IF(History!A26&lt;&gt;"",SUM(History!C26:OFFSET(History!C26,0,COUNTA(History!26:26)-3)),"")</f>
+        <f ca="1">IF(History!A26&lt;&gt;"",SUM(History!B26:OFFSET(History!B26,0,COUNTA(History!26:26)-2)),"")</f>
         <v/>
       </c>
       <c r="D26" s="8" t="str">
@@ -1601,7 +1600,7 @@
         <v/>
       </c>
       <c r="C27" s="4" t="str">
-        <f ca="1">IF(History!A27&lt;&gt;"",SUM(History!C27:OFFSET(History!C27,0,COUNTA(History!27:27)-3)),"")</f>
+        <f ca="1">IF(History!A27&lt;&gt;"",SUM(History!B27:OFFSET(History!B27,0,COUNTA(History!27:27)-2)),"")</f>
         <v/>
       </c>
       <c r="D27" s="8" t="str">
@@ -1642,7 +1641,7 @@
         <v/>
       </c>
       <c r="C28" s="4" t="str">
-        <f ca="1">IF(History!A28&lt;&gt;"",SUM(History!C28:OFFSET(History!C28,0,COUNTA(History!28:28)-3)),"")</f>
+        <f ca="1">IF(History!A28&lt;&gt;"",SUM(History!B28:OFFSET(History!B28,0,COUNTA(History!28:28)-2)),"")</f>
         <v/>
       </c>
       <c r="D28" s="8" t="str">
@@ -1683,7 +1682,7 @@
         <v/>
       </c>
       <c r="C29" s="4" t="str">
-        <f ca="1">IF(History!A29&lt;&gt;"",SUM(History!C29:OFFSET(History!C29,0,COUNTA(History!29:29)-3)),"")</f>
+        <f ca="1">IF(History!A29&lt;&gt;"",SUM(History!B29:OFFSET(History!B29,0,COUNTA(History!29:29)-2)),"")</f>
         <v/>
       </c>
       <c r="D29" s="8" t="str">
@@ -1724,7 +1723,7 @@
         <v/>
       </c>
       <c r="C30" s="4" t="str">
-        <f ca="1">IF(History!A30&lt;&gt;"",SUM(History!C30:OFFSET(History!C30,0,COUNTA(History!30:30)-3)),"")</f>
+        <f ca="1">IF(History!A30&lt;&gt;"",SUM(History!B30:OFFSET(History!B30,0,COUNTA(History!30:30)-2)),"")</f>
         <v/>
       </c>
       <c r="D30" s="8" t="str">
@@ -1765,7 +1764,7 @@
         <v/>
       </c>
       <c r="C31" s="4" t="str">
-        <f ca="1">IF(History!A31&lt;&gt;"",SUM(History!C31:OFFSET(History!C31,0,COUNTA(History!31:31)-3)),"")</f>
+        <f ca="1">IF(History!A31&lt;&gt;"",SUM(History!B31:OFFSET(History!B31,0,COUNTA(History!31:31)-2)),"")</f>
         <v/>
       </c>
       <c r="D31" s="8" t="str">
@@ -1806,7 +1805,7 @@
         <v/>
       </c>
       <c r="C32" s="4" t="str">
-        <f ca="1">IF(History!A32&lt;&gt;"",SUM(History!C32:OFFSET(History!C32,0,COUNTA(History!32:32)-3)),"")</f>
+        <f ca="1">IF(History!A32&lt;&gt;"",SUM(History!B32:OFFSET(History!B32,0,COUNTA(History!32:32)-2)),"")</f>
         <v/>
       </c>
       <c r="D32" s="8" t="str">
@@ -1847,7 +1846,7 @@
         <v/>
       </c>
       <c r="C33" s="4" t="str">
-        <f ca="1">IF(History!A33&lt;&gt;"",SUM(History!C33:OFFSET(History!C33,0,COUNTA(History!33:33)-3)),"")</f>
+        <f ca="1">IF(History!A33&lt;&gt;"",SUM(History!B33:OFFSET(History!B33,0,COUNTA(History!33:33)-2)),"")</f>
         <v/>
       </c>
       <c r="D33" s="8" t="str">
@@ -1888,7 +1887,7 @@
         <v/>
       </c>
       <c r="C34" s="4" t="str">
-        <f ca="1">IF(History!A34&lt;&gt;"",SUM(History!C34:OFFSET(History!C34,0,COUNTA(History!34:34)-3)),"")</f>
+        <f ca="1">IF(History!A34&lt;&gt;"",SUM(History!B34:OFFSET(History!B34,0,COUNTA(History!34:34)-2)),"")</f>
         <v/>
       </c>
       <c r="D34" s="8" t="str">
@@ -1929,7 +1928,7 @@
         <v/>
       </c>
       <c r="C35" s="4" t="str">
-        <f ca="1">IF(History!A35&lt;&gt;"",SUM(History!C35:OFFSET(History!C35,0,COUNTA(History!35:35)-3)),"")</f>
+        <f ca="1">IF(History!A35&lt;&gt;"",SUM(History!B35:OFFSET(History!B35,0,COUNTA(History!35:35)-2)),"")</f>
         <v/>
       </c>
       <c r="D35" s="8" t="str">
@@ -1970,7 +1969,7 @@
         <v/>
       </c>
       <c r="C36" s="4" t="str">
-        <f ca="1">IF(History!A36&lt;&gt;"",SUM(History!C36:OFFSET(History!C36,0,COUNTA(History!36:36)-3)),"")</f>
+        <f ca="1">IF(History!A36&lt;&gt;"",SUM(History!B36:OFFSET(History!B36,0,COUNTA(History!36:36)-2)),"")</f>
         <v/>
       </c>
       <c r="D36" s="8" t="str">
@@ -2011,7 +2010,7 @@
         <v/>
       </c>
       <c r="C37" s="4" t="str">
-        <f ca="1">IF(History!A37&lt;&gt;"",SUM(History!C37:OFFSET(History!C37,0,COUNTA(History!37:37)-3)),"")</f>
+        <f ca="1">IF(History!A37&lt;&gt;"",SUM(History!B37:OFFSET(History!B37,0,COUNTA(History!37:37)-2)),"")</f>
         <v/>
       </c>
       <c r="D37" s="8" t="str">
@@ -2052,7 +2051,7 @@
         <v/>
       </c>
       <c r="C38" s="4" t="str">
-        <f ca="1">IF(History!A38&lt;&gt;"",SUM(History!C38:OFFSET(History!C38,0,COUNTA(History!38:38)-3)),"")</f>
+        <f ca="1">IF(History!A38&lt;&gt;"",SUM(History!B38:OFFSET(History!B38,0,COUNTA(History!38:38)-2)),"")</f>
         <v/>
       </c>
       <c r="D38" s="8" t="str">
@@ -2093,7 +2092,7 @@
         <v/>
       </c>
       <c r="C39" s="4" t="str">
-        <f ca="1">IF(History!A39&lt;&gt;"",SUM(History!C39:OFFSET(History!C39,0,COUNTA(History!39:39)-3)),"")</f>
+        <f ca="1">IF(History!A39&lt;&gt;"",SUM(History!B39:OFFSET(History!B39,0,COUNTA(History!39:39)-2)),"")</f>
         <v/>
       </c>
       <c r="D39" s="8" t="str">
@@ -2134,7 +2133,7 @@
         <v/>
       </c>
       <c r="C40" s="4" t="str">
-        <f ca="1">IF(History!A40&lt;&gt;"",SUM(History!C40:OFFSET(History!C40,0,COUNTA(History!40:40)-3)),"")</f>
+        <f ca="1">IF(History!A40&lt;&gt;"",SUM(History!B40:OFFSET(History!B40,0,COUNTA(History!40:40)-2)),"")</f>
         <v/>
       </c>
       <c r="D40" s="8" t="str">
@@ -2175,7 +2174,7 @@
         <v/>
       </c>
       <c r="C41" s="4" t="str">
-        <f ca="1">IF(History!A41&lt;&gt;"",SUM(History!C41:OFFSET(History!C41,0,COUNTA(History!41:41)-3)),"")</f>
+        <f ca="1">IF(History!A41&lt;&gt;"",SUM(History!B41:OFFSET(History!B41,0,COUNTA(History!41:41)-2)),"")</f>
         <v/>
       </c>
       <c r="D41" s="8" t="str">
@@ -2216,7 +2215,7 @@
         <v/>
       </c>
       <c r="C42" s="4" t="str">
-        <f ca="1">IF(History!A42&lt;&gt;"",SUM(History!C42:OFFSET(History!C42,0,COUNTA(History!42:42)-3)),"")</f>
+        <f ca="1">IF(History!A42&lt;&gt;"",SUM(History!B42:OFFSET(History!B42,0,COUNTA(History!42:42)-2)),"")</f>
         <v/>
       </c>
       <c r="D42" s="8" t="str">
@@ -2257,7 +2256,7 @@
         <v/>
       </c>
       <c r="C43" s="4" t="str">
-        <f ca="1">IF(History!A43&lt;&gt;"",SUM(History!C43:OFFSET(History!C43,0,COUNTA(History!43:43)-3)),"")</f>
+        <f ca="1">IF(History!A43&lt;&gt;"",SUM(History!B43:OFFSET(History!B43,0,COUNTA(History!43:43)-2)),"")</f>
         <v/>
       </c>
       <c r="D43" s="8" t="str">
@@ -2298,7 +2297,7 @@
         <v/>
       </c>
       <c r="C44" s="4" t="str">
-        <f ca="1">IF(History!A44&lt;&gt;"",SUM(History!C44:OFFSET(History!C44,0,COUNTA(History!44:44)-3)),"")</f>
+        <f ca="1">IF(History!A44&lt;&gt;"",SUM(History!B44:OFFSET(History!B44,0,COUNTA(History!44:44)-2)),"")</f>
         <v/>
       </c>
       <c r="D44" s="8" t="str">
@@ -2339,7 +2338,7 @@
         <v/>
       </c>
       <c r="C45" s="4" t="str">
-        <f ca="1">IF(History!A45&lt;&gt;"",SUM(History!C45:OFFSET(History!C45,0,COUNTA(History!45:45)-3)),"")</f>
+        <f ca="1">IF(History!A45&lt;&gt;"",SUM(History!B45:OFFSET(History!B45,0,COUNTA(History!45:45)-2)),"")</f>
         <v/>
       </c>
       <c r="D45" s="8" t="str">
@@ -2380,7 +2379,7 @@
         <v/>
       </c>
       <c r="C46" s="4" t="str">
-        <f ca="1">IF(History!A46&lt;&gt;"",SUM(History!C46:OFFSET(History!C46,0,COUNTA(History!46:46)-3)),"")</f>
+        <f ca="1">IF(History!A46&lt;&gt;"",SUM(History!B46:OFFSET(History!B46,0,COUNTA(History!46:46)-2)),"")</f>
         <v/>
       </c>
       <c r="D46" s="8" t="str">
@@ -2421,7 +2420,7 @@
         <v/>
       </c>
       <c r="C47" s="4" t="str">
-        <f ca="1">IF(History!A47&lt;&gt;"",SUM(History!C47:OFFSET(History!C47,0,COUNTA(History!47:47)-3)),"")</f>
+        <f ca="1">IF(History!A47&lt;&gt;"",SUM(History!B47:OFFSET(History!B47,0,COUNTA(History!47:47)-2)),"")</f>
         <v/>
       </c>
       <c r="D47" s="8" t="str">
@@ -2462,7 +2461,7 @@
         <v/>
       </c>
       <c r="C48" s="4" t="str">
-        <f ca="1">IF(History!A48&lt;&gt;"",SUM(History!C48:OFFSET(History!C48,0,COUNTA(History!48:48)-3)),"")</f>
+        <f ca="1">IF(History!A48&lt;&gt;"",SUM(History!B48:OFFSET(History!B48,0,COUNTA(History!48:48)-2)),"")</f>
         <v/>
       </c>
       <c r="D48" s="8" t="str">
@@ -2503,7 +2502,7 @@
         <v/>
       </c>
       <c r="C49" s="4" t="str">
-        <f ca="1">IF(History!A49&lt;&gt;"",SUM(History!C49:OFFSET(History!C49,0,COUNTA(History!49:49)-3)),"")</f>
+        <f ca="1">IF(History!A49&lt;&gt;"",SUM(History!B49:OFFSET(History!B49,0,COUNTA(History!49:49)-2)),"")</f>
         <v/>
       </c>
       <c r="D49" s="8" t="str">
@@ -2544,7 +2543,7 @@
         <v/>
       </c>
       <c r="C50" s="4" t="str">
-        <f ca="1">IF(History!A50&lt;&gt;"",SUM(History!C50:OFFSET(History!C50,0,COUNTA(History!50:50)-3)),"")</f>
+        <f ca="1">IF(History!A50&lt;&gt;"",SUM(History!B50:OFFSET(History!B50,0,COUNTA(History!50:50)-2)),"")</f>
         <v/>
       </c>
       <c r="D50" s="8" t="str">
@@ -2585,7 +2584,7 @@
         <v/>
       </c>
       <c r="C51" s="4" t="str">
-        <f ca="1">IF(History!A51&lt;&gt;"",SUM(History!C51:OFFSET(History!C51,0,COUNTA(History!51:51)-3)),"")</f>
+        <f ca="1">IF(History!A51&lt;&gt;"",SUM(History!B51:OFFSET(History!B51,0,COUNTA(History!51:51)-2)),"")</f>
         <v/>
       </c>
       <c r="D51" s="8" t="str">
@@ -2626,7 +2625,7 @@
         <v/>
       </c>
       <c r="C52" s="4" t="str">
-        <f ca="1">IF(History!A52&lt;&gt;"",SUM(History!C52:OFFSET(History!C52,0,COUNTA(History!52:52)-3)),"")</f>
+        <f ca="1">IF(History!A52&lt;&gt;"",SUM(History!B52:OFFSET(History!B52,0,COUNTA(History!52:52)-2)),"")</f>
         <v/>
       </c>
       <c r="D52" s="8" t="str">
@@ -2667,7 +2666,7 @@
         <v/>
       </c>
       <c r="C53" s="4" t="str">
-        <f ca="1">IF(History!A53&lt;&gt;"",SUM(History!C53:OFFSET(History!C53,0,COUNTA(History!53:53)-3)),"")</f>
+        <f ca="1">IF(History!A53&lt;&gt;"",SUM(History!B53:OFFSET(History!B53,0,COUNTA(History!53:53)-2)),"")</f>
         <v/>
       </c>
       <c r="D53" s="8" t="str">
@@ -2708,7 +2707,7 @@
         <v/>
       </c>
       <c r="C54" s="4" t="str">
-        <f ca="1">IF(History!A54&lt;&gt;"",SUM(History!C54:OFFSET(History!C54,0,COUNTA(History!54:54)-3)),"")</f>
+        <f ca="1">IF(History!A54&lt;&gt;"",SUM(History!B54:OFFSET(History!B54,0,COUNTA(History!54:54)-2)),"")</f>
         <v/>
       </c>
       <c r="D54" s="8" t="str">
@@ -2749,7 +2748,7 @@
         <v/>
       </c>
       <c r="C55" s="4" t="str">
-        <f ca="1">IF(History!A55&lt;&gt;"",SUM(History!C55:OFFSET(History!C55,0,COUNTA(History!55:55)-3)),"")</f>
+        <f ca="1">IF(History!A55&lt;&gt;"",SUM(History!B55:OFFSET(History!B55,0,COUNTA(History!55:55)-2)),"")</f>
         <v/>
       </c>
       <c r="D55" s="8" t="str">
@@ -2790,7 +2789,7 @@
         <v/>
       </c>
       <c r="C56" s="4" t="str">
-        <f ca="1">IF(History!A56&lt;&gt;"",SUM(History!C56:OFFSET(History!C56,0,COUNTA(History!56:56)-3)),"")</f>
+        <f ca="1">IF(History!A56&lt;&gt;"",SUM(History!B56:OFFSET(History!B56,0,COUNTA(History!56:56)-2)),"")</f>
         <v/>
       </c>
       <c r="D56" s="8" t="str">
@@ -2831,7 +2830,7 @@
         <v/>
       </c>
       <c r="C57" s="4" t="str">
-        <f ca="1">IF(History!A57&lt;&gt;"",SUM(History!C57:OFFSET(History!C57,0,COUNTA(History!57:57)-3)),"")</f>
+        <f ca="1">IF(History!A57&lt;&gt;"",SUM(History!B57:OFFSET(History!B57,0,COUNTA(History!57:57)-2)),"")</f>
         <v/>
       </c>
       <c r="D57" s="8" t="str">
@@ -2872,7 +2871,7 @@
         <v/>
       </c>
       <c r="C58" s="4" t="str">
-        <f ca="1">IF(History!A58&lt;&gt;"",SUM(History!C58:OFFSET(History!C58,0,COUNTA(History!58:58)-3)),"")</f>
+        <f ca="1">IF(History!A58&lt;&gt;"",SUM(History!B58:OFFSET(History!B58,0,COUNTA(History!58:58)-2)),"")</f>
         <v/>
       </c>
       <c r="D58" s="8" t="str">
@@ -2913,7 +2912,7 @@
         <v/>
       </c>
       <c r="C59" s="4" t="str">
-        <f ca="1">IF(History!A59&lt;&gt;"",SUM(History!C59:OFFSET(History!C59,0,COUNTA(History!59:59)-3)),"")</f>
+        <f ca="1">IF(History!A59&lt;&gt;"",SUM(History!B59:OFFSET(History!B59,0,COUNTA(History!59:59)-2)),"")</f>
         <v/>
       </c>
       <c r="D59" s="8" t="str">
@@ -2954,7 +2953,7 @@
         <v/>
       </c>
       <c r="C60" s="4" t="str">
-        <f ca="1">IF(History!A60&lt;&gt;"",SUM(History!C60:OFFSET(History!C60,0,COUNTA(History!60:60)-3)),"")</f>
+        <f ca="1">IF(History!A60&lt;&gt;"",SUM(History!B60:OFFSET(History!B60,0,COUNTA(History!60:60)-2)),"")</f>
         <v/>
       </c>
       <c r="D60" s="8" t="str">
@@ -2995,7 +2994,7 @@
         <v/>
       </c>
       <c r="C61" s="4" t="str">
-        <f ca="1">IF(History!A61&lt;&gt;"",SUM(History!C61:OFFSET(History!C61,0,COUNTA(History!61:61)-3)),"")</f>
+        <f ca="1">IF(History!A61&lt;&gt;"",SUM(History!B61:OFFSET(History!B61,0,COUNTA(History!61:61)-2)),"")</f>
         <v/>
       </c>
       <c r="D61" s="8" t="str">
@@ -3036,7 +3035,7 @@
         <v/>
       </c>
       <c r="C62" s="4" t="str">
-        <f ca="1">IF(History!A62&lt;&gt;"",SUM(History!C62:OFFSET(History!C62,0,COUNTA(History!62:62)-3)),"")</f>
+        <f ca="1">IF(History!A62&lt;&gt;"",SUM(History!B62:OFFSET(History!B62,0,COUNTA(History!62:62)-2)),"")</f>
         <v/>
       </c>
       <c r="D62" s="8" t="str">
@@ -3077,7 +3076,7 @@
         <v/>
       </c>
       <c r="C63" s="4" t="str">
-        <f ca="1">IF(History!A63&lt;&gt;"",SUM(History!C63:OFFSET(History!C63,0,COUNTA(History!63:63)-3)),"")</f>
+        <f ca="1">IF(History!A63&lt;&gt;"",SUM(History!B63:OFFSET(History!B63,0,COUNTA(History!63:63)-2)),"")</f>
         <v/>
       </c>
       <c r="D63" s="8" t="str">
@@ -3118,7 +3117,7 @@
         <v/>
       </c>
       <c r="C64" s="4" t="str">
-        <f ca="1">IF(History!A64&lt;&gt;"",SUM(History!C64:OFFSET(History!C64,0,COUNTA(History!64:64)-3)),"")</f>
+        <f ca="1">IF(History!A64&lt;&gt;"",SUM(History!B64:OFFSET(History!B64,0,COUNTA(History!64:64)-2)),"")</f>
         <v/>
       </c>
       <c r="D64" s="8" t="str">
@@ -3159,7 +3158,7 @@
         <v/>
       </c>
       <c r="C65" s="4" t="str">
-        <f ca="1">IF(History!A65&lt;&gt;"",SUM(History!C65:OFFSET(History!C65,0,COUNTA(History!65:65)-3)),"")</f>
+        <f ca="1">IF(History!A65&lt;&gt;"",SUM(History!B65:OFFSET(History!B65,0,COUNTA(History!65:65)-2)),"")</f>
         <v/>
       </c>
       <c r="D65" s="8" t="str">
@@ -3200,7 +3199,7 @@
         <v/>
       </c>
       <c r="C66" s="4" t="str">
-        <f ca="1">IF(History!A66&lt;&gt;"",SUM(History!C66:OFFSET(History!C66,0,COUNTA(History!66:66)-3)),"")</f>
+        <f ca="1">IF(History!A66&lt;&gt;"",SUM(History!B66:OFFSET(History!B66,0,COUNTA(History!66:66)-2)),"")</f>
         <v/>
       </c>
       <c r="D66" s="8" t="str">
@@ -3241,7 +3240,7 @@
         <v/>
       </c>
       <c r="C67" s="4" t="str">
-        <f ca="1">IF(History!A67&lt;&gt;"",SUM(History!C67:OFFSET(History!C67,0,COUNTA(History!67:67)-3)),"")</f>
+        <f ca="1">IF(History!A67&lt;&gt;"",SUM(History!B67:OFFSET(History!B67,0,COUNTA(History!67:67)-2)),"")</f>
         <v/>
       </c>
       <c r="D67" s="8" t="str">
@@ -3282,7 +3281,7 @@
         <v/>
       </c>
       <c r="C68" s="4" t="str">
-        <f ca="1">IF(History!A68&lt;&gt;"",SUM(History!C68:OFFSET(History!C68,0,COUNTA(History!68:68)-3)),"")</f>
+        <f ca="1">IF(History!A68&lt;&gt;"",SUM(History!B68:OFFSET(History!B68,0,COUNTA(History!68:68)-2)),"")</f>
         <v/>
       </c>
       <c r="D68" s="8" t="str">
@@ -3323,7 +3322,7 @@
         <v/>
       </c>
       <c r="C69" s="4" t="str">
-        <f ca="1">IF(History!A69&lt;&gt;"",SUM(History!C69:OFFSET(History!C69,0,COUNTA(History!69:69)-3)),"")</f>
+        <f ca="1">IF(History!A69&lt;&gt;"",SUM(History!B69:OFFSET(History!B69,0,COUNTA(History!69:69)-2)),"")</f>
         <v/>
       </c>
       <c r="D69" s="8" t="str">
@@ -3364,7 +3363,7 @@
         <v/>
       </c>
       <c r="C70" s="4" t="str">
-        <f ca="1">IF(History!A70&lt;&gt;"",SUM(History!C70:OFFSET(History!C70,0,COUNTA(History!70:70)-3)),"")</f>
+        <f ca="1">IF(History!A70&lt;&gt;"",SUM(History!B70:OFFSET(History!B70,0,COUNTA(History!70:70)-2)),"")</f>
         <v/>
       </c>
       <c r="D70" s="8" t="str">
@@ -3405,7 +3404,7 @@
         <v/>
       </c>
       <c r="C71" s="4" t="str">
-        <f ca="1">IF(History!A71&lt;&gt;"",SUM(History!C71:OFFSET(History!C71,0,COUNTA(History!71:71)-3)),"")</f>
+        <f ca="1">IF(History!A71&lt;&gt;"",SUM(History!B71:OFFSET(History!B71,0,COUNTA(History!71:71)-2)),"")</f>
         <v/>
       </c>
       <c r="D71" s="8" t="str">
@@ -3446,7 +3445,7 @@
         <v/>
       </c>
       <c r="C72" s="4" t="str">
-        <f ca="1">IF(History!A72&lt;&gt;"",SUM(History!C72:OFFSET(History!C72,0,COUNTA(History!72:72)-3)),"")</f>
+        <f ca="1">IF(History!A72&lt;&gt;"",SUM(History!B72:OFFSET(History!B72,0,COUNTA(History!72:72)-2)),"")</f>
         <v/>
       </c>
       <c r="D72" s="8" t="str">
@@ -3487,7 +3486,7 @@
         <v/>
       </c>
       <c r="C73" s="4" t="str">
-        <f ca="1">IF(History!A73&lt;&gt;"",SUM(History!C73:OFFSET(History!C73,0,COUNTA(History!73:73)-3)),"")</f>
+        <f ca="1">IF(History!A73&lt;&gt;"",SUM(History!B73:OFFSET(History!B73,0,COUNTA(History!73:73)-2)),"")</f>
         <v/>
       </c>
       <c r="D73" s="8" t="str">
@@ -3528,7 +3527,7 @@
         <v/>
       </c>
       <c r="C74" s="4" t="str">
-        <f ca="1">IF(History!A74&lt;&gt;"",SUM(History!C74:OFFSET(History!C74,0,COUNTA(History!74:74)-3)),"")</f>
+        <f ca="1">IF(History!A74&lt;&gt;"",SUM(History!B74:OFFSET(History!B74,0,COUNTA(History!74:74)-2)),"")</f>
         <v/>
       </c>
       <c r="D74" s="8" t="str">
@@ -3569,7 +3568,7 @@
         <v/>
       </c>
       <c r="C75" s="4" t="str">
-        <f ca="1">IF(History!A75&lt;&gt;"",SUM(History!C75:OFFSET(History!C75,0,COUNTA(History!75:75)-3)),"")</f>
+        <f ca="1">IF(History!A75&lt;&gt;"",SUM(History!B75:OFFSET(History!B75,0,COUNTA(History!75:75)-2)),"")</f>
         <v/>
       </c>
       <c r="D75" s="8" t="str">
@@ -3610,7 +3609,7 @@
         <v/>
       </c>
       <c r="C76" s="4" t="str">
-        <f ca="1">IF(History!A76&lt;&gt;"",SUM(History!C76:OFFSET(History!C76,0,COUNTA(History!76:76)-3)),"")</f>
+        <f ca="1">IF(History!A76&lt;&gt;"",SUM(History!B76:OFFSET(History!B76,0,COUNTA(History!76:76)-2)),"")</f>
         <v/>
       </c>
       <c r="D76" s="8" t="str">
@@ -3651,7 +3650,7 @@
         <v/>
       </c>
       <c r="C77" s="4" t="str">
-        <f ca="1">IF(History!A77&lt;&gt;"",SUM(History!C77:OFFSET(History!C77,0,COUNTA(History!77:77)-3)),"")</f>
+        <f ca="1">IF(History!A77&lt;&gt;"",SUM(History!B77:OFFSET(History!B77,0,COUNTA(History!77:77)-2)),"")</f>
         <v/>
       </c>
       <c r="D77" s="8" t="str">
@@ -3692,7 +3691,7 @@
         <v/>
       </c>
       <c r="C78" s="4" t="str">
-        <f ca="1">IF(History!A78&lt;&gt;"",SUM(History!C78:OFFSET(History!C78,0,COUNTA(History!78:78)-3)),"")</f>
+        <f ca="1">IF(History!A78&lt;&gt;"",SUM(History!B78:OFFSET(History!B78,0,COUNTA(History!78:78)-2)),"")</f>
         <v/>
       </c>
       <c r="D78" s="8" t="str">
@@ -3733,7 +3732,7 @@
         <v/>
       </c>
       <c r="C79" s="4" t="str">
-        <f ca="1">IF(History!A79&lt;&gt;"",SUM(History!C79:OFFSET(History!C79,0,COUNTA(History!79:79)-3)),"")</f>
+        <f ca="1">IF(History!A79&lt;&gt;"",SUM(History!B79:OFFSET(History!B79,0,COUNTA(History!79:79)-2)),"")</f>
         <v/>
       </c>
       <c r="D79" s="8" t="str">
@@ -3774,7 +3773,7 @@
         <v/>
       </c>
       <c r="C80" s="4" t="str">
-        <f ca="1">IF(History!A80&lt;&gt;"",SUM(History!C80:OFFSET(History!C80,0,COUNTA(History!80:80)-3)),"")</f>
+        <f ca="1">IF(History!A80&lt;&gt;"",SUM(History!B80:OFFSET(History!B80,0,COUNTA(History!80:80)-2)),"")</f>
         <v/>
       </c>
       <c r="D80" s="8" t="str">
@@ -3815,7 +3814,7 @@
         <v/>
       </c>
       <c r="C81" s="4" t="str">
-        <f ca="1">IF(History!A81&lt;&gt;"",SUM(History!C81:OFFSET(History!C81,0,COUNTA(History!81:81)-3)),"")</f>
+        <f ca="1">IF(History!A81&lt;&gt;"",SUM(History!B81:OFFSET(History!B81,0,COUNTA(History!81:81)-2)),"")</f>
         <v/>
       </c>
       <c r="D81" s="8" t="str">
@@ -3856,7 +3855,7 @@
         <v/>
       </c>
       <c r="C82" s="4" t="str">
-        <f ca="1">IF(History!A82&lt;&gt;"",SUM(History!C82:OFFSET(History!C82,0,COUNTA(History!82:82)-3)),"")</f>
+        <f ca="1">IF(History!A82&lt;&gt;"",SUM(History!B82:OFFSET(History!B82,0,COUNTA(History!82:82)-2)),"")</f>
         <v/>
       </c>
       <c r="D82" s="8" t="str">
@@ -3897,7 +3896,7 @@
         <v/>
       </c>
       <c r="C83" s="4" t="str">
-        <f ca="1">IF(History!A83&lt;&gt;"",SUM(History!C83:OFFSET(History!C83,0,COUNTA(History!83:83)-3)),"")</f>
+        <f ca="1">IF(History!A83&lt;&gt;"",SUM(History!B83:OFFSET(History!B83,0,COUNTA(History!83:83)-2)),"")</f>
         <v/>
       </c>
       <c r="D83" s="8" t="str">
@@ -3938,7 +3937,7 @@
         <v/>
       </c>
       <c r="C84" s="4" t="str">
-        <f ca="1">IF(History!A84&lt;&gt;"",SUM(History!C84:OFFSET(History!C84,0,COUNTA(History!84:84)-3)),"")</f>
+        <f ca="1">IF(History!A84&lt;&gt;"",SUM(History!B84:OFFSET(History!B84,0,COUNTA(History!84:84)-2)),"")</f>
         <v/>
       </c>
       <c r="D84" s="8" t="str">
@@ -3979,7 +3978,7 @@
         <v/>
       </c>
       <c r="C85" s="4" t="str">
-        <f ca="1">IF(History!A85&lt;&gt;"",SUM(History!C85:OFFSET(History!C85,0,COUNTA(History!85:85)-3)),"")</f>
+        <f ca="1">IF(History!A85&lt;&gt;"",SUM(History!B85:OFFSET(History!B85,0,COUNTA(History!85:85)-2)),"")</f>
         <v/>
       </c>
       <c r="D85" s="8" t="str">
@@ -4020,7 +4019,7 @@
         <v/>
       </c>
       <c r="C86" s="4" t="str">
-        <f ca="1">IF(History!A86&lt;&gt;"",SUM(History!C86:OFFSET(History!C86,0,COUNTA(History!86:86)-3)),"")</f>
+        <f ca="1">IF(History!A86&lt;&gt;"",SUM(History!B86:OFFSET(History!B86,0,COUNTA(History!86:86)-2)),"")</f>
         <v/>
       </c>
       <c r="D86" s="8" t="str">
@@ -4061,7 +4060,7 @@
         <v/>
       </c>
       <c r="C87" s="4" t="str">
-        <f ca="1">IF(History!A87&lt;&gt;"",SUM(History!C87:OFFSET(History!C87,0,COUNTA(History!87:87)-3)),"")</f>
+        <f ca="1">IF(History!A87&lt;&gt;"",SUM(History!B87:OFFSET(History!B87,0,COUNTA(History!87:87)-2)),"")</f>
         <v/>
       </c>
       <c r="D87" s="8" t="str">
@@ -4102,7 +4101,7 @@
         <v/>
       </c>
       <c r="C88" s="4" t="str">
-        <f ca="1">IF(History!A88&lt;&gt;"",SUM(History!C88:OFFSET(History!C88,0,COUNTA(History!88:88)-3)),"")</f>
+        <f ca="1">IF(History!A88&lt;&gt;"",SUM(History!B88:OFFSET(History!B88,0,COUNTA(History!88:88)-2)),"")</f>
         <v/>
       </c>
       <c r="D88" s="8" t="str">
@@ -4143,7 +4142,7 @@
         <v/>
       </c>
       <c r="C89" s="4" t="str">
-        <f ca="1">IF(History!A89&lt;&gt;"",SUM(History!C89:OFFSET(History!C89,0,COUNTA(History!89:89)-3)),"")</f>
+        <f ca="1">IF(History!A89&lt;&gt;"",SUM(History!B89:OFFSET(History!B89,0,COUNTA(History!89:89)-2)),"")</f>
         <v/>
       </c>
       <c r="D89" s="8" t="str">
@@ -4184,7 +4183,7 @@
         <v/>
       </c>
       <c r="C90" s="4" t="str">
-        <f ca="1">IF(History!A90&lt;&gt;"",SUM(History!C90:OFFSET(History!C90,0,COUNTA(History!90:90)-3)),"")</f>
+        <f ca="1">IF(History!A90&lt;&gt;"",SUM(History!B90:OFFSET(History!B90,0,COUNTA(History!90:90)-2)),"")</f>
         <v/>
       </c>
       <c r="D90" s="8" t="str">
@@ -4225,7 +4224,7 @@
         <v/>
       </c>
       <c r="C91" s="4" t="str">
-        <f ca="1">IF(History!A91&lt;&gt;"",SUM(History!C91:OFFSET(History!C91,0,COUNTA(History!91:91)-3)),"")</f>
+        <f ca="1">IF(History!A91&lt;&gt;"",SUM(History!B91:OFFSET(History!B91,0,COUNTA(History!91:91)-2)),"")</f>
         <v/>
       </c>
       <c r="D91" s="8" t="str">
@@ -4266,7 +4265,7 @@
         <v/>
       </c>
       <c r="C92" s="4" t="str">
-        <f ca="1">IF(History!A92&lt;&gt;"",SUM(History!C92:OFFSET(History!C92,0,COUNTA(History!92:92)-3)),"")</f>
+        <f ca="1">IF(History!A92&lt;&gt;"",SUM(History!B92:OFFSET(History!B92,0,COUNTA(History!92:92)-2)),"")</f>
         <v/>
       </c>
       <c r="D92" s="8" t="str">
@@ -4307,7 +4306,7 @@
         <v/>
       </c>
       <c r="C93" s="4" t="str">
-        <f ca="1">IF(History!A93&lt;&gt;"",SUM(History!C93:OFFSET(History!C93,0,COUNTA(History!93:93)-3)),"")</f>
+        <f ca="1">IF(History!A93&lt;&gt;"",SUM(History!B93:OFFSET(History!B93,0,COUNTA(History!93:93)-2)),"")</f>
         <v/>
       </c>
       <c r="D93" s="8" t="str">
@@ -4348,7 +4347,7 @@
         <v/>
       </c>
       <c r="C94" s="4" t="str">
-        <f ca="1">IF(History!A94&lt;&gt;"",SUM(History!C94:OFFSET(History!C94,0,COUNTA(History!94:94)-3)),"")</f>
+        <f ca="1">IF(History!A94&lt;&gt;"",SUM(History!B94:OFFSET(History!B94,0,COUNTA(History!94:94)-2)),"")</f>
         <v/>
       </c>
       <c r="D94" s="8" t="str">
@@ -4389,7 +4388,7 @@
         <v/>
       </c>
       <c r="C95" s="4" t="str">
-        <f ca="1">IF(History!A95&lt;&gt;"",SUM(History!C95:OFFSET(History!C95,0,COUNTA(History!95:95)-3)),"")</f>
+        <f ca="1">IF(History!A95&lt;&gt;"",SUM(History!B95:OFFSET(History!B95,0,COUNTA(History!95:95)-2)),"")</f>
         <v/>
       </c>
       <c r="D95" s="8" t="str">
@@ -4430,7 +4429,7 @@
         <v/>
       </c>
       <c r="C96" s="4" t="str">
-        <f ca="1">IF(History!A96&lt;&gt;"",SUM(History!C96:OFFSET(History!C96,0,COUNTA(History!96:96)-3)),"")</f>
+        <f ca="1">IF(History!A96&lt;&gt;"",SUM(History!B96:OFFSET(History!B96,0,COUNTA(History!96:96)-2)),"")</f>
         <v/>
       </c>
       <c r="D96" s="8" t="str">
@@ -4471,7 +4470,7 @@
         <v/>
       </c>
       <c r="C97" s="4" t="str">
-        <f ca="1">IF(History!A97&lt;&gt;"",SUM(History!C97:OFFSET(History!C97,0,COUNTA(History!97:97)-3)),"")</f>
+        <f ca="1">IF(History!A97&lt;&gt;"",SUM(History!B97:OFFSET(History!B97,0,COUNTA(History!97:97)-2)),"")</f>
         <v/>
       </c>
       <c r="D97" s="8" t="str">
@@ -4512,7 +4511,7 @@
         <v/>
       </c>
       <c r="C98" s="4" t="str">
-        <f ca="1">IF(History!A98&lt;&gt;"",SUM(History!C98:OFFSET(History!C98,0,COUNTA(History!98:98)-3)),"")</f>
+        <f ca="1">IF(History!A98&lt;&gt;"",SUM(History!B98:OFFSET(History!B98,0,COUNTA(History!98:98)-2)),"")</f>
         <v/>
       </c>
       <c r="D98" s="8" t="str">
@@ -4553,7 +4552,7 @@
         <v/>
       </c>
       <c r="C99" s="4" t="str">
-        <f ca="1">IF(History!A99&lt;&gt;"",SUM(History!C99:OFFSET(History!C99,0,COUNTA(History!99:99)-3)),"")</f>
+        <f ca="1">IF(History!A99&lt;&gt;"",SUM(History!B99:OFFSET(History!B99,0,COUNTA(History!99:99)-2)),"")</f>
         <v/>
       </c>
       <c r="D99" s="8" t="str">
@@ -4594,7 +4593,7 @@
         <v/>
       </c>
       <c r="C100" s="4" t="str">
-        <f ca="1">IF(History!A100&lt;&gt;"",SUM(History!C100:OFFSET(History!C100,0,COUNTA(History!100:100)-3)),"")</f>
+        <f ca="1">IF(History!A100&lt;&gt;"",SUM(History!B100:OFFSET(History!B100,0,COUNTA(History!100:100)-2)),"")</f>
         <v/>
       </c>
       <c r="D100" s="8" t="str">
@@ -4635,7 +4634,7 @@
         <v/>
       </c>
       <c r="C101" s="4" t="str">
-        <f ca="1">IF(History!A101&lt;&gt;"",SUM(History!C101:OFFSET(History!C101,0,COUNTA(History!101:101)-3)),"")</f>
+        <f ca="1">IF(History!A101&lt;&gt;"",SUM(History!B101:OFFSET(History!B101,0,COUNTA(History!101:101)-2)),"")</f>
         <v/>
       </c>
       <c r="D101" s="8" t="str">
@@ -4676,7 +4675,7 @@
         <v/>
       </c>
       <c r="C102" s="4" t="str">
-        <f ca="1">IF(History!A102&lt;&gt;"",SUM(History!C102:OFFSET(History!C102,0,COUNTA(History!102:102)-3)),"")</f>
+        <f ca="1">IF(History!A102&lt;&gt;"",SUM(History!B102:OFFSET(History!B102,0,COUNTA(History!102:102)-2)),"")</f>
         <v/>
       </c>
       <c r="D102" s="8" t="str">
@@ -4717,7 +4716,7 @@
         <v/>
       </c>
       <c r="C103" s="4" t="str">
-        <f ca="1">IF(History!A103&lt;&gt;"",SUM(History!C103:OFFSET(History!C103,0,COUNTA(History!103:103)-3)),"")</f>
+        <f ca="1">IF(History!A103&lt;&gt;"",SUM(History!B103:OFFSET(History!B103,0,COUNTA(History!103:103)-2)),"")</f>
         <v/>
       </c>
       <c r="D103" s="8" t="str">
@@ -4758,7 +4757,7 @@
         <v/>
       </c>
       <c r="C104" s="4" t="str">
-        <f ca="1">IF(History!A104&lt;&gt;"",SUM(History!C104:OFFSET(History!C104,0,COUNTA(History!104:104)-3)),"")</f>
+        <f ca="1">IF(History!A104&lt;&gt;"",SUM(History!B104:OFFSET(History!B104,0,COUNTA(History!104:104)-2)),"")</f>
         <v/>
       </c>
       <c r="D104" s="8" t="str">
@@ -4799,7 +4798,7 @@
         <v/>
       </c>
       <c r="C105" s="4" t="str">
-        <f ca="1">IF(History!A105&lt;&gt;"",SUM(History!C105:OFFSET(History!C105,0,COUNTA(History!105:105)-3)),"")</f>
+        <f ca="1">IF(History!A105&lt;&gt;"",SUM(History!B105:OFFSET(History!B105,0,COUNTA(History!105:105)-2)),"")</f>
         <v/>
       </c>
       <c r="D105" s="8" t="str">
@@ -4840,7 +4839,7 @@
         <v/>
       </c>
       <c r="C106" s="4" t="str">
-        <f ca="1">IF(History!A106&lt;&gt;"",SUM(History!C106:OFFSET(History!C106,0,COUNTA(History!106:106)-3)),"")</f>
+        <f ca="1">IF(History!A106&lt;&gt;"",SUM(History!B106:OFFSET(History!B106,0,COUNTA(History!106:106)-2)),"")</f>
         <v/>
       </c>
       <c r="D106" s="8" t="str">
@@ -4881,7 +4880,7 @@
         <v/>
       </c>
       <c r="C107" s="4" t="str">
-        <f ca="1">IF(History!A107&lt;&gt;"",SUM(History!C107:OFFSET(History!C107,0,COUNTA(History!107:107)-3)),"")</f>
+        <f ca="1">IF(History!A107&lt;&gt;"",SUM(History!B107:OFFSET(History!B107,0,COUNTA(History!107:107)-2)),"")</f>
         <v/>
       </c>
       <c r="D107" s="8" t="str">
@@ -4922,7 +4921,7 @@
         <v/>
       </c>
       <c r="C108" s="4" t="str">
-        <f ca="1">IF(History!A108&lt;&gt;"",SUM(History!C108:OFFSET(History!C108,0,COUNTA(History!108:108)-3)),"")</f>
+        <f ca="1">IF(History!A108&lt;&gt;"",SUM(History!B108:OFFSET(History!B108,0,COUNTA(History!108:108)-2)),"")</f>
         <v/>
       </c>
       <c r="D108" s="8" t="str">
@@ -4963,7 +4962,7 @@
         <v/>
       </c>
       <c r="C109" s="4" t="str">
-        <f ca="1">IF(History!A109&lt;&gt;"",SUM(History!C109:OFFSET(History!C109,0,COUNTA(History!109:109)-3)),"")</f>
+        <f ca="1">IF(History!A109&lt;&gt;"",SUM(History!B109:OFFSET(History!B109,0,COUNTA(History!109:109)-2)),"")</f>
         <v/>
       </c>
       <c r="D109" s="8" t="str">
@@ -5004,7 +5003,7 @@
         <v/>
       </c>
       <c r="C110" s="4" t="str">
-        <f ca="1">IF(History!A110&lt;&gt;"",SUM(History!C110:OFFSET(History!C110,0,COUNTA(History!110:110)-3)),"")</f>
+        <f ca="1">IF(History!A110&lt;&gt;"",SUM(History!B110:OFFSET(History!B110,0,COUNTA(History!110:110)-2)),"")</f>
         <v/>
       </c>
       <c r="D110" s="8" t="str">
@@ -5045,7 +5044,7 @@
         <v/>
       </c>
       <c r="C111" s="4" t="str">
-        <f ca="1">IF(History!A111&lt;&gt;"",SUM(History!C111:OFFSET(History!C111,0,COUNTA(History!111:111)-3)),"")</f>
+        <f ca="1">IF(History!A111&lt;&gt;"",SUM(History!B111:OFFSET(History!B111,0,COUNTA(History!111:111)-2)),"")</f>
         <v/>
       </c>
       <c r="D111" s="8" t="str">
@@ -5086,7 +5085,7 @@
         <v/>
       </c>
       <c r="C112" s="4" t="str">
-        <f ca="1">IF(History!A112&lt;&gt;"",SUM(History!C112:OFFSET(History!C112,0,COUNTA(History!112:112)-3)),"")</f>
+        <f ca="1">IF(History!A112&lt;&gt;"",SUM(History!B112:OFFSET(History!B112,0,COUNTA(History!112:112)-2)),"")</f>
         <v/>
       </c>
       <c r="D112" s="8" t="str">
@@ -5127,7 +5126,7 @@
         <v/>
       </c>
       <c r="C113" s="4" t="str">
-        <f ca="1">IF(History!A113&lt;&gt;"",SUM(History!C113:OFFSET(History!C113,0,COUNTA(History!113:113)-3)),"")</f>
+        <f ca="1">IF(History!A113&lt;&gt;"",SUM(History!B113:OFFSET(History!B113,0,COUNTA(History!113:113)-2)),"")</f>
         <v/>
       </c>
       <c r="D113" s="8" t="str">
@@ -5168,7 +5167,7 @@
         <v/>
       </c>
       <c r="C114" s="4" t="str">
-        <f ca="1">IF(History!A114&lt;&gt;"",SUM(History!C114:OFFSET(History!C114,0,COUNTA(History!114:114)-3)),"")</f>
+        <f ca="1">IF(History!A114&lt;&gt;"",SUM(History!B114:OFFSET(History!B114,0,COUNTA(History!114:114)-2)),"")</f>
         <v/>
       </c>
       <c r="D114" s="8" t="str">
@@ -5209,7 +5208,7 @@
         <v/>
       </c>
       <c r="C115" s="4" t="str">
-        <f ca="1">IF(History!A115&lt;&gt;"",SUM(History!C115:OFFSET(History!C115,0,COUNTA(History!115:115)-3)),"")</f>
+        <f ca="1">IF(History!A115&lt;&gt;"",SUM(History!B115:OFFSET(History!B115,0,COUNTA(History!115:115)-2)),"")</f>
         <v/>
       </c>
       <c r="D115" s="8" t="str">
@@ -5250,7 +5249,7 @@
         <v/>
       </c>
       <c r="C116" s="4" t="str">
-        <f ca="1">IF(History!A116&lt;&gt;"",SUM(History!C116:OFFSET(History!C116,0,COUNTA(History!116:116)-3)),"")</f>
+        <f ca="1">IF(History!A116&lt;&gt;"",SUM(History!B116:OFFSET(History!B116,0,COUNTA(History!116:116)-2)),"")</f>
         <v/>
       </c>
       <c r="D116" s="8" t="str">
@@ -5291,7 +5290,7 @@
         <v/>
       </c>
       <c r="C117" s="4" t="str">
-        <f ca="1">IF(History!A117&lt;&gt;"",SUM(History!C117:OFFSET(History!C117,0,COUNTA(History!117:117)-3)),"")</f>
+        <f ca="1">IF(History!A117&lt;&gt;"",SUM(History!B117:OFFSET(History!B117,0,COUNTA(History!117:117)-2)),"")</f>
         <v/>
       </c>
       <c r="D117" s="8" t="str">
@@ -5332,7 +5331,7 @@
         <v/>
       </c>
       <c r="C118" s="4" t="str">
-        <f ca="1">IF(History!A118&lt;&gt;"",SUM(History!C118:OFFSET(History!C118,0,COUNTA(History!118:118)-3)),"")</f>
+        <f ca="1">IF(History!A118&lt;&gt;"",SUM(History!B118:OFFSET(History!B118,0,COUNTA(History!118:118)-2)),"")</f>
         <v/>
       </c>
       <c r="D118" s="8" t="str">
@@ -5373,7 +5372,7 @@
         <v/>
       </c>
       <c r="C119" s="4" t="str">
-        <f ca="1">IF(History!A119&lt;&gt;"",SUM(History!C119:OFFSET(History!C119,0,COUNTA(History!119:119)-3)),"")</f>
+        <f ca="1">IF(History!A119&lt;&gt;"",SUM(History!B119:OFFSET(History!B119,0,COUNTA(History!119:119)-2)),"")</f>
         <v/>
       </c>
       <c r="D119" s="8" t="str">
@@ -5414,7 +5413,7 @@
         <v/>
       </c>
       <c r="C120" s="4" t="str">
-        <f ca="1">IF(History!A120&lt;&gt;"",SUM(History!C120:OFFSET(History!C120,0,COUNTA(History!120:120)-3)),"")</f>
+        <f ca="1">IF(History!A120&lt;&gt;"",SUM(History!B120:OFFSET(History!B120,0,COUNTA(History!120:120)-2)),"")</f>
         <v/>
       </c>
       <c r="D120" s="8" t="str">
@@ -5455,7 +5454,7 @@
         <v/>
       </c>
       <c r="C121" s="4" t="str">
-        <f ca="1">IF(History!A121&lt;&gt;"",SUM(History!C121:OFFSET(History!C121,0,COUNTA(History!121:121)-3)),"")</f>
+        <f ca="1">IF(History!A121&lt;&gt;"",SUM(History!B121:OFFSET(History!B121,0,COUNTA(History!121:121)-2)),"")</f>
         <v/>
       </c>
       <c r="D121" s="8" t="str">
@@ -5496,7 +5495,7 @@
         <v/>
       </c>
       <c r="C122" s="4" t="str">
-        <f ca="1">IF(History!A122&lt;&gt;"",SUM(History!C122:OFFSET(History!C122,0,COUNTA(History!122:122)-3)),"")</f>
+        <f ca="1">IF(History!A122&lt;&gt;"",SUM(History!B122:OFFSET(History!B122,0,COUNTA(History!122:122)-2)),"")</f>
         <v/>
       </c>
       <c r="D122" s="8" t="str">
@@ -5537,7 +5536,7 @@
         <v/>
       </c>
       <c r="C123" s="4" t="str">
-        <f ca="1">IF(History!A123&lt;&gt;"",SUM(History!C123:OFFSET(History!C123,0,COUNTA(History!123:123)-3)),"")</f>
+        <f ca="1">IF(History!A123&lt;&gt;"",SUM(History!B123:OFFSET(History!B123,0,COUNTA(History!123:123)-2)),"")</f>
         <v/>
       </c>
       <c r="D123" s="8" t="str">
@@ -5578,7 +5577,7 @@
         <v/>
       </c>
       <c r="C124" s="4" t="str">
-        <f ca="1">IF(History!A124&lt;&gt;"",SUM(History!C124:OFFSET(History!C124,0,COUNTA(History!124:124)-3)),"")</f>
+        <f ca="1">IF(History!A124&lt;&gt;"",SUM(History!B124:OFFSET(History!B124,0,COUNTA(History!124:124)-2)),"")</f>
         <v/>
       </c>
       <c r="D124" s="8" t="str">
@@ -5619,7 +5618,7 @@
         <v/>
       </c>
       <c r="C125" s="4" t="str">
-        <f ca="1">IF(History!A125&lt;&gt;"",SUM(History!C125:OFFSET(History!C125,0,COUNTA(History!125:125)-3)),"")</f>
+        <f ca="1">IF(History!A125&lt;&gt;"",SUM(History!B125:OFFSET(History!B125,0,COUNTA(History!125:125)-2)),"")</f>
         <v/>
       </c>
       <c r="D125" s="8" t="str">
@@ -5660,7 +5659,7 @@
         <v/>
       </c>
       <c r="C126" s="4" t="str">
-        <f ca="1">IF(History!A126&lt;&gt;"",SUM(History!C126:OFFSET(History!C126,0,COUNTA(History!126:126)-3)),"")</f>
+        <f ca="1">IF(History!A126&lt;&gt;"",SUM(History!B126:OFFSET(History!B126,0,COUNTA(History!126:126)-2)),"")</f>
         <v/>
       </c>
       <c r="D126" s="8" t="str">
@@ -5701,7 +5700,7 @@
         <v/>
       </c>
       <c r="C127" s="4" t="str">
-        <f ca="1">IF(History!A127&lt;&gt;"",SUM(History!C127:OFFSET(History!C127,0,COUNTA(History!127:127)-3)),"")</f>
+        <f ca="1">IF(History!A127&lt;&gt;"",SUM(History!B127:OFFSET(History!B127,0,COUNTA(History!127:127)-2)),"")</f>
         <v/>
       </c>
       <c r="D127" s="8" t="str">
@@ -5742,7 +5741,7 @@
         <v/>
       </c>
       <c r="C128" s="4" t="str">
-        <f ca="1">IF(History!A128&lt;&gt;"",SUM(History!C128:OFFSET(History!C128,0,COUNTA(History!128:128)-3)),"")</f>
+        <f ca="1">IF(History!A128&lt;&gt;"",SUM(History!B128:OFFSET(History!B128,0,COUNTA(History!128:128)-2)),"")</f>
         <v/>
       </c>
       <c r="D128" s="8" t="str">
@@ -5783,7 +5782,7 @@
         <v/>
       </c>
       <c r="C129" s="4" t="str">
-        <f ca="1">IF(History!A129&lt;&gt;"",SUM(History!C129:OFFSET(History!C129,0,COUNTA(History!129:129)-3)),"")</f>
+        <f ca="1">IF(History!A129&lt;&gt;"",SUM(History!B129:OFFSET(History!B129,0,COUNTA(History!129:129)-2)),"")</f>
         <v/>
       </c>
       <c r="D129" s="8" t="str">
@@ -5824,7 +5823,7 @@
         <v/>
       </c>
       <c r="C130" s="4" t="str">
-        <f ca="1">IF(History!A130&lt;&gt;"",SUM(History!C130:OFFSET(History!C130,0,COUNTA(History!130:130)-3)),"")</f>
+        <f ca="1">IF(History!A130&lt;&gt;"",SUM(History!B130:OFFSET(History!B130,0,COUNTA(History!130:130)-2)),"")</f>
         <v/>
       </c>
       <c r="D130" s="8" t="str">
@@ -5865,7 +5864,7 @@
         <v/>
       </c>
       <c r="C131" s="4" t="str">
-        <f ca="1">IF(History!A131&lt;&gt;"",SUM(History!C131:OFFSET(History!C131,0,COUNTA(History!131:131)-3)),"")</f>
+        <f ca="1">IF(History!A131&lt;&gt;"",SUM(History!B131:OFFSET(History!B131,0,COUNTA(History!131:131)-2)),"")</f>
         <v/>
       </c>
       <c r="D131" s="8" t="str">
@@ -5906,7 +5905,7 @@
         <v/>
       </c>
       <c r="C132" s="4" t="str">
-        <f ca="1">IF(History!A132&lt;&gt;"",SUM(History!C132:OFFSET(History!C132,0,COUNTA(History!132:132)-3)),"")</f>
+        <f ca="1">IF(History!A132&lt;&gt;"",SUM(History!B132:OFFSET(History!B132,0,COUNTA(History!132:132)-2)),"")</f>
         <v/>
       </c>
       <c r="D132" s="8" t="str">
@@ -5947,7 +5946,7 @@
         <v/>
       </c>
       <c r="C133" s="4" t="str">
-        <f ca="1">IF(History!A133&lt;&gt;"",SUM(History!C133:OFFSET(History!C133,0,COUNTA(History!133:133)-3)),"")</f>
+        <f ca="1">IF(History!A133&lt;&gt;"",SUM(History!B133:OFFSET(History!B133,0,COUNTA(History!133:133)-2)),"")</f>
         <v/>
       </c>
       <c r="D133" s="8" t="str">
@@ -5988,7 +5987,7 @@
         <v/>
       </c>
       <c r="C134" s="4" t="str">
-        <f ca="1">IF(History!A134&lt;&gt;"",SUM(History!C134:OFFSET(History!C134,0,COUNTA(History!134:134)-3)),"")</f>
+        <f ca="1">IF(History!A134&lt;&gt;"",SUM(History!B134:OFFSET(History!B134,0,COUNTA(History!134:134)-2)),"")</f>
         <v/>
       </c>
       <c r="D134" s="8" t="str">
@@ -6029,7 +6028,7 @@
         <v/>
       </c>
       <c r="C135" s="4" t="str">
-        <f ca="1">IF(History!A135&lt;&gt;"",SUM(History!C135:OFFSET(History!C135,0,COUNTA(History!135:135)-3)),"")</f>
+        <f ca="1">IF(History!A135&lt;&gt;"",SUM(History!B135:OFFSET(History!B135,0,COUNTA(History!135:135)-2)),"")</f>
         <v/>
       </c>
       <c r="D135" s="8" t="str">
@@ -6070,7 +6069,7 @@
         <v/>
       </c>
       <c r="C136" s="4" t="str">
-        <f ca="1">IF(History!A136&lt;&gt;"",SUM(History!C136:OFFSET(History!C136,0,COUNTA(History!136:136)-3)),"")</f>
+        <f ca="1">IF(History!A136&lt;&gt;"",SUM(History!B136:OFFSET(History!B136,0,COUNTA(History!136:136)-2)),"")</f>
         <v/>
       </c>
       <c r="D136" s="8" t="str">
@@ -6111,7 +6110,7 @@
         <v/>
       </c>
       <c r="C137" s="4" t="str">
-        <f ca="1">IF(History!A137&lt;&gt;"",SUM(History!C137:OFFSET(History!C137,0,COUNTA(History!137:137)-3)),"")</f>
+        <f ca="1">IF(History!A137&lt;&gt;"",SUM(History!B137:OFFSET(History!B137,0,COUNTA(History!137:137)-2)),"")</f>
         <v/>
       </c>
       <c r="D137" s="8" t="str">
@@ -6152,7 +6151,7 @@
         <v/>
       </c>
       <c r="C138" s="4" t="str">
-        <f ca="1">IF(History!A138&lt;&gt;"",SUM(History!C138:OFFSET(History!C138,0,COUNTA(History!138:138)-3)),"")</f>
+        <f ca="1">IF(History!A138&lt;&gt;"",SUM(History!B138:OFFSET(History!B138,0,COUNTA(History!138:138)-2)),"")</f>
         <v/>
       </c>
       <c r="D138" s="8" t="str">
@@ -6193,7 +6192,7 @@
         <v/>
       </c>
       <c r="C139" s="4" t="str">
-        <f ca="1">IF(History!A139&lt;&gt;"",SUM(History!C139:OFFSET(History!C139,0,COUNTA(History!139:139)-3)),"")</f>
+        <f ca="1">IF(History!A139&lt;&gt;"",SUM(History!B139:OFFSET(History!B139,0,COUNTA(History!139:139)-2)),"")</f>
         <v/>
       </c>
       <c r="D139" s="8" t="str">
@@ -6234,7 +6233,7 @@
         <v/>
       </c>
       <c r="C140" s="4" t="str">
-        <f ca="1">IF(History!A140&lt;&gt;"",SUM(History!C140:OFFSET(History!C140,0,COUNTA(History!140:140)-3)),"")</f>
+        <f ca="1">IF(History!A140&lt;&gt;"",SUM(History!B140:OFFSET(History!B140,0,COUNTA(History!140:140)-2)),"")</f>
         <v/>
       </c>
       <c r="D140" s="8" t="str">
@@ -6275,7 +6274,7 @@
         <v/>
       </c>
       <c r="C141" s="4" t="str">
-        <f ca="1">IF(History!A141&lt;&gt;"",SUM(History!C141:OFFSET(History!C141,0,COUNTA(History!141:141)-3)),"")</f>
+        <f ca="1">IF(History!A141&lt;&gt;"",SUM(History!B141:OFFSET(History!B141,0,COUNTA(History!141:141)-2)),"")</f>
         <v/>
       </c>
       <c r="D141" s="8" t="str">
@@ -6316,7 +6315,7 @@
         <v/>
       </c>
       <c r="C142" s="4" t="str">
-        <f ca="1">IF(History!A142&lt;&gt;"",SUM(History!C142:OFFSET(History!C142,0,COUNTA(History!142:142)-3)),"")</f>
+        <f ca="1">IF(History!A142&lt;&gt;"",SUM(History!B142:OFFSET(History!B142,0,COUNTA(History!142:142)-2)),"")</f>
         <v/>
       </c>
       <c r="D142" s="8" t="str">
@@ -6357,7 +6356,7 @@
         <v/>
       </c>
       <c r="C143" s="4" t="str">
-        <f ca="1">IF(History!A143&lt;&gt;"",SUM(History!C143:OFFSET(History!C143,0,COUNTA(History!143:143)-3)),"")</f>
+        <f ca="1">IF(History!A143&lt;&gt;"",SUM(History!B143:OFFSET(History!B143,0,COUNTA(History!143:143)-2)),"")</f>
         <v/>
       </c>
       <c r="D143" s="8" t="str">
@@ -6398,7 +6397,7 @@
         <v/>
       </c>
       <c r="C144" s="4" t="str">
-        <f ca="1">IF(History!A144&lt;&gt;"",SUM(History!C144:OFFSET(History!C144,0,COUNTA(History!144:144)-3)),"")</f>
+        <f ca="1">IF(History!A144&lt;&gt;"",SUM(History!B144:OFFSET(History!B144,0,COUNTA(History!144:144)-2)),"")</f>
         <v/>
       </c>
       <c r="D144" s="8" t="str">
@@ -6439,7 +6438,7 @@
         <v/>
       </c>
       <c r="C145" s="4" t="str">
-        <f ca="1">IF(History!A145&lt;&gt;"",SUM(History!C145:OFFSET(History!C145,0,COUNTA(History!145:145)-3)),"")</f>
+        <f ca="1">IF(History!A145&lt;&gt;"",SUM(History!B145:OFFSET(History!B145,0,COUNTA(History!145:145)-2)),"")</f>
         <v/>
       </c>
       <c r="D145" s="8" t="str">
@@ -6480,7 +6479,7 @@
         <v/>
       </c>
       <c r="C146" s="4" t="str">
-        <f ca="1">IF(History!A146&lt;&gt;"",SUM(History!C146:OFFSET(History!C146,0,COUNTA(History!146:146)-3)),"")</f>
+        <f ca="1">IF(History!A146&lt;&gt;"",SUM(History!B146:OFFSET(History!B146,0,COUNTA(History!146:146)-2)),"")</f>
         <v/>
       </c>
       <c r="D146" s="8" t="str">
@@ -6521,7 +6520,7 @@
         <v/>
       </c>
       <c r="C147" s="4" t="str">
-        <f ca="1">IF(History!A147&lt;&gt;"",SUM(History!C147:OFFSET(History!C147,0,COUNTA(History!147:147)-3)),"")</f>
+        <f ca="1">IF(History!A147&lt;&gt;"",SUM(History!B147:OFFSET(History!B147,0,COUNTA(History!147:147)-2)),"")</f>
         <v/>
       </c>
       <c r="D147" s="8" t="str">
@@ -6562,7 +6561,7 @@
         <v/>
       </c>
       <c r="C148" s="4" t="str">
-        <f ca="1">IF(History!A148&lt;&gt;"",SUM(History!C148:OFFSET(History!C148,0,COUNTA(History!148:148)-3)),"")</f>
+        <f ca="1">IF(History!A148&lt;&gt;"",SUM(History!B148:OFFSET(History!B148,0,COUNTA(History!148:148)-2)),"")</f>
         <v/>
       </c>
       <c r="D148" s="8" t="str">
@@ -6603,7 +6602,7 @@
         <v/>
       </c>
       <c r="C149" s="4" t="str">
-        <f ca="1">IF(History!A149&lt;&gt;"",SUM(History!C149:OFFSET(History!C149,0,COUNTA(History!149:149)-3)),"")</f>
+        <f ca="1">IF(History!A149&lt;&gt;"",SUM(History!B149:OFFSET(History!B149,0,COUNTA(History!149:149)-2)),"")</f>
         <v/>
       </c>
       <c r="D149" s="8" t="str">
@@ -6644,7 +6643,7 @@
         <v/>
       </c>
       <c r="C150" s="4" t="str">
-        <f ca="1">IF(History!A150&lt;&gt;"",SUM(History!C150:OFFSET(History!C150,0,COUNTA(History!150:150)-3)),"")</f>
+        <f ca="1">IF(History!A150&lt;&gt;"",SUM(History!B150:OFFSET(History!B150,0,COUNTA(History!150:150)-2)),"")</f>
         <v/>
       </c>
       <c r="D150" s="8" t="str">
@@ -6685,7 +6684,7 @@
         <v/>
       </c>
       <c r="C151" s="4" t="str">
-        <f ca="1">IF(History!A151&lt;&gt;"",SUM(History!C151:OFFSET(History!C151,0,COUNTA(History!151:151)-3)),"")</f>
+        <f ca="1">IF(History!A151&lt;&gt;"",SUM(History!B151:OFFSET(History!B151,0,COUNTA(History!151:151)-2)),"")</f>
         <v/>
       </c>
       <c r="D151" s="8" t="str">
@@ -6729,20 +6728,20 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="19.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -6753,8 +6752,8 @@
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
+      <c r="B2" s="10">
+        <v>0</v>
       </c>
       <c r="C2" s="4">
         <v>-1</v>
@@ -6790,7 +6789,7 @@
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="4">
@@ -6819,7 +6818,7 @@
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="4">
@@ -6842,8 +6841,8 @@
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>30</v>
+      <c r="B5" s="10">
+        <v>-100</v>
       </c>
       <c r="C5" s="4">
         <v>293</v>
@@ -6861,14 +6860,14 @@
         <v>-16</v>
       </c>
       <c r="H5">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="4">
@@ -6897,7 +6896,7 @@
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="4">
@@ -6914,7 +6913,7 @@
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="4">
@@ -6928,7 +6927,7 @@
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="4">
@@ -6966,7 +6965,7 @@
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="4">
@@ -6977,18 +6976,18 @@
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
+      <c r="B11" s="9">
+        <v>-100</v>
       </c>
       <c r="C11" s="4">
-        <v>-140</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="4">
@@ -7022,9 +7021,9 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="4">
@@ -7040,10 +7039,10 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="B14" s="9">
+        <v>-100</v>
       </c>
       <c r="C14" s="4">
         <v>286</v>
@@ -7055,14 +7054,14 @@
         <v>-53</v>
       </c>
       <c r="F14" s="4">
-        <v>-187</v>
+        <v>-87</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="4">
@@ -7077,9 +7076,9 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="4">
@@ -7091,9 +7090,9 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="4">
@@ -7105,9 +7104,9 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="4">
@@ -7119,9 +7118,9 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="4">

--- a/uno/uno_record.xlsx
+++ b/uno/uno_record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ren\Desktop\色々\Data\Discord\HONDA Bot\uno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E96B724-79AF-4D9B-B531-A2244C9A3751}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D845CF9F-BD21-41DF-BC5C-3241D0675E53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5175" yWindow="1260" windowWidth="17130" windowHeight="14070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Records" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>Player ID</t>
   </si>
@@ -56,10 +56,10 @@
     <t>193407417256640512</t>
   </si>
   <si>
-    <t>0</t>
+    <t>573870933236776960</t>
   </si>
   <si>
-    <t>573870933236776960</t>
+    <t>0</t>
   </si>
   <si>
     <t>700027069278716074</t>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>607980121902546945</t>
+  </si>
+  <si>
+    <t>536489035489738784</t>
+  </si>
+  <si>
+    <t>476389055517425664</t>
   </si>
 </sst>
 </file>
@@ -174,7 +180,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -185,13 +191,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -199,14 +199,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -531,38 +531,38 @@
   <cols>
     <col min="1" max="1" width="4.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="6" customWidth="1"/>
-    <col min="8" max="8" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -570,216 +570,216 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="str">
+      <c r="B2" s="7" t="str">
         <f>IF(History!A2&lt;&gt;"",History!A2,"")</f>
         <v>193407417256640512</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <f ca="1">IF(History!A2&lt;&gt;"",SUM(History!B2:OFFSET(History!B2,0,COUNTA(History!2:2)-2)),"")</f>
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="D2" s="8">
         <f t="shared" ref="D2:D33" ca="1" si="0">IFERROR(E2/(E2+F2),"")</f>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="E2" s="4">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="E2" s="3">
         <f ca="1">IF(History!A2&lt;&gt;0,COUNTIF(History!C2:OFFSET(History!C2,0,COUNTA(History!2:2)-3),"&gt;0"),"")</f>
         <v>2</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <f ca="1">IF(History!A2&lt;&gt;0,COUNTIF(History!C2:OFFSET(History!C2,0,COUNTA(History!2:2)-3),"&lt;=0"),"")</f>
-        <v>7</v>
-      </c>
-      <c r="G2" s="6">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4">
         <f ca="1">IF(MAX(History!2:2)&gt;0,MAX(History!C2:OFFSET(History!C2,0,COUNTA(History!2:2)-3)),"")</f>
         <v>164</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="4">
         <f ca="1">IF(History!A2&lt;&gt;0,MIN(History!C2:OFFSET(History!C2,0,COUNTA(History!2:2)-3)),"")</f>
         <v>-77</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="4">
         <f>IF(History!A2&lt;&gt;"",History!B2,"")</f>
         <v>0</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="3">
         <f ca="1">SUM(OFFSET(History!C2,0,COUNT(History!2:2)-IF(COUNT(History!2:2)&lt;=5,COUNT(History!2:2),5)):OFFSET(History!C2,0,COUNT(History!2:2)-1))</f>
-        <v>163</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="str">
+      <c r="B3" s="7" t="str">
         <f>IF(History!A3&lt;&gt;"",History!A3,"")</f>
         <v>573870933236776960</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <f ca="1">IF(History!A3&lt;&gt;"",SUM(History!B3:OFFSET(History!B3,0,COUNTA(History!3:3)-2)),"")</f>
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D3" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="E3" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="E3" s="3">
         <f ca="1">IF(History!A3&lt;&gt;0,COUNTIF(History!C3:OFFSET(History!C3,0,COUNTA(History!3:3)-3),"&gt;0"),"")</f>
         <v>1</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <f ca="1">IF(History!A3&lt;&gt;0,COUNTIF(History!C3:OFFSET(History!C3,0,COUNTA(History!3:3)-3),"&lt;=0"),"")</f>
-        <v>6</v>
-      </c>
-      <c r="G3" s="6">
+        <v>7</v>
+      </c>
+      <c r="G3" s="4">
         <f ca="1">IF(MAX(History!3:3)&gt;0,MAX(History!C3:OFFSET(History!C3,0,COUNTA(History!3:3)-3)),"")</f>
         <v>269</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="4">
         <f ca="1">IF(History!A3&lt;&gt;0,MIN(History!C3:OFFSET(History!C3,0,COUNTA(History!3:3)-3)),"")</f>
         <v>-48</v>
       </c>
-      <c r="I3" s="6" t="str">
+      <c r="I3" s="4" t="str">
         <f>IF(History!A3&lt;&gt;"",History!B3,"")</f>
         <v>0</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <f ca="1">SUM(OFFSET(History!C3,0,COUNT(History!3:3)-IF(COUNT(History!3:3)&lt;=5,COUNT(History!3:3),5)):OFFSET(History!C3,0,COUNT(History!3:3)-1))</f>
-        <v>-145</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="str">
+      <c r="B4" s="7" t="str">
         <f>IF(History!A4&lt;&gt;"",History!A4,"")</f>
         <v>700027069278716074</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <f ca="1">IF(History!A4&lt;&gt;"",SUM(History!B4:OFFSET(History!B4,0,COUNTA(History!4:4)-2)),"")</f>
-        <v>-110</v>
+        <v>-132</v>
       </c>
       <c r="D4" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <f ca="1">IF(History!A4&lt;&gt;0,COUNTIF(History!C4:OFFSET(History!C4,0,COUNTA(History!4:4)-3),"&gt;0"),"")</f>
         <v>0</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <f ca="1">IF(History!A4&lt;&gt;0,COUNTIF(History!C4:OFFSET(History!C4,0,COUNTA(History!4:4)-3),"&lt;=0"),"")</f>
-        <v>5</v>
-      </c>
-      <c r="G4" s="6" t="str">
+        <v>6</v>
+      </c>
+      <c r="G4" s="4" t="str">
         <f ca="1">IF(MAX(History!4:4)&gt;0,MAX(History!C4:OFFSET(History!C4,0,COUNTA(History!4:4)-3)),"")</f>
         <v/>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="4">
         <f ca="1">IF(History!A4&lt;&gt;0,MIN(History!C4:OFFSET(History!C4,0,COUNTA(History!4:4)-3)),"")</f>
         <v>-52</v>
       </c>
-      <c r="I4" s="6" t="str">
+      <c r="I4" s="4" t="str">
         <f>IF(History!A4&lt;&gt;"",History!B4,"")</f>
         <v>0</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <f ca="1">SUM(OFFSET(History!C4,0,COUNT(History!4:4)-IF(COUNT(History!4:4)&lt;=5,COUNT(History!4:4),5)):OFFSET(History!C4,0,COUNT(History!4:4)-1))</f>
-        <v>-110</v>
+        <v>-130</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="str">
+      <c r="B5" s="7" t="str">
         <f>IF(History!A5&lt;&gt;"",History!A5,"")</f>
         <v>746782075012644874</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <f ca="1">IF(History!A5&lt;&gt;"",SUM(History!B5:OFFSET(History!B5,0,COUNTA(History!5:5)-2)),"")</f>
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="D5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E5" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="E5" s="3">
         <f ca="1">IF(History!A5&lt;&gt;0,COUNTIF(History!C5:OFFSET(History!C5,0,COUNTA(History!5:5)-3),"&gt;0"),"")</f>
         <v>2</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <f ca="1">IF(History!A5&lt;&gt;0,COUNTIF(History!C5:OFFSET(History!C5,0,COUNTA(History!5:5)-3),"&lt;=0"),"")</f>
-        <v>4</v>
-      </c>
-      <c r="G5" s="6">
+        <v>6</v>
+      </c>
+      <c r="G5" s="4">
         <f ca="1">IF(MAX(History!5:5)&gt;0,MAX(History!C5:OFFSET(History!C5,0,COUNTA(History!5:5)-3)),"")</f>
         <v>293</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="4">
         <f ca="1">IF(History!A5&lt;&gt;0,MIN(History!C5:OFFSET(History!C5,0,COUNTA(History!5:5)-3)),"")</f>
         <v>-129</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="4">
         <f>IF(History!A5&lt;&gt;"",History!B5,"")</f>
         <v>-100</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <f ca="1">SUM(OFFSET(History!C5,0,COUNT(History!5:5)-IF(COUNT(History!5:5)&lt;=5,COUNT(History!5:5),5)):OFFSET(History!C5,0,COUNT(History!5:5)-1))</f>
-        <v>124</v>
+        <v>-69</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="str">
+      <c r="B6" s="7" t="str">
         <f>IF(History!A6&lt;&gt;"",History!A6,"")</f>
         <v>587660412212740106</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <f ca="1">IF(History!A6&lt;&gt;"",SUM(History!B6:OFFSET(History!B6,0,COUNTA(History!6:6)-2)),"")</f>
-        <v>-37</v>
+        <v>-45</v>
       </c>
       <c r="D6" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="E6" s="4">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E6" s="3">
         <f ca="1">IF(History!A6&lt;&gt;0,COUNTIF(History!C6:OFFSET(History!C6,0,COUNTA(History!6:6)-3),"&gt;0"),"")</f>
         <v>1</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <f ca="1">IF(History!A6&lt;&gt;0,COUNTIF(History!C6:OFFSET(History!C6,0,COUNTA(History!6:6)-3),"&lt;=0"),"")</f>
-        <v>4</v>
-      </c>
-      <c r="G6" s="6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4">
         <f ca="1">IF(MAX(History!6:6)&gt;0,MAX(History!C6:OFFSET(History!C6,0,COUNTA(History!6:6)-3)),"")</f>
         <v>130</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="4">
         <f ca="1">IF(History!A6&lt;&gt;0,MIN(History!C6:OFFSET(History!C6,0,COUNTA(History!6:6)-3)),"")</f>
         <v>-76</v>
       </c>
-      <c r="I6" s="6" t="str">
+      <c r="I6" s="4" t="str">
         <f>IF(History!A6&lt;&gt;"",History!B6,"")</f>
         <v>0</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <f ca="1">SUM(OFFSET(History!C6,0,COUNT(History!6:6)-IF(COUNT(History!6:6)&lt;=5,COUNT(History!6:6),5)):OFFSET(History!C6,0,COUNT(History!6:6)-1))</f>
-        <v>-37</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="str">
+      <c r="B7" s="7" t="str">
         <f>IF(History!A7&lt;&gt;"",History!A7,"")</f>
         <v>598600835664183297</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <f ca="1">IF(History!A7&lt;&gt;"",SUM(History!B7:OFFSET(History!B7,0,COUNTA(History!7:7)-2)),"")</f>
         <v>-156</v>
       </c>
@@ -787,27 +787,27 @@
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <f ca="1">IF(History!A7&lt;&gt;0,COUNTIF(History!C7:OFFSET(History!C7,0,COUNTA(History!7:7)-3),"&gt;0"),"")</f>
         <v>0</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <f ca="1">IF(History!A7&lt;&gt;0,COUNTIF(History!C7:OFFSET(History!C7,0,COUNTA(History!7:7)-3),"&lt;=0"),"")</f>
         <v>3</v>
       </c>
-      <c r="G7" s="6" t="str">
+      <c r="G7" s="4" t="str">
         <f ca="1">IF(MAX(History!7:7)&gt;0,MAX(History!C7:OFFSET(History!C7,0,COUNTA(History!7:7)-3)),"")</f>
         <v/>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="4">
         <f ca="1">IF(History!A7&lt;&gt;0,MIN(History!C7:OFFSET(History!C7,0,COUNTA(History!7:7)-3)),"")</f>
         <v>-71</v>
       </c>
-      <c r="I7" s="6" t="str">
+      <c r="I7" s="4" t="str">
         <f>IF(History!A7&lt;&gt;"",History!B7,"")</f>
         <v>0</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <f ca="1">SUM(OFFSET(History!C7,0,COUNT(History!7:7)-IF(COUNT(History!7:7)&lt;=5,COUNT(History!7:7),5)):OFFSET(History!C7,0,COUNT(History!7:7)-1))</f>
         <v>-156</v>
       </c>
@@ -816,11 +816,11 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="str">
+      <c r="B8" s="7" t="str">
         <f>IF(History!A8&lt;&gt;"",History!A8,"")</f>
         <v>758948042946248755</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <f ca="1">IF(History!A8&lt;&gt;"",SUM(History!B8:OFFSET(History!B8,0,COUNTA(History!8:8)-2)),"")</f>
         <v>-108</v>
       </c>
@@ -828,27 +828,27 @@
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <f ca="1">IF(History!A8&lt;&gt;0,COUNTIF(History!C8:OFFSET(History!C8,0,COUNTA(History!8:8)-3),"&gt;0"),"")</f>
         <v>0</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <f ca="1">IF(History!A8&lt;&gt;0,COUNTIF(History!C8:OFFSET(History!C8,0,COUNTA(History!8:8)-3),"&lt;=0"),"")</f>
         <v>2</v>
       </c>
-      <c r="G8" s="6" t="str">
+      <c r="G8" s="4" t="str">
         <f ca="1">IF(MAX(History!8:8)&gt;0,MAX(History!C8:OFFSET(History!C8,0,COUNTA(History!8:8)-3)),"")</f>
         <v/>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="4">
         <f ca="1">IF(History!A8&lt;&gt;0,MIN(History!C8:OFFSET(History!C8,0,COUNTA(History!8:8)-3)),"")</f>
         <v>-102</v>
       </c>
-      <c r="I8" s="6" t="str">
+      <c r="I8" s="4" t="str">
         <f>IF(History!A8&lt;&gt;"",History!B8,"")</f>
         <v>0</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <f ca="1">SUM(OFFSET(History!C8,0,COUNT(History!8:8)-IF(COUNT(History!8:8)&lt;=5,COUNT(History!8:8),5)):OFFSET(History!C8,0,COUNT(History!8:8)-1))</f>
         <v>-108</v>
       </c>
@@ -857,93 +857,93 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="str">
+      <c r="B9" s="7" t="str">
         <f>IF(History!A9&lt;&gt;"",History!A9,"")</f>
         <v>700031411049988197</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <f ca="1">IF(History!A9&lt;&gt;"",SUM(History!B9:OFFSET(History!B9,0,COUNTA(History!9:9)-2)),"")</f>
-        <v>-210</v>
+        <v>-324</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <f ca="1">IF(History!A9&lt;&gt;0,COUNTIF(History!C9:OFFSET(History!C9,0,COUNTA(History!9:9)-3),"&gt;0"),"")</f>
         <v>0</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <f ca="1">IF(History!A9&lt;&gt;0,COUNTIF(History!C9:OFFSET(History!C9,0,COUNTA(History!9:9)-3),"&lt;=0"),"")</f>
-        <v>9</v>
-      </c>
-      <c r="G9" s="6" t="str">
+        <v>11</v>
+      </c>
+      <c r="G9" s="4" t="str">
         <f ca="1">IF(MAX(History!9:9)&gt;0,MAX(History!C9:OFFSET(History!C9,0,COUNTA(History!9:9)-3)),"")</f>
         <v/>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="4">
         <f ca="1">IF(History!A9&lt;&gt;0,MIN(History!C9:OFFSET(History!C9,0,COUNTA(History!9:9)-3)),"")</f>
-        <v>-73</v>
-      </c>
-      <c r="I9" s="6" t="str">
+        <v>-102</v>
+      </c>
+      <c r="I9" s="4" t="str">
         <f>IF(History!A9&lt;&gt;"",History!B9,"")</f>
         <v>0</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <f ca="1">SUM(OFFSET(History!C9,0,COUNT(History!9:9)-IF(COUNT(History!9:9)&lt;=5,COUNT(History!9:9),5)):OFFSET(History!C9,0,COUNT(History!9:9)-1))</f>
-        <v>-145</v>
+        <v>-204</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="str">
+      <c r="B10" s="7" t="str">
         <f>IF(History!A10&lt;&gt;"",History!A10,"")</f>
         <v>612167459201351686</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <f ca="1">IF(History!A10&lt;&gt;"",SUM(History!B10:OFFSET(History!B10,0,COUNTA(History!10:10)-2)),"")</f>
-        <v>-25</v>
+        <v>-199</v>
       </c>
       <c r="D10" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <f ca="1">IF(History!A10&lt;&gt;0,COUNTIF(History!C10:OFFSET(History!C10,0,COUNTA(History!10:10)-3),"&gt;0"),"")</f>
         <v>0</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <f ca="1">IF(History!A10&lt;&gt;0,COUNTIF(History!C10:OFFSET(History!C10,0,COUNTA(History!10:10)-3),"&lt;=0"),"")</f>
-        <v>1</v>
-      </c>
-      <c r="G10" s="6" t="str">
+        <v>3</v>
+      </c>
+      <c r="G10" s="4" t="str">
         <f ca="1">IF(MAX(History!10:10)&gt;0,MAX(History!C10:OFFSET(History!C10,0,COUNTA(History!10:10)-3)),"")</f>
         <v/>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="4">
         <f ca="1">IF(History!A10&lt;&gt;0,MIN(History!C10:OFFSET(History!C10,0,COUNTA(History!10:10)-3)),"")</f>
-        <v>-25</v>
-      </c>
-      <c r="I10" s="6" t="str">
+        <v>-92</v>
+      </c>
+      <c r="I10" s="4" t="str">
         <f>IF(History!A10&lt;&gt;"",History!B10,"")</f>
         <v>0</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <f ca="1">SUM(OFFSET(History!C10,0,COUNT(History!10:10)-IF(COUNT(History!10:10)&lt;=5,COUNT(History!10:10),5)):OFFSET(History!C10,0,COUNT(History!10:10)-1))</f>
-        <v>-25</v>
+        <v>-199</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="str">
+      <c r="B11" s="7" t="str">
         <f>IF(History!A11&lt;&gt;"",History!A11,"")</f>
         <v>657835936071286784</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <f ca="1">IF(History!A11&lt;&gt;"",SUM(History!B11:OFFSET(History!B11,0,COUNTA(History!11:11)-2)),"")</f>
         <v>-140</v>
       </c>
@@ -951,27 +951,27 @@
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <f ca="1">IF(History!A11&lt;&gt;0,COUNTIF(History!C11:OFFSET(History!C11,0,COUNTA(History!11:11)-3),"&gt;0"),"")</f>
         <v>0</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <f ca="1">IF(History!A11&lt;&gt;0,COUNTIF(History!C11:OFFSET(History!C11,0,COUNTA(History!11:11)-3),"&lt;=0"),"")</f>
         <v>1</v>
       </c>
-      <c r="G11" s="6" t="str">
+      <c r="G11" s="4" t="str">
         <f ca="1">IF(MAX(History!11:11)&gt;0,MAX(History!C11:OFFSET(History!C11,0,COUNTA(History!11:11)-3)),"")</f>
         <v/>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="4">
         <f ca="1">IF(History!A11&lt;&gt;0,MIN(History!C11:OFFSET(History!C11,0,COUNTA(History!11:11)-3)),"")</f>
         <v>-40</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="4">
         <f>IF(History!A11&lt;&gt;"",History!B11,"")</f>
         <v>-100</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <f ca="1">IF(History!A11&lt;&gt;"",SUM(OFFSET(History!C11,0,COUNT(History!11:11)-IF(COUNT(History!11:11)&lt;=5,COUNT(History!11:11),5)):OFFSET(History!C11,0,COUNT(History!11:11)-1)),"")</f>
         <v>-40</v>
       </c>
@@ -980,52 +980,52 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="str">
+      <c r="B12" s="7" t="str">
         <f>IF(History!A12&lt;&gt;"",History!A12,"")</f>
         <v>559289569825259521</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <f ca="1">IF(History!A12&lt;&gt;"",SUM(History!B12:OFFSET(History!B12,0,COUNTA(History!12:12)-2)),"")</f>
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="D12" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="E12" s="4">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E12" s="3">
         <f ca="1">IF(History!A12&lt;&gt;0,COUNTIF(History!C12:OFFSET(History!C12,0,COUNTA(History!12:12)-3),"&gt;0"),"")</f>
         <v>1</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <f ca="1">IF(History!A12&lt;&gt;0,COUNTIF(History!C12:OFFSET(History!C12,0,COUNTA(History!12:12)-3),"&lt;=0"),"")</f>
-        <v>7</v>
-      </c>
-      <c r="G12" s="6">
+        <v>8</v>
+      </c>
+      <c r="G12" s="4">
         <f ca="1">IF(MAX(History!12:12)&gt;0,MAX(History!C12:OFFSET(History!C12,0,COUNTA(History!12:12)-3)),"")</f>
         <v>255</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="4">
         <f ca="1">IF(History!A12&lt;&gt;0,MIN(History!C12:OFFSET(History!C12,0,COUNTA(History!12:12)-3)),"")</f>
         <v>-56</v>
       </c>
-      <c r="I12" s="6" t="str">
+      <c r="I12" s="4" t="str">
         <f>IF(History!A12&lt;&gt;"",History!B12,"")</f>
         <v>0</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <f ca="1">IF(History!A12&lt;&gt;"",SUM(OFFSET(History!C12,0,COUNT(History!12:12)-IF(COUNT(History!12:12)&lt;=5,COUNT(History!12:12),5)):OFFSET(History!C12,0,COUNT(History!12:12)-1)),"")</f>
-        <v>238</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="str">
+      <c r="B13" s="7" t="str">
         <f>IF(History!A13&lt;&gt;"",History!A13,"")</f>
         <v>734340367838740561</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <f ca="1">IF(History!A13&lt;&gt;"",SUM(History!B13:OFFSET(History!B13,0,COUNTA(History!13:13)-2)),"")</f>
         <v>-36</v>
       </c>
@@ -1033,27 +1033,27 @@
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <f ca="1">IF(History!A13&lt;&gt;0,COUNTIF(History!C13:OFFSET(History!C13,0,COUNTA(History!13:13)-3),"&gt;0"),"")</f>
         <v>0</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <f ca="1">IF(History!A13&lt;&gt;0,COUNTIF(History!C13:OFFSET(History!C13,0,COUNTA(History!13:13)-3),"&lt;=0"),"")</f>
         <v>3</v>
       </c>
-      <c r="G13" s="6" t="str">
+      <c r="G13" s="4" t="str">
         <f ca="1">IF(MAX(History!13:13)&gt;0,MAX(History!C13:OFFSET(History!C13,0,COUNTA(History!13:13)-3)),"")</f>
         <v/>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="4">
         <f ca="1">IF(History!A13&lt;&gt;0,MIN(History!C13:OFFSET(History!C13,0,COUNTA(History!13:13)-3)),"")</f>
         <v>-26</v>
       </c>
-      <c r="I13" s="6" t="str">
+      <c r="I13" s="4" t="str">
         <f>IF(History!A13&lt;&gt;"",History!B13,"")</f>
         <v>0</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <f ca="1">IF(History!A13&lt;&gt;"",SUM(OFFSET(History!C13,0,COUNT(History!13:13)-IF(COUNT(History!13:13)&lt;=5,COUNT(History!13:13),5)):OFFSET(History!C13,0,COUNT(History!13:13)-1)),"")</f>
         <v>-36</v>
       </c>
@@ -1062,52 +1062,52 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="str">
+      <c r="B14" s="7" t="str">
         <f>IF(History!A14&lt;&gt;"",History!A14,"")</f>
         <v>699612508763193425</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <f ca="1">IF(History!A14&lt;&gt;"",SUM(History!B14:OFFSET(History!B14,0,COUNTA(History!14:14)-2)),"")</f>
-        <v>19</v>
+        <v>831</v>
       </c>
       <c r="D14" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="E14" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="3">
         <f ca="1">IF(History!A14&lt;&gt;0,COUNTIF(History!C14:OFFSET(History!C14,0,COUNTA(History!14:14)-3),"&gt;0"),"")</f>
-        <v>1</v>
-      </c>
-      <c r="F14" s="4">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
         <f ca="1">IF(History!A14&lt;&gt;0,COUNTIF(History!C14:OFFSET(History!C14,0,COUNTA(History!14:14)-3),"&lt;=0"),"")</f>
         <v>3</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="4">
         <f ca="1">IF(MAX(History!14:14)&gt;0,MAX(History!C14:OFFSET(History!C14,0,COUNTA(History!14:14)-3)),"")</f>
-        <v>286</v>
-      </c>
-      <c r="H14" s="6">
+        <v>437</v>
+      </c>
+      <c r="H14" s="4">
         <f ca="1">IF(History!A14&lt;&gt;0,MIN(History!C14:OFFSET(History!C14,0,COUNTA(History!14:14)-3)),"")</f>
         <v>-87</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="4">
         <f>IF(History!A14&lt;&gt;"",History!B14,"")</f>
         <v>-100</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
         <f ca="1">IF(History!A14&lt;&gt;"",SUM(OFFSET(History!C14,0,COUNT(History!14:14)-IF(COUNT(History!14:14)&lt;=5,COUNT(History!14:14),5)):OFFSET(History!C14,0,COUNT(History!14:14)-1)),"")</f>
-        <v>119</v>
+        <v>672</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="str">
+      <c r="B15" s="7" t="str">
         <f>IF(History!A15&lt;&gt;"",History!A15,"")</f>
         <v>703831366332317756</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <f ca="1">IF(History!A15&lt;&gt;"",SUM(History!B15:OFFSET(History!B15,0,COUNTA(History!15:15)-2)),"")</f>
         <v>110</v>
       </c>
@@ -1115,27 +1115,27 @@
         <f t="shared" ca="1" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <f ca="1">IF(History!A15&lt;&gt;0,COUNTIF(History!C15:OFFSET(History!C15,0,COUNTA(History!15:15)-3),"&gt;0"),"")</f>
         <v>1</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <f ca="1">IF(History!A15&lt;&gt;0,COUNTIF(History!C15:OFFSET(History!C15,0,COUNTA(History!15:15)-3),"&lt;=0"),"")</f>
         <v>2</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="4">
         <f ca="1">IF(MAX(History!15:15)&gt;0,MAX(History!C15:OFFSET(History!C15,0,COUNTA(History!15:15)-3)),"")</f>
         <v>158</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="4">
         <f ca="1">IF(History!A15&lt;&gt;0,MIN(History!C15:OFFSET(History!C15,0,COUNTA(History!15:15)-3)),"")</f>
         <v>-32</v>
       </c>
-      <c r="I15" s="6" t="str">
+      <c r="I15" s="4" t="str">
         <f>IF(History!A15&lt;&gt;"",History!B15,"")</f>
         <v>0</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3">
         <f ca="1">IF(History!A15&lt;&gt;"",SUM(OFFSET(History!C15,0,COUNT(History!15:15)-IF(COUNT(History!15:15)&lt;=5,COUNT(History!15:15),5)):OFFSET(History!C15,0,COUNT(History!15:15)-1)),"")</f>
         <v>110</v>
       </c>
@@ -1144,93 +1144,93 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="str">
+      <c r="B16" s="7" t="str">
         <f>IF(History!A16&lt;&gt;"",History!A16,"")</f>
         <v>726345969204985869</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <f ca="1">IF(History!A16&lt;&gt;"",SUM(History!B16:OFFSET(History!B16,0,COUNTA(History!16:16)-2)),"")</f>
-        <v>-53</v>
+        <v>-125</v>
       </c>
       <c r="D16" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <f ca="1">IF(History!A16&lt;&gt;0,COUNTIF(History!C16:OFFSET(History!C16,0,COUNTA(History!16:16)-3),"&gt;0"),"")</f>
         <v>0</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <f ca="1">IF(History!A16&lt;&gt;0,COUNTIF(History!C16:OFFSET(History!C16,0,COUNTA(History!16:16)-3),"&lt;=0"),"")</f>
-        <v>2</v>
-      </c>
-      <c r="G16" s="6" t="str">
+        <v>4</v>
+      </c>
+      <c r="G16" s="4" t="str">
         <f ca="1">IF(MAX(History!16:16)&gt;0,MAX(History!C16:OFFSET(History!C16,0,COUNTA(History!16:16)-3)),"")</f>
         <v/>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="4">
         <f ca="1">IF(History!A16&lt;&gt;0,MIN(History!C16:OFFSET(History!C16,0,COUNTA(History!16:16)-3)),"")</f>
-        <v>-32</v>
-      </c>
-      <c r="I16" s="6" t="str">
+        <v>-51</v>
+      </c>
+      <c r="I16" s="4" t="str">
         <f>IF(History!A16&lt;&gt;"",History!B16,"")</f>
         <v>0</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="3">
         <f ca="1">IF(History!A16&lt;&gt;"",SUM(OFFSET(History!C16,0,COUNT(History!16:16)-IF(COUNT(History!16:16)&lt;=5,COUNT(History!16:16),5)):OFFSET(History!C16,0,COUNT(History!16:16)-1)),"")</f>
-        <v>-53</v>
+        <v>-125</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="str">
+      <c r="B17" s="7" t="str">
         <f>IF(History!A17&lt;&gt;"",History!A17,"")</f>
         <v>582616639820922939</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <f ca="1">IF(History!A17&lt;&gt;"",SUM(History!B17:OFFSET(History!B17,0,COUNTA(History!17:17)-2)),"")</f>
-        <v>-32</v>
+        <v>-113</v>
       </c>
       <c r="D17" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <f ca="1">IF(History!A17&lt;&gt;0,COUNTIF(History!C17:OFFSET(History!C17,0,COUNTA(History!17:17)-3),"&gt;0"),"")</f>
         <v>0</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <f ca="1">IF(History!A17&lt;&gt;0,COUNTIF(History!C17:OFFSET(History!C17,0,COUNTA(History!17:17)-3),"&lt;=0"),"")</f>
-        <v>2</v>
-      </c>
-      <c r="G17" s="6" t="str">
+        <v>4</v>
+      </c>
+      <c r="G17" s="4" t="str">
         <f ca="1">IF(MAX(History!17:17)&gt;0,MAX(History!C17:OFFSET(History!C17,0,COUNTA(History!17:17)-3)),"")</f>
         <v/>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="4">
         <f ca="1">IF(History!A17&lt;&gt;0,MIN(History!C17:OFFSET(History!C17,0,COUNTA(History!17:17)-3)),"")</f>
-        <v>-29</v>
-      </c>
-      <c r="I17" s="6" t="str">
+        <v>-77</v>
+      </c>
+      <c r="I17" s="4" t="str">
         <f>IF(History!A17&lt;&gt;"",History!B17,"")</f>
         <v>0</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
         <f ca="1">IF(History!A17&lt;&gt;"",SUM(OFFSET(History!C17,0,COUNT(History!17:17)-IF(COUNT(History!17:17)&lt;=5,COUNT(History!17:17),5)):OFFSET(History!C17,0,COUNT(History!17:17)-1)),"")</f>
-        <v>-32</v>
+        <v>-113</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="str">
+      <c r="B18" s="7" t="str">
         <f>IF(History!A18&lt;&gt;"",History!A18,"")</f>
         <v>713420616254095460</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <f ca="1">IF(History!A18&lt;&gt;"",SUM(History!B18:OFFSET(History!B18,0,COUNTA(History!18:18)-2)),"")</f>
         <v>-37</v>
       </c>
@@ -1238,27 +1238,27 @@
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <f ca="1">IF(History!A18&lt;&gt;0,COUNTIF(History!C18:OFFSET(History!C18,0,COUNTA(History!18:18)-3),"&gt;0"),"")</f>
         <v>0</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <f ca="1">IF(History!A18&lt;&gt;0,COUNTIF(History!C18:OFFSET(History!C18,0,COUNTA(History!18:18)-3),"&lt;=0"),"")</f>
         <v>2</v>
       </c>
-      <c r="G18" s="6" t="str">
+      <c r="G18" s="4" t="str">
         <f ca="1">IF(MAX(History!18:18)&gt;0,MAX(History!C18:OFFSET(History!C18,0,COUNTA(History!18:18)-3)),"")</f>
         <v/>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="4">
         <f ca="1">IF(History!A18&lt;&gt;0,MIN(History!C18:OFFSET(History!C18,0,COUNTA(History!18:18)-3)),"")</f>
         <v>-29</v>
       </c>
-      <c r="I18" s="6" t="str">
+      <c r="I18" s="4" t="str">
         <f>IF(History!A18&lt;&gt;"",History!B18,"")</f>
         <v>0</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="3">
         <f ca="1">IF(History!A18&lt;&gt;"",SUM(OFFSET(History!C18,0,COUNT(History!18:18)-IF(COUNT(History!18:18)&lt;=5,COUNT(History!18:18),5)):OFFSET(History!C18,0,COUNT(History!18:18)-1)),"")</f>
         <v>-37</v>
       </c>
@@ -1267,11 +1267,11 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="str">
+      <c r="B19" s="7" t="str">
         <f>IF(History!A19&lt;&gt;"",History!A19,"")</f>
         <v>607980121902546945</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <f ca="1">IF(History!A19&lt;&gt;"",SUM(History!B19:OFFSET(History!B19,0,COUNTA(History!19:19)-2)),"")</f>
         <v>-77</v>
       </c>
@@ -1279,27 +1279,27 @@
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <f ca="1">IF(History!A19&lt;&gt;0,COUNTIF(History!C19:OFFSET(History!C19,0,COUNTA(History!19:19)-3),"&gt;0"),"")</f>
         <v>0</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <f ca="1">IF(History!A19&lt;&gt;0,COUNTIF(History!C19:OFFSET(History!C19,0,COUNTA(History!19:19)-3),"&lt;=0"),"")</f>
         <v>1</v>
       </c>
-      <c r="G19" s="6" t="str">
+      <c r="G19" s="4" t="str">
         <f ca="1">IF(MAX(History!19:19)&gt;0,MAX(History!C19:OFFSET(History!C19,0,COUNTA(History!19:19)-3)),"")</f>
         <v/>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="4">
         <f ca="1">IF(History!A19&lt;&gt;0,MIN(History!C19:OFFSET(History!C19,0,COUNTA(History!19:19)-3)),"")</f>
         <v>-77</v>
       </c>
-      <c r="I19" s="6" t="str">
+      <c r="I19" s="4" t="str">
         <f>IF(History!A19&lt;&gt;"",History!B19,"")</f>
         <v>0</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="3">
         <f ca="1">IF(History!A19&lt;&gt;"",SUM(OFFSET(History!C19,0,COUNT(History!19:19)-IF(COUNT(History!19:19)&lt;=5,COUNT(History!19:19),5)):OFFSET(History!C19,0,COUNT(History!19:19)-1)),"")</f>
         <v>-77</v>
       </c>
@@ -1308,93 +1308,93 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="str">
+      <c r="B20" s="7" t="str">
         <f>IF(History!A20&lt;&gt;"",History!A20,"")</f>
-        <v/>
-      </c>
-      <c r="C20" s="4" t="str">
+        <v>536489035489738784</v>
+      </c>
+      <c r="C20" s="3">
         <f ca="1">IF(History!A20&lt;&gt;"",SUM(History!B20:OFFSET(History!B20,0,COUNTA(History!20:20)-2)),"")</f>
-        <v/>
-      </c>
-      <c r="D20" s="8" t="str">
+        <v>-69</v>
+      </c>
+      <c r="D20" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="E20" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <f ca="1">IF(History!A20&lt;&gt;0,COUNTIF(History!C20:OFFSET(History!C20,0,COUNTA(History!20:20)-3),"&gt;0"),"")</f>
-        <v/>
-      </c>
-      <c r="F20" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <f ca="1">IF(History!A20&lt;&gt;0,COUNTIF(History!C20:OFFSET(History!C20,0,COUNTA(History!20:20)-3),"&lt;=0"),"")</f>
-        <v/>
-      </c>
-      <c r="G20" s="6" t="str">
+        <v>2</v>
+      </c>
+      <c r="G20" s="4" t="str">
         <f ca="1">IF(MAX(History!20:20)&gt;0,MAX(History!C20:OFFSET(History!C20,0,COUNTA(History!20:20)-3)),"")</f>
         <v/>
       </c>
-      <c r="H20" s="6" t="str">
+      <c r="H20" s="4">
         <f ca="1">IF(History!A20&lt;&gt;0,MIN(History!C20:OFFSET(History!C20,0,COUNTA(History!20:20)-3)),"")</f>
-        <v/>
-      </c>
-      <c r="I20" s="6" t="str">
+        <v>-46</v>
+      </c>
+      <c r="I20" s="4">
         <f>IF(History!A20&lt;&gt;"",History!B20,"")</f>
-        <v/>
-      </c>
-      <c r="J20" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <f ca="1">IF(History!A20&lt;&gt;"",SUM(OFFSET(History!C20,0,COUNT(History!20:20)-IF(COUNT(History!20:20)&lt;=5,COUNT(History!20:20),5)):OFFSET(History!C20,0,COUNT(History!20:20)-1)),"")</f>
-        <v/>
+        <v>-69</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="str">
+      <c r="B21" s="7" t="str">
         <f>IF(History!A21&lt;&gt;"",History!A21,"")</f>
-        <v/>
-      </c>
-      <c r="C21" s="4" t="str">
+        <v>476389055517425664</v>
+      </c>
+      <c r="C21" s="3">
         <f ca="1">IF(History!A21&lt;&gt;"",SUM(History!B21:OFFSET(History!B21,0,COUNTA(History!21:21)-2)),"")</f>
-        <v/>
-      </c>
-      <c r="D21" s="8" t="str">
+        <v>-143</v>
+      </c>
+      <c r="D21" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="E21" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
         <f ca="1">IF(History!A21&lt;&gt;0,COUNTIF(History!C21:OFFSET(History!C21,0,COUNTA(History!21:21)-3),"&gt;0"),"")</f>
-        <v/>
-      </c>
-      <c r="F21" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <f ca="1">IF(History!A21&lt;&gt;0,COUNTIF(History!C21:OFFSET(History!C21,0,COUNTA(History!21:21)-3),"&lt;=0"),"")</f>
-        <v/>
-      </c>
-      <c r="G21" s="6" t="str">
+        <v>2</v>
+      </c>
+      <c r="G21" s="4" t="str">
         <f ca="1">IF(MAX(History!21:21)&gt;0,MAX(History!C21:OFFSET(History!C21,0,COUNTA(History!21:21)-3)),"")</f>
         <v/>
       </c>
-      <c r="H21" s="6" t="str">
+      <c r="H21" s="4">
         <f ca="1">IF(History!A21&lt;&gt;0,MIN(History!C21:OFFSET(History!C21,0,COUNTA(History!21:21)-3)),"")</f>
-        <v/>
-      </c>
-      <c r="I21" s="6" t="str">
+        <v>-85</v>
+      </c>
+      <c r="I21" s="4">
         <f>IF(History!A21&lt;&gt;"",History!B21,"")</f>
-        <v/>
-      </c>
-      <c r="J21" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <f ca="1">IF(History!A21&lt;&gt;"",SUM(OFFSET(History!C21,0,COUNT(History!21:21)-IF(COUNT(History!21:21)&lt;=5,COUNT(History!21:21),5)):OFFSET(History!C21,0,COUNT(History!21:21)-1)),"")</f>
-        <v/>
+        <v>-143</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="5" t="str">
+      <c r="B22" s="7" t="str">
         <f>IF(History!A22&lt;&gt;"",History!A22,"")</f>
         <v/>
       </c>
-      <c r="C22" s="4" t="str">
+      <c r="C22" s="3" t="str">
         <f ca="1">IF(History!A22&lt;&gt;"",SUM(History!B22:OFFSET(History!B22,0,COUNTA(History!22:22)-2)),"")</f>
         <v/>
       </c>
@@ -1402,27 +1402,27 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="E22" s="4" t="str">
+      <c r="E22" s="3" t="str">
         <f ca="1">IF(History!A22&lt;&gt;0,COUNTIF(History!C22:OFFSET(History!C22,0,COUNTA(History!22:22)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F22" s="4" t="str">
+      <c r="F22" s="3" t="str">
         <f ca="1">IF(History!A22&lt;&gt;0,COUNTIF(History!C22:OFFSET(History!C22,0,COUNTA(History!22:22)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G22" s="6" t="str">
+      <c r="G22" s="4" t="str">
         <f ca="1">IF(MAX(History!22:22)&gt;0,MAX(History!C22:OFFSET(History!C22,0,COUNTA(History!22:22)-3)),"")</f>
         <v/>
       </c>
-      <c r="H22" s="6" t="str">
+      <c r="H22" s="4" t="str">
         <f ca="1">IF(History!A22&lt;&gt;0,MIN(History!C22:OFFSET(History!C22,0,COUNTA(History!22:22)-3)),"")</f>
         <v/>
       </c>
-      <c r="I22" s="6" t="str">
+      <c r="I22" s="4" t="str">
         <f>IF(History!A22&lt;&gt;"",History!B22,"")</f>
         <v/>
       </c>
-      <c r="J22" s="4" t="str">
+      <c r="J22" s="3" t="str">
         <f ca="1">IF(History!A22&lt;&gt;"",SUM(OFFSET(History!C22,0,COUNT(History!22:22)-IF(COUNT(History!22:22)&lt;=5,COUNT(History!22:22),5)):OFFSET(History!C22,0,COUNT(History!22:22)-1)),"")</f>
         <v/>
       </c>
@@ -1431,11 +1431,11 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="5" t="str">
+      <c r="B23" s="7" t="str">
         <f>IF(History!A23&lt;&gt;"",History!A23,"")</f>
         <v/>
       </c>
-      <c r="C23" s="4" t="str">
+      <c r="C23" s="3" t="str">
         <f ca="1">IF(History!A23&lt;&gt;"",SUM(History!B23:OFFSET(History!B23,0,COUNTA(History!23:23)-2)),"")</f>
         <v/>
       </c>
@@ -1443,27 +1443,27 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="E23" s="4" t="str">
+      <c r="E23" s="3" t="str">
         <f ca="1">IF(History!A23&lt;&gt;0,COUNTIF(History!C23:OFFSET(History!C23,0,COUNTA(History!23:23)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F23" s="4" t="str">
+      <c r="F23" s="3" t="str">
         <f ca="1">IF(History!A23&lt;&gt;0,COUNTIF(History!C23:OFFSET(History!C23,0,COUNTA(History!23:23)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G23" s="6" t="str">
+      <c r="G23" s="4" t="str">
         <f ca="1">IF(MAX(History!23:23)&gt;0,MAX(History!C23:OFFSET(History!C23,0,COUNTA(History!23:23)-3)),"")</f>
         <v/>
       </c>
-      <c r="H23" s="6" t="str">
+      <c r="H23" s="4" t="str">
         <f ca="1">IF(History!A23&lt;&gt;0,MIN(History!C23:OFFSET(History!C23,0,COUNTA(History!23:23)-3)),"")</f>
         <v/>
       </c>
-      <c r="I23" s="6" t="str">
+      <c r="I23" s="4" t="str">
         <f>IF(History!A23&lt;&gt;"",History!B23,"")</f>
         <v/>
       </c>
-      <c r="J23" s="4" t="str">
+      <c r="J23" s="3" t="str">
         <f ca="1">IF(History!A23&lt;&gt;"",SUM(OFFSET(History!C23,0,COUNT(History!23:23)-IF(COUNT(History!23:23)&lt;=5,COUNT(History!23:23),5)):OFFSET(History!C23,0,COUNT(History!23:23)-1)),"")</f>
         <v/>
       </c>
@@ -1472,11 +1472,11 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="5" t="str">
+      <c r="B24" s="7" t="str">
         <f>IF(History!A24&lt;&gt;"",History!A24,"")</f>
         <v/>
       </c>
-      <c r="C24" s="4" t="str">
+      <c r="C24" s="3" t="str">
         <f ca="1">IF(History!A24&lt;&gt;"",SUM(History!B24:OFFSET(History!B24,0,COUNTA(History!24:24)-2)),"")</f>
         <v/>
       </c>
@@ -1484,27 +1484,27 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="E24" s="4" t="str">
+      <c r="E24" s="3" t="str">
         <f ca="1">IF(History!A24&lt;&gt;0,COUNTIF(History!C24:OFFSET(History!C24,0,COUNTA(History!24:24)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F24" s="4" t="str">
+      <c r="F24" s="3" t="str">
         <f ca="1">IF(History!A24&lt;&gt;0,COUNTIF(History!C24:OFFSET(History!C24,0,COUNTA(History!24:24)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G24" s="6" t="str">
+      <c r="G24" s="4" t="str">
         <f ca="1">IF(MAX(History!24:24)&gt;0,MAX(History!C24:OFFSET(History!C24,0,COUNTA(History!24:24)-3)),"")</f>
         <v/>
       </c>
-      <c r="H24" s="6" t="str">
+      <c r="H24" s="4" t="str">
         <f ca="1">IF(History!A24&lt;&gt;0,MIN(History!C24:OFFSET(History!C24,0,COUNTA(History!24:24)-3)),"")</f>
         <v/>
       </c>
-      <c r="I24" s="6" t="str">
+      <c r="I24" s="4" t="str">
         <f>IF(History!A24&lt;&gt;"",History!B24,"")</f>
         <v/>
       </c>
-      <c r="J24" s="4" t="str">
+      <c r="J24" s="3" t="str">
         <f ca="1">IF(History!A24&lt;&gt;"",SUM(OFFSET(History!C24,0,COUNT(History!24:24)-IF(COUNT(History!24:24)&lt;=5,COUNT(History!24:24),5)):OFFSET(History!C24,0,COUNT(History!24:24)-1)),"")</f>
         <v/>
       </c>
@@ -1513,11 +1513,11 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="5" t="str">
+      <c r="B25" s="7" t="str">
         <f>IF(History!A25&lt;&gt;"",History!A25,"")</f>
         <v/>
       </c>
-      <c r="C25" s="4" t="str">
+      <c r="C25" s="3" t="str">
         <f ca="1">IF(History!A25&lt;&gt;"",SUM(History!B25:OFFSET(History!B25,0,COUNTA(History!25:25)-2)),"")</f>
         <v/>
       </c>
@@ -1525,27 +1525,27 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="E25" s="4" t="str">
+      <c r="E25" s="3" t="str">
         <f ca="1">IF(History!A25&lt;&gt;0,COUNTIF(History!C25:OFFSET(History!C25,0,COUNTA(History!25:25)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F25" s="4" t="str">
+      <c r="F25" s="3" t="str">
         <f ca="1">IF(History!A25&lt;&gt;0,COUNTIF(History!C25:OFFSET(History!C25,0,COUNTA(History!25:25)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G25" s="6" t="str">
+      <c r="G25" s="4" t="str">
         <f ca="1">IF(MAX(History!25:25)&gt;0,MAX(History!C25:OFFSET(History!C25,0,COUNTA(History!25:25)-3)),"")</f>
         <v/>
       </c>
-      <c r="H25" s="6" t="str">
+      <c r="H25" s="4" t="str">
         <f ca="1">IF(History!A25&lt;&gt;0,MIN(History!C25:OFFSET(History!C25,0,COUNTA(History!25:25)-3)),"")</f>
         <v/>
       </c>
-      <c r="I25" s="6" t="str">
+      <c r="I25" s="4" t="str">
         <f>IF(History!A25&lt;&gt;"",History!B25,"")</f>
         <v/>
       </c>
-      <c r="J25" s="4" t="str">
+      <c r="J25" s="3" t="str">
         <f ca="1">IF(History!A25&lt;&gt;"",SUM(OFFSET(History!C25,0,COUNT(History!25:25)-IF(COUNT(History!25:25)&lt;=5,COUNT(History!25:25),5)):OFFSET(History!C25,0,COUNT(History!25:25)-1)),"")</f>
         <v/>
       </c>
@@ -1554,11 +1554,11 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="5" t="str">
+      <c r="B26" s="7" t="str">
         <f>IF(History!A26&lt;&gt;"",History!A26,"")</f>
         <v/>
       </c>
-      <c r="C26" s="4" t="str">
+      <c r="C26" s="3" t="str">
         <f ca="1">IF(History!A26&lt;&gt;"",SUM(History!B26:OFFSET(History!B26,0,COUNTA(History!26:26)-2)),"")</f>
         <v/>
       </c>
@@ -1566,27 +1566,27 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="E26" s="4" t="str">
+      <c r="E26" s="3" t="str">
         <f ca="1">IF(History!A26&lt;&gt;0,COUNTIF(History!C26:OFFSET(History!C26,0,COUNTA(History!26:26)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F26" s="4" t="str">
+      <c r="F26" s="3" t="str">
         <f ca="1">IF(History!A26&lt;&gt;0,COUNTIF(History!C26:OFFSET(History!C26,0,COUNTA(History!26:26)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G26" s="6" t="str">
+      <c r="G26" s="4" t="str">
         <f ca="1">IF(MAX(History!26:26)&gt;0,MAX(History!C26:OFFSET(History!C26,0,COUNTA(History!26:26)-3)),"")</f>
         <v/>
       </c>
-      <c r="H26" s="6" t="str">
+      <c r="H26" s="4" t="str">
         <f ca="1">IF(History!A26&lt;&gt;0,MIN(History!C26:OFFSET(History!C26,0,COUNTA(History!26:26)-3)),"")</f>
         <v/>
       </c>
-      <c r="I26" s="6" t="str">
+      <c r="I26" s="4" t="str">
         <f>IF(History!A26&lt;&gt;"",History!B26,"")</f>
         <v/>
       </c>
-      <c r="J26" s="4" t="str">
+      <c r="J26" s="3" t="str">
         <f ca="1">IF(History!A26&lt;&gt;"",SUM(OFFSET(History!C26,0,COUNT(History!26:26)-IF(COUNT(History!26:26)&lt;=5,COUNT(History!26:26),5)):OFFSET(History!C26,0,COUNT(History!26:26)-1)),"")</f>
         <v/>
       </c>
@@ -1595,11 +1595,11 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="5" t="str">
+      <c r="B27" s="7" t="str">
         <f>IF(History!A27&lt;&gt;"",History!A27,"")</f>
         <v/>
       </c>
-      <c r="C27" s="4" t="str">
+      <c r="C27" s="3" t="str">
         <f ca="1">IF(History!A27&lt;&gt;"",SUM(History!B27:OFFSET(History!B27,0,COUNTA(History!27:27)-2)),"")</f>
         <v/>
       </c>
@@ -1607,27 +1607,27 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="E27" s="4" t="str">
+      <c r="E27" s="3" t="str">
         <f ca="1">IF(History!A27&lt;&gt;0,COUNTIF(History!C27:OFFSET(History!C27,0,COUNTA(History!27:27)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F27" s="4" t="str">
+      <c r="F27" s="3" t="str">
         <f ca="1">IF(History!A27&lt;&gt;0,COUNTIF(History!C27:OFFSET(History!C27,0,COUNTA(History!27:27)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G27" s="6" t="str">
+      <c r="G27" s="4" t="str">
         <f ca="1">IF(MAX(History!27:27)&gt;0,MAX(History!C27:OFFSET(History!C27,0,COUNTA(History!27:27)-3)),"")</f>
         <v/>
       </c>
-      <c r="H27" s="6" t="str">
+      <c r="H27" s="4" t="str">
         <f ca="1">IF(History!A27&lt;&gt;0,MIN(History!C27:OFFSET(History!C27,0,COUNTA(History!27:27)-3)),"")</f>
         <v/>
       </c>
-      <c r="I27" s="6" t="str">
+      <c r="I27" s="4" t="str">
         <f>IF(History!A27&lt;&gt;"",History!B27,"")</f>
         <v/>
       </c>
-      <c r="J27" s="4" t="str">
+      <c r="J27" s="3" t="str">
         <f ca="1">IF(History!A27&lt;&gt;"",SUM(OFFSET(History!C27,0,COUNT(History!27:27)-IF(COUNT(History!27:27)&lt;=5,COUNT(History!27:27),5)):OFFSET(History!C27,0,COUNT(History!27:27)-1)),"")</f>
         <v/>
       </c>
@@ -1636,11 +1636,11 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="5" t="str">
+      <c r="B28" s="7" t="str">
         <f>IF(History!A28&lt;&gt;"",History!A28,"")</f>
         <v/>
       </c>
-      <c r="C28" s="4" t="str">
+      <c r="C28" s="3" t="str">
         <f ca="1">IF(History!A28&lt;&gt;"",SUM(History!B28:OFFSET(History!B28,0,COUNTA(History!28:28)-2)),"")</f>
         <v/>
       </c>
@@ -1648,27 +1648,27 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="E28" s="4" t="str">
+      <c r="E28" s="3" t="str">
         <f ca="1">IF(History!A28&lt;&gt;0,COUNTIF(History!C28:OFFSET(History!C28,0,COUNTA(History!28:28)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F28" s="4" t="str">
+      <c r="F28" s="3" t="str">
         <f ca="1">IF(History!A28&lt;&gt;0,COUNTIF(History!C28:OFFSET(History!C28,0,COUNTA(History!28:28)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G28" s="6" t="str">
+      <c r="G28" s="4" t="str">
         <f ca="1">IF(MAX(History!28:28)&gt;0,MAX(History!C28:OFFSET(History!C28,0,COUNTA(History!28:28)-3)),"")</f>
         <v/>
       </c>
-      <c r="H28" s="6" t="str">
+      <c r="H28" s="4" t="str">
         <f ca="1">IF(History!A28&lt;&gt;0,MIN(History!C28:OFFSET(History!C28,0,COUNTA(History!28:28)-3)),"")</f>
         <v/>
       </c>
-      <c r="I28" s="6" t="str">
+      <c r="I28" s="4" t="str">
         <f>IF(History!A28&lt;&gt;"",History!B28,"")</f>
         <v/>
       </c>
-      <c r="J28" s="4" t="str">
+      <c r="J28" s="3" t="str">
         <f ca="1">IF(History!A28&lt;&gt;"",SUM(OFFSET(History!C28,0,COUNT(History!28:28)-IF(COUNT(History!28:28)&lt;=5,COUNT(History!28:28),5)):OFFSET(History!C28,0,COUNT(History!28:28)-1)),"")</f>
         <v/>
       </c>
@@ -1677,11 +1677,11 @@
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="5" t="str">
+      <c r="B29" s="7" t="str">
         <f>IF(History!A29&lt;&gt;"",History!A29,"")</f>
         <v/>
       </c>
-      <c r="C29" s="4" t="str">
+      <c r="C29" s="3" t="str">
         <f ca="1">IF(History!A29&lt;&gt;"",SUM(History!B29:OFFSET(History!B29,0,COUNTA(History!29:29)-2)),"")</f>
         <v/>
       </c>
@@ -1689,27 +1689,27 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="E29" s="4" t="str">
+      <c r="E29" s="3" t="str">
         <f ca="1">IF(History!A29&lt;&gt;0,COUNTIF(History!C29:OFFSET(History!C29,0,COUNTA(History!29:29)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F29" s="4" t="str">
+      <c r="F29" s="3" t="str">
         <f ca="1">IF(History!A29&lt;&gt;0,COUNTIF(History!C29:OFFSET(History!C29,0,COUNTA(History!29:29)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G29" s="6" t="str">
+      <c r="G29" s="4" t="str">
         <f ca="1">IF(MAX(History!29:29)&gt;0,MAX(History!C29:OFFSET(History!C29,0,COUNTA(History!29:29)-3)),"")</f>
         <v/>
       </c>
-      <c r="H29" s="6" t="str">
+      <c r="H29" s="4" t="str">
         <f ca="1">IF(History!A29&lt;&gt;0,MIN(History!C29:OFFSET(History!C29,0,COUNTA(History!29:29)-3)),"")</f>
         <v/>
       </c>
-      <c r="I29" s="6" t="str">
+      <c r="I29" s="4" t="str">
         <f>IF(History!A29&lt;&gt;"",History!B29,"")</f>
         <v/>
       </c>
-      <c r="J29" s="4" t="str">
+      <c r="J29" s="3" t="str">
         <f ca="1">IF(History!A29&lt;&gt;"",SUM(OFFSET(History!C29,0,COUNT(History!29:29)-IF(COUNT(History!29:29)&lt;=5,COUNT(History!29:29),5)):OFFSET(History!C29,0,COUNT(History!29:29)-1)),"")</f>
         <v/>
       </c>
@@ -1718,11 +1718,11 @@
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="5" t="str">
+      <c r="B30" s="7" t="str">
         <f>IF(History!A30&lt;&gt;"",History!A30,"")</f>
         <v/>
       </c>
-      <c r="C30" s="4" t="str">
+      <c r="C30" s="3" t="str">
         <f ca="1">IF(History!A30&lt;&gt;"",SUM(History!B30:OFFSET(History!B30,0,COUNTA(History!30:30)-2)),"")</f>
         <v/>
       </c>
@@ -1730,27 +1730,27 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="E30" s="4" t="str">
+      <c r="E30" s="3" t="str">
         <f ca="1">IF(History!A30&lt;&gt;0,COUNTIF(History!C30:OFFSET(History!C30,0,COUNTA(History!30:30)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F30" s="4" t="str">
+      <c r="F30" s="3" t="str">
         <f ca="1">IF(History!A30&lt;&gt;0,COUNTIF(History!C30:OFFSET(History!C30,0,COUNTA(History!30:30)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G30" s="6" t="str">
+      <c r="G30" s="4" t="str">
         <f ca="1">IF(MAX(History!30:30)&gt;0,MAX(History!C30:OFFSET(History!C30,0,COUNTA(History!30:30)-3)),"")</f>
         <v/>
       </c>
-      <c r="H30" s="6" t="str">
+      <c r="H30" s="4" t="str">
         <f ca="1">IF(History!A30&lt;&gt;0,MIN(History!C30:OFFSET(History!C30,0,COUNTA(History!30:30)-3)),"")</f>
         <v/>
       </c>
-      <c r="I30" s="6" t="str">
+      <c r="I30" s="4" t="str">
         <f>IF(History!A30&lt;&gt;"",History!B30,"")</f>
         <v/>
       </c>
-      <c r="J30" s="4" t="str">
+      <c r="J30" s="3" t="str">
         <f ca="1">IF(History!A30&lt;&gt;"",SUM(OFFSET(History!C30,0,COUNT(History!30:30)-IF(COUNT(History!30:30)&lt;=5,COUNT(History!30:30),5)):OFFSET(History!C30,0,COUNT(History!30:30)-1)),"")</f>
         <v/>
       </c>
@@ -1759,11 +1759,11 @@
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="5" t="str">
+      <c r="B31" s="7" t="str">
         <f>IF(History!A31&lt;&gt;"",History!A31,"")</f>
         <v/>
       </c>
-      <c r="C31" s="4" t="str">
+      <c r="C31" s="3" t="str">
         <f ca="1">IF(History!A31&lt;&gt;"",SUM(History!B31:OFFSET(History!B31,0,COUNTA(History!31:31)-2)),"")</f>
         <v/>
       </c>
@@ -1771,27 +1771,27 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="E31" s="4" t="str">
+      <c r="E31" s="3" t="str">
         <f ca="1">IF(History!A31&lt;&gt;0,COUNTIF(History!C31:OFFSET(History!C31,0,COUNTA(History!31:31)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F31" s="4" t="str">
+      <c r="F31" s="3" t="str">
         <f ca="1">IF(History!A31&lt;&gt;0,COUNTIF(History!C31:OFFSET(History!C31,0,COUNTA(History!31:31)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G31" s="6" t="str">
+      <c r="G31" s="4" t="str">
         <f ca="1">IF(MAX(History!31:31)&gt;0,MAX(History!C31:OFFSET(History!C31,0,COUNTA(History!31:31)-3)),"")</f>
         <v/>
       </c>
-      <c r="H31" s="6" t="str">
+      <c r="H31" s="4" t="str">
         <f ca="1">IF(History!A31&lt;&gt;0,MIN(History!C31:OFFSET(History!C31,0,COUNTA(History!31:31)-3)),"")</f>
         <v/>
       </c>
-      <c r="I31" s="6" t="str">
+      <c r="I31" s="4" t="str">
         <f>IF(History!A31&lt;&gt;"",History!B31,"")</f>
         <v/>
       </c>
-      <c r="J31" s="4" t="str">
+      <c r="J31" s="3" t="str">
         <f ca="1">IF(History!A31&lt;&gt;"",SUM(OFFSET(History!C31,0,COUNT(History!31:31)-IF(COUNT(History!31:31)&lt;=5,COUNT(History!31:31),5)):OFFSET(History!C31,0,COUNT(History!31:31)-1)),"")</f>
         <v/>
       </c>
@@ -1800,11 +1800,11 @@
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="5" t="str">
+      <c r="B32" s="7" t="str">
         <f>IF(History!A32&lt;&gt;"",History!A32,"")</f>
         <v/>
       </c>
-      <c r="C32" s="4" t="str">
+      <c r="C32" s="3" t="str">
         <f ca="1">IF(History!A32&lt;&gt;"",SUM(History!B32:OFFSET(History!B32,0,COUNTA(History!32:32)-2)),"")</f>
         <v/>
       </c>
@@ -1812,27 +1812,27 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="E32" s="4" t="str">
+      <c r="E32" s="3" t="str">
         <f ca="1">IF(History!A32&lt;&gt;0,COUNTIF(History!C32:OFFSET(History!C32,0,COUNTA(History!32:32)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F32" s="4" t="str">
+      <c r="F32" s="3" t="str">
         <f ca="1">IF(History!A32&lt;&gt;0,COUNTIF(History!C32:OFFSET(History!C32,0,COUNTA(History!32:32)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G32" s="6" t="str">
+      <c r="G32" s="4" t="str">
         <f ca="1">IF(MAX(History!32:32)&gt;0,MAX(History!C32:OFFSET(History!C32,0,COUNTA(History!32:32)-3)),"")</f>
         <v/>
       </c>
-      <c r="H32" s="6" t="str">
+      <c r="H32" s="4" t="str">
         <f ca="1">IF(History!A32&lt;&gt;0,MIN(History!C32:OFFSET(History!C32,0,COUNTA(History!32:32)-3)),"")</f>
         <v/>
       </c>
-      <c r="I32" s="6" t="str">
+      <c r="I32" s="4" t="str">
         <f>IF(History!A32&lt;&gt;"",History!B32,"")</f>
         <v/>
       </c>
-      <c r="J32" s="4" t="str">
+      <c r="J32" s="3" t="str">
         <f ca="1">IF(History!A32&lt;&gt;"",SUM(OFFSET(History!C32,0,COUNT(History!32:32)-IF(COUNT(History!32:32)&lt;=5,COUNT(History!32:32),5)):OFFSET(History!C32,0,COUNT(History!32:32)-1)),"")</f>
         <v/>
       </c>
@@ -1841,11 +1841,11 @@
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="5" t="str">
+      <c r="B33" s="7" t="str">
         <f>IF(History!A33&lt;&gt;"",History!A33,"")</f>
         <v/>
       </c>
-      <c r="C33" s="4" t="str">
+      <c r="C33" s="3" t="str">
         <f ca="1">IF(History!A33&lt;&gt;"",SUM(History!B33:OFFSET(History!B33,0,COUNTA(History!33:33)-2)),"")</f>
         <v/>
       </c>
@@ -1853,27 +1853,27 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="E33" s="4" t="str">
+      <c r="E33" s="3" t="str">
         <f ca="1">IF(History!A33&lt;&gt;0,COUNTIF(History!C33:OFFSET(History!C33,0,COUNTA(History!33:33)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F33" s="4" t="str">
+      <c r="F33" s="3" t="str">
         <f ca="1">IF(History!A33&lt;&gt;0,COUNTIF(History!C33:OFFSET(History!C33,0,COUNTA(History!33:33)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G33" s="6" t="str">
+      <c r="G33" s="4" t="str">
         <f ca="1">IF(MAX(History!33:33)&gt;0,MAX(History!C33:OFFSET(History!C33,0,COUNTA(History!33:33)-3)),"")</f>
         <v/>
       </c>
-      <c r="H33" s="6" t="str">
+      <c r="H33" s="4" t="str">
         <f ca="1">IF(History!A33&lt;&gt;0,MIN(History!C33:OFFSET(History!C33,0,COUNTA(History!33:33)-3)),"")</f>
         <v/>
       </c>
-      <c r="I33" s="6" t="str">
+      <c r="I33" s="4" t="str">
         <f>IF(History!A33&lt;&gt;"",History!B33,"")</f>
         <v/>
       </c>
-      <c r="J33" s="4" t="str">
+      <c r="J33" s="3" t="str">
         <f ca="1">IF(History!A33&lt;&gt;"",SUM(OFFSET(History!C33,0,COUNT(History!33:33)-IF(COUNT(History!33:33)&lt;=5,COUNT(History!33:33),5)):OFFSET(History!C33,0,COUNT(History!33:33)-1)),"")</f>
         <v/>
       </c>
@@ -1882,11 +1882,11 @@
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="5" t="str">
+      <c r="B34" s="7" t="str">
         <f>IF(History!A34&lt;&gt;"",History!A34,"")</f>
         <v/>
       </c>
-      <c r="C34" s="4" t="str">
+      <c r="C34" s="3" t="str">
         <f ca="1">IF(History!A34&lt;&gt;"",SUM(History!B34:OFFSET(History!B34,0,COUNTA(History!34:34)-2)),"")</f>
         <v/>
       </c>
@@ -1894,27 +1894,27 @@
         <f t="shared" ref="D34:D65" ca="1" si="1">IFERROR(E34/(E34+F34),"")</f>
         <v/>
       </c>
-      <c r="E34" s="4" t="str">
+      <c r="E34" s="3" t="str">
         <f ca="1">IF(History!A34&lt;&gt;0,COUNTIF(History!C34:OFFSET(History!C34,0,COUNTA(History!34:34)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F34" s="4" t="str">
+      <c r="F34" s="3" t="str">
         <f ca="1">IF(History!A34&lt;&gt;0,COUNTIF(History!C34:OFFSET(History!C34,0,COUNTA(History!34:34)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G34" s="6" t="str">
+      <c r="G34" s="4" t="str">
         <f ca="1">IF(MAX(History!34:34)&gt;0,MAX(History!C34:OFFSET(History!C34,0,COUNTA(History!34:34)-3)),"")</f>
         <v/>
       </c>
-      <c r="H34" s="6" t="str">
+      <c r="H34" s="4" t="str">
         <f ca="1">IF(History!A34&lt;&gt;0,MIN(History!C34:OFFSET(History!C34,0,COUNTA(History!34:34)-3)),"")</f>
         <v/>
       </c>
-      <c r="I34" s="6" t="str">
+      <c r="I34" s="4" t="str">
         <f>IF(History!A34&lt;&gt;"",History!B34,"")</f>
         <v/>
       </c>
-      <c r="J34" s="4" t="str">
+      <c r="J34" s="3" t="str">
         <f ca="1">IF(History!A34&lt;&gt;"",SUM(OFFSET(History!C34,0,COUNT(History!34:34)-IF(COUNT(History!34:34)&lt;=5,COUNT(History!34:34),5)):OFFSET(History!C34,0,COUNT(History!34:34)-1)),"")</f>
         <v/>
       </c>
@@ -1923,11 +1923,11 @@
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="5" t="str">
+      <c r="B35" s="7" t="str">
         <f>IF(History!A35&lt;&gt;"",History!A35,"")</f>
         <v/>
       </c>
-      <c r="C35" s="4" t="str">
+      <c r="C35" s="3" t="str">
         <f ca="1">IF(History!A35&lt;&gt;"",SUM(History!B35:OFFSET(History!B35,0,COUNTA(History!35:35)-2)),"")</f>
         <v/>
       </c>
@@ -1935,27 +1935,27 @@
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="E35" s="4" t="str">
+      <c r="E35" s="3" t="str">
         <f ca="1">IF(History!A35&lt;&gt;0,COUNTIF(History!C35:OFFSET(History!C35,0,COUNTA(History!35:35)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F35" s="4" t="str">
+      <c r="F35" s="3" t="str">
         <f ca="1">IF(History!A35&lt;&gt;0,COUNTIF(History!C35:OFFSET(History!C35,0,COUNTA(History!35:35)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G35" s="6" t="str">
+      <c r="G35" s="4" t="str">
         <f ca="1">IF(MAX(History!35:35)&gt;0,MAX(History!C35:OFFSET(History!C35,0,COUNTA(History!35:35)-3)),"")</f>
         <v/>
       </c>
-      <c r="H35" s="6" t="str">
+      <c r="H35" s="4" t="str">
         <f ca="1">IF(History!A35&lt;&gt;0,MIN(History!C35:OFFSET(History!C35,0,COUNTA(History!35:35)-3)),"")</f>
         <v/>
       </c>
-      <c r="I35" s="6" t="str">
+      <c r="I35" s="4" t="str">
         <f>IF(History!A35&lt;&gt;"",History!B35,"")</f>
         <v/>
       </c>
-      <c r="J35" s="4" t="str">
+      <c r="J35" s="3" t="str">
         <f ca="1">IF(History!A35&lt;&gt;"",SUM(OFFSET(History!C35,0,COUNT(History!35:35)-IF(COUNT(History!35:35)&lt;=5,COUNT(History!35:35),5)):OFFSET(History!C35,0,COUNT(History!35:35)-1)),"")</f>
         <v/>
       </c>
@@ -1964,11 +1964,11 @@
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="5" t="str">
+      <c r="B36" s="7" t="str">
         <f>IF(History!A36&lt;&gt;"",History!A36,"")</f>
         <v/>
       </c>
-      <c r="C36" s="4" t="str">
+      <c r="C36" s="3" t="str">
         <f ca="1">IF(History!A36&lt;&gt;"",SUM(History!B36:OFFSET(History!B36,0,COUNTA(History!36:36)-2)),"")</f>
         <v/>
       </c>
@@ -1976,27 +1976,27 @@
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="E36" s="4" t="str">
+      <c r="E36" s="3" t="str">
         <f ca="1">IF(History!A36&lt;&gt;0,COUNTIF(History!C36:OFFSET(History!C36,0,COUNTA(History!36:36)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F36" s="4" t="str">
+      <c r="F36" s="3" t="str">
         <f ca="1">IF(History!A36&lt;&gt;0,COUNTIF(History!C36:OFFSET(History!C36,0,COUNTA(History!36:36)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G36" s="6" t="str">
+      <c r="G36" s="4" t="str">
         <f ca="1">IF(MAX(History!36:36)&gt;0,MAX(History!C36:OFFSET(History!C36,0,COUNTA(History!36:36)-3)),"")</f>
         <v/>
       </c>
-      <c r="H36" s="6" t="str">
+      <c r="H36" s="4" t="str">
         <f ca="1">IF(History!A36&lt;&gt;0,MIN(History!C36:OFFSET(History!C36,0,COUNTA(History!36:36)-3)),"")</f>
         <v/>
       </c>
-      <c r="I36" s="6" t="str">
+      <c r="I36" s="4" t="str">
         <f>IF(History!A36&lt;&gt;"",History!B36,"")</f>
         <v/>
       </c>
-      <c r="J36" s="4" t="str">
+      <c r="J36" s="3" t="str">
         <f ca="1">IF(History!A36&lt;&gt;"",SUM(OFFSET(History!C36,0,COUNT(History!36:36)-IF(COUNT(History!36:36)&lt;=5,COUNT(History!36:36),5)):OFFSET(History!C36,0,COUNT(History!36:36)-1)),"")</f>
         <v/>
       </c>
@@ -2005,11 +2005,11 @@
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="5" t="str">
+      <c r="B37" s="7" t="str">
         <f>IF(History!A37&lt;&gt;"",History!A37,"")</f>
         <v/>
       </c>
-      <c r="C37" s="4" t="str">
+      <c r="C37" s="3" t="str">
         <f ca="1">IF(History!A37&lt;&gt;"",SUM(History!B37:OFFSET(History!B37,0,COUNTA(History!37:37)-2)),"")</f>
         <v/>
       </c>
@@ -2017,27 +2017,27 @@
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="E37" s="4" t="str">
+      <c r="E37" s="3" t="str">
         <f ca="1">IF(History!A37&lt;&gt;0,COUNTIF(History!C37:OFFSET(History!C37,0,COUNTA(History!37:37)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F37" s="4" t="str">
+      <c r="F37" s="3" t="str">
         <f ca="1">IF(History!A37&lt;&gt;0,COUNTIF(History!C37:OFFSET(History!C37,0,COUNTA(History!37:37)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G37" s="6" t="str">
+      <c r="G37" s="4" t="str">
         <f ca="1">IF(MAX(History!37:37)&gt;0,MAX(History!C37:OFFSET(History!C37,0,COUNTA(History!37:37)-3)),"")</f>
         <v/>
       </c>
-      <c r="H37" s="6" t="str">
+      <c r="H37" s="4" t="str">
         <f ca="1">IF(History!A37&lt;&gt;0,MIN(History!C37:OFFSET(History!C37,0,COUNTA(History!37:37)-3)),"")</f>
         <v/>
       </c>
-      <c r="I37" s="6" t="str">
+      <c r="I37" s="4" t="str">
         <f>IF(History!A37&lt;&gt;"",History!B37,"")</f>
         <v/>
       </c>
-      <c r="J37" s="4" t="str">
+      <c r="J37" s="3" t="str">
         <f ca="1">IF(History!A37&lt;&gt;"",SUM(OFFSET(History!C37,0,COUNT(History!37:37)-IF(COUNT(History!37:37)&lt;=5,COUNT(History!37:37),5)):OFFSET(History!C37,0,COUNT(History!37:37)-1)),"")</f>
         <v/>
       </c>
@@ -2046,11 +2046,11 @@
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="5" t="str">
+      <c r="B38" s="7" t="str">
         <f>IF(History!A38&lt;&gt;"",History!A38,"")</f>
         <v/>
       </c>
-      <c r="C38" s="4" t="str">
+      <c r="C38" s="3" t="str">
         <f ca="1">IF(History!A38&lt;&gt;"",SUM(History!B38:OFFSET(History!B38,0,COUNTA(History!38:38)-2)),"")</f>
         <v/>
       </c>
@@ -2058,27 +2058,27 @@
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="E38" s="4" t="str">
+      <c r="E38" s="3" t="str">
         <f ca="1">IF(History!A38&lt;&gt;0,COUNTIF(History!C38:OFFSET(History!C38,0,COUNTA(History!38:38)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F38" s="4" t="str">
+      <c r="F38" s="3" t="str">
         <f ca="1">IF(History!A38&lt;&gt;0,COUNTIF(History!C38:OFFSET(History!C38,0,COUNTA(History!38:38)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G38" s="6" t="str">
+      <c r="G38" s="4" t="str">
         <f ca="1">IF(MAX(History!38:38)&gt;0,MAX(History!C38:OFFSET(History!C38,0,COUNTA(History!38:38)-3)),"")</f>
         <v/>
       </c>
-      <c r="H38" s="6" t="str">
+      <c r="H38" s="4" t="str">
         <f ca="1">IF(History!A38&lt;&gt;0,MIN(History!C38:OFFSET(History!C38,0,COUNTA(History!38:38)-3)),"")</f>
         <v/>
       </c>
-      <c r="I38" s="6" t="str">
+      <c r="I38" s="4" t="str">
         <f>IF(History!A38&lt;&gt;"",History!B38,"")</f>
         <v/>
       </c>
-      <c r="J38" s="4" t="str">
+      <c r="J38" s="3" t="str">
         <f ca="1">IF(History!A38&lt;&gt;"",SUM(OFFSET(History!C38,0,COUNT(History!38:38)-IF(COUNT(History!38:38)&lt;=5,COUNT(History!38:38),5)):OFFSET(History!C38,0,COUNT(History!38:38)-1)),"")</f>
         <v/>
       </c>
@@ -2087,11 +2087,11 @@
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="5" t="str">
+      <c r="B39" s="7" t="str">
         <f>IF(History!A39&lt;&gt;"",History!A39,"")</f>
         <v/>
       </c>
-      <c r="C39" s="4" t="str">
+      <c r="C39" s="3" t="str">
         <f ca="1">IF(History!A39&lt;&gt;"",SUM(History!B39:OFFSET(History!B39,0,COUNTA(History!39:39)-2)),"")</f>
         <v/>
       </c>
@@ -2099,27 +2099,27 @@
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="E39" s="4" t="str">
+      <c r="E39" s="3" t="str">
         <f ca="1">IF(History!A39&lt;&gt;0,COUNTIF(History!C39:OFFSET(History!C39,0,COUNTA(History!39:39)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F39" s="4" t="str">
+      <c r="F39" s="3" t="str">
         <f ca="1">IF(History!A39&lt;&gt;0,COUNTIF(History!C39:OFFSET(History!C39,0,COUNTA(History!39:39)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G39" s="6" t="str">
+      <c r="G39" s="4" t="str">
         <f ca="1">IF(MAX(History!39:39)&gt;0,MAX(History!C39:OFFSET(History!C39,0,COUNTA(History!39:39)-3)),"")</f>
         <v/>
       </c>
-      <c r="H39" s="6" t="str">
+      <c r="H39" s="4" t="str">
         <f ca="1">IF(History!A39&lt;&gt;0,MIN(History!C39:OFFSET(History!C39,0,COUNTA(History!39:39)-3)),"")</f>
         <v/>
       </c>
-      <c r="I39" s="6" t="str">
+      <c r="I39" s="4" t="str">
         <f>IF(History!A39&lt;&gt;"",History!B39,"")</f>
         <v/>
       </c>
-      <c r="J39" s="4" t="str">
+      <c r="J39" s="3" t="str">
         <f ca="1">IF(History!A39&lt;&gt;"",SUM(OFFSET(History!C39,0,COUNT(History!39:39)-IF(COUNT(History!39:39)&lt;=5,COUNT(History!39:39),5)):OFFSET(History!C39,0,COUNT(History!39:39)-1)),"")</f>
         <v/>
       </c>
@@ -2128,11 +2128,11 @@
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="5" t="str">
+      <c r="B40" s="7" t="str">
         <f>IF(History!A40&lt;&gt;"",History!A40,"")</f>
         <v/>
       </c>
-      <c r="C40" s="4" t="str">
+      <c r="C40" s="3" t="str">
         <f ca="1">IF(History!A40&lt;&gt;"",SUM(History!B40:OFFSET(History!B40,0,COUNTA(History!40:40)-2)),"")</f>
         <v/>
       </c>
@@ -2140,27 +2140,27 @@
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="E40" s="4" t="str">
+      <c r="E40" s="3" t="str">
         <f ca="1">IF(History!A40&lt;&gt;0,COUNTIF(History!C40:OFFSET(History!C40,0,COUNTA(History!40:40)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F40" s="4" t="str">
+      <c r="F40" s="3" t="str">
         <f ca="1">IF(History!A40&lt;&gt;0,COUNTIF(History!C40:OFFSET(History!C40,0,COUNTA(History!40:40)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G40" s="6" t="str">
+      <c r="G40" s="4" t="str">
         <f ca="1">IF(MAX(History!40:40)&gt;0,MAX(History!C40:OFFSET(History!C40,0,COUNTA(History!40:40)-3)),"")</f>
         <v/>
       </c>
-      <c r="H40" s="6" t="str">
+      <c r="H40" s="4" t="str">
         <f ca="1">IF(History!A40&lt;&gt;0,MIN(History!C40:OFFSET(History!C40,0,COUNTA(History!40:40)-3)),"")</f>
         <v/>
       </c>
-      <c r="I40" s="6" t="str">
+      <c r="I40" s="4" t="str">
         <f>IF(History!A40&lt;&gt;"",History!B40,"")</f>
         <v/>
       </c>
-      <c r="J40" s="4" t="str">
+      <c r="J40" s="3" t="str">
         <f ca="1">IF(History!A40&lt;&gt;"",SUM(OFFSET(History!C40,0,COUNT(History!40:40)-IF(COUNT(History!40:40)&lt;=5,COUNT(History!40:40),5)):OFFSET(History!C40,0,COUNT(History!40:40)-1)),"")</f>
         <v/>
       </c>
@@ -2169,11 +2169,11 @@
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="5" t="str">
+      <c r="B41" s="7" t="str">
         <f>IF(History!A41&lt;&gt;"",History!A41,"")</f>
         <v/>
       </c>
-      <c r="C41" s="4" t="str">
+      <c r="C41" s="3" t="str">
         <f ca="1">IF(History!A41&lt;&gt;"",SUM(History!B41:OFFSET(History!B41,0,COUNTA(History!41:41)-2)),"")</f>
         <v/>
       </c>
@@ -2181,27 +2181,27 @@
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="E41" s="4" t="str">
+      <c r="E41" s="3" t="str">
         <f ca="1">IF(History!A41&lt;&gt;0,COUNTIF(History!C41:OFFSET(History!C41,0,COUNTA(History!41:41)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F41" s="4" t="str">
+      <c r="F41" s="3" t="str">
         <f ca="1">IF(History!A41&lt;&gt;0,COUNTIF(History!C41:OFFSET(History!C41,0,COUNTA(History!41:41)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G41" s="6" t="str">
+      <c r="G41" s="4" t="str">
         <f ca="1">IF(MAX(History!41:41)&gt;0,MAX(History!C41:OFFSET(History!C41,0,COUNTA(History!41:41)-3)),"")</f>
         <v/>
       </c>
-      <c r="H41" s="6" t="str">
+      <c r="H41" s="4" t="str">
         <f ca="1">IF(History!A41&lt;&gt;0,MIN(History!C41:OFFSET(History!C41,0,COUNTA(History!41:41)-3)),"")</f>
         <v/>
       </c>
-      <c r="I41" s="6" t="str">
+      <c r="I41" s="4" t="str">
         <f>IF(History!A41&lt;&gt;"",History!B41,"")</f>
         <v/>
       </c>
-      <c r="J41" s="4" t="str">
+      <c r="J41" s="3" t="str">
         <f ca="1">IF(History!A41&lt;&gt;"",SUM(OFFSET(History!C41,0,COUNT(History!41:41)-IF(COUNT(History!41:41)&lt;=5,COUNT(History!41:41),5)):OFFSET(History!C41,0,COUNT(History!41:41)-1)),"")</f>
         <v/>
       </c>
@@ -2210,11 +2210,11 @@
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="5" t="str">
+      <c r="B42" s="7" t="str">
         <f>IF(History!A42&lt;&gt;"",History!A42,"")</f>
         <v/>
       </c>
-      <c r="C42" s="4" t="str">
+      <c r="C42" s="3" t="str">
         <f ca="1">IF(History!A42&lt;&gt;"",SUM(History!B42:OFFSET(History!B42,0,COUNTA(History!42:42)-2)),"")</f>
         <v/>
       </c>
@@ -2222,27 +2222,27 @@
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="E42" s="4" t="str">
+      <c r="E42" s="3" t="str">
         <f ca="1">IF(History!A42&lt;&gt;0,COUNTIF(History!C42:OFFSET(History!C42,0,COUNTA(History!42:42)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F42" s="4" t="str">
+      <c r="F42" s="3" t="str">
         <f ca="1">IF(History!A42&lt;&gt;0,COUNTIF(History!C42:OFFSET(History!C42,0,COUNTA(History!42:42)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G42" s="6" t="str">
+      <c r="G42" s="4" t="str">
         <f ca="1">IF(MAX(History!42:42)&gt;0,MAX(History!C42:OFFSET(History!C42,0,COUNTA(History!42:42)-3)),"")</f>
         <v/>
       </c>
-      <c r="H42" s="6" t="str">
+      <c r="H42" s="4" t="str">
         <f ca="1">IF(History!A42&lt;&gt;0,MIN(History!C42:OFFSET(History!C42,0,COUNTA(History!42:42)-3)),"")</f>
         <v/>
       </c>
-      <c r="I42" s="6" t="str">
+      <c r="I42" s="4" t="str">
         <f>IF(History!A42&lt;&gt;"",History!B42,"")</f>
         <v/>
       </c>
-      <c r="J42" s="4" t="str">
+      <c r="J42" s="3" t="str">
         <f ca="1">IF(History!A42&lt;&gt;"",SUM(OFFSET(History!C42,0,COUNT(History!42:42)-IF(COUNT(History!42:42)&lt;=5,COUNT(History!42:42),5)):OFFSET(History!C42,0,COUNT(History!42:42)-1)),"")</f>
         <v/>
       </c>
@@ -2251,11 +2251,11 @@
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="5" t="str">
+      <c r="B43" s="7" t="str">
         <f>IF(History!A43&lt;&gt;"",History!A43,"")</f>
         <v/>
       </c>
-      <c r="C43" s="4" t="str">
+      <c r="C43" s="3" t="str">
         <f ca="1">IF(History!A43&lt;&gt;"",SUM(History!B43:OFFSET(History!B43,0,COUNTA(History!43:43)-2)),"")</f>
         <v/>
       </c>
@@ -2263,27 +2263,27 @@
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="E43" s="4" t="str">
+      <c r="E43" s="3" t="str">
         <f ca="1">IF(History!A43&lt;&gt;0,COUNTIF(History!C43:OFFSET(History!C43,0,COUNTA(History!43:43)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F43" s="4" t="str">
+      <c r="F43" s="3" t="str">
         <f ca="1">IF(History!A43&lt;&gt;0,COUNTIF(History!C43:OFFSET(History!C43,0,COUNTA(History!43:43)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G43" s="6" t="str">
+      <c r="G43" s="4" t="str">
         <f ca="1">IF(MAX(History!43:43)&gt;0,MAX(History!C43:OFFSET(History!C43,0,COUNTA(History!43:43)-3)),"")</f>
         <v/>
       </c>
-      <c r="H43" s="6" t="str">
+      <c r="H43" s="4" t="str">
         <f ca="1">IF(History!A43&lt;&gt;0,MIN(History!C43:OFFSET(History!C43,0,COUNTA(History!43:43)-3)),"")</f>
         <v/>
       </c>
-      <c r="I43" s="6" t="str">
+      <c r="I43" s="4" t="str">
         <f>IF(History!A43&lt;&gt;"",History!B43,"")</f>
         <v/>
       </c>
-      <c r="J43" s="4" t="str">
+      <c r="J43" s="3" t="str">
         <f ca="1">IF(History!A43&lt;&gt;"",SUM(OFFSET(History!C43,0,COUNT(History!43:43)-IF(COUNT(History!43:43)&lt;=5,COUNT(History!43:43),5)):OFFSET(History!C43,0,COUNT(History!43:43)-1)),"")</f>
         <v/>
       </c>
@@ -2292,11 +2292,11 @@
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="5" t="str">
+      <c r="B44" s="7" t="str">
         <f>IF(History!A44&lt;&gt;"",History!A44,"")</f>
         <v/>
       </c>
-      <c r="C44" s="4" t="str">
+      <c r="C44" s="3" t="str">
         <f ca="1">IF(History!A44&lt;&gt;"",SUM(History!B44:OFFSET(History!B44,0,COUNTA(History!44:44)-2)),"")</f>
         <v/>
       </c>
@@ -2304,27 +2304,27 @@
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="E44" s="4" t="str">
+      <c r="E44" s="3" t="str">
         <f ca="1">IF(History!A44&lt;&gt;0,COUNTIF(History!C44:OFFSET(History!C44,0,COUNTA(History!44:44)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F44" s="4" t="str">
+      <c r="F44" s="3" t="str">
         <f ca="1">IF(History!A44&lt;&gt;0,COUNTIF(History!C44:OFFSET(History!C44,0,COUNTA(History!44:44)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G44" s="6" t="str">
+      <c r="G44" s="4" t="str">
         <f ca="1">IF(MAX(History!44:44)&gt;0,MAX(History!C44:OFFSET(History!C44,0,COUNTA(History!44:44)-3)),"")</f>
         <v/>
       </c>
-      <c r="H44" s="6" t="str">
+      <c r="H44" s="4" t="str">
         <f ca="1">IF(History!A44&lt;&gt;0,MIN(History!C44:OFFSET(History!C44,0,COUNTA(History!44:44)-3)),"")</f>
         <v/>
       </c>
-      <c r="I44" s="6" t="str">
+      <c r="I44" s="4" t="str">
         <f>IF(History!A44&lt;&gt;"",History!B44,"")</f>
         <v/>
       </c>
-      <c r="J44" s="4" t="str">
+      <c r="J44" s="3" t="str">
         <f ca="1">IF(History!A44&lt;&gt;"",SUM(OFFSET(History!C44,0,COUNT(History!44:44)-IF(COUNT(History!44:44)&lt;=5,COUNT(History!44:44),5)):OFFSET(History!C44,0,COUNT(History!44:44)-1)),"")</f>
         <v/>
       </c>
@@ -2333,11 +2333,11 @@
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="5" t="str">
+      <c r="B45" s="7" t="str">
         <f>IF(History!A45&lt;&gt;"",History!A45,"")</f>
         <v/>
       </c>
-      <c r="C45" s="4" t="str">
+      <c r="C45" s="3" t="str">
         <f ca="1">IF(History!A45&lt;&gt;"",SUM(History!B45:OFFSET(History!B45,0,COUNTA(History!45:45)-2)),"")</f>
         <v/>
       </c>
@@ -2345,27 +2345,27 @@
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="E45" s="4" t="str">
+      <c r="E45" s="3" t="str">
         <f ca="1">IF(History!A45&lt;&gt;0,COUNTIF(History!C45:OFFSET(History!C45,0,COUNTA(History!45:45)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F45" s="4" t="str">
+      <c r="F45" s="3" t="str">
         <f ca="1">IF(History!A45&lt;&gt;0,COUNTIF(History!C45:OFFSET(History!C45,0,COUNTA(History!45:45)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G45" s="6" t="str">
+      <c r="G45" s="4" t="str">
         <f ca="1">IF(MAX(History!45:45)&gt;0,MAX(History!C45:OFFSET(History!C45,0,COUNTA(History!45:45)-3)),"")</f>
         <v/>
       </c>
-      <c r="H45" s="6" t="str">
+      <c r="H45" s="4" t="str">
         <f ca="1">IF(History!A45&lt;&gt;0,MIN(History!C45:OFFSET(History!C45,0,COUNTA(History!45:45)-3)),"")</f>
         <v/>
       </c>
-      <c r="I45" s="6" t="str">
+      <c r="I45" s="4" t="str">
         <f>IF(History!A45&lt;&gt;"",History!B45,"")</f>
         <v/>
       </c>
-      <c r="J45" s="4" t="str">
+      <c r="J45" s="3" t="str">
         <f ca="1">IF(History!A45&lt;&gt;"",SUM(OFFSET(History!C45,0,COUNT(History!45:45)-IF(COUNT(History!45:45)&lt;=5,COUNT(History!45:45),5)):OFFSET(History!C45,0,COUNT(History!45:45)-1)),"")</f>
         <v/>
       </c>
@@ -2374,11 +2374,11 @@
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="5" t="str">
+      <c r="B46" s="7" t="str">
         <f>IF(History!A46&lt;&gt;"",History!A46,"")</f>
         <v/>
       </c>
-      <c r="C46" s="4" t="str">
+      <c r="C46" s="3" t="str">
         <f ca="1">IF(History!A46&lt;&gt;"",SUM(History!B46:OFFSET(History!B46,0,COUNTA(History!46:46)-2)),"")</f>
         <v/>
       </c>
@@ -2386,27 +2386,27 @@
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="E46" s="4" t="str">
+      <c r="E46" s="3" t="str">
         <f ca="1">IF(History!A46&lt;&gt;0,COUNTIF(History!C46:OFFSET(History!C46,0,COUNTA(History!46:46)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F46" s="4" t="str">
+      <c r="F46" s="3" t="str">
         <f ca="1">IF(History!A46&lt;&gt;0,COUNTIF(History!C46:OFFSET(History!C46,0,COUNTA(History!46:46)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G46" s="6" t="str">
+      <c r="G46" s="4" t="str">
         <f ca="1">IF(MAX(History!46:46)&gt;0,MAX(History!C46:OFFSET(History!C46,0,COUNTA(History!46:46)-3)),"")</f>
         <v/>
       </c>
-      <c r="H46" s="6" t="str">
+      <c r="H46" s="4" t="str">
         <f ca="1">IF(History!A46&lt;&gt;0,MIN(History!C46:OFFSET(History!C46,0,COUNTA(History!46:46)-3)),"")</f>
         <v/>
       </c>
-      <c r="I46" s="6" t="str">
+      <c r="I46" s="4" t="str">
         <f>IF(History!A46&lt;&gt;"",History!B46,"")</f>
         <v/>
       </c>
-      <c r="J46" s="4" t="str">
+      <c r="J46" s="3" t="str">
         <f ca="1">IF(History!A46&lt;&gt;"",SUM(OFFSET(History!C46,0,COUNT(History!46:46)-IF(COUNT(History!46:46)&lt;=5,COUNT(History!46:46),5)):OFFSET(History!C46,0,COUNT(History!46:46)-1)),"")</f>
         <v/>
       </c>
@@ -2415,11 +2415,11 @@
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="5" t="str">
+      <c r="B47" s="7" t="str">
         <f>IF(History!A47&lt;&gt;"",History!A47,"")</f>
         <v/>
       </c>
-      <c r="C47" s="4" t="str">
+      <c r="C47" s="3" t="str">
         <f ca="1">IF(History!A47&lt;&gt;"",SUM(History!B47:OFFSET(History!B47,0,COUNTA(History!47:47)-2)),"")</f>
         <v/>
       </c>
@@ -2427,27 +2427,27 @@
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="E47" s="4" t="str">
+      <c r="E47" s="3" t="str">
         <f ca="1">IF(History!A47&lt;&gt;0,COUNTIF(History!C47:OFFSET(History!C47,0,COUNTA(History!47:47)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F47" s="4" t="str">
+      <c r="F47" s="3" t="str">
         <f ca="1">IF(History!A47&lt;&gt;0,COUNTIF(History!C47:OFFSET(History!C47,0,COUNTA(History!47:47)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G47" s="6" t="str">
+      <c r="G47" s="4" t="str">
         <f ca="1">IF(MAX(History!47:47)&gt;0,MAX(History!C47:OFFSET(History!C47,0,COUNTA(History!47:47)-3)),"")</f>
         <v/>
       </c>
-      <c r="H47" s="6" t="str">
+      <c r="H47" s="4" t="str">
         <f ca="1">IF(History!A47&lt;&gt;0,MIN(History!C47:OFFSET(History!C47,0,COUNTA(History!47:47)-3)),"")</f>
         <v/>
       </c>
-      <c r="I47" s="6" t="str">
+      <c r="I47" s="4" t="str">
         <f>IF(History!A47&lt;&gt;"",History!B47,"")</f>
         <v/>
       </c>
-      <c r="J47" s="4" t="str">
+      <c r="J47" s="3" t="str">
         <f ca="1">IF(History!A47&lt;&gt;"",SUM(OFFSET(History!C47,0,COUNT(History!47:47)-IF(COUNT(History!47:47)&lt;=5,COUNT(History!47:47),5)):OFFSET(History!C47,0,COUNT(History!47:47)-1)),"")</f>
         <v/>
       </c>
@@ -2456,11 +2456,11 @@
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="5" t="str">
+      <c r="B48" s="7" t="str">
         <f>IF(History!A48&lt;&gt;"",History!A48,"")</f>
         <v/>
       </c>
-      <c r="C48" s="4" t="str">
+      <c r="C48" s="3" t="str">
         <f ca="1">IF(History!A48&lt;&gt;"",SUM(History!B48:OFFSET(History!B48,0,COUNTA(History!48:48)-2)),"")</f>
         <v/>
       </c>
@@ -2468,27 +2468,27 @@
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="E48" s="4" t="str">
+      <c r="E48" s="3" t="str">
         <f ca="1">IF(History!A48&lt;&gt;0,COUNTIF(History!C48:OFFSET(History!C48,0,COUNTA(History!48:48)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F48" s="4" t="str">
+      <c r="F48" s="3" t="str">
         <f ca="1">IF(History!A48&lt;&gt;0,COUNTIF(History!C48:OFFSET(History!C48,0,COUNTA(History!48:48)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G48" s="6" t="str">
+      <c r="G48" s="4" t="str">
         <f ca="1">IF(MAX(History!48:48)&gt;0,MAX(History!C48:OFFSET(History!C48,0,COUNTA(History!48:48)-3)),"")</f>
         <v/>
       </c>
-      <c r="H48" s="6" t="str">
+      <c r="H48" s="4" t="str">
         <f ca="1">IF(History!A48&lt;&gt;0,MIN(History!C48:OFFSET(History!C48,0,COUNTA(History!48:48)-3)),"")</f>
         <v/>
       </c>
-      <c r="I48" s="6" t="str">
+      <c r="I48" s="4" t="str">
         <f>IF(History!A48&lt;&gt;"",History!B48,"")</f>
         <v/>
       </c>
-      <c r="J48" s="4" t="str">
+      <c r="J48" s="3" t="str">
         <f ca="1">IF(History!A48&lt;&gt;"",SUM(OFFSET(History!C48,0,COUNT(History!48:48)-IF(COUNT(History!48:48)&lt;=5,COUNT(History!48:48),5)):OFFSET(History!C48,0,COUNT(History!48:48)-1)),"")</f>
         <v/>
       </c>
@@ -2497,11 +2497,11 @@
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="5" t="str">
+      <c r="B49" s="7" t="str">
         <f>IF(History!A49&lt;&gt;"",History!A49,"")</f>
         <v/>
       </c>
-      <c r="C49" s="4" t="str">
+      <c r="C49" s="3" t="str">
         <f ca="1">IF(History!A49&lt;&gt;"",SUM(History!B49:OFFSET(History!B49,0,COUNTA(History!49:49)-2)),"")</f>
         <v/>
       </c>
@@ -2509,27 +2509,27 @@
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="E49" s="4" t="str">
+      <c r="E49" s="3" t="str">
         <f ca="1">IF(History!A49&lt;&gt;0,COUNTIF(History!C49:OFFSET(History!C49,0,COUNTA(History!49:49)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F49" s="4" t="str">
+      <c r="F49" s="3" t="str">
         <f ca="1">IF(History!A49&lt;&gt;0,COUNTIF(History!C49:OFFSET(History!C49,0,COUNTA(History!49:49)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G49" s="6" t="str">
+      <c r="G49" s="4" t="str">
         <f ca="1">IF(MAX(History!49:49)&gt;0,MAX(History!C49:OFFSET(History!C49,0,COUNTA(History!49:49)-3)),"")</f>
         <v/>
       </c>
-      <c r="H49" s="6" t="str">
+      <c r="H49" s="4" t="str">
         <f ca="1">IF(History!A49&lt;&gt;0,MIN(History!C49:OFFSET(History!C49,0,COUNTA(History!49:49)-3)),"")</f>
         <v/>
       </c>
-      <c r="I49" s="6" t="str">
+      <c r="I49" s="4" t="str">
         <f>IF(History!A49&lt;&gt;"",History!B49,"")</f>
         <v/>
       </c>
-      <c r="J49" s="4" t="str">
+      <c r="J49" s="3" t="str">
         <f ca="1">IF(History!A49&lt;&gt;"",SUM(OFFSET(History!C49,0,COUNT(History!49:49)-IF(COUNT(History!49:49)&lt;=5,COUNT(History!49:49),5)):OFFSET(History!C49,0,COUNT(History!49:49)-1)),"")</f>
         <v/>
       </c>
@@ -2538,11 +2538,11 @@
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="5" t="str">
+      <c r="B50" s="7" t="str">
         <f>IF(History!A50&lt;&gt;"",History!A50,"")</f>
         <v/>
       </c>
-      <c r="C50" s="4" t="str">
+      <c r="C50" s="3" t="str">
         <f ca="1">IF(History!A50&lt;&gt;"",SUM(History!B50:OFFSET(History!B50,0,COUNTA(History!50:50)-2)),"")</f>
         <v/>
       </c>
@@ -2550,27 +2550,27 @@
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="E50" s="4" t="str">
+      <c r="E50" s="3" t="str">
         <f ca="1">IF(History!A50&lt;&gt;0,COUNTIF(History!C50:OFFSET(History!C50,0,COUNTA(History!50:50)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F50" s="4" t="str">
+      <c r="F50" s="3" t="str">
         <f ca="1">IF(History!A50&lt;&gt;0,COUNTIF(History!C50:OFFSET(History!C50,0,COUNTA(History!50:50)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G50" s="6" t="str">
+      <c r="G50" s="4" t="str">
         <f ca="1">IF(MAX(History!50:50)&gt;0,MAX(History!C50:OFFSET(History!C50,0,COUNTA(History!50:50)-3)),"")</f>
         <v/>
       </c>
-      <c r="H50" s="6" t="str">
+      <c r="H50" s="4" t="str">
         <f ca="1">IF(History!A50&lt;&gt;0,MIN(History!C50:OFFSET(History!C50,0,COUNTA(History!50:50)-3)),"")</f>
         <v/>
       </c>
-      <c r="I50" s="6" t="str">
+      <c r="I50" s="4" t="str">
         <f>IF(History!A50&lt;&gt;"",History!B50,"")</f>
         <v/>
       </c>
-      <c r="J50" s="4" t="str">
+      <c r="J50" s="3" t="str">
         <f ca="1">IF(History!A50&lt;&gt;"",SUM(OFFSET(History!C50,0,COUNT(History!50:50)-IF(COUNT(History!50:50)&lt;=5,COUNT(History!50:50),5)):OFFSET(History!C50,0,COUNT(History!50:50)-1)),"")</f>
         <v/>
       </c>
@@ -2579,11 +2579,11 @@
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="5" t="str">
+      <c r="B51" s="7" t="str">
         <f>IF(History!A51&lt;&gt;"",History!A51,"")</f>
         <v/>
       </c>
-      <c r="C51" s="4" t="str">
+      <c r="C51" s="3" t="str">
         <f ca="1">IF(History!A51&lt;&gt;"",SUM(History!B51:OFFSET(History!B51,0,COUNTA(History!51:51)-2)),"")</f>
         <v/>
       </c>
@@ -2591,27 +2591,27 @@
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="E51" s="4" t="str">
+      <c r="E51" s="3" t="str">
         <f ca="1">IF(History!A51&lt;&gt;0,COUNTIF(History!C51:OFFSET(History!C51,0,COUNTA(History!51:51)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F51" s="4" t="str">
+      <c r="F51" s="3" t="str">
         <f ca="1">IF(History!A51&lt;&gt;0,COUNTIF(History!C51:OFFSET(History!C51,0,COUNTA(History!51:51)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G51" s="6" t="str">
+      <c r="G51" s="4" t="str">
         <f ca="1">IF(MAX(History!51:51)&gt;0,MAX(History!C51:OFFSET(History!C51,0,COUNTA(History!51:51)-3)),"")</f>
         <v/>
       </c>
-      <c r="H51" s="6" t="str">
+      <c r="H51" s="4" t="str">
         <f ca="1">IF(History!A51&lt;&gt;0,MIN(History!C51:OFFSET(History!C51,0,COUNTA(History!51:51)-3)),"")</f>
         <v/>
       </c>
-      <c r="I51" s="6" t="str">
+      <c r="I51" s="4" t="str">
         <f>IF(History!A51&lt;&gt;"",History!B51,"")</f>
         <v/>
       </c>
-      <c r="J51" s="4" t="str">
+      <c r="J51" s="3" t="str">
         <f ca="1">IF(History!A51&lt;&gt;"",SUM(OFFSET(History!C51,0,COUNT(History!51:51)-IF(COUNT(History!51:51)&lt;=5,COUNT(History!51:51),5)):OFFSET(History!C51,0,COUNT(History!51:51)-1)),"")</f>
         <v/>
       </c>
@@ -2620,11 +2620,11 @@
       <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="5" t="str">
+      <c r="B52" s="7" t="str">
         <f>IF(History!A52&lt;&gt;"",History!A52,"")</f>
         <v/>
       </c>
-      <c r="C52" s="4" t="str">
+      <c r="C52" s="3" t="str">
         <f ca="1">IF(History!A52&lt;&gt;"",SUM(History!B52:OFFSET(History!B52,0,COUNTA(History!52:52)-2)),"")</f>
         <v/>
       </c>
@@ -2632,27 +2632,27 @@
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="E52" s="4" t="str">
+      <c r="E52" s="3" t="str">
         <f ca="1">IF(History!A52&lt;&gt;0,COUNTIF(History!C52:OFFSET(History!C52,0,COUNTA(History!52:52)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F52" s="4" t="str">
+      <c r="F52" s="3" t="str">
         <f ca="1">IF(History!A52&lt;&gt;0,COUNTIF(History!C52:OFFSET(History!C52,0,COUNTA(History!52:52)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G52" s="6" t="str">
+      <c r="G52" s="4" t="str">
         <f ca="1">IF(MAX(History!52:52)&gt;0,MAX(History!C52:OFFSET(History!C52,0,COUNTA(History!52:52)-3)),"")</f>
         <v/>
       </c>
-      <c r="H52" s="6" t="str">
+      <c r="H52" s="4" t="str">
         <f ca="1">IF(History!A52&lt;&gt;0,MIN(History!C52:OFFSET(History!C52,0,COUNTA(History!52:52)-3)),"")</f>
         <v/>
       </c>
-      <c r="I52" s="6" t="str">
+      <c r="I52" s="4" t="str">
         <f>IF(History!A52&lt;&gt;"",History!B52,"")</f>
         <v/>
       </c>
-      <c r="J52" s="4" t="str">
+      <c r="J52" s="3" t="str">
         <f ca="1">IF(History!A52&lt;&gt;"",SUM(OFFSET(History!C52,0,COUNT(History!52:52)-IF(COUNT(History!52:52)&lt;=5,COUNT(History!52:52),5)):OFFSET(History!C52,0,COUNT(History!52:52)-1)),"")</f>
         <v/>
       </c>
@@ -2661,11 +2661,11 @@
       <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="5" t="str">
+      <c r="B53" s="7" t="str">
         <f>IF(History!A53&lt;&gt;"",History!A53,"")</f>
         <v/>
       </c>
-      <c r="C53" s="4" t="str">
+      <c r="C53" s="3" t="str">
         <f ca="1">IF(History!A53&lt;&gt;"",SUM(History!B53:OFFSET(History!B53,0,COUNTA(History!53:53)-2)),"")</f>
         <v/>
       </c>
@@ -2673,27 +2673,27 @@
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="E53" s="4" t="str">
+      <c r="E53" s="3" t="str">
         <f ca="1">IF(History!A53&lt;&gt;0,COUNTIF(History!C53:OFFSET(History!C53,0,COUNTA(History!53:53)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F53" s="4" t="str">
+      <c r="F53" s="3" t="str">
         <f ca="1">IF(History!A53&lt;&gt;0,COUNTIF(History!C53:OFFSET(History!C53,0,COUNTA(History!53:53)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G53" s="6" t="str">
+      <c r="G53" s="4" t="str">
         <f ca="1">IF(MAX(History!53:53)&gt;0,MAX(History!C53:OFFSET(History!C53,0,COUNTA(History!53:53)-3)),"")</f>
         <v/>
       </c>
-      <c r="H53" s="6" t="str">
+      <c r="H53" s="4" t="str">
         <f ca="1">IF(History!A53&lt;&gt;0,MIN(History!C53:OFFSET(History!C53,0,COUNTA(History!53:53)-3)),"")</f>
         <v/>
       </c>
-      <c r="I53" s="6" t="str">
+      <c r="I53" s="4" t="str">
         <f>IF(History!A53&lt;&gt;"",History!B53,"")</f>
         <v/>
       </c>
-      <c r="J53" s="4" t="str">
+      <c r="J53" s="3" t="str">
         <f ca="1">IF(History!A53&lt;&gt;"",SUM(OFFSET(History!C53,0,COUNT(History!53:53)-IF(COUNT(History!53:53)&lt;=5,COUNT(History!53:53),5)):OFFSET(History!C53,0,COUNT(History!53:53)-1)),"")</f>
         <v/>
       </c>
@@ -2702,11 +2702,11 @@
       <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="5" t="str">
+      <c r="B54" s="7" t="str">
         <f>IF(History!A54&lt;&gt;"",History!A54,"")</f>
         <v/>
       </c>
-      <c r="C54" s="4" t="str">
+      <c r="C54" s="3" t="str">
         <f ca="1">IF(History!A54&lt;&gt;"",SUM(History!B54:OFFSET(History!B54,0,COUNTA(History!54:54)-2)),"")</f>
         <v/>
       </c>
@@ -2714,27 +2714,27 @@
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="E54" s="4" t="str">
+      <c r="E54" s="3" t="str">
         <f ca="1">IF(History!A54&lt;&gt;0,COUNTIF(History!C54:OFFSET(History!C54,0,COUNTA(History!54:54)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F54" s="4" t="str">
+      <c r="F54" s="3" t="str">
         <f ca="1">IF(History!A54&lt;&gt;0,COUNTIF(History!C54:OFFSET(History!C54,0,COUNTA(History!54:54)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G54" s="6" t="str">
+      <c r="G54" s="4" t="str">
         <f ca="1">IF(MAX(History!54:54)&gt;0,MAX(History!C54:OFFSET(History!C54,0,COUNTA(History!54:54)-3)),"")</f>
         <v/>
       </c>
-      <c r="H54" s="6" t="str">
+      <c r="H54" s="4" t="str">
         <f ca="1">IF(History!A54&lt;&gt;0,MIN(History!C54:OFFSET(History!C54,0,COUNTA(History!54:54)-3)),"")</f>
         <v/>
       </c>
-      <c r="I54" s="6" t="str">
+      <c r="I54" s="4" t="str">
         <f>IF(History!A54&lt;&gt;"",History!B54,"")</f>
         <v/>
       </c>
-      <c r="J54" s="4" t="str">
+      <c r="J54" s="3" t="str">
         <f ca="1">IF(History!A54&lt;&gt;"",SUM(OFFSET(History!C54,0,COUNT(History!54:54)-IF(COUNT(History!54:54)&lt;=5,COUNT(History!54:54),5)):OFFSET(History!C54,0,COUNT(History!54:54)-1)),"")</f>
         <v/>
       </c>
@@ -2743,11 +2743,11 @@
       <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="5" t="str">
+      <c r="B55" s="7" t="str">
         <f>IF(History!A55&lt;&gt;"",History!A55,"")</f>
         <v/>
       </c>
-      <c r="C55" s="4" t="str">
+      <c r="C55" s="3" t="str">
         <f ca="1">IF(History!A55&lt;&gt;"",SUM(History!B55:OFFSET(History!B55,0,COUNTA(History!55:55)-2)),"")</f>
         <v/>
       </c>
@@ -2755,27 +2755,27 @@
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="E55" s="4" t="str">
+      <c r="E55" s="3" t="str">
         <f ca="1">IF(History!A55&lt;&gt;0,COUNTIF(History!C55:OFFSET(History!C55,0,COUNTA(History!55:55)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F55" s="4" t="str">
+      <c r="F55" s="3" t="str">
         <f ca="1">IF(History!A55&lt;&gt;0,COUNTIF(History!C55:OFFSET(History!C55,0,COUNTA(History!55:55)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G55" s="6" t="str">
+      <c r="G55" s="4" t="str">
         <f ca="1">IF(MAX(History!55:55)&gt;0,MAX(History!C55:OFFSET(History!C55,0,COUNTA(History!55:55)-3)),"")</f>
         <v/>
       </c>
-      <c r="H55" s="6" t="str">
+      <c r="H55" s="4" t="str">
         <f ca="1">IF(History!A55&lt;&gt;0,MIN(History!C55:OFFSET(History!C55,0,COUNTA(History!55:55)-3)),"")</f>
         <v/>
       </c>
-      <c r="I55" s="6" t="str">
+      <c r="I55" s="4" t="str">
         <f>IF(History!A55&lt;&gt;"",History!B55,"")</f>
         <v/>
       </c>
-      <c r="J55" s="4" t="str">
+      <c r="J55" s="3" t="str">
         <f ca="1">IF(History!A55&lt;&gt;"",SUM(OFFSET(History!C55,0,COUNT(History!55:55)-IF(COUNT(History!55:55)&lt;=5,COUNT(History!55:55),5)):OFFSET(History!C55,0,COUNT(History!55:55)-1)),"")</f>
         <v/>
       </c>
@@ -2784,11 +2784,11 @@
       <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="5" t="str">
+      <c r="B56" s="7" t="str">
         <f>IF(History!A56&lt;&gt;"",History!A56,"")</f>
         <v/>
       </c>
-      <c r="C56" s="4" t="str">
+      <c r="C56" s="3" t="str">
         <f ca="1">IF(History!A56&lt;&gt;"",SUM(History!B56:OFFSET(History!B56,0,COUNTA(History!56:56)-2)),"")</f>
         <v/>
       </c>
@@ -2796,27 +2796,27 @@
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="E56" s="4" t="str">
+      <c r="E56" s="3" t="str">
         <f ca="1">IF(History!A56&lt;&gt;0,COUNTIF(History!C56:OFFSET(History!C56,0,COUNTA(History!56:56)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F56" s="4" t="str">
+      <c r="F56" s="3" t="str">
         <f ca="1">IF(History!A56&lt;&gt;0,COUNTIF(History!C56:OFFSET(History!C56,0,COUNTA(History!56:56)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G56" s="6" t="str">
+      <c r="G56" s="4" t="str">
         <f ca="1">IF(MAX(History!56:56)&gt;0,MAX(History!C56:OFFSET(History!C56,0,COUNTA(History!56:56)-3)),"")</f>
         <v/>
       </c>
-      <c r="H56" s="6" t="str">
+      <c r="H56" s="4" t="str">
         <f ca="1">IF(History!A56&lt;&gt;0,MIN(History!C56:OFFSET(History!C56,0,COUNTA(History!56:56)-3)),"")</f>
         <v/>
       </c>
-      <c r="I56" s="6" t="str">
+      <c r="I56" s="4" t="str">
         <f>IF(History!A56&lt;&gt;"",History!B56,"")</f>
         <v/>
       </c>
-      <c r="J56" s="4" t="str">
+      <c r="J56" s="3" t="str">
         <f ca="1">IF(History!A56&lt;&gt;"",SUM(OFFSET(History!C56,0,COUNT(History!56:56)-IF(COUNT(History!56:56)&lt;=5,COUNT(History!56:56),5)):OFFSET(History!C56,0,COUNT(History!56:56)-1)),"")</f>
         <v/>
       </c>
@@ -2825,11 +2825,11 @@
       <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" s="5" t="str">
+      <c r="B57" s="7" t="str">
         <f>IF(History!A57&lt;&gt;"",History!A57,"")</f>
         <v/>
       </c>
-      <c r="C57" s="4" t="str">
+      <c r="C57" s="3" t="str">
         <f ca="1">IF(History!A57&lt;&gt;"",SUM(History!B57:OFFSET(History!B57,0,COUNTA(History!57:57)-2)),"")</f>
         <v/>
       </c>
@@ -2837,27 +2837,27 @@
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="E57" s="4" t="str">
+      <c r="E57" s="3" t="str">
         <f ca="1">IF(History!A57&lt;&gt;0,COUNTIF(History!C57:OFFSET(History!C57,0,COUNTA(History!57:57)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F57" s="4" t="str">
+      <c r="F57" s="3" t="str">
         <f ca="1">IF(History!A57&lt;&gt;0,COUNTIF(History!C57:OFFSET(History!C57,0,COUNTA(History!57:57)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G57" s="6" t="str">
+      <c r="G57" s="4" t="str">
         <f ca="1">IF(MAX(History!57:57)&gt;0,MAX(History!C57:OFFSET(History!C57,0,COUNTA(History!57:57)-3)),"")</f>
         <v/>
       </c>
-      <c r="H57" s="6" t="str">
+      <c r="H57" s="4" t="str">
         <f ca="1">IF(History!A57&lt;&gt;0,MIN(History!C57:OFFSET(History!C57,0,COUNTA(History!57:57)-3)),"")</f>
         <v/>
       </c>
-      <c r="I57" s="6" t="str">
+      <c r="I57" s="4" t="str">
         <f>IF(History!A57&lt;&gt;"",History!B57,"")</f>
         <v/>
       </c>
-      <c r="J57" s="4" t="str">
+      <c r="J57" s="3" t="str">
         <f ca="1">IF(History!A57&lt;&gt;"",SUM(OFFSET(History!C57,0,COUNT(History!57:57)-IF(COUNT(History!57:57)&lt;=5,COUNT(History!57:57),5)):OFFSET(History!C57,0,COUNT(History!57:57)-1)),"")</f>
         <v/>
       </c>
@@ -2866,11 +2866,11 @@
       <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" s="5" t="str">
+      <c r="B58" s="7" t="str">
         <f>IF(History!A58&lt;&gt;"",History!A58,"")</f>
         <v/>
       </c>
-      <c r="C58" s="4" t="str">
+      <c r="C58" s="3" t="str">
         <f ca="1">IF(History!A58&lt;&gt;"",SUM(History!B58:OFFSET(History!B58,0,COUNTA(History!58:58)-2)),"")</f>
         <v/>
       </c>
@@ -2878,27 +2878,27 @@
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="E58" s="4" t="str">
+      <c r="E58" s="3" t="str">
         <f ca="1">IF(History!A58&lt;&gt;0,COUNTIF(History!C58:OFFSET(History!C58,0,COUNTA(History!58:58)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F58" s="4" t="str">
+      <c r="F58" s="3" t="str">
         <f ca="1">IF(History!A58&lt;&gt;0,COUNTIF(History!C58:OFFSET(History!C58,0,COUNTA(History!58:58)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G58" s="6" t="str">
+      <c r="G58" s="4" t="str">
         <f ca="1">IF(MAX(History!58:58)&gt;0,MAX(History!C58:OFFSET(History!C58,0,COUNTA(History!58:58)-3)),"")</f>
         <v/>
       </c>
-      <c r="H58" s="6" t="str">
+      <c r="H58" s="4" t="str">
         <f ca="1">IF(History!A58&lt;&gt;0,MIN(History!C58:OFFSET(History!C58,0,COUNTA(History!58:58)-3)),"")</f>
         <v/>
       </c>
-      <c r="I58" s="6" t="str">
+      <c r="I58" s="4" t="str">
         <f>IF(History!A58&lt;&gt;"",History!B58,"")</f>
         <v/>
       </c>
-      <c r="J58" s="4" t="str">
+      <c r="J58" s="3" t="str">
         <f ca="1">IF(History!A58&lt;&gt;"",SUM(OFFSET(History!C58,0,COUNT(History!58:58)-IF(COUNT(History!58:58)&lt;=5,COUNT(History!58:58),5)):OFFSET(History!C58,0,COUNT(History!58:58)-1)),"")</f>
         <v/>
       </c>
@@ -2907,11 +2907,11 @@
       <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" s="5" t="str">
+      <c r="B59" s="7" t="str">
         <f>IF(History!A59&lt;&gt;"",History!A59,"")</f>
         <v/>
       </c>
-      <c r="C59" s="4" t="str">
+      <c r="C59" s="3" t="str">
         <f ca="1">IF(History!A59&lt;&gt;"",SUM(History!B59:OFFSET(History!B59,0,COUNTA(History!59:59)-2)),"")</f>
         <v/>
       </c>
@@ -2919,27 +2919,27 @@
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="E59" s="4" t="str">
+      <c r="E59" s="3" t="str">
         <f ca="1">IF(History!A59&lt;&gt;0,COUNTIF(History!C59:OFFSET(History!C59,0,COUNTA(History!59:59)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F59" s="4" t="str">
+      <c r="F59" s="3" t="str">
         <f ca="1">IF(History!A59&lt;&gt;0,COUNTIF(History!C59:OFFSET(History!C59,0,COUNTA(History!59:59)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G59" s="6" t="str">
+      <c r="G59" s="4" t="str">
         <f ca="1">IF(MAX(History!59:59)&gt;0,MAX(History!C59:OFFSET(History!C59,0,COUNTA(History!59:59)-3)),"")</f>
         <v/>
       </c>
-      <c r="H59" s="6" t="str">
+      <c r="H59" s="4" t="str">
         <f ca="1">IF(History!A59&lt;&gt;0,MIN(History!C59:OFFSET(History!C59,0,COUNTA(History!59:59)-3)),"")</f>
         <v/>
       </c>
-      <c r="I59" s="6" t="str">
+      <c r="I59" s="4" t="str">
         <f>IF(History!A59&lt;&gt;"",History!B59,"")</f>
         <v/>
       </c>
-      <c r="J59" s="4" t="str">
+      <c r="J59" s="3" t="str">
         <f ca="1">IF(History!A59&lt;&gt;"",SUM(OFFSET(History!C59,0,COUNT(History!59:59)-IF(COUNT(History!59:59)&lt;=5,COUNT(History!59:59),5)):OFFSET(History!C59,0,COUNT(History!59:59)-1)),"")</f>
         <v/>
       </c>
@@ -2948,11 +2948,11 @@
       <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" s="5" t="str">
+      <c r="B60" s="7" t="str">
         <f>IF(History!A60&lt;&gt;"",History!A60,"")</f>
         <v/>
       </c>
-      <c r="C60" s="4" t="str">
+      <c r="C60" s="3" t="str">
         <f ca="1">IF(History!A60&lt;&gt;"",SUM(History!B60:OFFSET(History!B60,0,COUNTA(History!60:60)-2)),"")</f>
         <v/>
       </c>
@@ -2960,27 +2960,27 @@
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="E60" s="4" t="str">
+      <c r="E60" s="3" t="str">
         <f ca="1">IF(History!A60&lt;&gt;0,COUNTIF(History!C60:OFFSET(History!C60,0,COUNTA(History!60:60)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F60" s="4" t="str">
+      <c r="F60" s="3" t="str">
         <f ca="1">IF(History!A60&lt;&gt;0,COUNTIF(History!C60:OFFSET(History!C60,0,COUNTA(History!60:60)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G60" s="6" t="str">
+      <c r="G60" s="4" t="str">
         <f ca="1">IF(MAX(History!60:60)&gt;0,MAX(History!C60:OFFSET(History!C60,0,COUNTA(History!60:60)-3)),"")</f>
         <v/>
       </c>
-      <c r="H60" s="6" t="str">
+      <c r="H60" s="4" t="str">
         <f ca="1">IF(History!A60&lt;&gt;0,MIN(History!C60:OFFSET(History!C60,0,COUNTA(History!60:60)-3)),"")</f>
         <v/>
       </c>
-      <c r="I60" s="6" t="str">
+      <c r="I60" s="4" t="str">
         <f>IF(History!A60&lt;&gt;"",History!B60,"")</f>
         <v/>
       </c>
-      <c r="J60" s="4" t="str">
+      <c r="J60" s="3" t="str">
         <f ca="1">IF(History!A60&lt;&gt;"",SUM(OFFSET(History!C60,0,COUNT(History!60:60)-IF(COUNT(History!60:60)&lt;=5,COUNT(History!60:60),5)):OFFSET(History!C60,0,COUNT(History!60:60)-1)),"")</f>
         <v/>
       </c>
@@ -2989,11 +2989,11 @@
       <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="5" t="str">
+      <c r="B61" s="7" t="str">
         <f>IF(History!A61&lt;&gt;"",History!A61,"")</f>
         <v/>
       </c>
-      <c r="C61" s="4" t="str">
+      <c r="C61" s="3" t="str">
         <f ca="1">IF(History!A61&lt;&gt;"",SUM(History!B61:OFFSET(History!B61,0,COUNTA(History!61:61)-2)),"")</f>
         <v/>
       </c>
@@ -3001,27 +3001,27 @@
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="E61" s="4" t="str">
+      <c r="E61" s="3" t="str">
         <f ca="1">IF(History!A61&lt;&gt;0,COUNTIF(History!C61:OFFSET(History!C61,0,COUNTA(History!61:61)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F61" s="4" t="str">
+      <c r="F61" s="3" t="str">
         <f ca="1">IF(History!A61&lt;&gt;0,COUNTIF(History!C61:OFFSET(History!C61,0,COUNTA(History!61:61)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G61" s="6" t="str">
+      <c r="G61" s="4" t="str">
         <f ca="1">IF(MAX(History!61:61)&gt;0,MAX(History!C61:OFFSET(History!C61,0,COUNTA(History!61:61)-3)),"")</f>
         <v/>
       </c>
-      <c r="H61" s="6" t="str">
+      <c r="H61" s="4" t="str">
         <f ca="1">IF(History!A61&lt;&gt;0,MIN(History!C61:OFFSET(History!C61,0,COUNTA(History!61:61)-3)),"")</f>
         <v/>
       </c>
-      <c r="I61" s="6" t="str">
+      <c r="I61" s="4" t="str">
         <f>IF(History!A61&lt;&gt;"",History!B61,"")</f>
         <v/>
       </c>
-      <c r="J61" s="4" t="str">
+      <c r="J61" s="3" t="str">
         <f ca="1">IF(History!A61&lt;&gt;"",SUM(OFFSET(History!C61,0,COUNT(History!61:61)-IF(COUNT(History!61:61)&lt;=5,COUNT(History!61:61),5)):OFFSET(History!C61,0,COUNT(History!61:61)-1)),"")</f>
         <v/>
       </c>
@@ -3030,11 +3030,11 @@
       <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62" s="5" t="str">
+      <c r="B62" s="7" t="str">
         <f>IF(History!A62&lt;&gt;"",History!A62,"")</f>
         <v/>
       </c>
-      <c r="C62" s="4" t="str">
+      <c r="C62" s="3" t="str">
         <f ca="1">IF(History!A62&lt;&gt;"",SUM(History!B62:OFFSET(History!B62,0,COUNTA(History!62:62)-2)),"")</f>
         <v/>
       </c>
@@ -3042,27 +3042,27 @@
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="E62" s="4" t="str">
+      <c r="E62" s="3" t="str">
         <f ca="1">IF(History!A62&lt;&gt;0,COUNTIF(History!C62:OFFSET(History!C62,0,COUNTA(History!62:62)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F62" s="4" t="str">
+      <c r="F62" s="3" t="str">
         <f ca="1">IF(History!A62&lt;&gt;0,COUNTIF(History!C62:OFFSET(History!C62,0,COUNTA(History!62:62)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G62" s="6" t="str">
+      <c r="G62" s="4" t="str">
         <f ca="1">IF(MAX(History!62:62)&gt;0,MAX(History!C62:OFFSET(History!C62,0,COUNTA(History!62:62)-3)),"")</f>
         <v/>
       </c>
-      <c r="H62" s="6" t="str">
+      <c r="H62" s="4" t="str">
         <f ca="1">IF(History!A62&lt;&gt;0,MIN(History!C62:OFFSET(History!C62,0,COUNTA(History!62:62)-3)),"")</f>
         <v/>
       </c>
-      <c r="I62" s="6" t="str">
+      <c r="I62" s="4" t="str">
         <f>IF(History!A62&lt;&gt;"",History!B62,"")</f>
         <v/>
       </c>
-      <c r="J62" s="4" t="str">
+      <c r="J62" s="3" t="str">
         <f ca="1">IF(History!A62&lt;&gt;"",SUM(OFFSET(History!C62,0,COUNT(History!62:62)-IF(COUNT(History!62:62)&lt;=5,COUNT(History!62:62),5)):OFFSET(History!C62,0,COUNT(History!62:62)-1)),"")</f>
         <v/>
       </c>
@@ -3071,11 +3071,11 @@
       <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="B63" s="5" t="str">
+      <c r="B63" s="7" t="str">
         <f>IF(History!A63&lt;&gt;"",History!A63,"")</f>
         <v/>
       </c>
-      <c r="C63" s="4" t="str">
+      <c r="C63" s="3" t="str">
         <f ca="1">IF(History!A63&lt;&gt;"",SUM(History!B63:OFFSET(History!B63,0,COUNTA(History!63:63)-2)),"")</f>
         <v/>
       </c>
@@ -3083,27 +3083,27 @@
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="E63" s="4" t="str">
+      <c r="E63" s="3" t="str">
         <f ca="1">IF(History!A63&lt;&gt;0,COUNTIF(History!C63:OFFSET(History!C63,0,COUNTA(History!63:63)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F63" s="4" t="str">
+      <c r="F63" s="3" t="str">
         <f ca="1">IF(History!A63&lt;&gt;0,COUNTIF(History!C63:OFFSET(History!C63,0,COUNTA(History!63:63)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G63" s="6" t="str">
+      <c r="G63" s="4" t="str">
         <f ca="1">IF(MAX(History!63:63)&gt;0,MAX(History!C63:OFFSET(History!C63,0,COUNTA(History!63:63)-3)),"")</f>
         <v/>
       </c>
-      <c r="H63" s="6" t="str">
+      <c r="H63" s="4" t="str">
         <f ca="1">IF(History!A63&lt;&gt;0,MIN(History!C63:OFFSET(History!C63,0,COUNTA(History!63:63)-3)),"")</f>
         <v/>
       </c>
-      <c r="I63" s="6" t="str">
+      <c r="I63" s="4" t="str">
         <f>IF(History!A63&lt;&gt;"",History!B63,"")</f>
         <v/>
       </c>
-      <c r="J63" s="4" t="str">
+      <c r="J63" s="3" t="str">
         <f ca="1">IF(History!A63&lt;&gt;"",SUM(OFFSET(History!C63,0,COUNT(History!63:63)-IF(COUNT(History!63:63)&lt;=5,COUNT(History!63:63),5)):OFFSET(History!C63,0,COUNT(History!63:63)-1)),"")</f>
         <v/>
       </c>
@@ -3112,11 +3112,11 @@
       <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="B64" s="5" t="str">
+      <c r="B64" s="7" t="str">
         <f>IF(History!A64&lt;&gt;"",History!A64,"")</f>
         <v/>
       </c>
-      <c r="C64" s="4" t="str">
+      <c r="C64" s="3" t="str">
         <f ca="1">IF(History!A64&lt;&gt;"",SUM(History!B64:OFFSET(History!B64,0,COUNTA(History!64:64)-2)),"")</f>
         <v/>
       </c>
@@ -3124,27 +3124,27 @@
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="E64" s="4" t="str">
+      <c r="E64" s="3" t="str">
         <f ca="1">IF(History!A64&lt;&gt;0,COUNTIF(History!C64:OFFSET(History!C64,0,COUNTA(History!64:64)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F64" s="4" t="str">
+      <c r="F64" s="3" t="str">
         <f ca="1">IF(History!A64&lt;&gt;0,COUNTIF(History!C64:OFFSET(History!C64,0,COUNTA(History!64:64)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G64" s="6" t="str">
+      <c r="G64" s="4" t="str">
         <f ca="1">IF(MAX(History!64:64)&gt;0,MAX(History!C64:OFFSET(History!C64,0,COUNTA(History!64:64)-3)),"")</f>
         <v/>
       </c>
-      <c r="H64" s="6" t="str">
+      <c r="H64" s="4" t="str">
         <f ca="1">IF(History!A64&lt;&gt;0,MIN(History!C64:OFFSET(History!C64,0,COUNTA(History!64:64)-3)),"")</f>
         <v/>
       </c>
-      <c r="I64" s="6" t="str">
+      <c r="I64" s="4" t="str">
         <f>IF(History!A64&lt;&gt;"",History!B64,"")</f>
         <v/>
       </c>
-      <c r="J64" s="4" t="str">
+      <c r="J64" s="3" t="str">
         <f ca="1">IF(History!A64&lt;&gt;"",SUM(OFFSET(History!C64,0,COUNT(History!64:64)-IF(COUNT(History!64:64)&lt;=5,COUNT(History!64:64),5)):OFFSET(History!C64,0,COUNT(History!64:64)-1)),"")</f>
         <v/>
       </c>
@@ -3153,11 +3153,11 @@
       <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="B65" s="5" t="str">
+      <c r="B65" s="7" t="str">
         <f>IF(History!A65&lt;&gt;"",History!A65,"")</f>
         <v/>
       </c>
-      <c r="C65" s="4" t="str">
+      <c r="C65" s="3" t="str">
         <f ca="1">IF(History!A65&lt;&gt;"",SUM(History!B65:OFFSET(History!B65,0,COUNTA(History!65:65)-2)),"")</f>
         <v/>
       </c>
@@ -3165,27 +3165,27 @@
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="E65" s="4" t="str">
+      <c r="E65" s="3" t="str">
         <f ca="1">IF(History!A65&lt;&gt;0,COUNTIF(History!C65:OFFSET(History!C65,0,COUNTA(History!65:65)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F65" s="4" t="str">
+      <c r="F65" s="3" t="str">
         <f ca="1">IF(History!A65&lt;&gt;0,COUNTIF(History!C65:OFFSET(History!C65,0,COUNTA(History!65:65)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G65" s="6" t="str">
+      <c r="G65" s="4" t="str">
         <f ca="1">IF(MAX(History!65:65)&gt;0,MAX(History!C65:OFFSET(History!C65,0,COUNTA(History!65:65)-3)),"")</f>
         <v/>
       </c>
-      <c r="H65" s="6" t="str">
+      <c r="H65" s="4" t="str">
         <f ca="1">IF(History!A65&lt;&gt;0,MIN(History!C65:OFFSET(History!C65,0,COUNTA(History!65:65)-3)),"")</f>
         <v/>
       </c>
-      <c r="I65" s="6" t="str">
+      <c r="I65" s="4" t="str">
         <f>IF(History!A65&lt;&gt;"",History!B65,"")</f>
         <v/>
       </c>
-      <c r="J65" s="4" t="str">
+      <c r="J65" s="3" t="str">
         <f ca="1">IF(History!A65&lt;&gt;"",SUM(OFFSET(History!C65,0,COUNT(History!65:65)-IF(COUNT(History!65:65)&lt;=5,COUNT(History!65:65),5)):OFFSET(History!C65,0,COUNT(History!65:65)-1)),"")</f>
         <v/>
       </c>
@@ -3194,11 +3194,11 @@
       <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="B66" s="5" t="str">
+      <c r="B66" s="7" t="str">
         <f>IF(History!A66&lt;&gt;"",History!A66,"")</f>
         <v/>
       </c>
-      <c r="C66" s="4" t="str">
+      <c r="C66" s="3" t="str">
         <f ca="1">IF(History!A66&lt;&gt;"",SUM(History!B66:OFFSET(History!B66,0,COUNTA(History!66:66)-2)),"")</f>
         <v/>
       </c>
@@ -3206,27 +3206,27 @@
         <f t="shared" ref="D66:D97" ca="1" si="2">IFERROR(E66/(E66+F66),"")</f>
         <v/>
       </c>
-      <c r="E66" s="4" t="str">
+      <c r="E66" s="3" t="str">
         <f ca="1">IF(History!A66&lt;&gt;0,COUNTIF(History!C66:OFFSET(History!C66,0,COUNTA(History!66:66)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F66" s="4" t="str">
+      <c r="F66" s="3" t="str">
         <f ca="1">IF(History!A66&lt;&gt;0,COUNTIF(History!C66:OFFSET(History!C66,0,COUNTA(History!66:66)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G66" s="6" t="str">
+      <c r="G66" s="4" t="str">
         <f ca="1">IF(MAX(History!66:66)&gt;0,MAX(History!C66:OFFSET(History!C66,0,COUNTA(History!66:66)-3)),"")</f>
         <v/>
       </c>
-      <c r="H66" s="6" t="str">
+      <c r="H66" s="4" t="str">
         <f ca="1">IF(History!A66&lt;&gt;0,MIN(History!C66:OFFSET(History!C66,0,COUNTA(History!66:66)-3)),"")</f>
         <v/>
       </c>
-      <c r="I66" s="6" t="str">
+      <c r="I66" s="4" t="str">
         <f>IF(History!A66&lt;&gt;"",History!B66,"")</f>
         <v/>
       </c>
-      <c r="J66" s="4" t="str">
+      <c r="J66" s="3" t="str">
         <f ca="1">IF(History!A66&lt;&gt;"",SUM(OFFSET(History!C66,0,COUNT(History!66:66)-IF(COUNT(History!66:66)&lt;=5,COUNT(History!66:66),5)):OFFSET(History!C66,0,COUNT(History!66:66)-1)),"")</f>
         <v/>
       </c>
@@ -3235,11 +3235,11 @@
       <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="B67" s="5" t="str">
+      <c r="B67" s="7" t="str">
         <f>IF(History!A67&lt;&gt;"",History!A67,"")</f>
         <v/>
       </c>
-      <c r="C67" s="4" t="str">
+      <c r="C67" s="3" t="str">
         <f ca="1">IF(History!A67&lt;&gt;"",SUM(History!B67:OFFSET(History!B67,0,COUNTA(History!67:67)-2)),"")</f>
         <v/>
       </c>
@@ -3247,27 +3247,27 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="E67" s="4" t="str">
+      <c r="E67" s="3" t="str">
         <f ca="1">IF(History!A67&lt;&gt;0,COUNTIF(History!C67:OFFSET(History!C67,0,COUNTA(History!67:67)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F67" s="4" t="str">
+      <c r="F67" s="3" t="str">
         <f ca="1">IF(History!A67&lt;&gt;0,COUNTIF(History!C67:OFFSET(History!C67,0,COUNTA(History!67:67)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G67" s="6" t="str">
+      <c r="G67" s="4" t="str">
         <f ca="1">IF(MAX(History!67:67)&gt;0,MAX(History!C67:OFFSET(History!C67,0,COUNTA(History!67:67)-3)),"")</f>
         <v/>
       </c>
-      <c r="H67" s="6" t="str">
+      <c r="H67" s="4" t="str">
         <f ca="1">IF(History!A67&lt;&gt;0,MIN(History!C67:OFFSET(History!C67,0,COUNTA(History!67:67)-3)),"")</f>
         <v/>
       </c>
-      <c r="I67" s="6" t="str">
+      <c r="I67" s="4" t="str">
         <f>IF(History!A67&lt;&gt;"",History!B67,"")</f>
         <v/>
       </c>
-      <c r="J67" s="4" t="str">
+      <c r="J67" s="3" t="str">
         <f ca="1">IF(History!A67&lt;&gt;"",SUM(OFFSET(History!C67,0,COUNT(History!67:67)-IF(COUNT(History!67:67)&lt;=5,COUNT(History!67:67),5)):OFFSET(History!C67,0,COUNT(History!67:67)-1)),"")</f>
         <v/>
       </c>
@@ -3276,11 +3276,11 @@
       <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="B68" s="5" t="str">
+      <c r="B68" s="7" t="str">
         <f>IF(History!A68&lt;&gt;"",History!A68,"")</f>
         <v/>
       </c>
-      <c r="C68" s="4" t="str">
+      <c r="C68" s="3" t="str">
         <f ca="1">IF(History!A68&lt;&gt;"",SUM(History!B68:OFFSET(History!B68,0,COUNTA(History!68:68)-2)),"")</f>
         <v/>
       </c>
@@ -3288,27 +3288,27 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="E68" s="4" t="str">
+      <c r="E68" s="3" t="str">
         <f ca="1">IF(History!A68&lt;&gt;0,COUNTIF(History!C68:OFFSET(History!C68,0,COUNTA(History!68:68)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F68" s="4" t="str">
+      <c r="F68" s="3" t="str">
         <f ca="1">IF(History!A68&lt;&gt;0,COUNTIF(History!C68:OFFSET(History!C68,0,COUNTA(History!68:68)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G68" s="6" t="str">
+      <c r="G68" s="4" t="str">
         <f ca="1">IF(MAX(History!68:68)&gt;0,MAX(History!C68:OFFSET(History!C68,0,COUNTA(History!68:68)-3)),"")</f>
         <v/>
       </c>
-      <c r="H68" s="6" t="str">
+      <c r="H68" s="4" t="str">
         <f ca="1">IF(History!A68&lt;&gt;0,MIN(History!C68:OFFSET(History!C68,0,COUNTA(History!68:68)-3)),"")</f>
         <v/>
       </c>
-      <c r="I68" s="6" t="str">
+      <c r="I68" s="4" t="str">
         <f>IF(History!A68&lt;&gt;"",History!B68,"")</f>
         <v/>
       </c>
-      <c r="J68" s="4" t="str">
+      <c r="J68" s="3" t="str">
         <f ca="1">IF(History!A68&lt;&gt;"",SUM(OFFSET(History!C68,0,COUNT(History!68:68)-IF(COUNT(History!68:68)&lt;=5,COUNT(History!68:68),5)):OFFSET(History!C68,0,COUNT(History!68:68)-1)),"")</f>
         <v/>
       </c>
@@ -3317,11 +3317,11 @@
       <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="B69" s="5" t="str">
+      <c r="B69" s="7" t="str">
         <f>IF(History!A69&lt;&gt;"",History!A69,"")</f>
         <v/>
       </c>
-      <c r="C69" s="4" t="str">
+      <c r="C69" s="3" t="str">
         <f ca="1">IF(History!A69&lt;&gt;"",SUM(History!B69:OFFSET(History!B69,0,COUNTA(History!69:69)-2)),"")</f>
         <v/>
       </c>
@@ -3329,27 +3329,27 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="E69" s="4" t="str">
+      <c r="E69" s="3" t="str">
         <f ca="1">IF(History!A69&lt;&gt;0,COUNTIF(History!C69:OFFSET(History!C69,0,COUNTA(History!69:69)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F69" s="4" t="str">
+      <c r="F69" s="3" t="str">
         <f ca="1">IF(History!A69&lt;&gt;0,COUNTIF(History!C69:OFFSET(History!C69,0,COUNTA(History!69:69)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G69" s="6" t="str">
+      <c r="G69" s="4" t="str">
         <f ca="1">IF(MAX(History!69:69)&gt;0,MAX(History!C69:OFFSET(History!C69,0,COUNTA(History!69:69)-3)),"")</f>
         <v/>
       </c>
-      <c r="H69" s="6" t="str">
+      <c r="H69" s="4" t="str">
         <f ca="1">IF(History!A69&lt;&gt;0,MIN(History!C69:OFFSET(History!C69,0,COUNTA(History!69:69)-3)),"")</f>
         <v/>
       </c>
-      <c r="I69" s="6" t="str">
+      <c r="I69" s="4" t="str">
         <f>IF(History!A69&lt;&gt;"",History!B69,"")</f>
         <v/>
       </c>
-      <c r="J69" s="4" t="str">
+      <c r="J69" s="3" t="str">
         <f ca="1">IF(History!A69&lt;&gt;"",SUM(OFFSET(History!C69,0,COUNT(History!69:69)-IF(COUNT(History!69:69)&lt;=5,COUNT(History!69:69),5)):OFFSET(History!C69,0,COUNT(History!69:69)-1)),"")</f>
         <v/>
       </c>
@@ -3358,11 +3358,11 @@
       <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="B70" s="5" t="str">
+      <c r="B70" s="7" t="str">
         <f>IF(History!A70&lt;&gt;"",History!A70,"")</f>
         <v/>
       </c>
-      <c r="C70" s="4" t="str">
+      <c r="C70" s="3" t="str">
         <f ca="1">IF(History!A70&lt;&gt;"",SUM(History!B70:OFFSET(History!B70,0,COUNTA(History!70:70)-2)),"")</f>
         <v/>
       </c>
@@ -3370,27 +3370,27 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="E70" s="4" t="str">
+      <c r="E70" s="3" t="str">
         <f ca="1">IF(History!A70&lt;&gt;0,COUNTIF(History!C70:OFFSET(History!C70,0,COUNTA(History!70:70)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F70" s="4" t="str">
+      <c r="F70" s="3" t="str">
         <f ca="1">IF(History!A70&lt;&gt;0,COUNTIF(History!C70:OFFSET(History!C70,0,COUNTA(History!70:70)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G70" s="6" t="str">
+      <c r="G70" s="4" t="str">
         <f ca="1">IF(MAX(History!70:70)&gt;0,MAX(History!C70:OFFSET(History!C70,0,COUNTA(History!70:70)-3)),"")</f>
         <v/>
       </c>
-      <c r="H70" s="6" t="str">
+      <c r="H70" s="4" t="str">
         <f ca="1">IF(History!A70&lt;&gt;0,MIN(History!C70:OFFSET(History!C70,0,COUNTA(History!70:70)-3)),"")</f>
         <v/>
       </c>
-      <c r="I70" s="6" t="str">
+      <c r="I70" s="4" t="str">
         <f>IF(History!A70&lt;&gt;"",History!B70,"")</f>
         <v/>
       </c>
-      <c r="J70" s="4" t="str">
+      <c r="J70" s="3" t="str">
         <f ca="1">IF(History!A70&lt;&gt;"",SUM(OFFSET(History!C70,0,COUNT(History!70:70)-IF(COUNT(History!70:70)&lt;=5,COUNT(History!70:70),5)):OFFSET(History!C70,0,COUNT(History!70:70)-1)),"")</f>
         <v/>
       </c>
@@ -3399,11 +3399,11 @@
       <c r="A71" s="1">
         <v>70</v>
       </c>
-      <c r="B71" s="5" t="str">
+      <c r="B71" s="7" t="str">
         <f>IF(History!A71&lt;&gt;"",History!A71,"")</f>
         <v/>
       </c>
-      <c r="C71" s="4" t="str">
+      <c r="C71" s="3" t="str">
         <f ca="1">IF(History!A71&lt;&gt;"",SUM(History!B71:OFFSET(History!B71,0,COUNTA(History!71:71)-2)),"")</f>
         <v/>
       </c>
@@ -3411,27 +3411,27 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="E71" s="4" t="str">
+      <c r="E71" s="3" t="str">
         <f ca="1">IF(History!A71&lt;&gt;0,COUNTIF(History!C71:OFFSET(History!C71,0,COUNTA(History!71:71)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F71" s="4" t="str">
+      <c r="F71" s="3" t="str">
         <f ca="1">IF(History!A71&lt;&gt;0,COUNTIF(History!C71:OFFSET(History!C71,0,COUNTA(History!71:71)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G71" s="6" t="str">
+      <c r="G71" s="4" t="str">
         <f ca="1">IF(MAX(History!71:71)&gt;0,MAX(History!C71:OFFSET(History!C71,0,COUNTA(History!71:71)-3)),"")</f>
         <v/>
       </c>
-      <c r="H71" s="6" t="str">
+      <c r="H71" s="4" t="str">
         <f ca="1">IF(History!A71&lt;&gt;0,MIN(History!C71:OFFSET(History!C71,0,COUNTA(History!71:71)-3)),"")</f>
         <v/>
       </c>
-      <c r="I71" s="6" t="str">
+      <c r="I71" s="4" t="str">
         <f>IF(History!A71&lt;&gt;"",History!B71,"")</f>
         <v/>
       </c>
-      <c r="J71" s="4" t="str">
+      <c r="J71" s="3" t="str">
         <f ca="1">IF(History!A71&lt;&gt;"",SUM(OFFSET(History!C71,0,COUNT(History!71:71)-IF(COUNT(History!71:71)&lt;=5,COUNT(History!71:71),5)):OFFSET(History!C71,0,COUNT(History!71:71)-1)),"")</f>
         <v/>
       </c>
@@ -3440,11 +3440,11 @@
       <c r="A72" s="1">
         <v>71</v>
       </c>
-      <c r="B72" s="5" t="str">
+      <c r="B72" s="7" t="str">
         <f>IF(History!A72&lt;&gt;"",History!A72,"")</f>
         <v/>
       </c>
-      <c r="C72" s="4" t="str">
+      <c r="C72" s="3" t="str">
         <f ca="1">IF(History!A72&lt;&gt;"",SUM(History!B72:OFFSET(History!B72,0,COUNTA(History!72:72)-2)),"")</f>
         <v/>
       </c>
@@ -3452,27 +3452,27 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="E72" s="4" t="str">
+      <c r="E72" s="3" t="str">
         <f ca="1">IF(History!A72&lt;&gt;0,COUNTIF(History!C72:OFFSET(History!C72,0,COUNTA(History!72:72)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F72" s="4" t="str">
+      <c r="F72" s="3" t="str">
         <f ca="1">IF(History!A72&lt;&gt;0,COUNTIF(History!C72:OFFSET(History!C72,0,COUNTA(History!72:72)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G72" s="6" t="str">
+      <c r="G72" s="4" t="str">
         <f ca="1">IF(MAX(History!72:72)&gt;0,MAX(History!C72:OFFSET(History!C72,0,COUNTA(History!72:72)-3)),"")</f>
         <v/>
       </c>
-      <c r="H72" s="6" t="str">
+      <c r="H72" s="4" t="str">
         <f ca="1">IF(History!A72&lt;&gt;0,MIN(History!C72:OFFSET(History!C72,0,COUNTA(History!72:72)-3)),"")</f>
         <v/>
       </c>
-      <c r="I72" s="6" t="str">
+      <c r="I72" s="4" t="str">
         <f>IF(History!A72&lt;&gt;"",History!B72,"")</f>
         <v/>
       </c>
-      <c r="J72" s="4" t="str">
+      <c r="J72" s="3" t="str">
         <f ca="1">IF(History!A72&lt;&gt;"",SUM(OFFSET(History!C72,0,COUNT(History!72:72)-IF(COUNT(History!72:72)&lt;=5,COUNT(History!72:72),5)):OFFSET(History!C72,0,COUNT(History!72:72)-1)),"")</f>
         <v/>
       </c>
@@ -3481,11 +3481,11 @@
       <c r="A73" s="1">
         <v>72</v>
       </c>
-      <c r="B73" s="5" t="str">
+      <c r="B73" s="7" t="str">
         <f>IF(History!A73&lt;&gt;"",History!A73,"")</f>
         <v/>
       </c>
-      <c r="C73" s="4" t="str">
+      <c r="C73" s="3" t="str">
         <f ca="1">IF(History!A73&lt;&gt;"",SUM(History!B73:OFFSET(History!B73,0,COUNTA(History!73:73)-2)),"")</f>
         <v/>
       </c>
@@ -3493,27 +3493,27 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="E73" s="4" t="str">
+      <c r="E73" s="3" t="str">
         <f ca="1">IF(History!A73&lt;&gt;0,COUNTIF(History!C73:OFFSET(History!C73,0,COUNTA(History!73:73)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F73" s="4" t="str">
+      <c r="F73" s="3" t="str">
         <f ca="1">IF(History!A73&lt;&gt;0,COUNTIF(History!C73:OFFSET(History!C73,0,COUNTA(History!73:73)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G73" s="6" t="str">
+      <c r="G73" s="4" t="str">
         <f ca="1">IF(MAX(History!73:73)&gt;0,MAX(History!C73:OFFSET(History!C73,0,COUNTA(History!73:73)-3)),"")</f>
         <v/>
       </c>
-      <c r="H73" s="6" t="str">
+      <c r="H73" s="4" t="str">
         <f ca="1">IF(History!A73&lt;&gt;0,MIN(History!C73:OFFSET(History!C73,0,COUNTA(History!73:73)-3)),"")</f>
         <v/>
       </c>
-      <c r="I73" s="6" t="str">
+      <c r="I73" s="4" t="str">
         <f>IF(History!A73&lt;&gt;"",History!B73,"")</f>
         <v/>
       </c>
-      <c r="J73" s="4" t="str">
+      <c r="J73" s="3" t="str">
         <f ca="1">IF(History!A73&lt;&gt;"",SUM(OFFSET(History!C73,0,COUNT(History!73:73)-IF(COUNT(History!73:73)&lt;=5,COUNT(History!73:73),5)):OFFSET(History!C73,0,COUNT(History!73:73)-1)),"")</f>
         <v/>
       </c>
@@ -3522,11 +3522,11 @@
       <c r="A74" s="1">
         <v>73</v>
       </c>
-      <c r="B74" s="5" t="str">
+      <c r="B74" s="7" t="str">
         <f>IF(History!A74&lt;&gt;"",History!A74,"")</f>
         <v/>
       </c>
-      <c r="C74" s="4" t="str">
+      <c r="C74" s="3" t="str">
         <f ca="1">IF(History!A74&lt;&gt;"",SUM(History!B74:OFFSET(History!B74,0,COUNTA(History!74:74)-2)),"")</f>
         <v/>
       </c>
@@ -3534,27 +3534,27 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="E74" s="4" t="str">
+      <c r="E74" s="3" t="str">
         <f ca="1">IF(History!A74&lt;&gt;0,COUNTIF(History!C74:OFFSET(History!C74,0,COUNTA(History!74:74)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F74" s="4" t="str">
+      <c r="F74" s="3" t="str">
         <f ca="1">IF(History!A74&lt;&gt;0,COUNTIF(History!C74:OFFSET(History!C74,0,COUNTA(History!74:74)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G74" s="6" t="str">
+      <c r="G74" s="4" t="str">
         <f ca="1">IF(MAX(History!74:74)&gt;0,MAX(History!C74:OFFSET(History!C74,0,COUNTA(History!74:74)-3)),"")</f>
         <v/>
       </c>
-      <c r="H74" s="6" t="str">
+      <c r="H74" s="4" t="str">
         <f ca="1">IF(History!A74&lt;&gt;0,MIN(History!C74:OFFSET(History!C74,0,COUNTA(History!74:74)-3)),"")</f>
         <v/>
       </c>
-      <c r="I74" s="6" t="str">
+      <c r="I74" s="4" t="str">
         <f>IF(History!A74&lt;&gt;"",History!B74,"")</f>
         <v/>
       </c>
-      <c r="J74" s="4" t="str">
+      <c r="J74" s="3" t="str">
         <f ca="1">IF(History!A74&lt;&gt;"",SUM(OFFSET(History!C74,0,COUNT(History!74:74)-IF(COUNT(History!74:74)&lt;=5,COUNT(History!74:74),5)):OFFSET(History!C74,0,COUNT(History!74:74)-1)),"")</f>
         <v/>
       </c>
@@ -3563,11 +3563,11 @@
       <c r="A75" s="1">
         <v>74</v>
       </c>
-      <c r="B75" s="5" t="str">
+      <c r="B75" s="7" t="str">
         <f>IF(History!A75&lt;&gt;"",History!A75,"")</f>
         <v/>
       </c>
-      <c r="C75" s="4" t="str">
+      <c r="C75" s="3" t="str">
         <f ca="1">IF(History!A75&lt;&gt;"",SUM(History!B75:OFFSET(History!B75,0,COUNTA(History!75:75)-2)),"")</f>
         <v/>
       </c>
@@ -3575,27 +3575,27 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="E75" s="4" t="str">
+      <c r="E75" s="3" t="str">
         <f ca="1">IF(History!A75&lt;&gt;0,COUNTIF(History!C75:OFFSET(History!C75,0,COUNTA(History!75:75)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F75" s="4" t="str">
+      <c r="F75" s="3" t="str">
         <f ca="1">IF(History!A75&lt;&gt;0,COUNTIF(History!C75:OFFSET(History!C75,0,COUNTA(History!75:75)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G75" s="6" t="str">
+      <c r="G75" s="4" t="str">
         <f ca="1">IF(MAX(History!75:75)&gt;0,MAX(History!C75:OFFSET(History!C75,0,COUNTA(History!75:75)-3)),"")</f>
         <v/>
       </c>
-      <c r="H75" s="6" t="str">
+      <c r="H75" s="4" t="str">
         <f ca="1">IF(History!A75&lt;&gt;0,MIN(History!C75:OFFSET(History!C75,0,COUNTA(History!75:75)-3)),"")</f>
         <v/>
       </c>
-      <c r="I75" s="6" t="str">
+      <c r="I75" s="4" t="str">
         <f>IF(History!A75&lt;&gt;"",History!B75,"")</f>
         <v/>
       </c>
-      <c r="J75" s="4" t="str">
+      <c r="J75" s="3" t="str">
         <f ca="1">IF(History!A75&lt;&gt;"",SUM(OFFSET(History!C75,0,COUNT(History!75:75)-IF(COUNT(History!75:75)&lt;=5,COUNT(History!75:75),5)):OFFSET(History!C75,0,COUNT(History!75:75)-1)),"")</f>
         <v/>
       </c>
@@ -3604,11 +3604,11 @@
       <c r="A76" s="1">
         <v>75</v>
       </c>
-      <c r="B76" s="5" t="str">
+      <c r="B76" s="7" t="str">
         <f>IF(History!A76&lt;&gt;"",History!A76,"")</f>
         <v/>
       </c>
-      <c r="C76" s="4" t="str">
+      <c r="C76" s="3" t="str">
         <f ca="1">IF(History!A76&lt;&gt;"",SUM(History!B76:OFFSET(History!B76,0,COUNTA(History!76:76)-2)),"")</f>
         <v/>
       </c>
@@ -3616,27 +3616,27 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="E76" s="4" t="str">
+      <c r="E76" s="3" t="str">
         <f ca="1">IF(History!A76&lt;&gt;0,COUNTIF(History!C76:OFFSET(History!C76,0,COUNTA(History!76:76)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F76" s="4" t="str">
+      <c r="F76" s="3" t="str">
         <f ca="1">IF(History!A76&lt;&gt;0,COUNTIF(History!C76:OFFSET(History!C76,0,COUNTA(History!76:76)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G76" s="6" t="str">
+      <c r="G76" s="4" t="str">
         <f ca="1">IF(MAX(History!76:76)&gt;0,MAX(History!C76:OFFSET(History!C76,0,COUNTA(History!76:76)-3)),"")</f>
         <v/>
       </c>
-      <c r="H76" s="6" t="str">
+      <c r="H76" s="4" t="str">
         <f ca="1">IF(History!A76&lt;&gt;0,MIN(History!C76:OFFSET(History!C76,0,COUNTA(History!76:76)-3)),"")</f>
         <v/>
       </c>
-      <c r="I76" s="6" t="str">
+      <c r="I76" s="4" t="str">
         <f>IF(History!A76&lt;&gt;"",History!B76,"")</f>
         <v/>
       </c>
-      <c r="J76" s="4" t="str">
+      <c r="J76" s="3" t="str">
         <f ca="1">IF(History!A76&lt;&gt;"",SUM(OFFSET(History!C76,0,COUNT(History!76:76)-IF(COUNT(History!76:76)&lt;=5,COUNT(History!76:76),5)):OFFSET(History!C76,0,COUNT(History!76:76)-1)),"")</f>
         <v/>
       </c>
@@ -3645,11 +3645,11 @@
       <c r="A77" s="1">
         <v>76</v>
       </c>
-      <c r="B77" s="5" t="str">
+      <c r="B77" s="7" t="str">
         <f>IF(History!A77&lt;&gt;"",History!A77,"")</f>
         <v/>
       </c>
-      <c r="C77" s="4" t="str">
+      <c r="C77" s="3" t="str">
         <f ca="1">IF(History!A77&lt;&gt;"",SUM(History!B77:OFFSET(History!B77,0,COUNTA(History!77:77)-2)),"")</f>
         <v/>
       </c>
@@ -3657,27 +3657,27 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="E77" s="4" t="str">
+      <c r="E77" s="3" t="str">
         <f ca="1">IF(History!A77&lt;&gt;0,COUNTIF(History!C77:OFFSET(History!C77,0,COUNTA(History!77:77)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F77" s="4" t="str">
+      <c r="F77" s="3" t="str">
         <f ca="1">IF(History!A77&lt;&gt;0,COUNTIF(History!C77:OFFSET(History!C77,0,COUNTA(History!77:77)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G77" s="6" t="str">
+      <c r="G77" s="4" t="str">
         <f ca="1">IF(MAX(History!77:77)&gt;0,MAX(History!C77:OFFSET(History!C77,0,COUNTA(History!77:77)-3)),"")</f>
         <v/>
       </c>
-      <c r="H77" s="6" t="str">
+      <c r="H77" s="4" t="str">
         <f ca="1">IF(History!A77&lt;&gt;0,MIN(History!C77:OFFSET(History!C77,0,COUNTA(History!77:77)-3)),"")</f>
         <v/>
       </c>
-      <c r="I77" s="6" t="str">
+      <c r="I77" s="4" t="str">
         <f>IF(History!A77&lt;&gt;"",History!B77,"")</f>
         <v/>
       </c>
-      <c r="J77" s="4" t="str">
+      <c r="J77" s="3" t="str">
         <f ca="1">IF(History!A77&lt;&gt;"",SUM(OFFSET(History!C77,0,COUNT(History!77:77)-IF(COUNT(History!77:77)&lt;=5,COUNT(History!77:77),5)):OFFSET(History!C77,0,COUNT(History!77:77)-1)),"")</f>
         <v/>
       </c>
@@ -3686,11 +3686,11 @@
       <c r="A78" s="1">
         <v>77</v>
       </c>
-      <c r="B78" s="5" t="str">
+      <c r="B78" s="7" t="str">
         <f>IF(History!A78&lt;&gt;"",History!A78,"")</f>
         <v/>
       </c>
-      <c r="C78" s="4" t="str">
+      <c r="C78" s="3" t="str">
         <f ca="1">IF(History!A78&lt;&gt;"",SUM(History!B78:OFFSET(History!B78,0,COUNTA(History!78:78)-2)),"")</f>
         <v/>
       </c>
@@ -3698,27 +3698,27 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="E78" s="4" t="str">
+      <c r="E78" s="3" t="str">
         <f ca="1">IF(History!A78&lt;&gt;0,COUNTIF(History!C78:OFFSET(History!C78,0,COUNTA(History!78:78)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F78" s="4" t="str">
+      <c r="F78" s="3" t="str">
         <f ca="1">IF(History!A78&lt;&gt;0,COUNTIF(History!C78:OFFSET(History!C78,0,COUNTA(History!78:78)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G78" s="6" t="str">
+      <c r="G78" s="4" t="str">
         <f ca="1">IF(MAX(History!78:78)&gt;0,MAX(History!C78:OFFSET(History!C78,0,COUNTA(History!78:78)-3)),"")</f>
         <v/>
       </c>
-      <c r="H78" s="6" t="str">
+      <c r="H78" s="4" t="str">
         <f ca="1">IF(History!A78&lt;&gt;0,MIN(History!C78:OFFSET(History!C78,0,COUNTA(History!78:78)-3)),"")</f>
         <v/>
       </c>
-      <c r="I78" s="6" t="str">
+      <c r="I78" s="4" t="str">
         <f>IF(History!A78&lt;&gt;"",History!B78,"")</f>
         <v/>
       </c>
-      <c r="J78" s="4" t="str">
+      <c r="J78" s="3" t="str">
         <f ca="1">IF(History!A78&lt;&gt;"",SUM(OFFSET(History!C78,0,COUNT(History!78:78)-IF(COUNT(History!78:78)&lt;=5,COUNT(History!78:78),5)):OFFSET(History!C78,0,COUNT(History!78:78)-1)),"")</f>
         <v/>
       </c>
@@ -3727,11 +3727,11 @@
       <c r="A79" s="1">
         <v>78</v>
       </c>
-      <c r="B79" s="5" t="str">
+      <c r="B79" s="7" t="str">
         <f>IF(History!A79&lt;&gt;"",History!A79,"")</f>
         <v/>
       </c>
-      <c r="C79" s="4" t="str">
+      <c r="C79" s="3" t="str">
         <f ca="1">IF(History!A79&lt;&gt;"",SUM(History!B79:OFFSET(History!B79,0,COUNTA(History!79:79)-2)),"")</f>
         <v/>
       </c>
@@ -3739,27 +3739,27 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="E79" s="4" t="str">
+      <c r="E79" s="3" t="str">
         <f ca="1">IF(History!A79&lt;&gt;0,COUNTIF(History!C79:OFFSET(History!C79,0,COUNTA(History!79:79)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F79" s="4" t="str">
+      <c r="F79" s="3" t="str">
         <f ca="1">IF(History!A79&lt;&gt;0,COUNTIF(History!C79:OFFSET(History!C79,0,COUNTA(History!79:79)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G79" s="6" t="str">
+      <c r="G79" s="4" t="str">
         <f ca="1">IF(MAX(History!79:79)&gt;0,MAX(History!C79:OFFSET(History!C79,0,COUNTA(History!79:79)-3)),"")</f>
         <v/>
       </c>
-      <c r="H79" s="6" t="str">
+      <c r="H79" s="4" t="str">
         <f ca="1">IF(History!A79&lt;&gt;0,MIN(History!C79:OFFSET(History!C79,0,COUNTA(History!79:79)-3)),"")</f>
         <v/>
       </c>
-      <c r="I79" s="6" t="str">
+      <c r="I79" s="4" t="str">
         <f>IF(History!A79&lt;&gt;"",History!B79,"")</f>
         <v/>
       </c>
-      <c r="J79" s="4" t="str">
+      <c r="J79" s="3" t="str">
         <f ca="1">IF(History!A79&lt;&gt;"",SUM(OFFSET(History!C79,0,COUNT(History!79:79)-IF(COUNT(History!79:79)&lt;=5,COUNT(History!79:79),5)):OFFSET(History!C79,0,COUNT(History!79:79)-1)),"")</f>
         <v/>
       </c>
@@ -3768,11 +3768,11 @@
       <c r="A80" s="1">
         <v>79</v>
       </c>
-      <c r="B80" s="5" t="str">
+      <c r="B80" s="7" t="str">
         <f>IF(History!A80&lt;&gt;"",History!A80,"")</f>
         <v/>
       </c>
-      <c r="C80" s="4" t="str">
+      <c r="C80" s="3" t="str">
         <f ca="1">IF(History!A80&lt;&gt;"",SUM(History!B80:OFFSET(History!B80,0,COUNTA(History!80:80)-2)),"")</f>
         <v/>
       </c>
@@ -3780,27 +3780,27 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="E80" s="4" t="str">
+      <c r="E80" s="3" t="str">
         <f ca="1">IF(History!A80&lt;&gt;0,COUNTIF(History!C80:OFFSET(History!C80,0,COUNTA(History!80:80)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F80" s="4" t="str">
+      <c r="F80" s="3" t="str">
         <f ca="1">IF(History!A80&lt;&gt;0,COUNTIF(History!C80:OFFSET(History!C80,0,COUNTA(History!80:80)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G80" s="6" t="str">
+      <c r="G80" s="4" t="str">
         <f ca="1">IF(MAX(History!80:80)&gt;0,MAX(History!C80:OFFSET(History!C80,0,COUNTA(History!80:80)-3)),"")</f>
         <v/>
       </c>
-      <c r="H80" s="6" t="str">
+      <c r="H80" s="4" t="str">
         <f ca="1">IF(History!A80&lt;&gt;0,MIN(History!C80:OFFSET(History!C80,0,COUNTA(History!80:80)-3)),"")</f>
         <v/>
       </c>
-      <c r="I80" s="6" t="str">
+      <c r="I80" s="4" t="str">
         <f>IF(History!A80&lt;&gt;"",History!B80,"")</f>
         <v/>
       </c>
-      <c r="J80" s="4" t="str">
+      <c r="J80" s="3" t="str">
         <f ca="1">IF(History!A80&lt;&gt;"",SUM(OFFSET(History!C80,0,COUNT(History!80:80)-IF(COUNT(History!80:80)&lt;=5,COUNT(History!80:80),5)):OFFSET(History!C80,0,COUNT(History!80:80)-1)),"")</f>
         <v/>
       </c>
@@ -3809,11 +3809,11 @@
       <c r="A81" s="1">
         <v>80</v>
       </c>
-      <c r="B81" s="5" t="str">
+      <c r="B81" s="7" t="str">
         <f>IF(History!A81&lt;&gt;"",History!A81,"")</f>
         <v/>
       </c>
-      <c r="C81" s="4" t="str">
+      <c r="C81" s="3" t="str">
         <f ca="1">IF(History!A81&lt;&gt;"",SUM(History!B81:OFFSET(History!B81,0,COUNTA(History!81:81)-2)),"")</f>
         <v/>
       </c>
@@ -3821,27 +3821,27 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="E81" s="4" t="str">
+      <c r="E81" s="3" t="str">
         <f ca="1">IF(History!A81&lt;&gt;0,COUNTIF(History!C81:OFFSET(History!C81,0,COUNTA(History!81:81)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F81" s="4" t="str">
+      <c r="F81" s="3" t="str">
         <f ca="1">IF(History!A81&lt;&gt;0,COUNTIF(History!C81:OFFSET(History!C81,0,COUNTA(History!81:81)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G81" s="6" t="str">
+      <c r="G81" s="4" t="str">
         <f ca="1">IF(MAX(History!81:81)&gt;0,MAX(History!C81:OFFSET(History!C81,0,COUNTA(History!81:81)-3)),"")</f>
         <v/>
       </c>
-      <c r="H81" s="6" t="str">
+      <c r="H81" s="4" t="str">
         <f ca="1">IF(History!A81&lt;&gt;0,MIN(History!C81:OFFSET(History!C81,0,COUNTA(History!81:81)-3)),"")</f>
         <v/>
       </c>
-      <c r="I81" s="6" t="str">
+      <c r="I81" s="4" t="str">
         <f>IF(History!A81&lt;&gt;"",History!B81,"")</f>
         <v/>
       </c>
-      <c r="J81" s="4" t="str">
+      <c r="J81" s="3" t="str">
         <f ca="1">IF(History!A81&lt;&gt;"",SUM(OFFSET(History!C81,0,COUNT(History!81:81)-IF(COUNT(History!81:81)&lt;=5,COUNT(History!81:81),5)):OFFSET(History!C81,0,COUNT(History!81:81)-1)),"")</f>
         <v/>
       </c>
@@ -3850,11 +3850,11 @@
       <c r="A82" s="1">
         <v>81</v>
       </c>
-      <c r="B82" s="5" t="str">
+      <c r="B82" s="7" t="str">
         <f>IF(History!A82&lt;&gt;"",History!A82,"")</f>
         <v/>
       </c>
-      <c r="C82" s="4" t="str">
+      <c r="C82" s="3" t="str">
         <f ca="1">IF(History!A82&lt;&gt;"",SUM(History!B82:OFFSET(History!B82,0,COUNTA(History!82:82)-2)),"")</f>
         <v/>
       </c>
@@ -3862,27 +3862,27 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="E82" s="4" t="str">
+      <c r="E82" s="3" t="str">
         <f ca="1">IF(History!A82&lt;&gt;0,COUNTIF(History!C82:OFFSET(History!C82,0,COUNTA(History!82:82)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F82" s="4" t="str">
+      <c r="F82" s="3" t="str">
         <f ca="1">IF(History!A82&lt;&gt;0,COUNTIF(History!C82:OFFSET(History!C82,0,COUNTA(History!82:82)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G82" s="6" t="str">
+      <c r="G82" s="4" t="str">
         <f ca="1">IF(MAX(History!82:82)&gt;0,MAX(History!C82:OFFSET(History!C82,0,COUNTA(History!82:82)-3)),"")</f>
         <v/>
       </c>
-      <c r="H82" s="6" t="str">
+      <c r="H82" s="4" t="str">
         <f ca="1">IF(History!A82&lt;&gt;0,MIN(History!C82:OFFSET(History!C82,0,COUNTA(History!82:82)-3)),"")</f>
         <v/>
       </c>
-      <c r="I82" s="6" t="str">
+      <c r="I82" s="4" t="str">
         <f>IF(History!A82&lt;&gt;"",History!B82,"")</f>
         <v/>
       </c>
-      <c r="J82" s="4" t="str">
+      <c r="J82" s="3" t="str">
         <f ca="1">IF(History!A82&lt;&gt;"",SUM(OFFSET(History!C82,0,COUNT(History!82:82)-IF(COUNT(History!82:82)&lt;=5,COUNT(History!82:82),5)):OFFSET(History!C82,0,COUNT(History!82:82)-1)),"")</f>
         <v/>
       </c>
@@ -3891,11 +3891,11 @@
       <c r="A83" s="1">
         <v>82</v>
       </c>
-      <c r="B83" s="5" t="str">
+      <c r="B83" s="7" t="str">
         <f>IF(History!A83&lt;&gt;"",History!A83,"")</f>
         <v/>
       </c>
-      <c r="C83" s="4" t="str">
+      <c r="C83" s="3" t="str">
         <f ca="1">IF(History!A83&lt;&gt;"",SUM(History!B83:OFFSET(History!B83,0,COUNTA(History!83:83)-2)),"")</f>
         <v/>
       </c>
@@ -3903,27 +3903,27 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="E83" s="4" t="str">
+      <c r="E83" s="3" t="str">
         <f ca="1">IF(History!A83&lt;&gt;0,COUNTIF(History!C83:OFFSET(History!C83,0,COUNTA(History!83:83)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F83" s="4" t="str">
+      <c r="F83" s="3" t="str">
         <f ca="1">IF(History!A83&lt;&gt;0,COUNTIF(History!C83:OFFSET(History!C83,0,COUNTA(History!83:83)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G83" s="6" t="str">
+      <c r="G83" s="4" t="str">
         <f ca="1">IF(MAX(History!83:83)&gt;0,MAX(History!C83:OFFSET(History!C83,0,COUNTA(History!83:83)-3)),"")</f>
         <v/>
       </c>
-      <c r="H83" s="6" t="str">
+      <c r="H83" s="4" t="str">
         <f ca="1">IF(History!A83&lt;&gt;0,MIN(History!C83:OFFSET(History!C83,0,COUNTA(History!83:83)-3)),"")</f>
         <v/>
       </c>
-      <c r="I83" s="6" t="str">
+      <c r="I83" s="4" t="str">
         <f>IF(History!A83&lt;&gt;"",History!B83,"")</f>
         <v/>
       </c>
-      <c r="J83" s="4" t="str">
+      <c r="J83" s="3" t="str">
         <f ca="1">IF(History!A83&lt;&gt;"",SUM(OFFSET(History!C83,0,COUNT(History!83:83)-IF(COUNT(History!83:83)&lt;=5,COUNT(History!83:83),5)):OFFSET(History!C83,0,COUNT(History!83:83)-1)),"")</f>
         <v/>
       </c>
@@ -3932,11 +3932,11 @@
       <c r="A84" s="1">
         <v>83</v>
       </c>
-      <c r="B84" s="5" t="str">
+      <c r="B84" s="7" t="str">
         <f>IF(History!A84&lt;&gt;"",History!A84,"")</f>
         <v/>
       </c>
-      <c r="C84" s="4" t="str">
+      <c r="C84" s="3" t="str">
         <f ca="1">IF(History!A84&lt;&gt;"",SUM(History!B84:OFFSET(History!B84,0,COUNTA(History!84:84)-2)),"")</f>
         <v/>
       </c>
@@ -3944,27 +3944,27 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="E84" s="4" t="str">
+      <c r="E84" s="3" t="str">
         <f ca="1">IF(History!A84&lt;&gt;0,COUNTIF(History!C84:OFFSET(History!C84,0,COUNTA(History!84:84)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F84" s="4" t="str">
+      <c r="F84" s="3" t="str">
         <f ca="1">IF(History!A84&lt;&gt;0,COUNTIF(History!C84:OFFSET(History!C84,0,COUNTA(History!84:84)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G84" s="6" t="str">
+      <c r="G84" s="4" t="str">
         <f ca="1">IF(MAX(History!84:84)&gt;0,MAX(History!C84:OFFSET(History!C84,0,COUNTA(History!84:84)-3)),"")</f>
         <v/>
       </c>
-      <c r="H84" s="6" t="str">
+      <c r="H84" s="4" t="str">
         <f ca="1">IF(History!A84&lt;&gt;0,MIN(History!C84:OFFSET(History!C84,0,COUNTA(History!84:84)-3)),"")</f>
         <v/>
       </c>
-      <c r="I84" s="6" t="str">
+      <c r="I84" s="4" t="str">
         <f>IF(History!A84&lt;&gt;"",History!B84,"")</f>
         <v/>
       </c>
-      <c r="J84" s="4" t="str">
+      <c r="J84" s="3" t="str">
         <f ca="1">IF(History!A84&lt;&gt;"",SUM(OFFSET(History!C84,0,COUNT(History!84:84)-IF(COUNT(History!84:84)&lt;=5,COUNT(History!84:84),5)):OFFSET(History!C84,0,COUNT(History!84:84)-1)),"")</f>
         <v/>
       </c>
@@ -3973,11 +3973,11 @@
       <c r="A85" s="1">
         <v>84</v>
       </c>
-      <c r="B85" s="5" t="str">
+      <c r="B85" s="7" t="str">
         <f>IF(History!A85&lt;&gt;"",History!A85,"")</f>
         <v/>
       </c>
-      <c r="C85" s="4" t="str">
+      <c r="C85" s="3" t="str">
         <f ca="1">IF(History!A85&lt;&gt;"",SUM(History!B85:OFFSET(History!B85,0,COUNTA(History!85:85)-2)),"")</f>
         <v/>
       </c>
@@ -3985,27 +3985,27 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="E85" s="4" t="str">
+      <c r="E85" s="3" t="str">
         <f ca="1">IF(History!A85&lt;&gt;0,COUNTIF(History!C85:OFFSET(History!C85,0,COUNTA(History!85:85)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F85" s="4" t="str">
+      <c r="F85" s="3" t="str">
         <f ca="1">IF(History!A85&lt;&gt;0,COUNTIF(History!C85:OFFSET(History!C85,0,COUNTA(History!85:85)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G85" s="6" t="str">
+      <c r="G85" s="4" t="str">
         <f ca="1">IF(MAX(History!85:85)&gt;0,MAX(History!C85:OFFSET(History!C85,0,COUNTA(History!85:85)-3)),"")</f>
         <v/>
       </c>
-      <c r="H85" s="6" t="str">
+      <c r="H85" s="4" t="str">
         <f ca="1">IF(History!A85&lt;&gt;0,MIN(History!C85:OFFSET(History!C85,0,COUNTA(History!85:85)-3)),"")</f>
         <v/>
       </c>
-      <c r="I85" s="6" t="str">
+      <c r="I85" s="4" t="str">
         <f>IF(History!A85&lt;&gt;"",History!B85,"")</f>
         <v/>
       </c>
-      <c r="J85" s="4" t="str">
+      <c r="J85" s="3" t="str">
         <f ca="1">IF(History!A85&lt;&gt;"",SUM(OFFSET(History!C85,0,COUNT(History!85:85)-IF(COUNT(History!85:85)&lt;=5,COUNT(History!85:85),5)):OFFSET(History!C85,0,COUNT(History!85:85)-1)),"")</f>
         <v/>
       </c>
@@ -4014,11 +4014,11 @@
       <c r="A86" s="1">
         <v>85</v>
       </c>
-      <c r="B86" s="5" t="str">
+      <c r="B86" s="7" t="str">
         <f>IF(History!A86&lt;&gt;"",History!A86,"")</f>
         <v/>
       </c>
-      <c r="C86" s="4" t="str">
+      <c r="C86" s="3" t="str">
         <f ca="1">IF(History!A86&lt;&gt;"",SUM(History!B86:OFFSET(History!B86,0,COUNTA(History!86:86)-2)),"")</f>
         <v/>
       </c>
@@ -4026,27 +4026,27 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="E86" s="4" t="str">
+      <c r="E86" s="3" t="str">
         <f ca="1">IF(History!A86&lt;&gt;0,COUNTIF(History!C86:OFFSET(History!C86,0,COUNTA(History!86:86)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F86" s="4" t="str">
+      <c r="F86" s="3" t="str">
         <f ca="1">IF(History!A86&lt;&gt;0,COUNTIF(History!C86:OFFSET(History!C86,0,COUNTA(History!86:86)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G86" s="6" t="str">
+      <c r="G86" s="4" t="str">
         <f ca="1">IF(MAX(History!86:86)&gt;0,MAX(History!C86:OFFSET(History!C86,0,COUNTA(History!86:86)-3)),"")</f>
         <v/>
       </c>
-      <c r="H86" s="6" t="str">
+      <c r="H86" s="4" t="str">
         <f ca="1">IF(History!A86&lt;&gt;0,MIN(History!C86:OFFSET(History!C86,0,COUNTA(History!86:86)-3)),"")</f>
         <v/>
       </c>
-      <c r="I86" s="6" t="str">
+      <c r="I86" s="4" t="str">
         <f>IF(History!A86&lt;&gt;"",History!B86,"")</f>
         <v/>
       </c>
-      <c r="J86" s="4" t="str">
+      <c r="J86" s="3" t="str">
         <f ca="1">IF(History!A86&lt;&gt;"",SUM(OFFSET(History!C86,0,COUNT(History!86:86)-IF(COUNT(History!86:86)&lt;=5,COUNT(History!86:86),5)):OFFSET(History!C86,0,COUNT(History!86:86)-1)),"")</f>
         <v/>
       </c>
@@ -4055,11 +4055,11 @@
       <c r="A87" s="1">
         <v>86</v>
       </c>
-      <c r="B87" s="5" t="str">
+      <c r="B87" s="7" t="str">
         <f>IF(History!A87&lt;&gt;"",History!A87,"")</f>
         <v/>
       </c>
-      <c r="C87" s="4" t="str">
+      <c r="C87" s="3" t="str">
         <f ca="1">IF(History!A87&lt;&gt;"",SUM(History!B87:OFFSET(History!B87,0,COUNTA(History!87:87)-2)),"")</f>
         <v/>
       </c>
@@ -4067,27 +4067,27 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="E87" s="4" t="str">
+      <c r="E87" s="3" t="str">
         <f ca="1">IF(History!A87&lt;&gt;0,COUNTIF(History!C87:OFFSET(History!C87,0,COUNTA(History!87:87)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F87" s="4" t="str">
+      <c r="F87" s="3" t="str">
         <f ca="1">IF(History!A87&lt;&gt;0,COUNTIF(History!C87:OFFSET(History!C87,0,COUNTA(History!87:87)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G87" s="6" t="str">
+      <c r="G87" s="4" t="str">
         <f ca="1">IF(MAX(History!87:87)&gt;0,MAX(History!C87:OFFSET(History!C87,0,COUNTA(History!87:87)-3)),"")</f>
         <v/>
       </c>
-      <c r="H87" s="6" t="str">
+      <c r="H87" s="4" t="str">
         <f ca="1">IF(History!A87&lt;&gt;0,MIN(History!C87:OFFSET(History!C87,0,COUNTA(History!87:87)-3)),"")</f>
         <v/>
       </c>
-      <c r="I87" s="6" t="str">
+      <c r="I87" s="4" t="str">
         <f>IF(History!A87&lt;&gt;"",History!B87,"")</f>
         <v/>
       </c>
-      <c r="J87" s="4" t="str">
+      <c r="J87" s="3" t="str">
         <f ca="1">IF(History!A87&lt;&gt;"",SUM(OFFSET(History!C87,0,COUNT(History!87:87)-IF(COUNT(History!87:87)&lt;=5,COUNT(History!87:87),5)):OFFSET(History!C87,0,COUNT(History!87:87)-1)),"")</f>
         <v/>
       </c>
@@ -4096,11 +4096,11 @@
       <c r="A88" s="1">
         <v>87</v>
       </c>
-      <c r="B88" s="5" t="str">
+      <c r="B88" s="7" t="str">
         <f>IF(History!A88&lt;&gt;"",History!A88,"")</f>
         <v/>
       </c>
-      <c r="C88" s="4" t="str">
+      <c r="C88" s="3" t="str">
         <f ca="1">IF(History!A88&lt;&gt;"",SUM(History!B88:OFFSET(History!B88,0,COUNTA(History!88:88)-2)),"")</f>
         <v/>
       </c>
@@ -4108,27 +4108,27 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="E88" s="4" t="str">
+      <c r="E88" s="3" t="str">
         <f ca="1">IF(History!A88&lt;&gt;0,COUNTIF(History!C88:OFFSET(History!C88,0,COUNTA(History!88:88)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F88" s="4" t="str">
+      <c r="F88" s="3" t="str">
         <f ca="1">IF(History!A88&lt;&gt;0,COUNTIF(History!C88:OFFSET(History!C88,0,COUNTA(History!88:88)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G88" s="6" t="str">
+      <c r="G88" s="4" t="str">
         <f ca="1">IF(MAX(History!88:88)&gt;0,MAX(History!C88:OFFSET(History!C88,0,COUNTA(History!88:88)-3)),"")</f>
         <v/>
       </c>
-      <c r="H88" s="6" t="str">
+      <c r="H88" s="4" t="str">
         <f ca="1">IF(History!A88&lt;&gt;0,MIN(History!C88:OFFSET(History!C88,0,COUNTA(History!88:88)-3)),"")</f>
         <v/>
       </c>
-      <c r="I88" s="6" t="str">
+      <c r="I88" s="4" t="str">
         <f>IF(History!A88&lt;&gt;"",History!B88,"")</f>
         <v/>
       </c>
-      <c r="J88" s="4" t="str">
+      <c r="J88" s="3" t="str">
         <f ca="1">IF(History!A88&lt;&gt;"",SUM(OFFSET(History!C88,0,COUNT(History!88:88)-IF(COUNT(History!88:88)&lt;=5,COUNT(History!88:88),5)):OFFSET(History!C88,0,COUNT(History!88:88)-1)),"")</f>
         <v/>
       </c>
@@ -4137,11 +4137,11 @@
       <c r="A89" s="1">
         <v>88</v>
       </c>
-      <c r="B89" s="5" t="str">
+      <c r="B89" s="7" t="str">
         <f>IF(History!A89&lt;&gt;"",History!A89,"")</f>
         <v/>
       </c>
-      <c r="C89" s="4" t="str">
+      <c r="C89" s="3" t="str">
         <f ca="1">IF(History!A89&lt;&gt;"",SUM(History!B89:OFFSET(History!B89,0,COUNTA(History!89:89)-2)),"")</f>
         <v/>
       </c>
@@ -4149,27 +4149,27 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="E89" s="4" t="str">
+      <c r="E89" s="3" t="str">
         <f ca="1">IF(History!A89&lt;&gt;0,COUNTIF(History!C89:OFFSET(History!C89,0,COUNTA(History!89:89)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F89" s="4" t="str">
+      <c r="F89" s="3" t="str">
         <f ca="1">IF(History!A89&lt;&gt;0,COUNTIF(History!C89:OFFSET(History!C89,0,COUNTA(History!89:89)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G89" s="6" t="str">
+      <c r="G89" s="4" t="str">
         <f ca="1">IF(MAX(History!89:89)&gt;0,MAX(History!C89:OFFSET(History!C89,0,COUNTA(History!89:89)-3)),"")</f>
         <v/>
       </c>
-      <c r="H89" s="6" t="str">
+      <c r="H89" s="4" t="str">
         <f ca="1">IF(History!A89&lt;&gt;0,MIN(History!C89:OFFSET(History!C89,0,COUNTA(History!89:89)-3)),"")</f>
         <v/>
       </c>
-      <c r="I89" s="6" t="str">
+      <c r="I89" s="4" t="str">
         <f>IF(History!A89&lt;&gt;"",History!B89,"")</f>
         <v/>
       </c>
-      <c r="J89" s="4" t="str">
+      <c r="J89" s="3" t="str">
         <f ca="1">IF(History!A89&lt;&gt;"",SUM(OFFSET(History!C89,0,COUNT(History!89:89)-IF(COUNT(History!89:89)&lt;=5,COUNT(History!89:89),5)):OFFSET(History!C89,0,COUNT(History!89:89)-1)),"")</f>
         <v/>
       </c>
@@ -4178,11 +4178,11 @@
       <c r="A90" s="1">
         <v>89</v>
       </c>
-      <c r="B90" s="5" t="str">
+      <c r="B90" s="7" t="str">
         <f>IF(History!A90&lt;&gt;"",History!A90,"")</f>
         <v/>
       </c>
-      <c r="C90" s="4" t="str">
+      <c r="C90" s="3" t="str">
         <f ca="1">IF(History!A90&lt;&gt;"",SUM(History!B90:OFFSET(History!B90,0,COUNTA(History!90:90)-2)),"")</f>
         <v/>
       </c>
@@ -4190,27 +4190,27 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="E90" s="4" t="str">
+      <c r="E90" s="3" t="str">
         <f ca="1">IF(History!A90&lt;&gt;0,COUNTIF(History!C90:OFFSET(History!C90,0,COUNTA(History!90:90)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F90" s="4" t="str">
+      <c r="F90" s="3" t="str">
         <f ca="1">IF(History!A90&lt;&gt;0,COUNTIF(History!C90:OFFSET(History!C90,0,COUNTA(History!90:90)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G90" s="6" t="str">
+      <c r="G90" s="4" t="str">
         <f ca="1">IF(MAX(History!90:90)&gt;0,MAX(History!C90:OFFSET(History!C90,0,COUNTA(History!90:90)-3)),"")</f>
         <v/>
       </c>
-      <c r="H90" s="6" t="str">
+      <c r="H90" s="4" t="str">
         <f ca="1">IF(History!A90&lt;&gt;0,MIN(History!C90:OFFSET(History!C90,0,COUNTA(History!90:90)-3)),"")</f>
         <v/>
       </c>
-      <c r="I90" s="6" t="str">
+      <c r="I90" s="4" t="str">
         <f>IF(History!A90&lt;&gt;"",History!B90,"")</f>
         <v/>
       </c>
-      <c r="J90" s="4" t="str">
+      <c r="J90" s="3" t="str">
         <f ca="1">IF(History!A90&lt;&gt;"",SUM(OFFSET(History!C90,0,COUNT(History!90:90)-IF(COUNT(History!90:90)&lt;=5,COUNT(History!90:90),5)):OFFSET(History!C90,0,COUNT(History!90:90)-1)),"")</f>
         <v/>
       </c>
@@ -4219,11 +4219,11 @@
       <c r="A91" s="1">
         <v>90</v>
       </c>
-      <c r="B91" s="5" t="str">
+      <c r="B91" s="7" t="str">
         <f>IF(History!A91&lt;&gt;"",History!A91,"")</f>
         <v/>
       </c>
-      <c r="C91" s="4" t="str">
+      <c r="C91" s="3" t="str">
         <f ca="1">IF(History!A91&lt;&gt;"",SUM(History!B91:OFFSET(History!B91,0,COUNTA(History!91:91)-2)),"")</f>
         <v/>
       </c>
@@ -4231,27 +4231,27 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="E91" s="4" t="str">
+      <c r="E91" s="3" t="str">
         <f ca="1">IF(History!A91&lt;&gt;0,COUNTIF(History!C91:OFFSET(History!C91,0,COUNTA(History!91:91)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F91" s="4" t="str">
+      <c r="F91" s="3" t="str">
         <f ca="1">IF(History!A91&lt;&gt;0,COUNTIF(History!C91:OFFSET(History!C91,0,COUNTA(History!91:91)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G91" s="6" t="str">
+      <c r="G91" s="4" t="str">
         <f ca="1">IF(MAX(History!91:91)&gt;0,MAX(History!C91:OFFSET(History!C91,0,COUNTA(History!91:91)-3)),"")</f>
         <v/>
       </c>
-      <c r="H91" s="6" t="str">
+      <c r="H91" s="4" t="str">
         <f ca="1">IF(History!A91&lt;&gt;0,MIN(History!C91:OFFSET(History!C91,0,COUNTA(History!91:91)-3)),"")</f>
         <v/>
       </c>
-      <c r="I91" s="6" t="str">
+      <c r="I91" s="4" t="str">
         <f>IF(History!A91&lt;&gt;"",History!B91,"")</f>
         <v/>
       </c>
-      <c r="J91" s="4" t="str">
+      <c r="J91" s="3" t="str">
         <f ca="1">IF(History!A91&lt;&gt;"",SUM(OFFSET(History!C91,0,COUNT(History!91:91)-IF(COUNT(History!91:91)&lt;=5,COUNT(History!91:91),5)):OFFSET(History!C91,0,COUNT(History!91:91)-1)),"")</f>
         <v/>
       </c>
@@ -4260,11 +4260,11 @@
       <c r="A92" s="1">
         <v>91</v>
       </c>
-      <c r="B92" s="5" t="str">
+      <c r="B92" s="7" t="str">
         <f>IF(History!A92&lt;&gt;"",History!A92,"")</f>
         <v/>
       </c>
-      <c r="C92" s="4" t="str">
+      <c r="C92" s="3" t="str">
         <f ca="1">IF(History!A92&lt;&gt;"",SUM(History!B92:OFFSET(History!B92,0,COUNTA(History!92:92)-2)),"")</f>
         <v/>
       </c>
@@ -4272,27 +4272,27 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="E92" s="4" t="str">
+      <c r="E92" s="3" t="str">
         <f ca="1">IF(History!A92&lt;&gt;0,COUNTIF(History!C92:OFFSET(History!C92,0,COUNTA(History!92:92)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F92" s="4" t="str">
+      <c r="F92" s="3" t="str">
         <f ca="1">IF(History!A92&lt;&gt;0,COUNTIF(History!C92:OFFSET(History!C92,0,COUNTA(History!92:92)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G92" s="6" t="str">
+      <c r="G92" s="4" t="str">
         <f ca="1">IF(MAX(History!92:92)&gt;0,MAX(History!C92:OFFSET(History!C92,0,COUNTA(History!92:92)-3)),"")</f>
         <v/>
       </c>
-      <c r="H92" s="6" t="str">
+      <c r="H92" s="4" t="str">
         <f ca="1">IF(History!A92&lt;&gt;0,MIN(History!C92:OFFSET(History!C92,0,COUNTA(History!92:92)-3)),"")</f>
         <v/>
       </c>
-      <c r="I92" s="6" t="str">
+      <c r="I92" s="4" t="str">
         <f>IF(History!A92&lt;&gt;"",History!B92,"")</f>
         <v/>
       </c>
-      <c r="J92" s="4" t="str">
+      <c r="J92" s="3" t="str">
         <f ca="1">IF(History!A92&lt;&gt;"",SUM(OFFSET(History!C92,0,COUNT(History!92:92)-IF(COUNT(History!92:92)&lt;=5,COUNT(History!92:92),5)):OFFSET(History!C92,0,COUNT(History!92:92)-1)),"")</f>
         <v/>
       </c>
@@ -4301,11 +4301,11 @@
       <c r="A93" s="1">
         <v>92</v>
       </c>
-      <c r="B93" s="5" t="str">
+      <c r="B93" s="7" t="str">
         <f>IF(History!A93&lt;&gt;"",History!A93,"")</f>
         <v/>
       </c>
-      <c r="C93" s="4" t="str">
+      <c r="C93" s="3" t="str">
         <f ca="1">IF(History!A93&lt;&gt;"",SUM(History!B93:OFFSET(History!B93,0,COUNTA(History!93:93)-2)),"")</f>
         <v/>
       </c>
@@ -4313,27 +4313,27 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="E93" s="4" t="str">
+      <c r="E93" s="3" t="str">
         <f ca="1">IF(History!A93&lt;&gt;0,COUNTIF(History!C93:OFFSET(History!C93,0,COUNTA(History!93:93)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F93" s="4" t="str">
+      <c r="F93" s="3" t="str">
         <f ca="1">IF(History!A93&lt;&gt;0,COUNTIF(History!C93:OFFSET(History!C93,0,COUNTA(History!93:93)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G93" s="6" t="str">
+      <c r="G93" s="4" t="str">
         <f ca="1">IF(MAX(History!93:93)&gt;0,MAX(History!C93:OFFSET(History!C93,0,COUNTA(History!93:93)-3)),"")</f>
         <v/>
       </c>
-      <c r="H93" s="6" t="str">
+      <c r="H93" s="4" t="str">
         <f ca="1">IF(History!A93&lt;&gt;0,MIN(History!C93:OFFSET(History!C93,0,COUNTA(History!93:93)-3)),"")</f>
         <v/>
       </c>
-      <c r="I93" s="6" t="str">
+      <c r="I93" s="4" t="str">
         <f>IF(History!A93&lt;&gt;"",History!B93,"")</f>
         <v/>
       </c>
-      <c r="J93" s="4" t="str">
+      <c r="J93" s="3" t="str">
         <f ca="1">IF(History!A93&lt;&gt;"",SUM(OFFSET(History!C93,0,COUNT(History!93:93)-IF(COUNT(History!93:93)&lt;=5,COUNT(History!93:93),5)):OFFSET(History!C93,0,COUNT(History!93:93)-1)),"")</f>
         <v/>
       </c>
@@ -4342,11 +4342,11 @@
       <c r="A94" s="1">
         <v>93</v>
       </c>
-      <c r="B94" s="5" t="str">
+      <c r="B94" s="7" t="str">
         <f>IF(History!A94&lt;&gt;"",History!A94,"")</f>
         <v/>
       </c>
-      <c r="C94" s="4" t="str">
+      <c r="C94" s="3" t="str">
         <f ca="1">IF(History!A94&lt;&gt;"",SUM(History!B94:OFFSET(History!B94,0,COUNTA(History!94:94)-2)),"")</f>
         <v/>
       </c>
@@ -4354,27 +4354,27 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="E94" s="4" t="str">
+      <c r="E94" s="3" t="str">
         <f ca="1">IF(History!A94&lt;&gt;0,COUNTIF(History!C94:OFFSET(History!C94,0,COUNTA(History!94:94)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F94" s="4" t="str">
+      <c r="F94" s="3" t="str">
         <f ca="1">IF(History!A94&lt;&gt;0,COUNTIF(History!C94:OFFSET(History!C94,0,COUNTA(History!94:94)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G94" s="6" t="str">
+      <c r="G94" s="4" t="str">
         <f ca="1">IF(MAX(History!94:94)&gt;0,MAX(History!C94:OFFSET(History!C94,0,COUNTA(History!94:94)-3)),"")</f>
         <v/>
       </c>
-      <c r="H94" s="6" t="str">
+      <c r="H94" s="4" t="str">
         <f ca="1">IF(History!A94&lt;&gt;0,MIN(History!C94:OFFSET(History!C94,0,COUNTA(History!94:94)-3)),"")</f>
         <v/>
       </c>
-      <c r="I94" s="6" t="str">
+      <c r="I94" s="4" t="str">
         <f>IF(History!A94&lt;&gt;"",History!B94,"")</f>
         <v/>
       </c>
-      <c r="J94" s="4" t="str">
+      <c r="J94" s="3" t="str">
         <f ca="1">IF(History!A94&lt;&gt;"",SUM(OFFSET(History!C94,0,COUNT(History!94:94)-IF(COUNT(History!94:94)&lt;=5,COUNT(History!94:94),5)):OFFSET(History!C94,0,COUNT(History!94:94)-1)),"")</f>
         <v/>
       </c>
@@ -4383,11 +4383,11 @@
       <c r="A95" s="1">
         <v>94</v>
       </c>
-      <c r="B95" s="5" t="str">
+      <c r="B95" s="7" t="str">
         <f>IF(History!A95&lt;&gt;"",History!A95,"")</f>
         <v/>
       </c>
-      <c r="C95" s="4" t="str">
+      <c r="C95" s="3" t="str">
         <f ca="1">IF(History!A95&lt;&gt;"",SUM(History!B95:OFFSET(History!B95,0,COUNTA(History!95:95)-2)),"")</f>
         <v/>
       </c>
@@ -4395,27 +4395,27 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="E95" s="4" t="str">
+      <c r="E95" s="3" t="str">
         <f ca="1">IF(History!A95&lt;&gt;0,COUNTIF(History!C95:OFFSET(History!C95,0,COUNTA(History!95:95)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F95" s="4" t="str">
+      <c r="F95" s="3" t="str">
         <f ca="1">IF(History!A95&lt;&gt;0,COUNTIF(History!C95:OFFSET(History!C95,0,COUNTA(History!95:95)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G95" s="6" t="str">
+      <c r="G95" s="4" t="str">
         <f ca="1">IF(MAX(History!95:95)&gt;0,MAX(History!C95:OFFSET(History!C95,0,COUNTA(History!95:95)-3)),"")</f>
         <v/>
       </c>
-      <c r="H95" s="6" t="str">
+      <c r="H95" s="4" t="str">
         <f ca="1">IF(History!A95&lt;&gt;0,MIN(History!C95:OFFSET(History!C95,0,COUNTA(History!95:95)-3)),"")</f>
         <v/>
       </c>
-      <c r="I95" s="6" t="str">
+      <c r="I95" s="4" t="str">
         <f>IF(History!A95&lt;&gt;"",History!B95,"")</f>
         <v/>
       </c>
-      <c r="J95" s="4" t="str">
+      <c r="J95" s="3" t="str">
         <f ca="1">IF(History!A95&lt;&gt;"",SUM(OFFSET(History!C95,0,COUNT(History!95:95)-IF(COUNT(History!95:95)&lt;=5,COUNT(History!95:95),5)):OFFSET(History!C95,0,COUNT(History!95:95)-1)),"")</f>
         <v/>
       </c>
@@ -4424,11 +4424,11 @@
       <c r="A96" s="1">
         <v>95</v>
       </c>
-      <c r="B96" s="5" t="str">
+      <c r="B96" s="7" t="str">
         <f>IF(History!A96&lt;&gt;"",History!A96,"")</f>
         <v/>
       </c>
-      <c r="C96" s="4" t="str">
+      <c r="C96" s="3" t="str">
         <f ca="1">IF(History!A96&lt;&gt;"",SUM(History!B96:OFFSET(History!B96,0,COUNTA(History!96:96)-2)),"")</f>
         <v/>
       </c>
@@ -4436,27 +4436,27 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="E96" s="4" t="str">
+      <c r="E96" s="3" t="str">
         <f ca="1">IF(History!A96&lt;&gt;0,COUNTIF(History!C96:OFFSET(History!C96,0,COUNTA(History!96:96)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F96" s="4" t="str">
+      <c r="F96" s="3" t="str">
         <f ca="1">IF(History!A96&lt;&gt;0,COUNTIF(History!C96:OFFSET(History!C96,0,COUNTA(History!96:96)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G96" s="6" t="str">
+      <c r="G96" s="4" t="str">
         <f ca="1">IF(MAX(History!96:96)&gt;0,MAX(History!C96:OFFSET(History!C96,0,COUNTA(History!96:96)-3)),"")</f>
         <v/>
       </c>
-      <c r="H96" s="6" t="str">
+      <c r="H96" s="4" t="str">
         <f ca="1">IF(History!A96&lt;&gt;0,MIN(History!C96:OFFSET(History!C96,0,COUNTA(History!96:96)-3)),"")</f>
         <v/>
       </c>
-      <c r="I96" s="6" t="str">
+      <c r="I96" s="4" t="str">
         <f>IF(History!A96&lt;&gt;"",History!B96,"")</f>
         <v/>
       </c>
-      <c r="J96" s="4" t="str">
+      <c r="J96" s="3" t="str">
         <f ca="1">IF(History!A96&lt;&gt;"",SUM(OFFSET(History!C96,0,COUNT(History!96:96)-IF(COUNT(History!96:96)&lt;=5,COUNT(History!96:96),5)):OFFSET(History!C96,0,COUNT(History!96:96)-1)),"")</f>
         <v/>
       </c>
@@ -4465,11 +4465,11 @@
       <c r="A97" s="1">
         <v>96</v>
       </c>
-      <c r="B97" s="5" t="str">
+      <c r="B97" s="7" t="str">
         <f>IF(History!A97&lt;&gt;"",History!A97,"")</f>
         <v/>
       </c>
-      <c r="C97" s="4" t="str">
+      <c r="C97" s="3" t="str">
         <f ca="1">IF(History!A97&lt;&gt;"",SUM(History!B97:OFFSET(History!B97,0,COUNTA(History!97:97)-2)),"")</f>
         <v/>
       </c>
@@ -4477,27 +4477,27 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="E97" s="4" t="str">
+      <c r="E97" s="3" t="str">
         <f ca="1">IF(History!A97&lt;&gt;0,COUNTIF(History!C97:OFFSET(History!C97,0,COUNTA(History!97:97)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F97" s="4" t="str">
+      <c r="F97" s="3" t="str">
         <f ca="1">IF(History!A97&lt;&gt;0,COUNTIF(History!C97:OFFSET(History!C97,0,COUNTA(History!97:97)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G97" s="6" t="str">
+      <c r="G97" s="4" t="str">
         <f ca="1">IF(MAX(History!97:97)&gt;0,MAX(History!C97:OFFSET(History!C97,0,COUNTA(History!97:97)-3)),"")</f>
         <v/>
       </c>
-      <c r="H97" s="6" t="str">
+      <c r="H97" s="4" t="str">
         <f ca="1">IF(History!A97&lt;&gt;0,MIN(History!C97:OFFSET(History!C97,0,COUNTA(History!97:97)-3)),"")</f>
         <v/>
       </c>
-      <c r="I97" s="6" t="str">
+      <c r="I97" s="4" t="str">
         <f>IF(History!A97&lt;&gt;"",History!B97,"")</f>
         <v/>
       </c>
-      <c r="J97" s="4" t="str">
+      <c r="J97" s="3" t="str">
         <f ca="1">IF(History!A97&lt;&gt;"",SUM(OFFSET(History!C97,0,COUNT(History!97:97)-IF(COUNT(History!97:97)&lt;=5,COUNT(History!97:97),5)):OFFSET(History!C97,0,COUNT(History!97:97)-1)),"")</f>
         <v/>
       </c>
@@ -4506,11 +4506,11 @@
       <c r="A98" s="1">
         <v>97</v>
       </c>
-      <c r="B98" s="5" t="str">
+      <c r="B98" s="7" t="str">
         <f>IF(History!A98&lt;&gt;"",History!A98,"")</f>
         <v/>
       </c>
-      <c r="C98" s="4" t="str">
+      <c r="C98" s="3" t="str">
         <f ca="1">IF(History!A98&lt;&gt;"",SUM(History!B98:OFFSET(History!B98,0,COUNTA(History!98:98)-2)),"")</f>
         <v/>
       </c>
@@ -4518,27 +4518,27 @@
         <f t="shared" ref="D98:D129" ca="1" si="3">IFERROR(E98/(E98+F98),"")</f>
         <v/>
       </c>
-      <c r="E98" s="4" t="str">
+      <c r="E98" s="3" t="str">
         <f ca="1">IF(History!A98&lt;&gt;0,COUNTIF(History!C98:OFFSET(History!C98,0,COUNTA(History!98:98)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F98" s="4" t="str">
+      <c r="F98" s="3" t="str">
         <f ca="1">IF(History!A98&lt;&gt;0,COUNTIF(History!C98:OFFSET(History!C98,0,COUNTA(History!98:98)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G98" s="6" t="str">
+      <c r="G98" s="4" t="str">
         <f ca="1">IF(MAX(History!98:98)&gt;0,MAX(History!C98:OFFSET(History!C98,0,COUNTA(History!98:98)-3)),"")</f>
         <v/>
       </c>
-      <c r="H98" s="6" t="str">
+      <c r="H98" s="4" t="str">
         <f ca="1">IF(History!A98&lt;&gt;0,MIN(History!C98:OFFSET(History!C98,0,COUNTA(History!98:98)-3)),"")</f>
         <v/>
       </c>
-      <c r="I98" s="6" t="str">
+      <c r="I98" s="4" t="str">
         <f>IF(History!A98&lt;&gt;"",History!B98,"")</f>
         <v/>
       </c>
-      <c r="J98" s="4" t="str">
+      <c r="J98" s="3" t="str">
         <f ca="1">IF(History!A98&lt;&gt;"",SUM(OFFSET(History!C98,0,COUNT(History!98:98)-IF(COUNT(History!98:98)&lt;=5,COUNT(History!98:98),5)):OFFSET(History!C98,0,COUNT(History!98:98)-1)),"")</f>
         <v/>
       </c>
@@ -4547,11 +4547,11 @@
       <c r="A99" s="1">
         <v>98</v>
       </c>
-      <c r="B99" s="5" t="str">
+      <c r="B99" s="7" t="str">
         <f>IF(History!A99&lt;&gt;"",History!A99,"")</f>
         <v/>
       </c>
-      <c r="C99" s="4" t="str">
+      <c r="C99" s="3" t="str">
         <f ca="1">IF(History!A99&lt;&gt;"",SUM(History!B99:OFFSET(History!B99,0,COUNTA(History!99:99)-2)),"")</f>
         <v/>
       </c>
@@ -4559,27 +4559,27 @@
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="E99" s="4" t="str">
+      <c r="E99" s="3" t="str">
         <f ca="1">IF(History!A99&lt;&gt;0,COUNTIF(History!C99:OFFSET(History!C99,0,COUNTA(History!99:99)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F99" s="4" t="str">
+      <c r="F99" s="3" t="str">
         <f ca="1">IF(History!A99&lt;&gt;0,COUNTIF(History!C99:OFFSET(History!C99,0,COUNTA(History!99:99)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G99" s="6" t="str">
+      <c r="G99" s="4" t="str">
         <f ca="1">IF(MAX(History!99:99)&gt;0,MAX(History!C99:OFFSET(History!C99,0,COUNTA(History!99:99)-3)),"")</f>
         <v/>
       </c>
-      <c r="H99" s="6" t="str">
+      <c r="H99" s="4" t="str">
         <f ca="1">IF(History!A99&lt;&gt;0,MIN(History!C99:OFFSET(History!C99,0,COUNTA(History!99:99)-3)),"")</f>
         <v/>
       </c>
-      <c r="I99" s="6" t="str">
+      <c r="I99" s="4" t="str">
         <f>IF(History!A99&lt;&gt;"",History!B99,"")</f>
         <v/>
       </c>
-      <c r="J99" s="4" t="str">
+      <c r="J99" s="3" t="str">
         <f ca="1">IF(History!A99&lt;&gt;"",SUM(OFFSET(History!C99,0,COUNT(History!99:99)-IF(COUNT(History!99:99)&lt;=5,COUNT(History!99:99),5)):OFFSET(History!C99,0,COUNT(History!99:99)-1)),"")</f>
         <v/>
       </c>
@@ -4588,11 +4588,11 @@
       <c r="A100" s="1">
         <v>99</v>
       </c>
-      <c r="B100" s="5" t="str">
+      <c r="B100" s="7" t="str">
         <f>IF(History!A100&lt;&gt;"",History!A100,"")</f>
         <v/>
       </c>
-      <c r="C100" s="4" t="str">
+      <c r="C100" s="3" t="str">
         <f ca="1">IF(History!A100&lt;&gt;"",SUM(History!B100:OFFSET(History!B100,0,COUNTA(History!100:100)-2)),"")</f>
         <v/>
       </c>
@@ -4600,27 +4600,27 @@
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="E100" s="4" t="str">
+      <c r="E100" s="3" t="str">
         <f ca="1">IF(History!A100&lt;&gt;0,COUNTIF(History!C100:OFFSET(History!C100,0,COUNTA(History!100:100)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F100" s="4" t="str">
+      <c r="F100" s="3" t="str">
         <f ca="1">IF(History!A100&lt;&gt;0,COUNTIF(History!C100:OFFSET(History!C100,0,COUNTA(History!100:100)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G100" s="6" t="str">
+      <c r="G100" s="4" t="str">
         <f ca="1">IF(MAX(History!100:100)&gt;0,MAX(History!C100:OFFSET(History!C100,0,COUNTA(History!100:100)-3)),"")</f>
         <v/>
       </c>
-      <c r="H100" s="6" t="str">
+      <c r="H100" s="4" t="str">
         <f ca="1">IF(History!A100&lt;&gt;0,MIN(History!C100:OFFSET(History!C100,0,COUNTA(History!100:100)-3)),"")</f>
         <v/>
       </c>
-      <c r="I100" s="6" t="str">
+      <c r="I100" s="4" t="str">
         <f>IF(History!A100&lt;&gt;"",History!B100,"")</f>
         <v/>
       </c>
-      <c r="J100" s="4" t="str">
+      <c r="J100" s="3" t="str">
         <f ca="1">IF(History!A100&lt;&gt;"",SUM(OFFSET(History!C100,0,COUNT(History!100:100)-IF(COUNT(History!100:100)&lt;=5,COUNT(History!100:100),5)):OFFSET(History!C100,0,COUNT(History!100:100)-1)),"")</f>
         <v/>
       </c>
@@ -4629,11 +4629,11 @@
       <c r="A101" s="1">
         <v>100</v>
       </c>
-      <c r="B101" s="5" t="str">
+      <c r="B101" s="7" t="str">
         <f>IF(History!A101&lt;&gt;"",History!A101,"")</f>
         <v/>
       </c>
-      <c r="C101" s="4" t="str">
+      <c r="C101" s="3" t="str">
         <f ca="1">IF(History!A101&lt;&gt;"",SUM(History!B101:OFFSET(History!B101,0,COUNTA(History!101:101)-2)),"")</f>
         <v/>
       </c>
@@ -4641,27 +4641,27 @@
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="E101" s="4" t="str">
+      <c r="E101" s="3" t="str">
         <f ca="1">IF(History!A101&lt;&gt;0,COUNTIF(History!C101:OFFSET(History!C101,0,COUNTA(History!101:101)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F101" s="4" t="str">
+      <c r="F101" s="3" t="str">
         <f ca="1">IF(History!A101&lt;&gt;0,COUNTIF(History!C101:OFFSET(History!C101,0,COUNTA(History!101:101)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G101" s="6" t="str">
+      <c r="G101" s="4" t="str">
         <f ca="1">IF(MAX(History!101:101)&gt;0,MAX(History!C101:OFFSET(History!C101,0,COUNTA(History!101:101)-3)),"")</f>
         <v/>
       </c>
-      <c r="H101" s="6" t="str">
+      <c r="H101" s="4" t="str">
         <f ca="1">IF(History!A101&lt;&gt;0,MIN(History!C101:OFFSET(History!C101,0,COUNTA(History!101:101)-3)),"")</f>
         <v/>
       </c>
-      <c r="I101" s="6" t="str">
+      <c r="I101" s="4" t="str">
         <f>IF(History!A101&lt;&gt;"",History!B101,"")</f>
         <v/>
       </c>
-      <c r="J101" s="4" t="str">
+      <c r="J101" s="3" t="str">
         <f ca="1">IF(History!A101&lt;&gt;"",SUM(OFFSET(History!C101,0,COUNT(History!101:101)-IF(COUNT(History!101:101)&lt;=5,COUNT(History!101:101),5)):OFFSET(History!C101,0,COUNT(History!101:101)-1)),"")</f>
         <v/>
       </c>
@@ -4670,11 +4670,11 @@
       <c r="A102" s="1">
         <v>101</v>
       </c>
-      <c r="B102" s="5" t="str">
+      <c r="B102" s="7" t="str">
         <f>IF(History!A102&lt;&gt;"",History!A102,"")</f>
         <v/>
       </c>
-      <c r="C102" s="4" t="str">
+      <c r="C102" s="3" t="str">
         <f ca="1">IF(History!A102&lt;&gt;"",SUM(History!B102:OFFSET(History!B102,0,COUNTA(History!102:102)-2)),"")</f>
         <v/>
       </c>
@@ -4682,27 +4682,27 @@
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="E102" s="4" t="str">
+      <c r="E102" s="3" t="str">
         <f ca="1">IF(History!A102&lt;&gt;0,COUNTIF(History!C102:OFFSET(History!C102,0,COUNTA(History!102:102)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F102" s="4" t="str">
+      <c r="F102" s="3" t="str">
         <f ca="1">IF(History!A102&lt;&gt;0,COUNTIF(History!C102:OFFSET(History!C102,0,COUNTA(History!102:102)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G102" s="6" t="str">
+      <c r="G102" s="4" t="str">
         <f ca="1">IF(MAX(History!102:102)&gt;0,MAX(History!C102:OFFSET(History!C102,0,COUNTA(History!102:102)-3)),"")</f>
         <v/>
       </c>
-      <c r="H102" s="6" t="str">
+      <c r="H102" s="4" t="str">
         <f ca="1">IF(History!A102&lt;&gt;0,MIN(History!C102:OFFSET(History!C102,0,COUNTA(History!102:102)-3)),"")</f>
         <v/>
       </c>
-      <c r="I102" s="6" t="str">
+      <c r="I102" s="4" t="str">
         <f>IF(History!A102&lt;&gt;"",History!B102,"")</f>
         <v/>
       </c>
-      <c r="J102" s="4" t="str">
+      <c r="J102" s="3" t="str">
         <f ca="1">IF(History!A102&lt;&gt;"",SUM(OFFSET(History!C102,0,COUNT(History!102:102)-IF(COUNT(History!102:102)&lt;=5,COUNT(History!102:102),5)):OFFSET(History!C102,0,COUNT(History!102:102)-1)),"")</f>
         <v/>
       </c>
@@ -4711,11 +4711,11 @@
       <c r="A103" s="1">
         <v>102</v>
       </c>
-      <c r="B103" s="5" t="str">
+      <c r="B103" s="7" t="str">
         <f>IF(History!A103&lt;&gt;"",History!A103,"")</f>
         <v/>
       </c>
-      <c r="C103" s="4" t="str">
+      <c r="C103" s="3" t="str">
         <f ca="1">IF(History!A103&lt;&gt;"",SUM(History!B103:OFFSET(History!B103,0,COUNTA(History!103:103)-2)),"")</f>
         <v/>
       </c>
@@ -4723,27 +4723,27 @@
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="E103" s="4" t="str">
+      <c r="E103" s="3" t="str">
         <f ca="1">IF(History!A103&lt;&gt;0,COUNTIF(History!C103:OFFSET(History!C103,0,COUNTA(History!103:103)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F103" s="4" t="str">
+      <c r="F103" s="3" t="str">
         <f ca="1">IF(History!A103&lt;&gt;0,COUNTIF(History!C103:OFFSET(History!C103,0,COUNTA(History!103:103)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G103" s="6" t="str">
+      <c r="G103" s="4" t="str">
         <f ca="1">IF(MAX(History!103:103)&gt;0,MAX(History!C103:OFFSET(History!C103,0,COUNTA(History!103:103)-3)),"")</f>
         <v/>
       </c>
-      <c r="H103" s="6" t="str">
+      <c r="H103" s="4" t="str">
         <f ca="1">IF(History!A103&lt;&gt;0,MIN(History!C103:OFFSET(History!C103,0,COUNTA(History!103:103)-3)),"")</f>
         <v/>
       </c>
-      <c r="I103" s="6" t="str">
+      <c r="I103" s="4" t="str">
         <f>IF(History!A103&lt;&gt;"",History!B103,"")</f>
         <v/>
       </c>
-      <c r="J103" s="4" t="str">
+      <c r="J103" s="3" t="str">
         <f ca="1">IF(History!A103&lt;&gt;"",SUM(OFFSET(History!C103,0,COUNT(History!103:103)-IF(COUNT(History!103:103)&lt;=5,COUNT(History!103:103),5)):OFFSET(History!C103,0,COUNT(History!103:103)-1)),"")</f>
         <v/>
       </c>
@@ -4752,11 +4752,11 @@
       <c r="A104" s="1">
         <v>103</v>
       </c>
-      <c r="B104" s="5" t="str">
+      <c r="B104" s="7" t="str">
         <f>IF(History!A104&lt;&gt;"",History!A104,"")</f>
         <v/>
       </c>
-      <c r="C104" s="4" t="str">
+      <c r="C104" s="3" t="str">
         <f ca="1">IF(History!A104&lt;&gt;"",SUM(History!B104:OFFSET(History!B104,0,COUNTA(History!104:104)-2)),"")</f>
         <v/>
       </c>
@@ -4764,27 +4764,27 @@
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="E104" s="4" t="str">
+      <c r="E104" s="3" t="str">
         <f ca="1">IF(History!A104&lt;&gt;0,COUNTIF(History!C104:OFFSET(History!C104,0,COUNTA(History!104:104)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F104" s="4" t="str">
+      <c r="F104" s="3" t="str">
         <f ca="1">IF(History!A104&lt;&gt;0,COUNTIF(History!C104:OFFSET(History!C104,0,COUNTA(History!104:104)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G104" s="6" t="str">
+      <c r="G104" s="4" t="str">
         <f ca="1">IF(MAX(History!104:104)&gt;0,MAX(History!C104:OFFSET(History!C104,0,COUNTA(History!104:104)-3)),"")</f>
         <v/>
       </c>
-      <c r="H104" s="6" t="str">
+      <c r="H104" s="4" t="str">
         <f ca="1">IF(History!A104&lt;&gt;0,MIN(History!C104:OFFSET(History!C104,0,COUNTA(History!104:104)-3)),"")</f>
         <v/>
       </c>
-      <c r="I104" s="6" t="str">
+      <c r="I104" s="4" t="str">
         <f>IF(History!A104&lt;&gt;"",History!B104,"")</f>
         <v/>
       </c>
-      <c r="J104" s="4" t="str">
+      <c r="J104" s="3" t="str">
         <f ca="1">IF(History!A104&lt;&gt;"",SUM(OFFSET(History!C104,0,COUNT(History!104:104)-IF(COUNT(History!104:104)&lt;=5,COUNT(History!104:104),5)):OFFSET(History!C104,0,COUNT(History!104:104)-1)),"")</f>
         <v/>
       </c>
@@ -4793,11 +4793,11 @@
       <c r="A105" s="1">
         <v>104</v>
       </c>
-      <c r="B105" s="5" t="str">
+      <c r="B105" s="7" t="str">
         <f>IF(History!A105&lt;&gt;"",History!A105,"")</f>
         <v/>
       </c>
-      <c r="C105" s="4" t="str">
+      <c r="C105" s="3" t="str">
         <f ca="1">IF(History!A105&lt;&gt;"",SUM(History!B105:OFFSET(History!B105,0,COUNTA(History!105:105)-2)),"")</f>
         <v/>
       </c>
@@ -4805,27 +4805,27 @@
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="E105" s="4" t="str">
+      <c r="E105" s="3" t="str">
         <f ca="1">IF(History!A105&lt;&gt;0,COUNTIF(History!C105:OFFSET(History!C105,0,COUNTA(History!105:105)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F105" s="4" t="str">
+      <c r="F105" s="3" t="str">
         <f ca="1">IF(History!A105&lt;&gt;0,COUNTIF(History!C105:OFFSET(History!C105,0,COUNTA(History!105:105)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G105" s="6" t="str">
+      <c r="G105" s="4" t="str">
         <f ca="1">IF(MAX(History!105:105)&gt;0,MAX(History!C105:OFFSET(History!C105,0,COUNTA(History!105:105)-3)),"")</f>
         <v/>
       </c>
-      <c r="H105" s="6" t="str">
+      <c r="H105" s="4" t="str">
         <f ca="1">IF(History!A105&lt;&gt;0,MIN(History!C105:OFFSET(History!C105,0,COUNTA(History!105:105)-3)),"")</f>
         <v/>
       </c>
-      <c r="I105" s="6" t="str">
+      <c r="I105" s="4" t="str">
         <f>IF(History!A105&lt;&gt;"",History!B105,"")</f>
         <v/>
       </c>
-      <c r="J105" s="4" t="str">
+      <c r="J105" s="3" t="str">
         <f ca="1">IF(History!A105&lt;&gt;"",SUM(OFFSET(History!C105,0,COUNT(History!105:105)-IF(COUNT(History!105:105)&lt;=5,COUNT(History!105:105),5)):OFFSET(History!C105,0,COUNT(History!105:105)-1)),"")</f>
         <v/>
       </c>
@@ -4834,11 +4834,11 @@
       <c r="A106" s="1">
         <v>105</v>
       </c>
-      <c r="B106" s="5" t="str">
+      <c r="B106" s="7" t="str">
         <f>IF(History!A106&lt;&gt;"",History!A106,"")</f>
         <v/>
       </c>
-      <c r="C106" s="4" t="str">
+      <c r="C106" s="3" t="str">
         <f ca="1">IF(History!A106&lt;&gt;"",SUM(History!B106:OFFSET(History!B106,0,COUNTA(History!106:106)-2)),"")</f>
         <v/>
       </c>
@@ -4846,27 +4846,27 @@
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="E106" s="4" t="str">
+      <c r="E106" s="3" t="str">
         <f ca="1">IF(History!A106&lt;&gt;0,COUNTIF(History!C106:OFFSET(History!C106,0,COUNTA(History!106:106)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F106" s="4" t="str">
+      <c r="F106" s="3" t="str">
         <f ca="1">IF(History!A106&lt;&gt;0,COUNTIF(History!C106:OFFSET(History!C106,0,COUNTA(History!106:106)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G106" s="6" t="str">
+      <c r="G106" s="4" t="str">
         <f ca="1">IF(MAX(History!106:106)&gt;0,MAX(History!C106:OFFSET(History!C106,0,COUNTA(History!106:106)-3)),"")</f>
         <v/>
       </c>
-      <c r="H106" s="6" t="str">
+      <c r="H106" s="4" t="str">
         <f ca="1">IF(History!A106&lt;&gt;0,MIN(History!C106:OFFSET(History!C106,0,COUNTA(History!106:106)-3)),"")</f>
         <v/>
       </c>
-      <c r="I106" s="6" t="str">
+      <c r="I106" s="4" t="str">
         <f>IF(History!A106&lt;&gt;"",History!B106,"")</f>
         <v/>
       </c>
-      <c r="J106" s="4" t="str">
+      <c r="J106" s="3" t="str">
         <f ca="1">IF(History!A106&lt;&gt;"",SUM(OFFSET(History!C106,0,COUNT(History!106:106)-IF(COUNT(History!106:106)&lt;=5,COUNT(History!106:106),5)):OFFSET(History!C106,0,COUNT(History!106:106)-1)),"")</f>
         <v/>
       </c>
@@ -4875,11 +4875,11 @@
       <c r="A107" s="1">
         <v>106</v>
       </c>
-      <c r="B107" s="5" t="str">
+      <c r="B107" s="7" t="str">
         <f>IF(History!A107&lt;&gt;"",History!A107,"")</f>
         <v/>
       </c>
-      <c r="C107" s="4" t="str">
+      <c r="C107" s="3" t="str">
         <f ca="1">IF(History!A107&lt;&gt;"",SUM(History!B107:OFFSET(History!B107,0,COUNTA(History!107:107)-2)),"")</f>
         <v/>
       </c>
@@ -4887,27 +4887,27 @@
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="E107" s="4" t="str">
+      <c r="E107" s="3" t="str">
         <f ca="1">IF(History!A107&lt;&gt;0,COUNTIF(History!C107:OFFSET(History!C107,0,COUNTA(History!107:107)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F107" s="4" t="str">
+      <c r="F107" s="3" t="str">
         <f ca="1">IF(History!A107&lt;&gt;0,COUNTIF(History!C107:OFFSET(History!C107,0,COUNTA(History!107:107)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G107" s="6" t="str">
+      <c r="G107" s="4" t="str">
         <f ca="1">IF(MAX(History!107:107)&gt;0,MAX(History!C107:OFFSET(History!C107,0,COUNTA(History!107:107)-3)),"")</f>
         <v/>
       </c>
-      <c r="H107" s="6" t="str">
+      <c r="H107" s="4" t="str">
         <f ca="1">IF(History!A107&lt;&gt;0,MIN(History!C107:OFFSET(History!C107,0,COUNTA(History!107:107)-3)),"")</f>
         <v/>
       </c>
-      <c r="I107" s="6" t="str">
+      <c r="I107" s="4" t="str">
         <f>IF(History!A107&lt;&gt;"",History!B107,"")</f>
         <v/>
       </c>
-      <c r="J107" s="4" t="str">
+      <c r="J107" s="3" t="str">
         <f ca="1">IF(History!A107&lt;&gt;"",SUM(OFFSET(History!C107,0,COUNT(History!107:107)-IF(COUNT(History!107:107)&lt;=5,COUNT(History!107:107),5)):OFFSET(History!C107,0,COUNT(History!107:107)-1)),"")</f>
         <v/>
       </c>
@@ -4916,11 +4916,11 @@
       <c r="A108" s="1">
         <v>107</v>
       </c>
-      <c r="B108" s="5" t="str">
+      <c r="B108" s="7" t="str">
         <f>IF(History!A108&lt;&gt;"",History!A108,"")</f>
         <v/>
       </c>
-      <c r="C108" s="4" t="str">
+      <c r="C108" s="3" t="str">
         <f ca="1">IF(History!A108&lt;&gt;"",SUM(History!B108:OFFSET(History!B108,0,COUNTA(History!108:108)-2)),"")</f>
         <v/>
       </c>
@@ -4928,27 +4928,27 @@
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="E108" s="4" t="str">
+      <c r="E108" s="3" t="str">
         <f ca="1">IF(History!A108&lt;&gt;0,COUNTIF(History!C108:OFFSET(History!C108,0,COUNTA(History!108:108)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F108" s="4" t="str">
+      <c r="F108" s="3" t="str">
         <f ca="1">IF(History!A108&lt;&gt;0,COUNTIF(History!C108:OFFSET(History!C108,0,COUNTA(History!108:108)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G108" s="6" t="str">
+      <c r="G108" s="4" t="str">
         <f ca="1">IF(MAX(History!108:108)&gt;0,MAX(History!C108:OFFSET(History!C108,0,COUNTA(History!108:108)-3)),"")</f>
         <v/>
       </c>
-      <c r="H108" s="6" t="str">
+      <c r="H108" s="4" t="str">
         <f ca="1">IF(History!A108&lt;&gt;0,MIN(History!C108:OFFSET(History!C108,0,COUNTA(History!108:108)-3)),"")</f>
         <v/>
       </c>
-      <c r="I108" s="6" t="str">
+      <c r="I108" s="4" t="str">
         <f>IF(History!A108&lt;&gt;"",History!B108,"")</f>
         <v/>
       </c>
-      <c r="J108" s="4" t="str">
+      <c r="J108" s="3" t="str">
         <f ca="1">IF(History!A108&lt;&gt;"",SUM(OFFSET(History!C108,0,COUNT(History!108:108)-IF(COUNT(History!108:108)&lt;=5,COUNT(History!108:108),5)):OFFSET(History!C108,0,COUNT(History!108:108)-1)),"")</f>
         <v/>
       </c>
@@ -4957,11 +4957,11 @@
       <c r="A109" s="1">
         <v>108</v>
       </c>
-      <c r="B109" s="5" t="str">
+      <c r="B109" s="7" t="str">
         <f>IF(History!A109&lt;&gt;"",History!A109,"")</f>
         <v/>
       </c>
-      <c r="C109" s="4" t="str">
+      <c r="C109" s="3" t="str">
         <f ca="1">IF(History!A109&lt;&gt;"",SUM(History!B109:OFFSET(History!B109,0,COUNTA(History!109:109)-2)),"")</f>
         <v/>
       </c>
@@ -4969,27 +4969,27 @@
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="E109" s="4" t="str">
+      <c r="E109" s="3" t="str">
         <f ca="1">IF(History!A109&lt;&gt;0,COUNTIF(History!C109:OFFSET(History!C109,0,COUNTA(History!109:109)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F109" s="4" t="str">
+      <c r="F109" s="3" t="str">
         <f ca="1">IF(History!A109&lt;&gt;0,COUNTIF(History!C109:OFFSET(History!C109,0,COUNTA(History!109:109)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G109" s="6" t="str">
+      <c r="G109" s="4" t="str">
         <f ca="1">IF(MAX(History!109:109)&gt;0,MAX(History!C109:OFFSET(History!C109,0,COUNTA(History!109:109)-3)),"")</f>
         <v/>
       </c>
-      <c r="H109" s="6" t="str">
+      <c r="H109" s="4" t="str">
         <f ca="1">IF(History!A109&lt;&gt;0,MIN(History!C109:OFFSET(History!C109,0,COUNTA(History!109:109)-3)),"")</f>
         <v/>
       </c>
-      <c r="I109" s="6" t="str">
+      <c r="I109" s="4" t="str">
         <f>IF(History!A109&lt;&gt;"",History!B109,"")</f>
         <v/>
       </c>
-      <c r="J109" s="4" t="str">
+      <c r="J109" s="3" t="str">
         <f ca="1">IF(History!A109&lt;&gt;"",SUM(OFFSET(History!C109,0,COUNT(History!109:109)-IF(COUNT(History!109:109)&lt;=5,COUNT(History!109:109),5)):OFFSET(History!C109,0,COUNT(History!109:109)-1)),"")</f>
         <v/>
       </c>
@@ -4998,11 +4998,11 @@
       <c r="A110" s="1">
         <v>109</v>
       </c>
-      <c r="B110" s="5" t="str">
+      <c r="B110" s="7" t="str">
         <f>IF(History!A110&lt;&gt;"",History!A110,"")</f>
         <v/>
       </c>
-      <c r="C110" s="4" t="str">
+      <c r="C110" s="3" t="str">
         <f ca="1">IF(History!A110&lt;&gt;"",SUM(History!B110:OFFSET(History!B110,0,COUNTA(History!110:110)-2)),"")</f>
         <v/>
       </c>
@@ -5010,27 +5010,27 @@
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="E110" s="4" t="str">
+      <c r="E110" s="3" t="str">
         <f ca="1">IF(History!A110&lt;&gt;0,COUNTIF(History!C110:OFFSET(History!C110,0,COUNTA(History!110:110)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F110" s="4" t="str">
+      <c r="F110" s="3" t="str">
         <f ca="1">IF(History!A110&lt;&gt;0,COUNTIF(History!C110:OFFSET(History!C110,0,COUNTA(History!110:110)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G110" s="6" t="str">
+      <c r="G110" s="4" t="str">
         <f ca="1">IF(MAX(History!110:110)&gt;0,MAX(History!C110:OFFSET(History!C110,0,COUNTA(History!110:110)-3)),"")</f>
         <v/>
       </c>
-      <c r="H110" s="6" t="str">
+      <c r="H110" s="4" t="str">
         <f ca="1">IF(History!A110&lt;&gt;0,MIN(History!C110:OFFSET(History!C110,0,COUNTA(History!110:110)-3)),"")</f>
         <v/>
       </c>
-      <c r="I110" s="6" t="str">
+      <c r="I110" s="4" t="str">
         <f>IF(History!A110&lt;&gt;"",History!B110,"")</f>
         <v/>
       </c>
-      <c r="J110" s="4" t="str">
+      <c r="J110" s="3" t="str">
         <f ca="1">IF(History!A110&lt;&gt;"",SUM(OFFSET(History!C110,0,COUNT(History!110:110)-IF(COUNT(History!110:110)&lt;=5,COUNT(History!110:110),5)):OFFSET(History!C110,0,COUNT(History!110:110)-1)),"")</f>
         <v/>
       </c>
@@ -5039,11 +5039,11 @@
       <c r="A111" s="1">
         <v>110</v>
       </c>
-      <c r="B111" s="5" t="str">
+      <c r="B111" s="7" t="str">
         <f>IF(History!A111&lt;&gt;"",History!A111,"")</f>
         <v/>
       </c>
-      <c r="C111" s="4" t="str">
+      <c r="C111" s="3" t="str">
         <f ca="1">IF(History!A111&lt;&gt;"",SUM(History!B111:OFFSET(History!B111,0,COUNTA(History!111:111)-2)),"")</f>
         <v/>
       </c>
@@ -5051,27 +5051,27 @@
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="E111" s="4" t="str">
+      <c r="E111" s="3" t="str">
         <f ca="1">IF(History!A111&lt;&gt;0,COUNTIF(History!C111:OFFSET(History!C111,0,COUNTA(History!111:111)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F111" s="4" t="str">
+      <c r="F111" s="3" t="str">
         <f ca="1">IF(History!A111&lt;&gt;0,COUNTIF(History!C111:OFFSET(History!C111,0,COUNTA(History!111:111)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G111" s="6" t="str">
+      <c r="G111" s="4" t="str">
         <f ca="1">IF(MAX(History!111:111)&gt;0,MAX(History!C111:OFFSET(History!C111,0,COUNTA(History!111:111)-3)),"")</f>
         <v/>
       </c>
-      <c r="H111" s="6" t="str">
+      <c r="H111" s="4" t="str">
         <f ca="1">IF(History!A111&lt;&gt;0,MIN(History!C111:OFFSET(History!C111,0,COUNTA(History!111:111)-3)),"")</f>
         <v/>
       </c>
-      <c r="I111" s="6" t="str">
+      <c r="I111" s="4" t="str">
         <f>IF(History!A111&lt;&gt;"",History!B111,"")</f>
         <v/>
       </c>
-      <c r="J111" s="4" t="str">
+      <c r="J111" s="3" t="str">
         <f ca="1">IF(History!A111&lt;&gt;"",SUM(OFFSET(History!C111,0,COUNT(History!111:111)-IF(COUNT(History!111:111)&lt;=5,COUNT(History!111:111),5)):OFFSET(History!C111,0,COUNT(History!111:111)-1)),"")</f>
         <v/>
       </c>
@@ -5080,11 +5080,11 @@
       <c r="A112" s="1">
         <v>111</v>
       </c>
-      <c r="B112" s="5" t="str">
+      <c r="B112" s="7" t="str">
         <f>IF(History!A112&lt;&gt;"",History!A112,"")</f>
         <v/>
       </c>
-      <c r="C112" s="4" t="str">
+      <c r="C112" s="3" t="str">
         <f ca="1">IF(History!A112&lt;&gt;"",SUM(History!B112:OFFSET(History!B112,0,COUNTA(History!112:112)-2)),"")</f>
         <v/>
       </c>
@@ -5092,27 +5092,27 @@
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="E112" s="4" t="str">
+      <c r="E112" s="3" t="str">
         <f ca="1">IF(History!A112&lt;&gt;0,COUNTIF(History!C112:OFFSET(History!C112,0,COUNTA(History!112:112)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F112" s="4" t="str">
+      <c r="F112" s="3" t="str">
         <f ca="1">IF(History!A112&lt;&gt;0,COUNTIF(History!C112:OFFSET(History!C112,0,COUNTA(History!112:112)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G112" s="6" t="str">
+      <c r="G112" s="4" t="str">
         <f ca="1">IF(MAX(History!112:112)&gt;0,MAX(History!C112:OFFSET(History!C112,0,COUNTA(History!112:112)-3)),"")</f>
         <v/>
       </c>
-      <c r="H112" s="6" t="str">
+      <c r="H112" s="4" t="str">
         <f ca="1">IF(History!A112&lt;&gt;0,MIN(History!C112:OFFSET(History!C112,0,COUNTA(History!112:112)-3)),"")</f>
         <v/>
       </c>
-      <c r="I112" s="6" t="str">
+      <c r="I112" s="4" t="str">
         <f>IF(History!A112&lt;&gt;"",History!B112,"")</f>
         <v/>
       </c>
-      <c r="J112" s="4" t="str">
+      <c r="J112" s="3" t="str">
         <f ca="1">IF(History!A112&lt;&gt;"",SUM(OFFSET(History!C112,0,COUNT(History!112:112)-IF(COUNT(History!112:112)&lt;=5,COUNT(History!112:112),5)):OFFSET(History!C112,0,COUNT(History!112:112)-1)),"")</f>
         <v/>
       </c>
@@ -5121,11 +5121,11 @@
       <c r="A113" s="1">
         <v>112</v>
       </c>
-      <c r="B113" s="5" t="str">
+      <c r="B113" s="7" t="str">
         <f>IF(History!A113&lt;&gt;"",History!A113,"")</f>
         <v/>
       </c>
-      <c r="C113" s="4" t="str">
+      <c r="C113" s="3" t="str">
         <f ca="1">IF(History!A113&lt;&gt;"",SUM(History!B113:OFFSET(History!B113,0,COUNTA(History!113:113)-2)),"")</f>
         <v/>
       </c>
@@ -5133,27 +5133,27 @@
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="E113" s="4" t="str">
+      <c r="E113" s="3" t="str">
         <f ca="1">IF(History!A113&lt;&gt;0,COUNTIF(History!C113:OFFSET(History!C113,0,COUNTA(History!113:113)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F113" s="4" t="str">
+      <c r="F113" s="3" t="str">
         <f ca="1">IF(History!A113&lt;&gt;0,COUNTIF(History!C113:OFFSET(History!C113,0,COUNTA(History!113:113)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G113" s="6" t="str">
+      <c r="G113" s="4" t="str">
         <f ca="1">IF(MAX(History!113:113)&gt;0,MAX(History!C113:OFFSET(History!C113,0,COUNTA(History!113:113)-3)),"")</f>
         <v/>
       </c>
-      <c r="H113" s="6" t="str">
+      <c r="H113" s="4" t="str">
         <f ca="1">IF(History!A113&lt;&gt;0,MIN(History!C113:OFFSET(History!C113,0,COUNTA(History!113:113)-3)),"")</f>
         <v/>
       </c>
-      <c r="I113" s="6" t="str">
+      <c r="I113" s="4" t="str">
         <f>IF(History!A113&lt;&gt;"",History!B113,"")</f>
         <v/>
       </c>
-      <c r="J113" s="4" t="str">
+      <c r="J113" s="3" t="str">
         <f ca="1">IF(History!A113&lt;&gt;"",SUM(OFFSET(History!C113,0,COUNT(History!113:113)-IF(COUNT(History!113:113)&lt;=5,COUNT(History!113:113),5)):OFFSET(History!C113,0,COUNT(History!113:113)-1)),"")</f>
         <v/>
       </c>
@@ -5162,11 +5162,11 @@
       <c r="A114" s="1">
         <v>113</v>
       </c>
-      <c r="B114" s="5" t="str">
+      <c r="B114" s="7" t="str">
         <f>IF(History!A114&lt;&gt;"",History!A114,"")</f>
         <v/>
       </c>
-      <c r="C114" s="4" t="str">
+      <c r="C114" s="3" t="str">
         <f ca="1">IF(History!A114&lt;&gt;"",SUM(History!B114:OFFSET(History!B114,0,COUNTA(History!114:114)-2)),"")</f>
         <v/>
       </c>
@@ -5174,27 +5174,27 @@
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="E114" s="4" t="str">
+      <c r="E114" s="3" t="str">
         <f ca="1">IF(History!A114&lt;&gt;0,COUNTIF(History!C114:OFFSET(History!C114,0,COUNTA(History!114:114)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F114" s="4" t="str">
+      <c r="F114" s="3" t="str">
         <f ca="1">IF(History!A114&lt;&gt;0,COUNTIF(History!C114:OFFSET(History!C114,0,COUNTA(History!114:114)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G114" s="6" t="str">
+      <c r="G114" s="4" t="str">
         <f ca="1">IF(MAX(History!114:114)&gt;0,MAX(History!C114:OFFSET(History!C114,0,COUNTA(History!114:114)-3)),"")</f>
         <v/>
       </c>
-      <c r="H114" s="6" t="str">
+      <c r="H114" s="4" t="str">
         <f ca="1">IF(History!A114&lt;&gt;0,MIN(History!C114:OFFSET(History!C114,0,COUNTA(History!114:114)-3)),"")</f>
         <v/>
       </c>
-      <c r="I114" s="6" t="str">
+      <c r="I114" s="4" t="str">
         <f>IF(History!A114&lt;&gt;"",History!B114,"")</f>
         <v/>
       </c>
-      <c r="J114" s="4" t="str">
+      <c r="J114" s="3" t="str">
         <f ca="1">IF(History!A114&lt;&gt;"",SUM(OFFSET(History!C114,0,COUNT(History!114:114)-IF(COUNT(History!114:114)&lt;=5,COUNT(History!114:114),5)):OFFSET(History!C114,0,COUNT(History!114:114)-1)),"")</f>
         <v/>
       </c>
@@ -5203,11 +5203,11 @@
       <c r="A115" s="1">
         <v>114</v>
       </c>
-      <c r="B115" s="5" t="str">
+      <c r="B115" s="7" t="str">
         <f>IF(History!A115&lt;&gt;"",History!A115,"")</f>
         <v/>
       </c>
-      <c r="C115" s="4" t="str">
+      <c r="C115" s="3" t="str">
         <f ca="1">IF(History!A115&lt;&gt;"",SUM(History!B115:OFFSET(History!B115,0,COUNTA(History!115:115)-2)),"")</f>
         <v/>
       </c>
@@ -5215,27 +5215,27 @@
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="E115" s="4" t="str">
+      <c r="E115" s="3" t="str">
         <f ca="1">IF(History!A115&lt;&gt;0,COUNTIF(History!C115:OFFSET(History!C115,0,COUNTA(History!115:115)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F115" s="4" t="str">
+      <c r="F115" s="3" t="str">
         <f ca="1">IF(History!A115&lt;&gt;0,COUNTIF(History!C115:OFFSET(History!C115,0,COUNTA(History!115:115)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G115" s="6" t="str">
+      <c r="G115" s="4" t="str">
         <f ca="1">IF(MAX(History!115:115)&gt;0,MAX(History!C115:OFFSET(History!C115,0,COUNTA(History!115:115)-3)),"")</f>
         <v/>
       </c>
-      <c r="H115" s="6" t="str">
+      <c r="H115" s="4" t="str">
         <f ca="1">IF(History!A115&lt;&gt;0,MIN(History!C115:OFFSET(History!C115,0,COUNTA(History!115:115)-3)),"")</f>
         <v/>
       </c>
-      <c r="I115" s="6" t="str">
+      <c r="I115" s="4" t="str">
         <f>IF(History!A115&lt;&gt;"",History!B115,"")</f>
         <v/>
       </c>
-      <c r="J115" s="4" t="str">
+      <c r="J115" s="3" t="str">
         <f ca="1">IF(History!A115&lt;&gt;"",SUM(OFFSET(History!C115,0,COUNT(History!115:115)-IF(COUNT(History!115:115)&lt;=5,COUNT(History!115:115),5)):OFFSET(History!C115,0,COUNT(History!115:115)-1)),"")</f>
         <v/>
       </c>
@@ -5244,11 +5244,11 @@
       <c r="A116" s="1">
         <v>115</v>
       </c>
-      <c r="B116" s="5" t="str">
+      <c r="B116" s="7" t="str">
         <f>IF(History!A116&lt;&gt;"",History!A116,"")</f>
         <v/>
       </c>
-      <c r="C116" s="4" t="str">
+      <c r="C116" s="3" t="str">
         <f ca="1">IF(History!A116&lt;&gt;"",SUM(History!B116:OFFSET(History!B116,0,COUNTA(History!116:116)-2)),"")</f>
         <v/>
       </c>
@@ -5256,27 +5256,27 @@
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="E116" s="4" t="str">
+      <c r="E116" s="3" t="str">
         <f ca="1">IF(History!A116&lt;&gt;0,COUNTIF(History!C116:OFFSET(History!C116,0,COUNTA(History!116:116)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F116" s="4" t="str">
+      <c r="F116" s="3" t="str">
         <f ca="1">IF(History!A116&lt;&gt;0,COUNTIF(History!C116:OFFSET(History!C116,0,COUNTA(History!116:116)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G116" s="6" t="str">
+      <c r="G116" s="4" t="str">
         <f ca="1">IF(MAX(History!116:116)&gt;0,MAX(History!C116:OFFSET(History!C116,0,COUNTA(History!116:116)-3)),"")</f>
         <v/>
       </c>
-      <c r="H116" s="6" t="str">
+      <c r="H116" s="4" t="str">
         <f ca="1">IF(History!A116&lt;&gt;0,MIN(History!C116:OFFSET(History!C116,0,COUNTA(History!116:116)-3)),"")</f>
         <v/>
       </c>
-      <c r="I116" s="6" t="str">
+      <c r="I116" s="4" t="str">
         <f>IF(History!A116&lt;&gt;"",History!B116,"")</f>
         <v/>
       </c>
-      <c r="J116" s="4" t="str">
+      <c r="J116" s="3" t="str">
         <f ca="1">IF(History!A116&lt;&gt;"",SUM(OFFSET(History!C116,0,COUNT(History!116:116)-IF(COUNT(History!116:116)&lt;=5,COUNT(History!116:116),5)):OFFSET(History!C116,0,COUNT(History!116:116)-1)),"")</f>
         <v/>
       </c>
@@ -5285,11 +5285,11 @@
       <c r="A117" s="1">
         <v>116</v>
       </c>
-      <c r="B117" s="5" t="str">
+      <c r="B117" s="7" t="str">
         <f>IF(History!A117&lt;&gt;"",History!A117,"")</f>
         <v/>
       </c>
-      <c r="C117" s="4" t="str">
+      <c r="C117" s="3" t="str">
         <f ca="1">IF(History!A117&lt;&gt;"",SUM(History!B117:OFFSET(History!B117,0,COUNTA(History!117:117)-2)),"")</f>
         <v/>
       </c>
@@ -5297,27 +5297,27 @@
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="E117" s="4" t="str">
+      <c r="E117" s="3" t="str">
         <f ca="1">IF(History!A117&lt;&gt;0,COUNTIF(History!C117:OFFSET(History!C117,0,COUNTA(History!117:117)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F117" s="4" t="str">
+      <c r="F117" s="3" t="str">
         <f ca="1">IF(History!A117&lt;&gt;0,COUNTIF(History!C117:OFFSET(History!C117,0,COUNTA(History!117:117)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G117" s="6" t="str">
+      <c r="G117" s="4" t="str">
         <f ca="1">IF(MAX(History!117:117)&gt;0,MAX(History!C117:OFFSET(History!C117,0,COUNTA(History!117:117)-3)),"")</f>
         <v/>
       </c>
-      <c r="H117" s="6" t="str">
+      <c r="H117" s="4" t="str">
         <f ca="1">IF(History!A117&lt;&gt;0,MIN(History!C117:OFFSET(History!C117,0,COUNTA(History!117:117)-3)),"")</f>
         <v/>
       </c>
-      <c r="I117" s="6" t="str">
+      <c r="I117" s="4" t="str">
         <f>IF(History!A117&lt;&gt;"",History!B117,"")</f>
         <v/>
       </c>
-      <c r="J117" s="4" t="str">
+      <c r="J117" s="3" t="str">
         <f ca="1">IF(History!A117&lt;&gt;"",SUM(OFFSET(History!C117,0,COUNT(History!117:117)-IF(COUNT(History!117:117)&lt;=5,COUNT(History!117:117),5)):OFFSET(History!C117,0,COUNT(History!117:117)-1)),"")</f>
         <v/>
       </c>
@@ -5326,11 +5326,11 @@
       <c r="A118" s="1">
         <v>117</v>
       </c>
-      <c r="B118" s="5" t="str">
+      <c r="B118" s="7" t="str">
         <f>IF(History!A118&lt;&gt;"",History!A118,"")</f>
         <v/>
       </c>
-      <c r="C118" s="4" t="str">
+      <c r="C118" s="3" t="str">
         <f ca="1">IF(History!A118&lt;&gt;"",SUM(History!B118:OFFSET(History!B118,0,COUNTA(History!118:118)-2)),"")</f>
         <v/>
       </c>
@@ -5338,27 +5338,27 @@
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="E118" s="4" t="str">
+      <c r="E118" s="3" t="str">
         <f ca="1">IF(History!A118&lt;&gt;0,COUNTIF(History!C118:OFFSET(History!C118,0,COUNTA(History!118:118)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F118" s="4" t="str">
+      <c r="F118" s="3" t="str">
         <f ca="1">IF(History!A118&lt;&gt;0,COUNTIF(History!C118:OFFSET(History!C118,0,COUNTA(History!118:118)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G118" s="6" t="str">
+      <c r="G118" s="4" t="str">
         <f ca="1">IF(MAX(History!118:118)&gt;0,MAX(History!C118:OFFSET(History!C118,0,COUNTA(History!118:118)-3)),"")</f>
         <v/>
       </c>
-      <c r="H118" s="6" t="str">
+      <c r="H118" s="4" t="str">
         <f ca="1">IF(History!A118&lt;&gt;0,MIN(History!C118:OFFSET(History!C118,0,COUNTA(History!118:118)-3)),"")</f>
         <v/>
       </c>
-      <c r="I118" s="6" t="str">
+      <c r="I118" s="4" t="str">
         <f>IF(History!A118&lt;&gt;"",History!B118,"")</f>
         <v/>
       </c>
-      <c r="J118" s="4" t="str">
+      <c r="J118" s="3" t="str">
         <f ca="1">IF(History!A118&lt;&gt;"",SUM(OFFSET(History!C118,0,COUNT(History!118:118)-IF(COUNT(History!118:118)&lt;=5,COUNT(History!118:118),5)):OFFSET(History!C118,0,COUNT(History!118:118)-1)),"")</f>
         <v/>
       </c>
@@ -5367,11 +5367,11 @@
       <c r="A119" s="1">
         <v>118</v>
       </c>
-      <c r="B119" s="5" t="str">
+      <c r="B119" s="7" t="str">
         <f>IF(History!A119&lt;&gt;"",History!A119,"")</f>
         <v/>
       </c>
-      <c r="C119" s="4" t="str">
+      <c r="C119" s="3" t="str">
         <f ca="1">IF(History!A119&lt;&gt;"",SUM(History!B119:OFFSET(History!B119,0,COUNTA(History!119:119)-2)),"")</f>
         <v/>
       </c>
@@ -5379,27 +5379,27 @@
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="E119" s="4" t="str">
+      <c r="E119" s="3" t="str">
         <f ca="1">IF(History!A119&lt;&gt;0,COUNTIF(History!C119:OFFSET(History!C119,0,COUNTA(History!119:119)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F119" s="4" t="str">
+      <c r="F119" s="3" t="str">
         <f ca="1">IF(History!A119&lt;&gt;0,COUNTIF(History!C119:OFFSET(History!C119,0,COUNTA(History!119:119)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G119" s="6" t="str">
+      <c r="G119" s="4" t="str">
         <f ca="1">IF(MAX(History!119:119)&gt;0,MAX(History!C119:OFFSET(History!C119,0,COUNTA(History!119:119)-3)),"")</f>
         <v/>
       </c>
-      <c r="H119" s="6" t="str">
+      <c r="H119" s="4" t="str">
         <f ca="1">IF(History!A119&lt;&gt;0,MIN(History!C119:OFFSET(History!C119,0,COUNTA(History!119:119)-3)),"")</f>
         <v/>
       </c>
-      <c r="I119" s="6" t="str">
+      <c r="I119" s="4" t="str">
         <f>IF(History!A119&lt;&gt;"",History!B119,"")</f>
         <v/>
       </c>
-      <c r="J119" s="4" t="str">
+      <c r="J119" s="3" t="str">
         <f ca="1">IF(History!A119&lt;&gt;"",SUM(OFFSET(History!C119,0,COUNT(History!119:119)-IF(COUNT(History!119:119)&lt;=5,COUNT(History!119:119),5)):OFFSET(History!C119,0,COUNT(History!119:119)-1)),"")</f>
         <v/>
       </c>
@@ -5408,11 +5408,11 @@
       <c r="A120" s="1">
         <v>119</v>
       </c>
-      <c r="B120" s="5" t="str">
+      <c r="B120" s="7" t="str">
         <f>IF(History!A120&lt;&gt;"",History!A120,"")</f>
         <v/>
       </c>
-      <c r="C120" s="4" t="str">
+      <c r="C120" s="3" t="str">
         <f ca="1">IF(History!A120&lt;&gt;"",SUM(History!B120:OFFSET(History!B120,0,COUNTA(History!120:120)-2)),"")</f>
         <v/>
       </c>
@@ -5420,27 +5420,27 @@
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="E120" s="4" t="str">
+      <c r="E120" s="3" t="str">
         <f ca="1">IF(History!A120&lt;&gt;0,COUNTIF(History!C120:OFFSET(History!C120,0,COUNTA(History!120:120)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F120" s="4" t="str">
+      <c r="F120" s="3" t="str">
         <f ca="1">IF(History!A120&lt;&gt;0,COUNTIF(History!C120:OFFSET(History!C120,0,COUNTA(History!120:120)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G120" s="6" t="str">
+      <c r="G120" s="4" t="str">
         <f ca="1">IF(MAX(History!120:120)&gt;0,MAX(History!C120:OFFSET(History!C120,0,COUNTA(History!120:120)-3)),"")</f>
         <v/>
       </c>
-      <c r="H120" s="6" t="str">
+      <c r="H120" s="4" t="str">
         <f ca="1">IF(History!A120&lt;&gt;0,MIN(History!C120:OFFSET(History!C120,0,COUNTA(History!120:120)-3)),"")</f>
         <v/>
       </c>
-      <c r="I120" s="6" t="str">
+      <c r="I120" s="4" t="str">
         <f>IF(History!A120&lt;&gt;"",History!B120,"")</f>
         <v/>
       </c>
-      <c r="J120" s="4" t="str">
+      <c r="J120" s="3" t="str">
         <f ca="1">IF(History!A120&lt;&gt;"",SUM(OFFSET(History!C120,0,COUNT(History!120:120)-IF(COUNT(History!120:120)&lt;=5,COUNT(History!120:120),5)):OFFSET(History!C120,0,COUNT(History!120:120)-1)),"")</f>
         <v/>
       </c>
@@ -5449,11 +5449,11 @@
       <c r="A121" s="1">
         <v>120</v>
       </c>
-      <c r="B121" s="5" t="str">
+      <c r="B121" s="7" t="str">
         <f>IF(History!A121&lt;&gt;"",History!A121,"")</f>
         <v/>
       </c>
-      <c r="C121" s="4" t="str">
+      <c r="C121" s="3" t="str">
         <f ca="1">IF(History!A121&lt;&gt;"",SUM(History!B121:OFFSET(History!B121,0,COUNTA(History!121:121)-2)),"")</f>
         <v/>
       </c>
@@ -5461,27 +5461,27 @@
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="E121" s="4" t="str">
+      <c r="E121" s="3" t="str">
         <f ca="1">IF(History!A121&lt;&gt;0,COUNTIF(History!C121:OFFSET(History!C121,0,COUNTA(History!121:121)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F121" s="4" t="str">
+      <c r="F121" s="3" t="str">
         <f ca="1">IF(History!A121&lt;&gt;0,COUNTIF(History!C121:OFFSET(History!C121,0,COUNTA(History!121:121)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G121" s="6" t="str">
+      <c r="G121" s="4" t="str">
         <f ca="1">IF(MAX(History!121:121)&gt;0,MAX(History!C121:OFFSET(History!C121,0,COUNTA(History!121:121)-3)),"")</f>
         <v/>
       </c>
-      <c r="H121" s="6" t="str">
+      <c r="H121" s="4" t="str">
         <f ca="1">IF(History!A121&lt;&gt;0,MIN(History!C121:OFFSET(History!C121,0,COUNTA(History!121:121)-3)),"")</f>
         <v/>
       </c>
-      <c r="I121" s="6" t="str">
+      <c r="I121" s="4" t="str">
         <f>IF(History!A121&lt;&gt;"",History!B121,"")</f>
         <v/>
       </c>
-      <c r="J121" s="4" t="str">
+      <c r="J121" s="3" t="str">
         <f ca="1">IF(History!A121&lt;&gt;"",SUM(OFFSET(History!C121,0,COUNT(History!121:121)-IF(COUNT(History!121:121)&lt;=5,COUNT(History!121:121),5)):OFFSET(History!C121,0,COUNT(History!121:121)-1)),"")</f>
         <v/>
       </c>
@@ -5490,11 +5490,11 @@
       <c r="A122" s="1">
         <v>121</v>
       </c>
-      <c r="B122" s="5" t="str">
+      <c r="B122" s="7" t="str">
         <f>IF(History!A122&lt;&gt;"",History!A122,"")</f>
         <v/>
       </c>
-      <c r="C122" s="4" t="str">
+      <c r="C122" s="3" t="str">
         <f ca="1">IF(History!A122&lt;&gt;"",SUM(History!B122:OFFSET(History!B122,0,COUNTA(History!122:122)-2)),"")</f>
         <v/>
       </c>
@@ -5502,27 +5502,27 @@
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="E122" s="4" t="str">
+      <c r="E122" s="3" t="str">
         <f ca="1">IF(History!A122&lt;&gt;0,COUNTIF(History!C122:OFFSET(History!C122,0,COUNTA(History!122:122)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F122" s="4" t="str">
+      <c r="F122" s="3" t="str">
         <f ca="1">IF(History!A122&lt;&gt;0,COUNTIF(History!C122:OFFSET(History!C122,0,COUNTA(History!122:122)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G122" s="6" t="str">
+      <c r="G122" s="4" t="str">
         <f ca="1">IF(MAX(History!122:122)&gt;0,MAX(History!C122:OFFSET(History!C122,0,COUNTA(History!122:122)-3)),"")</f>
         <v/>
       </c>
-      <c r="H122" s="6" t="str">
+      <c r="H122" s="4" t="str">
         <f ca="1">IF(History!A122&lt;&gt;0,MIN(History!C122:OFFSET(History!C122,0,COUNTA(History!122:122)-3)),"")</f>
         <v/>
       </c>
-      <c r="I122" s="6" t="str">
+      <c r="I122" s="4" t="str">
         <f>IF(History!A122&lt;&gt;"",History!B122,"")</f>
         <v/>
       </c>
-      <c r="J122" s="4" t="str">
+      <c r="J122" s="3" t="str">
         <f ca="1">IF(History!A122&lt;&gt;"",SUM(OFFSET(History!C122,0,COUNT(History!122:122)-IF(COUNT(History!122:122)&lt;=5,COUNT(History!122:122),5)):OFFSET(History!C122,0,COUNT(History!122:122)-1)),"")</f>
         <v/>
       </c>
@@ -5531,11 +5531,11 @@
       <c r="A123" s="1">
         <v>122</v>
       </c>
-      <c r="B123" s="5" t="str">
+      <c r="B123" s="7" t="str">
         <f>IF(History!A123&lt;&gt;"",History!A123,"")</f>
         <v/>
       </c>
-      <c r="C123" s="4" t="str">
+      <c r="C123" s="3" t="str">
         <f ca="1">IF(History!A123&lt;&gt;"",SUM(History!B123:OFFSET(History!B123,0,COUNTA(History!123:123)-2)),"")</f>
         <v/>
       </c>
@@ -5543,27 +5543,27 @@
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="E123" s="4" t="str">
+      <c r="E123" s="3" t="str">
         <f ca="1">IF(History!A123&lt;&gt;0,COUNTIF(History!C123:OFFSET(History!C123,0,COUNTA(History!123:123)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F123" s="4" t="str">
+      <c r="F123" s="3" t="str">
         <f ca="1">IF(History!A123&lt;&gt;0,COUNTIF(History!C123:OFFSET(History!C123,0,COUNTA(History!123:123)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G123" s="6" t="str">
+      <c r="G123" s="4" t="str">
         <f ca="1">IF(MAX(History!123:123)&gt;0,MAX(History!C123:OFFSET(History!C123,0,COUNTA(History!123:123)-3)),"")</f>
         <v/>
       </c>
-      <c r="H123" s="6" t="str">
+      <c r="H123" s="4" t="str">
         <f ca="1">IF(History!A123&lt;&gt;0,MIN(History!C123:OFFSET(History!C123,0,COUNTA(History!123:123)-3)),"")</f>
         <v/>
       </c>
-      <c r="I123" s="6" t="str">
+      <c r="I123" s="4" t="str">
         <f>IF(History!A123&lt;&gt;"",History!B123,"")</f>
         <v/>
       </c>
-      <c r="J123" s="4" t="str">
+      <c r="J123" s="3" t="str">
         <f ca="1">IF(History!A123&lt;&gt;"",SUM(OFFSET(History!C123,0,COUNT(History!123:123)-IF(COUNT(History!123:123)&lt;=5,COUNT(History!123:123),5)):OFFSET(History!C123,0,COUNT(History!123:123)-1)),"")</f>
         <v/>
       </c>
@@ -5572,11 +5572,11 @@
       <c r="A124" s="1">
         <v>123</v>
       </c>
-      <c r="B124" s="5" t="str">
+      <c r="B124" s="7" t="str">
         <f>IF(History!A124&lt;&gt;"",History!A124,"")</f>
         <v/>
       </c>
-      <c r="C124" s="4" t="str">
+      <c r="C124" s="3" t="str">
         <f ca="1">IF(History!A124&lt;&gt;"",SUM(History!B124:OFFSET(History!B124,0,COUNTA(History!124:124)-2)),"")</f>
         <v/>
       </c>
@@ -5584,27 +5584,27 @@
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="E124" s="4" t="str">
+      <c r="E124" s="3" t="str">
         <f ca="1">IF(History!A124&lt;&gt;0,COUNTIF(History!C124:OFFSET(History!C124,0,COUNTA(History!124:124)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F124" s="4" t="str">
+      <c r="F124" s="3" t="str">
         <f ca="1">IF(History!A124&lt;&gt;0,COUNTIF(History!C124:OFFSET(History!C124,0,COUNTA(History!124:124)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G124" s="6" t="str">
+      <c r="G124" s="4" t="str">
         <f ca="1">IF(MAX(History!124:124)&gt;0,MAX(History!C124:OFFSET(History!C124,0,COUNTA(History!124:124)-3)),"")</f>
         <v/>
       </c>
-      <c r="H124" s="6" t="str">
+      <c r="H124" s="4" t="str">
         <f ca="1">IF(History!A124&lt;&gt;0,MIN(History!C124:OFFSET(History!C124,0,COUNTA(History!124:124)-3)),"")</f>
         <v/>
       </c>
-      <c r="I124" s="6" t="str">
+      <c r="I124" s="4" t="str">
         <f>IF(History!A124&lt;&gt;"",History!B124,"")</f>
         <v/>
       </c>
-      <c r="J124" s="4" t="str">
+      <c r="J124" s="3" t="str">
         <f ca="1">IF(History!A124&lt;&gt;"",SUM(OFFSET(History!C124,0,COUNT(History!124:124)-IF(COUNT(History!124:124)&lt;=5,COUNT(History!124:124),5)):OFFSET(History!C124,0,COUNT(History!124:124)-1)),"")</f>
         <v/>
       </c>
@@ -5613,11 +5613,11 @@
       <c r="A125" s="1">
         <v>124</v>
       </c>
-      <c r="B125" s="5" t="str">
+      <c r="B125" s="7" t="str">
         <f>IF(History!A125&lt;&gt;"",History!A125,"")</f>
         <v/>
       </c>
-      <c r="C125" s="4" t="str">
+      <c r="C125" s="3" t="str">
         <f ca="1">IF(History!A125&lt;&gt;"",SUM(History!B125:OFFSET(History!B125,0,COUNTA(History!125:125)-2)),"")</f>
         <v/>
       </c>
@@ -5625,27 +5625,27 @@
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="E125" s="4" t="str">
+      <c r="E125" s="3" t="str">
         <f ca="1">IF(History!A125&lt;&gt;0,COUNTIF(History!C125:OFFSET(History!C125,0,COUNTA(History!125:125)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F125" s="4" t="str">
+      <c r="F125" s="3" t="str">
         <f ca="1">IF(History!A125&lt;&gt;0,COUNTIF(History!C125:OFFSET(History!C125,0,COUNTA(History!125:125)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G125" s="6" t="str">
+      <c r="G125" s="4" t="str">
         <f ca="1">IF(MAX(History!125:125)&gt;0,MAX(History!C125:OFFSET(History!C125,0,COUNTA(History!125:125)-3)),"")</f>
         <v/>
       </c>
-      <c r="H125" s="6" t="str">
+      <c r="H125" s="4" t="str">
         <f ca="1">IF(History!A125&lt;&gt;0,MIN(History!C125:OFFSET(History!C125,0,COUNTA(History!125:125)-3)),"")</f>
         <v/>
       </c>
-      <c r="I125" s="6" t="str">
+      <c r="I125" s="4" t="str">
         <f>IF(History!A125&lt;&gt;"",History!B125,"")</f>
         <v/>
       </c>
-      <c r="J125" s="4" t="str">
+      <c r="J125" s="3" t="str">
         <f ca="1">IF(History!A125&lt;&gt;"",SUM(OFFSET(History!C125,0,COUNT(History!125:125)-IF(COUNT(History!125:125)&lt;=5,COUNT(History!125:125),5)):OFFSET(History!C125,0,COUNT(History!125:125)-1)),"")</f>
         <v/>
       </c>
@@ -5654,11 +5654,11 @@
       <c r="A126" s="1">
         <v>125</v>
       </c>
-      <c r="B126" s="5" t="str">
+      <c r="B126" s="7" t="str">
         <f>IF(History!A126&lt;&gt;"",History!A126,"")</f>
         <v/>
       </c>
-      <c r="C126" s="4" t="str">
+      <c r="C126" s="3" t="str">
         <f ca="1">IF(History!A126&lt;&gt;"",SUM(History!B126:OFFSET(History!B126,0,COUNTA(History!126:126)-2)),"")</f>
         <v/>
       </c>
@@ -5666,27 +5666,27 @@
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="E126" s="4" t="str">
+      <c r="E126" s="3" t="str">
         <f ca="1">IF(History!A126&lt;&gt;0,COUNTIF(History!C126:OFFSET(History!C126,0,COUNTA(History!126:126)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F126" s="4" t="str">
+      <c r="F126" s="3" t="str">
         <f ca="1">IF(History!A126&lt;&gt;0,COUNTIF(History!C126:OFFSET(History!C126,0,COUNTA(History!126:126)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G126" s="6" t="str">
+      <c r="G126" s="4" t="str">
         <f ca="1">IF(MAX(History!126:126)&gt;0,MAX(History!C126:OFFSET(History!C126,0,COUNTA(History!126:126)-3)),"")</f>
         <v/>
       </c>
-      <c r="H126" s="6" t="str">
+      <c r="H126" s="4" t="str">
         <f ca="1">IF(History!A126&lt;&gt;0,MIN(History!C126:OFFSET(History!C126,0,COUNTA(History!126:126)-3)),"")</f>
         <v/>
       </c>
-      <c r="I126" s="6" t="str">
+      <c r="I126" s="4" t="str">
         <f>IF(History!A126&lt;&gt;"",History!B126,"")</f>
         <v/>
       </c>
-      <c r="J126" s="4" t="str">
+      <c r="J126" s="3" t="str">
         <f ca="1">IF(History!A126&lt;&gt;"",SUM(OFFSET(History!C126,0,COUNT(History!126:126)-IF(COUNT(History!126:126)&lt;=5,COUNT(History!126:126),5)):OFFSET(History!C126,0,COUNT(History!126:126)-1)),"")</f>
         <v/>
       </c>
@@ -5695,11 +5695,11 @@
       <c r="A127" s="1">
         <v>126</v>
       </c>
-      <c r="B127" s="5" t="str">
+      <c r="B127" s="7" t="str">
         <f>IF(History!A127&lt;&gt;"",History!A127,"")</f>
         <v/>
       </c>
-      <c r="C127" s="4" t="str">
+      <c r="C127" s="3" t="str">
         <f ca="1">IF(History!A127&lt;&gt;"",SUM(History!B127:OFFSET(History!B127,0,COUNTA(History!127:127)-2)),"")</f>
         <v/>
       </c>
@@ -5707,27 +5707,27 @@
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="E127" s="4" t="str">
+      <c r="E127" s="3" t="str">
         <f ca="1">IF(History!A127&lt;&gt;0,COUNTIF(History!C127:OFFSET(History!C127,0,COUNTA(History!127:127)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F127" s="4" t="str">
+      <c r="F127" s="3" t="str">
         <f ca="1">IF(History!A127&lt;&gt;0,COUNTIF(History!C127:OFFSET(History!C127,0,COUNTA(History!127:127)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G127" s="6" t="str">
+      <c r="G127" s="4" t="str">
         <f ca="1">IF(MAX(History!127:127)&gt;0,MAX(History!C127:OFFSET(History!C127,0,COUNTA(History!127:127)-3)),"")</f>
         <v/>
       </c>
-      <c r="H127" s="6" t="str">
+      <c r="H127" s="4" t="str">
         <f ca="1">IF(History!A127&lt;&gt;0,MIN(History!C127:OFFSET(History!C127,0,COUNTA(History!127:127)-3)),"")</f>
         <v/>
       </c>
-      <c r="I127" s="6" t="str">
+      <c r="I127" s="4" t="str">
         <f>IF(History!A127&lt;&gt;"",History!B127,"")</f>
         <v/>
       </c>
-      <c r="J127" s="4" t="str">
+      <c r="J127" s="3" t="str">
         <f ca="1">IF(History!A127&lt;&gt;"",SUM(OFFSET(History!C127,0,COUNT(History!127:127)-IF(COUNT(History!127:127)&lt;=5,COUNT(History!127:127),5)):OFFSET(History!C127,0,COUNT(History!127:127)-1)),"")</f>
         <v/>
       </c>
@@ -5736,11 +5736,11 @@
       <c r="A128" s="1">
         <v>127</v>
       </c>
-      <c r="B128" s="5" t="str">
+      <c r="B128" s="7" t="str">
         <f>IF(History!A128&lt;&gt;"",History!A128,"")</f>
         <v/>
       </c>
-      <c r="C128" s="4" t="str">
+      <c r="C128" s="3" t="str">
         <f ca="1">IF(History!A128&lt;&gt;"",SUM(History!B128:OFFSET(History!B128,0,COUNTA(History!128:128)-2)),"")</f>
         <v/>
       </c>
@@ -5748,27 +5748,27 @@
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="E128" s="4" t="str">
+      <c r="E128" s="3" t="str">
         <f ca="1">IF(History!A128&lt;&gt;0,COUNTIF(History!C128:OFFSET(History!C128,0,COUNTA(History!128:128)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F128" s="4" t="str">
+      <c r="F128" s="3" t="str">
         <f ca="1">IF(History!A128&lt;&gt;0,COUNTIF(History!C128:OFFSET(History!C128,0,COUNTA(History!128:128)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G128" s="6" t="str">
+      <c r="G128" s="4" t="str">
         <f ca="1">IF(MAX(History!128:128)&gt;0,MAX(History!C128:OFFSET(History!C128,0,COUNTA(History!128:128)-3)),"")</f>
         <v/>
       </c>
-      <c r="H128" s="6" t="str">
+      <c r="H128" s="4" t="str">
         <f ca="1">IF(History!A128&lt;&gt;0,MIN(History!C128:OFFSET(History!C128,0,COUNTA(History!128:128)-3)),"")</f>
         <v/>
       </c>
-      <c r="I128" s="6" t="str">
+      <c r="I128" s="4" t="str">
         <f>IF(History!A128&lt;&gt;"",History!B128,"")</f>
         <v/>
       </c>
-      <c r="J128" s="4" t="str">
+      <c r="J128" s="3" t="str">
         <f ca="1">IF(History!A128&lt;&gt;"",SUM(OFFSET(History!C128,0,COUNT(History!128:128)-IF(COUNT(History!128:128)&lt;=5,COUNT(History!128:128),5)):OFFSET(History!C128,0,COUNT(History!128:128)-1)),"")</f>
         <v/>
       </c>
@@ -5777,11 +5777,11 @@
       <c r="A129" s="1">
         <v>128</v>
       </c>
-      <c r="B129" s="5" t="str">
+      <c r="B129" s="7" t="str">
         <f>IF(History!A129&lt;&gt;"",History!A129,"")</f>
         <v/>
       </c>
-      <c r="C129" s="4" t="str">
+      <c r="C129" s="3" t="str">
         <f ca="1">IF(History!A129&lt;&gt;"",SUM(History!B129:OFFSET(History!B129,0,COUNTA(History!129:129)-2)),"")</f>
         <v/>
       </c>
@@ -5789,27 +5789,27 @@
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="E129" s="4" t="str">
+      <c r="E129" s="3" t="str">
         <f ca="1">IF(History!A129&lt;&gt;0,COUNTIF(History!C129:OFFSET(History!C129,0,COUNTA(History!129:129)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F129" s="4" t="str">
+      <c r="F129" s="3" t="str">
         <f ca="1">IF(History!A129&lt;&gt;0,COUNTIF(History!C129:OFFSET(History!C129,0,COUNTA(History!129:129)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G129" s="6" t="str">
+      <c r="G129" s="4" t="str">
         <f ca="1">IF(MAX(History!129:129)&gt;0,MAX(History!C129:OFFSET(History!C129,0,COUNTA(History!129:129)-3)),"")</f>
         <v/>
       </c>
-      <c r="H129" s="6" t="str">
+      <c r="H129" s="4" t="str">
         <f ca="1">IF(History!A129&lt;&gt;0,MIN(History!C129:OFFSET(History!C129,0,COUNTA(History!129:129)-3)),"")</f>
         <v/>
       </c>
-      <c r="I129" s="6" t="str">
+      <c r="I129" s="4" t="str">
         <f>IF(History!A129&lt;&gt;"",History!B129,"")</f>
         <v/>
       </c>
-      <c r="J129" s="4" t="str">
+      <c r="J129" s="3" t="str">
         <f ca="1">IF(History!A129&lt;&gt;"",SUM(OFFSET(History!C129,0,COUNT(History!129:129)-IF(COUNT(History!129:129)&lt;=5,COUNT(History!129:129),5)):OFFSET(History!C129,0,COUNT(History!129:129)-1)),"")</f>
         <v/>
       </c>
@@ -5818,39 +5818,39 @@
       <c r="A130" s="1">
         <v>129</v>
       </c>
-      <c r="B130" s="5" t="str">
+      <c r="B130" s="7" t="str">
         <f>IF(History!A130&lt;&gt;"",History!A130,"")</f>
         <v/>
       </c>
-      <c r="C130" s="4" t="str">
+      <c r="C130" s="3" t="str">
         <f ca="1">IF(History!A130&lt;&gt;"",SUM(History!B130:OFFSET(History!B130,0,COUNTA(History!130:130)-2)),"")</f>
         <v/>
       </c>
       <c r="D130" s="8" t="str">
-        <f t="shared" ref="D130:D151" ca="1" si="4">IFERROR(E130/(E130+F130),"")</f>
-        <v/>
-      </c>
-      <c r="E130" s="4" t="str">
+        <f t="shared" ref="D130:D161" ca="1" si="4">IFERROR(E130/(E130+F130),"")</f>
+        <v/>
+      </c>
+      <c r="E130" s="3" t="str">
         <f ca="1">IF(History!A130&lt;&gt;0,COUNTIF(History!C130:OFFSET(History!C130,0,COUNTA(History!130:130)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F130" s="4" t="str">
+      <c r="F130" s="3" t="str">
         <f ca="1">IF(History!A130&lt;&gt;0,COUNTIF(History!C130:OFFSET(History!C130,0,COUNTA(History!130:130)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G130" s="6" t="str">
+      <c r="G130" s="4" t="str">
         <f ca="1">IF(MAX(History!130:130)&gt;0,MAX(History!C130:OFFSET(History!C130,0,COUNTA(History!130:130)-3)),"")</f>
         <v/>
       </c>
-      <c r="H130" s="6" t="str">
+      <c r="H130" s="4" t="str">
         <f ca="1">IF(History!A130&lt;&gt;0,MIN(History!C130:OFFSET(History!C130,0,COUNTA(History!130:130)-3)),"")</f>
         <v/>
       </c>
-      <c r="I130" s="6" t="str">
+      <c r="I130" s="4" t="str">
         <f>IF(History!A130&lt;&gt;"",History!B130,"")</f>
         <v/>
       </c>
-      <c r="J130" s="4" t="str">
+      <c r="J130" s="3" t="str">
         <f ca="1">IF(History!A130&lt;&gt;"",SUM(OFFSET(History!C130,0,COUNT(History!130:130)-IF(COUNT(History!130:130)&lt;=5,COUNT(History!130:130),5)):OFFSET(History!C130,0,COUNT(History!130:130)-1)),"")</f>
         <v/>
       </c>
@@ -5859,11 +5859,11 @@
       <c r="A131" s="1">
         <v>130</v>
       </c>
-      <c r="B131" s="5" t="str">
+      <c r="B131" s="7" t="str">
         <f>IF(History!A131&lt;&gt;"",History!A131,"")</f>
         <v/>
       </c>
-      <c r="C131" s="4" t="str">
+      <c r="C131" s="3" t="str">
         <f ca="1">IF(History!A131&lt;&gt;"",SUM(History!B131:OFFSET(History!B131,0,COUNTA(History!131:131)-2)),"")</f>
         <v/>
       </c>
@@ -5871,27 +5871,27 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="E131" s="4" t="str">
+      <c r="E131" s="3" t="str">
         <f ca="1">IF(History!A131&lt;&gt;0,COUNTIF(History!C131:OFFSET(History!C131,0,COUNTA(History!131:131)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F131" s="4" t="str">
+      <c r="F131" s="3" t="str">
         <f ca="1">IF(History!A131&lt;&gt;0,COUNTIF(History!C131:OFFSET(History!C131,0,COUNTA(History!131:131)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G131" s="6" t="str">
+      <c r="G131" s="4" t="str">
         <f ca="1">IF(MAX(History!131:131)&gt;0,MAX(History!C131:OFFSET(History!C131,0,COUNTA(History!131:131)-3)),"")</f>
         <v/>
       </c>
-      <c r="H131" s="6" t="str">
+      <c r="H131" s="4" t="str">
         <f ca="1">IF(History!A131&lt;&gt;0,MIN(History!C131:OFFSET(History!C131,0,COUNTA(History!131:131)-3)),"")</f>
         <v/>
       </c>
-      <c r="I131" s="6" t="str">
+      <c r="I131" s="4" t="str">
         <f>IF(History!A131&lt;&gt;"",History!B131,"")</f>
         <v/>
       </c>
-      <c r="J131" s="4" t="str">
+      <c r="J131" s="3" t="str">
         <f ca="1">IF(History!A131&lt;&gt;"",SUM(OFFSET(History!C131,0,COUNT(History!131:131)-IF(COUNT(History!131:131)&lt;=5,COUNT(History!131:131),5)):OFFSET(History!C131,0,COUNT(History!131:131)-1)),"")</f>
         <v/>
       </c>
@@ -5900,11 +5900,11 @@
       <c r="A132" s="1">
         <v>131</v>
       </c>
-      <c r="B132" s="5" t="str">
+      <c r="B132" s="7" t="str">
         <f>IF(History!A132&lt;&gt;"",History!A132,"")</f>
         <v/>
       </c>
-      <c r="C132" s="4" t="str">
+      <c r="C132" s="3" t="str">
         <f ca="1">IF(History!A132&lt;&gt;"",SUM(History!B132:OFFSET(History!B132,0,COUNTA(History!132:132)-2)),"")</f>
         <v/>
       </c>
@@ -5912,27 +5912,27 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="E132" s="4" t="str">
+      <c r="E132" s="3" t="str">
         <f ca="1">IF(History!A132&lt;&gt;0,COUNTIF(History!C132:OFFSET(History!C132,0,COUNTA(History!132:132)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F132" s="4" t="str">
+      <c r="F132" s="3" t="str">
         <f ca="1">IF(History!A132&lt;&gt;0,COUNTIF(History!C132:OFFSET(History!C132,0,COUNTA(History!132:132)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G132" s="6" t="str">
+      <c r="G132" s="4" t="str">
         <f ca="1">IF(MAX(History!132:132)&gt;0,MAX(History!C132:OFFSET(History!C132,0,COUNTA(History!132:132)-3)),"")</f>
         <v/>
       </c>
-      <c r="H132" s="6" t="str">
+      <c r="H132" s="4" t="str">
         <f ca="1">IF(History!A132&lt;&gt;0,MIN(History!C132:OFFSET(History!C132,0,COUNTA(History!132:132)-3)),"")</f>
         <v/>
       </c>
-      <c r="I132" s="6" t="str">
+      <c r="I132" s="4" t="str">
         <f>IF(History!A132&lt;&gt;"",History!B132,"")</f>
         <v/>
       </c>
-      <c r="J132" s="4" t="str">
+      <c r="J132" s="3" t="str">
         <f ca="1">IF(History!A132&lt;&gt;"",SUM(OFFSET(History!C132,0,COUNT(History!132:132)-IF(COUNT(History!132:132)&lt;=5,COUNT(History!132:132),5)):OFFSET(History!C132,0,COUNT(History!132:132)-1)),"")</f>
         <v/>
       </c>
@@ -5941,11 +5941,11 @@
       <c r="A133" s="1">
         <v>132</v>
       </c>
-      <c r="B133" s="5" t="str">
+      <c r="B133" s="7" t="str">
         <f>IF(History!A133&lt;&gt;"",History!A133,"")</f>
         <v/>
       </c>
-      <c r="C133" s="4" t="str">
+      <c r="C133" s="3" t="str">
         <f ca="1">IF(History!A133&lt;&gt;"",SUM(History!B133:OFFSET(History!B133,0,COUNTA(History!133:133)-2)),"")</f>
         <v/>
       </c>
@@ -5953,27 +5953,27 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="E133" s="4" t="str">
+      <c r="E133" s="3" t="str">
         <f ca="1">IF(History!A133&lt;&gt;0,COUNTIF(History!C133:OFFSET(History!C133,0,COUNTA(History!133:133)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F133" s="4" t="str">
+      <c r="F133" s="3" t="str">
         <f ca="1">IF(History!A133&lt;&gt;0,COUNTIF(History!C133:OFFSET(History!C133,0,COUNTA(History!133:133)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G133" s="6" t="str">
+      <c r="G133" s="4" t="str">
         <f ca="1">IF(MAX(History!133:133)&gt;0,MAX(History!C133:OFFSET(History!C133,0,COUNTA(History!133:133)-3)),"")</f>
         <v/>
       </c>
-      <c r="H133" s="6" t="str">
+      <c r="H133" s="4" t="str">
         <f ca="1">IF(History!A133&lt;&gt;0,MIN(History!C133:OFFSET(History!C133,0,COUNTA(History!133:133)-3)),"")</f>
         <v/>
       </c>
-      <c r="I133" s="6" t="str">
+      <c r="I133" s="4" t="str">
         <f>IF(History!A133&lt;&gt;"",History!B133,"")</f>
         <v/>
       </c>
-      <c r="J133" s="4" t="str">
+      <c r="J133" s="3" t="str">
         <f ca="1">IF(History!A133&lt;&gt;"",SUM(OFFSET(History!C133,0,COUNT(History!133:133)-IF(COUNT(History!133:133)&lt;=5,COUNT(History!133:133),5)):OFFSET(History!C133,0,COUNT(History!133:133)-1)),"")</f>
         <v/>
       </c>
@@ -5982,11 +5982,11 @@
       <c r="A134" s="1">
         <v>133</v>
       </c>
-      <c r="B134" s="5" t="str">
+      <c r="B134" s="7" t="str">
         <f>IF(History!A134&lt;&gt;"",History!A134,"")</f>
         <v/>
       </c>
-      <c r="C134" s="4" t="str">
+      <c r="C134" s="3" t="str">
         <f ca="1">IF(History!A134&lt;&gt;"",SUM(History!B134:OFFSET(History!B134,0,COUNTA(History!134:134)-2)),"")</f>
         <v/>
       </c>
@@ -5994,27 +5994,27 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="E134" s="4" t="str">
+      <c r="E134" s="3" t="str">
         <f ca="1">IF(History!A134&lt;&gt;0,COUNTIF(History!C134:OFFSET(History!C134,0,COUNTA(History!134:134)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F134" s="4" t="str">
+      <c r="F134" s="3" t="str">
         <f ca="1">IF(History!A134&lt;&gt;0,COUNTIF(History!C134:OFFSET(History!C134,0,COUNTA(History!134:134)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G134" s="6" t="str">
+      <c r="G134" s="4" t="str">
         <f ca="1">IF(MAX(History!134:134)&gt;0,MAX(History!C134:OFFSET(History!C134,0,COUNTA(History!134:134)-3)),"")</f>
         <v/>
       </c>
-      <c r="H134" s="6" t="str">
+      <c r="H134" s="4" t="str">
         <f ca="1">IF(History!A134&lt;&gt;0,MIN(History!C134:OFFSET(History!C134,0,COUNTA(History!134:134)-3)),"")</f>
         <v/>
       </c>
-      <c r="I134" s="6" t="str">
+      <c r="I134" s="4" t="str">
         <f>IF(History!A134&lt;&gt;"",History!B134,"")</f>
         <v/>
       </c>
-      <c r="J134" s="4" t="str">
+      <c r="J134" s="3" t="str">
         <f ca="1">IF(History!A134&lt;&gt;"",SUM(OFFSET(History!C134,0,COUNT(History!134:134)-IF(COUNT(History!134:134)&lt;=5,COUNT(History!134:134),5)):OFFSET(History!C134,0,COUNT(History!134:134)-1)),"")</f>
         <v/>
       </c>
@@ -6023,11 +6023,11 @@
       <c r="A135" s="1">
         <v>134</v>
       </c>
-      <c r="B135" s="5" t="str">
+      <c r="B135" s="7" t="str">
         <f>IF(History!A135&lt;&gt;"",History!A135,"")</f>
         <v/>
       </c>
-      <c r="C135" s="4" t="str">
+      <c r="C135" s="3" t="str">
         <f ca="1">IF(History!A135&lt;&gt;"",SUM(History!B135:OFFSET(History!B135,0,COUNTA(History!135:135)-2)),"")</f>
         <v/>
       </c>
@@ -6035,27 +6035,27 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="E135" s="4" t="str">
+      <c r="E135" s="3" t="str">
         <f ca="1">IF(History!A135&lt;&gt;0,COUNTIF(History!C135:OFFSET(History!C135,0,COUNTA(History!135:135)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F135" s="4" t="str">
+      <c r="F135" s="3" t="str">
         <f ca="1">IF(History!A135&lt;&gt;0,COUNTIF(History!C135:OFFSET(History!C135,0,COUNTA(History!135:135)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G135" s="6" t="str">
+      <c r="G135" s="4" t="str">
         <f ca="1">IF(MAX(History!135:135)&gt;0,MAX(History!C135:OFFSET(History!C135,0,COUNTA(History!135:135)-3)),"")</f>
         <v/>
       </c>
-      <c r="H135" s="6" t="str">
+      <c r="H135" s="4" t="str">
         <f ca="1">IF(History!A135&lt;&gt;0,MIN(History!C135:OFFSET(History!C135,0,COUNTA(History!135:135)-3)),"")</f>
         <v/>
       </c>
-      <c r="I135" s="6" t="str">
+      <c r="I135" s="4" t="str">
         <f>IF(History!A135&lt;&gt;"",History!B135,"")</f>
         <v/>
       </c>
-      <c r="J135" s="4" t="str">
+      <c r="J135" s="3" t="str">
         <f ca="1">IF(History!A135&lt;&gt;"",SUM(OFFSET(History!C135,0,COUNT(History!135:135)-IF(COUNT(History!135:135)&lt;=5,COUNT(History!135:135),5)):OFFSET(History!C135,0,COUNT(History!135:135)-1)),"")</f>
         <v/>
       </c>
@@ -6064,11 +6064,11 @@
       <c r="A136" s="1">
         <v>135</v>
       </c>
-      <c r="B136" s="5" t="str">
+      <c r="B136" s="7" t="str">
         <f>IF(History!A136&lt;&gt;"",History!A136,"")</f>
         <v/>
       </c>
-      <c r="C136" s="4" t="str">
+      <c r="C136" s="3" t="str">
         <f ca="1">IF(History!A136&lt;&gt;"",SUM(History!B136:OFFSET(History!B136,0,COUNTA(History!136:136)-2)),"")</f>
         <v/>
       </c>
@@ -6076,27 +6076,27 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="E136" s="4" t="str">
+      <c r="E136" s="3" t="str">
         <f ca="1">IF(History!A136&lt;&gt;0,COUNTIF(History!C136:OFFSET(History!C136,0,COUNTA(History!136:136)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F136" s="4" t="str">
+      <c r="F136" s="3" t="str">
         <f ca="1">IF(History!A136&lt;&gt;0,COUNTIF(History!C136:OFFSET(History!C136,0,COUNTA(History!136:136)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G136" s="6" t="str">
+      <c r="G136" s="4" t="str">
         <f ca="1">IF(MAX(History!136:136)&gt;0,MAX(History!C136:OFFSET(History!C136,0,COUNTA(History!136:136)-3)),"")</f>
         <v/>
       </c>
-      <c r="H136" s="6" t="str">
+      <c r="H136" s="4" t="str">
         <f ca="1">IF(History!A136&lt;&gt;0,MIN(History!C136:OFFSET(History!C136,0,COUNTA(History!136:136)-3)),"")</f>
         <v/>
       </c>
-      <c r="I136" s="6" t="str">
+      <c r="I136" s="4" t="str">
         <f>IF(History!A136&lt;&gt;"",History!B136,"")</f>
         <v/>
       </c>
-      <c r="J136" s="4" t="str">
+      <c r="J136" s="3" t="str">
         <f ca="1">IF(History!A136&lt;&gt;"",SUM(OFFSET(History!C136,0,COUNT(History!136:136)-IF(COUNT(History!136:136)&lt;=5,COUNT(History!136:136),5)):OFFSET(History!C136,0,COUNT(History!136:136)-1)),"")</f>
         <v/>
       </c>
@@ -6105,11 +6105,11 @@
       <c r="A137" s="1">
         <v>136</v>
       </c>
-      <c r="B137" s="5" t="str">
+      <c r="B137" s="7" t="str">
         <f>IF(History!A137&lt;&gt;"",History!A137,"")</f>
         <v/>
       </c>
-      <c r="C137" s="4" t="str">
+      <c r="C137" s="3" t="str">
         <f ca="1">IF(History!A137&lt;&gt;"",SUM(History!B137:OFFSET(History!B137,0,COUNTA(History!137:137)-2)),"")</f>
         <v/>
       </c>
@@ -6117,27 +6117,27 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="E137" s="4" t="str">
+      <c r="E137" s="3" t="str">
         <f ca="1">IF(History!A137&lt;&gt;0,COUNTIF(History!C137:OFFSET(History!C137,0,COUNTA(History!137:137)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F137" s="4" t="str">
+      <c r="F137" s="3" t="str">
         <f ca="1">IF(History!A137&lt;&gt;0,COUNTIF(History!C137:OFFSET(History!C137,0,COUNTA(History!137:137)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G137" s="6" t="str">
+      <c r="G137" s="4" t="str">
         <f ca="1">IF(MAX(History!137:137)&gt;0,MAX(History!C137:OFFSET(History!C137,0,COUNTA(History!137:137)-3)),"")</f>
         <v/>
       </c>
-      <c r="H137" s="6" t="str">
+      <c r="H137" s="4" t="str">
         <f ca="1">IF(History!A137&lt;&gt;0,MIN(History!C137:OFFSET(History!C137,0,COUNTA(History!137:137)-3)),"")</f>
         <v/>
       </c>
-      <c r="I137" s="6" t="str">
+      <c r="I137" s="4" t="str">
         <f>IF(History!A137&lt;&gt;"",History!B137,"")</f>
         <v/>
       </c>
-      <c r="J137" s="4" t="str">
+      <c r="J137" s="3" t="str">
         <f ca="1">IF(History!A137&lt;&gt;"",SUM(OFFSET(History!C137,0,COUNT(History!137:137)-IF(COUNT(History!137:137)&lt;=5,COUNT(History!137:137),5)):OFFSET(History!C137,0,COUNT(History!137:137)-1)),"")</f>
         <v/>
       </c>
@@ -6146,11 +6146,11 @@
       <c r="A138" s="1">
         <v>137</v>
       </c>
-      <c r="B138" s="5" t="str">
+      <c r="B138" s="7" t="str">
         <f>IF(History!A138&lt;&gt;"",History!A138,"")</f>
         <v/>
       </c>
-      <c r="C138" s="4" t="str">
+      <c r="C138" s="3" t="str">
         <f ca="1">IF(History!A138&lt;&gt;"",SUM(History!B138:OFFSET(History!B138,0,COUNTA(History!138:138)-2)),"")</f>
         <v/>
       </c>
@@ -6158,27 +6158,27 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="E138" s="4" t="str">
+      <c r="E138" s="3" t="str">
         <f ca="1">IF(History!A138&lt;&gt;0,COUNTIF(History!C138:OFFSET(History!C138,0,COUNTA(History!138:138)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F138" s="4" t="str">
+      <c r="F138" s="3" t="str">
         <f ca="1">IF(History!A138&lt;&gt;0,COUNTIF(History!C138:OFFSET(History!C138,0,COUNTA(History!138:138)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G138" s="6" t="str">
+      <c r="G138" s="4" t="str">
         <f ca="1">IF(MAX(History!138:138)&gt;0,MAX(History!C138:OFFSET(History!C138,0,COUNTA(History!138:138)-3)),"")</f>
         <v/>
       </c>
-      <c r="H138" s="6" t="str">
+      <c r="H138" s="4" t="str">
         <f ca="1">IF(History!A138&lt;&gt;0,MIN(History!C138:OFFSET(History!C138,0,COUNTA(History!138:138)-3)),"")</f>
         <v/>
       </c>
-      <c r="I138" s="6" t="str">
+      <c r="I138" s="4" t="str">
         <f>IF(History!A138&lt;&gt;"",History!B138,"")</f>
         <v/>
       </c>
-      <c r="J138" s="4" t="str">
+      <c r="J138" s="3" t="str">
         <f ca="1">IF(History!A138&lt;&gt;"",SUM(OFFSET(History!C138,0,COUNT(History!138:138)-IF(COUNT(History!138:138)&lt;=5,COUNT(History!138:138),5)):OFFSET(History!C138,0,COUNT(History!138:138)-1)),"")</f>
         <v/>
       </c>
@@ -6187,11 +6187,11 @@
       <c r="A139" s="1">
         <v>138</v>
       </c>
-      <c r="B139" s="5" t="str">
+      <c r="B139" s="7" t="str">
         <f>IF(History!A139&lt;&gt;"",History!A139,"")</f>
         <v/>
       </c>
-      <c r="C139" s="4" t="str">
+      <c r="C139" s="3" t="str">
         <f ca="1">IF(History!A139&lt;&gt;"",SUM(History!B139:OFFSET(History!B139,0,COUNTA(History!139:139)-2)),"")</f>
         <v/>
       </c>
@@ -6199,27 +6199,27 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="E139" s="4" t="str">
+      <c r="E139" s="3" t="str">
         <f ca="1">IF(History!A139&lt;&gt;0,COUNTIF(History!C139:OFFSET(History!C139,0,COUNTA(History!139:139)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F139" s="4" t="str">
+      <c r="F139" s="3" t="str">
         <f ca="1">IF(History!A139&lt;&gt;0,COUNTIF(History!C139:OFFSET(History!C139,0,COUNTA(History!139:139)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G139" s="6" t="str">
+      <c r="G139" s="4" t="str">
         <f ca="1">IF(MAX(History!139:139)&gt;0,MAX(History!C139:OFFSET(History!C139,0,COUNTA(History!139:139)-3)),"")</f>
         <v/>
       </c>
-      <c r="H139" s="6" t="str">
+      <c r="H139" s="4" t="str">
         <f ca="1">IF(History!A139&lt;&gt;0,MIN(History!C139:OFFSET(History!C139,0,COUNTA(History!139:139)-3)),"")</f>
         <v/>
       </c>
-      <c r="I139" s="6" t="str">
+      <c r="I139" s="4" t="str">
         <f>IF(History!A139&lt;&gt;"",History!B139,"")</f>
         <v/>
       </c>
-      <c r="J139" s="4" t="str">
+      <c r="J139" s="3" t="str">
         <f ca="1">IF(History!A139&lt;&gt;"",SUM(OFFSET(History!C139,0,COUNT(History!139:139)-IF(COUNT(History!139:139)&lt;=5,COUNT(History!139:139),5)):OFFSET(History!C139,0,COUNT(History!139:139)-1)),"")</f>
         <v/>
       </c>
@@ -6228,11 +6228,11 @@
       <c r="A140" s="1">
         <v>139</v>
       </c>
-      <c r="B140" s="5" t="str">
+      <c r="B140" s="7" t="str">
         <f>IF(History!A140&lt;&gt;"",History!A140,"")</f>
         <v/>
       </c>
-      <c r="C140" s="4" t="str">
+      <c r="C140" s="3" t="str">
         <f ca="1">IF(History!A140&lt;&gt;"",SUM(History!B140:OFFSET(History!B140,0,COUNTA(History!140:140)-2)),"")</f>
         <v/>
       </c>
@@ -6240,27 +6240,27 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="E140" s="4" t="str">
+      <c r="E140" s="3" t="str">
         <f ca="1">IF(History!A140&lt;&gt;0,COUNTIF(History!C140:OFFSET(History!C140,0,COUNTA(History!140:140)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F140" s="4" t="str">
+      <c r="F140" s="3" t="str">
         <f ca="1">IF(History!A140&lt;&gt;0,COUNTIF(History!C140:OFFSET(History!C140,0,COUNTA(History!140:140)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G140" s="6" t="str">
+      <c r="G140" s="4" t="str">
         <f ca="1">IF(MAX(History!140:140)&gt;0,MAX(History!C140:OFFSET(History!C140,0,COUNTA(History!140:140)-3)),"")</f>
         <v/>
       </c>
-      <c r="H140" s="6" t="str">
+      <c r="H140" s="4" t="str">
         <f ca="1">IF(History!A140&lt;&gt;0,MIN(History!C140:OFFSET(History!C140,0,COUNTA(History!140:140)-3)),"")</f>
         <v/>
       </c>
-      <c r="I140" s="6" t="str">
+      <c r="I140" s="4" t="str">
         <f>IF(History!A140&lt;&gt;"",History!B140,"")</f>
         <v/>
       </c>
-      <c r="J140" s="4" t="str">
+      <c r="J140" s="3" t="str">
         <f ca="1">IF(History!A140&lt;&gt;"",SUM(OFFSET(History!C140,0,COUNT(History!140:140)-IF(COUNT(History!140:140)&lt;=5,COUNT(History!140:140),5)):OFFSET(History!C140,0,COUNT(History!140:140)-1)),"")</f>
         <v/>
       </c>
@@ -6269,11 +6269,11 @@
       <c r="A141" s="1">
         <v>140</v>
       </c>
-      <c r="B141" s="5" t="str">
+      <c r="B141" s="7" t="str">
         <f>IF(History!A141&lt;&gt;"",History!A141,"")</f>
         <v/>
       </c>
-      <c r="C141" s="4" t="str">
+      <c r="C141" s="3" t="str">
         <f ca="1">IF(History!A141&lt;&gt;"",SUM(History!B141:OFFSET(History!B141,0,COUNTA(History!141:141)-2)),"")</f>
         <v/>
       </c>
@@ -6281,27 +6281,27 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="E141" s="4" t="str">
+      <c r="E141" s="3" t="str">
         <f ca="1">IF(History!A141&lt;&gt;0,COUNTIF(History!C141:OFFSET(History!C141,0,COUNTA(History!141:141)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F141" s="4" t="str">
+      <c r="F141" s="3" t="str">
         <f ca="1">IF(History!A141&lt;&gt;0,COUNTIF(History!C141:OFFSET(History!C141,0,COUNTA(History!141:141)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G141" s="6" t="str">
+      <c r="G141" s="4" t="str">
         <f ca="1">IF(MAX(History!141:141)&gt;0,MAX(History!C141:OFFSET(History!C141,0,COUNTA(History!141:141)-3)),"")</f>
         <v/>
       </c>
-      <c r="H141" s="6" t="str">
+      <c r="H141" s="4" t="str">
         <f ca="1">IF(History!A141&lt;&gt;0,MIN(History!C141:OFFSET(History!C141,0,COUNTA(History!141:141)-3)),"")</f>
         <v/>
       </c>
-      <c r="I141" s="6" t="str">
+      <c r="I141" s="4" t="str">
         <f>IF(History!A141&lt;&gt;"",History!B141,"")</f>
         <v/>
       </c>
-      <c r="J141" s="4" t="str">
+      <c r="J141" s="3" t="str">
         <f ca="1">IF(History!A141&lt;&gt;"",SUM(OFFSET(History!C141,0,COUNT(History!141:141)-IF(COUNT(History!141:141)&lt;=5,COUNT(History!141:141),5)):OFFSET(History!C141,0,COUNT(History!141:141)-1)),"")</f>
         <v/>
       </c>
@@ -6310,11 +6310,11 @@
       <c r="A142" s="1">
         <v>141</v>
       </c>
-      <c r="B142" s="5" t="str">
+      <c r="B142" s="7" t="str">
         <f>IF(History!A142&lt;&gt;"",History!A142,"")</f>
         <v/>
       </c>
-      <c r="C142" s="4" t="str">
+      <c r="C142" s="3" t="str">
         <f ca="1">IF(History!A142&lt;&gt;"",SUM(History!B142:OFFSET(History!B142,0,COUNTA(History!142:142)-2)),"")</f>
         <v/>
       </c>
@@ -6322,27 +6322,27 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="E142" s="4" t="str">
+      <c r="E142" s="3" t="str">
         <f ca="1">IF(History!A142&lt;&gt;0,COUNTIF(History!C142:OFFSET(History!C142,0,COUNTA(History!142:142)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F142" s="4" t="str">
+      <c r="F142" s="3" t="str">
         <f ca="1">IF(History!A142&lt;&gt;0,COUNTIF(History!C142:OFFSET(History!C142,0,COUNTA(History!142:142)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G142" s="6" t="str">
+      <c r="G142" s="4" t="str">
         <f ca="1">IF(MAX(History!142:142)&gt;0,MAX(History!C142:OFFSET(History!C142,0,COUNTA(History!142:142)-3)),"")</f>
         <v/>
       </c>
-      <c r="H142" s="6" t="str">
+      <c r="H142" s="4" t="str">
         <f ca="1">IF(History!A142&lt;&gt;0,MIN(History!C142:OFFSET(History!C142,0,COUNTA(History!142:142)-3)),"")</f>
         <v/>
       </c>
-      <c r="I142" s="6" t="str">
+      <c r="I142" s="4" t="str">
         <f>IF(History!A142&lt;&gt;"",History!B142,"")</f>
         <v/>
       </c>
-      <c r="J142" s="4" t="str">
+      <c r="J142" s="3" t="str">
         <f ca="1">IF(History!A142&lt;&gt;"",SUM(OFFSET(History!C142,0,COUNT(History!142:142)-IF(COUNT(History!142:142)&lt;=5,COUNT(History!142:142),5)):OFFSET(History!C142,0,COUNT(History!142:142)-1)),"")</f>
         <v/>
       </c>
@@ -6351,11 +6351,11 @@
       <c r="A143" s="1">
         <v>142</v>
       </c>
-      <c r="B143" s="5" t="str">
+      <c r="B143" s="7" t="str">
         <f>IF(History!A143&lt;&gt;"",History!A143,"")</f>
         <v/>
       </c>
-      <c r="C143" s="4" t="str">
+      <c r="C143" s="3" t="str">
         <f ca="1">IF(History!A143&lt;&gt;"",SUM(History!B143:OFFSET(History!B143,0,COUNTA(History!143:143)-2)),"")</f>
         <v/>
       </c>
@@ -6363,27 +6363,27 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="E143" s="4" t="str">
+      <c r="E143" s="3" t="str">
         <f ca="1">IF(History!A143&lt;&gt;0,COUNTIF(History!C143:OFFSET(History!C143,0,COUNTA(History!143:143)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F143" s="4" t="str">
+      <c r="F143" s="3" t="str">
         <f ca="1">IF(History!A143&lt;&gt;0,COUNTIF(History!C143:OFFSET(History!C143,0,COUNTA(History!143:143)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G143" s="6" t="str">
+      <c r="G143" s="4" t="str">
         <f ca="1">IF(MAX(History!143:143)&gt;0,MAX(History!C143:OFFSET(History!C143,0,COUNTA(History!143:143)-3)),"")</f>
         <v/>
       </c>
-      <c r="H143" s="6" t="str">
+      <c r="H143" s="4" t="str">
         <f ca="1">IF(History!A143&lt;&gt;0,MIN(History!C143:OFFSET(History!C143,0,COUNTA(History!143:143)-3)),"")</f>
         <v/>
       </c>
-      <c r="I143" s="6" t="str">
+      <c r="I143" s="4" t="str">
         <f>IF(History!A143&lt;&gt;"",History!B143,"")</f>
         <v/>
       </c>
-      <c r="J143" s="4" t="str">
+      <c r="J143" s="3" t="str">
         <f ca="1">IF(History!A143&lt;&gt;"",SUM(OFFSET(History!C143,0,COUNT(History!143:143)-IF(COUNT(History!143:143)&lt;=5,COUNT(History!143:143),5)):OFFSET(History!C143,0,COUNT(History!143:143)-1)),"")</f>
         <v/>
       </c>
@@ -6392,11 +6392,11 @@
       <c r="A144" s="1">
         <v>143</v>
       </c>
-      <c r="B144" s="5" t="str">
+      <c r="B144" s="7" t="str">
         <f>IF(History!A144&lt;&gt;"",History!A144,"")</f>
         <v/>
       </c>
-      <c r="C144" s="4" t="str">
+      <c r="C144" s="3" t="str">
         <f ca="1">IF(History!A144&lt;&gt;"",SUM(History!B144:OFFSET(History!B144,0,COUNTA(History!144:144)-2)),"")</f>
         <v/>
       </c>
@@ -6404,27 +6404,27 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="E144" s="4" t="str">
+      <c r="E144" s="3" t="str">
         <f ca="1">IF(History!A144&lt;&gt;0,COUNTIF(History!C144:OFFSET(History!C144,0,COUNTA(History!144:144)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F144" s="4" t="str">
+      <c r="F144" s="3" t="str">
         <f ca="1">IF(History!A144&lt;&gt;0,COUNTIF(History!C144:OFFSET(History!C144,0,COUNTA(History!144:144)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G144" s="6" t="str">
+      <c r="G144" s="4" t="str">
         <f ca="1">IF(MAX(History!144:144)&gt;0,MAX(History!C144:OFFSET(History!C144,0,COUNTA(History!144:144)-3)),"")</f>
         <v/>
       </c>
-      <c r="H144" s="6" t="str">
+      <c r="H144" s="4" t="str">
         <f ca="1">IF(History!A144&lt;&gt;0,MIN(History!C144:OFFSET(History!C144,0,COUNTA(History!144:144)-3)),"")</f>
         <v/>
       </c>
-      <c r="I144" s="6" t="str">
+      <c r="I144" s="4" t="str">
         <f>IF(History!A144&lt;&gt;"",History!B144,"")</f>
         <v/>
       </c>
-      <c r="J144" s="4" t="str">
+      <c r="J144" s="3" t="str">
         <f ca="1">IF(History!A144&lt;&gt;"",SUM(OFFSET(History!C144,0,COUNT(History!144:144)-IF(COUNT(History!144:144)&lt;=5,COUNT(History!144:144),5)):OFFSET(History!C144,0,COUNT(History!144:144)-1)),"")</f>
         <v/>
       </c>
@@ -6433,11 +6433,11 @@
       <c r="A145" s="1">
         <v>144</v>
       </c>
-      <c r="B145" s="5" t="str">
+      <c r="B145" s="7" t="str">
         <f>IF(History!A145&lt;&gt;"",History!A145,"")</f>
         <v/>
       </c>
-      <c r="C145" s="4" t="str">
+      <c r="C145" s="3" t="str">
         <f ca="1">IF(History!A145&lt;&gt;"",SUM(History!B145:OFFSET(History!B145,0,COUNTA(History!145:145)-2)),"")</f>
         <v/>
       </c>
@@ -6445,27 +6445,27 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="E145" s="4" t="str">
+      <c r="E145" s="3" t="str">
         <f ca="1">IF(History!A145&lt;&gt;0,COUNTIF(History!C145:OFFSET(History!C145,0,COUNTA(History!145:145)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F145" s="4" t="str">
+      <c r="F145" s="3" t="str">
         <f ca="1">IF(History!A145&lt;&gt;0,COUNTIF(History!C145:OFFSET(History!C145,0,COUNTA(History!145:145)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G145" s="6" t="str">
+      <c r="G145" s="4" t="str">
         <f ca="1">IF(MAX(History!145:145)&gt;0,MAX(History!C145:OFFSET(History!C145,0,COUNTA(History!145:145)-3)),"")</f>
         <v/>
       </c>
-      <c r="H145" s="6" t="str">
+      <c r="H145" s="4" t="str">
         <f ca="1">IF(History!A145&lt;&gt;0,MIN(History!C145:OFFSET(History!C145,0,COUNTA(History!145:145)-3)),"")</f>
         <v/>
       </c>
-      <c r="I145" s="6" t="str">
+      <c r="I145" s="4" t="str">
         <f>IF(History!A145&lt;&gt;"",History!B145,"")</f>
         <v/>
       </c>
-      <c r="J145" s="4" t="str">
+      <c r="J145" s="3" t="str">
         <f ca="1">IF(History!A145&lt;&gt;"",SUM(OFFSET(History!C145,0,COUNT(History!145:145)-IF(COUNT(History!145:145)&lt;=5,COUNT(History!145:145),5)):OFFSET(History!C145,0,COUNT(History!145:145)-1)),"")</f>
         <v/>
       </c>
@@ -6474,11 +6474,11 @@
       <c r="A146" s="1">
         <v>145</v>
       </c>
-      <c r="B146" s="5" t="str">
+      <c r="B146" s="7" t="str">
         <f>IF(History!A146&lt;&gt;"",History!A146,"")</f>
         <v/>
       </c>
-      <c r="C146" s="4" t="str">
+      <c r="C146" s="3" t="str">
         <f ca="1">IF(History!A146&lt;&gt;"",SUM(History!B146:OFFSET(History!B146,0,COUNTA(History!146:146)-2)),"")</f>
         <v/>
       </c>
@@ -6486,27 +6486,27 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="E146" s="4" t="str">
+      <c r="E146" s="3" t="str">
         <f ca="1">IF(History!A146&lt;&gt;0,COUNTIF(History!C146:OFFSET(History!C146,0,COUNTA(History!146:146)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F146" s="4" t="str">
+      <c r="F146" s="3" t="str">
         <f ca="1">IF(History!A146&lt;&gt;0,COUNTIF(History!C146:OFFSET(History!C146,0,COUNTA(History!146:146)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G146" s="6" t="str">
+      <c r="G146" s="4" t="str">
         <f ca="1">IF(MAX(History!146:146)&gt;0,MAX(History!C146:OFFSET(History!C146,0,COUNTA(History!146:146)-3)),"")</f>
         <v/>
       </c>
-      <c r="H146" s="6" t="str">
+      <c r="H146" s="4" t="str">
         <f ca="1">IF(History!A146&lt;&gt;0,MIN(History!C146:OFFSET(History!C146,0,COUNTA(History!146:146)-3)),"")</f>
         <v/>
       </c>
-      <c r="I146" s="6" t="str">
+      <c r="I146" s="4" t="str">
         <f>IF(History!A146&lt;&gt;"",History!B146,"")</f>
         <v/>
       </c>
-      <c r="J146" s="4" t="str">
+      <c r="J146" s="3" t="str">
         <f ca="1">IF(History!A146&lt;&gt;"",SUM(OFFSET(History!C146,0,COUNT(History!146:146)-IF(COUNT(History!146:146)&lt;=5,COUNT(History!146:146),5)):OFFSET(History!C146,0,COUNT(History!146:146)-1)),"")</f>
         <v/>
       </c>
@@ -6515,11 +6515,11 @@
       <c r="A147" s="1">
         <v>146</v>
       </c>
-      <c r="B147" s="5" t="str">
+      <c r="B147" s="7" t="str">
         <f>IF(History!A147&lt;&gt;"",History!A147,"")</f>
         <v/>
       </c>
-      <c r="C147" s="4" t="str">
+      <c r="C147" s="3" t="str">
         <f ca="1">IF(History!A147&lt;&gt;"",SUM(History!B147:OFFSET(History!B147,0,COUNTA(History!147:147)-2)),"")</f>
         <v/>
       </c>
@@ -6527,27 +6527,27 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="E147" s="4" t="str">
+      <c r="E147" s="3" t="str">
         <f ca="1">IF(History!A147&lt;&gt;0,COUNTIF(History!C147:OFFSET(History!C147,0,COUNTA(History!147:147)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F147" s="4" t="str">
+      <c r="F147" s="3" t="str">
         <f ca="1">IF(History!A147&lt;&gt;0,COUNTIF(History!C147:OFFSET(History!C147,0,COUNTA(History!147:147)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G147" s="6" t="str">
+      <c r="G147" s="4" t="str">
         <f ca="1">IF(MAX(History!147:147)&gt;0,MAX(History!C147:OFFSET(History!C147,0,COUNTA(History!147:147)-3)),"")</f>
         <v/>
       </c>
-      <c r="H147" s="6" t="str">
+      <c r="H147" s="4" t="str">
         <f ca="1">IF(History!A147&lt;&gt;0,MIN(History!C147:OFFSET(History!C147,0,COUNTA(History!147:147)-3)),"")</f>
         <v/>
       </c>
-      <c r="I147" s="6" t="str">
+      <c r="I147" s="4" t="str">
         <f>IF(History!A147&lt;&gt;"",History!B147,"")</f>
         <v/>
       </c>
-      <c r="J147" s="4" t="str">
+      <c r="J147" s="3" t="str">
         <f ca="1">IF(History!A147&lt;&gt;"",SUM(OFFSET(History!C147,0,COUNT(History!147:147)-IF(COUNT(History!147:147)&lt;=5,COUNT(History!147:147),5)):OFFSET(History!C147,0,COUNT(History!147:147)-1)),"")</f>
         <v/>
       </c>
@@ -6556,11 +6556,11 @@
       <c r="A148" s="1">
         <v>147</v>
       </c>
-      <c r="B148" s="5" t="str">
+      <c r="B148" s="7" t="str">
         <f>IF(History!A148&lt;&gt;"",History!A148,"")</f>
         <v/>
       </c>
-      <c r="C148" s="4" t="str">
+      <c r="C148" s="3" t="str">
         <f ca="1">IF(History!A148&lt;&gt;"",SUM(History!B148:OFFSET(History!B148,0,COUNTA(History!148:148)-2)),"")</f>
         <v/>
       </c>
@@ -6568,27 +6568,27 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="E148" s="4" t="str">
+      <c r="E148" s="3" t="str">
         <f ca="1">IF(History!A148&lt;&gt;0,COUNTIF(History!C148:OFFSET(History!C148,0,COUNTA(History!148:148)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F148" s="4" t="str">
+      <c r="F148" s="3" t="str">
         <f ca="1">IF(History!A148&lt;&gt;0,COUNTIF(History!C148:OFFSET(History!C148,0,COUNTA(History!148:148)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G148" s="6" t="str">
+      <c r="G148" s="4" t="str">
         <f ca="1">IF(MAX(History!148:148)&gt;0,MAX(History!C148:OFFSET(History!C148,0,COUNTA(History!148:148)-3)),"")</f>
         <v/>
       </c>
-      <c r="H148" s="6" t="str">
+      <c r="H148" s="4" t="str">
         <f ca="1">IF(History!A148&lt;&gt;0,MIN(History!C148:OFFSET(History!C148,0,COUNTA(History!148:148)-3)),"")</f>
         <v/>
       </c>
-      <c r="I148" s="6" t="str">
+      <c r="I148" s="4" t="str">
         <f>IF(History!A148&lt;&gt;"",History!B148,"")</f>
         <v/>
       </c>
-      <c r="J148" s="4" t="str">
+      <c r="J148" s="3" t="str">
         <f ca="1">IF(History!A148&lt;&gt;"",SUM(OFFSET(History!C148,0,COUNT(History!148:148)-IF(COUNT(History!148:148)&lt;=5,COUNT(History!148:148),5)):OFFSET(History!C148,0,COUNT(History!148:148)-1)),"")</f>
         <v/>
       </c>
@@ -6597,11 +6597,11 @@
       <c r="A149" s="1">
         <v>148</v>
       </c>
-      <c r="B149" s="5" t="str">
+      <c r="B149" s="7" t="str">
         <f>IF(History!A149&lt;&gt;"",History!A149,"")</f>
         <v/>
       </c>
-      <c r="C149" s="4" t="str">
+      <c r="C149" s="3" t="str">
         <f ca="1">IF(History!A149&lt;&gt;"",SUM(History!B149:OFFSET(History!B149,0,COUNTA(History!149:149)-2)),"")</f>
         <v/>
       </c>
@@ -6609,27 +6609,27 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="E149" s="4" t="str">
+      <c r="E149" s="3" t="str">
         <f ca="1">IF(History!A149&lt;&gt;0,COUNTIF(History!C149:OFFSET(History!C149,0,COUNTA(History!149:149)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F149" s="4" t="str">
+      <c r="F149" s="3" t="str">
         <f ca="1">IF(History!A149&lt;&gt;0,COUNTIF(History!C149:OFFSET(History!C149,0,COUNTA(History!149:149)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G149" s="6" t="str">
+      <c r="G149" s="4" t="str">
         <f ca="1">IF(MAX(History!149:149)&gt;0,MAX(History!C149:OFFSET(History!C149,0,COUNTA(History!149:149)-3)),"")</f>
         <v/>
       </c>
-      <c r="H149" s="6" t="str">
+      <c r="H149" s="4" t="str">
         <f ca="1">IF(History!A149&lt;&gt;0,MIN(History!C149:OFFSET(History!C149,0,COUNTA(History!149:149)-3)),"")</f>
         <v/>
       </c>
-      <c r="I149" s="6" t="str">
+      <c r="I149" s="4" t="str">
         <f>IF(History!A149&lt;&gt;"",History!B149,"")</f>
         <v/>
       </c>
-      <c r="J149" s="4" t="str">
+      <c r="J149" s="3" t="str">
         <f ca="1">IF(History!A149&lt;&gt;"",SUM(OFFSET(History!C149,0,COUNT(History!149:149)-IF(COUNT(History!149:149)&lt;=5,COUNT(History!149:149),5)):OFFSET(History!C149,0,COUNT(History!149:149)-1)),"")</f>
         <v/>
       </c>
@@ -6638,11 +6638,11 @@
       <c r="A150" s="1">
         <v>149</v>
       </c>
-      <c r="B150" s="5" t="str">
+      <c r="B150" s="7" t="str">
         <f>IF(History!A150&lt;&gt;"",History!A150,"")</f>
         <v/>
       </c>
-      <c r="C150" s="4" t="str">
+      <c r="C150" s="3" t="str">
         <f ca="1">IF(History!A150&lt;&gt;"",SUM(History!B150:OFFSET(History!B150,0,COUNTA(History!150:150)-2)),"")</f>
         <v/>
       </c>
@@ -6650,27 +6650,27 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="E150" s="4" t="str">
+      <c r="E150" s="3" t="str">
         <f ca="1">IF(History!A150&lt;&gt;0,COUNTIF(History!C150:OFFSET(History!C150,0,COUNTA(History!150:150)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F150" s="4" t="str">
+      <c r="F150" s="3" t="str">
         <f ca="1">IF(History!A150&lt;&gt;0,COUNTIF(History!C150:OFFSET(History!C150,0,COUNTA(History!150:150)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G150" s="6" t="str">
+      <c r="G150" s="4" t="str">
         <f ca="1">IF(MAX(History!150:150)&gt;0,MAX(History!C150:OFFSET(History!C150,0,COUNTA(History!150:150)-3)),"")</f>
         <v/>
       </c>
-      <c r="H150" s="6" t="str">
+      <c r="H150" s="4" t="str">
         <f ca="1">IF(History!A150&lt;&gt;0,MIN(History!C150:OFFSET(History!C150,0,COUNTA(History!150:150)-3)),"")</f>
         <v/>
       </c>
-      <c r="I150" s="6" t="str">
+      <c r="I150" s="4" t="str">
         <f>IF(History!A150&lt;&gt;"",History!B150,"")</f>
         <v/>
       </c>
-      <c r="J150" s="4" t="str">
+      <c r="J150" s="3" t="str">
         <f ca="1">IF(History!A150&lt;&gt;"",SUM(OFFSET(History!C150,0,COUNT(History!150:150)-IF(COUNT(History!150:150)&lt;=5,COUNT(History!150:150),5)):OFFSET(History!C150,0,COUNT(History!150:150)-1)),"")</f>
         <v/>
       </c>
@@ -6679,11 +6679,11 @@
       <c r="A151" s="1">
         <v>150</v>
       </c>
-      <c r="B151" s="5" t="str">
+      <c r="B151" s="7" t="str">
         <f>IF(History!A151&lt;&gt;"",History!A151,"")</f>
         <v/>
       </c>
-      <c r="C151" s="4" t="str">
+      <c r="C151" s="3" t="str">
         <f ca="1">IF(History!A151&lt;&gt;"",SUM(History!B151:OFFSET(History!B151,0,COUNTA(History!151:151)-2)),"")</f>
         <v/>
       </c>
@@ -6691,27 +6691,27 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="E151" s="4" t="str">
+      <c r="E151" s="3" t="str">
         <f ca="1">IF(History!A151&lt;&gt;0,COUNTIF(History!C151:OFFSET(History!C151,0,COUNTA(History!151:151)-3),"&gt;0"),"")</f>
         <v/>
       </c>
-      <c r="F151" s="4" t="str">
+      <c r="F151" s="3" t="str">
         <f ca="1">IF(History!A151&lt;&gt;0,COUNTIF(History!C151:OFFSET(History!C151,0,COUNTA(History!151:151)-3),"&lt;=0"),"")</f>
         <v/>
       </c>
-      <c r="G151" s="6" t="str">
+      <c r="G151" s="4" t="str">
         <f ca="1">IF(MAX(History!151:151)&gt;0,MAX(History!C151:OFFSET(History!C151,0,COUNTA(History!151:151)-3)),"")</f>
         <v/>
       </c>
-      <c r="H151" s="6" t="str">
+      <c r="H151" s="4" t="str">
         <f ca="1">IF(History!A151&lt;&gt;0,MIN(History!C151:OFFSET(History!C151,0,COUNTA(History!151:151)-3)),"")</f>
         <v/>
       </c>
-      <c r="I151" s="6" t="str">
+      <c r="I151" s="4" t="str">
         <f>IF(History!A151&lt;&gt;"",History!B151,"")</f>
         <v/>
       </c>
-      <c r="J151" s="4" t="str">
+      <c r="J151" s="3" t="str">
         <f ca="1">IF(History!A151&lt;&gt;"",SUM(OFFSET(History!C151,0,COUNT(History!151:151)-IF(COUNT(History!151:151)&lt;=5,COUNT(History!151:151),5)):OFFSET(History!C151,0,COUNT(History!151:151)-1)),"")</f>
         <v/>
       </c>
@@ -6734,17 +6734,17 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="19.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6752,65 +6752,72 @@
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="7">
         <v>0</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>-1</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>-24</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>-3</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>-46</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>-22</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>89</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="3">
         <v>-77</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="3">
         <v>-13</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="3">
         <v>164</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
+      <c r="L2" s="3">
+        <v>-7</v>
+      </c>
+      <c r="M2" s="3">
+        <v>-29</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>-40</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>269</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>-25</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>-48</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>-22</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>-43</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
+        <v>-7</v>
+      </c>
+      <c r="J3">
         <v>-7</v>
       </c>
     </row>
@@ -6818,94 +6825,105 @@
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="B4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3">
         <v>-2</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>-7</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>-22</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>-52</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>-27</v>
+      </c>
+      <c r="H4" s="3">
+        <v>-22</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="7">
         <v>-100</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>293</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>-129</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>-12</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>152</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>-16</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>-38</v>
+      </c>
+      <c r="J5">
+        <v>-15</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="B6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3">
         <v>-44</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>-76</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>130</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>-13</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>-34</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
+      <c r="H6" s="3">
+        <v>-8</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="B7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3">
         <v>-71</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>-71</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>-14</v>
       </c>
     </row>
@@ -6913,13 +6931,13 @@
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="B8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3">
         <v>-102</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>-6</v>
       </c>
     </row>
@@ -6927,209 +6945,267 @@
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="4">
+      <c r="B9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3">
         <v>-8</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>-38</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>-9</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>-10</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>-17</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>-38</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>-2</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>-73</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <v>-15</v>
       </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
+      <c r="L9" s="3">
+        <v>-102</v>
+      </c>
+      <c r="M9" s="3">
+        <v>-12</v>
+      </c>
+      <c r="N9" s="3"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="B10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3">
         <v>-25</v>
+      </c>
+      <c r="D10" s="3">
+        <v>-82</v>
+      </c>
+      <c r="E10">
+        <v>-92</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="6">
         <v>-100</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>-40</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="4">
+      <c r="B12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3">
         <v>-11</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>-45</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>-56</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>255</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>0</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>0</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>-2</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <v>-15</v>
       </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
+      <c r="K12" s="3">
+        <v>-33</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4">
+      <c r="B13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3">
         <v>-6</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>-26</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>-4</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="6">
         <v>-100</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>286</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>-27</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>-53</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>-87</v>
       </c>
+      <c r="G14" s="3">
+        <v>437</v>
+      </c>
+      <c r="H14">
+        <v>375</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="4">
+      <c r="B15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3">
         <v>158</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>-16</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>-32</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="4">
+      <c r="B16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="3">
         <v>-32</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>-21</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="3" t="s">
+      <c r="E16" s="3">
+        <v>-51</v>
+      </c>
+      <c r="F16">
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="4">
+      <c r="B17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="3">
         <v>-29</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="3" t="s">
+      <c r="E17" s="3">
+        <v>-4</v>
+      </c>
+      <c r="F17">
+        <v>-77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="4">
+      <c r="B18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="3">
         <v>-29</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>-8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="4">
+      <c r="B19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="3">
         <v>-77</v>
       </c>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D22" s="7"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>-46</v>
+      </c>
+      <c r="D20">
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <v>-85</v>
+      </c>
+      <c r="D21">
+        <v>-58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D22" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/uno/uno_record.xlsx
+++ b/uno/uno_record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ren\Desktop\色々\Data\Discord\HONDA Bot\uno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D845CF9F-BD21-41DF-BC5C-3241D0675E53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{65112B2E-B561-45C2-9247-FE0EFD671A07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Records" sheetId="1" r:id="rId1"/>
@@ -576,11 +576,11 @@
       </c>
       <c r="C2" s="3">
         <f ca="1">IF(History!A2&lt;&gt;"",SUM(History!B2:OFFSET(History!B2,0,COUNTA(History!2:2)-2)),"")</f>
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D2" s="8">
         <f t="shared" ref="D2:D33" ca="1" si="0">IFERROR(E2/(E2+F2),"")</f>
-        <v>0.18181818181818182</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E2" s="3">
         <f ca="1">IF(History!A2&lt;&gt;0,COUNTIF(History!C2:OFFSET(History!C2,0,COUNTA(History!2:2)-3),"&gt;0"),"")</f>
@@ -588,7 +588,7 @@
       </c>
       <c r="F2" s="3">
         <f ca="1">IF(History!A2&lt;&gt;0,COUNTIF(History!C2:OFFSET(History!C2,0,COUNTA(History!2:2)-3),"&lt;=0"),"")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" s="4">
         <f ca="1">IF(MAX(History!2:2)&gt;0,MAX(History!C2:OFFSET(History!C2,0,COUNTA(History!2:2)-3)),"")</f>
@@ -604,7 +604,7 @@
       </c>
       <c r="J2" s="3">
         <f ca="1">SUM(OFFSET(History!C2,0,COUNT(History!2:2)-IF(COUNT(History!2:2)&lt;=5,COUNT(History!2:2),5)):OFFSET(History!C2,0,COUNT(History!2:2)-1))</f>
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
@@ -699,11 +699,11 @@
       </c>
       <c r="C5" s="3">
         <f ca="1">IF(History!A5&lt;&gt;"",SUM(History!B5:OFFSET(History!B5,0,COUNTA(History!5:5)-2)),"")</f>
-        <v>135</v>
+        <v>34</v>
       </c>
       <c r="D5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="E5" s="3">
         <f ca="1">IF(History!A5&lt;&gt;0,COUNTIF(History!C5:OFFSET(History!C5,0,COUNTA(History!5:5)-3),"&gt;0"),"")</f>
@@ -711,7 +711,7 @@
       </c>
       <c r="F5" s="3">
         <f ca="1">IF(History!A5&lt;&gt;0,COUNTIF(History!C5:OFFSET(History!C5,0,COUNTA(History!5:5)-3),"&lt;=0"),"")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G5" s="4">
         <f ca="1">IF(MAX(History!5:5)&gt;0,MAX(History!C5:OFFSET(History!C5,0,COUNTA(History!5:5)-3)),"")</f>
@@ -727,7 +727,7 @@
       </c>
       <c r="J5" s="3">
         <f ca="1">SUM(OFFSET(History!C5,0,COUNT(History!5:5)-IF(COUNT(History!5:5)&lt;=5,COUNT(History!5:5),5)):OFFSET(History!C5,0,COUNT(History!5:5)-1))</f>
-        <v>-69</v>
+        <v>-154</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
@@ -822,7 +822,7 @@
       </c>
       <c r="C8" s="3">
         <f ca="1">IF(History!A8&lt;&gt;"",SUM(History!B8:OFFSET(History!B8,0,COUNTA(History!8:8)-2)),"")</f>
-        <v>-108</v>
+        <v>-226</v>
       </c>
       <c r="D8" s="8">
         <f t="shared" ca="1" si="0"/>
@@ -834,7 +834,7 @@
       </c>
       <c r="F8" s="3">
         <f ca="1">IF(History!A8&lt;&gt;0,COUNTIF(History!C8:OFFSET(History!C8,0,COUNTA(History!8:8)-3),"&lt;=0"),"")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" s="4" t="str">
         <f ca="1">IF(MAX(History!8:8)&gt;0,MAX(History!C8:OFFSET(History!C8,0,COUNTA(History!8:8)-3)),"")</f>
@@ -842,7 +842,7 @@
       </c>
       <c r="H8" s="4">
         <f ca="1">IF(History!A8&lt;&gt;0,MIN(History!C8:OFFSET(History!C8,0,COUNTA(History!8:8)-3)),"")</f>
-        <v>-102</v>
+        <v>-118</v>
       </c>
       <c r="I8" s="4" t="str">
         <f>IF(History!A8&lt;&gt;"",History!B8,"")</f>
@@ -850,7 +850,7 @@
       </c>
       <c r="J8" s="3">
         <f ca="1">SUM(OFFSET(History!C8,0,COUNT(History!8:8)-IF(COUNT(History!8:8)&lt;=5,COUNT(History!8:8),5)):OFFSET(History!C8,0,COUNT(History!8:8)-1))</f>
-        <v>-108</v>
+        <v>-226</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
@@ -863,7 +863,7 @@
       </c>
       <c r="C9" s="3">
         <f ca="1">IF(History!A9&lt;&gt;"",SUM(History!B9:OFFSET(History!B9,0,COUNTA(History!9:9)-2)),"")</f>
-        <v>-324</v>
+        <v>-356</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" ca="1" si="0"/>
@@ -875,7 +875,7 @@
       </c>
       <c r="F9" s="3">
         <f ca="1">IF(History!A9&lt;&gt;0,COUNTIF(History!C9:OFFSET(History!C9,0,COUNTA(History!9:9)-3),"&lt;=0"),"")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9" s="4" t="str">
         <f ca="1">IF(MAX(History!9:9)&gt;0,MAX(History!C9:OFFSET(History!C9,0,COUNTA(History!9:9)-3)),"")</f>
@@ -891,7 +891,7 @@
       </c>
       <c r="J9" s="3">
         <f ca="1">SUM(OFFSET(History!C9,0,COUNT(History!9:9)-IF(COUNT(History!9:9)&lt;=5,COUNT(History!9:9),5)):OFFSET(History!C9,0,COUNT(History!9:9)-1))</f>
-        <v>-204</v>
+        <v>-234</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
@@ -986,11 +986,11 @@
       </c>
       <c r="C12" s="3">
         <f ca="1">IF(History!A12&lt;&gt;"",SUM(History!B12:OFFSET(History!B12,0,COUNTA(History!12:12)-2)),"")</f>
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D12" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0.1</v>
       </c>
       <c r="E12" s="3">
         <f ca="1">IF(History!A12&lt;&gt;0,COUNTIF(History!C12:OFFSET(History!C12,0,COUNTA(History!12:12)-3),"&gt;0"),"")</f>
@@ -998,7 +998,7 @@
       </c>
       <c r="F12" s="3">
         <f ca="1">IF(History!A12&lt;&gt;0,COUNTIF(History!C12:OFFSET(History!C12,0,COUNTA(History!12:12)-3),"&lt;=0"),"")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G12" s="4">
         <f ca="1">IF(MAX(History!12:12)&gt;0,MAX(History!C12:OFFSET(History!C12,0,COUNTA(History!12:12)-3)),"")</f>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="J12" s="3">
         <f ca="1">IF(History!A12&lt;&gt;"",SUM(OFFSET(History!C12,0,COUNT(History!12:12)-IF(COUNT(History!12:12)&lt;=5,COUNT(History!12:12),5)):OFFSET(History!C12,0,COUNT(History!12:12)-1)),"")</f>
-        <v>-50</v>
+        <v>-60</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="C16" s="3">
         <f ca="1">IF(History!A16&lt;&gt;"",SUM(History!B16:OFFSET(History!B16,0,COUNTA(History!16:16)-2)),"")</f>
-        <v>-125</v>
+        <v>-127</v>
       </c>
       <c r="D16" s="8">
         <f t="shared" ca="1" si="0"/>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="F16" s="3">
         <f ca="1">IF(History!A16&lt;&gt;0,COUNTIF(History!C16:OFFSET(History!C16,0,COUNTA(History!16:16)-3),"&lt;=0"),"")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G16" s="4" t="str">
         <f ca="1">IF(MAX(History!16:16)&gt;0,MAX(History!C16:OFFSET(History!C16,0,COUNTA(History!16:16)-3)),"")</f>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="J16" s="3">
         <f ca="1">IF(History!A16&lt;&gt;"",SUM(OFFSET(History!C16,0,COUNT(History!16:16)-IF(COUNT(History!16:16)&lt;=5,COUNT(History!16:16),5)):OFFSET(History!C16,0,COUNT(History!16:16)-1)),"")</f>
-        <v>-125</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
@@ -1191,23 +1191,23 @@
       </c>
       <c r="C17" s="3">
         <f ca="1">IF(History!A17&lt;&gt;"",SUM(History!B17:OFFSET(History!B17,0,COUNTA(History!17:17)-2)),"")</f>
-        <v>-113</v>
+        <v>202</v>
       </c>
       <c r="D17" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E17" s="3">
         <f ca="1">IF(History!A17&lt;&gt;0,COUNTIF(History!C17:OFFSET(History!C17,0,COUNTA(History!17:17)-3),"&gt;0"),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="3">
         <f ca="1">IF(History!A17&lt;&gt;0,COUNTIF(History!C17:OFFSET(History!C17,0,COUNTA(History!17:17)-3),"&lt;=0"),"")</f>
         <v>4</v>
       </c>
-      <c r="G17" s="4" t="str">
+      <c r="G17" s="4">
         <f ca="1">IF(MAX(History!17:17)&gt;0,MAX(History!C17:OFFSET(History!C17,0,COUNTA(History!17:17)-3)),"")</f>
-        <v/>
+        <v>315</v>
       </c>
       <c r="H17" s="4">
         <f ca="1">IF(History!A17&lt;&gt;0,MIN(History!C17:OFFSET(History!C17,0,COUNTA(History!17:17)-3)),"")</f>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="J17" s="3">
         <f ca="1">IF(History!A17&lt;&gt;"",SUM(OFFSET(History!C17,0,COUNT(History!17:17)-IF(COUNT(History!17:17)&lt;=5,COUNT(History!17:17),5)):OFFSET(History!C17,0,COUNT(History!17:17)-1)),"")</f>
-        <v>-113</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="C21" s="3">
         <f ca="1">IF(History!A21&lt;&gt;"",SUM(History!B21:OFFSET(History!B21,0,COUNTA(History!21:21)-2)),"")</f>
-        <v>-143</v>
+        <v>-179</v>
       </c>
       <c r="D21" s="8">
         <f t="shared" ca="1" si="0"/>
@@ -1367,7 +1367,7 @@
       </c>
       <c r="F21" s="3">
         <f ca="1">IF(History!A21&lt;&gt;0,COUNTIF(History!C21:OFFSET(History!C21,0,COUNTA(History!21:21)-3),"&lt;=0"),"")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G21" s="4" t="str">
         <f ca="1">IF(MAX(History!21:21)&gt;0,MAX(History!C21:OFFSET(History!C21,0,COUNTA(History!21:21)-3)),"")</f>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="J21" s="3">
         <f ca="1">IF(History!A21&lt;&gt;"",SUM(OFFSET(History!C21,0,COUNT(History!21:21)-IF(COUNT(History!21:21)&lt;=5,COUNT(History!21:21),5)):OFFSET(History!C21,0,COUNT(History!21:21)-1)),"")</f>
-        <v>-143</v>
+        <v>-179</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
@@ -6788,6 +6788,9 @@
       <c r="M2" s="3">
         <v>-29</v>
       </c>
+      <c r="N2">
+        <v>-16</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
@@ -6817,7 +6820,7 @@
       <c r="I3" s="3">
         <v>-7</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>-7</v>
       </c>
     </row>
@@ -6875,8 +6878,11 @@
       <c r="I5" s="3">
         <v>-38</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>-15</v>
+      </c>
+      <c r="K5">
+        <v>-101</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
@@ -6940,6 +6946,9 @@
       <c r="D8" s="3">
         <v>-6</v>
       </c>
+      <c r="E8">
+        <v>-118</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
@@ -6981,7 +6990,9 @@
       <c r="M9" s="3">
         <v>-12</v>
       </c>
-      <c r="N9" s="3"/>
+      <c r="N9" s="3">
+        <v>-32</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
@@ -6996,7 +7007,7 @@
       <c r="D10" s="3">
         <v>-82</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>-92</v>
       </c>
     </row>
@@ -7045,7 +7056,9 @@
       <c r="K12" s="3">
         <v>-33</v>
       </c>
-      <c r="L12" s="3"/>
+      <c r="L12" s="3">
+        <v>-10</v>
+      </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
@@ -7089,7 +7102,7 @@
       <c r="G14" s="3">
         <v>437</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="3">
         <v>375</v>
       </c>
     </row>
@@ -7126,11 +7139,14 @@
       <c r="E16" s="3">
         <v>-51</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="3">
         <v>-21</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G16">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
         <v>26</v>
       </c>
@@ -7146,11 +7162,14 @@
       <c r="E17" s="3">
         <v>-4</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3">
         <v>-77</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G17">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
         <v>27</v>
       </c>
@@ -7164,7 +7183,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
         <v>28</v>
       </c>
@@ -7176,7 +7195,7 @@
       </c>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
@@ -7186,11 +7205,11 @@
       <c r="C20" s="3">
         <v>-46</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="3">
         <v>-23</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
         <v>30</v>
       </c>
@@ -7200,11 +7219,14 @@
       <c r="C21" s="3">
         <v>-85</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="3">
         <v>-58</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E21">
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D22" s="5"/>
     </row>
   </sheetData>

--- a/uno/uno_record.xlsx
+++ b/uno/uno_record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ren\Desktop\色々\Data\Discord\HONDA Bot\uno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65112B2E-B561-45C2-9247-FE0EFD671A07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A9967FA-F447-4F95-A009-E1BB650073C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Records" sheetId="1" r:id="rId1"/>
@@ -576,11 +576,11 @@
       </c>
       <c r="C2" s="3">
         <f ca="1">IF(History!A2&lt;&gt;"",SUM(History!B2:OFFSET(History!B2,0,COUNTA(History!2:2)-2)),"")</f>
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D2" s="8">
         <f t="shared" ref="D2:D33" ca="1" si="0">IFERROR(E2/(E2+F2),"")</f>
-        <v>0.16666666666666666</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="E2" s="3">
         <f ca="1">IF(History!A2&lt;&gt;0,COUNTIF(History!C2:OFFSET(History!C2,0,COUNTA(History!2:2)-3),"&gt;0"),"")</f>
@@ -588,7 +588,7 @@
       </c>
       <c r="F2" s="3">
         <f ca="1">IF(History!A2&lt;&gt;0,COUNTIF(History!C2:OFFSET(History!C2,0,COUNTA(History!2:2)-3),"&lt;=0"),"")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="4">
         <f ca="1">IF(MAX(History!2:2)&gt;0,MAX(History!C2:OFFSET(History!C2,0,COUNTA(History!2:2)-3)),"")</f>
@@ -604,7 +604,7 @@
       </c>
       <c r="J2" s="3">
         <f ca="1">SUM(OFFSET(History!C2,0,COUNT(History!2:2)-IF(COUNT(History!2:2)&lt;=5,COUNT(History!2:2),5)):OFFSET(History!C2,0,COUNT(History!2:2)-1))</f>
-        <v>112</v>
+        <v>-65</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
@@ -699,11 +699,11 @@
       </c>
       <c r="C5" s="3">
         <f ca="1">IF(History!A5&lt;&gt;"",SUM(History!B5:OFFSET(History!B5,0,COUNTA(History!5:5)-2)),"")</f>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0.2</v>
       </c>
       <c r="E5" s="3">
         <f ca="1">IF(History!A5&lt;&gt;0,COUNTIF(History!C5:OFFSET(History!C5,0,COUNTA(History!5:5)-3),"&gt;0"),"")</f>
@@ -711,7 +711,7 @@
       </c>
       <c r="F5" s="3">
         <f ca="1">IF(History!A5&lt;&gt;0,COUNTIF(History!C5:OFFSET(History!C5,0,COUNTA(History!5:5)-3),"&lt;=0"),"")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G5" s="4">
         <f ca="1">IF(MAX(History!5:5)&gt;0,MAX(History!C5:OFFSET(History!C5,0,COUNTA(History!5:5)-3)),"")</f>
@@ -727,7 +727,7 @@
       </c>
       <c r="J5" s="3">
         <f ca="1">SUM(OFFSET(History!C5,0,COUNT(History!5:5)-IF(COUNT(History!5:5)&lt;=5,COUNT(History!5:5),5)):OFFSET(History!C5,0,COUNT(History!5:5)-1))</f>
-        <v>-154</v>
+        <v>-156</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
@@ -740,15 +740,15 @@
       </c>
       <c r="C6" s="3">
         <f ca="1">IF(History!A6&lt;&gt;"",SUM(History!B6:OFFSET(History!B6,0,COUNTA(History!6:6)-2)),"")</f>
-        <v>-45</v>
+        <v>35</v>
       </c>
       <c r="D6" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E6" s="3">
         <f ca="1">IF(History!A6&lt;&gt;0,COUNTIF(History!C6:OFFSET(History!C6,0,COUNTA(History!6:6)-3),"&gt;0"),"")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="3">
         <f ca="1">IF(History!A6&lt;&gt;0,COUNTIF(History!C6:OFFSET(History!C6,0,COUNTA(History!6:6)-3),"&lt;=0"),"")</f>
@@ -768,7 +768,7 @@
       </c>
       <c r="J6" s="3">
         <f ca="1">SUM(OFFSET(History!C6,0,COUNT(History!6:6)-IF(COUNT(History!6:6)&lt;=5,COUNT(History!6:6),5)):OFFSET(History!C6,0,COUNT(History!6:6)-1))</f>
-        <v>-1</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
@@ -822,7 +822,7 @@
       </c>
       <c r="C8" s="3">
         <f ca="1">IF(History!A8&lt;&gt;"",SUM(History!B8:OFFSET(History!B8,0,COUNTA(History!8:8)-2)),"")</f>
-        <v>-226</v>
+        <v>-244</v>
       </c>
       <c r="D8" s="8">
         <f t="shared" ca="1" si="0"/>
@@ -834,7 +834,7 @@
       </c>
       <c r="F8" s="3">
         <f ca="1">IF(History!A8&lt;&gt;0,COUNTIF(History!C8:OFFSET(History!C8,0,COUNTA(History!8:8)-3),"&lt;=0"),"")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" s="4" t="str">
         <f ca="1">IF(MAX(History!8:8)&gt;0,MAX(History!C8:OFFSET(History!C8,0,COUNTA(History!8:8)-3)),"")</f>
@@ -850,7 +850,7 @@
       </c>
       <c r="J8" s="3">
         <f ca="1">SUM(OFFSET(History!C8,0,COUNT(History!8:8)-IF(COUNT(History!8:8)&lt;=5,COUNT(History!8:8),5)):OFFSET(History!C8,0,COUNT(History!8:8)-1))</f>
-        <v>-226</v>
+        <v>-244</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
@@ -863,7 +863,7 @@
       </c>
       <c r="C9" s="3">
         <f ca="1">IF(History!A9&lt;&gt;"",SUM(History!B9:OFFSET(History!B9,0,COUNTA(History!9:9)-2)),"")</f>
-        <v>-356</v>
+        <v>-390</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" ca="1" si="0"/>
@@ -875,7 +875,7 @@
       </c>
       <c r="F9" s="3">
         <f ca="1">IF(History!A9&lt;&gt;0,COUNTIF(History!C9:OFFSET(History!C9,0,COUNTA(History!9:9)-3),"&lt;=0"),"")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" s="4" t="str">
         <f ca="1">IF(MAX(History!9:9)&gt;0,MAX(History!C9:OFFSET(History!C9,0,COUNTA(History!9:9)-3)),"")</f>
@@ -891,7 +891,7 @@
       </c>
       <c r="J9" s="3">
         <f ca="1">SUM(OFFSET(History!C9,0,COUNT(History!9:9)-IF(COUNT(History!9:9)&lt;=5,COUNT(History!9:9),5)):OFFSET(History!C9,0,COUNT(History!9:9)-1))</f>
-        <v>-234</v>
+        <v>-195</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
@@ -986,11 +986,11 @@
       </c>
       <c r="C12" s="3">
         <f ca="1">IF(History!A12&lt;&gt;"",SUM(History!B12:OFFSET(History!B12,0,COUNTA(History!12:12)-2)),"")</f>
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D12" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="E12" s="3">
         <f ca="1">IF(History!A12&lt;&gt;0,COUNTIF(History!C12:OFFSET(History!C12,0,COUNTA(History!12:12)-3),"&gt;0"),"")</f>
@@ -998,7 +998,7 @@
       </c>
       <c r="F12" s="3">
         <f ca="1">IF(History!A12&lt;&gt;0,COUNTIF(History!C12:OFFSET(History!C12,0,COUNTA(History!12:12)-3),"&lt;=0"),"")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G12" s="4">
         <f ca="1">IF(MAX(History!12:12)&gt;0,MAX(History!C12:OFFSET(History!C12,0,COUNTA(History!12:12)-3)),"")</f>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="J12" s="3">
         <f ca="1">IF(History!A12&lt;&gt;"",SUM(OFFSET(History!C12,0,COUNT(History!12:12)-IF(COUNT(History!12:12)&lt;=5,COUNT(History!12:12),5)):OFFSET(History!C12,0,COUNT(History!12:12)-1)),"")</f>
-        <v>-60</v>
+        <v>-68</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
@@ -1191,11 +1191,11 @@
       </c>
       <c r="C17" s="3">
         <f ca="1">IF(History!A17&lt;&gt;"",SUM(History!B17:OFFSET(History!B17,0,COUNTA(History!17:17)-2)),"")</f>
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D17" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E17" s="3">
         <f ca="1">IF(History!A17&lt;&gt;0,COUNTIF(History!C17:OFFSET(History!C17,0,COUNTA(History!17:17)-3),"&gt;0"),"")</f>
@@ -1203,7 +1203,7 @@
       </c>
       <c r="F17" s="3">
         <f ca="1">IF(History!A17&lt;&gt;0,COUNTIF(History!C17:OFFSET(History!C17,0,COUNTA(History!17:17)-3),"&lt;=0"),"")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G17" s="4">
         <f ca="1">IF(MAX(History!17:17)&gt;0,MAX(History!C17:OFFSET(History!C17,0,COUNTA(History!17:17)-3)),"")</f>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="J17" s="3">
         <f ca="1">IF(History!A17&lt;&gt;"",SUM(OFFSET(History!C17,0,COUNT(History!17:17)-IF(COUNT(History!17:17)&lt;=5,COUNT(History!17:17),5)):OFFSET(History!C17,0,COUNT(History!17:17)-1)),"")</f>
-        <v>202</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
@@ -6725,7 +6725,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
@@ -6737,7 +6737,7 @@
     <col min="2" max="2" width="9.375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -6788,11 +6788,14 @@
       <c r="M2" s="3">
         <v>-29</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="3">
         <v>-16</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O2">
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -6824,7 +6827,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -6850,7 +6853,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -6881,11 +6884,14 @@
       <c r="J5" s="3">
         <v>-15</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <v>-101</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="L5">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -6910,13 +6916,15 @@
       <c r="H6" s="3">
         <v>-8</v>
       </c>
-      <c r="I6" s="3"/>
+      <c r="I6" s="3">
+        <v>80</v>
+      </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -6933,7 +6941,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -6946,11 +6954,14 @@
       <c r="D8" s="3">
         <v>-6</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>-118</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="F8">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -6993,8 +7004,11 @@
       <c r="N9" s="3">
         <v>-32</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O9">
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -7011,7 +7025,7 @@
         <v>-92</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -7022,7 +7036,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>21</v>
       </c>
@@ -7059,10 +7073,12 @@
       <c r="L12" s="3">
         <v>-10</v>
       </c>
-      <c r="M12" s="3"/>
+      <c r="M12" s="3">
+        <v>-8</v>
+      </c>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>22</v>
       </c>
@@ -7080,7 +7096,7 @@
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
         <v>23</v>
       </c>
@@ -7106,7 +7122,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
         <v>24</v>
       </c>
@@ -7123,7 +7139,7 @@
         <v>-32</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
         <v>25</v>
       </c>
@@ -7142,11 +7158,11 @@
       <c r="F16" s="3">
         <v>-21</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="3">
         <v>-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
         <v>26</v>
       </c>
@@ -7165,11 +7181,14 @@
       <c r="F17" s="3">
         <v>-77</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="3">
         <v>315</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H17">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
         <v>27</v>
       </c>
@@ -7183,7 +7202,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
         <v>28</v>
       </c>
@@ -7195,7 +7214,7 @@
       </c>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
@@ -7209,7 +7228,7 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
         <v>30</v>
       </c>
@@ -7222,11 +7241,11 @@
       <c r="D21" s="3">
         <v>-58</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="3">
         <v>-36</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D22" s="5"/>
     </row>
   </sheetData>

--- a/uno/uno_record.xlsx
+++ b/uno/uno_record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ren\Desktop\色々\Data\Discord\HONDA Bot\uno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A9967FA-F447-4F95-A009-E1BB650073C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F929B8F-7E34-4647-9392-3B31DB483BDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Records" sheetId="1" r:id="rId1"/>
@@ -576,15 +576,15 @@
       </c>
       <c r="C2" s="3">
         <f ca="1">IF(History!A2&lt;&gt;"",SUM(History!B2:OFFSET(History!B2,0,COUNTA(History!2:2)-2)),"")</f>
-        <v>2</v>
+        <v>141</v>
       </c>
       <c r="D2" s="8">
         <f t="shared" ref="D2:D33" ca="1" si="0">IFERROR(E2/(E2+F2),"")</f>
-        <v>0.15384615384615385</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="E2" s="3">
         <f ca="1">IF(History!A2&lt;&gt;0,COUNTIF(History!C2:OFFSET(History!C2,0,COUNTA(History!2:2)-3),"&gt;0"),"")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" s="3">
         <f ca="1">IF(History!A2&lt;&gt;0,COUNTIF(History!C2:OFFSET(History!C2,0,COUNTA(History!2:2)-3),"&lt;=0"),"")</f>
@@ -604,7 +604,7 @@
       </c>
       <c r="J2" s="3">
         <f ca="1">SUM(OFFSET(History!C2,0,COUNT(History!2:2)-IF(COUNT(History!2:2)&lt;=5,COUNT(History!2:2),5)):OFFSET(History!C2,0,COUNT(History!2:2)-1))</f>
-        <v>-65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
@@ -699,11 +699,11 @@
       </c>
       <c r="C5" s="3">
         <f ca="1">IF(History!A5&lt;&gt;"",SUM(History!B5:OFFSET(History!B5,0,COUNTA(History!5:5)-2)),"")</f>
-        <v>32</v>
+        <v>-37</v>
       </c>
       <c r="D5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="E5" s="3">
         <f ca="1">IF(History!A5&lt;&gt;0,COUNTIF(History!C5:OFFSET(History!C5,0,COUNTA(History!5:5)-3),"&gt;0"),"")</f>
@@ -711,7 +711,7 @@
       </c>
       <c r="F5" s="3">
         <f ca="1">IF(History!A5&lt;&gt;0,COUNTIF(History!C5:OFFSET(History!C5,0,COUNTA(History!5:5)-3),"&lt;=0"),"")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G5" s="4">
         <f ca="1">IF(MAX(History!5:5)&gt;0,MAX(History!C5:OFFSET(History!C5,0,COUNTA(History!5:5)-3)),"")</f>
@@ -727,7 +727,7 @@
       </c>
       <c r="J5" s="3">
         <f ca="1">SUM(OFFSET(History!C5,0,COUNT(History!5:5)-IF(COUNT(History!5:5)&lt;=5,COUNT(History!5:5),5)):OFFSET(History!C5,0,COUNT(History!5:5)-1))</f>
-        <v>-156</v>
+        <v>-187</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
@@ -740,11 +740,11 @@
       </c>
       <c r="C6" s="3">
         <f ca="1">IF(History!A6&lt;&gt;"",SUM(History!B6:OFFSET(History!B6,0,COUNTA(History!6:6)-2)),"")</f>
-        <v>35</v>
+        <v>-10</v>
       </c>
       <c r="D6" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="E6" s="3">
         <f ca="1">IF(History!A6&lt;&gt;0,COUNTIF(History!C6:OFFSET(History!C6,0,COUNTA(History!6:6)-3),"&gt;0"),"")</f>
@@ -752,7 +752,7 @@
       </c>
       <c r="F6" s="3">
         <f ca="1">IF(History!A6&lt;&gt;0,COUNTIF(History!C6:OFFSET(History!C6,0,COUNTA(History!6:6)-3),"&lt;=0"),"")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G6" s="4">
         <f ca="1">IF(MAX(History!6:6)&gt;0,MAX(History!C6:OFFSET(History!C6,0,COUNTA(History!6:6)-3)),"")</f>
@@ -768,7 +768,7 @@
       </c>
       <c r="J6" s="3">
         <f ca="1">SUM(OFFSET(History!C6,0,COUNT(History!6:6)-IF(COUNT(History!6:6)&lt;=5,COUNT(History!6:6),5)):OFFSET(History!C6,0,COUNT(History!6:6)-1))</f>
-        <v>155</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
@@ -863,7 +863,7 @@
       </c>
       <c r="C9" s="3">
         <f ca="1">IF(History!A9&lt;&gt;"",SUM(History!B9:OFFSET(History!B9,0,COUNTA(History!9:9)-2)),"")</f>
-        <v>-390</v>
+        <v>-395</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" ca="1" si="0"/>
@@ -875,7 +875,7 @@
       </c>
       <c r="F9" s="3">
         <f ca="1">IF(History!A9&lt;&gt;0,COUNTIF(History!C9:OFFSET(History!C9,0,COUNTA(History!9:9)-3),"&lt;=0"),"")</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9" s="4" t="str">
         <f ca="1">IF(MAX(History!9:9)&gt;0,MAX(History!C9:OFFSET(History!C9,0,COUNTA(History!9:9)-3)),"")</f>
@@ -891,7 +891,7 @@
       </c>
       <c r="J9" s="3">
         <f ca="1">SUM(OFFSET(History!C9,0,COUNT(History!9:9)-IF(COUNT(History!9:9)&lt;=5,COUNT(History!9:9),5)):OFFSET(History!C9,0,COUNT(History!9:9)-1))</f>
-        <v>-195</v>
+        <v>-185</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="C20" s="3">
         <f ca="1">IF(History!A20&lt;&gt;"",SUM(History!B20:OFFSET(History!B20,0,COUNTA(History!20:20)-2)),"")</f>
-        <v>-69</v>
+        <v>-89</v>
       </c>
       <c r="D20" s="8">
         <f t="shared" ca="1" si="0"/>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="F20" s="3">
         <f ca="1">IF(History!A20&lt;&gt;0,COUNTIF(History!C20:OFFSET(History!C20,0,COUNTA(History!20:20)-3),"&lt;=0"),"")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G20" s="4" t="str">
         <f ca="1">IF(MAX(History!20:20)&gt;0,MAX(History!C20:OFFSET(History!C20,0,COUNTA(History!20:20)-3)),"")</f>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="J20" s="3">
         <f ca="1">IF(History!A20&lt;&gt;"",SUM(OFFSET(History!C20,0,COUNT(History!20:20)-IF(COUNT(History!20:20)&lt;=5,COUNT(History!20:20),5)):OFFSET(History!C20,0,COUNT(History!20:20)-1)),"")</f>
-        <v>-69</v>
+        <v>-89</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
@@ -6725,7 +6725,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
@@ -6737,7 +6737,7 @@
     <col min="2" max="2" width="9.375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -6791,11 +6791,14 @@
       <c r="N2" s="3">
         <v>-16</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="3">
         <v>-13</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -6827,7 +6830,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -6853,7 +6856,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -6887,11 +6890,14 @@
       <c r="K5" s="3">
         <v>-101</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="3">
         <v>-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="M5">
+        <v>-69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -6919,12 +6925,14 @@
       <c r="I6" s="3">
         <v>80</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="J6" s="3">
+        <v>-45</v>
+      </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -6941,7 +6949,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -6957,11 +6965,11 @@
       <c r="E8" s="3">
         <v>-118</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>-18</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -7004,11 +7012,14 @@
       <c r="N9" s="3">
         <v>-32</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="3">
         <v>-34</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P9">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -7025,7 +7036,7 @@
         <v>-92</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -7036,7 +7047,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>21</v>
       </c>
@@ -7078,7 +7089,7 @@
       </c>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>22</v>
       </c>
@@ -7096,7 +7107,7 @@
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
         <v>23</v>
       </c>
@@ -7122,7 +7133,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
         <v>24</v>
       </c>
@@ -7139,7 +7150,7 @@
         <v>-32</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
         <v>25</v>
       </c>
@@ -7184,7 +7195,7 @@
       <c r="G17" s="3">
         <v>315</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="3">
         <v>-5</v>
       </c>
     </row>
@@ -7226,6 +7237,9 @@
       </c>
       <c r="D20" s="3">
         <v>-23</v>
+      </c>
+      <c r="E20">
+        <v>-20</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">

--- a/uno/uno_record.xlsx
+++ b/uno/uno_record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ren\Desktop\色々\Data\Discord\HONDA Bot\uno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F929B8F-7E34-4647-9392-3B31DB483BDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4239601E-9BAE-4612-95ED-B80245F34FA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Records" sheetId="1" r:id="rId1"/>
@@ -576,11 +576,11 @@
       </c>
       <c r="C2" s="3">
         <f ca="1">IF(History!A2&lt;&gt;"",SUM(History!B2:OFFSET(History!B2,0,COUNTA(History!2:2)-2)),"")</f>
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="D2" s="8">
         <f t="shared" ref="D2:D33" ca="1" si="0">IFERROR(E2/(E2+F2),"")</f>
-        <v>0.21428571428571427</v>
+        <v>0.2</v>
       </c>
       <c r="E2" s="3">
         <f ca="1">IF(History!A2&lt;&gt;0,COUNTIF(History!C2:OFFSET(History!C2,0,COUNTA(History!2:2)-3),"&gt;0"),"")</f>
@@ -588,7 +588,7 @@
       </c>
       <c r="F2" s="3">
         <f ca="1">IF(History!A2&lt;&gt;0,COUNTIF(History!C2:OFFSET(History!C2,0,COUNTA(History!2:2)-3),"&lt;=0"),"")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="4">
         <f ca="1">IF(MAX(History!2:2)&gt;0,MAX(History!C2:OFFSET(History!C2,0,COUNTA(History!2:2)-3)),"")</f>
@@ -604,7 +604,7 @@
       </c>
       <c r="J2" s="3">
         <f ca="1">SUM(OFFSET(History!C2,0,COUNT(History!2:2)-IF(COUNT(History!2:2)&lt;=5,COUNT(History!2:2),5)):OFFSET(History!C2,0,COUNT(History!2:2)-1))</f>
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
@@ -699,19 +699,19 @@
       </c>
       <c r="C5" s="3">
         <f ca="1">IF(History!A5&lt;&gt;"",SUM(History!B5:OFFSET(History!B5,0,COUNTA(History!5:5)-2)),"")</f>
-        <v>-37</v>
+        <v>21</v>
       </c>
       <c r="D5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18181818181818182</v>
+        <v>0.23076923076923078</v>
       </c>
       <c r="E5" s="3">
         <f ca="1">IF(History!A5&lt;&gt;0,COUNTIF(History!C5:OFFSET(History!C5,0,COUNTA(History!5:5)-3),"&gt;0"),"")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" s="3">
         <f ca="1">IF(History!A5&lt;&gt;0,COUNTIF(History!C5:OFFSET(History!C5,0,COUNTA(History!5:5)-3),"&lt;=0"),"")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G5" s="4">
         <f ca="1">IF(MAX(History!5:5)&gt;0,MAX(History!C5:OFFSET(History!C5,0,COUNTA(History!5:5)-3)),"")</f>
@@ -727,7 +727,7 @@
       </c>
       <c r="J5" s="3">
         <f ca="1">SUM(OFFSET(History!C5,0,COUNT(History!5:5)-IF(COUNT(History!5:5)&lt;=5,COUNT(History!5:5),5)):OFFSET(History!C5,0,COUNT(History!5:5)-1))</f>
-        <v>-187</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
@@ -740,23 +740,23 @@
       </c>
       <c r="C6" s="3">
         <f ca="1">IF(History!A6&lt;&gt;"",SUM(History!B6:OFFSET(History!B6,0,COUNTA(History!6:6)-2)),"")</f>
-        <v>-10</v>
+        <v>89</v>
       </c>
       <c r="D6" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="E6" s="3">
         <f ca="1">IF(History!A6&lt;&gt;0,COUNTIF(History!C6:OFFSET(History!C6,0,COUNTA(History!6:6)-3),"&gt;0"),"")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" s="3">
         <f ca="1">IF(History!A6&lt;&gt;0,COUNTIF(History!C6:OFFSET(History!C6,0,COUNTA(History!6:6)-3),"&lt;=0"),"")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G6" s="4">
         <f ca="1">IF(MAX(History!6:6)&gt;0,MAX(History!C6:OFFSET(History!C6,0,COUNTA(History!6:6)-3)),"")</f>
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="H6" s="4">
         <f ca="1">IF(History!A6&lt;&gt;0,MIN(History!C6:OFFSET(History!C6,0,COUNTA(History!6:6)-3)),"")</f>
@@ -768,7 +768,7 @@
       </c>
       <c r="J6" s="3">
         <f ca="1">SUM(OFFSET(History!C6,0,COUNT(History!6:6)-IF(COUNT(History!6:6)&lt;=5,COUNT(History!6:6),5)):OFFSET(History!C6,0,COUNT(History!6:6)-1))</f>
-        <v>-20</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
@@ -863,7 +863,7 @@
       </c>
       <c r="C9" s="3">
         <f ca="1">IF(History!A9&lt;&gt;"",SUM(History!B9:OFFSET(History!B9,0,COUNTA(History!9:9)-2)),"")</f>
-        <v>-395</v>
+        <v>-518</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" ca="1" si="0"/>
@@ -875,7 +875,7 @@
       </c>
       <c r="F9" s="3">
         <f ca="1">IF(History!A9&lt;&gt;0,COUNTIF(History!C9:OFFSET(History!C9,0,COUNTA(History!9:9)-3),"&lt;=0"),"")</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G9" s="4" t="str">
         <f ca="1">IF(MAX(History!9:9)&gt;0,MAX(History!C9:OFFSET(History!C9,0,COUNTA(History!9:9)-3)),"")</f>
@@ -891,7 +891,7 @@
       </c>
       <c r="J9" s="3">
         <f ca="1">SUM(OFFSET(History!C9,0,COUNT(History!9:9)-IF(COUNT(History!9:9)&lt;=5,COUNT(History!9:9),5)):OFFSET(History!C9,0,COUNT(History!9:9)-1))</f>
-        <v>-185</v>
+        <v>-194</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="C20" s="3">
         <f ca="1">IF(History!A20&lt;&gt;"",SUM(History!B20:OFFSET(History!B20,0,COUNTA(History!20:20)-2)),"")</f>
-        <v>-89</v>
+        <v>-98</v>
       </c>
       <c r="D20" s="8">
         <f t="shared" ca="1" si="0"/>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="F20" s="3">
         <f ca="1">IF(History!A20&lt;&gt;0,COUNTIF(History!C20:OFFSET(History!C20,0,COUNTA(History!20:20)-3),"&lt;=0"),"")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G20" s="4" t="str">
         <f ca="1">IF(MAX(History!20:20)&gt;0,MAX(History!C20:OFFSET(History!C20,0,COUNTA(History!20:20)-3)),"")</f>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="J20" s="3">
         <f ca="1">IF(History!A20&lt;&gt;"",SUM(OFFSET(History!C20,0,COUNT(History!20:20)-IF(COUNT(History!20:20)&lt;=5,COUNT(History!20:20),5)):OFFSET(History!C20,0,COUNT(History!20:20)-1)),"")</f>
-        <v>-89</v>
+        <v>-98</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
@@ -6725,7 +6725,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
@@ -6737,7 +6737,7 @@
     <col min="2" max="2" width="9.375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -6794,11 +6794,14 @@
       <c r="O2" s="3">
         <v>-13</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="3">
         <v>139</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q2" s="3">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -6830,7 +6833,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -6856,7 +6859,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -6893,11 +6896,17 @@
       <c r="L5" s="3">
         <v>-2</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="3">
         <v>-69</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="N5" s="3">
+        <v>-26</v>
+      </c>
+      <c r="O5">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -6928,11 +6937,15 @@
       <c r="J6" s="3">
         <v>-45</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="K6" s="3">
+        <v>152</v>
+      </c>
+      <c r="L6" s="3">
+        <v>-53</v>
+      </c>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -6949,7 +6962,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -6969,7 +6982,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -7015,11 +7028,17 @@
       <c r="O9" s="3">
         <v>-34</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="3">
         <v>-5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q9" s="3">
+        <v>-92</v>
+      </c>
+      <c r="R9">
+        <v>-31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -7036,7 +7055,7 @@
         <v>-92</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -7047,7 +7066,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>21</v>
       </c>
@@ -7089,7 +7108,7 @@
       </c>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>22</v>
       </c>
@@ -7107,7 +7126,7 @@
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
         <v>23</v>
       </c>
@@ -7133,7 +7152,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
         <v>24</v>
       </c>
@@ -7150,7 +7169,7 @@
         <v>-32</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
         <v>25</v>
       </c>
@@ -7238,8 +7257,11 @@
       <c r="D20" s="3">
         <v>-23</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="3">
         <v>-20</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-9</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">

--- a/uno/uno_record.xlsx
+++ b/uno/uno_record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ren\Desktop\色々\Data\Discord\HONDA Bot\uno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4239601E-9BAE-4612-95ED-B80245F34FA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69864A44-79F4-4375-A650-721C696AE8EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Records" sheetId="1" r:id="rId1"/>
@@ -576,11 +576,11 @@
       </c>
       <c r="C2" s="3">
         <f ca="1">IF(History!A2&lt;&gt;"",SUM(History!B2:OFFSET(History!B2,0,COUNTA(History!2:2)-2)),"")</f>
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="D2" s="8">
         <f t="shared" ref="D2:D33" ca="1" si="0">IFERROR(E2/(E2+F2),"")</f>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E2" s="3">
         <f ca="1">IF(History!A2&lt;&gt;0,COUNTIF(History!C2:OFFSET(History!C2,0,COUNTA(History!2:2)-3),"&gt;0"),"")</f>
@@ -588,7 +588,7 @@
       </c>
       <c r="F2" s="3">
         <f ca="1">IF(History!A2&lt;&gt;0,COUNTIF(History!C2:OFFSET(History!C2,0,COUNTA(History!2:2)-3),"&lt;=0"),"")</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G2" s="4">
         <f ca="1">IF(MAX(History!2:2)&gt;0,MAX(History!C2:OFFSET(History!C2,0,COUNTA(History!2:2)-3)),"")</f>
@@ -604,7 +604,7 @@
       </c>
       <c r="J2" s="3">
         <f ca="1">SUM(OFFSET(History!C2,0,COUNT(History!2:2)-IF(COUNT(History!2:2)&lt;=5,COUNT(History!2:2),5)):OFFSET(History!C2,0,COUNT(History!2:2)-1))</f>
-        <v>85</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
@@ -699,11 +699,11 @@
       </c>
       <c r="C5" s="3">
         <f ca="1">IF(History!A5&lt;&gt;"",SUM(History!B5:OFFSET(History!B5,0,COUNTA(History!5:5)-2)),"")</f>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23076923076923078</v>
+        <v>0.2</v>
       </c>
       <c r="E5" s="3">
         <f ca="1">IF(History!A5&lt;&gt;0,COUNTIF(History!C5:OFFSET(History!C5,0,COUNTA(History!5:5)-3),"&gt;0"),"")</f>
@@ -711,7 +711,7 @@
       </c>
       <c r="F5" s="3">
         <f ca="1">IF(History!A5&lt;&gt;0,COUNTIF(History!C5:OFFSET(History!C5,0,COUNTA(History!5:5)-3),"&lt;=0"),"")</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G5" s="4">
         <f ca="1">IF(MAX(History!5:5)&gt;0,MAX(History!C5:OFFSET(History!C5,0,COUNTA(History!5:5)-3)),"")</f>
@@ -727,7 +727,7 @@
       </c>
       <c r="J5" s="3">
         <f ca="1">SUM(OFFSET(History!C5,0,COUNT(History!5:5)-IF(COUNT(History!5:5)&lt;=5,COUNT(History!5:5),5)):OFFSET(History!C5,0,COUNT(History!5:5)-1))</f>
-        <v>-13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
@@ -740,19 +740,19 @@
       </c>
       <c r="C6" s="3">
         <f ca="1">IF(History!A6&lt;&gt;"",SUM(History!B6:OFFSET(History!B6,0,COUNTA(History!6:6)-2)),"")</f>
-        <v>89</v>
+        <v>155</v>
       </c>
       <c r="D6" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3</v>
+        <v>0.30769230769230771</v>
       </c>
       <c r="E6" s="3">
         <f ca="1">IF(History!A6&lt;&gt;0,COUNTIF(History!C6:OFFSET(History!C6,0,COUNTA(History!6:6)-3),"&gt;0"),"")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" s="3">
         <f ca="1">IF(History!A6&lt;&gt;0,COUNTIF(History!C6:OFFSET(History!C6,0,COUNTA(History!6:6)-3),"&lt;=0"),"")</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G6" s="4">
         <f ca="1">IF(MAX(History!6:6)&gt;0,MAX(History!C6:OFFSET(History!C6,0,COUNTA(History!6:6)-3)),"")</f>
@@ -768,7 +768,7 @@
       </c>
       <c r="J6" s="3">
         <f ca="1">SUM(OFFSET(History!C6,0,COUNT(History!6:6)-IF(COUNT(History!6:6)&lt;=5,COUNT(History!6:6),5)):OFFSET(History!C6,0,COUNT(History!6:6)-1))</f>
-        <v>126</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
@@ -863,23 +863,23 @@
       </c>
       <c r="C9" s="3">
         <f ca="1">IF(History!A9&lt;&gt;"",SUM(History!B9:OFFSET(History!B9,0,COUNTA(History!9:9)-2)),"")</f>
-        <v>-518</v>
+        <v>-516</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="E9" s="3">
         <f ca="1">IF(History!A9&lt;&gt;0,COUNTIF(History!C9:OFFSET(History!C9,0,COUNTA(History!9:9)-3),"&gt;0"),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="3">
         <f ca="1">IF(History!A9&lt;&gt;0,COUNTIF(History!C9:OFFSET(History!C9,0,COUNTA(History!9:9)-3),"&lt;=0"),"")</f>
-        <v>16</v>
-      </c>
-      <c r="G9" s="4" t="str">
+        <v>18</v>
+      </c>
+      <c r="G9" s="4">
         <f ca="1">IF(MAX(History!9:9)&gt;0,MAX(History!C9:OFFSET(History!C9,0,COUNTA(History!9:9)-3)),"")</f>
-        <v/>
+        <v>36</v>
       </c>
       <c r="H9" s="4">
         <f ca="1">IF(History!A9&lt;&gt;0,MIN(History!C9:OFFSET(History!C9,0,COUNTA(History!9:9)-3)),"")</f>
@@ -891,7 +891,7 @@
       </c>
       <c r="J9" s="3">
         <f ca="1">SUM(OFFSET(History!C9,0,COUNT(History!9:9)-IF(COUNT(History!9:9)&lt;=5,COUNT(History!9:9),5)):OFFSET(History!C9,0,COUNT(History!9:9)-1))</f>
-        <v>-194</v>
+        <v>-121</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
@@ -1232,23 +1232,23 @@
       </c>
       <c r="C18" s="3">
         <f ca="1">IF(History!A18&lt;&gt;"",SUM(History!B18:OFFSET(History!B18,0,COUNTA(History!18:18)-2)),"")</f>
-        <v>-37</v>
+        <v>22</v>
       </c>
       <c r="D18" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E18" s="3">
         <f ca="1">IF(History!A18&lt;&gt;0,COUNTIF(History!C18:OFFSET(History!C18,0,COUNTA(History!18:18)-3),"&gt;0"),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="3">
         <f ca="1">IF(History!A18&lt;&gt;0,COUNTIF(History!C18:OFFSET(History!C18,0,COUNTA(History!18:18)-3),"&lt;=0"),"")</f>
-        <v>2</v>
-      </c>
-      <c r="G18" s="4" t="str">
+        <v>4</v>
+      </c>
+      <c r="G18" s="4">
         <f ca="1">IF(MAX(History!18:18)&gt;0,MAX(History!C18:OFFSET(History!C18,0,COUNTA(History!18:18)-3)),"")</f>
-        <v/>
+        <v>95</v>
       </c>
       <c r="H18" s="4">
         <f ca="1">IF(History!A18&lt;&gt;0,MIN(History!C18:OFFSET(History!C18,0,COUNTA(History!18:18)-3)),"")</f>
@@ -1260,7 +1260,7 @@
       </c>
       <c r="J18" s="3">
         <f ca="1">IF(History!A18&lt;&gt;"",SUM(OFFSET(History!C18,0,COUNT(History!18:18)-IF(COUNT(History!18:18)&lt;=5,COUNT(History!18:18),5)):OFFSET(History!C18,0,COUNT(History!18:18)-1)),"")</f>
-        <v>-37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="C20" s="3">
         <f ca="1">IF(History!A20&lt;&gt;"",SUM(History!B20:OFFSET(History!B20,0,COUNTA(History!20:20)-2)),"")</f>
-        <v>-98</v>
+        <v>-159</v>
       </c>
       <c r="D20" s="8">
         <f t="shared" ca="1" si="0"/>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="F20" s="3">
         <f ca="1">IF(History!A20&lt;&gt;0,COUNTIF(History!C20:OFFSET(History!C20,0,COUNTA(History!20:20)-3),"&lt;=0"),"")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G20" s="4" t="str">
         <f ca="1">IF(MAX(History!20:20)&gt;0,MAX(History!C20:OFFSET(History!C20,0,COUNTA(History!20:20)-3)),"")</f>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="J20" s="3">
         <f ca="1">IF(History!A20&lt;&gt;"",SUM(OFFSET(History!C20,0,COUNT(History!20:20)-IF(COUNT(History!20:20)&lt;=5,COUNT(History!20:20),5)):OFFSET(History!C20,0,COUNT(History!20:20)-1)),"")</f>
-        <v>-98</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
@@ -6725,7 +6725,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
@@ -6737,7 +6737,7 @@
     <col min="2" max="2" width="9.375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -6800,8 +6800,17 @@
       <c r="Q2" s="3">
         <v>-25</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="R2" s="3">
+        <v>-22</v>
+      </c>
+      <c r="S2" s="3">
+        <v>-16</v>
+      </c>
+      <c r="T2">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -6833,7 +6842,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -6859,7 +6868,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -6902,11 +6911,17 @@
       <c r="N5" s="3">
         <v>-26</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="3">
         <v>84</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="P5" s="3">
+        <v>-20</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -6943,9 +6958,17 @@
       <c r="L6" s="3">
         <v>-53</v>
       </c>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="M6" s="3">
+        <v>94</v>
+      </c>
+      <c r="N6" s="3">
+        <v>-13</v>
+      </c>
+      <c r="O6">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -6962,7 +6985,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -6982,7 +7005,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -7034,11 +7057,20 @@
       <c r="Q9" s="3">
         <v>-92</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="3">
         <v>-31</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="S9" s="3">
+        <v>-10</v>
+      </c>
+      <c r="T9" s="3">
+        <v>-24</v>
+      </c>
+      <c r="U9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -7055,7 +7087,7 @@
         <v>-92</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -7066,7 +7098,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>21</v>
       </c>
@@ -7108,7 +7140,7 @@
       </c>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>22</v>
       </c>
@@ -7126,7 +7158,7 @@
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
         <v>23</v>
       </c>
@@ -7152,7 +7184,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
         <v>24</v>
       </c>
@@ -7169,7 +7201,7 @@
         <v>-32</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
         <v>25</v>
       </c>
@@ -7231,6 +7263,15 @@
       <c r="D18" s="3">
         <v>-8</v>
       </c>
+      <c r="E18" s="3">
+        <v>-22</v>
+      </c>
+      <c r="F18" s="3">
+        <v>95</v>
+      </c>
+      <c r="G18">
+        <v>-14</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
@@ -7262,6 +7303,12 @@
       </c>
       <c r="F20" s="3">
         <v>-9</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-20</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-41</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">

--- a/uno/uno_record.xlsx
+++ b/uno/uno_record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ren\Desktop\色々\Data\Discord\HONDA Bot\uno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69864A44-79F4-4375-A650-721C696AE8EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63B93AB8-D842-4EC1-9E9D-21B67E0F7E91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Records" sheetId="1" r:id="rId1"/>
@@ -6806,7 +6806,7 @@
       <c r="S2" s="3">
         <v>-16</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="3">
         <v>-7</v>
       </c>
     </row>
@@ -6964,7 +6964,7 @@
       <c r="N6" s="3">
         <v>-13</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="3">
         <v>-15</v>
       </c>
     </row>
@@ -7066,7 +7066,7 @@
       <c r="T9" s="3">
         <v>-24</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="3">
         <v>36</v>
       </c>
     </row>
@@ -7269,7 +7269,7 @@
       <c r="F18" s="3">
         <v>95</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="3">
         <v>-14</v>
       </c>
     </row>

--- a/uno/uno_record.xlsx
+++ b/uno/uno_record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ren\Desktop\色々\Data\Discord\HONDA Bot\uno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63B93AB8-D842-4EC1-9E9D-21B67E0F7E91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{08142E0B-A27C-4845-8D9A-4EF6E2C263E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Records" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
   <si>
     <t>Player ID</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>476389055517425664</t>
+  </si>
+  <si>
+    <t>713541431998021734</t>
   </si>
 </sst>
 </file>
@@ -576,23 +579,23 @@
       </c>
       <c r="C2" s="3">
         <f ca="1">IF(History!A2&lt;&gt;"",SUM(History!B2:OFFSET(History!B2,0,COUNTA(History!2:2)-2)),"")</f>
-        <v>71</v>
+        <v>547</v>
       </c>
       <c r="D2" s="8">
         <f t="shared" ref="D2:D33" ca="1" si="0">IFERROR(E2/(E2+F2),"")</f>
-        <v>0.16666666666666666</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="E2" s="3">
         <f ca="1">IF(History!A2&lt;&gt;0,COUNTIF(History!C2:OFFSET(History!C2,0,COUNTA(History!2:2)-3),"&gt;0"),"")</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3">
         <f ca="1">IF(History!A2&lt;&gt;0,COUNTIF(History!C2:OFFSET(History!C2,0,COUNTA(History!2:2)-3),"&lt;=0"),"")</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G2" s="4">
         <f ca="1">IF(MAX(History!2:2)&gt;0,MAX(History!C2:OFFSET(History!C2,0,COUNTA(History!2:2)-3)),"")</f>
-        <v>164</v>
+        <v>389</v>
       </c>
       <c r="H2" s="4">
         <f ca="1">IF(History!A2&lt;&gt;0,MIN(History!C2:OFFSET(History!C2,0,COUNTA(History!2:2)-3)),"")</f>
@@ -604,7 +607,7 @@
       </c>
       <c r="J2" s="3">
         <f ca="1">SUM(OFFSET(History!C2,0,COUNT(History!2:2)-IF(COUNT(History!2:2)&lt;=5,COUNT(History!2:2),5)):OFFSET(History!C2,0,COUNT(History!2:2)-1))</f>
-        <v>-70</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
@@ -1191,11 +1194,11 @@
       </c>
       <c r="C17" s="3">
         <f ca="1">IF(History!A17&lt;&gt;"",SUM(History!B17:OFFSET(History!B17,0,COUNTA(History!17:17)-2)),"")</f>
-        <v>197</v>
+        <v>142</v>
       </c>
       <c r="D17" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.1</v>
       </c>
       <c r="E17" s="3">
         <f ca="1">IF(History!A17&lt;&gt;0,COUNTIF(History!C17:OFFSET(History!C17,0,COUNTA(History!17:17)-3),"&gt;0"),"")</f>
@@ -1203,7 +1206,7 @@
       </c>
       <c r="F17" s="3">
         <f ca="1">IF(History!A17&lt;&gt;0,COUNTIF(History!C17:OFFSET(History!C17,0,COUNTA(History!17:17)-3),"&lt;=0"),"")</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G17" s="4">
         <f ca="1">IF(MAX(History!17:17)&gt;0,MAX(History!C17:OFFSET(History!C17,0,COUNTA(History!17:17)-3)),"")</f>
@@ -1219,7 +1222,7 @@
       </c>
       <c r="J17" s="3">
         <f ca="1">IF(History!A17&lt;&gt;"",SUM(OFFSET(History!C17,0,COUNT(History!17:17)-IF(COUNT(History!17:17)&lt;=5,COUNT(History!17:17),5)):OFFSET(History!C17,0,COUNT(History!17:17)-1)),"")</f>
-        <v>226</v>
+        <v>-60</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
@@ -1392,39 +1395,39 @@
       </c>
       <c r="B22" s="7" t="str">
         <f>IF(History!A22&lt;&gt;"",History!A22,"")</f>
-        <v/>
-      </c>
-      <c r="C22" s="3" t="str">
+        <v>713541431998021734</v>
+      </c>
+      <c r="C22" s="3">
         <f ca="1">IF(History!A22&lt;&gt;"",SUM(History!B22:OFFSET(History!B22,0,COUNTA(History!22:22)-2)),"")</f>
-        <v/>
-      </c>
-      <c r="D22" s="8" t="str">
+        <v>-421</v>
+      </c>
+      <c r="D22" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="E22" s="3" t="str">
+        <v>0.4</v>
+      </c>
+      <c r="E22" s="3">
         <f ca="1">IF(History!A22&lt;&gt;0,COUNTIF(History!C22:OFFSET(History!C22,0,COUNTA(History!22:22)-3),"&gt;0"),"")</f>
-        <v/>
-      </c>
-      <c r="F22" s="3" t="str">
+        <v>2</v>
+      </c>
+      <c r="F22" s="3">
         <f ca="1">IF(History!A22&lt;&gt;0,COUNTIF(History!C22:OFFSET(History!C22,0,COUNTA(History!22:22)-3),"&lt;=0"),"")</f>
-        <v/>
-      </c>
-      <c r="G22" s="4" t="str">
+        <v>3</v>
+      </c>
+      <c r="G22" s="4">
         <f ca="1">IF(MAX(History!22:22)&gt;0,MAX(History!C22:OFFSET(History!C22,0,COUNTA(History!22:22)-3)),"")</f>
-        <v/>
-      </c>
-      <c r="H22" s="4" t="str">
+        <v>52</v>
+      </c>
+      <c r="H22" s="4">
         <f ca="1">IF(History!A22&lt;&gt;0,MIN(History!C22:OFFSET(History!C22,0,COUNTA(History!22:22)-3)),"")</f>
-        <v/>
-      </c>
-      <c r="I22" s="4" t="str">
+        <v>-389</v>
+      </c>
+      <c r="I22" s="4">
         <f>IF(History!A22&lt;&gt;"",History!B22,"")</f>
-        <v/>
-      </c>
-      <c r="J22" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <f ca="1">IF(History!A22&lt;&gt;"",SUM(OFFSET(History!C22,0,COUNT(History!22:22)-IF(COUNT(History!22:22)&lt;=5,COUNT(History!22:22),5)):OFFSET(History!C22,0,COUNT(History!22:22)-1)),"")</f>
-        <v/>
+        <v>-32</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
@@ -6725,7 +6728,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:Y22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
@@ -6737,7 +6740,7 @@
     <col min="2" max="2" width="9.375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6748,7 +6751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -6809,8 +6812,23 @@
       <c r="T2" s="3">
         <v>-7</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="U2" s="3">
+        <v>389</v>
+      </c>
+      <c r="V2" s="3">
+        <v>-5</v>
+      </c>
+      <c r="W2" s="3">
+        <v>97</v>
+      </c>
+      <c r="X2" s="3">
+        <v>24</v>
+      </c>
+      <c r="Y2">
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -6842,7 +6860,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -6868,7 +6886,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -6921,7 +6939,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -6968,7 +6986,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -6985,7 +7003,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -7005,7 +7023,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -7070,7 +7088,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -7087,7 +7105,7 @@
         <v>-92</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -7098,7 +7116,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>21</v>
       </c>
@@ -7140,7 +7158,7 @@
       </c>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>22</v>
       </c>
@@ -7158,7 +7176,7 @@
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
         <v>23</v>
       </c>
@@ -7184,7 +7202,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
         <v>24</v>
       </c>
@@ -7201,7 +7219,7 @@
         <v>-32</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
         <v>25</v>
       </c>
@@ -7224,7 +7242,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
         <v>26</v>
       </c>
@@ -7249,8 +7267,20 @@
       <c r="H17" s="3">
         <v>-5</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I17" s="3">
+        <v>-11</v>
+      </c>
+      <c r="J17" s="3">
+        <v>-15</v>
+      </c>
+      <c r="K17" s="3">
+        <v>-6</v>
+      </c>
+      <c r="L17">
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
         <v>27</v>
       </c>
@@ -7273,7 +7303,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
         <v>28</v>
       </c>
@@ -7285,7 +7315,7 @@
       </c>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
@@ -7311,7 +7341,7 @@
         <v>-41</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
         <v>30</v>
       </c>
@@ -7328,8 +7358,28 @@
         <v>-36</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="D22" s="5"/>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>-389</v>
+      </c>
+      <c r="D22" s="5">
+        <v>16</v>
+      </c>
+      <c r="E22" s="3">
+        <v>-82</v>
+      </c>
+      <c r="F22" s="3">
+        <v>-18</v>
+      </c>
+      <c r="G22">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/uno/uno_record.xlsx
+++ b/uno/uno_record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ren\Desktop\色々\Data\Discord\HONDA Bot\uno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08142E0B-A27C-4845-8D9A-4EF6E2C263E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C803846C-0C5F-49C5-B697-A7EF10A97A3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Records" sheetId="1" r:id="rId1"/>
@@ -579,11 +579,11 @@
       </c>
       <c r="C2" s="3">
         <f ca="1">IF(History!A2&lt;&gt;"",SUM(History!B2:OFFSET(History!B2,0,COUNTA(History!2:2)-2)),"")</f>
-        <v>547</v>
+        <v>421</v>
       </c>
       <c r="D2" s="8">
         <f t="shared" ref="D2:D33" ca="1" si="0">IFERROR(E2/(E2+F2),"")</f>
-        <v>0.2608695652173913</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="E2" s="3">
         <f ca="1">IF(History!A2&lt;&gt;0,COUNTIF(History!C2:OFFSET(History!C2,0,COUNTA(History!2:2)-3),"&gt;0"),"")</f>
@@ -591,7 +591,7 @@
       </c>
       <c r="F2" s="3">
         <f ca="1">IF(History!A2&lt;&gt;0,COUNTIF(History!C2:OFFSET(History!C2,0,COUNTA(History!2:2)-3),"&lt;=0"),"")</f>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G2" s="4">
         <f ca="1">IF(MAX(History!2:2)&gt;0,MAX(History!C2:OFFSET(History!C2,0,COUNTA(History!2:2)-3)),"")</f>
@@ -607,7 +607,7 @@
       </c>
       <c r="J2" s="3">
         <f ca="1">SUM(OFFSET(History!C2,0,COUNT(History!2:2)-IF(COUNT(History!2:2)&lt;=5,COUNT(History!2:2),5)):OFFSET(History!C2,0,COUNT(History!2:2)-1))</f>
-        <v>87</v>
+        <v>-126</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
@@ -1194,19 +1194,19 @@
       </c>
       <c r="C17" s="3">
         <f ca="1">IF(History!A17&lt;&gt;"",SUM(History!B17:OFFSET(History!B17,0,COUNTA(History!17:17)-2)),"")</f>
-        <v>142</v>
+        <v>275</v>
       </c>
       <c r="D17" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E17" s="3">
         <f ca="1">IF(History!A17&lt;&gt;0,COUNTIF(History!C17:OFFSET(History!C17,0,COUNTA(History!17:17)-3),"&gt;0"),"")</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F17" s="3">
         <f ca="1">IF(History!A17&lt;&gt;0,COUNTIF(History!C17:OFFSET(History!C17,0,COUNTA(History!17:17)-3),"&lt;=0"),"")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G17" s="4">
         <f ca="1">IF(MAX(History!17:17)&gt;0,MAX(History!C17:OFFSET(History!C17,0,COUNTA(History!17:17)-3)),"")</f>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="J17" s="3">
         <f ca="1">IF(History!A17&lt;&gt;"",SUM(OFFSET(History!C17,0,COUNT(History!17:17)-IF(COUNT(History!17:17)&lt;=5,COUNT(History!17:17),5)):OFFSET(History!C17,0,COUNT(History!17:17)-1)),"")</f>
-        <v>-60</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
@@ -1399,23 +1399,23 @@
       </c>
       <c r="C22" s="3">
         <f ca="1">IF(History!A22&lt;&gt;"",SUM(History!B22:OFFSET(History!B22,0,COUNTA(History!22:22)-2)),"")</f>
-        <v>-421</v>
+        <v>-428</v>
       </c>
       <c r="D22" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E22" s="3">
         <f ca="1">IF(History!A22&lt;&gt;0,COUNTIF(History!C22:OFFSET(History!C22,0,COUNTA(History!22:22)-3),"&gt;0"),"")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22" s="3">
         <f ca="1">IF(History!A22&lt;&gt;0,COUNTIF(History!C22:OFFSET(History!C22,0,COUNTA(History!22:22)-3),"&lt;=0"),"")</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G22" s="4">
         <f ca="1">IF(MAX(History!22:22)&gt;0,MAX(History!C22:OFFSET(History!C22,0,COUNTA(History!22:22)-3)),"")</f>
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="H22" s="4">
         <f ca="1">IF(History!A22&lt;&gt;0,MIN(History!C22:OFFSET(History!C22,0,COUNTA(History!22:22)-3)),"")</f>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="J22" s="3">
         <f ca="1">IF(History!A22&lt;&gt;"",SUM(OFFSET(History!C22,0,COUNT(History!22:22)-IF(COUNT(History!22:22)&lt;=5,COUNT(History!22:22),5)):OFFSET(History!C22,0,COUNT(History!22:22)-1)),"")</f>
-        <v>-32</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
@@ -6728,7 +6728,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y22"/>
+  <dimension ref="A1:AC22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
@@ -6740,7 +6740,7 @@
     <col min="2" max="2" width="9.375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -6824,11 +6824,23 @@
       <c r="X2" s="3">
         <v>24</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="3">
         <v>-29</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="Z2" s="3">
+        <v>-15</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>-2</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>-67</v>
+      </c>
+      <c r="AC2">
+        <v>-42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -6860,7 +6872,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -6886,7 +6898,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -6939,7 +6951,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -6986,7 +6998,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -7003,7 +7015,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -7023,7 +7035,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -7088,7 +7100,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -7105,7 +7117,7 @@
         <v>-92</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -7116,7 +7128,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>21</v>
       </c>
@@ -7158,7 +7170,7 @@
       </c>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>22</v>
       </c>
@@ -7176,7 +7188,7 @@
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
         <v>23</v>
       </c>
@@ -7202,7 +7214,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
         <v>24</v>
       </c>
@@ -7219,7 +7231,7 @@
         <v>-32</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
         <v>25</v>
       </c>
@@ -7242,7 +7254,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
         <v>26</v>
       </c>
@@ -7276,11 +7288,23 @@
       <c r="K17" s="3">
         <v>-6</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="3">
         <v>-23</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M17" s="3">
+        <v>50</v>
+      </c>
+      <c r="N17" s="3">
+        <v>14</v>
+      </c>
+      <c r="O17" s="3">
+        <v>-6</v>
+      </c>
+      <c r="P17">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
         <v>27</v>
       </c>
@@ -7303,7 +7327,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
         <v>28</v>
       </c>
@@ -7315,7 +7339,7 @@
       </c>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
@@ -7341,7 +7365,7 @@
         <v>-41</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
         <v>30</v>
       </c>
@@ -7358,7 +7382,7 @@
         <v>-36</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
         <v>31</v>
       </c>
@@ -7377,8 +7401,20 @@
       <c r="F22" s="3">
         <v>-18</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="3">
         <v>52</v>
+      </c>
+      <c r="H22" s="3">
+        <v>-35</v>
+      </c>
+      <c r="I22" s="3">
+        <v>-12</v>
+      </c>
+      <c r="J22" s="3">
+        <v>73</v>
+      </c>
+      <c r="K22">
+        <v>-33</v>
       </c>
     </row>
   </sheetData>

--- a/uno/uno_record.xlsx
+++ b/uno/uno_record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ren\Desktop\色々\Data\Discord\HONDA Bot\uno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C803846C-0C5F-49C5-B697-A7EF10A97A3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A27A0D1-196D-489B-9342-A92BAF11EA25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Records" sheetId="1" r:id="rId1"/>
@@ -579,19 +579,19 @@
       </c>
       <c r="C2" s="3">
         <f ca="1">IF(History!A2&lt;&gt;"",SUM(History!B2:OFFSET(History!B2,0,COUNTA(History!2:2)-2)),"")</f>
-        <v>421</v>
+        <v>641</v>
       </c>
       <c r="D2" s="8">
         <f t="shared" ref="D2:D33" ca="1" si="0">IFERROR(E2/(E2+F2),"")</f>
-        <v>0.22222222222222221</v>
+        <v>0.2413793103448276</v>
       </c>
       <c r="E2" s="3">
         <f ca="1">IF(History!A2&lt;&gt;0,COUNTIF(History!C2:OFFSET(History!C2,0,COUNTA(History!2:2)-3),"&gt;0"),"")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" s="3">
         <f ca="1">IF(History!A2&lt;&gt;0,COUNTIF(History!C2:OFFSET(History!C2,0,COUNTA(History!2:2)-3),"&lt;=0"),"")</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="4">
         <f ca="1">IF(MAX(History!2:2)&gt;0,MAX(History!C2:OFFSET(History!C2,0,COUNTA(History!2:2)-3)),"")</f>
@@ -607,7 +607,7 @@
       </c>
       <c r="J2" s="3">
         <f ca="1">SUM(OFFSET(History!C2,0,COUNT(History!2:2)-IF(COUNT(History!2:2)&lt;=5,COUNT(History!2:2),5)):OFFSET(History!C2,0,COUNT(History!2:2)-1))</f>
-        <v>-126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
@@ -1194,11 +1194,11 @@
       </c>
       <c r="C17" s="3">
         <f ca="1">IF(History!A17&lt;&gt;"",SUM(History!B17:OFFSET(History!B17,0,COUNTA(History!17:17)-2)),"")</f>
-        <v>275</v>
+        <v>76</v>
       </c>
       <c r="D17" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="E17" s="3">
         <f ca="1">IF(History!A17&lt;&gt;0,COUNTIF(History!C17:OFFSET(History!C17,0,COUNTA(History!17:17)-3),"&gt;0"),"")</f>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="F17" s="3">
         <f ca="1">IF(History!A17&lt;&gt;0,COUNTIF(History!C17:OFFSET(History!C17,0,COUNTA(History!17:17)-3),"&lt;=0"),"")</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G17" s="4">
         <f ca="1">IF(MAX(History!17:17)&gt;0,MAX(History!C17:OFFSET(History!C17,0,COUNTA(History!17:17)-3)),"")</f>
@@ -1214,7 +1214,7 @@
       </c>
       <c r="H17" s="4">
         <f ca="1">IF(History!A17&lt;&gt;0,MIN(History!C17:OFFSET(History!C17,0,COUNTA(History!17:17)-3)),"")</f>
-        <v>-77</v>
+        <v>-161</v>
       </c>
       <c r="I17" s="4" t="str">
         <f>IF(History!A17&lt;&gt;"",History!B17,"")</f>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="J17" s="3">
         <f ca="1">IF(History!A17&lt;&gt;"",SUM(OFFSET(History!C17,0,COUNT(History!17:17)-IF(COUNT(History!17:17)&lt;=5,COUNT(History!17:17),5)):OFFSET(History!C17,0,COUNT(History!17:17)-1)),"")</f>
-        <v>110</v>
+        <v>-116</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
@@ -1399,19 +1399,19 @@
       </c>
       <c r="C22" s="3">
         <f ca="1">IF(History!A22&lt;&gt;"",SUM(History!B22:OFFSET(History!B22,0,COUNTA(History!22:22)-2)),"")</f>
-        <v>-428</v>
+        <v>-449</v>
       </c>
       <c r="D22" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="E22" s="3">
         <f ca="1">IF(History!A22&lt;&gt;0,COUNTIF(History!C22:OFFSET(History!C22,0,COUNTA(History!22:22)-3),"&gt;0"),"")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F22" s="3">
         <f ca="1">IF(History!A22&lt;&gt;0,COUNTIF(History!C22:OFFSET(History!C22,0,COUNTA(History!22:22)-3),"&lt;=0"),"")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G22" s="4">
         <f ca="1">IF(MAX(History!22:22)&gt;0,MAX(History!C22:OFFSET(History!C22,0,COUNTA(History!22:22)-3)),"")</f>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="J22" s="3">
         <f ca="1">IF(History!A22&lt;&gt;"",SUM(OFFSET(History!C22,0,COUNT(History!22:22)-IF(COUNT(History!22:22)&lt;=5,COUNT(History!22:22),5)):OFFSET(History!C22,0,COUNT(History!22:22)-1)),"")</f>
-        <v>-7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
@@ -6728,7 +6728,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AC22"/>
+  <dimension ref="A1:AE22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
@@ -6740,7 +6740,7 @@
     <col min="2" max="2" width="9.375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -6836,11 +6836,17 @@
       <c r="AB2" s="3">
         <v>-67</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" s="3">
         <v>-42</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="AD2" s="3">
+        <v>-20</v>
+      </c>
+      <c r="AE2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -6872,7 +6878,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -6898,7 +6904,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -6951,7 +6957,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -6998,7 +7004,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -7015,7 +7021,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -7035,7 +7041,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -7100,7 +7106,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -7117,7 +7123,7 @@
         <v>-92</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -7128,7 +7134,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>21</v>
       </c>
@@ -7170,7 +7176,7 @@
       </c>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>22</v>
       </c>
@@ -7188,7 +7194,7 @@
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
         <v>23</v>
       </c>
@@ -7214,7 +7220,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
         <v>24</v>
       </c>
@@ -7231,7 +7237,7 @@
         <v>-32</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
         <v>25</v>
       </c>
@@ -7254,7 +7260,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
         <v>26</v>
       </c>
@@ -7300,11 +7306,17 @@
       <c r="O17" s="3">
         <v>-6</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="3">
         <v>75</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q17" s="3">
+        <v>-38</v>
+      </c>
+      <c r="R17">
+        <v>-161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
         <v>27</v>
       </c>
@@ -7327,7 +7339,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
         <v>28</v>
       </c>
@@ -7339,7 +7351,7 @@
       </c>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
@@ -7365,7 +7377,7 @@
         <v>-41</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
         <v>30</v>
       </c>
@@ -7382,7 +7394,7 @@
         <v>-36</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
         <v>31</v>
       </c>
@@ -7413,8 +7425,14 @@
       <c r="J22" s="3">
         <v>73</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="3">
         <v>-33</v>
+      </c>
+      <c r="L22" s="3">
+        <v>58</v>
+      </c>
+      <c r="M22">
+        <v>-79</v>
       </c>
     </row>
   </sheetData>
